--- a/annotate_sample.xlsx
+++ b/annotate_sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -485,7 +485,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fourth man arraigned for alleged role in home invasion, assault on 84-year-old mlive.com, November 14, 2014 Fourth man arraigned for alleged role in home invasion, assault on 84-year-old | MLive.com JACKSON, MI – An 26-year-old Lansing man has been charged with seven felony counts for his part in a Summit Township home invasion and assault that injured an 84-year-old man. Darvin Mims {}
+          <t xml:space="preserve">I lived in Newport Beach for a long time. I remember going to any government office and seeing things like a sign that said "follow the blue line for English, follow the yellow line for Spanish" (I paraphrase). The first time I saw that was in 1977 when I first moved there. I got very angry and said loudly, "Why do we have to put up with this? English is our official language. Let the Mexicans learn it. I don't go Mexico and expect to follow a line that says for English". I got alot of dirty looks from everyone. I will never forget it. Even my wife was pissed at me.
 </t>
         </is>
       </c>
@@ -493,7 +493,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>56.73</t>
+          <t>62.98</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -505,7 +505,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">You have single handedly made the white race that much less, you could of made two beautiful white children, but you made the choice to throw your heritage down the drain and destroy a white bloodline. There is no pride in that. Congratulations on speeding up the death of your own race. So yes, you are a traitor.
+          <t xml:space="preserve">Democratyc party has issued an "order" for their members to "collect" at least 200 people which would vote for jewish scum Labus. And on they of voting, to remind those people to vote for jew. Among other things they were instructed to take names, numbers from documents. It looks like they are preparing electoral theft. Watch out for dirty jewish tricks. Now, that is against the election law, since there has to be election silence 72 hours before voting, so people can make their minds and vote. Acceptable choices are Kostunica and Seselj. ------------------------- DS je naredila svojim clanovima da naprave spiskove od po 200 ljudi koji bi glasali za Labusa. Ime, prezime, JMBG i broj licne karte. Naravno, sa svim tim podacima lako je napraviti izbornu kradju.
 </t>
         </is>
       </c>
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -525,7 +525,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">No hate crime in the charges.Perhaps his lawyer is smart enough not to push to open that can of worms... Hopefully there will not be a stacked jury of Blacks.. BTW I noticed how the camera angle was stretched way over to catch a White woman in that photograph.This was obviously intentional.They get us coming and going..
+          <t xml:space="preserve">This marriage of Red and Black (as in black being the color symbol of NS) into a situation of a commune for whites reminds one of the kibbutzim system in Israel or the primitive system of societal communism found in the ancient desert tribes of the Khoi and San people of Southern Africa. I assume both would be seen in a skeptical light. Haman have you studied the makeup of these communal societies? Do you think there would be lessons for PLE's to be drawn from them?
 </t>
         </is>
       </c>
@@ -533,11 +533,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>86.55</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -545,7 +545,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you for all of the above, as you are obviously a good person who wants to be faithful to the race. And I look forward to meeting you and many others someday in a true community, of which PLEs would be the beginning.^^^^^ Haman^^^^ Thanks for saying that. I appreciate the fact that you took the time to read my 2nd post in response to my first one. A lot of people love to judge others because of one thing they said or one idea they had. When you first meet people all you do is notice the differences but the more you get to know someone the more you notice the similarities, that's how friendships are made. BTW I did some research on PLE's. Very intelligent idea. It makes me happy to know that white nationalists are continuing to move forward for the advancement of the white race. PLE's are a great example of white unity and can be very constructive. Take care buddy, I look forward to reading more of your posts on a variety of subjects. 2508
+          <t xml:space="preserve">Why are you putting words into my mouth? At least just ask a simple question rather than a leading question..... and then answering it yourself! For the record I could careless about Islam, I am only interested in the race of the invaders not the religion. All the pakis could be good god-fearing christians but I would still want them out of Europe.
 </t>
         </is>
       </c>
@@ -553,7 +553,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -565,7 +565,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Years ago, I had a 22 magnum Davis Derringer, and at 25-30 feet I could consistenly hit in a 12 inch ring. I then bought a 38 special DD and could do almost as well. I bought a 22 LR to begin with, but the trigger just kept getting harder to pull. The 22LR was junk! I sold them all over a decade ago.
+          <t xml:space="preserve">It's headed for implosion. The Mexican government exists more on paper than in reality. Increasingly powerful narco-gangs are vying for control with the remnants of the Mexican state. For all you crybabies whining about how porous the border is right now, imagine what it'll be like when there is effectively no Mexican state.
 </t>
         </is>
       </c>
@@ -573,7 +573,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -585,7 +585,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Lane is a Warrior to our movement! He was a great man who believed in our people and fought until the day he died to make sure we knew the truth about ourselves and racial identity. David Lanes writings are a awaking to the Aryan man!. Ron Mcvan another hero whos knowledge and wisdom brings our people together to understand our ancestors. Who with David Lane created a way of life dedicated to our ancestors, our gods, our people! Wotansvolk is the only way we can create a future for White Children! As you march through fair Valhalla, Asgard's mighty hall, Number one among the Vikings, I can hear you call: "Arise you Aryan Warriors, I've shown you how to fight! You owe it to my children, To battle for the right." - David Lane
+          <t xml:space="preserve">You brainwashed little Revleft liberal. If you're going to pick a hero as your screen name why Maximilien? He, like you was an idiotic little twat that ended up getting shot when stammering........http://en.wikipedia.org/wiki/Maximil...ierre#Downfall Robespierre then attempted to secure the tribune to speak but his voice was shouted down. Robespierre soon found himself at a loss for words after one deputy called for his arrest, and another, Marc Guillaume Valdiergave, gave a mocking impression of him. When one deputy realized Robespierre's inability to respond, the man shouted, "The blood of Danton chokes him!"
 </t>
         </is>
       </c>
@@ -593,7 +593,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -605,7 +605,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Benchmade is nice for around $50+. I've also heard people praise a knife called a "Stryder" that I guess is expen$$ive. Whatever you choose, I think I'd look for a better mode of carry than the typical belt-clip( maybe an inside the waistband holster). I've lost my $20 Gerber-folder several times because of the clip-mode( I keep finding it, though). Hate to have you spend a lot of money on a knife and lose it. Btw, is that a real patch in your avatar? Looks good!
+          <t xml:space="preserve">I think it's more instinct than popularity. I'm in a similar but not so advanced situation as your family (only dating interests at this point - but we all know what that can lead to). And I find it's plain and simply natural instinct to want to prevent undesireable outsiders from coming in and literally infesting your family and its heritage. Like I'm saying - is there even a choice when it comes down to it? I think it would be only natural for someone to rise up and take a stand against any kind of personal attack/invasion on one's family, land or property. I think it's important and wonderful that we're able to reach a decision to stop standing by and finally fight for our white heritage without any kind of motivation like the above mentioned. But the sad fact is that sometimes, for many of us, it takes a traumatic event to wake us up. Either way, we awaken to where we are now. And that's progress, regardless of how it all got started.
 </t>
         </is>
       </c>
@@ -613,7 +613,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -625,7 +625,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">(dang , is nothing sacred? LOL) Holocaust Survivors Protest Israeli Bank Holocaust survivors demonstrated outside the headquarters of an Israeli bank on Tuesday, urging it to turn over unclaimed assets of Holocaust victims to destitute survivors. The demonstration came two days before Prime Minister Ariel Sharon is to travel to Poland to participate in an annual Holocaust memorial. http://sfgate.com/cgi-bin/article.cg...i151654D12.DTL
+          <t xml:space="preserve">Does it really matter? Everyone knows what it means. Our argument is good enough that we don't need to argue about semantics. By this logic American is a bogus term because it is used to refer to people from the United States and not the whole of the American continents. And those who don't like us can't be called anti-American because they have no problem with Canada or Brazil.
 </t>
         </is>
       </c>
@@ -633,7 +633,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -645,7 +645,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Call it what you want. Perhaps, but it's better than nothing. Since you're the one saying profanitys, you're no better than me. If they do business in China, they should learn Chinese, you are correct. Oh, and Ericsson is doing just fine. Remember they are in cahoots with Sony, so it's logic that they should have a work station in Asia. Because they are in Sweden? It's like if I was to go to Germany and speak Swedish with them. They would think I'm a loony. (And besides, I think some of them are Swedish-speakers.) I don't get your point there.
+          <t xml:space="preserve">You said this before but you refused to define what exactly was an ethnic Briton in the context of Ireland in the late 19 th an early 20 th century. A large portion of the upper civil service who were born in England left after the handover to the Treatyites. Similar thing happened in the case of Hong Kong. That is not "driving people" out. Unfortunately a lot of the Ascendency stayed on and still hold land that they should not have. Ulster Loyalists didnt want to submit to Irish rule because the big enough differences in both economy and culture between what became Northern Ireland and the 26 counties.
 </t>
         </is>
       </c>
@@ -653,11 +653,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>55.28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -665,7 +665,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">What I clearly meant was that we are not dangerous to the interests of our people, as the media wishes the White public to believe. To the contemporary Western managerial elite, our ideas are certainly "dangerous" because they are not only true, but also powerful and moving. Our ideas have the potential to gain enough influence to overturn their misrule.
+          <t xml:space="preserve">Excuse me "Bigtigger2", I addressed your post with respect, as I said you seem to be a Credit to your Race, in as much as you seem to be intelligent. However if you are simply here for a "Cerebral Brawl" with "White Folks" I will let you get on with it. I am sure there are people on our Forum who will oblige with a "Slagging Match". I am interested in your potential to anwser some serious questions. You have to accept the basic observation that our societies are at breaking point, $Millions wasted on people in incarceration. Millions flooding into our societies to undercut our work-force to work for low-wages. I accept your comment about "White-collar" crime, but we need to clear out the under-growth first before we get on the case of our people who are ripping us off. We will get there though.
 </t>
         </is>
       </c>
@@ -673,11 +673,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -685,7 +685,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dont dispair there are many ways of dealing with the anti social trash of society im sure you can figure out the less than legal ways but there are also legal things you can do.One thing pikeys hate is the old bill, its a sure bet they use drugs they almost all do. An anonymous call made by yourself or someone on your behalf to your local police station they have to respond
+          <t xml:space="preserve">I got into on-line chat on the site called Topix. They have an African-American board where I was enlightened to the hate of America and white people. I quickly made enemies and enjoyed debating the black nationalist there. The hate of whites is on display for all to see. I urge all to go there and see main stream hatred. Plenty of NOI and BNs to argue with.
 </t>
         </is>
       </c>
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -705,7 +705,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">NV does a great job and deserves more support from its readers than it's given. Most here can afford to give the cost of a dinner out on Saturday night and eat in instead as an example of donating without incurring pain. While the article doesn't mention it, our enemies are always chomping at the bit to use lawfare (warfare using legal means to break us financially) and your support can make the difference between having an organization to give us a White media of our own that maintains a consistent message over generations---or not. Add some of your strength to ours, it could mean the difference between White survival or our ultimate genocide.
+          <t xml:space="preserve">Whatever you are, mysteriously, you look the same as the Bulgarians and speak the same language as them. and in the previous centuries, you were called Bulgarians. And now I am supposed to believe you are descendant of those who's language you cannot even read, and who's name and symbols you do not even know the meaning of?
 </t>
         </is>
       </c>
@@ -725,7 +725,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">One more thing. On the main stream media when they report on white nationalist marches, they always only show the 10 percent dressed up fringe group. They seldom have any photos of the vast majority of the demonstrators who are clean dressed mainstream looking folks. The TV media does this to keep us looking unappealling to mainstream. Now, are we gonna do that also to ourselves!
+          <t xml:space="preserve">Rape arrest COPS were yesterday quizzing a 32-year-old over the alleged brutal rape of a teenager. The suspect was arrested on Wednesday night by cops investigating a sex attack in Lewisham High Street on April 9. The 18-year-old victim was allegedly dragged into an alleyway beside the Watchtower pub by two men, who then took turns to rape her. Detectives want to talk to a second man, 32-year-old Algerian Fatah Debeoussi, in connection with the alleged attack. Information to 020 8284 8300. http://icsouthlondon.icnetwork.co.uk...name_page.html
 </t>
         </is>
       </c>
@@ -733,11 +733,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -745,7 +745,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Here is a great opportunity to do a Montgomery Bus style boycott only reverse the tables against wilding Blacks. Start a grass roots taxi cab boycott of Black men to protest letting the Central Park Rapists off Scott free. Print up flyers and distribute to all taxi drivers not to pick up Black men as a protest to this horrible Black racist act. The best part about this plan is that the boycott is 100% guaranteed to succeed because cab drivers already boycott Black men as potential thieves, murderers - Arab drivers, Black African drivers, ethnic Whites all practice racial profiling. The boycott will be announced as a great success and we can use it any time the Blacks do some other horrible act to excuse Black criminals.
+          <t xml:space="preserve">I don't get where these "rebels" get their AK's and ammo from. Last time I checked a magazine of ammo is a fair bit of wages to your average Libyan, yet they seem happy to fire them in the air like they were fire-crackers. Maybe it is time to get my RPG out of the garage.
 </t>
         </is>
       </c>
@@ -753,7 +753,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>67.88</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -765,7 +765,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japanes civil rights are fine, also do you beleive that western women preferr the standards of living in europe or the famine in places like ethiopia? Civil rights? famine and filth in ethiopia and other places in africa is better than europe? Those western women really need some black to give them rights dont they?
+          <t xml:space="preserve">wo wo! Hold it there, no need to be that direct. We are 10% or so White, and I also find it difficult to believe we are whiter than Chile... but hey, no use to be that harsh... If this s***hole of a country is still on board is thanks to us.
 </t>
         </is>
       </c>
@@ -773,7 +773,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -785,7 +785,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have read the same thing many times....it is primarily a supply and demand equation. White children are extremely rare, while foreign, and particularly asian children, are readily available. Many of these folks can't have their own kids and originally want a white child and many even wait years for one. After years of waiting and realizing that white children are unavailable or extremely difficult to find, they settle and finally decide to go foreign - usually from asian countries.
+          <t xml:space="preserve">Don't want to throw gas on a fire, but there were probably several other men who came in and out of the motel room to strangle and use the "sub." Why the mask unless he wasn't supposed to recognize the "doms?" Wouldn't surprise me in the least if the police and media are covering up the involvement of several Hollyweirdos.
 </t>
         </is>
       </c>
@@ -793,7 +793,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -805,7 +805,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">My family refers to them as "Coleens", I've always thought it was a beautiful combination. My sisters and cousins tan in about 60 seconds, and burn after 5 minutes. They are as fair skinned as redheads.. They all had an identical spray of freckles across their noses when they were young. Along with the brown eyes, I actually tan. The sun turns my hair red, and I get very dark. My mom used to call me the little indian. Even before I was racially aware, the brown eyes bugged me. I felt like I wasn't quite as White as the rest of the family.
+          <t xml:space="preserve">In a recent Stormfront poll asking 'Who are you supporting for President' 91 Stormfront members selected George W. Bush amounting to 21% of all votes cast. The only candidate receiving a greater number of votes was Peroutka with 94. If you remove those who indicated 'not voting' the percentage of Bush supporters rises to 29%. Considering Bush's reprehensible record on many issues of central concern of most White Nationalists the figure is quite amazing indicative of a wider range of issues that concern a large percentage of forum participants.
 </t>
         </is>
       </c>
@@ -813,7 +813,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -825,7 +825,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">I dont think that femenism has anything to do with this. For instance, in Uk is really sick to see all this hapening. I was there last year and to try to talk with a British men is imposible, first of all they wouldnt talk with you if you are a White i think, and less if you are European. THe only thing that british men talk to now it is to what is not european or non white, as if it was something that to be proud of. It is the end of the civilization. I think this example can be applied to the rest of White men all over the world nowadays
+          <t xml:space="preserve">Dear 1White, why not put your faith in multi racial, multi cultural nations to test and go live in say,,, Zimbabwe. I hear there are agricultural opportunities for those who are not White racists. Perhaps you can mouth your slogans in the ear of Robert Mugabi and introduce your daughter to some of Mugabi's war veterans. Why not just hang out in East Timor - not far from Australia? They say the Muslim militias are eager to spread their culture to others (iunfortunately their culture dictates that they murder non Muslims). You're pathetic. I will take bone sucking queers who are at least against third world immigration over the likes of you and your Judiazed one worlder churchfolks. Please take your sissy views to the opposing view section. This board is for proud Whites.
 </t>
         </is>
       </c>
@@ -833,7 +833,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>55.52</t>
+          <t>64.29</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -845,7 +845,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disgusting! You have no pride whatsoever. If you had any pride, you would be just as disgusted as I am with the thought of laying with a nonwhite. "I'm proud to be white, so I'll lay with an Asian." is like saying "I love my car, I'm going to crash it into a building.". Your son isn't white... he is 50%. I'm sorry that your selfish desire made him that way. You are anti-white, and anti-Asian. Asian fetishists are sick.
+          <t xml:space="preserve">From what I see, it's only satanic music, which ranks about as high as dog sh*t with me. Take these titles for example: "the encyclopedia of serial murders" "I Like It When You Die" "Kill Women" "The Internet Is Gay" "You're Old (F#ck You)" "You're Gay" "Rich Goyette Is Gay" "Pottery's Gay" "Recycling Is Gay" "defiling the grave" "Sodomy and Lust" "Corpsegrinder" "Regurgitated Guts" "Recounts Of Disembodiment" Come on guys, this is sick.
 </t>
         </is>
       </c>
@@ -853,11 +853,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>98.07</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -865,7 +865,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are limits to your people's capabilities. You're a racially homogenous nation of 1.3 bilion people. Any homogenous population that large with an average I.Q. over 90 and a generous amount of resources at thier disposal will likely make rapid gains in a short amount of time. America proved that fifty years ago, Germany did it before them and Britain proved that for centuries. Don't forget that while you were still clutching onto your backward ideologies, white populations around the world were busy inventing such useful little things that make our lives easier...like nuclear fission or quantum physics. For your sake, I hope you keep your race homogenous and clean from jews. Once the two of you are indistinguishable, it's all over.
+          <t xml:space="preserve">I think we should ALWAYS be on guard...Someone once said that the "Price of freedom is eternal vigilance..." The Jews and Jewish Supremacism (otherwise known as Zionism) aren’t always the same thing. Some Nationalists, hate the Jews...I did for a while, but I don't now, after a great deal of soul searching…e.g. reading the thoughts of some Anti Zionist Jews like Israel Shamir and Solzhenitsyn...(plus a few recollections of a couple of Jews I’ve come in to contact with and quite liked as people….) It's ZIONIST Jews that are the problem and ARE THEY A PROBLEM !? I'm sure we all have different opinions on this and that, but for what it's worth that's mine... The threat from Jews in Britain is not a numbers one, IMO but from those, in all probability a minority, who wish to subvert our political system like Sainsbury, who gives millions to the Labour Party and at this moment are almost certainly willing on WAR CRIMINALS like Bush and Blair.... If anyone doesn't understand the role of Jews in politics (including media domination, finance, education and related "isms"), then they know nothing about politics....
 </t>
         </is>
       </c>
@@ -873,7 +873,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>74.32</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -885,7 +885,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Chechens had the backing of the US, Israel, Oligarchs, NeoCons, to attack Russia, just as the Albanians/Bosnians had to attack Europeans/Serbs, they too have attacked US. Chechen Jihadists are in Syria right now killing innocent Syrians with " western " backing. Look what two Chechen Jihadists can do, and amateurs at that. Not one of these people should be allowed in any Western country, NOT ONE. Boston Bomb Suspect In Custody After Showdown " Police have detained the surviving Boston bombing suspect after he was found in a boat in backyard following a huge manhunt that left the city virtually paralysed. " .
+          <t xml:space="preserve">I think people can get hung up on the whole "my enemy's enemy is my friend" thing. In this case just because Iran hates Isreal DOES NOT make them our ally. You'd have to be blind, stupid or a traitor to the white west to think so. They themselves declare that we are their avowed blood enemy. They think that by blowing themselves and taking some westerners with them automatically gains them a place in paradise. Have people forgotten 9/11 and the London bombings already??? Anyone that supports muslim terrorist scum just because they oppose the Zionists and forgets that they hate us equally should be publically flogged for their idiocy. If you need an example of what happens when we let the muslim maggots to close to us then you only need look at Cronulla. Anyone that actively supports muslims is a traitor to White Australia.
 </t>
         </is>
       </c>
@@ -893,11 +893,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>62.84</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -905,7 +905,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">We don't get many spiders, and they're really small when we do so I just either leave them or put them outside. My mother-in-law, however, has a big old house in the country with loads of spiders. She just leaves them, and there are spider's webs all over the house with trapped flies in them. It keeps the flies under control but freaks some people out. It's like something out of the Adam's family.
+          <t xml:space="preserve">You know the OP's predecessors should have just said no when the Holland based Jewish slave traders arrived in the West coast four hundred years ago... instead they got shown beads... saw awlla det bling and went... "I wonna gibs me summa dat... wotcha want for dem blings cracka?" "Oi vey vee are lookink for some slaves to sell to de goy" "Dems bee my bruvvas? Shore ting boss... I gettsya summa blackass to enslave en sheet... juss gibbs me summa dat bling fodda b***tches imma crib so I can gets mudeek off onna dems" "Oi I got all de bling you vont my friend... just help a man out veeth some product and vee can shake hends and I give you vot you vont and I get vot I vont... and everybody is heppy...do vee hef a deal?" "Shore shore.. juss gimme summa en I'll getsyuh as many n**ggazz as yo boat can load..." And the rest unfortunately is history...
 </t>
         </is>
       </c>
@@ -913,7 +913,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>99.75</t>
+          <t>97.01</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -925,7 +925,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">This makes my blood boil. These Muslim ******s have to be sent back one by one, they should shoot to stop and then arrest them after medical treatment and deportation. If any of their family is caught doing violent crimes too then everyone of them should be deported. In Sweden there has to be a law, if you are not from a European country, you can't get citizenship. If you brake the law, you get deported, simple as that.
+          <t xml:space="preserve">And listening to her tell us how to think or what she thinks is wrong with how we speak is better than the media actually covering whats happening? They air her vs airing actual new &amp; that this truly is Islamic terrorists placing bombs in our nation. But that would ruin her agenda. _______________________________________________ WAKE-UP, NOW STAND-UP, &amp; FIGHT TEXAS!!!
 </t>
         </is>
       </c>
@@ -933,11 +933,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>75.44</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -945,7 +945,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">what's the barbarity you're referring to? here we put people in prison - a living death - for a long, long time bcz we don't like the vegetables they consume, or the way they consume them, or whatever. barbarian is as barbarian does. who was the guy talked about the beam in your own eye, again? (and no, 'beam' here doesn't mean 'gleam', it means a largish chunk of lumber.)
+          <t xml:space="preserve">they want to feel more alive by risking death 1,000 times more so than had they just chosen a solid up-right white sexual partner. If they are that hard up for action why don't they go ahead and offer their services to the nearest male mongrel dog. This might be good for burning though!
 </t>
         </is>
       </c>
@@ -953,11 +953,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>54.02</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -965,7 +965,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's not really a problem at my school because we have so few non-Whites. Four Blacks and 8 Asians and a couple of non-White Hispanics. That's it. What I see are more wiggers and they just look retarded. Sometimes I'll see mixed couples in Wal-Mart, a Black guy as black and ugly as they come with a fat White woman with blond hair for instance, and it makes me sick. Then at Shaw's supermarket, I sometimes see a White liberal with a couple of nappy headed little Black bundles of ugly and dull looking waifs and I get mad. I suspect they're orphans from some God awful African nightmare place like Dafur. How trendy? Like there's no White kids right here in our country who need a home, family and chance at life. I actually think such people are mentally disordered.
+          <t xml:space="preserve">Okay, they think that women are dying at high rates because of... probably men? I don't know, I can't load the article because I'm overdrawn on my White Privilege and can't afford a new laptop just yet. If I'm wrong about the cause of death among women there, then I am sorry. I would guess that they are angry at the state, seeing as the state keeps them enslaved to it. That's what I would do, only with my clothes on. But their types usually love the state, so they likely aren't marching against it. I'm going to go with men. It's men's fault. But the good news is it's not likely white men that they're marching against seeing as most of them are pretty brown, so all the fellas on this site are off the hook - just this one time, though.
 </t>
         </is>
       </c>
@@ -973,11 +973,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -985,7 +985,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">CDs, usually. Currently have something my sister used to have called "Pure Moods", which I found in a second-hand shop. Before that it was usally a Celtic music CD, also from a second-hand shop. If you could live in any country in the world, would be be the one you're in, or a different one?
+          <t xml:space="preserve">We need a White Aryan uprising. I don't even care if it's a violent one or not, we might not even be able to resolve this peacefully anymore. Muslims aren't going to leave this country if we ask nicely are they? Islam is worse than the plague. If people don't wake up fast, this country is gone, and so is democracy. The Islamic Republic of Britain - sound good to anyone?
 </t>
         </is>
       </c>
@@ -993,11 +993,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>69.89</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">[quote=elizabeth johnson;5777171] I noticed something interesting about this article. All of these women are of childbearing age, yet none of them mentions having any children. In fact, one of them says that with all of the bad things in the world, she does not want to bring any into this world. [quote] Yeah, that caught my attention a while back when this article first came out. It gave me the impression that the couples were living their fetishes. Lucky them, maybe, but the lack of children resulting from these unions is a fatal defect. .
+          <t xml:space="preserve">While you're right about ragheads, euthanasia solution is the most frequently stolen "medication" from verterinary clinics, after Ketaset. Or it used to be, anyway. I know Ketaset is stolen to get high on, but I don't why euthanasia solution is stolen. I really think I'm better off not knowing some things.
 </t>
         </is>
       </c>
@@ -1013,11 +1013,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>99.68</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">If it was your daugther you wouldnt be saying she done her time youd want her scalp lets be realistic here and stop sticking up for a child rapist and killer, she pimped her own sister to her husband for god sakes. Oh I forgot blame the Jews for that aswell.
+          <t xml:space="preserve">I say be a bit open minded. I new a great WN carpenter (the original 2 year old model for the original Missing - a Future for White Children") who managed to date liberal, career White women types that just weren't into traditional marriage. There was no way any of these women were going to "stand by any White man". The results were he managed to concieve 4 very beautiful, healthy White children and the women and the women's parents were very pleased to get these charming White babies. Sure, it is best to go the traditional family route, but consider other options. The world loves cute, healthy, bright Whtie babies. THink of the joys another Maria Sharapova will bring to the world.
 </t>
         </is>
       </c>
@@ -1033,11 +1033,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Question: Don't you know there are good black people? There are good people in every race, bad ones too. Answer: I believe in the survival of the White race. In order to get that, we need our own exclusive living space. To have that, non-Whites must be physically removed from our living space.
+          <t xml:space="preserve">It would be hugely symbolic, supportive of animal minorities and their users, if the next leader of the Liberal Democrats was a Gerbil. Like the respected Pygmy citizens of the kalahari desert who all have the potential to migrate 'West' to become, lets say, British-Pygmies; a Gerbil shares with that ethnic minority an host of attributes perceived as highly valued in a multicultural society including; ...a negligible command of the English language, little understanding of Britain's humour, its heritage or of western work ethics. A Gerbil would make an admirably bland leader of the middle-of-the-road Liberal Democratic Party? the Party that seeks to be all things for all carbon-based life forms and for all voters. And unlike the present 'Gerbil' leading the Liberal Democratic Party; "real Gerbils dont drink Whiskey". There you have it then, a combined campaign slogan and a moral epigram that its current leader may do well to learn from. :drunk
 </t>
         </is>
       </c>
@@ -1053,11 +1053,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>78.24</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think it will blow up in their faces. Nothing lasts forever. If Jews were able to achieve some world domination they would have done it centuries ago. They keep trying, causing problems, and get exposed, regroup and try again. They operate against Nature and it just cannot last. They have already revealed themselves in full retard mode and lost media control--so important to their mode of operation. People don't trust the media--especially young people. A few cities are nations may implode but they will become no go areas and eventually be targets for clean up in a time when the diversity philosophy will lose its power. Already happening.
+          <t xml:space="preserve">Oh course they are. Otherwise how come only WHITES are the only ones who ever get called a racist. Just try calling a black a racist and watch how people look all perplexed and confused and I have even BEEN TOLD that black people can't be racist, ONLY white people can be racist. Since so many people are brainwashed into believing that ONLY white people are racist, if you are anti-racist you are anti-white.
 </t>
         </is>
       </c>
@@ -1073,11 +1073,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>55.61</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">oh my god that is so true... I'm laughing but it's humiliating as hell. There's nobody I hate more than those people. Kanye West... dear god... Pretty sure he's the one that made a video featuring himself carrying around the severed head of a white woman ("Monster", idk), and conservatives can't stop worshipping the guy. If they love homicidal negroes so much why don't they just move to Africa. ^^Based Trump supporter^^ Christ I hate conservatives... This forum desperately needs a vomit icon. .
+          <t xml:space="preserve">Geez The Denisovan humanoid theorem and especially the H. Floresiensis (found on the island Flores) are still open to much discussion on accuracy and correct interpretation of the finds to be classified as distinct subspecies of Homo yet (the postulations for instance suggest it was an evolved erectus)... the theorems advanced especially amongst the people who are in favour of the H. Floresiensis idea suggest that although it had a hugely smaller brain size than sapiens it managed to build rafts and had language before sapiens... Denisovan is based on ONE finger bone and ONE DNA test... For the moment I'd be very careful about accepting the existence of those two species as distinctly different species of sapiens until much more data is known about both...
 </t>
         </is>
       </c>
@@ -1093,7 +1093,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>56.73</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1105,7 +1105,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peace isn't possible in white lands until pompous negroes are banned from white man's thinking jobs like college professor. That will suffice until they all are deported to Liberia to enrich that country where no white man is present to impede their natural superiority. Yep, no peace for us until every last one of them is gone. If blacks think they are so tired of US....if they only could imagine and feel, really feel, how tired we are of their ape like bs. I bet they'd all say upon realizing how WE feel...."DAYUMMM!!!!"
+          <t xml:space="preserve">You have single handedly made the white race that much less, you could of made two beautiful white children, but you made the choice to throw your heritage down the drain and destroy a white bloodline. There is no pride in that. Congratulations on speeding up the death of your own race. So yes, you are a traitor.
 </t>
         </is>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">This little incident is highly indicative that Hillary is a very unhappy person, and as such she envies and despises, to an extreme, anyone perceived to be even a little bit happier than she. The "good morning" greeting made Hillary sense that the Secret Service agent was happier than she, so she lashed out with a vicious expletive. Being President will not make a person like Hillary happy. Nothing will. As the saying goes: "The world is not enough!" (BTW, I think that Hillary is demon-possessed.)
+          <t xml:space="preserve">A friendly pub where you can safely hold meetings without the use of cover names, redirection points or fear of last minute cancellations is a godsend. ALL members and supporters in the area should make a point of patronising this place AND telling the landlord that the reason they are drinking there is because of his support for the party. Even teetotallers can eat there and have a soft drink.
 </t>
         </is>
       </c>
@@ -1133,7 +1133,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>95.91</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1145,7 +1145,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">I believe those were Jewish Czechs that Hitler ordered executed. Stalin murdered far more of his own people but yet little is said of this. Hitler was a flawed but great man. He took a country that was demoralized and humilated after WWI and within 10 years built it up again to a great military might. He saved Germany from Communism, that Jewish cancer. Would you rather had Hitler sit back powerless while the jews destroyed and decayed his beloved Deuschtland ? Hitler had balls in the sense that he was one of the few Gentile leaders who stood up to the Jews. Because the Jews control my country and my country kisses Israel's ass. We need a Hitler over here to wipe all the filth away.
+          <t xml:space="preserve">Vulnerable families bear the brunt of Norway's crackdown on asylum seekers | Sune Engel Rasmussen | Global development | The Guardian Norway knows what is really important. Non-White criminals are vile but it is the next generation of moslems that we must absolutely be ridden of. So, they grabbed a family with a birth rate above that of the average Norwegian family and got rid of them. According to these news, they deported 649 brats last year.
 </t>
         </is>
       </c>
@@ -1153,11 +1153,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">My point exactly. Bi-Polars are not retards with no sense of right and wrong. Stephen Fry should have tried to have him bailed for being a psychopath. They are the ones who cannot work out right and wrong. I say let the Chinese shoot him. They have enough trouble at the moment with muslims, without Fry trying to muddy the waters, with this Paki skag mule.
+          <t xml:space="preserve">Paul Fromm ... For Our People - SHOW 5 [ame="http://www.youtube.com/watch?v=AIjZ1nRAlo4"]YouTube - Paul Fromm ... For Our People - SHOW 5[/ame] For Our People. A weekly show by famous Canadian Freedom Activist Paul Fromm. This weeks show is: The Story of Helmut Oberlander Helmut Oberlander has been the victim of a campaign of vengeance against elderly German and East Europeans since the end of the second world war. Mr. Oberlander has been accused of being a nazi war criminal, with very flimsy evidence. This is Helmut Oberlander's story. Watch all of Paul Fromm's Shows http://www.youtube.com/user/CanadaFirst2007
 </t>
         </is>
       </c>
@@ -1173,7 +1173,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1185,7 +1185,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thanks for the link, that one I will definitely purchase. I know a thing or two about surviving. I can hide in the swamps to survive, and I can hide a mess of some good ole butt stomping, straight shooting white folks with me. That's how you can you tell the true locals from the new arrivals around here. We'll go play out on the marshes or in the deep swamp, and they won't. It's way to easy to get lost or turned around out there if you don't know what you're doing. I suspect there are people in every state that know how to live in undesirable areas others are afraid to venture into. Once again, thanks for the link.
+          <t xml:space="preserve">Are you sure its really country? You might consider it out in the country when in reality there is a factory and city right nearby..... Kind of like the place I live in now. I'm getting some land out in the country, which is going at about the rate of $2,000-$2,500 an acre or half acre.
 </t>
         </is>
       </c>
@@ -1193,7 +1193,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1205,7 +1205,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">There is a good old fashinoned saying : "To become upset of you I must first value your opinion .." And I sure won't be upset at an internet stalking pussy who wouldn't stand a chance to me if a fight real life came about .... A stalking flamer who constantly picks fights with people who and all can do is throwing away unfounded mindless flaming surely Stormfront doesn't need .... But if you want to continue on stinking up my threads , then so be it .. Keep me amused at your mindlessness .. Awww , is old Kinny scared now ? You'll be this small soon .. You know that harrassing and stalking people here is against the rules ... Fading Light today , Don Black tomorrow ..
+          <t xml:space="preserve">The audience applause in good humour when he says he sees more Indians in The UK than in India. I can't remember the last time I was allowed to make such a comment in jest. He meant it to be funny - fair enough. Pakis, Indians, Blacks - their habit of moving to the most prosperous countries is funny; and we should all be allowed to joke about it!
 </t>
         </is>
       </c>
@@ -1213,7 +1213,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1225,7 +1225,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is your favorite thing to do? Make love with a beautiful Aryan woman. What is your favorite food? Grilled lamb ribs What is your favorite book? My awakening What is your favorite candy bar? Bon Bon Bum What is your favorite cookie? Chocolate Chip Cookies What is your favorite sport? Soccer What is your favorite kind of music? I think soft rock, or anything that's easy listening. What is your favorite song? Maybe Mother by Era lol. What place you would like to know about? Germany before WW1 What place would you like to visit? Iceland What is your favorite thing about yourself? Being White. What musical instruments can you play? Some Guitar What is your favorite type of art? Architecture What would you like to teach others about? Respect, dignity, pride, loving your own. What are three adjectives which describe you? Proud, brave, gentleman When you have an hour of free time, what do you like to do? Think What is the strangest thing you ever did? Had an affair with my uncle's ex-wife What is the strangest food you ever ate? Boiled dove
+          <t xml:space="preserve">All this proves is that the government cannot govern. The late Sam Francis was right: anarcho-tyranny rules. If we had a real government, the operators of the Red Hen that threw out Sarah Sanders would be chained up in a dungeon somewhere handcuffed to Peter Fonda, and in the company of the rogue government of Charlottesville, and the entire State government of California, just to name a few. All of the foregoing constitute Bolshevik conspiracies which are a mortal danger to the American public. From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -1233,7 +1233,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1245,7 +1245,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">There's no business like show business like no business I know Everything about it is appealing, everything that traffic will allow... Smallville Actress Busted For Helping To Run Sex Slavery Ring “Smallville” Actress Busted For Helping To Run Sex Slavery Ring – Occidental Dissent ‘Smallville’ actress Allison Mack pleads not guilty to sex trafficking | Page Six Number 29 from the list: Hebrew Hotties - IMDb No one knows what the nose knows--speak beak! Die judennase ist an ihrer Spitze gebogen. Sie sieht aus wie ein Sechser From Waaay Out West, --HLM
+          <t xml:space="preserve">Australia has now been admitted to the "ASIA League" for soccer - Lebanon is in the ASIA League also...........can't wait for the home and away games, i can imagine what a great advertisement they'll be for multiculturalism I don't think Australian soccer will be much more multicultural than Rugby League/Union. Apart from the bad taste of been in the "asian" qualifying group the Australian team will be massively white compared to the arab/sub continent and asian teams we play against.
 </t>
         </is>
       </c>
@@ -1253,7 +1253,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>62.04</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1265,7 +1265,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">It seems as though the Jews complain that "KKHHizzbullah" are financed by Iran. Therefore Iran is a "Terrorrist state". Who finances the "Zionist Regime" in Palestine? Is this not why we have become targets of the dispossesed Arabs? The Arabs said that if the "West" failed to take their concerns seriously they would bring the War to the streets of the "West". The "west" is reaping the seeds it sowed when it decided to support the injustice known as "Israel". This is precisely where Judaic Philosophy fails. You cannot abuse people and hope the problem will simply be brushed under the carpet because Jews call themselves superior. If the Jews keep on, full-steam ahead destroying the Cultures of the Middle-East they will end up with another "Arse Kicking". Time for the Jews to stop and think for a change, instead of relying on their Dusty old Tomes, the Talmud has brought them nothing but bad luck. JU88.
+          <t xml:space="preserve">If der fuehrer had won the war,had annihilated the mongrols and slavs in the east,had rid Central and Eastern Europe of the accursed jews,there would had been no cold war between Russia and the U.S. and most importantly the power of world jewry would have collapsed,though no doubt they would have remained influential in England and America. Of course France would have become German territory and there is every reason to believe that the Third Reich would have,if not straightway after its triump in WWII then at least inevitably set about to engage Britain and America in a new and protracted war through concentrated efforts by air and by sea,a full-blown invasion whereby to annex these countries as colonial possessions in the West,thats if one accepts that A.Hitler truly sought to establish a world empire ... had this been the case,there would be no modren concern over Spanish-speaking aliens,and the spooks and jews would themselves serve NO threat at all. KB
 </t>
         </is>
       </c>
@@ -1273,11 +1273,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>80.82</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's true the Muslims will rise and the EU will betray us, but we can't flee from our Europa! Europa is ours! Not for muslims, not for wogs, not for the others! Europa is only for whites! We must fight and win against our enemies, even if we will be very few in fightings!
+          <t xml:space="preserve">Well, I am white too and I was never beaten by mestizos. Then again, I am of Spanish ancestry, with Spanish surnames, like the mestizos, so that actually helped me. But even though I am of the "dark" type of white guy, I still am recognized as white and you can make point out from a a crowd of mestizos. But are you sure they were mestizos? Remember, many Mexican criollos (Whites of pure Spanish settlers ancestry born in Mexico) believe they are mestizo, thanks to the monster known as media machine.
 </t>
         </is>
       </c>
@@ -1293,11 +1293,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>66.52</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">He was a Jew from Georgia. Communism was created by a Jew, perpetuated by Jews, so he just took the torch. OP, you conveniently forget the Rwandan genocide and the 10s of thousands of Americans who are gunned down in their homes and streets every year by your beloved "African Americans".
+          <t xml:space="preserve">That's a reasonable point of view but when you talk to, for example a tradesman who employs apprentices they'll tell you that generally 15 is too young and most won't employ anyone under 18 simply because they can't drive. An electrician told me recently that nowadays HSC is the minimum for that trade and he said that now applicants have to be brilliant at maths and science, not just competent. At any rate the very young apprentices are just transferred from dependence on the education to dependence on their employer.
 </t>
         </is>
       </c>
@@ -1313,11 +1313,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>99.32</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Banking would have came along with out the Jews. The only problem with banking is the usury the Jews apply it with. Banking is something the White race can do without screwing people over. The Jews just used it for a terrible purpose. It's not evil itself. It's like a gun, it's only dangerous as the person behind it.
+          <t xml:space="preserve">I think that's really it in addition, of course, to the money factor. Hockey's also very fast-paced. There aren't really any sports that come close to how fast it is. In baseball and football, there is a stop between every play. Basketball moves faster but it's still just... there's so much scoring that there aren't any real moments of very fast play. Plus, it's just a bunch of blacks running around and jumping. Breathe on another player? Foul. What a joke.
 </t>
         </is>
       </c>
@@ -1333,7 +1333,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1345,7 +1345,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm pretty sure she's on right now. She just blocked me from making comments for a comment I made about ten minutes ago. She wants to shut us up as much as she can, which is why she made private the other video. I want to post my comment here so she can see it with her SF account, since she can't shut me up here and since an attention whore like her will not shy away from even here as long as we keep talking about her: I promised myself I'd stay away from commenting at youtube, but I figured I'd just make one more addressed to her. And she read it! I've tried, but like the lemming she is, a individual attempt at conversion will not work, it would take a societal change to sway her.
+          <t xml:space="preserve">I have read (on humanphenotypes.com, which I think you gave me the link to ) That the people on the South of the Arabian penninsula have admixed with people from the earlier wave of human migration out of Africa, which gave rise to the Australoids/Oceanians/Tibetens/Ainu, and to much of the DNA in the Dravidians. Apparently some of the people from this first wave out of Africa stayed in Arabia while others went on to India, Australia, and Northeast Asia. There they mixed with Caucasians and it is reportedly apparent from phenotype in South Arabia. They're not stupid, these admixed people from the (granted non-representative samples) I've seen. That earlier group seems to have given rise to people across the spectrum, from the intelligent Ainu and Tibetans to the Australoids, who have a lower average IQ than even subsaharans (in the 60s).
 </t>
         </is>
       </c>
@@ -1353,7 +1353,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1365,7 +1365,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Each year 30,000 American children disappear without a trace. They are never seen again. No bodies are found. Where do 30,000 children go? That is 300,000 in a ten year period. The FBI will not keep and report the stats. The media doesn't report it. Why? Editin in: Been checking the stats. The stats that exist, anyway. The FBI does NOT keep stats. I can't figure out how the 30,000 adds up. The only way it could possibly add up that high is if runaways that are never found are included.
+          <t xml:space="preserve">well i talk to people on a personal level about things that may be bothering them and relate it to race or beliefs. after doing this a few times they begin to see my point. they see your views alot easier if you point out things that they see everyday and explain why those things are put into you views. if they have kids make it family related, if they lost a job make it job related ect ect ect...where do you live? there are in-the-closter white nationalists everywhere, you just need to become creative about finding them. and as for your friend out right making racial slurs, he may find sombody who does it with him all the sudden, because they were waiting for somebody else to. draw or print of the computer a cool design with a swastika in it, show it to some people and see their reaction panzer boots are great for this! good luck from whitevirgo 1488 brittany
 </t>
         </is>
       </c>
@@ -1373,7 +1373,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1385,7 +1385,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">The tactical advantage in the kind of war that would be waged would not be on our side regardless. Why? We would be outnumbered. Many and I mean many examples of low tech beating high tech exist, especially in a guerrilla type situation. Wars like that are not won in blood, they are won by accounts. I'm not going to go any further than that into strategy since this site is heavily monitored.
+          <t xml:space="preserve">Afro-Carribean flasher struck again today, in front of a group of schoolchildren in Longton, Stoke-on-Trent according to local radio report. Previous incidents last week included one in Newcastle Lane, Harpfields at around 8.30 in the morning according to the Staffordshire Sentinel - this is the location of a high school and is very close to a primary school - this sicko appears to be targetting children.
 </t>
         </is>
       </c>
@@ -1393,11 +1393,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>99.38</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't think porn is really what we had in mind when talking about access to books in a PLE. I think the question of allowing porn in a PLE is for the PLE community as a whole to decide. Just as Haman says that there are many issues that a PLE community would develop an overal opinion about - porn would be one of those things. Personally, I don't want porn in a PLE community. But I absolutely INSIST upon full access to books of varying viewpoints on all kinds of different matters. As an avid reader with an intellectual bent, this is vitally important to the testing and development of ideas. That is what we're talking about, I believe, not porn.
+          <t xml:space="preserve">Some one ain't that bright or they get paid to post and play stupid. Right on schedule, minutes after posting, a full time SF monitor. Main goal, 9/11. They want the first responders as witnesses dead, it is that simple. Gov has done nothing for them and the JEWSMEDIA covers for the crimes against them. This guy is a long time troll, have a look. https://www.stormfront.org/forum/show...52#post7238952 " You call half truths, debunked myths, incessant repeating of lies and falsehoods " https://www.stormfront.org/forum/show...&amp;postcount=302 And he defends the Jews despite evidence and reporting from Jew sources. JEW ORGAN TRADE https://www.stormfront.org/forum/show...2&amp;postcount=27 https://www.stormfront.org/forum/show...4&amp;postcount=28 https://www.stormfront.org/forum/show...4&amp;postcount=30
 </t>
         </is>
       </c>
@@ -1413,7 +1413,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>77.82</t>
+          <t>85.67</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1425,7 +1425,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">[QUOTE=LION OF ZION][B]Herr junkers88 or I guess Fraulin junkers88 (since you have been working with a very religious Jewish woman).Are you sure you were not manipulated to play to the hands of the Jews, you are doing excellent job recently by confronting the towel heads on other threads. QUOTE] Mr. Zion, The Jew I worked with was a "New Lubba" her son was more "Hardcore" than her. When he used to drop by he would not have any "Contact" with the "Goy". Europe for White Culture, not Jew Culture, not Black Culture.
+          <t xml:space="preserve">Absolutely correct. Since most of the men will be killed off in a stupid fratricidal war, beautiful Ukrainian women with no real understanding of what Negroes are, will be easy prey for those Africans. I makes me sick to think about how the rotton Jews are using the patriotic instincts of the Ukrainians for their own ends.
 </t>
         </is>
       </c>
@@ -1433,11 +1433,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
@@ -1445,7 +1445,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very foolish of them to use a term like that. Do they really think insulting White people will make them listen? This type of thing is only going to push more Whites to our cause! And by the way we all know who is the most fragile here, it's the jews. Any criticism of them and they begin to cry! Jew Fragility!
+          <t xml:space="preserve">The organization, which plans to offer training classes in Dallas, San Antonio, and Tucson, Ariz., in the next few weeks, is working to expand its giveaways to 15 cities by the end of the year, including Chicago and New York. Read more: Free gun initiative begins in Houston neighborhood | Fox News
 </t>
         </is>
       </c>
@@ -1453,11 +1453,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>98.88</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
@@ -1465,7 +1465,7 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">If only. Muslims have promised in Britain, that if the "West" keeps on supporting the jewish occupation of Palestine, they will wreck our economies and drive us into the ground, using our own laws. Who in America would guess at the impact ZOG/US policy is having on Europe. We have to keep towing the line, lest we are described as "Nazi" ...again. If Americans have so much time for war, they should help us throw the muslims out of europe, and leave the jews to the jackals.
+          <t xml:space="preserve">That's exactly what my point was in my description. Having lived long enough in an urban setting the double standards get to a boiling point of no return. Now being in a rural setting, effective communication strategies are different. Then there's the exceptional ones that are just as concerned, angered and disgusted in what's going on.
 </t>
         </is>
       </c>
@@ -1473,7 +1473,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1485,7 +1485,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Just because they're both about race does not mean the theme of each poem is the same. The one is more relevant to multi-culturalism and the confusion it wreaks because we cannot truly understand each other whilst the other is more abou the fact that the white race is the one race who has never really learned to hate but who is, slowly and silently learning. I would never say that the one poem carries the message better than the other because their messages are different. Kipling's rhyme scheme is indeed simple and that's why it's dynamic and easy to understand. Of course nobody comes even remotely close to Shakespeare but we're not comparing poets here are we. Why are we even bringing up others like Shelly, Keats, Byron etc?
+          <t xml:space="preserve">Marcel Rodden is an admitted Stalinist! This hypocrite has the nerve to condemn his opponents for bigotry when he admits to supporting a communist dictator who practiced ethnic cleansing. Stalin deported the entire Crimean Tatar population because a minority of them fought alongside the Germans in WWII; Marcel does not have a problem with this though folks! Apparently ethnic cleansing is perfectly acceptable when HIS COMMUNIST heroes commit the act in question. Marcel Rodden is an ideological fraud and an intellectual coward; I want everyone to examine the following thread: FrankW vs: Marcel Rodden I have challenged this intellectual coward to face me in a debate on 'The Phora' forum and guess what folks; he never had the guts to show up. Rodden is afraid to face me in a debate where he has to defend his hypocritical and bankrupt ideological beliefs point for point folks... People like Rodden are not worth our time; if anything Marcel Rodden should thank Paul Fromm for giving him the attention that he does not deserve. Oh and Marcel; my debate challenge still stands...coward.
 </t>
         </is>
       </c>
@@ -1493,7 +1493,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1505,7 +1505,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Note the profane T-shirt worn by Jew enabler, or at least reality challenged, suicidally inclined white libtard. I believe California state is irreversibly lost. I await the time of reckoning, when self-hating white libtards, including judicial tyrants, finally receive the taste of their medicine, including my Obama-voting liberal, race-traiting sister. (We don't talk anymore)
+          <t xml:space="preserve">You may be what I have suspected for some time on this site, an example of a government plant to pollute and minipulate the way people think on this site.There is nothing right about racial erasing(mixing) and there never will be. As for the phrase"American",I do not apply that to myself and I have that flag "X" ed on my the back of my jacket in large text. If your just a liberal, we(racists) do not agree with you and will keep your way of thinking away from our children,since whites are a choosen people and not to be adulterated as the bible states about staying away from other races.If you are a plant,you are a poisonous serpent to our people's mind's and the future of white societies and you should just leave this site now.:attack
 </t>
         </is>
       </c>
@@ -1513,11 +1513,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>70.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
@@ -1525,7 +1525,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">What would you have us do? Round up all negro kids at birth and put them behind bars? We (well, most of us, atleast I had thought so...) are for a white nation. Not blind hatred. We will get nowhere fast with people spouting out hateful and heartless nonsense. I said nothing about negroes being innocent. Children are innocent. If you cannot see that, then go f'ing hang yourself. No child deserves this. White or black. Race should not matter when it comes to the life of an innocent. This child did not ask to be born, nor has he asked for a death sentence, and that's exactly what he has been givin.
+          <t xml:space="preserve">CDs, usually. Currently have something my sister used to have called "Pure Moods", which I found in a second-hand shop. Before that it was usally a Celtic music CD, also from a second-hand shop. If you could live in any country in the world, would be be the one you're in, or a different one?
 </t>
         </is>
       </c>
@@ -1533,11 +1533,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>56.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
@@ -1545,7 +1545,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">[email protected] Welcome to this forum and to Stormfront. Your post singles out individuals rather than ideas. Not good! I believe that the Klan has a serious image problem, we know why that is. The Jews have made every movie and TV show for the last five or six decades. Instead of showing the Klan protecting a disarmed and occupied conquered South from the ravages of Jew carpetbaggers and roving gangs of freed Negroes the media has created a caricature that the general public has accepted. Just the way it is. The same goes for all things associated with Hitler and Nazi's.
+          <t xml:space="preserve">To be honest i don't have that many east european bands. Something about them just makes me lose interest after a few songs. The bands you mentioned are known to me by name only. I must admit though that most east european groups can handle their instruments very well......often better than their western counterparts. I can't recall right now if i have serbian bands in my cd collection. Is Vlajka a serbian band? Can't remember....hungarian? Some eastern euro's i like are Honor,Buldok and Titkolt Ellenallas,Excalibur,Archivum. My insatiable desire for WN music though will make sure that the bands you mentioned will surely cross my path someday. There are so many releases these days however.....
 </t>
         </is>
       </c>
@@ -1553,7 +1553,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1565,7 +1565,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Since it's extremely unlikely that most college students will pause for a "May I?" before each intimate act, or stop having sex under the influence, the real outcome of the new campus policies will be to make virtually every sexually active male student vulnerable to a sexual offense charge if his partner retroactively reinterprets the experience as nonconsensual. Aside from the obvious unfairness to men, this is hardly a prescription for healthy interaction between men and women-or for basic respect for justice. Guilty Until Proven Innocent - Reason.com
+          <t xml:space="preserve">Ukrainian Dance - Povzunec - The Crawler This is an excerpt from the "Birth of the Dance" - famous movie about Virsky Ukrainian dance company, filmed when Pavlo Virsky was alive. YTuber Description: It's a farcical dance, "povzunets" means "the crawler". Those guys are supposedly dead drunk and cannot stand straight, so their wives abandoned them for that. Now, they are crawling around simulating the penitence and singing "Hey, my lovely girl, don't be sad! Hey, my dear, do return!". Meaning that even a dead drunk Kozak is a great man anyhow. http://www.wntube.net/play.php?vid=1867 [ame="http://www.youtube.com/watch?v=wBK_8cOrtUE&amp;feature=channel_page"]YouTube - Povzunec - Ukrainian dance[/ame] Ukrainian Dance - Pro Shcho Verba Plache: http://www.wntube.net/play.php?vid=1869 [ame="http://www.youtube.com/watch?v=fyaqmY7RbX0&amp;feature=channel_page"]YouTube - "Pro shcho Verba Plache" - Ukrainian dance[/ame]
 </t>
         </is>
       </c>
@@ -1573,7 +1573,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1585,7 +1585,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">The poster I responded to asked about the slogan. I answered. Nothing more. I didn't say and I never said anywhere, a slogan would win the war on white people. Actually, the only thing that will win the war is having white babies. We need to reproduce, or nothing we say or do will matter.
+          <t xml:space="preserve">Not terribly persuasive on Dyson's part, I'm afraid. He's equivocating by saying the predictive power of our models isn't that great. We know that: it's the nature of the beast. We can't do controlled experiments as we do in mechanics or electrodynamics. We can't do repeatable experiments. I don't have a dog in this fight: it's my conviction that even if humans knew unequivocally that human-induced climate change was going to make human existence problematic (if not wipe it out), they'd still do nothing -- analogous to a chain smoker who knows his odds of cancer and bronchitis are higher.
 </t>
         </is>
       </c>
@@ -1593,7 +1593,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1605,7 +1605,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Anyone on this site who is not willing to shout (White Power) should take a long hard look and see if they are truly a White Nationalist?" - White07Wulf. And were one to "shout (White Power)" ... be honest ... would you hear them? ... being a true White Nationalist means much more than simply shouting slogans ... besides,Judas travelled with Jesus, ... to any outsider he likely appeared to be a disciple and close friend of Jesus ... but we all know how it turned out in the end ... which brings me to another fundamental rule regarding those of us that are genuine ... we are careful of those overly anxious to give us a kiss. KB
+          <t xml:space="preserve">yes basically. Although the idea is to change the worlds opinions on whites and so called "white pride". It must be seen in a different light. We have to be able to come out in public and say "Yes I am a WN, and I am prideful". Then these people would draw back on "this white woodstock" from coverage or information regarding it, than they would be completely ok with it, and they might even ask more about it. Perhaps even become WN's themselves. People draw on information from "experiences". If you cannot persuade people to think a certain way at least you can show pride and or even make the whole thing clearer to them. They've already been taught in school and in the news about NOT being prideful of being white. And theyre ashamed and they dont understand it. i think to make it a bigger success the NAZI symbol should not be used in ANY WAY as it would discourage germans who are prideful of being white from going. Unless you have a better idea
 </t>
         </is>
       </c>
@@ -1613,7 +1613,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1625,7 +1625,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">You mean, like the Vietnamese terror campaign that was unleashed on major US cities after we pulled out of Saigon? With the exception of course of the depleted uranium sprayed all over Iraq, it's less of a mess than Dresden, but I don't recall Halliburton rebuilding it after that war. Do you have a less specious argument for recklessly continuing stupidity? I'm all ears.
+          <t xml:space="preserve">When I say, SHTF, I mean Total Economic Collapse Social Collapse Governmental Collapse No rulership or enforced authority Absence of government; a state of lawlessness due to the absence or inefficiency of the supreme power; political disorder. Absence or non-recognition of authority and order in any given sphere. Anarchy Independent from rule or authority Food Shortages Etc. Shortages So, how many of you feel this will occur this year?
 </t>
         </is>
       </c>
@@ -1633,7 +1633,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1645,7 +1645,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why is the discussion veering towards Nazi Germany? And if anyone believes that because I condemn a Jew in a party that I am a Nazi, you would do well to mind your words. Your beginning to behave like a coloured gentlemen who goes by the name of Trevor. Anyone who has seen my posts knows I am not a fan of Nazi Germany, nor Adolf Hitler. They also know I am not a national socialist. What I am is English/White and proud. I would condemn Mrs Richardson if she was Jew, black, Asian, or Cherokee. She is not British, or European and she has no business in a party that, supposedly, fights for the survival of the white race in this country.
+          <t xml:space="preserve">The speed limiter is probably not relevant in this case, as it is at 250 kmh and the accident allegedly occured at 142 kmh. What looks a speedometer in such a hightech car like? And how does it work? Is it usual that speedometers conveniently show the last speed before they are crushed in accidents? Do people not usually estimate the speed by examining braking marks on the road? I coerced myself to be "rational" first and not to believe in conspiracy theories. But this seems to be odd. And additionally I think it's odd that the examination of the car wreck is already finished.
 </t>
         </is>
       </c>
@@ -1653,7 +1653,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1665,7 +1665,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's been a long time since I dealt with high school math notation. The following is the solution to the question as provided by the poser of the question. See the two specimens of notation indicated by the red pointers. The first shows the contents of the parens, 10, being multiplied by 2. The second one shows the contents of the parens, 20+a, being multiplied by 100. Yet, in the original equation, s(p) does not indicate multiplication of s times p. The term "function" was used in conjunction with this equation. Does this make a difference? This is what fouled me up. P.M.
+          <t xml:space="preserve">Well I wonder what Mr Pound would really say if he were here today? Are we supposed to just trust what this Communist Allen Ginsburg had to say about Pound? http://en.wikipedia.org/wiki/Allen_G...p_to_Communism Seems to me that Fascism was not just an passing phase Pound was going through, especially since he stayed in Italy throughout the war and since he spoke the TRUTH about Fascism with consistency. He lived there he believed it and felt it. How could it possibly be that his daughter could grow up to love and honor him and just conveniently ignore such a big part of his life and his political beliefs? She is dishonest with herself and consequently, the world. When I hear stories like this one and like the one about Hess's Granddaughter approving exhumation of his parents bodies makes me pissed! They have disgraced their forbears. Shame. For a more truthful perspective to counter that of Ginsberg's here is an excellent podcast by William Finck regarding Pound. The real Ezra Pound. http://christogenea.org/chrSaturdays
 </t>
         </is>
       </c>
@@ -1673,7 +1673,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1685,7 +1685,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's been mentioned time and time again that White women are being exploited by porn. Well, White males are being exploited, too. Years ago, when I wrote about the downward wage equalization under equal employment opportunity, I noted that Whites are suffering greatly economically under wage equalization. I also pointed out that everything, per the laws of science, takes the path of least resistance, and when the corporate world offers niggardly wages to the most attractive White people while the world of pornography starts to offer the best compensation to the most attractive White people, where do you think a lot of White people will go to earn a buck? White people under equality have taken to other less-than-above-ground means of earning a living as was presented in a T.V. show like "Breaking Bad," for example P.M.
+          <t xml:space="preserve">There is a utopian charm to what you say. However if you live in a society where secret agendas are left to shape events, it remains a utopian dream. For example a muslim. Given the rights of a meritocracy he will shoehorn his co-partizans into a position of influence at the expence of neutral candidates. He is ideology bound to do so, if he wants to remain a fellow of his community. You cannot undo that ideological obligation with a utopian wish. Therefore, to bring our young up with the idea of "Equality" is to bring them up with a handicap.
 </t>
         </is>
       </c>
@@ -1693,7 +1693,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1705,7 +1705,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">If Koreans are superior, they should want to keep their distance, and remain in their own lands. Problem solved, everybody wins. Koreans can be as superior to all others as much as they want to, in their own lands, while we can be as inferior as they please, in our lands. Without us Whites, the Koreans can devolp as they feel like, without "evul nazi whites" interfering. It's a win-win.
+          <t xml:space="preserve">We shouldnt get too hung up on ideology. The reason why National Socialism is a true Pro White ideology is because its neither Left nor Right. Goebbels often sounds like Marx on critiques of capitalism. Globalism isnt really a 'bad' ideology. It just happens to be the most useful ideology of Soros &amp; our enemies. Nationalism will always be less effective then globalism. The first step to defeating our enemies who use globalist tactics might be 'Nationalism'. But Nationalism should always remain just a tool.
 </t>
         </is>
       </c>
@@ -1713,7 +1713,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1725,7 +1725,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm so sick of hearing of yet another politician pandering to non-white, 3rd worlders, as if they even have the right to so, on our dime! Good job, Rand now I cannot bring myself to support you in any way now. likewise, Mitt romney threw his own presidency by pandering to spics at the eleventh hour, a betrayal to the tea party who supported him.
+          <t xml:space="preserve">I know in my area, beef cattle are selling for almost double what they were last year, and this is historically the low point for beef sales in the annual cycle. About 1.50 per pound on the hoof. I raise my own beef and have 2 huge garden plots set up, plus all my fruit trees and berry bushes that I preserve. It's sustainability that is the key, not simply survival. It isn't the cases of water and canned good, although they are good. It's being able to live in a community where you can barter and know your neighbors.
 </t>
         </is>
       </c>
@@ -1733,11 +1733,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
@@ -1745,7 +1745,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">I curse the name of Allah for his servants did bind me in a traffic jam near to the Preston mosque this morning! Sura 69: "And the prophet spoke to the men of Coburg and said unto them, on the morning of the the last day of the fasting month ye shall drive your Tarago among the Infidels at a pace no more than a donkey's walk".
+          <t xml:space="preserve">British by passport. We do not mutilate the genitals of our offspring. Savage. Kosher and Halal, are indistiguishable. Barbaric. We do not hide behind quasi religious taboo's. Jews occupy Palestine based on a myth, that a voice was heard in a burning bush. Get over it. Grow up. Take responsibility for your oddball out of step conduct, and the consequences.
 </t>
         </is>
       </c>
@@ -1753,11 +1753,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>73.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
@@ -1765,7 +1765,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve">trying to think up sign slogans "Common Decency" "We're not the enemy" "act civilized!" "show respect, get respect" "Where does revenge get you?" "Protest war, not whites" NOT your "MASSA" Keep Kids Safe! Whites for peace Tolerance works BOTH ways Learn NonViolence Safe Schools! Dignity, not Bloodshed! Stop Beating Kids Hands off schoolkids! *Also this could be a real opportunity to pass out info to the blacks about who their REAL masters are (remember the KISS motto with this, lots of pictures, MTV = gangsta rap= black men in prison/unwed mothers=ghettos)
+          <t xml:space="preserve">There are people with darker features in the north as well, though the frequency with lighter features is greater as you go further north. I hav eNorthern Italian blood and I have dark hair and dark eyes but there are Italians in my family with light brown and red hair and green eyes. There is a lot of genetic mixture.
 </t>
         </is>
       </c>
@@ -1773,7 +1773,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>97.95</t>
+          <t>92.7</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1785,7 +1785,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve">To be honest the part in this video where Duke is in a midst of towelheads being cheered on made me sick to my stomach. I can't stand this muslim hugging, its like spitting in the face of every european who faces murder and gangrape every single day by these people. The enemy of my enemy is certainly NOT my friend. I dislike Israel as much as everyone on this board but I have no sympathy for any arab or muslim, they are are Europes mestizos and blacks all rolled into one.
+          <t xml:space="preserve">A million times worse. No different from Mafia hit men- taking money merely to kill people. The San Patricios were motivated by the destruction of Churches, the rape of nuns and a disbelief in the justice of the war. A belief in Justice- however much we have failed to be just is something that separates European peoples from the Jews. The idea of us becoming Aryan versions of Goldstein sickens me.
 </t>
         </is>
       </c>
@@ -1793,7 +1793,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1805,7 +1805,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's often a question of opportunity. Many don't have the time or money to obtain formal credentials and thus enter the bottom rungs of the managerial ladder. Or they don't have the capital to start a business. Given the chance, however, many now doing mindless routine drudgery (for the benefit of a rich few) could learn supervisory skills and so better actualise their innate talents. A lot of socialism is simply about better actualising innate human ability and not just using one small part of it (as is the case in contemporary capitalism). Of course, there are some who simply can't be taught new tricks and to that extent your doubts are valid.
+          <t xml:space="preserve">This is a song from Kosovo battle in which we,Serbs,fought against the Turks in 1389 and 1999 against the Albanians and NATO. I hope that these days we'll sing this song again . Islam's death, the death of Albanians...Long live White Europe!!! [ame=http://www.youtube.com/watch?v=vj85fKAFQQg]Hriste Boze - Boj Na Kosovu - - YouTube[/ame] "The Hymn of the Kosovo Heroes" (English translation) Christ our Lord, crucified and holy, Serbian land is flying through the clouds. It is flying over the heavenly heights, Its wings are Morava and Drina Farewell my first, unborn son, farewell roses, farewell rosemary. Farewell summers, autumns and winters, We are leaving never to return. On three holy and three unified, we are going to Kosovo field. we are going to our destined place farewell my mother, sister and bride. Farewell my first unborn son, farewell roses, farewell rosemary. Farewell summers, autumns and winters, we are leaving never to return. When my darling heard that I'm going, she put a flower of marigold on my lapel. Farewell my first unborn son, farewell roses, farewell rosemary. Farewell summers, autumns and winters, we are leaving never to return.
 </t>
         </is>
       </c>
@@ -1813,7 +1813,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1825,7 +1825,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thanks guys ! Like I said it could just be a novelty badge . It does look like it was made a long time ago and I hoped it was off some sort of official uniform worn by a British Fascist type group . I have not seen anything like it on the net and so I hoped there would be someone here who could tell me what it is . Hail Victory !
+          <t xml:space="preserve">I've found it can be very difficult to get rid of people like that, but if you play dirty office politics, it is possible. A starting point towards that: Machiavellianism - Wikipedia I'd suggest trying to mend fences a bit so they become more friendly towards you and open up, then dig around a bit for information that you can use against them to destabilise their life and get them to move on. I usually find they can be quite chatty and tell you all kinds of things they shouldn't. :-) They will use every advantage, and also play dirty, so why shouldn't you.
 </t>
         </is>
       </c>
@@ -1833,11 +1833,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
@@ -1845,7 +1845,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chinese are really filthy and repulsive if you ask me, I have had the "pleasure" of entering an apartment it made me sick, they do not use hygiene and they use human fertilizer to make food, lastly they kill their firstborn, evil commie chinks.. here I know I can be politically incorrect. Like sewer water, they imitate eveything and it's just revolting this whole city is revolting in fact, the musso-afro thirldworldist whatever, I have sen other states it's like paradise
+          <t xml:space="preserve">I just took my final in Anatomy and Physiology 2 today. It was the poorest test preparation I have ever witnessed. Chaos was the name of this game. Even the best prepared student (I believe I was) could not have done well. Has anyone run into this in a community college themselves? Just awful. I think I failed on account of the wording of many of the questions. In need of advice. Anyone with a background in medical services please help. This test was insane. Does the respitory system begin with the mouth? No however the teacher began the question with that saying list the organs and function starting with the mouth. I ended up accidentally listing digestive as that begins with the mouth. Respitory begins with nose. Should I contact the dean about poor testing? Or retake the course though I knew the info backwards and forwards? Other students sounded angry I probably wouldn’t be the only one to make a complaint. Diane
 </t>
         </is>
       </c>
@@ -1853,7 +1853,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1865,7 +1865,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve">No, our numbers ARE as bad as they seem, but we can fix that! The average White couple has only 2 children, and that's only enough to replace themselves, that's NOT population growth! Plus, there are more race-mixers than ever, and there are more and more White people who are choosing not to have children, or are having them later. (When women are getting closer to 40.) Which gives them a higher chance that their children will be born retarded, deformed, or having some other thing wrong with them. Of course, this is all very bad for the White race!
+          <t xml:space="preserve">Hah there wasn't really the concept of homosexuality in those days mate. In most cases it wasn't someone being a "fagg" it was more a matter of convienience if you know what I mean. Spartan soldiers were not allowed to be in contact with women although it was encouraged for them to do so secretly (also to steal items such as bread), as this honed their discipline for sneaking for lack of a better term. If a Spartan soldier was caught he was severly punished.
 </t>
         </is>
       </c>
@@ -1873,11 +1873,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>51.39</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
@@ -1885,7 +1885,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shef West I am happy you can speak for all WN. First lets take a look at some of your lies. Yes the Holocoust took place. Jews killed over 40 million people in Russia and nearby countires between 1917-1932. The Jews so called Holy Book also says it's ok to have sex with 4 year old kids. So let's not lie about rabbis having sex with small kids. Also the book teaches to murder and rape all non Jews. Anymore lies you want to tell go ahead MS. Jew.
+          <t xml:space="preserve">Thank you very much. And what is the opinion about the articles / The right lifestyle write? There is any things about love too, so that is good theme here. Yes, I searched too, who is the Odinsrage's owner, I searched phone number too. I cannot find, and the owner e-mail addresses are working, but nobody write me back from there. I see, what the *.cgi files not working there. The site is running although. Hope they really work on the problems, or I need to change the server. Thanks again. - MySiteLinkAddress -
 </t>
         </is>
       </c>
@@ -1893,11 +1893,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
@@ -1905,7 +1905,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve">I would say every culture has its cases of homosexuality. My point is that the very essence of the 14 words has NO ROOM for homos in this movement. If anyone feels that homosexuality is not bad or not a downfall to our people, then I am sorry you feel that way but I would never share that opinion nor would I choose so surround myself with "folk" who do!!!
+          <t xml:space="preserve">The next time we have an election I say we stand in front of the voting booths and not let the coloreds vote. I mid as well say it, get rid of all the traitors that are now in power remove their citizenship and throw them out of our country. 14/88
 </t>
         </is>
       </c>
@@ -1913,11 +1913,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>83.76</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
@@ -1925,7 +1925,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve">I went to katovice in Poland and never saw any ethnics,Poland really is the place to go to get away from them ,ive been 4 times in the last year and apart from Warsaw it all white bloody great it is. A town called tychy in southern poland has NONE and its a quarter a million population,I love to go there,try it if you want no ethnics OF ANY KIND.
+          <t xml:space="preserve">Question: Don't you know there are good black people? There are good people in every race, bad ones too. Answer: I believe in the survival of the White race. In order to get that, we need our own exclusive living space. To have that, non-Whites must be physically removed from our living space.
 </t>
         </is>
       </c>
@@ -1933,7 +1933,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1945,7 +1945,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">These Turko Mongolian, Afro Arab Negroid Semitic mongrel Muslims are completely subhuman - they enjoy torture and have sick, digusting personal habits in all areas including killing people. We must not become like them. When our soldiers confront these horrible throat killers, the correct response must be quick kills and the horrible bodies of these terrorists should be burned and purified so their evil bodies and spirits are taken away from this world. Does anyone else wish that we had weapons of mass destruction that were environmentally positive? Something like cleansing fire and clean water to wife out dirty areas and horrible terrorists, subhumans and clean up the environment much as a good, natural burn cleans up the brush, dead wood and allows new grasses to grow.
+          <t xml:space="preserve">Animals should be dealt with the way animals are dealt with; force and fear. Unfortunately, the leftists don't seem to agree with any of this. I say send these moors and gypsies to jail, let them be some negro’s wife, then off them, out in the public. Maybe that will teach any more animals (and I’m including some white low life trash here as well) to think it twice. What a wasted and worthless world...
 </t>
         </is>
       </c>
@@ -1953,7 +1953,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>95.55</t>
+          <t>97.95</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1965,7 +1965,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bush IS a war mongering, White hating, "One World Government" meglomaniac, and I will not defend him, even from idiot scumbags like Moore, or Less, or Moore Is Less, or Dinty Moore, or whatever it is. Until El Presidente Jorge Bush demonstrates a realization that he is White and closes the border, he Is a "Stupid White Man". El pesidente wishes to be King of the entire world. "Stupid White People" keep electing global elitist empire builders. In some ways Moore comes to the right conclusion, but for the wrong reasons. I just wish that it was a math problem, and he had to show all of the steps. Moore flunks math! No big thing. Bush flunks for the same reason! El Presidente and Moore are a match made in the jews heaven and our hell. It is a puppet show for children. Support for either one is childish.
+          <t xml:space="preserve">To be honest the part in this video where Duke is in a midst of towelheads being cheered on made me sick to my stomach. I can't stand this muslim hugging, its like spitting in the face of every european who faces murder and gangrape every single day by these people. The enemy of my enemy is certainly NOT my friend. I dislike Israel as much as everyone on this board but I have no sympathy for any arab or muslim, they are are Europes mestizos and blacks all rolled into one.
 </t>
         </is>
       </c>
@@ -1973,7 +1973,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1985,7 +1985,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve">lol, that is the most hilarious thing I have ever heard of. Oh well the more african women that get infected with aides then the better..... afterall if he goes around with so many women all the time he is bound to have an STD by now, especially in Africa. nope, the birth rates are still higher than the death rates
+          <t xml:space="preserve">Hi, I am no computer whizz, like some people on here, but I was wondering how some of our images end up on "Google Images", and others do not. Do you have to tag them in any special way. The reason I ask is I would like to be able to slot some images on their "Google images"...like this one, Call it Kaaba...or Qibla... It makes it clear that importing culture is a one way street, and it would be nice to be able to make the point to a wider audience.
 </t>
         </is>
       </c>
@@ -1993,7 +1993,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>35.03</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2005,7 +2005,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve">You have presented no evidence whatsoever. I believed in the holocaust fairy tale until I was shown that it just wasn't physically possible to do what the jews claim. Even the jews have backed off the six million claim. Along with the soap, lampshades, and other outlandish bunk. Some jew in New york claims she was raised by wolves while hiding from the Nazis. You don't get in trouble for claiming the Earth is flat, or that the moon landings were faked. People are in prison right now for daring to question the veracity of this crass fable. The truth doesn't need protection. Only lies require that. If you can come up with some concrete evidence, of the wholesale intentional slaughter of jews, there are a couple of people offering big bucks. Of course, if you come up with concrete evidence of giant super intelligent squirels who rule the world from super secret underground bunkers, you could make some serious cash. The two have about the same weight of reality. Best of luck in your endeavors.
+          <t xml:space="preserve">I'm not remember where I read it, and how accurate it is, but British aristocracy actively supported Hitler during his rise to power. They did that becosue they were afraid of progressing commies over the Europe. But once they noticed that Stalin is taking control over the game, they changed their minds right away. Poland was a pawn back then, as it is now. I don't know, but our politicians are just dumb people. Those idiots think that politics is about friendship
 </t>
         </is>
       </c>
@@ -2013,7 +2013,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2025,7 +2025,7 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve">He can't have my help... I've said it before and repeat... Good idea... wrong person. However nothing stops someone intelligent and strong leadership minded from taking it from him and driving it. Mocking the guy and belittling him and his supporters does the WN movement and Covington's NW philosophy's possible success no good at all.
+          <t xml:space="preserve">There you go, bashing the ole Moisin'. Just kidding. No matter what you say here, there will always be an opposing opinion. Well almost always. Some things, such as the subhuman nature of the feral silverback just goes without saying and is irrefutable. Just as day follows night....But that's another thread.
 </t>
         </is>
       </c>
@@ -2033,11 +2033,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>97.84</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
@@ -2045,7 +2045,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Whatever. No one bothers you people. It's you Hispanics killing blacks for no reason. Blacks have been here since our ancestors were kidnapped and bought here and tortured for years and years. Save the lies. You're a gang banger trying to get the white man help you kill. You don't belong here.
+          <t xml:space="preserve">The original subversives in the move to force Europeans to become Christian were Jews...like stPaul. Who do we imagine were the original clergy of this alien Jesus Cult? What sort of people were able to transform the low life converts to Christianity into a state religion that exploited people for protection money? Obviously people who had a pretty good idea of how a state run religion functions. Pharisees. There were already hordes of jews in Rome in 60AD, and were said to have fought off the Roman fire brigade during the great fire of Rome in 64 AD, in an attempt to reduce Rome to ashes. Part of the Jews success is to create havoc and then deny it.
 </t>
         </is>
       </c>
@@ -2053,11 +2053,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mine is a slug gun, with the rifled barrel. Heck of a deer gun, but it kicks like crazy. I now shoot the 2 3/4 inch slugs in it, and it does alright with them. I switched because I was concerned I'd develop a flinch from the recoil, and that would really screw up my accuracy.
+          <t xml:space="preserve">It doesn't take away anything from my feelings of sheer contempt for what the darkies do everyday here in the US to White women but I have some small grain of sympathy for non-White rape victims. It's bigger than just violent crime, you actually have to hate women on some level. That being said what goes on in Africa until such time that it directly impacts US economic or strategic interests is not our problem. We have more pressing issues at home like crime, poverty and immigration to be worrying about rather than what some mudhole in central Africa is doing to it's citizens.
 </t>
         </is>
       </c>
@@ -2073,7 +2073,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2085,7 +2085,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yep My brother married a mean rich Taiwanese woman. Miserable neurotic selfish. One time I was talking to an Asian guy online and said my brother married a Taiwanese woman and his response was "yeah, they are pushy and mean spirited aren't they?" Without me saying anything he described her personality. Fortunately they cannot have children but he had to raise three of her nephews. I have a cousin who married a black guy who beat her up-they had one kid. The father was a thief, he was killed in a knife fight with an asian guy. I think the social degeneracy comes from my father's side--his mother's family from Ireland. Sociopathic tendencies. His own mother dated black guys in the 1940s after she left his father, and his sister also married a black guy and had a bunch of kids. Our relationship with the family is non-existent and the relationship with my brother is bad too. I have a friend from Ohio who went to Canada --Vermont-for a visit and they were amazed how many white guys they saw with Chinese women. I laughed and said: try Vancouver.
+          <t xml:space="preserve">I hear you brother., AND I SEE THE TRUTH but who is going to get heard? You or Mister / Missus Anti Who will get MAINSTREAM celebration Who will be painted as the "good" and "bad" guy Remember that they have been programmed to intentionally pretend not to hear the logic of our dissent
 </t>
         </is>
       </c>
@@ -2093,11 +2093,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>70.28</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
@@ -2105,7 +2105,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Go away??? You come to OUR website, our internet community and you tell us to go away??? Are you stupid or something? We aren't in your face, we aren't in front of your house protesting. By all means, screw all the negroes you want to, you are only hurting yourself and your descendents. But if you are going to talk utter crap like that, telling us to "go away", then what the Hell are you doing here moron?
+          <t xml:space="preserve">People in their own homelands are quite nice. It's when we get too close that pronlems pop up. I'm sure that a wN government could have vary prosperous alliances with Arab countries for instance since we do share some common goals but as long as they are in their land in we're in ours. Foreign policy toward non white nations can be economically beneficial as long as they do not become deals based on assimilation of their peoples into our lands as part of the deal.
 </t>
         </is>
       </c>
@@ -2113,7 +2113,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2125,7 +2125,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve">"And few have yet forgiven Matthäus for telling a Dutch tourist at the 1993 Oktoberfest that “the Dutch are all arseholes, Adolf probably forgot you”, or for greeting a women’s basketball team with the words: “Hey girls, our black player has the longest appendage.” Jew? But he seems like such a nice guy...
+          <t xml:space="preserve">¨ How on earth did you turn my statement that there is a diffrence between "true" Swedes(mostly Swedenswedes an Finlandswedes) who practise the Swedish culture, live in Sweden, or old Swedish terretory(Finland, Estonia), along other Swedes, into "America is better"? I don't know what you're taught, but Americanism isn't the way to go for a WN, period. Also, how do you define freedom, is democracy freedom? If you don't know, I suggest you take a look at my signature. If democracy is freedom, take a look at my signature. America is not the left out number four. The Netherlands are. Democracy Index - Wikipedia, the free encyclopedia
 </t>
         </is>
       </c>
@@ -2133,7 +2133,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>58.44</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2145,7 +2145,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are plenty of Whites who: "See no problem with the Jews". The Jews are skilled at working covertly and denying any evidence produced against them as..."Anti Semitic". The Lubavitch Hasids are serious about their intentions. To them it is part of their "Religion". Just as Rabbi Schneerson the chief Rabbi of the post-War years has dominated Jewish ideology, so M.Buber dominated pre-War Orthodoxy. Rabbi M.Kahane, and his infamous JDL, whose motto was that Palestinians should be driven into the sea, who was the mentor of B.Goldstein the mass Murderer, were both Orthodox Hasidic Lubavitchers, and were followers of Schneerson and Buber. Schneersons family still labour under the evidence of having committed ritual Murder in Russia, and were known as a "Schechter" family, i.e. denominationally permitted to practic ritual murder. Flaivel Schneerson escaped to the US to avoid prosecution and was given sanctuary amongst US Jews. http://judicial-inc.biz/mendel_beilis_supplement.htm Jews pervert the meaning of the concept "Religion".
+          <t xml:space="preserve">Always remember the Jews killed Jesus? How about we always remember that Christianity ripped true European religions, and ultimately culture, apart? Now we have Churches advocating the mass importation of non-whites because all they see is more additions to the flock of god fearing sheeple... It is not a White religion, and it is most definitely not any help to our cause as White Nationalists... Easter has its origins in Paganism anyway...
 </t>
         </is>
       </c>
@@ -2153,11 +2153,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>71.05</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Interesting,that Lucas Films would name the Jedi Ezra. Ezra, in the Old Testament, preserved and protected the Jewish race. Yes, race. He didn't want no race mixing among the Jews. He told those Jewish males to get rid of their foreign wives and get back in the fold. Ezra - Chapter 9 verse “For they have taken of their daughters for themselves, and for their sons: so that the holy seed have mingled themselves with the people of those lands: yea, the hand of the princes and rulers hath been chief in this trespass.” Ezra was a racial purist for the Jews.
+          <t xml:space="preserve">Kiyosaki does have some good ideas in his books but, He has been found to be a hack ( I have not read the articles myself) most of the stuff he writes is all made up not lived. I would recomend Zigglers "SEE YOU AT THE TOP" it is an everybody book not just salesmen.
 </t>
         </is>
       </c>
@@ -2173,7 +2173,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>47.27</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2185,7 +2185,7 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve">I can't believe my eyes. The ultimate goal of the elite - chipping every human on this planet - and a vast majority is happy about the first steps taken to dehumanize us completely. Now it's clear that a major crisis at the right time will be enough to persuade the lemmings to get chipped. They will even beg for it. I have three words for you: PATHETIC IGNORANT SHEEPLE!
+          <t xml:space="preserve">Right? I think everyone is pretty much over the gay issue. There have always been fags and always will be.. we get it! Just don't push normalizing it on our kids and I'm just fine with it. I have gay family members and they even think the whole gay crowd goes overboard with this bs. Nowadays fags aren't going to be attacked or judged for being gay.. sure, it happens but hey, white people are targeted just for being white waaaay more than gay people are! These "minority" groups playing the victim is getting reeeeally old.
 </t>
         </is>
       </c>
@@ -2193,7 +2193,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2205,7 +2205,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve">The thing is though that most improvished and actually oppressed populations in the UK are rural White Celtic Christian ones- Cornwall being the most, than northern Wales, than Fermanagh and parts of Antrim and Tyrone than the Scottish Highlands. Labour couldnt care less about them and the Tories care the same- UKIP even less. The blacks and Asians count a LOT more in the UK than white rural Christian celts.
+          <t xml:space="preserve">Modern humans with the highest amounts of Neanderthal DNA are more advanced than those who have little to no Neanderthal DNA. As far as being great engineers see link. Modern flint expert 'reverse engineers' Neanderthal stone axes - and says our ancestors were clever, elegant crafts Neanderthals had some sort of religion and understood the concept of spirits and death. They even performed rituals before burying the dead. They were advanced enough to do that AND survive European winters. They were more advanced than modern day Africans or Native Americans! And they existed almost half a MILLION years ago. They did great until Cro Magnon man bred them out just like the Muds are doing to our people today. If you believe that made them inferior then does that make us inferior because the same thing is becoming of our people?
 </t>
         </is>
       </c>
@@ -2213,7 +2213,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2225,7 +2225,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve">HGTV never tells you that very frequently houses are burned down during renovations, but... More importantly, they never advise anyone about the need to get an industrial hygienist to test a dwelling for toxic methamphetamine laboratory residue, something that is extremely prevalent. As far as income properties are involved, HGTV never mentions the risk of renting to meth lab operators who can easily and absolutely destroy $100,000 worth of fancy renovations... and then some. They never mention that meth lab remediation is almost always inadequate to address the problem properly.
+          <t xml:space="preserve">Bush 'super-state' documents sought FOIA request filed to expose plans for 'North American union' Posted: June 20, 2006 1:00 a.m. Eastern Author Jerome Corsi filed a Freedom of Information Act request yesterday asking for full disclosure of the activities of an office implementing a trilateral agreement with Mexico and Canada that apparently could lead to a North American union, despite having no authorization from Congress. As WorldNetDaily reported, the White House has established working groups, under the North American Free Trade Agreement office in the Department of Commerce, to implement the Security and Prosperity Partnership, or SPP, signed by President Bush, Mexican President Vicente Fox and then-Canadian Prime Minister Paul Martin in Waco, Texas, March 23, 2005. CONTINUED
 </t>
         </is>
       </c>
@@ -2233,7 +2233,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2245,7 +2245,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve">But Illyria once covered Dalmatia, Bosnia and surrounding areas, why wouldn't it be Illyrian? what other ancient tribe could haplogroup I2a come from? I heard other possibilities for this haplogroup could of been been Helenic, Macedonian, 'Slavic', and partitionaly Germanic. What ever the ancient tribe would of been, atleast my ancestors have been on European soil for a very very long time (thousounds and thousounds of years).
+          <t xml:space="preserve">I think the women pictured there are very pretty. The Black contestant is way to the back. I think a rigged contest, where the Black Ghana woman wins would be a great propaganda victory for us. The US had a great backlash when Vanessa Williams won the Miss America contest. She was a very light skinned African American, she lost her crown when nude pictures of her doing Lesbian themes were released to the public. They had a Blacker 1st runner up that took her place. Pain is good. Insults are good. Get these rich Germans pissed off a bit, force PC on them every single day.
 </t>
         </is>
       </c>
@@ -2253,11 +2253,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>51.51</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
@@ -2265,7 +2265,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve">If that were to ever happen, I wouldn't even care anymore. I wouldn't wait for the backing of my race, I would just go ballistic and take as many out as I could before they got me. Maybe my death would make me a martyr and then others would rise up. This kind of behavior is obscenely disturbing and sick. They should all be hung by their nether regions from bridges to show just how much they aren't welcome in our society. That goes for male and female regardless of race. We could make that a tv show. We hang them up and give the child who they did it to a nail studded bat. Thats how white people should make piñatas.
+          <t xml:space="preserve">Its true that we have a lot of diversions to deal with-thats the Zionist tactic,to overwhelm us with "issues". We have to cut the crap and get down to business.Who cares if someone is a fruiter?As long as they're responsible adults and minding they're own business and "doing their thing" amongst themselves I really don't care myself. I'm sure it really wasn't much of an issue until the Zionists made it one....as they've done with all races and creeds.For a WN to have an opinion such as I've just expressed makes the Zionists blood boil,I know this from having discussions with admitted Marxist/jew worshippers in person....on this and other issues of course. They're appalled by any apparent form of reason on our behalf which is funny and just proves that they are the ones that want disunity and conflict justs for its very nature.
 </t>
         </is>
       </c>
@@ -2273,11 +2273,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>97.59</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jewliani doesn't have a snowballs chance in hell of being elected. this is simply a setup for a Clinton/ Obama presidency plain and simple, once again advertised as the supposed "lesser of 2 evils" Don't vote for NEOCONS ever again, they are jew worshipping trash who place Israel in front of the USA every single time. Jewliani is a piece of **** prior to 911( he still is now) he was a very hated man in NYC. Jewliani had a major part in the 911 attack, believe me here, don't reward him for this.
+          <t xml:space="preserve">ya think? I guess in the future I ought to distinguish the tree chimps from the ground chimps. Apologies, and cudos even, to all offended tree chimps, who in fact do have the good sense not to conduct themselves in a manner that causes irreparable harm to the food producers of 'their' societies... .
 </t>
         </is>
       </c>
@@ -2293,7 +2293,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>76.94</t>
+          <t>98.5</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2305,7 +2305,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve">when i lived in a practically all-White town in the midwest, there was no shortage of customers for the title loan and check advance businesses in town. the bell curve tells us that there are more stupid Whites than there are negroes. whether we should do anything about them depends on whether you live off them, or in spite of them.
+          <t xml:space="preserve">I am saying if you are black stay with your negro men. We don't want you mixing with our race and destroying it. I am simply stating that I want NOTHING to do with negro men. I will not date them because, they are violent, stupid, and ugly. Blacks in groups are the worst, they will pick out a single white person because they are white. Exactly black children aren't the only ones, adult negros love to hurt, cause chaos, and usually do it for no reason. Can I see your statistics on domestic abuses that are mostly by white males???? I highly doubt that, if that is the case why are there so many negros in prison? Very few cases of child abuse in the black community? Are you high? Honestly, are you in denial?
 </t>
         </is>
       </c>
@@ -2313,7 +2313,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2325,7 +2325,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve">I never liked this pig, anyway. Melanie Griffith Sorry She Did Drugs With Son Actor's Son Is Now Recovering Addict POSTED: 3:32 p.m. EST October 28, 2002 NEW YORK -- Melanie Griffith is now sorry she smoked pot with her son Alexander. Griffith told More magazine that she thought if she smoked with her son he wouldn't buy drugs on the street. She said that philosophy "backfired" because he got hooked on drugs anyway. Griffith said Alexander is now a recovering addict. She said she definitely won't share drugs with her other two kids. http://www.thewmurchannel.com/entert...92/detail.html
+          <t xml:space="preserve">Are we some of the anarchists? "Mankind emerged from savagery and barbarism under the leadership of selected individuals whose personal prowess, capacity, or wisdom gave them the right to lead and the power to compel obedience. Such leaders have always been a minute fraction of the whole, but as long as the tradition of their predominance persisted they were able to use the brute strength of the unthinking herd as part of their own force, and were able to direct at will the blind dynamic impulse of the slaves, peasants, or lower classes. Such a despot had an enormous power at his disposal which, if he were benevolent or even intelligent, could be used, and most frequently was used, for the general uplift of the race. Even those rulers who most abused this power put down with merciless rigor the antisocial elements, such as pirates, brigands, or anarchists, which impair the progress of a community, as disease or wounds cripple an individual." http://www.africa2000.com/XNDX/madgrant01.html
 </t>
         </is>
       </c>
@@ -2333,11 +2333,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -2345,7 +2345,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Penile castration has been tried before, both types. Pedophiles and rapists can overcome chemical castration by using steriods. The other option, physical castration, has also been unsuccessful. The problem is inside their head's. Without a penis they can still victimize the innocent person in other ways. Life in prison would be a suitable punishment, but we should not waste the money on them. Sure, they will abused in prison, (Probably sexually.) but the money should be spent on helping the victim(s). Sex offenders are degenerates with no conscience. People like that don't deserve mercy. The only proper punishment is death. I don't mean lethal injection or the firing squad because that's an easy way to die. The method should be the electric chair. Really anything that causes pain will be enough. These sick losers should have to fear their execution date. Sex offenders will usually victimize alot of other people before getting caught. Keep that in mind.
+          <t xml:space="preserve">Shouldn't be too hard to figure out what make I drive Its made in Mexico though Wish I'd known that before I bought it ... I'd like to buy an American car some day in theory, but the quality and finish just don't match my liking. My love for European cars will always keep me looking East.
 </t>
         </is>
       </c>
@@ -2353,7 +2353,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>26.97</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2365,7 +2365,7 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why do other races care that we as whites want to preserve our culture? It has to make you wonder why they dont want us to doesnt it? Hmm...maybe its because they know we are trying to save something that not many others have...a successful ancestry. Destroy the root and the tree dies, thats the only thing they can be hoping for against us.
+          <t xml:space="preserve">My personal opinion, or as some write IMO ( ) is Croats and Serbs should work together on protecting our race, since we have no other choice. We had our wars. I think it was enough blood to soak jewish dry money over decades. We are infidels for moslims, and goyims for jews. They do not make any difference if somebody is croat or serbian. Do we have to make their job easy and comfortable? Or should we fight them together ?
 </t>
         </is>
       </c>
@@ -2373,11 +2373,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>72.68</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -2385,7 +2385,7 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve">This mutant simply MUST NOT be allowed to stay. Otherwise, we will see so many applicants, you could grow an entire rainforrest with the paper used by them. Not just here, but basically EVERYWHERE in Europe would get this influx. Even if she hadn't turned out to be a lying, silverback ape, anything other than a rejection of her appeal will spell serious issues ALL OVER EUROPE within WEEKS, never mind months. Our supreme court better not screw us or else were f**ked.
+          <t xml:space="preserve">So, in other words there are two different sides/beliefs when it comes to the holocaust not happening? One being that it never happened, period, no jews were put into camps, and the other being that jews as well as a variety of other groups were put into camps and that it was not just jews at all?
 </t>
         </is>
       </c>
@@ -2393,11 +2393,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>73.18</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve">don'feel helpless. I am in same boat- 42- went from one extreme to the other, and finding someone that is right for you , is difficult- NEVER COMPROMISE&lt; never feel like you are doing him a favor or feel inferior. Don't give them the satisfaction. It's better to have a support group and talk to people. I tend to obsess over things and that makes it worse. The past is gone, work on future, make a list of things you are looking for and work with it,,, it sounds odd but works scracth off AS SOON AS YOU SEE HE DOESN'T POSSESS THOSE QUALITIES
+          <t xml:space="preserve">trying to think up sign slogans "Common Decency" "We're not the enemy" "act civilized!" "show respect, get respect" "Where does revenge get you?" "Protest war, not whites" NOT your "MASSA" Keep Kids Safe! Whites for peace Tolerance works BOTH ways Learn NonViolence Safe Schools! Dignity, not Bloodshed! Stop Beating Kids Hands off schoolkids! *Also this could be a real opportunity to pass out info to the blacks about who their REAL masters are (remember the KISS motto with this, lots of pictures, MTV = gangsta rap= black men in prison/unwed mothers=ghettos)
 </t>
         </is>
       </c>
@@ -2413,11 +2413,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>99.82</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
@@ -2425,7 +2425,7 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hate Crime law applies to White people only [ame=http://www.youtube.com/watch?v=8u6eGRvGinc]YouTube - Eric Holder Admits No Equality Under Hate Crimes Bill[/ame] Face it, unless a major change happens with Tea Party propelling a pro-White, non-Zionist puppet candidate to presidency, U.S. government declares war on the White majority. This case is a classic case of persecution of White young men for heroically annihilating a third world subhuman scum trying to get into a 13-year old girl's pants. I support the militias. They lay in wait until tyranny overextends its tentacles, then it's time for the rattlesnake to bite.
+          <t xml:space="preserve">Well I don't think that's a good idea. To give Cuba to the Jews many white people are going to be killed, and I'm sure that they will make it another Jewish holiday park rather then a real country, like they did to Israel. Why not Florida? Global warming and the rising sea level will turn Florida in hell in a few decades.
 </t>
         </is>
       </c>
@@ -2433,11 +2433,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
@@ -2445,7 +2445,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve">she lacks harmony with her own people, she is weak and will probably suffer at the hands of those she loves so much the negro lads when they come to rape her and destroy all part of her innocence and caring. blacks tend to take what there is to take...that includes this little traitor.
+          <t xml:space="preserve">Rabbit fertilizer is fine and does not burn. Grand parents were dirt farmers, kept cattle, and were also commercial chicken growers for about 50 years...When they were finally forced out of the chicken business, they took their old 40x400 ft chicken houses and installed rabbit cages in them...Sold the rabbits for meat and pelt distributers. Needless to say, there was never a shortage of fertilizer. This is how I know these things.
 </t>
         </is>
       </c>
@@ -2453,7 +2453,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2465,7 +2465,7 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Really the difference is in the after effect.I've been to White areas where a corporation pulled out.People didn't burn down buildings to get a cheap thrill and the streets were still safe.The paint was fading on the houses,but there wasn't garbage all over the place.Buildings were boarded up,but there wasn't graffiti everywhere.People were poor,but they were still friendly and helpful,not sneering,hateful and violent...
+          <t xml:space="preserve">I've been to Kellys in Richmond. Also a good biker bar just outside Lake Geneva. The owner is a White body builder, has a shaved head and always has a new, young girlfriend, wife helping out. It is a good biker hangout. Exchanging a few smiles, hellos on a Sunday isn't quite the same thing as getting to ride in formation in an all White biker gang. :-)
 </t>
         </is>
       </c>
@@ -2473,7 +2473,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2485,7 +2485,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">if the ever try to take my guns theyll have to kill me or throw me in jail to do it and i think i speak for 95% of people in alabama you know how much we like our guns here in the south.the only people shooting each other down here are colours with illegally obtained firearms how would the government obtain these unregistered weapons? If in fact they did take our guns. i know my section of the neighborhood is a safer place and if any mass shootings happened around here i doubt theyed shoot many people with a 000Buck shot in em or maybe a few .357 hollow points
+          <t xml:space="preserve">My saying "Ireland" was mainly because American Western culture reminds me so much of Ireland ( drinking Whiskey , playing benjo ) and because the English spoken in America has an Irish pronounciation : Yosemite Sam , a fictional American West gunman , he would not look out of place in Ireland .... [ame="https://www.youtube.com/watch?v=h1PfrmCGFnk"]The Good, the Bad and the Ugly Theme â€¢ Ennio Morricone - YouTube[/ame] Like I said , traitional American country and Irish Folk sound very much alike .. [ame="https://www.youtube.com/watch?v=_YuJZzuHDf8"]Rednex - Old Pop In An Oak (Official Music Video) [HD] - RednexMusic com - YouTube[/ame] ( please ignore that it's an overhyped techno-version .. ) [ame="https://www.youtube.com/watch?v=671G9ZD7R30"]I'll tell me ma lyrics - YouTube[/ame]
 </t>
         </is>
       </c>
@@ -2493,11 +2493,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>55.28</t>
+          <t>16.54</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
@@ -2505,7 +2505,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excuse me "Bigtigger2", I addressed your post with respect, as I said you seem to be a Credit to your Race, in as much as you seem to be intelligent. However if you are simply here for a "Cerebral Brawl" with "White Folks" I will let you get on with it. I am sure there are people on our Forum who will oblige with a "Slagging Match". I am interested in your potential to anwser some serious questions. You have to accept the basic observation that our societies are at breaking point, $Millions wasted on people in incarceration. Millions flooding into our societies to undercut our work-force to work for low-wages. I accept your comment about "White-collar" crime, but we need to clear out the under-growth first before we get on the case of our people who are ripping us off. We will get there though.
+          <t xml:space="preserve">exactly dude i guess we have the same views i think non-whites are hot probally because im 17 ive never liked a non white girl so i cant say i would date them because its never happened idk if WN means you dont have any friends thatare non white then im not one thats messed up man dont stop being friends with someone because you want to be in a group
 </t>
         </is>
       </c>
@@ -2513,7 +2513,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2525,7 +2525,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve">I personally think that this time is ripe for the Bulgarian nationalists currently on this website and elsewhere. Recently during the European elections the "far-right" Ataka party, a Bulgarian nationalist party won 12% of the votes in Bulgaria during the European elections thus winning two seats in the European parliament. In addition to that, an estimated 0.6% of internet users in Bulgaria visit Stormfront regularly. That's an average of 42,000 potential members. I believe that with a dedicated Bulgarian section, we can get that percentage much higher as Bulgarians would feel more accommodated with a section in our own language.
+          <t xml:space="preserve">Excuse my French but what gets me through the day is the thought that the Allies ****ed Germany after WW1 with economic conditions which ruined the country but thanks to Hitler did not do the same thing after WW2 as they learnt their lesson. And thanks to Hitler the commies only took East Germany not the whole country which probably would have happened if not for the NSDAP.
 </t>
         </is>
       </c>
@@ -2533,7 +2533,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2545,7 +2545,7 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Being a diabled veteran of six years honorable service, I know FIRST HAND how cowardly and lazy negroes are! I have seen them asleep while standing at attention several times. For the most part, they had soon find a tree to sleep behind than fight in battle. As mentioned earlier, they NEVER try to fight a White Man one on one (without some sort of weapon), unless they are high as a kite or think they have a huge advantage over the White Man (due to size, age, disability of the White Man, etc.). Also, negroes are not great shots - I remember some having to go back over a dozen times to qualify with an M-16. Negroes also don't have the sense required to operate some of the advanced weapons. The only thing I remember, military wise, that negroes actually loved to do and took pride in was showing their "authority" over Whites with less rank and discriminating against lower ranked Whites.
+          <t xml:space="preserve">Yahoo have an article about this followed by the usual comments from the sheeple who trot out the parroted 'facts'. The 'Germany had 40,000 camps alone' which appeared in 2013 is now repeated as a fact! Then followed by one or two comments from those who can actually critically think (if they are not censored). The source for these letters is a Jewish source which is never questioned of course but why would a Jew even have these as a 'souvenir' anyway if all these atrocities did take place? That is just sickening like the Jewish actors who played 'Nazis' in the 'Holocaust Comedy' Hogan's Heroes! I saw one letter quoted in that Himmler's wife calls him 'an evil man' and an 'evil good man'. What wife would even say this? My opinion is that like the writings/diaries of Goebbels and Hoess - the originals are probably authentic but they are then severely doctored before they enter the public domain. Although supposedly Goebbel's were found in a garbage can or something amongst the rubble - LOL.
 </t>
         </is>
       </c>
@@ -2553,7 +2553,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>99.73</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2565,7 +2565,7 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am saying if you are black stay with your negro men. We don't want you mixing with our race and destroying it. I am simply stating that I want NOTHING to do with negro men. I will not date them because, they are violent, stupid, and ugly. Blacks in groups are the worst, they will pick out a single white person because they are white. Exactly black children aren't the only ones, adult negros love to hurt, cause chaos, and usually do it for no reason. Can I see your statistics on domestic abuses that are mostly by white males???? I highly doubt that, if that is the case why are there so many negros in prison? Very few cases of child abuse in the black community? Are you high? Honestly, are you in denial?
+          <t xml:space="preserve">I believe those were Jewish Czechs that Hitler ordered executed. Stalin murdered far more of his own people but yet little is said of this. Hitler was a flawed but great man. He took a country that was demoralized and humilated after WWI and within 10 years built it up again to a great military might. He saved Germany from Communism, that Jewish cancer. Would you rather had Hitler sit back powerless while the jews destroyed and decayed his beloved Deuschtland ? Hitler had balls in the sense that he was one of the few Gentile leaders who stood up to the Jews. Because the Jews control my country and my country kisses Israel's ass. We need a Hitler over here to wipe all the filth away.
 </t>
         </is>
       </c>
@@ -2573,7 +2573,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2585,7 +2585,7 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve">So let me see if I get this straight; Historian David Irving and German Nationalist Gert Finkenwirth were banned from Australia but these radical fascistic hatefilled Muslims are allowed entry? They denied a German Nationalist a visa 'because it was believed his views could incite discord in the Australian community.' http://www.worldnewsaustralia.com.au...19415&amp;region=7 Why can't this same reasoning be applied to these hatefilled radical Muslim extremists? The only explanation I have for this apparent double standard is the Australian Government does not view expansionist radical hateful Islamic extremism as an ideology that could create discord in the Australian community? I wonder is the Coalition willing to admit to such a thing? Maybe our talented letter-writing friend Steelcap_Boot could ask his leaders this very question?
+          <t xml:space="preserve">First-Ever US Presidential Candidates' Forum to be in Israel N. Srdoc - Huffington Post First-Ever U.S. Presidential Candidates' Forum Held Abroad in Jerusalem, Israel, November 2-4, 2015 | Natasha Srdoc US presidential candidates have been invited to participate in the first-ever US Presidential Candidates' Forum held abroad [Nov. 3-4], focusing on foreign and defense policy issues. From Jerusalem, Israel, each presidential candidate will have an opportunity to present their views on U.S. foreign policy, US-Israel relations, threats affecting US allies in Europe and Asia, the instability in the Middle East, terrorism, and solutions to increase the economic well-being and security of Americans in the US and abroad. From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -2593,7 +2593,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2605,7 +2605,7 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Al-- I don't think anyone could have argued the case more adroitly than you've laid it out here, but my take on these type situations is simply this: Liberalism, and all that goes with it--worship of WWII/Holocaust as, respectively, a Holy War and a New Sacrament--is a religion, and is therefore faith-based and completely immune from both facts and rational argument. It is much like trying to convince the Heaven's Gate loonies that, no, there is no spaceship trailing the Hale-Bopp comet, waiting for these idiots to eat downers and have plastic bags tied over their heads. Therefore, I do not waste my time with such clowns; they are beneath contempt. As it is said: The best argument against democracy is a conversation with the average voter. From Waaay Out West, --HLM
+          <t xml:space="preserve">I said I wouldn't vote in BrabdiG's poll. lol But, I have voted in every single election since I became eligible. Before I became a member of Stormfront I used to volunteer as an election worker on election days. I have too much interest in politics to not vote. In the beginning of the '08 primary I was hoping Ron Paul would excite the Republican party (and win) like Obama did with the Democrats. I really liked Paul and his message. I haven't decided if I'll vote for Chuck Baldwin or if I'll write in Ron Paul. I will vote for one of those two, though. I understand what you're saying to me and you are right.
 </t>
         </is>
       </c>
@@ -2613,11 +2613,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
@@ -2625,7 +2625,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve">I understand the Miep Gies found the diary, sensationalized it and got caught, and even criticized by Frank's father. Doesn't mean there wasn't a family with a little girl in hiding who got taken away to their deaths (only the father survived). Just that Mrs Gies used the event to make a few bucks over what her and her husband charged Mr Frank.
+          <t xml:space="preserve">Exactly. I just got done saying this in another thread. There will be no negotiations, no settling, and no tolerance levels. If you believe in White survival, you believe in White separation. Whites who mix are no allies of ours and never will be. A White man who sleeps with Asians is no better than a White woman who sleeps with Jews or Arabs. Both are disgusting, no matter the rationalizations.
 </t>
         </is>
       </c>
@@ -2633,7 +2633,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2645,7 +2645,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t xml:space="preserve">There's every reason to be positive, it's just that the state is not going to represent or protect us, we're going to have to go our own way and start playing the same minority power games as the others until the state implodes or becomes irrelevant and we can't bleed any more resources from it. Then we'll see, I suspect the other racial groups will be a lot more eager to come to terms than the anti Whites among our own people and the shoe will rapidly be jammed on the other foot as far as the rats in the ranks are concerned, remember everyone loves a scapegoat, if the non White power groups aren't getting their dues they won't be looking at us, they'll be looking at their sponsors and benefactors
+          <t xml:space="preserve">I am employing the C&amp;P method, because my experience is that links are ignored. Again you are asking me to accept your sources. Why would I accept your interpretation of the Jews books. You are a Judeophile. You seem to be wholey consumed by the Post War notion that people have a freedom of "Any Religious" notion they want to observe. This has been introduced as a mandatory social condition after the war, and to the extent it is practiced to day ie. Rastafarianism because of the Jews meddling in the Laws of "Christendom". As to your assertion that Jews are not permitted to kill non Jews , well frankly I do not see evidence for that in the real World. A Family Picknick was shelled two IDF pigs go missing and all hell breaks loose with Palestinians being Murdered all along the Fertile crescent. JU88.
 </t>
         </is>
       </c>
@@ -2653,11 +2653,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>73.67</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
@@ -2665,7 +2665,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Waterbuck! Welcome! What do you want to know. We can figure it out together as long as it is logic and not weigh sideways off the scale towards being unreasonable. As you can see, I had a lot of challenges in my faith, but mostly found them to challenge the accepting muscles of my fellow christians. I usually search an answer towards which nobody joins me. But I sometimes come out quite crooked and badly bruised because of all the cat fights caused among christians and atheists afterwards. Some tend to get so damn religious that you can do nothing with them. One wonders if it is worth the search for an outcome for the white race and just stop. But... then I find myself opening this website agian and again....it must be because I am white. What color are you and do you think that is the reason you can think??? I think we have quite a spectrum of posters here black, white, demon, angels, Yeshua, Jews, something of everything. Kat
+          <t xml:space="preserve">It amazes me that Indigenous groups (or anyone else for that matter) are prepared to put up with them, they openly state that they want to end the traditional Patriarchal clan system and they oppose any Aboriginal representative body or recognition of the prior existence of Aboriginal Nations. Every Anarchist I've met over the last 20 years has been stuffed on drugs or mentally ill to some degree, they have no place in the democratic process, either Left or Right are their targets of the day depending on their mood. If any Socialists or Communists are reading this, you've got the numbers, boot 'em up the Khyber pass and send them packing if they turn up at your rallies, we can't do much about them at this point...so do us all a favor Eh
 </t>
         </is>
       </c>
@@ -2673,11 +2673,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>55.61</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
@@ -2685,7 +2685,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve">The “Saxons” were probably a confederation of several smaller tribes residing roughly around the mouth of the river Elbe. They, in turn, were one of several Germanic peoples, including Angles, Jutes, Frisians and Franks, that began to settle in Britain from roughly the middle of the 5th century AD, although Saxons and Frisians had been living in Britain from at least the 3rd century serving the Romans as mercenaries and probably merchants. The longbow dates back to the Neolithic, it’s a very ancient weapon, but it didn’t become popular in English armies until the 13th century where it is believed it was adopted from the Welsh. Anglo-Saxon armies largely fought on foot, although there is evidence that horses were used in offensive tactics as well as just transport.
+          <t xml:space="preserve">oh my god that is so true... I'm laughing but it's humiliating as hell. There's nobody I hate more than those people. Kanye West... dear god... Pretty sure he's the one that made a video featuring himself carrying around the severed head of a white woman ("Monster", idk), and conservatives can't stop worshipping the guy. If they love homicidal negroes so much why don't they just move to Africa. ^^Based Trump supporter^^ Christ I hate conservatives... This forum desperately needs a vomit icon. .
 </t>
         </is>
       </c>
@@ -2693,11 +2693,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
@@ -2705,7 +2705,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t xml:space="preserve">It doesn't take away anything from my feelings of sheer contempt for what the darkies do everyday here in the US to White women but I have some small grain of sympathy for non-White rape victims. It's bigger than just violent crime, you actually have to hate women on some level. That being said what goes on in Africa until such time that it directly impacts US economic or strategic interests is not our problem. We have more pressing issues at home like crime, poverty and immigration to be worrying about rather than what some mudhole in central Africa is doing to it's citizens.
+          <t xml:space="preserve">A white man came who to the defense of his wife after a black man assaulted her and tried to take her camera away from her was arrested on a felony hate crime for calling the black man a "******." Check out the story here: http://www.abcnews.go.com/sections/u...ime010816.html Interesting that the black guy was not charged. Oh, we better not offend those black folks... unbelievable!! 14/88 AK
 </t>
         </is>
       </c>
@@ -2713,11 +2713,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>69.05</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
@@ -2725,7 +2725,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve">If they're not saying "We hate Whites" and if they're not criticising White Nationalists then I don't really care what they think, what's more if they had any brains they'd be supporting WN and forming their own racialist groups. Are they? No, they'd rather go the lazy route, play plastic Gangstas and dance for the Zionists like good little "Niggaz", they should be real Muslims or strong Christians and stand up for their heritage and their land.
+          <t xml:space="preserve">The degree to which leftists can lean over backwards to accomodate their black masters is astonishing... there will come a time when they will demand we sacrifice our daughters to them.... Appeasement perhaps? Is that a whiteness thing... I am reminded that appeasement is a Jewish thing... they would undergo the worst privations just to protect their cash cows in medieveal times until their hosts would eventually get tired of them and chuck them off. Perhaps their riches matter more than themselves.
 </t>
         </is>
       </c>
@@ -2733,11 +2733,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
@@ -2745,7 +2745,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm quite sure when the jews saw that, they just smiled, patted themselves on the back, knowing full well that the White people on the bus were terrified to even so much as tell the africn to shut up, or even go back to africa. When it's so in your face as this, you can only presume we are well on our way to White Genocide. I am beginning to think our people will just roll over and die, rather than stand up and throw off this death-yoke.
+          <t xml:space="preserve">I register to SF because of this thread (even if I was reading some parts of the forum for a long time) little I care about the mentally reduced people who see races as coloured crayons. If you wish so please change my username to something else, I dont want use any band/song names and all the good usernames are not available any more, I dont mind if any of the moderators choose for me as long as it will not contain words from my e-mail adress. And more inportant than a username is access to the occcult forum. Thank you.
 </t>
         </is>
       </c>
@@ -2753,7 +2753,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2765,7 +2765,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve">The military wont do anything but snivel about it for a couple of months. There will be jokes, and everybody will have a few laughs, and then they, along with the rest of this country will continue blindly stumbling into the abyss. Just like the response to the enactment of every other left wing social agenda.
+          <t xml:space="preserve">Somebody said: 'I'm actually a little surprised Michael Weiner pulled the jew card.' I think Savage /Weiner is the kind of guy that would say such a thing actually meaning to mock this whole Jew thing. He would be the first one to turn it against them if they make some stupid mistake answering the accusation. I don't think it is necessary to put down each and everybody just because they are Jewish. Of course someone being Jewish is a sign to stay alert and be prepared for all kinds of things. But so far I think he's one of the good guys. I can always change my mind when something new turns up, so no need for desperate paranoia.
 </t>
         </is>
       </c>
@@ -2773,7 +2773,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2785,7 +2785,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wow you men all look really good, nothing like a man who takes care of his body by keeping it in shape! Hatresse, you look great too, that's quite an accomplishment, going from size 20 to a size 2 is really unheard of. What kind of exercise do you do? I'd like to get that sculpted look. I'm 8 months pregnant right now but I can't wait to start working out again. I'm thinking about doing some before and after pictures, you always have to lose weight after a baby. Right now I'm at 170, I figure I'll be at 150 after the baby is born so I'll have 15-20 pounds to lose (I have a large frame when I weighed 125 I was really skinny). Should be interesting. Losing weight is the easy part, what I want to know is how to build that kind of muscle like you have.
+          <t xml:space="preserve">NEWS TICKER source UNITED NATIONS: ISRAEL WOULD NOT ACCEPT INCLUSION OF ENEMY MUSLIM STATES IN UN FORCE: ISRAELI FOREIGN MINISTER LONDON: 23 SUSPECTS IN TERROR PLOT TO BE KEPT IN CUSTODY THROUGH NEXT WEEK: BRITISH COURT PENNSYLVANIA: EARLY WITHDRAWAL OF US TROOPS FROM IRAQ COULD RESULT IN A "TERRORIST STATE" WITH VAST OIL RESERVES: PRESIDENT BUSH BEIRUT: DEPLOYMENT OF GOVT TROOPS IN SOUTH WOULD END "MENTALITY OF STATELESS": LEBANESE PM FUAD SINIORA LONDON: CEASEFIRE BETWEEN ISRAEL AND HEZBOLLAH IS "PRECARIOUS" AND "FRAGILE": UN DEPUTY SECY-GEN. PARIS: FRANCE READY TO COMMAND LEBANON UN FORCE UNTIL FEBRUARY: DEFENCE MINISTER NABATIYEH: LEBANESE TROOPS HEADING TO DEPLOY NEAR BORDER WITH ISRAEL IN COUNTRY'S SOUTH
 </t>
         </is>
       </c>
@@ -2793,11 +2793,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>55.36</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
@@ -2805,7 +2805,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yeah she is a Jew, but that is besides the point . The fact is judges can do this and the mask hysteria is insane . We the people have to do something bout these tyrannical Marxist and Zionist judges. IÂ’m thinking, giving them the same treatment the outraged Hungarians gave the AVH.
+          <t xml:space="preserve">Yes, and that's one reason I fell out of my seat laughing! You are, of course, correct, just like Jon Stewart (formerly known as Jon Stewart Leibowitz) is perhaps the only one on TV who can makes jokes about Jewish power and influence in Hollywood, and the Jewish stranglehold over our politics in Washington, DC. It's crazy, I know. You ever listen to the stuff Rush puts out as supposed humor? Or the stuff that Republican hacks used to scream out at MCain rallies about Obama? The crack about Rush being so strung out on dope that he missed his flight was especially funny given Limbaugh's drug war militancy. Perhaps the Repugs can dish it out but not take it. I tend to laugh at material that's over the top, stuff that other people (of whatever political stripe) say "oh that's terrible, how can you laugh at that!" I found her sketch hilarious, I totally ROFLMAO, and I don't care whether anyone here agrees or not.
 </t>
         </is>
       </c>
@@ -2813,7 +2813,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2825,7 +2825,7 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wisconsin's flag is really racist. It has two White men with jobs pictured. No diversity what so ever. It has the year 1848 on it. In 1848 Black people were still slaves. In the lower right hand corner of the coat of arms is a pile of lead. Lead can be used to make bullets used by police to shoot unarmed Black teens who dindo nuffin. Scott Walker, take down this racist flag.
+          <t xml:space="preserve">Actually, Victoria, middle school children are 12 and 13 years of age, while 14 and 15 (unless deemed retarded) are freshman/ sophmore high school students... then again I noticed everyone's wonderfully silly replies then again...very true replies *clears throat* boy do I need mace...and to train in a defensive art...then again a gun works wonders
 </t>
         </is>
       </c>
@@ -2833,7 +2833,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2845,7 +2845,7 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t xml:space="preserve">OK, if it pleases you, I propose this rephrasing: "Will you suspend your attributing of the events of 9/11 to Zionist jews if you were to see Zionist Deli Owners for 9/11 Truth?" It is not especially evident, but you can deduce from this thread that a return to elitism and White male rule is called for, because, far and away, overwhelmingly, and almost exclusivey, White males comprise the only demographic group that is demanding 9/11 Truth and justice. P.M.
+          <t xml:space="preserve">Sorry, but I just don't get or understand the problem with circumcision. Did it hurt? I'm sure it did. However, as an infant, I'm sure the birthing process didn't feel good either. Does that mean that to stop the pain of being pushed through the birthing canal, we should automatically use a C-section? On top of that, infants will not remember that pain.....ever. I don't buy into the pain justification. I have been told that there is loss of sensation when a man is circumcised. That is a fallacy as well. That particualar area of the body is sensitive, believe me. Could there be a lessoning of sensation? Could be, but I believe most women could appreciate that for obvious reasons. Either way, if I don't know the difference, what difference does it make? Are there possible health risks from being circumsized? Yes Are there possible health risks from NOT being circumsized? Yes Ultimately, I just feel it's a personal choice of the parents. I have no problem with an infant (within a day of birth) being circumsized. After that? Nope. Forcing a 7 year old (somebody used this example) to be circumsized is cruel and barbaric.
 </t>
         </is>
       </c>
@@ -2853,11 +2853,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
@@ -2865,7 +2865,7 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sorry, but it didn't need fixing. I meant what I said. They are the spawn of Satan and subhuman filth. I have been choosing my words for almost 50 years now. I think I know what I mean. I didn't mean what you changed it to. Maybe that's what you believe.
+          <t xml:space="preserve">Millions of women victims raped by Russian soldiers during the last months of World War II. Anthony Beevor's book "Berlin -- The Downfall 1945" documents rape by Russian soldiers. "Beevor's conclusions are that in response to the vast scale of casualties inflicted on them by the Germans the Soviets responded in kind, and that included rape on a vast scale. It started as soon as the Red Army entered East Prussia and Silesia in 1944, and in many towns and villages every female aged from 10 to 80 was raped." The author "was 'shaken to the core' to discover that even their own Russian and Polish women and girls liberated from German concentration camps were also violated." He estimates that "a 'high proportion' of at least 15 million women who lived in the Soviet zone or were expelled from Germany's eastern provinces were raped." Until recent years, East German women from the World War II era referred to the Red Army war memorial in Berlin as "the Tomb of the Unknown Rapist." http://www.religioustolerance.org/war_rape.htm enjoy the russkiy sperm...
 </t>
         </is>
       </c>
@@ -2873,7 +2873,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>63.93</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2885,7 +2885,7 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Okay, first of all give me evidence that the Blacks have never even invented the wheel. Give me actual solid evidence that the Negro race, stretching all the way from Senegal in the Northwest to Mozambique in the Southeast, never invented the wheel. And no, don't give me some B.S. evidence that a small tribe in some village in the middle of the Jungle never invented the wheel. Sure, I'm aware of those examples. I said, give me evidence that the Negro race as a whole never invented the wheel. Second of all, we'll pay you as soon as you pay the Arabs, the Persians, the Indians, the Chinese, the Japanese, the Turks and other races for their contributions towards science and technology. But you'll never do that because you're a hypocrite
+          <t xml:space="preserve">In the end, jews are essentially committing slow suicide by seeding Western nations with their natural enemies, the Moors--HLM: Paris: 85-Year-Old Lampshade Stabbed And Burned To Death Inside Her Apartment, Moslems Suspected Paris: 85-Year-Old Lampshade Stabbed And Burned To Death Inside Her Apartment, Moslems Suspected – Occidental Dissent From Waaay Out West, --HLM
 </t>
         </is>
       </c>
@@ -2893,7 +2893,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2905,7 +2905,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't understand the logic of the people saying I should "get a white male friend" because none of them are racially aware and they hang out with black people anyway. I am not going to college to make friends, I don't have the time and I really don't care about silly socializing with the people there. You should actually try to skim over the whole thread before posting.
+          <t xml:space="preserve">Republican congressional candidate James L. Hart acknowledges that he is an "intellectual outlaw." He is an unapologetic supporter of eugenics, the phony science that resulted in thousands of sterilizations in an attempt to purify the white race. He believes the country will look "like one big Detroit" if it doesn't eliminate welfare and immigration. He believes that if blacks were integrated centuries ago, the automobile never would have been invented. He shows up at voters' homes wearing a bulletproof vest and carrying a gun, and tells them that "white children deserve the same rights as everyone else." Despite his radical views, Hart may end up winning the Republican nomination because he is the only GOP candidate on the ballot in Thursday's primary. Story: http://www.newsday.com/news/politics/wire/sns-ap-eugenics-candidate,0,1878124,print.story?coll=sns-ap-politics-headlines
 </t>
         </is>
       </c>
@@ -2913,11 +2913,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>74.67</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
@@ -2925,7 +2925,7 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Protesters block main road to Trump rally https://www.washingtonpost.com/polit...05f_story.html PHOENIX — Protesters blocked a main highway leading into the Phoenix suburb Saturday where Republican presidential front-runner Donald Trump was staging a campaign rally alongside Arizona’s contentious sheriff, Joe Arpaio. For hours, the protesters — about two dozen in total — parked their cars in the middle of the road, unfurling banners reading “Dump Trump” and “Must Stop Trump,” and chanting “Trump is hate.” Traffic was backed up for miles, with drivers honking in fury. The road was eventually cleared and protesters marched down the highway to the rally site, weaving between Trump supporters as the event got under way. From Waaay Out West, ~HLM
+          <t xml:space="preserve">All the foreigners who live in United Kingdom do resent the British I think that's the reason why they come here. I have no problems with Adolf Hitler because he stayed in Austria and Germany unlike this Serbian C***. I'm not a football fan but I'd like to see the English Premier League full of just English players got a problem with that?.
 </t>
         </is>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Like I said in an earlier post directed at you, do your homework. An Aryan is a racially aware White in my book, not every White is an Aryan, but every Aryan is White. English were considered WASPS - White Anglo-Saxon Protestants. Maybe that is what you ill-informed friend meant...or is it you that is ill-informed? I guess time will tell.
+          <t xml:space="preserve">Certainly not, if all they were doing was marching against the war in Iraq I don't see why they should be on Redwatch atall - that site is to catalogue information on our enemies. ISTM, it is not being done in a careful enough manner so as to screen out bystanders - participants in a march against the war in Iraq cannot be assumed to belong to the enemy - most of us here are against the war in Iraq.
 </t>
         </is>
       </c>
@@ -2953,7 +2953,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2965,7 +2965,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't know the demographics. I don't think anyone does, (and that includes you). Personally, I make six digits so I'm not an economic loser by most peoples definition. However, I was spawned from trailer trash. Would you like to explain your point about that? See the (never changing) quote of the week on the home page of this site. Silly person. See JJT's response. Most of what you've done is cast WN's aesthetically in a negative light. That lacks substance, and frankly IchLochZichOse, has been so done to death.
+          <t xml:space="preserve">A 3".410 000 Buckshot has 5 .36 cal. pellets, in a shotgun the will be traveling somewhere around 1200fps. For comparison a 9mm +P is anywhere between 12-1600fps. In a pistol you will loose some muzzle velocity, but it still hurts. I personally don't care for a Judge, but a .45 colt has been devastating things for a long time.
 </t>
         </is>
       </c>
@@ -2973,11 +2973,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>99.32</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
@@ -2985,7 +2985,7 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Riverside man has been incurring the ire of businesses he has named on a Web site that purports to out alleged employers of undocumented workers. Jason Mrochek, a 30-year-old software developer, said he hasn't been sued over his Web site, WeHireAliens.com. The site lists 200-plus companies, some of which are in San Diego County. On the site, he invites people from around the country to post complaints about specific companies, from large corporations to mom-and-pop businesses. Also posted are addresses, phone numbers, corporate logos and even photographs in some cases. Continued: http://www.signonsandiego.com/news/n...1m4wehire.html
+          <t xml:space="preserve">Banking would have came along with out the Jews. The only problem with banking is the usury the Jews apply it with. Banking is something the White race can do without screwing people over. The Jews just used it for a terrible purpose. It's not evil itself. It's like a gun, it's only dangerous as the person behind it.
 </t>
         </is>
       </c>
@@ -2993,11 +2993,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>55.36</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naughty negress Wendy Williams flashed a lewd photo in a promo for her TV show today, this occurring at 10:18AM when stay-at-home toddlers could have viewed it. Actually, considering this time of year, virtually all young children have holiday recess and could have viewed it. Here is an abbreviated, censored version of the photo: I doubt that anyone in America aside from me has raised issue with this. As a matter of fact, I researched the event during which the obscene act occurred, and I was unable to come up with any criticism about it. I did find the following brief article which raised "suspicion" about what may have been going on: Jennifer Lopez American music awards 2011 | Natacha Peyre @ Spotlife It looks like America is becoming an "anything goes" nation.
+          <t xml:space="preserve">Yeah she is a Jew, but that is besides the point . The fact is judges can do this and the mask hysteria is insane . We the people have to do something bout these tyrannical Marxist and Zionist judges. IÂ’m thinking, giving them the same treatment the outraged Hungarians gave the AVH.
 </t>
         </is>
       </c>
@@ -3013,7 +3013,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>97.84</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3025,7 +3025,7 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t xml:space="preserve">If we have tunnel vision and only focus on the Jews we do so at our own peril. This subject has been debated on this forum many times but suffice it to say that there is more than one threat to the white race my friends and we had better start to recognize this. The fools in NY were only the latest example. And the Jews are not outbreeding us. If we focus on one problem to the exclusion of all others we will be in years to come a few whites shaking our fists at Jews while living under sharia law. And spare me the "Once we get rid of the Jews the Muslims will go home" theory because if you subscribe to that interpretation you are fooling yourselves.
+          <t xml:space="preserve">Whatever. No one bothers you people. It's you Hispanics killing blacks for no reason. Blacks have been here since our ancestors were kidnapped and bought here and tortured for years and years. Save the lies. You're a gang banger trying to get the white man help you kill. You don't belong here.
 </t>
         </is>
       </c>
@@ -3033,11 +3033,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>70.28</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
@@ -3045,7 +3045,7 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t xml:space="preserve">This how bad it has gotten that it’s ok to fly a trans flag, and you’ll be praised for it. But you fly a rebel flag which is part of our nations heritage, and you’ll be harassed for being a racist fired from your job. This is beyond sad I don’t even want to imagine what’s going to happen next, be fined and put in prison for not being gay/transsexual. Our forefathers would be ashamed of this country and the people in it.
+          <t xml:space="preserve">Go away??? You come to OUR website, our internet community and you tell us to go away??? Are you stupid or something? We aren't in your face, we aren't in front of your house protesting. By all means, screw all the negroes you want to, you are only hurting yourself and your descendents. But if you are going to talk utter crap like that, telling us to "go away", then what the Hell are you doing here moron?
 </t>
         </is>
       </c>
@@ -3053,7 +3053,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3065,7 +3065,7 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t xml:space="preserve">I feel I need to share this with everyone. Two new documentaries with what looks to be unbiased opinion are due to be released soon. Fatherland - Documentary Kommandokorps - Due to be released. [ame="http://www.youtube.com/watch?v=ZqYKIShxrtI"]Fatherland - Documentary Kommandokorps or KK camps - YouTube[/ame] [ame="http://www.youtube.com/watch?v=bOfVfyNDLUU"]Fatherland - YouTube[/ame] Orania Film - Out on DVD. [ame="http://www.youtube.com/watch?v=njkUUAsWU1I"]ORANIA Trailer ENGLISH - YouTube[/ame] I have shared this one before. Very biased but it backfired. [ame="http://www.youtube.com/watch?v=BFWEtdZ5TWA"]Multimedia: Afrikaner Blood, inside a racist bootcamp - YouTube[/ame]
+          <t xml:space="preserve">Your choice, I’m just pointing out that Aristotle wouldn’t have agreed with what you perceive as democracy, indeed its quite strange how many supporters of "liberal democracy", the theory or spirit of it at least, look to ancient Greece when Greek views of democracy were often far different in ideology, in fact Greek views of democracy aren't a million miles away from the reality of democracy as Aristotle explained in his mixed oligarchy/democracy model.
 </t>
         </is>
       </c>
@@ -3073,11 +3073,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
@@ -3085,7 +3085,7 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are certain races that need to be sterilised. Forget contraception in Africa...too expensive, and the results are not worth the effort. There has to be a point where we accept that breeding quality out weighs breeding quantity. To convince muslims of this will be an uphill slog. Muslims even breed with their cousins...inbreeding The science of Eugenics has been swept aside for to long, and we need to re-discover the original intentions of the science. Just as in Horse breeding, you do not save the runts and allow them to sire bad stock. We could short circuit the contemporary probeings in Britain to find the violent gene and just sterilise the degenerate races. To save futher on costs, we could simply stop sending aid to these people, which only gives them incentive to come to the west, and also we need to close the borders.
+          <t xml:space="preserve">When I was at work last night, I flicked through a tabloid and one column caught my eye. It claimed that the B.N.P. are using an Islamic printing firm to publish the Voice of Freedom. Is this true? If so, I suggest they invest some finances in producing their material on their own rather than relying on non-White, non-welcome profiteers. 3702-M
 </t>
         </is>
       </c>
@@ -3093,7 +3093,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3105,7 +3105,7 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t xml:space="preserve">The media hasn't been pro-Israel in years, despite what you read on WN sites. There's a reason all the evangelicals and Jews always say the media is anti-Israel. And there's a reason Israel kicked CNN off their airwaves (and switched to FoxNews) years ago. The media is generally anti-white, and it can either be pro or anti Israel. But it will always be anti-white.
+          <t xml:space="preserve">I've got to hand it to the USA man. When George Bush was elected TWICE I lost all hope and respect for the average American. But I convinced myself that on the bright side, there's no way in hell you could find bigger moron than George dubya. Seems you did. I'm amazed. I mean, do you guys have a special school that teaches people to become this moronic or are these guys just naturally gifted?
 </t>
         </is>
       </c>
@@ -3113,7 +3113,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3125,7 +3125,7 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm trying to get you here. 100% of all attack rapes in Norway are committed by non-Whites who claim to be from countries at war, but are mostly not. And you claim it's because they are traumatized? Oh, right. Lying their way into one of the richest(per capita) countries in the world is very traumatizing. But okay. Let's pretend that these people actually are having a hard time in whatever country they are from, for the sake of the argument. Would they not be damn grateful to the Norwegian people who accept them into their society? Shouldn't they try to please the Norwegian people in order to show them that they didn't make a mistake? And this is somehow a reason that 100%, as in all, every SINGLE attack rape ever committed during those last years are committed by immigrants? Not any of the Norwegians with lower education, not a single one of them is guilty of these crimes. How come? This is obviously a racial issue. You're welcome.
+          <t xml:space="preserve">Yeah right and you probably look like something I flushed an hour ago. However, I heard you can fight! Apparently you really know how to wield a mean purse! At least my mother had children with functioning brain cells; yours cannot make that claim...unless you have siblings of course. Forgive us not everyone can have a boyfriend like you have...SIR! I think the Russians had a tad more to do with the allies SURVIVING that war then a small band of Carribean black dudes from some irrelevant colony. Or you describing Hitler or you describing your ideal man...SIR!? Such as? Ouch! Those high heels would hurt like hell! How do you kill them?...Disrobing in front of them?
 </t>
         </is>
       </c>
@@ -3133,11 +3133,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>54.53</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
@@ -3145,7 +3145,7 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.000.000 you're dreaming man... That should be one of theories of 20th-century, anti-Turk, French anthropologist telling things such: "when the Turk came to Anatolia, he had the terrible 'Mongolic-Tataric' look; and by raping the natives ... it was one of the rare time that the 'inferiors' beated the supremes and finally the Turks have lost their terrible look to be aryanized ... " bla bla bla ... moreover, look at the problem of your country before being busy with the Turks, and feeding with lies Keep in mind that all our Great victories were before 1526 ... And they haven't married our daughters .. But rather native balkan girls. Not all of them were Muslim, just contrary, they were free at their choice... Year-Number of Jannisaries[5]1514-10,156***1523-12,000***1526-7,885***1564-13,502***1567-68-12,798***1574-13,599***1603-14,000***1609-37,627***1660-61-54,222***1665-49,556***1669-51,437***1670-49,868***1680-54,222
+          <t xml:space="preserve">hey all; i'm in north county for the summer .. have only met one pro-white person in my life other than my late grandfather, and that was years ago. if any meetups / social gatherings will be happening, please let me know! i have no friends here, my summer consists of working and nothing else so far ... i'm also a noob trying to learn some happy 4th! 22270
 </t>
         </is>
       </c>
@@ -3153,7 +3153,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3165,7 +3165,7 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your choice, I’m just pointing out that Aristotle wouldn’t have agreed with what you perceive as democracy, indeed its quite strange how many supporters of "liberal democracy", the theory or spirit of it at least, look to ancient Greece when Greek views of democracy were often far different in ideology, in fact Greek views of democracy aren't a million miles away from the reality of democracy as Aristotle explained in his mixed oligarchy/democracy model.
+          <t xml:space="preserve">Michigan State Police looking for man who repeatedly used Bay City woman's stolen ATM card mlive.com, November 21, 2012 Michigan State Police looking for man who repeatedly used Bay City woman's stolen ATM card | MLive.com Police are asking for the public’s help in identifying a man they say broke into a Bay City woman’s car, stole her ATM card and then made several fraudulent transactions with it. {}
 </t>
         </is>
       </c>
@@ -3173,7 +3173,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3185,7 +3185,7 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t xml:space="preserve">I went there for spring break my sophomore year in college....awesome time......you are too young to go to the bars so I won't mention all the Irish pubs I attended with live Irish bands.....definitely go to Chicago Brick Oven pizza - the best pizza in the country - very thick I went to the Museum of Modern Art which is next to Soldier Field....Wrigley Field is also cool to see because it's smack dab in the middle of the city and has a good old white American vibe the Sears Tower is cool to go high up.....the beach on Lake Michigan and the park next to it are nice and I also saw many sites from Wayne's World while I drove through Aurora ahahahah
+          <t xml:space="preserve">My background is British, and I support the British National Party 100%. They allow Jews to join, and I have no reason to disagree with that policy. To me, you sound like a child that's afraid of the bogeyman; and that's because you've built up the Jew into some sort of supernatural being that can outsmart and control any white person. I'm a realist and want the BNP to be a successful political party. That's the only way we're going to actually get anything done, and I'm not interested in your idealistic WN fantasy. Anyway, as an experienced WN, what exactly would you say is best plan? Have you got a political party to recommend, or what?
 </t>
         </is>
       </c>
@@ -3193,7 +3193,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3205,7 +3205,7 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maybe you should show her how horrible a drug habit can be. What it leads to, etc. I saw this really good video called "Behind the Blue Lense..." it was a vid on drug addicts in, I think, Vancouver, who were homeless because of their addictions. It showed one lady who had ripped apart her arm because of hallucinations. You should try to show your sister the grossest, most atrocious things you can find relating to drugs. Make her want to change. If that doesn't work, keep trying to get the boyfriend arrested, with him around it will just be harder to win her back. Good luck, and I sincerely hope she gets off the drugs! Be strong, and remember if there is nothing you can do, that does not mean it's your fault.
+          <t xml:space="preserve">And even those ones were white. The point of this thread is to show, that nazism is not about hating other races. A black and a white person can be friends. But what nazism is about, is having different races live on different territories under different rules, for integration always leads to mutual hatred.
 </t>
         </is>
       </c>
@@ -3213,7 +3213,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>41.82</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3225,7 +3225,7 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soviet ideology has nothing to do with Slavs either yet, many accepted it openly, and many had no choice to accept it, feaering their lives. I agree partially with you.. I don't worship German NS. I respect the 'ideology'. Any race can apply NS. Slavic-NS ideology is gaining interest, thus maybe in the future Slavians will have a worthy ideology to apply to the people. I thank the NSDAP for helping liberate Soviets in Western Ukraine. What person would be proud to be a Soviet? Why would anyone be proud to be considered a statistic? Fact is Sovietism is inhumane, and completely opposite to the laws of nature.. NS is pro-life, and pro-preservation of each ethnic-culture. I agree, Slavians need to get their acts together. I have nothing against that. You're repeating what I've been saying, but different (true cultural independence, free, not sheep). I'm no sheep, far from it.
+          <t xml:space="preserve">It's still on the board. While our Presidential candidates dazzle us with smoke and mirrors and make issues out of things as inconsequential as stem cell research we're being invaded, occupied, displaced and dispossessed by hordes of third worlders. Immigration is something that we really need to focus on. I can speak for New Jersey and say that we're being overwhelmed by Mestizos, not to mention Hindus, Sikhs, assorted towelheads, Chinese, you name it, we got it. Since the mainstream political parties won't dare mention immigration out of fear of losing the Hispanic vote it's an issue that we can claim as our own.
 </t>
         </is>
       </c>
@@ -3233,7 +3233,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3245,7 +3245,7 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIULIETTO CHIESA Member Of European Parliament His Documentary ZERO The dam is breaking, all of Europe, the politicians know. Video Interview. Must Watch. Speaks to many issues briefly. http://www.russiatoday.com/news/news/30260/video Article on video. http://www.russiatoday.com/news/news/30260 Russians were murdered on 9/11. Canadians were murdered on 9/11. Many Nationals from many countries were murdered. When are these governments going to do something about it ? http://www.russiatoday.com/news/news/13892 http://www.russiatoday.com/news/news/30330
+          <t xml:space="preserve">Being new here I'm still trying out my new freedom wings. It's very difficult (where I live) to find white women who are willing to stand up and say they are white and proud of it. As a mother I would love to be able to have a "group" of friends to meet with, talk, discuss and have a support system for the problems with raising white children in a racist community. There are so many concerns when it comes to raising children and it would be great to have some older, more experienced white women to bounce idea's off of and get advice from. I think that more often than not women are overlooked within the white pride movement. Yes the men are important but the women are just as, if not more important. Young children base their feelings and experience on the mother. Most children from the age of newborn to about 5 years of age spend 80% of their time with their mother. I think it's important for white women, especially mothers to have a white support group available to them.
 </t>
         </is>
       </c>
@@ -3253,7 +3253,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3265,7 +3265,7 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Away with you troll we do not need you sowing the seeds of discord amongst us.We are WHITE therefor we are one regardless of our politics or religious affiliations I will stand shoulder to shoulder with Christians Nordicists (sp?) National socialists and skinheads on the field of battle for the freedom of my race and this sentiment is held by ALL White nationalists.
+          <t xml:space="preserve">Seems like a good excuse for Britain to stay more powerful than others. Meaning they would not allow smaller countries to become as powerful as them. Of course, but what matters is that England went along with it and committed treason whether they knew it or not. I'm not really surprised that something like this would be even proposed in Britain, it is a travesty, indeed. Well, of course I'm sure they would but they would not do much with just two BNP MPs in the parliament and nationalists in America are virtually unrepresented.
 </t>
         </is>
       </c>
@@ -3273,7 +3273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3285,7 +3285,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oxford reference Dictionary: Patriot; One who is devoted to and willing to defend his country. Country can be defined by many things, the territory of a state, the populous of that territory. I have no love for the British state, an apparatus determined to destroy the British people (English, Scottish, Welsh, Ulstermen, even Irish), and I don’t consider many of the people who hold British citizenship as my people. But country also means the territory of a nation, and a nation is defined by common ancestry. It’s possible to love and be willing to fight for one’s nation without having any love for one’s state; the two aren’t the same thing.
+          <t xml:space="preserve">For those of you who believe the "burn victim's" story, can you please explain how fiery jet fuel found its way from the 90th story of the WTC tower down to the main lobby? Did it make its way to a local elevator shaft, and then, from there, make its way to the upper skylobby where it transferred to an express elevator shaft to the lower skylobby where it transferred to yet another express elevator shaft down to the street level lobby WHERE IT SAID TO ITSELF: THIS IS WHERE I GET OFF EVEN THOUGH THERE ARE SEVEN LOWER LEVELS BELOW THE MAIN LOBBY??? Jeremy Miller
 </t>
         </is>
       </c>
@@ -3293,11 +3293,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
@@ -3305,7 +3305,7 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t xml:space="preserve">We need a White Aryan uprising. I don't even care if it's a violent one or not, we might not even be able to resolve this peacefully anymore. Muslims aren't going to leave this country if we ask nicely are they? Islam is worse than the plague. If people don't wake up fast, this country is gone, and so is democracy. The Islamic Republic of Britain - sound good to anyone?
+          <t xml:space="preserve">I do admit that some non-white racial extremist groups take Liberalism into a bad light. But for the most part, Liberal's are just like WN's although with different view points. I think the 'linear thinking' types of people you are thinking of are organizations such as 'The Black Panthers' and Jessie Jackson and these types of extremists. Liberal's are not like that, we do not use the name of Liberalism to push any agenda.
 </t>
         </is>
       </c>
@@ -3313,7 +3313,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3325,7 +3325,7 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t xml:space="preserve">It looks fantastic. The racial imagery is even more open then in the Fellowship of the Ring. Gandalf the grey has returned as Gandalf the White. The Riders of Rohan are blonde viking horsemen. The army of Orks are Black mongrel hordes. Fantastic. Pass the word to pass on Harry Potter this Christmas. LOTR rules.
+          <t xml:space="preserve">Most of North Americans and Europeans consider Latins as a race, but latins are ******s, jews, meztizos, indians and ARYANS, but they think that latins are only meztizos and ******s, and these two races don't even represent the 30% of latins, also they think all the latins are wiggers, and they aren't. If you go to any country in Central or South America you will see that rascism is bigger than in the U.S or in a Nordic Country, and a white latin is more proud than any nordic country. So we should start fighting for a world wide recognition of a white latin race.
 </t>
         </is>
       </c>
@@ -3333,7 +3333,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>68.48</t>
+          <t>78.24</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3345,7 +3345,7 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t xml:space="preserve">We do not care what their ambitions are. They bring their culture and expect us to observe their tabboo's and superstitions, thereby creating a parasitic culture that leeches off our benign and humane culture. Their degenerate cultures are gaining access to our culture by the back door. We do not want our children growing up taking derelict cultures for granted. DNA. Apart from that obvious fact, they will all be ritually mutilated and perpetuate this degenerate ritual, and try to enslave our people to this infamous rite. For the un-evolved probably so, but for evolved races to breed with un-evolved races is reversing evolution. Breeding with a stone age hunter gatherer is not evolution for us. No sweat.
+          <t xml:space="preserve">I think it will blow up in their faces. Nothing lasts forever. If Jews were able to achieve some world domination they would have done it centuries ago. They keep trying, causing problems, and get exposed, regroup and try again. They operate against Nature and it just cannot last. They have already revealed themselves in full retard mode and lost media control--so important to their mode of operation. People don't trust the media--especially young people. A few cities are nations may implode but they will become no go areas and eventually be targets for clean up in a time when the diversity philosophy will lose its power. Already happening.
 </t>
         </is>
       </c>
@@ -3353,7 +3353,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3365,7 +3365,7 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think these riots are only partially racial, there's a lot of whites rioting too judging by the footage. I think it's more a case of a falling empire in despair and starting to turn on itself. I think the lock down has added to it as well, there's a lot more people now out of work (some with no real prospect of returning to work) than there otherwise would have been.
+          <t xml:space="preserve">[QUOTE] Certain Jewish Rabbis have admitted that Judaism is not a "Religion", it is a way of life. A code of Law. A Code that puts Jews at the summit of humanity and non-Jews as beasts of burden to carry out their orders. As the numbers of Aryans being sacrificed in the Middle East for their benefit testify. JU88.
 </t>
         </is>
       </c>
@@ -3373,7 +3373,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>59.32</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3385,7 +3385,7 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why are you putting words into my mouth? At least just ask a simple question rather than a leading question..... and then answering it yourself! For the record I could careless about Islam, I am only interested in the race of the invaders not the religion. All the pakis could be good god-fearing christians but I would still want them out of Europe.
+          <t xml:space="preserve">I was re-reading "My Awakening" chapter 22, last night. Israel: Jewish Supremacy in Action. An account of the attack on the USS Liberty is near the end of the chapter, it got my blood boiling. The Jews are ruthless, manipulative, cunning, racist beyond our Goy imaginations. The blood of a million Goy is not worth the thumbnail of a Jew. http://www.front14.org/tsun Nothing would surprise me when it comes to Jewish manipulation of world history/events. As far as the WTC incident, besides the stench of 5000 decaying, mostly white bodies, the smell of schmalz hangs heavy in the Manhattan air. Lawdog Links not working. It gets overloaded sometimes.
 </t>
         </is>
       </c>
@@ -3393,7 +3393,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>99.8</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3405,7 +3405,7 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t xml:space="preserve">I gave up and deserted the democrats and voted for El Presidente Boosh. Anyone who is NOT an idiot knows that the republicans have deserted US and America to join the jews. I will take a Nader or even a jew over a lying, decieving, traitorous republican, or a stalinist democrat every day. At least with a jew, I can sort of know what to expect. Presidente Boosh has done nothing but destroy my confidence in the conservative wing(republicans-they just have more money) of the liberal party. For any dummies out there: OUR BORDERS ARE STILL OPEN! OUR CULTURE IS STILL BEING DESTROYED! JORGE BOOSH IS PRESIDENTE. My grandchildren still cannot drink our water where I live, because it has been poisoned by nitrates. They are literally selling us water now. I trust Nader more than any of those lifelong political parasites that they keep pushing over on us. But there is little point of stirring controversy, because we will just get another parasite that elite jew/gentile powers provide for us. Any real opposition to the two parasite system would be destroyed.
+          <t xml:space="preserve">Unfortunaly the Social Democrats are as they were in pre Third Reich Germany still in charge of the media and they WILL put their hate mongering spin on the rhetoric that they publish. The only way to control that is to wrest control of the media from the hands of the KIKE ! ! ! By whatever means necessary.
 </t>
         </is>
       </c>
@@ -3413,7 +3413,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3425,7 +3425,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wow, talk about self righteous horse****. You've lost all credibility in my eyes, O Superior White Brother Jack Boot. Contrary to what you believe, we lemmings are free thinking individuals quite capable of independent thought. You can come up with whatever ZOG inspired multi culti conspiracy theory to explain away our supposed brainwashing if that justifies your self importance, but the simple truth is that we just agree to disagree, nothing more nothing less. No one is above reproach, "brother". Stop acting like a tool.&lt;br&gt; And, oh yeah, didn't TJ contribute to the african american gene pool?
+          <t xml:space="preserve">"We will openly reveal our identity with the races of Asia and Africa." I don't see the jews controlling China, Japan, Korea (n or s), Indonesia or any asian country with millions of fanatical young men armed with AKs, nor jews controlling any oil or mineral producing country in africa that can use its vital commodities for political extortion. I do see jews as being disproportionate go/no-go bottlenecks in media, academia and politics where small numbers have influenced the flow or tenor of news, opinion and knowledge - "political correctness" - but as a prior poster noted, the internet (and now texting) has changed that .
 </t>
         </is>
       </c>
@@ -3433,7 +3433,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3445,7 +3445,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well B devil the problem is simply this!. Sydney is the Biggest Multicultural and Homosexual city in the Southern Hemisphere. It is already a lost cause there is no saving it in my view better to abandon ship altogether for most sincere wp sydney siders if at all possible. It is already far too late for sydney!. Other capitals in Australia may stand a chance but in all honesty not sydney. You must also understand that the scene in sydney is made up of many frauds and homosexuals posing as Nationalists.So really the until the so called wp types sort out their own ranks and send the gays and frauds the message that they are not welcome to pose or claim the name nationalist lower socio economic Wp aussies stand even less of a chance of standing up to them!.
+          <t xml:space="preserve">The fact is it is the White soldiers who are doing most of the front-line fighting, the Blacks are held in the background. That is a fact. Yet in the media of course they are always interviewing the Black guy in the front lines. "According to a report from the federal Government Accountability Office last week, as of May 28 this year, the majority of the soldiers and Marines killed or wounded in Iraq and Afghanistan were white, enlisted personnel from active-duty units. According to the GAO report, whites constitute 71% of the fatalities while representing 67% of all active-duty and reserve forces. African-Americans, who are better represented in the military than in the civilian work force, represented just 9% of fatalities; blacks make up 17% of the overall forces."
 </t>
         </is>
       </c>
@@ -3453,11 +3453,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>66.01</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t xml:space="preserve">they hate the USA as much as they hate all the white countries and the free world because they want all the world to live by the rules of the Islam Nonsense! They are absolutely justified in hating the west. You need to understand the events that led to the creation of Israel. We have been beating the crap out of Palestinians via jews and Israel since before WWII. Jews dragged America into both world wars first to establish Israel, then to destroy Germany and enhance the power of jews and Israel. White Western Civilization lost both Wars and the jews were the ONLY people to achieve long term gains. The arabs lost from both wars as well. You have reading to do. Here are easy ones to start with. http://www.heretical.com/miscella/bolshies.html http://www.voteforusa.com/benfreed.htm See The Truth About Israels Creation. http://outofisrael.com/splash.html# http://www.charleslindbergh.com/americanfirst/index.asp http://www.ety.com/HRP/rev/thejewishwar.htm
+          <t xml:space="preserve">Wow, talk about self righteous horse****. You've lost all credibility in my eyes, O Superior White Brother Jack Boot. Contrary to what you believe, we lemmings are free thinking individuals quite capable of independent thought. You can come up with whatever ZOG inspired multi culti conspiracy theory to explain away our supposed brainwashing if that justifies your self importance, but the simple truth is that we just agree to disagree, nothing more nothing less. No one is above reproach, "brother". Stop acting like a tool.&lt;br&gt; And, oh yeah, didn't TJ contribute to the african american gene pool?
 </t>
         </is>
       </c>
@@ -3473,7 +3473,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3485,7 +3485,7 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t xml:space="preserve">It drives me crazy that Christmas merchandise is out before Halloween is even over. They will start putting it out earlier and earlier if they can make another buck of it. What gets me is that don't want to say "Merry Christmas" but they want to make the money off the holiday. Christmas as become nothing more than a cash cow in this nation. We are making most of our gifts in our family. Part of it is financial reasons, but also because we believe it means more than some junk made in China.
+          <t xml:space="preserve">greetings all, Are there any musicians living around the Cape Town area interested in working together on music with a strong white pride message. I'm not really interested in skinhead rock but rather an accoustic rock sound. I already have a top-class drummer so I'm looking for guitarists and someone who can play keyboards and hopefully the piano accordian as well. I'm hoping to bring as many traditional Aryan sounds in so if you can play flute, bagpipes, Uillean pipes or the violin, please give me a shout. Also, if there is anyone on this forum who understands electronic Trance music and Fruity Loops or some other programme, I would love to hear from you. There is a desperate need for this kind of thing in South Africa and I believe there is a huge un-tapped market out there. Don't worry about exposure at public gigs as I plan to create this music and distribute it without neccessarily exposing who the musicians are. 1488
 </t>
         </is>
       </c>
@@ -3493,11 +3493,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>65.41</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was in Victoria when the march passed, it was well attended and effective, most of the public were sympathetic beebing car horns as they passed etc. One or two negative reactions but only that. The usual ridiculous circus of the police following those around with cameres when they should have be out looking for the Islamic scum who are no doubt planning more of the same carnage in London soon. Well done to the NF for standing up and taking a stand on this issue.
+          <t xml:space="preserve">U.S., Europe caught in ‘death spiral’ of declining birth rates "Corcoran said. “It has been drummed into the heads of American college girls since the early 1970s that we should only have two children because of the growing world population. But who never listened to this propaganda? Pretty much all of the Third World and the Islamic world.” Rep. Steve King, R-Iowa: "Wilders understands that culture and demographics are our destiny. We can't restore our civilization with somebody else's babies." Globalists can’t have it both ways: Encouraging family planning, more women climbing the career ladder and having fewer children, then complaining about the aging population and smearing the reputations of everyone who balks at the idea of seeing their city, their state, their nation transformed into an Islamic enclave." .
 </t>
         </is>
       </c>
@@ -3513,7 +3513,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3525,7 +3525,7 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's always good to hear someone learning the language of the Vaterland! I don't recommend learning from a class. When I was learning English, I did it from a book and a few cds. I have found that classes move too slowly after they cover the basics. Classes are good in teaching the very basics, but after that... Viel Glueck!
+          <t xml:space="preserve">I suppose that's a matter of emphasis. I take my national identity as part of a complex web that also includes upbringing, religion, morality, culture, language and even class. How much these mesh to a greater and lesser degree in each of us is certainly open to debate. I regard racial identity as very important but I don't take the reductionist extreme biological PoV that it is everything. An amoral irreligious pro-commie anti-English aristocrat of the highest white racial pedigree is not my Brother. He is not my Comrade in the way that this brave patriotic lady is. His racial heritage counts for nothing in this instance.
 </t>
         </is>
       </c>
@@ -3533,11 +3533,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
@@ -3545,7 +3545,7 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Examination board AQA has signed a £2 million contract to have 360,000 GCSE papers digitally scanned and emailed 5,000 miles to a data-inputting centre near Madras. The board claims the plan - for Biology, French, Geography, German, ICT, maths, Science and Spanish scripts - will boost the efficiency and accuracy of marking in this country. Exams to be marked in India
+          <t xml:space="preserve">Well that is how we feel entirely. Not all criminals are blacks and not all blacks are criminals, but an undeniably and totally inappropriate number are. Which is why we do not wish to associate with them and have them in our lives. Personal safety ? if you worry about that sure enough in my country we could take out the 15% blacks and put an end to 70% of the crime. Rude people ? I do not much care for them myself, if we wish to not associate with rude people that is another easy fix, take out the blacks and you get a much more polite and cohesive society. It is just like you said about yourself as a person, you do not wish to have contact with some types, whilst freely admitting not all our blacks are criminal and offensive, more of them than is acceptable are. Hence my view that not having to encounter the bad ones would be worth losing the contact with the good ones.
 </t>
         </is>
       </c>
@@ -3553,7 +3553,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>98.07</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -3565,7 +3565,7 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve">This sorryass is just upset he's a mongrel. White dad probably banged his 2 dollar slut of a mom and took off in shame after realizing what he had done by creating such an abomination. Now he's waking up to realize that's he just another mut and angry about it. Hence his post here.
+          <t xml:space="preserve">There are limits to your people's capabilities. You're a racially homogenous nation of 1.3 bilion people. Any homogenous population that large with an average I.Q. over 90 and a generous amount of resources at thier disposal will likely make rapid gains in a short amount of time. America proved that fifty years ago, Germany did it before them and Britain proved that for centuries. Don't forget that while you were still clutching onto your backward ideologies, white populations around the world were busy inventing such useful little things that make our lives easier...like nuclear fission or quantum physics. For your sake, I hope you keep your race homogenous and clean from jews. Once the two of you are indistinguishable, it's all over.
 </t>
         </is>
       </c>
@@ -3573,11 +3573,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
@@ -3585,7 +3585,7 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is worse than a sick joke. Obama is a homo freakazoid and his tranny partner Michelle proves it. "Faith based agency" HAHAHA! Wasn't it the Bushes that started this BS or does it go back to Reagan? It is pure BS regardless the government of the USA is not supposed to be involved in the religious affairs of it's citizens or lack thereof. Take a good long look at that freak, that is the future of religion in the west. I say to hell with that thing and to hell with any religion even remotely tolerant of it. I'll stop there...
+          <t xml:space="preserve">1) Which one is scarier? 2) Which one is a fake? 3) Which one has a paw on your wallet? 4) Which one WON'T go away? 5) Which one would be a more interesting interview? 6) Which one would you'd rather your daughter brought home? 7) Which one DOESN'T need a teleprompter? 8) Which one would you rather share a cold one with? 9) Which one is NOT a mixed breed? 10) Which one would you dare turn your back on????? Just askin'.
 </t>
         </is>
       </c>
@@ -3593,7 +3593,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3605,7 +3605,7 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t xml:space="preserve">I wonder of the vassals of Germany would have the guts to arrest him the way they have done with historians... I also note that despite squealing protests about his visit to the UN last year, no jews were prepared to actually go to his public speaking events and challenge his beliefs on the holocau$t™ One has to wonder.
+          <t xml:space="preserve">Fourth man arraigned for alleged role in home invasion, assault on 84-year-old mlive.com, November 14, 2014 Fourth man arraigned for alleged role in home invasion, assault on 84-year-old | MLive.com JACKSON, MI – An 26-year-old Lansing man has been charged with seven felony counts for his part in a Summit Township home invasion and assault that injured an 84-year-old man. Darvin Mims {}
 </t>
         </is>
       </c>
@@ -3613,11 +3613,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
@@ -3625,7 +3625,7 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t xml:space="preserve">In South Africa we do not get Ben&amp;Jerries, which is good because it sounds like they are both jews. These people from PETA should be confined to a mental institution. This is the most ridiculous statement I ever heard,these idiots have nothing to do and they are wasting time and raising my blood pressure by going around and trying to change the way normal human beings live. These kind of nuts would have been purged in Germany in the good old days.
+          <t xml:space="preserve">Himmler was a great man who knew what he was talking about! I only wish he wasn't so right I don't wish to see the Germanic/Nordic race go extinct. That would be the worst disaster the world could ever imagine. We need to set up a forum for Nordish people only to help preserve our race. We should also fight for our own homeland.
 </t>
         </is>
       </c>
@@ -3633,7 +3633,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3645,7 +3645,7 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kalamazoo cold case murder suspect formally charged by video wkzo.com, April 25, 2013 Kalamazoo cold case murder suspect formally charged by video - News - AM 590 - WKZO Everything Kalamazoo {} 'He was taunting me': Judge testifies about letters accused murderer sent him about 1993 cold case in Kalamazoo mlive.com, May 13, 2014 'He was taunting me': Judge testifies about letters accused murderer sent him about 1993 cold case in Kalamazoo | MLive.com {}
+          <t xml:space="preserve">Dont worry about being pale. I am a girl and i never get tanned and i dont intend to do so neither. I am pale white as well and they also tell me things that you need to go to the beach, the solarium, etc. But i tell them that i am happy being pale and i dont have any necessity to be tanned like the rest of the people.
 </t>
         </is>
       </c>
@@ -3653,11 +3653,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>59.84</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
@@ -3665,7 +3665,7 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well that is how we feel entirely. Not all criminals are blacks and not all blacks are criminals, but an undeniably and totally inappropriate number are. Which is why we do not wish to associate with them and have them in our lives. Personal safety ? if you worry about that sure enough in my country we could take out the 15% blacks and put an end to 70% of the crime. Rude people ? I do not much care for them myself, if we wish to not associate with rude people that is another easy fix, take out the blacks and you get a much more polite and cohesive society. It is just like you said about yourself as a person, you do not wish to have contact with some types, whilst freely admitting not all our blacks are criminal and offensive, more of them than is acceptable are. Hence my view that not having to encounter the bad ones would be worth losing the contact with the good ones.
+          <t xml:space="preserve">I remember the TV show "Baa-Baa Blacksheep" based on Pappy. I got no problems with the man and if he was part Souix then it didn't have much power over him. He was a Fighter Ace - nuff said. BUT here's my question: if Pappy had flown C-47's would we give a rats ass? Face it Coursair's are one of the COOLEST airframes ever. I like Bf-109's a lot more but that's just me.
 </t>
         </is>
       </c>
@@ -3673,11 +3673,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>68.72</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t xml:space="preserve">On a television show here in South Africa investigative reporters bought body parts from hospital mortuary staff... hands are regarded as particularly powerful and potent "muti"... white hands and more particularly children's hands are regarded as almost a holy grail of magical power... This does not stop the rest from going and actually getting their victims.... because there is apparently a method of killing that makes the "muti" more powerful... as in the hands need to be cut off from a still living victim.... Funnily this crime has not elicited any arrests yet... the MSM is more interested in the president's refusal to reval his family financial affairs, him telling the British Queen she is an oppressive English colonialist and saying that white ratepayers who intentionally do not pay rates anymore to black municipalities are "racist" The murder of this little teenager was a short sensation... The blacks in this country are TERRIBLY superstitious... in fact all of them are... so the chances the witchdoctor who got hands off a white girl getting caught whilst black policemn investigate are ZERO
+          <t xml:space="preserve">The jews have declared open war on our people. Why are we helping these people? "Australian nurses and midwives are being forced to announce their 'white privilege' before treating Indigenous and Torres Strait Islander patients - a move which has been slammed as 'racist to its core'." Nurses forced to announce 'white privilege' when treating Indigenous | Daily Mail Online Sorry For Being White | Australia Nurses Have a New Shocking Code of Conduct - YouTube
 </t>
         </is>
       </c>
@@ -3693,11 +3693,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>89.18</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
@@ -3705,7 +3705,7 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have to give this guy credit for speaking his mind on a bus full of boons. He wins argument and then sheboon attacks in a rage, looks like he gets swarmed by a lot of the bus. Perfect example of when push comes to shove race is all that matters, even for blacks: [ame="https://www.youtube.com/watch?v=sNrpVLPKy4M"]Went Down On The Bus: Argument Ends With Dude Getting Jumped For Getting Too Smart At The Mouth! - YouTube[/ame]
+          <t xml:space="preserve">A small group of individuals who make the real decisions away from the public arena, so what's new? The big thing in British politics is whether the Conservatives will abolish inheritence tax and cut back police paper work. Important matters I am sure, the country is being flooded daily by the Third World cast offs, we have a crumbling infrastructure and out of control crime. Politicians offer sound bites and catch phrases. Any one who seriously does believe your vote matters really does need to think again. You might change the face but it's made damn sure that you don't change the system and certainly the great unwashed will not be tolerated to decide real matters of state.
 </t>
         </is>
       </c>
@@ -3713,7 +3713,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>74.67</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -3725,7 +3725,7 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t xml:space="preserve">All the foreigners who live in United Kingdom do resent the British I think that's the reason why they come here. I have no problems with Adolf Hitler because he stayed in Austria and Germany unlike this Serbian C***. I'm not a football fan but I'd like to see the English Premier League full of just English players got a problem with that?.
+          <t xml:space="preserve">It seems as though the Jews complain that "KKHHizzbullah" are financed by Iran. Therefore Iran is a "Terrorrist state". Who finances the "Zionist Regime" in Palestine? Is this not why we have become targets of the dispossesed Arabs? The Arabs said that if the "West" failed to take their concerns seriously they would bring the War to the streets of the "West". The "west" is reaping the seeds it sowed when it decided to support the injustice known as "Israel". This is precisely where Judaic Philosophy fails. You cannot abuse people and hope the problem will simply be brushed under the carpet because Jews call themselves superior. If the Jews keep on, full-steam ahead destroying the Cultures of the Middle-East they will end up with another "Arse Kicking". Time for the Jews to stop and think for a change, instead of relying on their Dusty old Tomes, the Talmud has brought them nothing but bad luck. JU88.
 </t>
         </is>
       </c>
@@ -3733,7 +3733,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>59.41</t>
+          <t>60.06</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -3745,7 +3745,7 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is so true. Why the hell would a woman do that to herself, anyway? Quite frankly, I find un-natural breasted women disgusting, regardless of race. I have never really liked Anderson, but I am sure that she was an attractive woman before getting her butt inside the re-making factory. As for her being jewish, I don't know. I am willing to bet any amount of money that if you guys were "media artists" the jews would throw "facts" here and there about you guys being jews as well. It is a well known fact that jews like to call anyone a jew, just so that it looks like they are a large numbered people.
+          <t xml:space="preserve">Now that I think about it the alien conspiracy in X-files could be an allegory for the Zionist conspiracy in the world. The Zionist (I mean aliens) want to conquer the world by genocide of us. If X-files were real, the aliens would have to worry about Mr Jew. Big Time! Mr Jew would seek to create a Jew-alien hybrid. Mr Jew would use the hybrids against the aliens. Mr Jew likes saying, "We are one of you." Obviously, Mr Jew would rot the aliens society from the inside out like the cancerous tumor that he is. Never trust a Jew. Everyone gets screwed by the Jews on their Jew deals. I almost feel sorry for the aliens, but my loyalty is to my race. In the end it is all about their Jew hate.
 </t>
         </is>
       </c>
@@ -3753,11 +3753,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
@@ -3765,7 +3765,7 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Serbian army didn't have any functional S-300 air defense systems, or else the war would have lasted one night only and would have ended with all the jewmerican planes shot down. Regarding Dvastebya88, he is not credible at all. He claims to be Russian, yet he never responds in Russian and he doesn't seem to understand what he's been asked and told in Russian... Everyone here should have in mind that Stormfront is a Mecca for trolls and that nobody should be trusted just like that, especially if their stories have such huge inconsistencies...
+          <t xml:space="preserve">There are plenty of Whites who: "See no problem with the Jews". The Jews are skilled at working covertly and denying any evidence produced against them as..."Anti Semitic". The Lubavitch Hasids are serious about their intentions. To them it is part of their "Religion". Just as Rabbi Schneerson the chief Rabbi of the post-War years has dominated Jewish ideology, so M.Buber dominated pre-War Orthodoxy. Rabbi M.Kahane, and his infamous JDL, whose motto was that Palestinians should be driven into the sea, who was the mentor of B.Goldstein the mass Murderer, were both Orthodox Hasidic Lubavitchers, and were followers of Schneerson and Buber. Schneersons family still labour under the evidence of having committed ritual Murder in Russia, and were known as a "Schechter" family, i.e. denominationally permitted to practic ritual murder. Flaivel Schneerson escaped to the US to avoid prosecution and was given sanctuary amongst US Jews. http://judicial-inc.biz/mendel_beilis_supplement.htm Jews pervert the meaning of the concept "Religion".
 </t>
         </is>
       </c>
@@ -3773,7 +3773,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3785,7 +3785,7 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argentina Charges Buenos Aires Mayor's Spokesman for Praising Hitler AFP Argentina charges Buenos Aires mayor's spokesman for praising Hitler | GlobalPost The lead spokesman for Buenos Aires' mayor faces criminal charges after saying Adolf Hitler "was a spectacular guy," a court source told AFP Tuesday. Ecuadoran-born Jaime Duran Barba has been charged by federal prosecutor Guillermo Marijuan with voicing approval of a criminal act, the source said. Barba is a top aide to Mauricio Macri -- the mayor who is also a possible 2015 presidential hopeful. Argentina is home to the largest Jewish community in the Americas outside the United States, with some 300,000 people. From Waaay Out West, ~HLM
+          <t xml:space="preserve">"Those ghosts from civil rights battles past have never left Noxubee County, and they continue to influence the way the case against Brown is viewed. But guilty or innocent, the Justice Department wants this case to be about Brown, not the state's historical disenfranchisement of black voters." I love this last cheap shot... It opens up the case for the Multicult so no one thinks their reporting is "Far from the mainstream", As the antis love to put it.
 </t>
         </is>
       </c>
@@ -3793,7 +3793,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3805,7 +3805,7 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, if thats what it takes to keep a country indigenous and white then I'll still take it.! Even if a govenment must keep the country economically poorer in order to keep those dirty buggers out it's still worth it at this point. i would still rather settle for an all white poorer one than a bloody immigrunt infested one. Transylvanian, you are locked in the past complaining about the historical missdeeds of the Soviets and the name "Communist." Even many nationalists in Russia will vote for the so called Russian communist party because it is actually more nationalist at this time than all of the other parties who have a chance to get in power. This is real politic and not textbook gradeschool debating.
+          <t xml:space="preserve">For me this is a tough question since I am not a hater of humanity. Thank the almighty Jew for what will probably be the greatest war to ever befall mankind. Without a doubt, and its certain to happen, race war will wipe out millions. After the smoke clears I might be in favor of having all whites emigrate back to Europe and What will soon be a third world, mullato infested toilet - America be used as a land of refuge. Provided of course all our technology comes with us. I couldn't imagine nukes in the hands of negroes.
 </t>
         </is>
       </c>
@@ -3813,7 +3813,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -3825,7 +3825,7 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't think I need to mention this whole subject gives me the creeps. As far as I'm concerned, pedophiles should be castrated and given a life sentence if they've committed a sex offense, even if against only one child. Multiple sex offenses against kids should carry the death penalty. Any pedo who downloads child porn on his computer should be given a minimum sentence of 7 years and under court order restricted from owning a PC, living anywhere near a school, or from having any contact at all with kids professionally or socially upon his release. If he downloads or receives by snail mail any child porn where kids are tortured and sexually abused, then there should be at least a minimum of 25 years in jail without the possibility of parole. They'd totally dread the day I were president! I'd be the first one to earn "THE TERRIBLE" in my title.
+          <t xml:space="preserve">Dont dispair there are many ways of dealing with the anti social trash of society im sure you can figure out the less than legal ways but there are also legal things you can do.One thing pikeys hate is the old bill, its a sure bet they use drugs they almost all do. An anonymous call made by yourself or someone on your behalf to your local police station they have to respond
 </t>
         </is>
       </c>
@@ -3833,7 +3833,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -3845,7 +3845,7 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Still, yikes! Many plants are even poisonous to touch, let alone taste. Take the common ground-cherry, since it was mentioned as a possibility. It has a yellow, tomato-like berry, sticky, heart-shaped, hairy, toothed leaves 1-4 inches long and is a member of the nightshade family and grows 1-3 feet tall in summer-fall. There are 3,000 ground cherry species, and the unripe fruit of some is considered poisonous and animals can be poisoned by feeding on the plants, but not birds. Virginia ground cherry is a member of the nightshade family which also includes bittersweet, pepper, petunia, potato, and tobacco, to name a few. Some members, like henbane and deadly nightshade, are poisonous. And no, not everyone knows hemlock. Some folks, especially kids, have died mistaking it for Queen Anne's lace and holding it in their mouth. What do the leaves look like close up and have you seen its flower?
+          <t xml:space="preserve">Yes, that's true, most of the Russians are pro-white, the only problem is that they want white Russia but afraid to do something about that. Every time I talking about kicking the Caucasians out of Russia my friends saying me: "yes, you are right but it is so evil to kick them out from their homes- don't you have any feelings?" Last week I walked with my girlfriend at the Red Square - the center of Moscow and I saw more Caucasianss than Russians- and our police is so corrupted that they don't even care about Russia or the Russin law- the only thing they care about it is $$$. Another way that the ZOG control our minds is the fact that Russia sufferd so many casualties in WW2 - they allwayes remind us that nationalism is evil and deadly and comparing us to the Nazis. :attack In my opinion the only solution for Russias problems is strong nationlist leader and nationalistic regime. Peter The Great.
 </t>
         </is>
       </c>
@@ -3853,7 +3853,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>92.7</t>
+          <t>70.05</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -3865,7 +3865,7 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t xml:space="preserve">A million times worse. No different from Mafia hit men- taking money merely to kill people. The San Patricios were motivated by the destruction of Churches, the rape of nuns and a disbelief in the justice of the war. A belief in Justice- however much we have failed to be just is something that separates European peoples from the Jews. The idea of us becoming Aryan versions of Goldstein sickens me.
+          <t xml:space="preserve">What would you have us do? Round up all negro kids at birth and put them behind bars? We (well, most of us, atleast I had thought so...) are for a white nation. Not blind hatred. We will get nowhere fast with people spouting out hateful and heartless nonsense. I said nothing about negroes being innocent. Children are innocent. If you cannot see that, then go f'ing hang yourself. No child deserves this. White or black. Race should not matter when it comes to the life of an innocent. This child did not ask to be born, nor has he asked for a death sentence, and that's exactly what he has been givin.
 </t>
         </is>
       </c>
@@ -3873,7 +3873,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -3885,7 +3885,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t xml:space="preserve">How funny that you'd ask that! The "Swedish" paper Expo, which is financiered and run by Jews with an "anti-racist" agenda, funny enough they call us Swedes "White creeps" but that's absolutely not racist at all, it's against Swedes, have just started up support groups who beg money to help donate to Expo. The Nationalist organization Nordic Youth(Nordisk Ungom) have started a group to "help Alexander Bengtsson with his morning hair style". Alla grupper | stodexpo.se It seems they're not removed... yet.
+          <t xml:space="preserve">"It’s far worse than I thought. In addition to the many links between the family that owns The New York Times and the Civil War Confederacy, new evidence shows that members of the extended family were slaveholders." "All that would be bad enough given that the same family still owns the Times and allows it to become a leader in the movement to demonize America’s founding and rewrite history to put slavery at its core. As part of that revisionism, George Washington, Thomas Jefferson and Abraham Lincoln are suddenly beyond redemption, their great deeds canceled by their flaws. But shouldn’t such breathtaking self-righteousness include the responsibility to lead by example? Shouldn’t the Times first clean out the Confederates in its own closet?" The family that owns The New York Times were slaveholders: Goodwin
 </t>
         </is>
       </c>
@@ -3893,7 +3893,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3905,7 +3905,7 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not a slave; You're not much of writer either. I've got a deal for you. I'll read history, "properly", as soon as you use English properly. I love it when idiots who have a 2nd grade command of basic English come here to call me stupid. You're "Not a slave", you're an illiterate. How can you expect to be taken seriously? Have a grown up proof read your emotional little rant. By all means, feel free to punch out your monitor. Preferably while it is turned on. Your people have so little control over your emotions that punching out a monitor sounds about par for the course. Just like you destroy your own houses, neighborhoods, and nations. Take a good look at Hati. The crown jewel of the black man's genius. I hope for your sake you find a government job. Illiterates don't do very well in the private sector. I'm surprised you didn't claim to have a Phd. from Harvard.
+          <t xml:space="preserve">Argentina Charges Buenos Aires Mayor's Spokesman for Praising Hitler AFP Argentina charges Buenos Aires mayor's spokesman for praising Hitler | GlobalPost The lead spokesman for Buenos Aires' mayor faces criminal charges after saying Adolf Hitler "was a spectacular guy," a court source told AFP Tuesday. Ecuadoran-born Jaime Duran Barba has been charged by federal prosecutor Guillermo Marijuan with voicing approval of a criminal act, the source said. Barba is a top aide to Mauricio Macri -- the mayor who is also a possible 2015 presidential hopeful. Argentina is home to the largest Jewish community in the Americas outside the United States, with some 300,000 people. From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -3913,11 +3913,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
@@ -3925,7 +3925,7 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t xml:space="preserve">I understood it to have been 1986 when Griffin went. I would say it was a good risk going over there if some towel head is dishing out money I'd take it. I would say Ayatollah Khomein’s Iran is governed better than we are in this country under so called “democracy”.
+          <t xml:space="preserve">In the sense of a leap year, wouldn't you have to adjust the time indicated by the atomic clock to catch up with the earth's revolution around the sun... and if you are not talking about the revolution around the sun, then doesn't the clock have to catch up with the spin? Now, if the world can go roughly four years before a leap year adjustment is made with the calendar in order to keep up with the inaccuracy/nuance of nature, then why can't we go fairly indefinitely without a one second adjustment? Only people who launch rockets should obsess about this.
 </t>
         </is>
       </c>
@@ -3933,7 +3933,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>44.64</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -3945,7 +3945,7 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sounds a lot like a divide &amp; conquer thing -- a favorite tactic of the Kikes. A few weird nonsensical posts and then the attacks and evasions begin -- not to mention the insults! I bet they'll continue. NR, you are being nothing but disruptive, arrogant, and condescending. Why bother to waste the time?
+          <t xml:space="preserve">So if you are at liberty to delete posts why dont you allow that WN to delete his posts or even his account? He asked to be deleted ( But you did NOt delete him; you simply made him inactive.) Double standard anyone? Oh wait Im probably talking to myself again. You seriously dont remember that post of mine you REJECTED just last week?? Because I do. You must get many THOUDANDS of posts every day if you cant remember something from just last week, MR VIKING
 </t>
         </is>
       </c>
@@ -3953,11 +3953,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>62.98</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
@@ -3965,7 +3965,7 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Democratyc party has issued an "order" for their members to "collect" at least 200 people which would vote for jewish scum Labus. And on they of voting, to remind those people to vote for jew. Among other things they were instructed to take names, numbers from documents. It looks like they are preparing electoral theft. Watch out for dirty jewish tricks. Now, that is against the election law, since there has to be election silence 72 hours before voting, so people can make their minds and vote. Acceptable choices are Kostunica and Seselj. ------------------------- DS je naredila svojim clanovima da naprave spiskove od po 200 ljudi koji bi glasali za Labusa. Ime, prezime, JMBG i broj licne karte. Naravno, sa svim tim podacima lako je napraviti izbornu kradju.
+          <t xml:space="preserve">A friend of mine is a member of the Northwest Indiana Chamber of Commerce. At every meeting for years the question comes up, "What do we do about Gary?" Answers come up, like the one this thread is about and other potentially useful ideas. Gary's representatives always shoot them down. They just want money, total control of any projects that they alone choose and no accountability as to how the money is spent. In some places, a private party can buy a property and live in it while rehabilitating it. Not in Gary, all rehabs must be done by a city approved contractor. People in the know inform me that the right people must be payed to get on the list. For 40 years Negro's have controlled Gary and have made it everything it is today and the chances of that changing are slim and none. Privately my friend admits that he and the other white members are so frustrated that they wish the place would just fall into Lake Michigan. BTL
 </t>
         </is>
       </c>
@@ -3973,11 +3973,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>32.36</t>
+          <t>66.01</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
@@ -3985,7 +3985,7 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muslims have the highest unemployment rate in Great Britain at about three times the rate of non-Muslims. If capitalism brought in Muslims then the USA would be full of them, but it's not because they're too lazy. It's not capitalism bringing them here, it's our socialist welfare system which is very generous compared with what they can earn in their old countries. And it's also our multicultural society that allows them to live here without changing their primitive way of life at all, whilst criticizing ours and plotting to destroy it.
+          <t xml:space="preserve">they hate the USA as much as they hate all the white countries and the free world because they want all the world to live by the rules of the Islam Nonsense! They are absolutely justified in hating the west. You need to understand the events that led to the creation of Israel. We have been beating the crap out of Palestinians via jews and Israel since before WWII. Jews dragged America into both world wars first to establish Israel, then to destroy Germany and enhance the power of jews and Israel. White Western Civilization lost both Wars and the jews were the ONLY people to achieve long term gains. The arabs lost from both wars as well. You have reading to do. Here are easy ones to start with. http://www.heretical.com/miscella/bolshies.html http://www.voteforusa.com/benfreed.htm See The Truth About Israels Creation. http://outofisrael.com/splash.html# http://www.charleslindbergh.com/americanfirst/index.asp http://www.ety.com/HRP/rev/thejewishwar.htm
 </t>
         </is>
       </c>
@@ -3993,7 +3993,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>99.68</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -4005,7 +4005,7 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the end, jews are essentially committing slow suicide by seeding Western nations with their natural enemies, the Moors--HLM: Paris: 85-Year-Old Lampshade Stabbed And Burned To Death Inside Her Apartment, Moslems Suspected Paris: 85-Year-Old Lampshade Stabbed And Burned To Death Inside Her Apartment, Moslems Suspected – Occidental Dissent From Waaay Out West, --HLM
+          <t xml:space="preserve">If it was your daugther you wouldnt be saying she done her time youd want her scalp lets be realistic here and stop sticking up for a child rapist and killer, she pimped her own sister to her husband for god sakes. Oh I forgot blame the Jews for that aswell.
 </t>
         </is>
       </c>
@@ -4013,11 +4013,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
@@ -4025,7 +4025,7 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oh, I know you care Jeanmaniere. As do the vast majority of Stormfronters. I guess I just get a little concerned when I see people "changing their mind" on a daily basis and wanting nothing to do with our movement anymore. I'm not going to let it get me down though. Can't help but be concerned, but I promise I won't let it get me down. Like another poster said, the weak will leave us and only the strong will survive and thrive with us.
+          <t xml:space="preserve">Allow me to retort. What I am saying, is calling for a race war is the stupidest thing that you morons can do. Hardly a surprise, but stupid. Getting into a war with Whites leads to annihilation. Ask the Aztecs..................You can't, they're ALL GONE. Judging from your nearly illiterate response, I will try to dumb this down to a level even one as dim as you can comprehend. BlackHS, is calling for a race war. I am all for BlackHS removing himself from this mortal coil. Crack cocaine, jumping off of a bridge, whatever. I don't wish to see all of his fellow blacks join him. A race war with Whites would mean the extinction of the aggressing non-whites. Extinction means all gone. No more. Nada. Nil. Game over. White Nationalist are not advocates of violence, period. Besides, you totally missed the point. When your spelling, and grammar skills exceed the abilities of an average 8 year old, maybe I'll show you a little respect. Until then, retard, piss off.
 </t>
         </is>
       </c>
@@ -4033,7 +4033,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -4045,7 +4045,7 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t xml:space="preserve">There is a joke. Okay folks, you've heard me boast of my youngest. She is to be a virgin bride. Well there is a problem! Apparently she is allergic to birth control pills. She is getting married in August and just started taking the pills-2 days. We are looking at a big family here. I'm going to be a grandpa a bunch more times. In a sense it is a tragedy, but I'm not crying yet. Heh heh. I had them send my future son in law out to talk to me. Told him that he had better get a good job. He is really positive about it all. He wanted eight. She was thinking four. How does ten sound? Grandbabies everywhere!
+          <t xml:space="preserve">Alpha Tauri on hand you talk about "not giving your power away" and on the other hand you praise the Order of Nine Angles for talking about people's need for "Avatars", etc- isnt there a contradiction there? We shouldnt "give away our power" to the Universal Reason but we should give it away to charismatic leaders like Adolf Hitler or whoever (there is lots I admire in historic National Socialism but the personality cult is not one of them)? Occultists seem to talk about freedom a lot and than set up hierarchies and indulge in "Priestcraft" much more authoritarian than any Pope of Rome during the High Middle Ages. Its contradictions like these that give people alarm.
 </t>
         </is>
       </c>
@@ -4053,7 +4053,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>52.72</t>
+          <t>71.05</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4065,7 +4065,7 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nothing bothers me more then white kids trying too be black !!!!!! It brings a tear to my eye too see how the white youth of today act. I'm 38 y/o and have been around the ******s. I've seen how they act, how they treat whites. For some reason, the nigglets are brought up too belive that white people owe them something. I'm sorry, but it's not my problem that other ******s sold them into slavery, and white people bought them. What happened over 200 years ago has nothing to do with what is happening today. Now our white children are being tought to reject the white culture. We white people have the richest culture in the world, yet it's being treated like a plage. Be proud too be white !!!!!!! 2508
+          <t xml:space="preserve">Interesting,that Lucas Films would name the Jedi Ezra. Ezra, in the Old Testament, preserved and protected the Jewish race. Yes, race. He didn't want no race mixing among the Jews. He told those Jewish males to get rid of their foreign wives and get back in the fold. Ezra - Chapter 9 verse “For they have taken of their daughters for themselves, and for their sons: so that the holy seed have mingled themselves with the people of those lands: yea, the hand of the princes and rulers hath been chief in this trespass.” Ezra was a racial purist for the Jews.
 </t>
         </is>
       </c>
@@ -4073,7 +4073,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4085,7 +4085,7 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t xml:space="preserve">I can tell you what I believe and what I consider to be a viable way for WN to succeed, but that’s what I think. I don’t ask if my views are accepted by others, I ask if my views are acceptable to me, that’s what matters, if they are acceptable to others then all well and good, if not, oh well, that’s life. You need to be honest with yourself, I’m afraid nobody can help you with that. If you’re looking for acceptance then you’re going the wrong way about things. Any fool can find acceptance, in whatever they wish.
+          <t xml:space="preserve">Hi this was the best picture that I have seen so far of the plane its not that good but you can see the plane and the banner is a little blury. I think if they do it again they will bring better cameras with zoom lenses. All I can say is that it was a great site to see the plane towing that banner in person. https://www.stormfront.org/forum/atta...chmentid=31955
 </t>
         </is>
       </c>
@@ -4093,11 +4093,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
@@ -4105,7 +4105,7 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t xml:space="preserve">I clearly remember 1952 America, and America no longer feels like home to me. At my local Walmart, on any given day, I can find several shades, languages, and cultures. I am for exporting illegals-NOT JOBS! Maybe we should outsource the presidency. Wait! I forgot. We already have; to Mexico and Israel.
+          <t xml:space="preserve">Tyndall, in his article, stated the Zionist question and how to handle it superbly. The notion of encouraging Zionists into AmRen or any other WN organization is absurd. Were all our leaders as bright, forthright, and courageous as Tyndall. If any other Zionist promoting Stormfronters wish to advocate the inclusion of Zionists in WN organizations, I would appreciate if they would pull up Tyndall's article, and tell me which of his assertions are invalid and why.
 </t>
         </is>
       </c>
@@ -4113,7 +4113,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4125,7 +4125,7 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't have the experience or post count on this forum to really speak for the others here, but I think it's safe to say that we put the interests of our people first. A Jew like Mike Cernovich saying he's still supporting Donald Trump does not help our people. Same thing for most other "right wing people on YouTube". I am part of the young group of whites that was eager to vote for Donald Trump, but seeing him bomb Syria, likely at the advice of his Jewish advisors, is not a good thing for us white people. Also, Dr. David Duke is expressing his disapproval of this attack. - David Duke (@DrDavidDuke) on Twitter
+          <t xml:space="preserve">All this just served a tiny minority of people who were on the top , namely the jewish Bolsheviks . . That is not even to mention that a lot of their patents were stolen from National Socialist Germany since the Soviet Union was one of the victors over NS Germany . . That just simply isn't true . . There are about 23 million Muslims living in Russia today ( 1 out of 5 Russians ) and it is predicted that 40 % of the Russian army will be Islamic within a matter of years.. It was the jews who were playing the East against the West . .
 </t>
         </is>
       </c>
@@ -4133,11 +4133,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>83.39</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
@@ -4145,7 +4145,7 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kragen, even though you do know White Mexicans exist, you still make a very open use of the label "Mexican". It would be better to call them Mestizos, or flat out amerindians. (if they are, of course) I am one of those white Mexican minorities, and every time I see that type of generalizations, I just have to sadly smile. Now, I believe you, this guy probably was a mestizo. But was it really "brown skin"? Many people seem to miss the difference between brown skin and a tan. Heh... last time I was at the States, (A holiday week in San Antonio) I remember switching from buying stuff from Wal-Mart to buying them from Target. The reason? Wal-Mart was filled with a bunch of mixed breeds who eyed me suspiciously! It was as if they were telling me "Mestizos buy from Wal-Mart. Whites buy from Target." Right enough, mostly everyone in Target was a white Mexican (Tourists buying groseries at eight or so in the night)
+          <t xml:space="preserve">Uhhh, we teach our children not to marry non-whites. No, really, it's that simple. They can bring in all the non-whites they want, that only helps us by providing us with daily examples of how different they are from us, and how ill-suited they are as marriage partners. They literally make our cases for us, as you can see from BrownBread/every guest troll we've had in the past few weeks with "x" in his handle. Most non-whites who come here are intentionally obtuse. They aren't very good at winning the hearts and minds of whites, which is why they have to use dishonesty and subversion to do it. Teach your children this, they will recognize it and stay far away from non-whites. That's all we have to do for now.
 </t>
         </is>
       </c>
@@ -4153,11 +4153,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
@@ -4165,7 +4165,7 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolutely spot on. I'm not religious and, personally, I dont really care about gays as long as they keep it to themselves. But i certainly dont want my (future) kids growing up thinking this is 'normal' and a 'personal choice'. It is an unfortunate illness. Think of it like swine flu - If you have it, you dont sneeze it on others.
+          <t xml:space="preserve">There are certain races that need to be sterilised. Forget contraception in Africa...too expensive, and the results are not worth the effort. There has to be a point where we accept that breeding quality out weighs breeding quantity. To convince muslims of this will be an uphill slog. Muslims even breed with their cousins...inbreeding The science of Eugenics has been swept aside for to long, and we need to re-discover the original intentions of the science. Just as in Horse breeding, you do not save the runts and allow them to sire bad stock. We could short circuit the contemporary probeings in Britain to find the violent gene and just sterilise the degenerate races. To save futher on costs, we could simply stop sending aid to these people, which only gives them incentive to come to the west, and also we need to close the borders.
 </t>
         </is>
       </c>
@@ -4173,11 +4173,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
@@ -4185,7 +4185,7 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t xml:space="preserve">i wouldnt vote for a president who supports what israel is doing at this current moment. hes a weak hypocritical jew puppy dog "any state who uses religion as a means in conflict is a terrorist state" he said.. something like that anyway... he musta made 1000 references to GOD during his little campaign looks like your prez is another jew puppydog. weak.
+          <t xml:space="preserve">In material terms the UK is much better off than most European countries, the only countries that really compare are the Scandinavian ones and Netherlands, and possibly Germany although only just. The rest are all visibly poorer on many levels. I think some of the reason the Europeans are so strict on British people accessing public services there is because of just how scare funding for resources is in many European countries. Also, we complain about authoritarianism in the UK, but it's even worse in most of Europe. In most European countries carrying a biometric ID card is the law and even the most simple tasks involve large amounts of paper work and bureaucracy, most of which is highly inefficient and you can fill in several forms and still be no further forward. I'm not exactly a fan of the UK, but I'm not so naive as to think going to live in a European country would be any better.
 </t>
         </is>
       </c>
@@ -4193,7 +4193,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>61.02</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -4205,7 +4205,7 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is a trend! As it is a trend to rape White Children in Europe! This is our life! These are the countries that we live in! If we were at war, we could have less losses! We are at war and we are still going to our jobs, schools, and sleeping in our cotton beds!
+          <t xml:space="preserve">Quit your deluded talk. National Socialist policy has nothing to do with the three above you mentioned. You can read these for yourself! It is from National Socialism archives and documents, it has nothing to do with the Jew. Have you even read Mein Kampf? Yeah because they will know what happened with Germans and foreigners if found guilty of sexual relations. I've just showed you so much evidence yet you are in denial, its a sad case really. What makes their statements anymore valuable than "Holocaust survivors" who have been exposed as liars? They opinions do not refute what I have just shown you neither.
 </t>
         </is>
       </c>
@@ -4213,11 +4213,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
@@ -4225,7 +4225,7 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oh boy, I'm in trouble now - I've got TheOldman AND SonoftheMist tag teamin' me - stop the presses! Since WHEN has Snowcone become the official "Defender of the Sons of Judah?" I forgot to order my skull cap from "Jews R Us." All this over my use of the term "The Left" rather than "The Sinister, Dastardly, World-wide Zurg Menace?" Wow, things can sure blow up quick around here. So, I've put a foot in the quicksand - so what? Wanna see me put the OTHER one in too? So unless one bows to the zionist threat philosophy then that person's not fit material for SF? Go back over my old posts and see if I've gone to bat much for the opposing view on this subject - not much comes to MY mind. Mostly what I've REPEATEDLY stated is it doesn't INTEREST me! I didn't pick this fight - I was lectured to. THAT doesn't interest me either. Are you saying that all SF sustaining members should take some kind of anti-zog pledge to even exist in the general SF population? Now I'll listen.
+          <t xml:space="preserve">Japanes civil rights are fine, also do you beleive that western women preferr the standards of living in europe or the famine in places like ethiopia? Civil rights? famine and filth in ethiopia and other places in africa is better than europe? Those western women really need some black to give them rights dont they?
 </t>
         </is>
       </c>
@@ -4233,11 +4233,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>73.96</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
@@ -4245,7 +4245,7 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t xml:space="preserve">The U.S. Postal Service created a stamp with a picture of President Obama. The stamp was not sticking to envelopes. This enraged the President, who demanded a full investigation. After a month of testing and $1.73 million in congressional spending, a special Presidential commission presented the following findings: 1. The stamp is in perfect order. 2. There is nothing wrong with the adhesive. 3. People are spitting on the wrong side.
+          <t xml:space="preserve">"The unfortunate aspect of this Jewish Syndicate is that they have been working for some time to undermine Western civilization, Christian values....moral values of any sort really. The Jews have learned, through a sort of collective psychological tacit understanding, that to survive, they must divide the host in which they live, demoralize them, desensitize them, and throw them into moral and social chaos and anarchy." http://www.propaganda101.com/TheJewi...stionFrame.htm And we in Stormfront are even divided by the muslim issue. Why would we hammer arabs for fifty years then allow them into our country? Who gains from that? Long term, guys. Long term!
 </t>
         </is>
       </c>
@@ -4253,7 +4253,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -4265,7 +4265,7 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not directed in a conscious sense i.e. in the sense that I purposely walk to the fridge to get a beer or purposely lift a weight. For example our genes exert an influence on our behaviour, it’s called the “Selfish Gene” theory, now this isn’t a conscious choice made by genes rather a reaction, in the same way that if I hit a red snooker ball with the cue ball, the red ball moves by reacting to the cue ball. In this sense our genes react to influences and change according to what best suits their continued propagation, that’s why most people will naturally select a mate of the same race as they are, it’s instinctual and it is the best possible choice for the propagation of their genes. Of course whether a gene has a beneficial or negative impact on a genome is a different matter and puts paid to the idea of direction, since genetic drift can spread negative genes through out a population and be the cause of its extinction. Essentially organisms are survival machines for genes, so unless the almighty looks like a double-helix, it would be hard to understand his purpose.
+          <t xml:space="preserve">Thanks for the offer, it's deeply appreciated. I should be fine unless we get a direct hit. Have backup plans just in case. Might want to head down to Don Black's to personally witness the 'Worlds biggest flyer drop!' Biggest concern is where it will make landfall and getting my elderly Grandparents off one of the barrier islands.
 </t>
         </is>
       </c>
@@ -4273,11 +4273,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>58.44</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
@@ -4285,7 +4285,7 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Always remember the Jews killed Jesus? How about we always remember that Christianity ripped true European religions, and ultimately culture, apart? Now we have Churches advocating the mass importation of non-whites because all they see is more additions to the flock of god fearing sheeple... It is not a White religion, and it is most definitely not any help to our cause as White Nationalists... Easter has its origins in Paganism anyway...
+          <t xml:space="preserve">By poor dispersal I mean that the drops were several miles away from the actual objectives. This was standard Allied doctrine for airborne attacks after observing the massacre of German paratroopers in Crete who were dropped directly into the objective. But in this case the re-assembly of the dispersed forces and their equipment was severely botched. And of course the remnants of the 9th and 10th SS-Pz divisions were already in town. As for XXX Corps, their jump off point on September 17th was the Maas-Scheldt Canal not the Albert, which was some 30 miles further south. They eventually crossed the Waal at Nijmegen on the evening of September 19th, 11 miles south of Arnhem. Eventually the main force (the single tank front) was halted when the Knaust Panzerkampfgruppe severed the main highway at Elst. All-in-all the Corps had advanced some 60 miles in five days against commited resistance. I don't think the veterans of that exercise would appreciate the implication that they had spent much of the time 'brewing up'.
 </t>
         </is>
       </c>
@@ -4293,7 +4293,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -4305,7 +4305,7 @@
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't know about that....... I like what you might call "short men" but they must be about 2 or three inches taller than me, and I'm 5'6" But the men in my family are much taller (5'10-6'3"). My husband though is only 5'8" which is short for a man. Conversely I know a man who is 6'3", 25 years old and still single! And two others who are 5'10", 24 and also still single...... So I'm not so sure if this is true.
+          <t xml:space="preserve">I would like to agree. They may only be here for a couple of years, but as soon as they leave, there are others to take their place. We end up with a Tidal effect. As one wave rolls on to the shore and then retreats, we have another wave right on its heels. The effect is the same, it is called "Errosion". DEFENDING OUR RACE IS NOT A HATE CRIME.
 </t>
         </is>
       </c>
@@ -4313,7 +4313,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -4325,7 +4325,7 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ones here in the States tend to be. The Mexicans in Mexico tend to be better (at least the upper echelon ones). Unfortunately, Mexico and much of the rest of Central America export their trash. This is why Mexican government officials are in such a panic over the possibility of a Trump victory. Some of this mass exodus across the Rio Grande (besides the obvious lack of border enforcement) is our fault. The drug laws in the United States are merely price supports for the cartels, guaranteeing them a lucrative U S market. Dump the drug laws tomorrow, and by next week the cartels will be searching elsewhere to peddle their wares. I would expect a few of them at least would go bankrupt without American customers. From Waaay Out West, ~HLM
+          <t xml:space="preserve">The media wants to label this forum a "hate" site. Ironically the "N" word is strictly forbidden. And anyone planning to violate the law, or hurt another individual, for any reason, is quickly cast out made a pariah. Like yourself I am proud of my heritage and my people. And prefer to celebrate it with others who are also grateful for their ancestry. Don't waste your time "hating," focus on preserving and being a contributor to your society. Welcome aboard, we appreciate the good influence.
 </t>
         </is>
       </c>
@@ -4333,7 +4333,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -4345,7 +4345,7 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t xml:space="preserve">I actually agree with you on this point: the "War on Terror" is all about "peak oil" in my opinion. And not just China but India as well will be increasingly desirous of oil that is already spoken for. Russia has their own. My guess is that "peak oil" is at the top of it all (Ruppert makes a great case for this) with Cheney as the kingpin, although Bush involved and the buck certainly did stop with Bush. The UK involved for peak oil reasons (I can't think of any reason besides peak oil the UK would get involved in Iraq ) Israel only involved to the extent that the oil operation would allow for us to change the middle east to fit the Zionist / Neo-Con mold. An Unholy Trinity. As for the other cases of Islamic terrorism, it's tough to know if it's legit, or false flag by our own government for globalist or oil intentions, or if they were Israeli false flags to get the US to fight a specific opponent they would like gone.
+          <t xml:space="preserve">Never thought about food. I usually have something a little moe abstract in mind. Sometimes it really nebulous, more of a feeling than something that I can define. Its like I want something, but I don't know what and I want to find it on the internet. Just about anything is on the net. I just sit there, paralyzed by thought, starring at the screen. Computers with attached refrigerators and bread makers????
 </t>
         </is>
       </c>
@@ -4353,7 +4353,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -4365,7 +4365,7 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blacks are over-represented? I don't see how. If anything, I see the MSM going out of its way to cover up the majority of violent black crime. I guess the few local news stations that do cover things are doing to good of a job. Does this mean that the leftist crybaby liberals want all media organizations to quit covering black crime? How can it be an unfair portrayal of blacks when the sad fact of the matter is this is how they act? This is what they do. There is nothing unfair about showing the truth.
+          <t xml:space="preserve">Actually, jews, both religious and secular, hate all non jews, it's the core around which their whole identity was built. They're taught to despise and take advantages of Goyim or "gentiles" any way they can from childhood. In their Talmud, they call us "filth" and "animals" worthy of slaughter. They're specifically targeting whites for elimination because they're very afraid of them. To simplify: you have a core group of Big jews like the Rothschilds, Sumner Redstone, George Soros etc...who control things behind the scenes, and the rest of Jewry is actively helping them advance their agenda thru diverse means, like infiltrating every sector of society, hiding their true identity and motives, and then promoting other jews to positions of wealth and influence. They think and act like a hive. I mean, look at figures, they're like 2% of US population, yet they're grossly over represented in politics, business, entertainment, academia and in the top positions no less, and really I don't think it was thru merit alone. By destroying whites, they're destroying their main rivals for power. You should read Books by Kevin MacDonald ,"A People That Shall Dwell Alone" is a good intro into the Jewish mindset.
 </t>
         </is>
       </c>
@@ -4373,7 +4373,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -4385,7 +4385,7 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t xml:space="preserve">It was a really good movie, but one thing that I found that must be historically inaccurate...there was a token black character! It made me sooooooo mad! He was hanging out with the Irish gang, and when one Irish man (not in the gang) would comment about them hanging out with a "******" (of course, he sounded hysterical and nonsensical about it)...they would get mad at him, and insist that he was one of them They tried to show that there was this bond between blacks and irish because they were both treated as lesser citizens. I doubt the Irish back then were crazy about blacks any more than the other whites were. This black guy had like two lines, and was walking write beside DiCaprio in a lot of the shots...it was ridiculous!
+          <t xml:space="preserve">Here are good reasons not to vote for Obama: 1) He belonged to a black racialist church that was loyal to Africa first and foremost. 2) Obama believes Canada has a president. 3) Obama believes America has 58 states. 4) Obama believes American's liberated Auschwitz. 5) Obama is a junior senator with little experience. 6) Obama claims that he will not cow to special interests but he played the role of neo-con when he sucked up to AIPAC. 7) He is a democrat.
 </t>
         </is>
       </c>
@@ -4393,7 +4393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -4405,7 +4405,7 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fidel Castro: a personality, the magnitude of which few can rival. Being capable of coming to power with just 40 men and an idea, in a country, vital to US interests... Defeating Batista... Surviving that many assassinations... People like him should be viewed as teachers, as well as ideological rivals. We need such personalities in our movement. Also, Cuban tactics of guerilla warfare should be studied carefully, for they will come in handy enough. Chavez? Less impressive, but his opposition to the global order could make him a valuable ally to our cause. Nevertheless, his stupidity of "placing hopes on Obama" is unrivalled. Mandela? Nothing more than oven material.
+          <t xml:space="preserve">I am very skeptical towards anything that does not practice full contact sparring. If you can't win in the ring, you definitely can't win on the streets. Never having practiced Krav Maga myself, I did however train in the same gym as a Krav Maga club. Thair standup was weak, they had no power or conditioning, and their grappling was a joke. Like Tae-Kwon Do, I suspect it will work great against people with no experience of other martial arts. (Tae-Kwon Do will also teach you eye-gouging and a few moves where you supposedly can kill or disable your opponent, but it hardly changes the fact that is is not very effective.) The area where Krav Maga stands out is the time they spend defending against blades or guns. In my opinion, there is no way anyone should try that unless they can't use their legs and run away, and I suspect half of those thinking "I've done this in my gym, and I can disarm this guy", will end up dead once they try something fancy.
 </t>
         </is>
       </c>
@@ -4413,7 +4413,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -4425,7 +4425,7 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr">
         <is>
-          <t xml:space="preserve">There's one in the Boarder's book store here in our little Kentucky town. I frequent the bookstore, but not Starbucks. On the first date I had with a woman I have since broken up with due to her being too yuppy, we ordered coffee to relax and read. She ordered the over priced cappachino witht the steamed cream and I got the over priced black coffee. It was the first and definitely the last time. WW
+          <t xml:space="preserve">Nick and Alsace Sirs, Today there is no excuse for not knowing what the Hel was going on! If any take the few short minutes to read fully the following two pages and still will not admit and declare to others WHY the Americans and British destroyed N.S. Germany and many Millions of the finest Aryan stock then they are Far More GUILTY than the "Greatest Generation" you speak of. Why more guilty? Because they do "actually know what the hell was going on". Of course it will require a person with a pretty big set of "stones" to do so! Are there ANY such Aryans left alive today Sirs??? I ask you !!! WE’RE ON GOD’S SIDE – THE POWERS OF PERSUASION Page 1: https://www.stormfront.org/forum/show...933#post568933 Page 2: https://www.stormfront.org/forum/show...1&amp;page=2&amp;pp=15 "Now we must AGAIN ask WHY would the Good --- American, English and other peoples fight and die to destroy the jews greatest enemy. Tens of Millions of Aryans died to save the jewish Money Powers." .08-06-2003, 05:04 PM - Stormfront White Nationalist Community &gt; News &gt; Articles &gt; WE’RE ON GOD’S SIDE – THE POWERS OF PERSUASION .
 </t>
         </is>
       </c>
@@ -4433,7 +4433,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -4445,7 +4445,7 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome to SF kamerad. Here you will find many others who have a keen understanding and sympathy for the loss of our ancestral heimatlanden and their attendant pillage, and some who have had personal experience of such tragedy. And, as regards the jewish controlled media’s lopsided coverage and propaganda twistory, I dare say we all stand united in utter defiance of it. To answer your question, I offer 2 minor contributions (not specifically Pommern): I have no experience of it, but I understand that access to past issues is available on the National Geographic website.
+          <t xml:space="preserve">Well said. let's not forget Jimmy Carter's activst daughter Amy Carter, who wanted to end poverty, hunger, nuclear weapons and Apartheid. We're supposed to admire people who takes such controversial positions. Note that Neither Jimmy Carter or Amy Carter have ever taken a public stance wanting to end Black gang murders in Phlly or Camden NJ.
 </t>
         </is>
       </c>
@@ -4453,7 +4453,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -4465,7 +4465,7 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's illegal here and in Indonesia though and she knew that, 4 kilos is a lot of Marijuana in anyone's book and she'd be in the same mess if she'd tried to import it to the Netherlands. Everyone want to hold up Holland as some sort of example of tolerance and progressive social policy, that's exactly what we should be heading away from, at around the same time the Left Wing parties there were lobbying to have the drug laws relaxed they were also introducing a bill to legalise sex between adults and children.
+          <t xml:space="preserve">This clown is transparent even to our children. Only an anti could be so pathetically inept. Notice he has friends from nearly every ethnic group. Not just a friend who is black, jew, Asian, etc, but an entire miniature United Nations to, "you know, just kick it on a Friday night". How can we not prevail when an insect like this is an examle of our foes?
 </t>
         </is>
       </c>
@@ -4473,11 +4473,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>68.71</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
@@ -4485,7 +4485,7 @@
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr">
         <is>
-          <t xml:space="preserve">That website seems to me to be just jew proaganda to further their own causes. A jew calling a spade a spade isnt going to do it for me. When the ADL and the AIPAC shuts down and no other "PAC"s are allowed to use our govt for the support of another country, then we can say we are getting somewhere. Talk is cheap, action is what we want. I would almost bet that a big part of the "aid" we have given israel was used by jews to buy out the media in America and the rest of the world, including banks. No i cant prove it, but theres no way in hell *all* the jews are so rich just from their businesses. Theres got to be some underlying factor from a state-run govt doing the financing. It takes a total idiot to not see that jews are up to something.
+          <t xml:space="preserve">Another question for you im not sure if they still do this or not but wont most trucking companies send students to school as long as they work for them for a certain amount of time ? I was looking for a way to get these people into this with very little of there own money to get started.
 </t>
         </is>
       </c>
@@ -4493,7 +4493,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -4505,7 +4505,7 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr">
         <is>
-          <t xml:space="preserve">In my opinion a successful third party could be achieved only one way: it would have to be designed very carefully so that it would draw equally from both the major parties. If that were the case, people would not be afraid of voting for that party, knowing that an equal # of the other party was going to be doing the same. The parties that draw primarily from 1 or the other will likely never go anywhere.
+          <t xml:space="preserve">This thread is going in circle. Lets all agree that the white race and culture is the best. Lets all agree that we have to protect our own women and culture. The koreans want to do that. I dont see anything wrong with that. Regardless if you think koreans are sub human at least they are doing whats right for them. Others say the jews are the problem and thats why the white race cannot protect our own women and culture. Personally on side note i think the jews are pushing for war between north korea and usa. It will destablize asia and give the chance for the jews to take over.
 </t>
         </is>
       </c>
@@ -4513,7 +4513,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -4525,7 +4525,7 @@
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://www.iranfreedomconcert.com/images/womansign.jpg http://www.ahura.info/images/index.1.jpg http://www.chessbase.com/images2/2004/iran10.jpg http://www.frontlist.org/poetry_of_Iranian_women.jpg http://www.ridingsun.com/files/ridin...ijabShock2.JPG http://www6.worldisround.com/photos/8/17/597.jpg English: Persian: brother = barādar dark = târîk daughter = doxtar (pronounced as in German) door = dar father = pedar (As in Vater, Pater) mother = mâdar (As in Mutter, Mater) name = nâm (As in German Naame) wolf = varg (Iranian Dialect, as in Varg Vikernes) These words may seem uninteresting on the surface, but they are key words, as Mother and Father prove. Not Arabic nor Semitic. http://www.egyptiantravel.com/images/persepolis.JPG Do you imagine any other race but Aryan built this civilization? Note the Gryphon, still prominently displayed on the Welsh Flag. http://www.polenth.com/clipart/picture/welsh1.gif Now I am not telling you that Iranians have not become a mixed race, Nor am I telling you that they are White Nationalists. As I said the "Noble" Iranians deplored the Pakistani Hashish habit, it makes people sloppy, and the result is likely to look like this. http://www.naderdavoodi.net/Iranian.JPG As I said the lesson is that if we mix we could end up like Iran or India. However the truth remains that the Persian/Iranians started off as Aryan. Notice the Chariots, and Horses, and a copy of a contemporary image of Darius. http://www.classics.cam.ac.uk/Pompei...ius-detail.gif
+          <t xml:space="preserve">That the National Alliance offers an uncompromising stance on immigration not just to stop non-white invasion but to reverse it makes it the only effective stance out there. My hope was that it can be done in an orderly and peaceable way, but as time goes on it seems that this will be made impossible with a Jewish government lording it over us and sanctioning violence against us by ignoring the actions of the invaders they've brought in. Well said, Mr. Strom, I'm with you.
 </t>
         </is>
       </c>
@@ -4533,11 +4533,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>99.58</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
@@ -4545,7 +4545,7 @@
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Next America: Two Dramas in Slow Motion Paul Taylor - Pew Research The Next America | Pew Research Center Demographic transformations are dramas in slow motion. America is in the midst of two right now. Our population is becoming majority non-white at the same time a record share is going gray. Each of these shifts would by itself be the defining demographic story of its era. The fact that both are unfolding simultaneously has generated big generation gaps that will put stress on our politics, families, pocketbooks, entitlement programs and social cohesion ... At the same time our population is going gray, we're also becoming multi-colored. In 1960, the population of the United States was 85% white; by 2060, it will be only 43% white. We were once a black and white country. Now, we're a rainbow. From Waaay Out West, ~HLM
+          <t xml:space="preserve">Exactly, I talked about this on another thread. Although the Muslim scum needs to be cleansed from our European homelands we can make use of their hatred for the Jew, for they are the cause of the problem, the massive Muslim immigration is simply the result. It seems some here need to read up on the Jew and study their ways a little more before coming back to this conversation. The demon Jew is the enemy of ALL.
 </t>
         </is>
       </c>
@@ -4553,11 +4553,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>57.28</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
@@ -4565,7 +4565,7 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why do you describe to such a warped ideology? going all the way back to the 20s, it has always been the anti-fascists that commit violence and break the law. When so called 'racists' try to hold rallies, despite been viewed as the bad guys, it is typically the anti-fascists/racists that are arrested in numbers. Funny that. How do the tolerant types justify brutal and criminal behavior? The new ultra hip cause for anti-fascists is Muslims. This fetish has entered new realms of anti-fascist delusion. Considering Muslims hate the gays, who are so precious to anti-fascists. Not to mention the Muslim desire to set up medieval theocracies in which women and non-Muslims have little to no rights. Your ideology is perverse and has no moral foundations. The only standard ideology of you people is a love of Marxism. Ya know? that wicked way of thinking that has lead the murder of hundreds of millions innocents.
+          <t xml:space="preserve">Another Conspicuous Coincidence Operation Bagratian was the staggeringly successful Soviet summer offensive for 1944 AD, which broke the back of the German army, ultimately causing its increasing collapse. Operation Bagration "was named after Georgian Prince Pyotr Bagration, general of the Russian army who received a mortal wound at the Battle of Borodino" against Napoleon in 1812 AD*. Now, not only was Prince Bagratian a Boyar [Russian noble], who fought for the Czars, but, presently, a scion of the Bagratian royal family of Georgia is the current claimant to the Imperial Throne of Romanov Russia**.* http://en.wikipedia.org/wiki/Operation_Bagration. Napoleon was the military savior of the Proletarian French Revolution (1789-1815 AD), upon which was based that of the Bolsheviks a hundred years hence. ** http://www.imperialhouse.ru/eng/impe...m/leonida.html ; http://en.wikipedia.org/wiki/Leonida...hess_of_Russia Thus, Operation "Bagratian" blatantly refers to Imperialist, Czarist, Boyar-ist, "counter-revolutionary" roots*.* "Counter-Revolutionary" roots from, incidentally, beyond the borders of Europe, in Georgia. ("Again w/ the 'George' [Ge-Urgos (Gaia's Worker)] references..." Europeans, apparently, being but bat-blind barbarians, are only fit for foreign rule... Note, too, that Boyar is a Turkic word...)
 </t>
         </is>
       </c>
@@ -4573,11 +4573,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>68.48</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
@@ -4585,7 +4585,7 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Who cares? World War Two was sixty years ago, its over finished, Hitler is dead, Churchill is dead, Roosevelt is dead, more of the old warriors who fought bravely on both sides are passing to Valhalla each year. It’s history. Remember the fallen, honour their names and live for the future. No more wars between brothers. Stoking this old fire serves the purpose of no one except the bitter and stupid and those that want to divide the European race.
+          <t xml:space="preserve">We do not care what their ambitions are. They bring their culture and expect us to observe their tabboo's and superstitions, thereby creating a parasitic culture that leeches off our benign and humane culture. Their degenerate cultures are gaining access to our culture by the back door. We do not want our children growing up taking derelict cultures for granted. DNA. Apart from that obvious fact, they will all be ritually mutilated and perpetuate this degenerate ritual, and try to enslave our people to this infamous rite. For the un-evolved probably so, but for evolved races to breed with un-evolved races is reversing evolution. Breeding with a stone age hunter gatherer is not evolution for us. No sweat.
 </t>
         </is>
       </c>
@@ -4593,11 +4593,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -4605,7 +4605,7 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vulnerable families bear the brunt of Norway's crackdown on asylum seekers | Sune Engel Rasmussen | Global development | The Guardian Norway knows what is really important. Non-White criminals are vile but it is the next generation of moslems that we must absolutely be ridden of. So, they grabbed a family with a birth rate above that of the average Norwegian family and got rid of them. According to these news, they deported 649 brats last year.
+          <t xml:space="preserve">That is very true and their are historical good reasons (memories of the KulturKampf of Bismarck made German Catholics wary of German nationalism) never the less Hitler himself came from a Roman Catholic background and the leadership of NSADP was top heavy with people from RC backgrounds. The whole Furher princep and the pomp and circumstance was extremely Roman Catholic.
 </t>
         </is>
       </c>
@@ -4613,7 +4613,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -4625,7 +4625,7 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
-          <t xml:space="preserve">I would vote for Cruz because he is a Republican. He's not ugly to me. I don't know anything about O'Rourke (which is an Irish name. Cruz is half Irish / half Cuban). I know Democrats are for amnesty, open borders, and abolishing ICE. I'm against all that. I hope Cruz wins.
+          <t xml:space="preserve">And what is your point exactly with this "martial arts timeline" article? It does nothing other than prove what i said to be right. It clearly says that in the 6th century BCE there were the first ten styles of comnat in india. A proper, recorded martial art. Before that there were only pictures of warriors holding weapons. Now i'm asking you is that a martial art? if you think so, then also kicking someone in the balls is a martial art. Hell, even the method i use to eat my ice cream with a spoon is a martial art at this point. And i don't get what you are trying to prove posting a list of oriental martial arts. Good effort though.
 </t>
         </is>
       </c>
@@ -4633,11 +4633,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
@@ -4645,7 +4645,7 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
-          <t xml:space="preserve">We whine and wail like the defeated. How pathetic we must look. Are there no White victories that we can celebrate rather than whining and crying? Sometimes I think that we are just going whine all the way back into our bunkers and wait to die. Why would I be suspicious of motives of the poster who started this thread? Our reactions are so predictable. I se a thread called "This and That". I'm assuming that everyone in the the thread has studied well, and knows all of the issues, and is now educating others. I assume that they really have noting to do but play pointless little games. Maybe I just need to take a break!
+          <t xml:space="preserve">In South Africa we do not get Ben&amp;Jerries, which is good because it sounds like they are both jews. These people from PETA should be confined to a mental institution. This is the most ridiculous statement I ever heard,these idiots have nothing to do and they are wasting time and raising my blood pressure by going around and trying to change the way normal human beings live. These kind of nuts would have been purged in Germany in the good old days.
 </t>
         </is>
       </c>
@@ -4653,7 +4653,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>59.41</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -4665,7 +4665,7 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oh for sure bud, I am totally against any offensive actions in Iran. Same as this so called war on terror where terrorism in Iraq is now one hundred times worse. It is nuts, plain and simple. Go to war with a country then let their worthless stock flood your own. But hell, the muslims need to leave our countries quick smart. Breaks my heart in my little old town every time I drive past the mosque.
+          <t xml:space="preserve">This is so true. Why the hell would a woman do that to herself, anyway? Quite frankly, I find un-natural breasted women disgusting, regardless of race. I have never really liked Anderson, but I am sure that she was an attractive woman before getting her butt inside the re-making factory. As for her being jewish, I don't know. I am willing to bet any amount of money that if you guys were "media artists" the jews would throw "facts" here and there about you guys being jews as well. It is a well known fact that jews like to call anyone a jew, just so that it looks like they are a large numbered people.
 </t>
         </is>
       </c>
@@ -4673,7 +4673,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -4685,7 +4685,7 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
         <is>
-          <t xml:space="preserve">China, Russia, India hold first trilateral summit Chinese President Hu Jintao, Russian President Vladimir Putin and Indian Prime Minister Manmohan Singh on Monday in St. Petersburg held a trilateral summit meeting, the first of its kind among the three countries. The summit was held after the conclusion of the outreach session of the G8 St. Petersburg summit and the three leaders exchanged views on cooperation among the three countries, according to Chinese officials. At the summit, Hu said China, Russia and India, who have set up bilateral strategic partnership among them, have vital influence on the international and regional affairs. There is a great potential for the three countries to cooperate in a number of fields such as economy, energy, science and technology, Hu said. MORE Chimese tidbit: One in eight cellphones in world made in China's southern city more
+          <t xml:space="preserve">I am reminded of a quote, I think by Erwin Rommel, he said: "The English are the only people in the world to treat war like a sport" He was, of course, alluding to the famous English ability of being cheerful, almost happy, in the face of adversity. It is true. We are at our best when challenged and faced with imminent disaster. I was watching A Bridge to Far, last week, and the banter between Laurence Olivier and Michael Cain showed the English spirit well. The humour, the silent resolution to do what needs to be done, without complaint. Is this the case in the pop-culture world of today? Could we English face the dangers our ancestors did without complaint? I doubt it. I look at the old soldiers who stand to attention on Remembrance Day and I know that a far supperior breed of men are passing away, and with them England may yet die. But then that is another English trait, the sense of doom...
 </t>
         </is>
       </c>
@@ -4693,11 +4693,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>62.53</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
@@ -4705,7 +4705,7 @@
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unfortunately it is all too common. They will use any method to rob you of whatever you have because these people have no conscience. I put them on par with Muslims. A lot of them carry knives and take a sick pleasure in cutting you or threatening you. I'd stay as far away from them as possible because these are the type to actually carry out their threats. I think this is a very serious problem and it's shameful that nobody is addressing it properly, in ANY country. Romania did until they joined the EU and the EU forced them to give the gypos more rights &amp;c. These people are a cancer.
+          <t xml:space="preserve">Maybe we'll only see the white russians here. they can't be that bad if so, Milla Jovovich is a very attractive albiet thin woman from Russia. Maybe the soldier "comrades" will go after the mud races instead! I have seen many russians advertising that they are white nationalists. Personally, the whole former communism state thing should be anathema to WN's. It's like obobo wants more red allies here for his big takeover. Those hipocrites in his administration call everyone "racist Nazi's" then steal ideas from the Third Reich at every turn! Impeachment for this begins on....? Obobo's trial for treason starts when exactly...? Nixon is likely rolling in his grave over the things obobo easily gets away with. ridiculous! Somebody in government with a yellow shirt and some b**** needs to put curious george back in his cage before he eats another puzzle piece!
 </t>
         </is>
       </c>
@@ -4713,11 +4713,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>69.05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
@@ -4725,7 +4725,7 @@
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr">
         <is>
-          <t xml:space="preserve">This Iranian isn't an Arab, I doubt he has any Arab blood in him. He is Persian. There is a reason the Persians renamed their country "Iran" - to stress the Aryan blood and cultural heritage of their country. Persian became Muslim because of Arab Muslim conquests, the same way Hindu India become Muslim. There is still good high caste (white) blood in both Iran and India.
+          <t xml:space="preserve">If they're not saying "We hate Whites" and if they're not criticising White Nationalists then I don't really care what they think, what's more if they had any brains they'd be supporting WN and forming their own racialist groups. Are they? No, they'd rather go the lazy route, play plastic Gangstas and dance for the Zionists like good little "Niggaz", they should be real Muslims or strong Christians and stand up for their heritage and their land.
 </t>
         </is>
       </c>
@@ -4733,7 +4733,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -4745,7 +4745,7 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Another parallel between Himmler and Devi is betrayal of those close to them: Hitler ordered Himmler whom he described as 'Little Heinrich' to be shot for his betrayal of the Fuehrer during the closing stages of WW2. Himmler had gone behind Hitler's back to try to seek a peace deal for himself instead of doing as instructed by the Fuehrer. Hitler promptly stripped Himmler of all offices and ordered his arrest Mrs Savitra Devi Mukherjee (a miscegenating French woman who dropped her European name and her drawers to marry an Indian and 'went native'); betrayed her European heritage by 'going Indian'. Arguably she also betrayed her Indian husband Mr Mukherjee too, if she had a crush on Ghandi.
+          <t xml:space="preserve">I sent a card and replied to his last letter to me. I told him I couldn't wish him a 'Merry Christmas' as he wouldn't be having one. I did tell him, however, that all over the country, glasses will be raised to him at Yuletide. He will not be forgotten!
 </t>
         </is>
       </c>
@@ -4753,11 +4753,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
@@ -4765,7 +4765,7 @@
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolutely correct. Since most of the men will be killed off in a stupid fratricidal war, beautiful Ukrainian women with no real understanding of what Negroes are, will be easy prey for those Africans. I makes me sick to think about how the rotton Jews are using the patriotic instincts of the Ukrainians for their own ends.
+          <t xml:space="preserve">Why would anyone dispose of the 3rd and 5th highest classed regiments in an attempt to amalgemate into a universally skilled army? makes no sense. if they condense the ghurka (think thats the right spelling) regiment any further it will dissapear, they fight harder than any other regiment i have seen and are feared and respected by the enemy.....so why is mr blurgh disposing of our most valuable military resources?
 </t>
         </is>
       </c>
@@ -4773,7 +4773,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -4785,7 +4785,7 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why would anyone dispose of the 3rd and 5th highest classed regiments in an attempt to amalgemate into a universally skilled army? makes no sense. if they condense the ghurka (think thats the right spelling) regiment any further it will dissapear, they fight harder than any other regiment i have seen and are feared and respected by the enemy.....so why is mr blurgh disposing of our most valuable military resources?
+          <t xml:space="preserve">Yes, and I have also heard of the Alamo. Ranch Rescue is only handling a tiny, miniscule droplet of the larger, constant invasion. As much as I hate to think about it, by the time many people get serious and a shooting war erupts I fear it may be too late to save the greater part of the southwest and many parts of Texas. The only way to stem the tide is through constant, armed force. While a few Mestizos are caught and possibly sent back; a massive fifth column is already forming in the rear, leaving those areas practically encircled.
 </t>
         </is>
       </c>
@@ -4793,7 +4793,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -4805,7 +4805,7 @@
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr">
         <is>
-          <t xml:space="preserve">This has probablly already been posted, I don't know, but here it is. ...........In a loose-leaf entry dated July 21, Truman wrote: "The Jews, I find are very, very selfish. They care not how many Estonians, Latvians, Finns, Poles, Yugoslavs or Greeks get murdered or mistreated as D[isplaced] P[ersons] as long as the Jews get special treatment. Yet when they have power, physical, financial or political neither Hitler nor Stalin has anything on them for cruelty or mistreatment to the under dog. Put an underdog on top and it makes no difference whether his name is Russian, Jewish, Negro, Management, Labor, Mormon, Baptist he goes haywire. I've found very, very few who remember their past condition when prosperity comes." © 2003 The Washington Post Company http://www.washingtonpost.com/ac2/wp...nguage=printer My dad called them "Misplaced Persons". To their faces!
+          <t xml:space="preserve">SDY as we've been going over this I realize that I myself was not 100% sure what it meant to be a "mainline" Church as opposed to the evangelical Churches. The mainline Churches are the "older" denominations, but despite the name there are more evangelicals than there are mainliners. I did a search and found this which I think is a pretty accurate description: http://en.wikipedia.org/wiki/Mainline I also found this which talks about the attitudes of many of these Churches towards Israel: http://www.christianitytoday.com/ct/2004/139/21.0.html Do you find it at all odd that the leadership of these Christian denominations would focus so much effort on denouncing Israel? Whatever Israel is doing to Muslims there are far worse offences committed against millions of Christians in Muslims countries (including about a million killed in the Sudan). Wouldn't you expect that they would be more concerned with fellow Christians than with Muslims? My opinion is that they do this to cozy to Muslims which they feel they need to do based on statements by evangelicals that were anti-Muslim. It is done to distance themselves from evangelicals and show Muslims that not all Christians speak with one voice. What do you think?
 </t>
         </is>
       </c>
@@ -4813,11 +4813,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
@@ -4825,7 +4825,7 @@
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shouldn't be too hard to figure out what make I drive Its made in Mexico though Wish I'd known that before I bought it ... I'd like to buy an American car some day in theory, but the quality and finish just don't match my liking. My love for European cars will always keep me looking East.
+          <t xml:space="preserve">Sorry, but it didn't need fixing. I meant what I said. They are the spawn of Satan and subhuman filth. I have been choosing my words for almost 50 years now. I think I know what I mean. I didn't mean what you changed it to. Maybe that's what you believe.
 </t>
         </is>
       </c>
@@ -4833,7 +4833,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>98.6</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -4845,7 +4845,7 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wait until it becomes time to take our country back from these third world vermin. They honestly believe that they are entitled to come here and stick their filthy diseased hands into our pockets and worse. If we got rid of them, how many jobs would open up for Whites? How much higher would the standard of living be for the White man if he didn't have these rat bastards with their gargoyle women and subhuman monkey babies draining the infrastructure dry? I'm sick of hearing their jibberish whenever I'm at the store or in a public building. For such poor people, they seem to be fat and have all the expensive gadgets that I cannot afford. I hate the illegal brown turds. They all make me sick.
+          <t xml:space="preserve">Okay, first of all give me evidence that the Blacks have never even invented the wheel. Give me actual solid evidence that the Negro race, stretching all the way from Senegal in the Northwest to Mozambique in the Southeast, never invented the wheel. And no, don't give me some B.S. evidence that a small tribe in some village in the middle of the Jungle never invented the wheel. Sure, I'm aware of those examples. I said, give me evidence that the Negro race as a whole never invented the wheel. Second of all, we'll pay you as soon as you pay the Arabs, the Persians, the Indians, the Chinese, the Japanese, the Turks and other races for their contributions towards science and technology. But you'll never do that because you're a hypocrite
 </t>
         </is>
       </c>
@@ -4853,7 +4853,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>96.55</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -4865,7 +4865,7 @@
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr">
         <is>
-          <t xml:space="preserve">For me this is a tough question since I am not a hater of humanity. Thank the almighty Jew for what will probably be the greatest war to ever befall mankind. Without a doubt, and its certain to happen, race war will wipe out millions. After the smoke clears I might be in favor of having all whites emigrate back to Europe and What will soon be a third world, mullato infested toilet - America be used as a land of refuge. Provided of course all our technology comes with us. I couldn't imagine nukes in the hands of negroes.
+          <t xml:space="preserve">Chinese are really filthy and repulsive if you ask me, I have had the "pleasure" of entering an apartment it made me sick, they do not use hygiene and they use human fertilizer to make food, lastly they kill their firstborn, evil commie chinks.. here I know I can be politically incorrect. Like sewer water, they imitate eveything and it's just revolting this whole city is revolting in fact, the musso-afro thirldworldist whatever, I have sen other states it's like paradise
 </t>
         </is>
       </c>
@@ -4873,7 +4873,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>99.57</t>
+          <t>85.5</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -4885,7 +4885,7 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blacks gathering - It's pride. It's all those years of slavery and oppression. Black panthers calling for death of whites. "No problem!" Hispanics gathering - They're a proud, hardworking people that just want a better life. They must gather for equal rights. Let them come to your country and do as they wish. They're driving down wages? Nah, they're just taking the jobs no one else needs. Asians gathering - Own many of their own businesses. Mostly asian only employees. That's ok they just want a better life and rights like everyone else. Whites gathering - "****ing Racists!" "Hitler!" "nazis Go home!" Sound familiar? It's what jews shove down our throat on a daily basis. First step to addressing the problem is sending pinnochio to Israel and then severing all ties.
+          <t xml:space="preserve">Probably also the basic reasons Muslim immigrants to Europe can go to the full extent and groom dozens and dozens of young white girls for prostitution rings. Fourteen y.o., eighteen y.o.; on camera, in a cheap apartment -- not that much of a difference really. It's more logical evolutionarily to destroy the psychological capacity of your enemy's young women to have real families in a context that involves protecting your own women as reliable reproduction opportunities for your extended kin network. One's conquest with a demographic angle, one's collecting Jew-chits that will eventually -- and probably within our lifetimes -- be rendered worthless except on China's terms.
 </t>
         </is>
       </c>
@@ -4893,7 +4893,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -4905,7 +4905,7 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Andrews stops short of supporting threats of violence on Loreto and condemns comments made by other prominent white nationalist websites, such as stormfront.org, that have encouraged physical action to be taken against her." - David George-Cosh and Armina Ligaya The way I see it, these clowns are doing us all a favour by showing their true deceitful nature. Even the spooks monitoring this forum can't deny the fact these sorry hacks are guilty of yellow Journalism. That must have their panties in a bunch. Score one for the white team.
+          <t xml:space="preserve">Which part exactly? Jewish Media Control? - http://www.jewwatch.com/jew-controlledpress-folder.html Hollywood? - "You bet they do--and what of it?" by Ben Stein The motivation behind 9/11? And the wars surrounding Israel, and the beating of the war drum on Iran. Ironic after Iraq the Zionists thought we'd do Iran for them too huh? I mean it's so obvious at this point, it's hard to believe people can deny it. But let's face it secret, you're a Jew, no matter how much evidence I bring you, you're going to eat your face and cry anti-semitism, or attempt some character assassination, that's just the way you people are...
 </t>
         </is>
       </c>
@@ -4913,11 +4913,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
@@ -4925,7 +4925,7 @@
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exactly. I just got done saying this in another thread. There will be no negotiations, no settling, and no tolerance levels. If you believe in White survival, you believe in White separation. Whites who mix are no allies of ours and never will be. A White man who sleeps with Asians is no better than a White woman who sleeps with Jews or Arabs. Both are disgusting, no matter the rationalizations.
+          <t xml:space="preserve">There's every reason to be positive, it's just that the state is not going to represent or protect us, we're going to have to go our own way and start playing the same minority power games as the others until the state implodes or becomes irrelevant and we can't bleed any more resources from it. Then we'll see, I suspect the other racial groups will be a lot more eager to come to terms than the anti Whites among our own people and the shoe will rapidly be jammed on the other foot as far as the rats in the ranks are concerned, remember everyone loves a scapegoat, if the non White power groups aren't getting their dues they won't be looking at us, they'll be looking at their sponsors and benefactors
 </t>
         </is>
       </c>
@@ -4933,11 +4933,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>74.32</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
@@ -4945,7 +4945,7 @@
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kahalachan there are hundreds of posts about race on SF. It’s got to be the number one topic. I imagine the old hands are sick of seeing the same nonsensical “argument” in yet another thread. For me I find race denial as silly as stating the world is flat, it's just that idiotic. Ideological pressure is all that is keeping the fingers of race denial clinging to the cliff edge. Just as the Church hung on desperately to Aristotelian cosmology despite the fact that scientific truth was banging on the windows and kicking down the door. The Dark Age superstition of PC dogma has no where left to run except inside the minds of terminally delusional. The bottom line obviously, for you, is that you don’t want to believe in race despite the scientific reality of it. Fair enough your choice; you have an ideological stance, despite your claim to scientific objectivity. If you were concerned about scientific truth then you would see that your position is untenable. For race deniers the object is always the same tell the same lie long enough and hope that people start to believe it.
+          <t xml:space="preserve">The Chechens had the backing of the US, Israel, Oligarchs, NeoCons, to attack Russia, just as the Albanians/Bosnians had to attack Europeans/Serbs, they too have attacked US. Chechen Jihadists are in Syria right now killing innocent Syrians with " western " backing. Look what two Chechen Jihadists can do, and amateurs at that. Not one of these people should be allowed in any Western country, NOT ONE. Boston Bomb Suspect In Custody After Showdown " Police have detained the surviving Boston bombing suspect after he was found in a boat in backyard following a huge manhunt that left the city virtually paralysed. " .
 </t>
         </is>
       </c>
@@ -4953,11 +4953,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20.8</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
@@ -4965,7 +4965,7 @@
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Doesn't have to be one massive sweep. Little things, criminals first, then for infractions of residency, vagrancy, minor infractions etc eventually getting rid of most if not all. Can't trust any of them. Those kids going on stabbing rampages in Israel are mostly middle class well educated who are convinced they can get away with murder. This is something they do among themselves for fun, it spreads where-ever they go.
+          <t xml:space="preserve">You people want Islam off your back &amp; off your land . . . then get ride of UIsrael So Arabs could take care of Zionism for you once for an all. To do that 1- Stop electing Jews into your Senate &amp; House 2- Stop paying over $$$ to support Israel (you have so far paid them over $800 Billion in forgiven foreign aid loans &amp; grants in terms of 1994 dollar and this is not even include the free military hardware they get 3- Get ride of the lobby influence in any form, they are playing you like a violin and most of you don't even know it
 </t>
         </is>
       </c>
@@ -4973,11 +4973,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>88.85</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
@@ -4985,7 +4985,7 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr">
         <is>
-          <t xml:space="preserve">[QUOTE=Monkey Mandela]Sadly, we have woken up too late. Nothing more can be done now. The number of politically correct race traitors in and outside our parliament and media, is growing day by day. And so is the constant arrival of immigrants. We have become an ethnic minority in our own country. Never say die MM The army which thinks itself defeated, is defeated - we are not! Far from it. Btw, how can you bear to use that man's name? I would feel contaminated by it..
+          <t xml:space="preserve">There's one in the Boarder's book store here in our little Kentucky town. I frequent the bookstore, but not Starbucks. On the first date I had with a woman I have since broken up with due to her being too yuppy, we ordered coffee to relax and read. She ordered the over priced cappachino witht the steamed cream and I got the over priced black coffee. It was the first and definitely the last time. WW
 </t>
         </is>
       </c>
@@ -4993,7 +4993,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -5005,7 +5005,7 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anybody who has been watching the news over the weekend has probably heard about Heimbach's past friendship with a Jewish girl. It's ancient history, and I'm surprised that we went this long without the issue coming up. In any case, the matter is being blown way out of proportion. It's ancient history, and it was also before he got himself straight on the Jewish Question. People change, and that's exactly what happened with Heimbach. That friendship happened before he got smart on the JQ, and since then he has done more for the movement in one year than most people do in a lifetime. Read Heimbach's position on the JQ here: Topic: Matthew Heimbach on the Jewish Question | Traditionalist Youth Network
+          <t xml:space="preserve">As the title states .. The powers that be , for long , are out to take the guns away from the American people .. They operate , more often than not , by the "PROBLEM - RECATION - SOLUTION" tactic .. The powers that be plot an event with monstrous consequences themselves , then they REACT to it so that it looks as if they're deeply concerned and then try to "solve" the problem with their perdetermined "solutions" .. It's a trick .. In the case of the Las Vegas shooting I believe the shooter was the victim of mind control / mind programming by the NWO . . Which in turn gives the NWO the "justification" to pass sticter laws against gun possession .. Sound plausible ? For eons , I have given up believing in coincidences when it comes to politics . . I'm not even American but I can see an agenda behind all this . . So , who's with me on this subject ?
 </t>
         </is>
       </c>
@@ -5013,7 +5013,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -5025,7 +5025,7 @@
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr">
         <is>
-          <t xml:space="preserve">A World Map where every continent is inhabited by Aryans. The few remaining non-whites would be isolated on a couple of remote islands. They would exist as a living laboratory for primate behavioral studies and possibly safari tours where folk could ride in secure monorails and observe village life. Hey! If you're going to dream, dream Big! Have a nice day! Lawdog
+          <t xml:space="preserve">Ah yes, the typical thing that comes up in this thread. I know a "white" that has non white blood, and she is like us, therefor she is better then a full blooded real white. Great post. If they look white and act white = they are white, covers so many mongrels that just have light skin but are not white. It is amazing so many people on a WHITE nationlist site accept light skinned mongrels.
 </t>
         </is>
       </c>
@@ -5033,11 +5033,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>68.72</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
@@ -5045,7 +5045,7 @@
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
         <is>
-          <t xml:space="preserve">The jews have declared open war on our people. Why are we helping these people? "Australian nurses and midwives are being forced to announce their 'white privilege' before treating Indigenous and Torres Strait Islander patients - a move which has been slammed as 'racist to its core'." Nurses forced to announce 'white privilege' when treating Indigenous | Daily Mail Online Sorry For Being White | Australia Nurses Have a New Shocking Code of Conduct - YouTube
+          <t xml:space="preserve">the news: Y! SPORTS former heavyweight boxing champion is knocked out in muay thai fight. News: Josh Thomson issues Press Release After Controversial Gay Marriage Comments josh thomson is the newest fighter to be targeted by the queer brigade for criticizing gay marriage in some way way. Roy Nelson: Daniel Cormier pulled an 'Uncle Tom' move - MMA Fighting Roy Nelson catches flack for saying his black friends described Daniel Cormier's actions as that of an "uncle tom."
 </t>
         </is>
       </c>
@@ -5053,7 +5053,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -5065,7 +5065,7 @@
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr">
         <is>
-          <t xml:space="preserve">I hold the Golden Dawn in very high regard. But I see where you're coming from. A GD chapter outside of Greece should incorporate all White elements into their ranks. It may not be unreasonable to think Golden Dawn chapters outside of Greece have trouble with clarifying their stance on whether to continue ethnic Greek nationalism or a united White nationalism.
+          <t xml:space="preserve">ouch! pretty rough situation your in! I guess the only thing you can do is just play along and keep your mouth shut! last thing you want to do is fight mexicans (trust me I was dumb enough to take on 30 at one time) they ALWAYS use weapons and numbers!
 </t>
         </is>
       </c>
@@ -5073,11 +5073,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
@@ -5085,7 +5085,7 @@
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was re-reading "My Awakening" chapter 22, last night. Israel: Jewish Supremacy in Action. An account of the attack on the USS Liberty is near the end of the chapter, it got my blood boiling. The Jews are ruthless, manipulative, cunning, racist beyond our Goy imaginations. The blood of a million Goy is not worth the thumbnail of a Jew. http://www.front14.org/tsun Nothing would surprise me when it comes to Jewish manipulation of world history/events. As far as the WTC incident, besides the stench of 5000 decaying, mostly white bodies, the smell of schmalz hangs heavy in the Manhattan air. Lawdog Links not working. It gets overloaded sometimes.
+          <t xml:space="preserve">The Slavs got there first and settled for a while. Then they were chased out by the German tribe of Benjamin between 800 and 1000 AD in what was called the "drang nach osten." That was the time when Germans took over all the land east of the Elb River and established Magdaburg, Berlin and Frankfurt nach Oder. That is why so many places are called after the Slavic Tribe of Dan such as Dan-mark, ScanDanavia, DanZig ect. The Slavic Tribe of Dan inhabited these areas first, then the Germans chased them back to Slavdom where they live today.
 </t>
         </is>
       </c>
@@ -5093,7 +5093,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -5105,7 +5105,7 @@
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allow me to retort. What I am saying, is calling for a race war is the stupidest thing that you morons can do. Hardly a surprise, but stupid. Getting into a war with Whites leads to annihilation. Ask the Aztecs..................You can't, they're ALL GONE. Judging from your nearly illiterate response, I will try to dumb this down to a level even one as dim as you can comprehend. BlackHS, is calling for a race war. I am all for BlackHS removing himself from this mortal coil. Crack cocaine, jumping off of a bridge, whatever. I don't wish to see all of his fellow blacks join him. A race war with Whites would mean the extinction of the aggressing non-whites. Extinction means all gone. No more. Nada. Nil. Game over. White Nationalist are not advocates of violence, period. Besides, you totally missed the point. When your spelling, and grammar skills exceed the abilities of an average 8 year old, maybe I'll show you a little respect. Until then, retard, piss off.
+          <t xml:space="preserve">I gave up and deserted the democrats and voted for El Presidente Boosh. Anyone who is NOT an idiot knows that the republicans have deserted US and America to join the jews. I will take a Nader or even a jew over a lying, decieving, traitorous republican, or a stalinist democrat every day. At least with a jew, I can sort of know what to expect. Presidente Boosh has done nothing but destroy my confidence in the conservative wing(republicans-they just have more money) of the liberal party. For any dummies out there: OUR BORDERS ARE STILL OPEN! OUR CULTURE IS STILL BEING DESTROYED! JORGE BOOSH IS PRESIDENTE. My grandchildren still cannot drink our water where I live, because it has been poisoned by nitrates. They are literally selling us water now. I trust Nader more than any of those lifelong political parasites that they keep pushing over on us. But there is little point of stirring controversy, because we will just get another parasite that elite jew/gentile powers provide for us. Any real opposition to the two parasite system would be destroyed.
 </t>
         </is>
       </c>
@@ -5113,7 +5113,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -5125,7 +5125,7 @@
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
         <is>
-          <t xml:space="preserve">[QUOTE] Certain Jewish Rabbis have admitted that Judaism is not a "Religion", it is a way of life. A code of Law. A Code that puts Jews at the summit of humanity and non-Jews as beasts of burden to carry out their orders. As the numbers of Aryans being sacrificed in the Middle East for their benefit testify. JU88.
+          <t xml:space="preserve">Here's the answer: They are: English and Irish on mom's side (dad was Irish came to England after WWII) they are German, Swedish, Norwegian rapped up into Minnesota American on their father's side. They are great. Mom is very beautiful and very strong, but just a bit too "Irish" - has a volcano temper and likes to fight a bit too much. Doesn't seem to be a problem with the children. The Celtic and Nordic combination works out great! Nordics can be kinda of boring and lack passion, they need a spark of something else.
 </t>
         </is>
       </c>
@@ -5133,7 +5133,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>52.72</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -5145,7 +5145,7 @@
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yeah, relatively poor Mexico does the same thing. All it takes is political will. And in the case of these Jews: they did it by ignoring all the international laws they used to help Jews in an emergency. My dream is for the Greeks to be able to show up the Jews by having swift, legal, humane deportations. None of this three years in prison without considering refugee status. Simply, are you from a country with a civil war? No? Your boat leaves tomorrow.
+          <t xml:space="preserve">Nothing bothers me more then white kids trying too be black !!!!!! It brings a tear to my eye too see how the white youth of today act. I'm 38 y/o and have been around the ******s. I've seen how they act, how they treat whites. For some reason, the nigglets are brought up too belive that white people owe them something. I'm sorry, but it's not my problem that other ******s sold them into slavery, and white people bought them. What happened over 200 years ago has nothing to do with what is happening today. Now our white children are being tought to reject the white culture. We white people have the richest culture in the world, yet it's being treated like a plage. Be proud too be white !!!!!!! 2508
 </t>
         </is>
       </c>
@@ -5153,7 +5153,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -5165,7 +5165,7 @@
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maybe the true white Scots still remember the tragic racist murder of Kriss Donald ? In doing so all the pro-multicultural paraphenalia won't mean a damn. One thing that has always puzzled me and which for some reason the pro-multicult mob have never been able to explain to me - if we are all the same underneath our colour, why is there a need for the CRE and various other race related quangos ?
+          <t xml:space="preserve">Would you mind answering a few questions? Since you are part of a party, could you clarify just what has been asked of the Latvian people and other member states? Is it for us to take a proportion of 20000 over the period of two years? Or for us to redistribute the hundreds of thousanda already in and then take an extra 20000 which we would redistribute?
 </t>
         </is>
       </c>
@@ -5173,7 +5173,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -5185,7 +5185,7 @@
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Also, I got a private message from a Moderator, telling me that if a regular member on Stormfront insults me, that I have no right to insult him back. That I'm supposed to sit there and take it That I'm supposedly allowed "less leeway" because I'm not a regular member of this forum, even though I technically am. How's that for "fairness". How's that for "objectivity". It shows how ridiculous this forum is and how ridiculous you people are. This Lord Jim character called me a "monkey" again and he actually expects me to respond to his attacks. And he expects me to respect his response when he actually said: (and I'm paraphrasing) "If a Negro fails in life, then it's because he's a Negro. But if he succeeds and actually makes something of himself, then it's most definitely due to a White ancestor he might have had, or an Arab ancestor" ....He actually expects me to take such a response seriously. Disgusting.
+          <t xml:space="preserve">If you don't like a country and resent its history, then don't live there. It's more offensive for foreigners to make statements like this because they have chosen to live here and earn money here, whereas it's acceptable for natives to be more critical because they usually have no choice but to live in their own country. If a British person went to live abroad and made a point of refusing to observe local customs and commemorations and telling the locals how he disagrees with them and their history, they would be regarded as a bigoted troublemaker who has no place to be in their country. The Serb no doubt hates Britain for obvious reasons, but if he had any real integrity he would not have come to work in this country in the first place but the reality is the country and culture he hates is the one that offers him the highest reward. It's a dilemma that a lot of foreigners face, most of them hate Britain but want to earn money here.
 </t>
         </is>
       </c>
@@ -5193,11 +5193,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>56.01</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
@@ -5205,7 +5205,7 @@
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Harmless enough. Pickled in aspic to a certain extent. They are far too pacifist to remain intact against aggression. You cannot keep turning the other cheek. At some point you have to say enough is enough. You can turn the other cheek as they slap you about, but when they decide to amuse themselves with your wife and kids, or burn your place down... Enough is enough.
+          <t xml:space="preserve">[email protected] Welcome to this forum and to Stormfront. Your post singles out individuals rather than ideas. Not good! I believe that the Klan has a serious image problem, we know why that is. The Jews have made every movie and TV show for the last five or six decades. Instead of showing the Klan protecting a disarmed and occupied conquered South from the ravages of Jew carpetbaggers and roving gangs of freed Negroes the media has created a caricature that the general public has accepted. Just the way it is. The same goes for all things associated with Hitler and Nazi's.
 </t>
         </is>
       </c>
@@ -5213,11 +5213,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
@@ -5225,7 +5225,7 @@
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Some one ain't that bright or they get paid to post and play stupid. Right on schedule, minutes after posting, a full time SF monitor. Main goal, 9/11. They want the first responders as witnesses dead, it is that simple. Gov has done nothing for them and the JEWSMEDIA covers for the crimes against them. This guy is a long time troll, have a look. https://www.stormfront.org/forum/show...52#post7238952 " You call half truths, debunked myths, incessant repeating of lies and falsehoods " https://www.stormfront.org/forum/show...&amp;postcount=302 And he defends the Jews despite evidence and reporting from Jew sources. JEW ORGAN TRADE https://www.stormfront.org/forum/show...2&amp;postcount=27 https://www.stormfront.org/forum/show...4&amp;postcount=28 https://www.stormfront.org/forum/show...4&amp;postcount=30
+          <t xml:space="preserve">Didn't the Tibetans bring it upon themselves, my Erudite friend? If they simply gave into progress and were willing to give their petty 'tribal freedom', their silly religion, culture, language and dreams for the future? Could they not give this all up, as Whites do int he West, and live in peace and without violence? If the Tibetans simply gave up to Chinese progress, they would not be any need for violent and bloody repression.
 </t>
         </is>
       </c>
@@ -5233,11 +5233,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
@@ -5245,7 +5245,7 @@
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr">
         <is>
-          <t xml:space="preserve">How do we nationalize our money supply when the politicians are bought and paid for, the top level of the bureaucracy is staffed by corporate stuffed suits out of the business realm and the ballot box has been replaced by the judicial bench? What SHOULD be done and what CAN be done seems to be two different worlds. In 1806, just before the Prussian Army got its butt kicked by Napoleon, General Scharnhorst lamented, "What we SHOULD do I know right well. What we WILL do only God knows."
+          <t xml:space="preserve">Here is a great opportunity to do a Montgomery Bus style boycott only reverse the tables against wilding Blacks. Start a grass roots taxi cab boycott of Black men to protest letting the Central Park Rapists off Scott free. Print up flyers and distribute to all taxi drivers not to pick up Black men as a protest to this horrible Black racist act. The best part about this plan is that the boycott is 100% guaranteed to succeed because cab drivers already boycott Black men as potential thieves, murderers - Arab drivers, Black African drivers, ethnic Whites all practice racial profiling. The boycott will be announced as a great success and we can use it any time the Blacks do some other horrible act to excuse Black criminals.
 </t>
         </is>
       </c>
@@ -5253,11 +5253,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
         <is>
-          <t xml:space="preserve">His position has been that for awhile, that if the Palestinians agree to a solution he will support it. But he knows that this probably will not happen since many Palestinians want all the land that was taken from them and not just half split up with the Jews. He made the exact same statement in the Spiegel interview.
+          <t xml:space="preserve">University of Michigan to remove name of ex-president from building mlive.com, April 4, 2018 University of Michigan to remove name of ex-president from building | MLive.com The University of Michigan Board of Regents approved requests to rescind and remove names from two of its buildings - the Clarence Cook Little Science Building and Alexander Winchell House - during its meeting Thursday, March 29. {}
 </t>
         </is>
       </c>
@@ -5273,11 +5273,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
@@ -5285,7 +5285,7 @@
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unfortunaly the Social Democrats are as they were in pre Third Reich Germany still in charge of the media and they WILL put their hate mongering spin on the rhetoric that they publish. The only way to control that is to wrest control of the media from the hands of the KIKE ! ! ! By whatever means necessary.
+          <t xml:space="preserve">I can't believe they left out Boulder, Colorado. My home town may have been taken over by East Coast jews, and other assorted yuppie scum, but it is still a beautiful, and clean city. For my money, I'll take Indy, over Pittsburg any day of the week, ( and we ain't talking football ).
 </t>
         </is>
       </c>
@@ -5293,7 +5293,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>99.82</t>
+          <t>62.53</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -5305,7 +5305,7 @@
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well I don't think that's a good idea. To give Cuba to the Jews many white people are going to be killed, and I'm sure that they will make it another Jewish holiday park rather then a real country, like they did to Israel. Why not Florida? Global warming and the rising sea level will turn Florida in hell in a few decades.
+          <t xml:space="preserve">Unfortunately it is all too common. They will use any method to rob you of whatever you have because these people have no conscience. I put them on par with Muslims. A lot of them carry knives and take a sick pleasure in cutting you or threatening you. I'd stay as far away from them as possible because these are the type to actually carry out their threats. I think this is a very serious problem and it's shameful that nobody is addressing it properly, in ANY country. Romania did until they joined the EU and the EU forced them to give the gypos more rights &amp;c. These people are a cancer.
 </t>
         </is>
       </c>
@@ -5313,7 +5313,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -5325,7 +5325,7 @@
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr">
         <is>
-          <t xml:space="preserve">AE911Truth Reaches Past the English-Language Barrier: German, Italian, French, Spanish, Japanese, Chinese, Dutch, Finnish… No one at Architects &amp; Engineers for 9/11 Truth could have envisioned the impact and ripple effect their work would have among fellow professionals and the general public in only three short years. Growing international interest coupled with multiple speaking engagements abroad by Richard Gage, AIA, soon underlined the need for AE911Truth to reach out in many languages besides English. The vision of branching out multilingually awakened the passions of Grazyna Samborska, AIA, who soon took the reins of this project to become its Team Leader. Ms. Samborska is a native of Poland who emigrated to the United States in 1986. Thanks to her hard work and to the unwavering commitment of Translation Team members Wibren Visser, Chuck Smith, and so many others, the Companion DVD to 9/11: Blueprint for Truth has now been translated into German, Italian, French, Spanish, Japanese and Chinese as voice-overs, and into many more languages (such as Dutch and Finnish) in the form of subtitles. AE911Truth Reaches Past the English-Language Barrier: German, Italian, French, Spanish, Japanese, Chinese, Dutch, Finnish
+          <t xml:space="preserve">Personally, nothing. But Hollywood leftist tendencies were "trendy" as far back as the early 20th century, gained steam with "Hanoi Jane" Fonda and have become pretty much de rigeur since then. It's almost axiomatic, in this day and age, that you can't make it in Hollywood or New York without being what used to be labeled a Communist sympathizer on some level. 16
 </t>
         </is>
       </c>
@@ -5333,11 +5333,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>96.74</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
@@ -5345,7 +5345,7 @@
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr">
         <is>
-          <t xml:space="preserve">There's a lot of questions that we can ask. With at least half of all rape cases, there is external trauma (the result of a struggle). Her clothes may be ripped, she might have his skin and blood underneath her nails from the physical struggle, she may be bruised and bloody as well from a beating. Rapists often beat their struggling victims unconscious into submission. Keep in mind, even though she is a female and weaker than a male, she would fear for her life and be able to put up a legitimate struggle. There may be furniture thrown around, of course as mentioned before the possibility of a break in. And you can't tell me that in a neighborhood where there are drug dealers walking the streets that people just have their doors unlocked. If I'm wrong then forgive me but based on the evidence, I can't say for sure that I believe the GF's story. I would like to see this article too, perhaps it sheds some light on the girlfriend's testimony in court as well.
+          <t xml:space="preserve">This is an excellent idea, especially for blacks. Seeing that all they buy with their welfare checks are plasma-screen t.v.'s, spinning 20" rims, etc. If only we could slip one by our jew government, negroes would be overjoyed to copulate with one another without the threat of pregnancy and get paid for it, too!
 </t>
         </is>
       </c>
@@ -5353,7 +5353,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -5365,7 +5365,7 @@
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr">
         <is>
-          <t xml:space="preserve">If someone is 1/4 Irish... then they're 1/4 Irish, regardless of what the rest is. It means 1/4 of their genetics are Irish. However, when a black person actually says they're Irish, that's kinda offensive to Irish people and other whites. They are not Irish, a rather insignificant part of their genetics are and they're nowhere near white or Irish.
+          <t xml:space="preserve">My Toyota is White! It has a little red National Alliance sticker in the corner of the windshield. Had GM products for forty plus years. I like my Toyota. I hope that the Jappanese never reduce themselves to a dysgenic Multicultural existence. Careful there, Troy. I'm not certain, but I think that it was the Long County Rebel that you saw in that truck.
 </t>
         </is>
       </c>
@@ -5373,7 +5373,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -5385,7 +5385,7 @@
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t xml:space="preserve">If what you say here is a CORRECT REPORTING of the situation then this is a clear case of inappropriate racism and the teacher should be reported. It is breach of his contract and the case can be taken up with the General Teaching Council for disciplinary action with a view to having him suspended from the teaching register. If this matter concerns you, and WHAT YOU REPORT IS TRUE , then you should write to the principal of the college/school concerned and say that you intend to make a formal complaint to the General Teaching Council about the inappropriate racially biased teaching, with the set text being used to introduce racism in an inappropriate manner. If you are not exadurating what has been said, and it a true reporting of the situation you should take this action. Sit back and watch the s**t hit the fan.
+          <t xml:space="preserve">I agree, that is the 'missing element'. Therefore it cannot serve as a complete free-standing ideology on its own right, as its incompleteness in that regard forces its amalgamation with a scientifically designed system of government in order that its principles may have practical application, beyond that which is found to be useful to individuals. Its incompleteness in that regard is what allows its corrupted use in service to the enemies of civilization, as a justification for economic Malthusism and cultural division along strictly economic lines, rather than as another moral basis, provided sans religion, for the protection of the source of civilization and its wellhead, the White Race. .
 </t>
         </is>
       </c>
@@ -5393,7 +5393,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>54.56</t>
+          <t>57.28</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -5405,7 +5405,7 @@
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm sorry to hear it - personally I was hoping they would hack the stupid interfering do-gooding 'aid worker's' stupid head off! I really was!! I personally detest this particular branch of 'humanity' with their wishy washy liberalism and subversive agendas - What the hell is she doing there anyway?? Time to keep sticky beaks out or take the consequences I say...
+          <t xml:space="preserve">Why do you describe to such a warped ideology? going all the way back to the 20s, it has always been the anti-fascists that commit violence and break the law. When so called 'racists' try to hold rallies, despite been viewed as the bad guys, it is typically the anti-fascists/racists that are arrested in numbers. Funny that. How do the tolerant types justify brutal and criminal behavior? The new ultra hip cause for anti-fascists is Muslims. This fetish has entered new realms of anti-fascist delusion. Considering Muslims hate the gays, who are so precious to anti-fascists. Not to mention the Muslim desire to set up medieval theocracies in which women and non-Muslims have little to no rights. Your ideology is perverse and has no moral foundations. The only standard ideology of you people is a love of Marxism. Ya know? that wicked way of thinking that has lead the murder of hundreds of millions innocents.
 </t>
         </is>
       </c>
@@ -5413,11 +5413,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>84.12</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
@@ -5425,7 +5425,7 @@
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
-          <t xml:space="preserve">I understood clearly what you wrote, and you wrote a flawed definition of capitalism. But there's not much point in discussing it with you since you chose to not read the OP article which explains to you why you are mistaken. The point of the thread is to examine what capitalism is and isn't. It isn't as you define it. But, as I say, you want to make up what suits you without reading opinions of others on the subject, i.e. the article, so no point in exploring it further with you.
+          <t xml:space="preserve">Very foolish of them to use a term like that. Do they really think insulting White people will make them listen? This type of thing is only going to push more Whites to our cause! And by the way we all know who is the most fragile here, it's the jews. Any criticism of them and they begin to cry! Jew Fragility!
 </t>
         </is>
       </c>
@@ -5433,7 +5433,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>73.67</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -5445,7 +5445,7 @@
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr">
         <is>
-          <t xml:space="preserve">It amazes me that Indigenous groups (or anyone else for that matter) are prepared to put up with them, they openly state that they want to end the traditional Patriarchal clan system and they oppose any Aboriginal representative body or recognition of the prior existence of Aboriginal Nations. Every Anarchist I've met over the last 20 years has been stuffed on drugs or mentally ill to some degree, they have no place in the democratic process, either Left or Right are their targets of the day depending on their mood. If any Socialists or Communists are reading this, you've got the numbers, boot 'em up the Khyber pass and send them packing if they turn up at your rallies, we can't do much about them at this point...so do us all a favor Eh
+          <t xml:space="preserve">This makes my blood boil. These Muslim ******s have to be sent back one by one, they should shoot to stop and then arrest them after medical treatment and deportation. If any of their family is caught doing violent crimes too then everyone of them should be deported. In Sweden there has to be a law, if you are not from a European country, you can't get citizenship. If you brake the law, you get deported, simple as that.
 </t>
         </is>
       </c>
@@ -5453,11 +5453,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
@@ -5465,7 +5465,7 @@
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
-          <t xml:space="preserve">The next time we have an election I say we stand in front of the voting booths and not let the coloreds vote. I mid as well say it, get rid of all the traitors that are now in power remove their citizenship and throw them out of our country. 14/88
+          <t xml:space="preserve">Well, I've got some good news to report. I heard it mentioned over a radio news segment that sales of hip hop music are sharply declining this year. Maybe it's largely white consumer teen is figuring out that rap not only sucks and is getting old, but that it's the ignorant and hateful grunting of subhuman ghetto groids. That the fashion of wearing your pants half-way down your butt is something literally out of prison culture as a signal to other inmates that you're available--if you catch my drift.
 </t>
         </is>
       </c>
@@ -5473,11 +5473,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
@@ -5485,7 +5485,7 @@
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
-          <t xml:space="preserve">He is still writing great articles ... Behind the Campaign For War Against Iran and the IHR is still active, all you have to do is check the web site. The real issue is not exposing another holohoax lie. The freaking thing is preposterous from start to finish, Butz wrote his book in 1976? Do we really need more articles explaining the hoax? The issue is not just setting the record straight with respect to the hoax, the issue is that we are about to start WW III because of the Jews and get ourselves incinerated. Weber is trying to do something about THAT. My opinion is that the hoax is the Achilles heel of the Jews, and Weber no longer believes that. SO WHAT? Maybe he is right. To see him continually trashed is discouraging. But then, if you're a denier there are lots of things that are discouraging.
+          <t xml:space="preserve">Just speculating here: If we are to believe what Albert Speer said that Hitler said, from "Inside the Third Reich", Hitler had this opinion: And then, if Islamification had happened in the past, Hiter thought this would have resulted: Adolf Hitler's religious views - Wikipedia, the free encyclopedia So perhaps, if an Islamified Britain gets rid of Political correctness, this would be better for the British people? They might rise up and no longer shuffle towards the slaughterhouse. Of course, I think this could only happen if PC dies completely, which would require the removal of the masters of the media in the US, something unrelated to what happens in the UK. And I say this with not much knowledge of Islam.
 </t>
         </is>
       </c>
@@ -5493,11 +5493,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>62.84</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
@@ -5505,7 +5505,7 @@
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
-          <t xml:space="preserve">You know the OP's predecessors should have just said no when the Holland based Jewish slave traders arrived in the West coast four hundred years ago... instead they got shown beads... saw awlla det bling and went... "I wonna gibs me summa dat... wotcha want for dem blings cracka?" "Oi vey vee are lookink for some slaves to sell to de goy" "Dems bee my bruvvas? Shore ting boss... I gettsya summa blackass to enslave en sheet... juss gibbs me summa dat bling fodda b***tches imma crib so I can gets mudeek off onna dems" "Oi I got all de bling you vont my friend... just help a man out veeth some product and vee can shake hends and I give you vot you vont and I get vot I vont... and everybody is heppy...do vee hef a deal?" "Shore shore.. juss gimme summa en I'll getsyuh as many n**ggazz as yo boat can load..." And the rest unfortunately is history...
+          <t xml:space="preserve">Good evening Stormfront! As a boy a family friend, an adult and a great person, would grab me in a headlock and tap on my skull with his knuckles, and say my head was harder than a hickory nut. I chose hickorynut because I must be tougher than a hickory nut for all the damage done to me physically. I keep getting knocked down by life, and I keep getting up.
 </t>
         </is>
       </c>
@@ -5513,11 +5513,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>96.74</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
@@ -5525,7 +5525,7 @@
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is an excellent idea, especially for blacks. Seeing that all they buy with their welfare checks are plasma-screen t.v.'s, spinning 20" rims, etc. If only we could slip one by our jew government, negroes would be overjoyed to copulate with one another without the threat of pregnancy and get paid for it, too!
+          <t xml:space="preserve">Or maybe it's an homage to Baudelaire's prose poem "Be Drunk": You have to be always drunk. That’s all there is to it—it’s the only way. So as not to feel the horrible burden of time that breaks your back and bends you to the earth, you have to be continually drunk. But on what? Wine, poetry or virtue, as you wish. But be drunk. And if sometimes, on the steps of a palace or the green grass of a ditch, in the mournful solitude of your room, you wake again, drunkenness already diminishing or gone, ask the wind, the wave, the star, the bird, the clock, everything that is flying, everything that is groaning, everything that is rolling, everything that is singing, everything that is speaking. . .ask what time it is and wind, wave, star, bird, clock will answer you: “It is time to be drunk! So as not to be the martyred slaves of time, be drunk, be continually drunk! On wine, on poetry or on virtue as you wish.”
 </t>
         </is>
       </c>
@@ -5533,11 +5533,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
@@ -5545,7 +5545,7 @@
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dear 1White, why not put your faith in multi racial, multi cultural nations to test and go live in say,,, Zimbabwe. I hear there are agricultural opportunities for those who are not White racists. Perhaps you can mouth your slogans in the ear of Robert Mugabi and introduce your daughter to some of Mugabi's war veterans. Why not just hang out in East Timor - not far from Australia? They say the Muslim militias are eager to spread their culture to others (iunfortunately their culture dictates that they murder non Muslims). You're pathetic. I will take bone sucking queers who are at least against third world immigration over the likes of you and your Judiazed one worlder churchfolks. Please take your sissy views to the opposing view section. This board is for proud Whites.
+          <t xml:space="preserve">Up until recently, Bosnia had the old Yugoslav Unique Citizen Identification Number system, which worked quite well and which is still used in Serbia. They only decided to change that perfectly functional system in order to distance themselves (and, more importantly, the Serbs in Bosnia, many of whom are also citizens of Serbia) from Serbia. The Serbs were against this plan from the start but they were illegally outvoted in the parliament, so they now want to create a semi-separate system for the Serb Republic. The long-term goal, of course, is for the Serb Republic to secede.
 </t>
         </is>
       </c>
@@ -5553,7 +5553,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -5565,7 +5565,7 @@
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is true - I am hesitant to passionately embrace anything with the jewneocon media and $$$$$big buck insurance stock money behind it. As much as i despise Pelosi and everything she stands for, Id bet money if Obama had come out 100% in favor of new West Bank settlements, and bunkerbusting Iran nuke energy, you would see about 50% of the 'grassroots" evaporate, and Sean Hannity muzzled. Just my opinion.
+          <t xml:space="preserve">He is still writing great articles ... Behind the Campaign For War Against Iran and the IHR is still active, all you have to do is check the web site. The real issue is not exposing another holohoax lie. The freaking thing is preposterous from start to finish, Butz wrote his book in 1976? Do we really need more articles explaining the hoax? The issue is not just setting the record straight with respect to the hoax, the issue is that we are about to start WW III because of the Jews and get ourselves incinerated. Weber is trying to do something about THAT. My opinion is that the hoax is the Achilles heel of the Jews, and Weber no longer believes that. SO WHAT? Maybe he is right. To see him continually trashed is discouraging. But then, if you're a denier there are lots of things that are discouraging.
 </t>
         </is>
       </c>
@@ -5573,11 +5573,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>97.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
@@ -5585,7 +5585,7 @@
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr">
         <is>
-          <t xml:space="preserve">And listening to her tell us how to think or what she thinks is wrong with how we speak is better than the media actually covering whats happening? They air her vs airing actual new &amp; that this truly is Islamic terrorists placing bombs in our nation. But that would ruin her agenda. _______________________________________________ WAKE-UP, NOW STAND-UP, &amp; FIGHT TEXAS!!!
+          <t xml:space="preserve">nah lets not pollute the ecosystem with them rotting away in the ground...how 'bout cremation and then dumping their ashes in the ocean?? or a volcano! (that would be double burning for purification we'd be doing them a favor!) I'm still stuck in Commiefornia (love that) and have small children...I will now be sending this info to my parents and their friends so they will no longer harass me for wanting to put my children in private school or homeschooling them! gah! ;(
 </t>
         </is>
       </c>
@@ -5593,7 +5593,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -5605,7 +5605,7 @@
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi my name is Richard Im 17 Im of Italian and Austrian decent Im 5,7 slim build bluish greenish eyes short hair Im looking for a girl that is racially aware of whats going on politically and socially in the white society other than that a decent person that I can talk and relate to so pretty much if you agree with this sites messeges well get along just fine my interests are friends,music other than that I like to go out party and hang out do whatever if your interested email me at [email protected] or here
+          <t xml:space="preserve">Well, as I saw last summer when I visited St. Petersburg you don't have a lot of Caucasians over there, but tell me my friend, when was the last time you visited Moscow? I never saw any statistics about it but I never saw even one Caucasian in Moscow who is working in some dirty job. Most of them are market sellers, paying bribe to the local officials to keep their business open or they are trading drugs and weapons, do you really think that it is the kind of labor power our country need? I'm pretty young and probably I don't know much about life but in the few years I live in this world I never saw anyone who is ready to share his money. Usually the ones who despise rich people only for them being rich are pathetic and miserable people. If they want to achive success our folk should work and not drink all day long and criticize the successful people. Peter the Great.
 </t>
         </is>
       </c>
@@ -5613,7 +5613,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -5625,7 +5625,7 @@
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Right, now we're getting to the centre of it, it's a gang thing, notice how there's no mention of Racism in that article. The suppression of the Adult offender's name is probably because he's non White, if revealing his identity could be prejudicial he's probably Aboriginal, if he's White it wouldn't make a difference unless he's accused of Racially motivated crimes. Or maybe the fact that he's an identifiable gang member could sway a jury, either way this is not a "White" crime it's a So/Cal Gang inspired "Black" crime.
+          <t xml:space="preserve">alot of their early dutch fighters did kyokushin. ie Thom Harinck, bas rutten peter smit so maybe thats why its less "pot shotty" than muay thai. european kickboxing in general has more of a karate influence. hence the planted feet when kicking and differences in footwork. dont forget crocop and the swiss andy hug did pretty well in K1! [ame=http://www.youtube.com/watch?v=ev-A0X3z8-w]Andy Hug vs Mirko Crocop - YouTube[/ame] mind you there is more than one way to round kick. both have it's advantages. ive never done mt but pivoting on the ball an hitting with the shin is something I've allways done back to fullcontact as a little kid. go figure! must have been watching van damme lol
 </t>
         </is>
       </c>
@@ -5633,7 +5633,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -5645,7 +5645,7 @@
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t xml:space="preserve">You get lower wages the more people are in the labor force (on average, excepting any impact there may be by producing more on available jobs, which would alleviate downward pressure on the labor wage). I think that there should be some jobs for single or unmarried women, some also for lower-working class women to help support families where the guy has a low wage, but that the ideal people should work toward and accept where economically possible is stay-home wives. This is extremely difficult to do if marriage is not seen as a permanent life bond, because otherwise it is in the woman's interest to get a career so that she is set to take care of herself if the relationship ever breaks up.
+          <t xml:space="preserve">I don't watch television so I can't comment on its advertising. Mainstream radio has become increasingly ridiculous with obvious black voices doing voice-overs even on country and modern-rock stations. Newspaper advertising and circulars are still pro-multiculti except for the coupons which( at least in my region) have become almost exclusively targeted towards Whites. BTW, it's tv-signal-changeover-day here and I believe the National Guard is about to be called in, the panic-level is so high.
 </t>
         </is>
       </c>
@@ -5653,7 +5653,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -5665,7 +5665,7 @@
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Köse also sought to convince Erdogan that the Jewish community should apologize for Israel’s self-defense measures during the operation. “You came here after being banished from Spain. You have lived comfortably among us for 500 years and gotten rich at our expense. Is this your gratitude – killing Muslims? Erdogan, demand that the community leader apologize. “So of course one feels like saying, ‘God bless that Hitler!’” Wiesenthal Center top 10 list: Worst global anti-Semitic/anti-Israel incidents of 2014 - Diaspora - Jerusalem Post
+          <t xml:space="preserve">I must say, the fact that the EU security chief wrote a thesis on islam is scary. One wonders if that is the reason she was given the position in the first place. One wonders if there aren't oil magnats dictating who gets what in the EU. Even if not, her thesis plus her appeasement stills makes one wonder if she wasn't chosen because of her commitment to the desert death cult.
 </t>
         </is>
       </c>
@@ -5673,11 +5673,11 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
@@ -5685,7 +5685,7 @@
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bolgars are not European and not White. Only whites found among Bolgars are assimilated Slavic folk which inhabited area during Slavic migrations. They somehow think they are Slavic, while even their flag is not Slavic. They claim Thracian heritage as their second while it only compose 20% of their total nation. Haplogroup R1a is barely 15 % present in Bulgarian population while J2,J1,E1 and T haplogroups foreing to Europe together make up to 30% of their population. Even Chuvash minority in Russia are more Slavic and European than Bolgars. On 23andme i have several Bulgarians who score almost 30% Middle Eastern and Central Asian on ancestry painting. And test goes back only 500 years. Imagine what can be found if you go backward.
+          <t xml:space="preserve">This is worse than a sick joke. Obama is a homo freakazoid and his tranny partner Michelle proves it. "Faith based agency" HAHAHA! Wasn't it the Bushes that started this BS or does it go back to Reagan? It is pure BS regardless the government of the USA is not supposed to be involved in the religious affairs of it's citizens or lack thereof. Take a good long look at that freak, that is the future of religion in the west. I say to hell with that thing and to hell with any religion even remotely tolerant of it. I'll stop there...
 </t>
         </is>
       </c>
@@ -5693,7 +5693,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -5705,7 +5705,7 @@
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anyone who has been in or is familiar with racialist circles is already more than aware of the Founding Fathers views as to who should vote or who should be considered "equal" and such. We all know the REAL Jefferson quote, Lincoln's REAL views on blacks, etc. Their intent does not matter. The point is that they expoused egalitarian views where it counted- including the highest law of the land. As we have seen with the 2nd Amendment- the original intent of the Founding Fathers does not go to far anymore. 32
+          <t xml:space="preserve">Not IN white countries, genius. Why does every post from people like this guy get dumber? I really don't get it. I was new once too, but I asked intelligent questions. Is it really that hard to be polite? Ohhh, riiiiight... this is the "tolerant Left" addressing us. [ame="https://www.youtube.com/watch?v=PwlRp8n_eok"]So tolerant - YouTube[/ame]
 </t>
         </is>
       </c>
@@ -5713,7 +5713,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -5725,7 +5725,7 @@
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
-          <t xml:space="preserve">I disagree that it does a disservice to not mention race, this horrible crime happens in all races, but I do agree with you on the media. Remember this Zionists controls the media not blacks and they use multiculturalism to control all races.The funny thing is they only use multiculturalism in other countries, to control, but not their own. The zionists are very racists and fanatic.
+          <t xml:space="preserve">They are economically right wing- so what? That could be seen as a sign of being basically individualistic to the point of selfishness. They still are fine with all sorts of immorality and degeneracy. Far more Scots go Church and take the natural order as Catholics would put it seriously. They are also a lot more instinctively racial.
 </t>
         </is>
       </c>
@@ -5733,7 +5733,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -5745,7 +5745,7 @@
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
-          <t xml:space="preserve">[quote=marquis013;5010538]Well, I see that you girls--Jane and Jean--obviously missed me. Now...unleash the hounds--the game is afoot!! Oh Yes We all just miss Your presents like one would miss lice on a hot afternoon or perhaps a bad case of the Herpes Simplex! You are so far out of the realm of WN it amazes Me that You haven't been baned yet! Notice I say Yet! Leave The WN Women Folk Alone Troll Boy! Final Warning!
+          <t xml:space="preserve">I think these riots are only partially racial, there's a lot of whites rioting too judging by the footage. I think it's more a case of a falling empire in despair and starting to turn on itself. I think the lock down has added to it as well, there's a lot more people now out of work (some with no real prospect of returning to work) than there otherwise would have been.
 </t>
         </is>
       </c>
@@ -5753,7 +5753,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -5765,7 +5765,7 @@
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr">
         <is>
-          <t xml:space="preserve">I believe that one thing to keep in mind while casting the harsh and accurate judgements is the benefit of hindsight. As these dramas were unfolding no one could be aware of the outcome, or the consequences of that outcome. Had Hitler been able to see the future of the disaster, his actions would have been tempered by that knowledge. This gives us a perspective that was far from his grasp at the time.
+          <t xml:space="preserve">If that's not doublespeak, I don't know what is. Thousands of people ate that crap up like it meant something. Sure, it sounds good. Oh yeah. And reasonable. And so it was, once, in the fairy tales. The Pied Piper of Hamelin, anyone? Ah, such beautiful music! Such pleasant tickling of the ears! And you follow that angelic refrain to your doom. Somewhere there is a speech-writer snickering up his sleeve. I think there must be some kind of prize given out in the political speech-writing industry for whoever can write the best, most flowery and well-phrased steaming pile of bull****. No sane man capable of critical thought could possibly believe a word of this speech, no matter who uttered it, no matter the oratory authority. To me, it's as if this entire election contest is nothing but a giant practical joke, or a PR experiment to find out just how much the public will take. This just isn't real. It can't be happening.
 </t>
         </is>
       </c>
@@ -5773,11 +5773,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
@@ -5785,7 +5785,7 @@
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Only problems I've ever had in public places have been with nonwhites. I've had issues with groups of asians, blacks, and mexicans. I've been called a "whiteboy" by asians. When I turn to look at them they play their little game and put their heads down not making eye contact. Cowardly. Blacks are just obnoxious monkeys and are bound to piss off whoever they're around. (including eachother) I started the **** with the Mexican I got into it with so I can't fault him entirely, other than the fact he was on our territory.
+          <t xml:space="preserve">I believe that one thing to keep in mind while casting the harsh and accurate judgements is the benefit of hindsight. As these dramas were unfolding no one could be aware of the outcome, or the consequences of that outcome. Had Hitler been able to see the future of the disaster, his actions would have been tempered by that knowledge. This gives us a perspective that was far from his grasp at the time.
 </t>
         </is>
       </c>
@@ -5793,11 +5793,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>66.52</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
@@ -5805,7 +5805,7 @@
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr">
         <is>
-          <t xml:space="preserve">If I were a Mod I wouldn't let these posts through... Some of 'em purely reek of sowing division... However, I'm glad some posts are let through by mods sometimes though Burning question It's just so much fun torturing trolls Especially cheeky trolls as the one linked . I think we need a troll-hammer here ..
+          <t xml:space="preserve">He was a Jew from Georgia. Communism was created by a Jew, perpetuated by Jews, so he just took the torch. OP, you conveniently forget the Rwandan genocide and the 10s of thousands of Americans who are gunned down in their homes and streets every year by your beloved "African Americans".
 </t>
         </is>
       </c>
@@ -5813,7 +5813,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -5825,7 +5825,7 @@
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr">
         <is>
-          <t xml:space="preserve">I love England and would gladly return to the land of my ancestors if that were possible. Unfortunately, it is not. When I visited London we stayed in the Bayswater area and we, as whites, were in the minority there. Shame. I agree with those who wrote that America is ours because our ancestors fought for it and formed the government that we now enjoy. People like you, "Chavez," just want to slide in easy and benefit from others' hard work and sacrifice. YOU are in no way "native" if you have slunk in here recently from Mexico. YOU are a trespasser.
+          <t xml:space="preserve">We are fighting your war, and most importantly we are paying for it...Those same workers that you say are 'benefiting' from the military industrial complex that support Israel are also being taxed to pay for it. Israel is the number one benficiery of American foreign aid... Jews like yourself say you are helping us while at the same time receiving large payments of cash courtesy of the American tax payer. Since 1985 Israel has been receiving 3 billion annualy in foreign aid. That is what is paying for all of those pretty jets there buddy. Sorry, but we dont need your kind of help.
 </t>
         </is>
       </c>
@@ -5833,11 +5833,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
@@ -5845,7 +5845,7 @@
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exactly, I talked about this on another thread. Although the Muslim scum needs to be cleansed from our European homelands we can make use of their hatred for the Jew, for they are the cause of the problem, the massive Muslim immigration is simply the result. It seems some here need to read up on the Jew and study their ways a little more before coming back to this conversation. The demon Jew is the enemy of ALL.
+          <t xml:space="preserve">Debtor prisons are the only prisons we have.. All law is commercial law(commercial code). The United States went bankrupt in 1933, and was reorganised in 1944 at the Breton Woods conference. The Federal Government was the government of the Territories, the District of Columbia, etc. It was not the constitutional government. There are 6 STATES of the Federal Government, they are: Guam, Puerto Rico, The American Samoas, The American Virgin Islands, The Northern Marianas Islands, and the District of Columbia. When you apply for RESIDENCY you are stating that you are a FEDERAL CITIZEN living in one of the 50 States of the Union. If you want to get straightened out on this, read; www.mayanmajix.com/croft.pdf
 </t>
         </is>
       </c>
@@ -5853,11 +5853,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
@@ -5865,7 +5865,7 @@
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chocolate? I think you mean turd, sh*t or feces. Those are the defining characteristic's of the Negro. Chocolate is a treat; And nothing about a negro is a treat. Let's not pretend the negro is somehow glorious with 'chocolate' terms, brother (or sister? - After Volkish I dont want to offend anyone's gender... ) Just a rant about the chocolate comment, nothing direced at you.
+          <t xml:space="preserve">The article on black culinary predilections was in the Daily Telegraph weeks ago - and also referenced a very special Black ethnic accompaniment called "Cannibal Chutney" which blacks use as a form of 'ethnic HP sauce' to accomapny their anthropophagic feasts. Some blacks who were hopingto revive the recipe of 'cannibal chutney' (said the DT article), were discouraged from doing so. For reasons of 'bad taste"?......... The Sussex man eaten by Blacks is obviously the victim of a hate crime and I hope that the Stephem Lawrence Foundation may be calling for the erection of a street-plaque in his home town to commemorate the victim Mr Baker from Sussex - in the interests of race relations and to atone for the vile Black cannibalism of an Englishman.
 </t>
         </is>
       </c>
@@ -5873,11 +5873,11 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>54.56</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
@@ -5885,1127 +5885,7 @@
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you so much for sharing your school background &amp; passion for making the much needed improvements to our hell bent on destruction society. Educated persons such as yourself form the foundation of this international fellowship. Pastor Butler always liked to have all segments of Racialism represented at the annual Aryan Nations Congresses. Pastor Butler might no longer be with us, but The Honorable Don Black still strives each waking moment to hold high the standards &amp; banners that have taken our people so far. As you walk in our midst, be assured that you are appreciated. Do not hesitate to exhort us onto greater victories....
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>0</v>
-      </c>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hispanic is not a race, but the La Raza types stick up for each other. I'm remembering the 70% of them who voted for Obama to get amnesty for their illegal alien brethren. Rubio is no better. La Raza comes before America with these folks. This "white" Hispanic is no friend to whites. Looking forward to more of those "dial one for English..." call options.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>54.98</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>1</v>
-      </c>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bulgarians have to have 4 kids per family or 5. It's possible. But I hear too many women are marrying outside Bulgaria and allot of men are leaving also. There has to be a way to eat the cake and the cherry ontop. Such a beautiful country and culture, I don't want it to fade away lead by dirty Muslims and Turks. Why don't Bulgarians go to Russia or Poland, get beautiful girl then come back Bulgaria have 5 kids, live good Slavic Orthodox Bulgarian life?
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>67.88</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>1</v>
-      </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t xml:space="preserve">wo wo! Hold it there, no need to be that direct. We are 10% or so White, and I also find it difficult to believe we are whiter than Chile... but hey, no use to be that harsh... If this s***hole of a country is still on board is thanks to us.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>1</v>
-      </c>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exactly. I have been arguing this point with a member who claims that the jewish occupation of palestine is in the wests interests. The west? We are WNists, and not Zionists in the whitehouse. Jews have no foresight, because they "believe" they are guided by a god. They are reckless bunglers, on a criminal scale. They have destroyed any credibility the west may have had to be guardians of best practice, and justice. Now tin pot countries laugh at our intentions, and see us as double speaking hypocrites. We must uncouple the jewish band-wagon from our train of civic culture and society.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>0</v>
-      </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t xml:space="preserve">U.S., Europe caught in ‘death spiral’ of declining birth rates "Corcoran said. “It has been drummed into the heads of American college girls since the early 1970s that we should only have two children because of the growing world population. But who never listened to this propaganda? Pretty much all of the Third World and the Islamic world.” Rep. Steve King, R-Iowa: "Wilders understands that culture and demographics are our destiny. We can't restore our civilization with somebody else's babies." Globalists can’t have it both ways: Encouraging family planning, more women climbing the career ladder and having fewer children, then complaining about the aging population and smearing the reputations of everyone who balks at the idea of seeing their city, their state, their nation transformed into an Islamic enclave." .
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>1</v>
-      </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr"/>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think people can get hung up on the whole "my enemy's enemy is my friend" thing. In this case just because Iran hates Isreal DOES NOT make them our ally. You'd have to be blind, stupid or a traitor to the white west to think so. They themselves declare that we are their avowed blood enemy. They think that by blowing themselves and taking some westerners with them automatically gains them a place in paradise. Have people forgotten 9/11 and the London bombings already??? Anyone that supports muslim terrorist scum just because they oppose the Zionists and forgets that they hate us equally should be publically flogged for their idiocy. If you need an example of what happens when we let the muslim maggots to close to us then you only need look at Cronulla. Anyone that actively supports muslims is a traitor to White Australia.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>0</v>
-      </c>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It never ceases to amaze me the amount of news I get here on Stormfront that I wouldn't otherwise know of. This is an important piece you have posted. Disheartening, a bit frightening...yes, but, truths like this need to be known! What has become of our beautiful country? It is looking more and more like a socialists nation and it breaks my heart. I'm nearly at the point of giving up hope that we will ever recover from these many years that have lead us to this point. What horrible news am I going to read next? We are losing all of our rights, watching them dwindle at a slow but steady pace. So slow and calculated that many Americans are not even aware of what is taking place. Gosh, maybe I shouldn't have written this, but, this story really got under my skin. I am normally more of a "reader", not a "poster".....but, I needed to vent after reading yet another horror story of our rights just going down the drain. How depressing.............
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>75.44</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>1</v>
-      </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t xml:space="preserve">they want to feel more alive by risking death 1,000 times more so than had they just chosen a solid up-right white sexual partner. If they are that hard up for action why don't they go ahead and offer their services to the nearest male mongrel dog. This might be good for burning though!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>0</v>
-      </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When the whole salmonella threat started, my brother told me it was a deliberate conspiracy. He said it was done to force Americans to do just what is happening now, and to send a message to the Mexican government. They disrespected Bush when he went there, and maybe it's just a payback for the poisoning of the American vegetables last year. I don't know if it makes sense, but 250 million dollars is quite a loss for the growers, and the money being spent here is staying here, with our farmers. Who knows?
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>1</v>
-      </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which you know nothing about. #NotAnAnswer How about you and your junglebunny scurry back to whatever east Asian craphole you slithered out from and eat rats and fly-blown chicken feet the way your gods intended for you to do and stop worrying about people who don't belong to you? We don't belong to you, you don't get to say what we do.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>82.34</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>1</v>
-      </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The thing is that doesnt most crime come from blacks in the UK rather than Muslim Asians? Fair enough in not liking Salafi Islam but what about the greater evil of "Yardie" and "Hip Hop Gangsta" culture? The reality is that English kids are much more likely to become corrupted by listening to rap music than they are going to become fanatical Jihadists through reading the Koran.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>96.91</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>1</v>
-      </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What is the general atmosphere like in Australia? Is the muds a real problem or they an irritating minority? Are the exSA involved in politics at all or are they mostly impartial to the political climate since they are rid of the kaffirs in SA? Do any of you understand any Afrikaans? I suspect we will get ours asses whipped this year in the Super 14. Have a white day.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>0</v>
-      </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well, yes they are taking the time and effort to make films etc against us....but look at the raw material that they are using.....where do they get them???? Surely they are not paid actors... It seems that while the "tallent" is portaryed as "White Racists", they are not capable of even maintaining perceived " White Racist " ideals.....the conclusion is that they are the product of years of unchallenged multicultrualism.....perhaps the real name of the doco is "100% Multi:An Examination of Cultural Distruction in the Modern Controlled Age". Just a Thought. Regards Stormbird
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>0</v>
-      </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maybe we'll only see the white russians here. they can't be that bad if so, Milla Jovovich is a very attractive albiet thin woman from Russia. Maybe the soldier "comrades" will go after the mud races instead! I have seen many russians advertising that they are white nationalists. Personally, the whole former communism state thing should be anathema to WN's. It's like obobo wants more red allies here for his big takeover. Those hipocrites in his administration call everyone "racist Nazi's" then steal ideas from the Third Reich at every turn! Impeachment for this begins on....? Obobo's trial for treason starts when exactly...? Nixon is likely rolling in his grave over the things obobo easily gets away with. ridiculous! Somebody in government with a yellow shirt and some b**** needs to put curious george back in his cage before he eats another puzzle piece!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>0</v>
-      </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Just saw an interesting archaeological documentary, which bears out my original contention (stated in post #3) In excavations at a 10th C BC copper smelting facility located at Khirbet Qeiyafa near the Elah valley, Israel, archaeologists led by Prof. Yosef Garfinkel unearthed an ostracon on which was written (poorly, i.e., some letters upside-down and sideways) the earliest known hebrew language text. Importantly, the script used was Canaanite, indicating that, far from inventing an alphabet, as has always been claimed, jews initially used the alphabet of another people, before later borrowing it to develop their own. - Quest for King Solomon's Treasures, TV doc My post outlining the long history of judaic borrowing: https://www.stormfront.org/forum/t11.../#post13376636
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>61.59</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>1</v>
-      </c>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sad but true The most revolting part is that Doutzen Kroes is so stunning and even so she love disgusting mulattoes. I can't wait to see the day of revenge, the day that race traitors will be hanged in trees for the rest to see what await liberals, enemies, and possible traitors.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>0</v>
-      </c>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yahoo have an article about this followed by the usual comments from the sheeple who trot out the parroted 'facts'. The 'Germany had 40,000 camps alone' which appeared in 2013 is now repeated as a fact! Then followed by one or two comments from those who can actually critically think (if they are not censored). The source for these letters is a Jewish source which is never questioned of course but why would a Jew even have these as a 'souvenir' anyway if all these atrocities did take place? That is just sickening like the Jewish actors who played 'Nazis' in the 'Holocaust Comedy' Hogan's Heroes! I saw one letter quoted in that Himmler's wife calls him 'an evil man' and an 'evil good man'. What wife would even say this? My opinion is that like the writings/diaries of Goebbels and Hoess - the originals are probably authentic but they are then severely doctored before they enter the public domain. Although supposedly Goebbel's were found in a garbage can or something amongst the rubble - LOL.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>97.74</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>1</v>
-      </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I'll give you two reasons: 1. Chechnya is part of the Russian federation and Russia should not give it back to bunch of terrorists- giving it back will be reward for terrorism- we must fight the mudslims- not surrender to their "brave" attacks. 2. Chechnya is very rich with natural resources- especially oil, don't you think it will harm our economy? Another thing, if these sub humans want independence they can go back to Saudi Arabia, Afganistan or wherever they came from. I always thought that Russia should get all the non Russians out of itself and I DON'T CARE if they were living there for hundreds of years- RUSSIA FOR RUSSIANS!!!! Peter the Great.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>83.39</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>1</v>
-      </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uhhh, we teach our children not to marry non-whites. No, really, it's that simple. They can bring in all the non-whites they want, that only helps us by providing us with daily examples of how different they are from us, and how ill-suited they are as marriage partners. They literally make our cases for us, as you can see from BrownBread/every guest troll we've had in the past few weeks with "x" in his handle. Most non-whites who come here are intentionally obtuse. They aren't very good at winning the hearts and minds of whites, which is why they have to use dishonesty and subversion to do it. Teach your children this, they will recognize it and stay far away from non-whites. That's all we have to do for now.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>0</v>
-      </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ranks of gay dads grow as same-sex marriage spreads mlive.com, June 21, 2015 Ranks of gay dads grow as same-sex marriage spreads | MLive.com Fatherhood has been exhilarating for Weston Clark, who put aside a teaching career to be a stay-at-home dad for a 4-year-old son and 17-month-old daughter adopted by him and his husband. {}
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>0</v>
-      </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No one believes in the rule of law more than I. I believe in peaceful protest, harm no one except when legally necessary, and so forth, but maybe in the next few days some of us may need to make some hard decisions about how far to go in defending ourselves and property. I offer this as a guide: When I was just a youngster and periodically since then, my parents would tell me this, "If you ever have to choose between medical bills and legal bills, always choose legal, and you'll make us happy."
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>61.02</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>1</v>
-      </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quit your deluded talk. National Socialist policy has nothing to do with the three above you mentioned. You can read these for yourself! It is from National Socialism archives and documents, it has nothing to do with the Jew. Have you even read Mein Kampf? Yeah because they will know what happened with Germans and foreigners if found guilty of sexual relations. I've just showed you so much evidence yet you are in denial, its a sad case really. What makes their statements anymore valuable than "Holocaust survivors" who have been exposed as liars? They opinions do not refute what I have just shown you neither.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>0</v>
-      </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Campaigners are calling for a charity showing of epic war film Zulu to be axed over claims it contains "racist overtones." The 1964 classic will be aired at Folkestone's Silver Screen Cinema on Saturday to raise aid for armed forces charity SSAFA." "The charity works to help improve the lives of military veterans and their families. The letter, addressed to Cllr Berry says: "We wholeheartedly support the efforts being made to raise funds for SSAFA, the Armed Forces Charity. "(But) we believe that the choice of the film Zulu, with its inaccurate portrayal of historical events and its distortions and racist overtones, could have a negative effect on relationships within the changing and richly diverse communities here in Folkestone." Calls to axe 'racist' Zulu film from Folkestone's Silver Screen Cinema listings [ame="https://www.youtube.com/watch?v=nse0Ch5_cKs"]There's no England now - YouTube[/ame]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>53.99</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>1</v>
-      </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excellent post, there is a war on the Family, we know that, not just propaganda out there, job issues, taxes, making life difficult for people, and on and on. I don't see how you can be a queer and a white nationalist at the same time, just because some queers agree with our positions on issues, does not make them a part of rebuilding our society, they cannot be contributors on the most important issues, issues of family and building community. The queers have been used as a battering ram to destroy our society. Just like muliticulturalism. Queers willingly join our enemies because they have a problem with our society. TPTB love queers in positions of authority, they are their greatest allies, look at all the degenerates in government, some crypto and blackmailed, the NeoCons were caught blackmailing them too. We need to get back to basics, honor our fathers, live like they did, build. This is going to be generational, I don't see a bottom any time soon.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>0</v>
-      </c>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr"/>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So you refer us to a list "Translated" by good old Sirgay? A Chat-room participant? You may have noticed from the list provided how many of your Jews changed their names in the vain hope of disguising their identities. And with that you think you have dismissed Mark Webers report? Another by a "Mel Grosch"? These are precisely the people who would dearly like to conceal the identities of their jewish Kin-Folk. Yor lack of Education is starting to show again. You cannot simply brandish your version of events and expect People to swallow it. You think we are all "Goy"? You will have to dig a bit deeper than that "Sonny". Did you notice the bibliography, or just skip over it in a rush to dismiss it? By whom at "ThePhora"? Would you care to address Prf.MacDonalds ostracism at his University for daring to mention the psychopathy of the Jews?
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>0</v>
-      </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CreatorOre, I understand your reasoning ( as I believe you understand mine) However if ones zealotry for their individualy held beliefs is such that it prevents them from working effectively with others with whom they share an even higher, collective, cause is that level of zealotry thus empeading the stated goal of its very purpose?
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>62.04</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>1</v>
-      </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If der fuehrer had won the war,had annihilated the mongrols and slavs in the east,had rid Central and Eastern Europe of the accursed jews,there would had been no cold war between Russia and the U.S. and most importantly the power of world jewry would have collapsed,though no doubt they would have remained influential in England and America. Of course France would have become German territory and there is every reason to believe that the Third Reich would have,if not straightway after its triump in WWII then at least inevitably set about to engage Britain and America in a new and protracted war through concentrated efforts by air and by sea,a full-blown invasion whereby to annex these countries as colonial possessions in the West,thats if one accepts that A.Hitler truly sought to establish a world empire ... had this been the case,there would be no modren concern over Spanish-speaking aliens,and the spooks and jews would themselves serve NO threat at all. KB
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>0</v>
-      </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don, now what does that have to do with this particular event? Listen, there hasn't been one case of serious interethnic violence in Latvia for over ten years. Not even one case. And I'm not talking about some young guys who get into fights with each other out of nothing to do. There haven't been any clashes or serious physical violence. And, no, they are not my kin by the way. So lay off, will you.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>97.69</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>1</v>
-      </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr"/>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The last Presidential election was again "loaded" for the Edomite Jews - a win-win for them. I voted for McCain simply b/c I would NOT vote for a savage negro. However, McCain would have been a dream "President" for the Satanic Jews. We would probably be in war with Iran right now, had McCain been elected. ALL of these "politicians" are in the Jews' pockets! The only way America will ever get back on track is when the Whites actually DO have their "Revenge"!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>0</v>
-      </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr"/>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alot of the Norwegian immigrants that came around the turn of the century moved to the ND MN area. My great grandfather was one of these. So not are the only alot of white people, they are a fine group of people as well. Distribution of Norwegian Americans according to the 2000 census The 10 states with the most Norwegians:#Minnesota – 850,742#Wisconsin – 454,831#California – 436,128#Washington – 367,508#North Dakota – 193,158#Illinois – 178,923#Iowa – 166,667#Oregon – 147,262#Texas – 118,968#South Dakota – 115,292 The 10 states with the top percentages of Norwegians:#North Dakota – 30.1% of the state's white population is of Norwegian ancestry#Minnesota – 17.3%#South Dakota – 15.3%#Montana – 10.6%#Wisconsin – 8.5%#Washington – 6.2%#Iowa – 5.7%#Oregon – 4.3%#Wyoming – 4.3%#Alaska – 4.2% Been around the world, and Norwegian chicks are the best.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>1</v>
-      </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr"/>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Animals should be dealt with the way animals are dealt with; force and fear. Unfortunately, the leftists don't seem to agree with any of this. I say send these moors and gypsies to jail, let them be some negro’s wife, then off them, out in the public. Maybe that will teach any more animals (and I’m including some white low life trash here as well) to think it twice. What a wasted and worthless world...
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>62.87</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>1</v>
-      </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr"/>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inferior white people? Are you black? Have you ever considered getting away from all us inferior white people? Going to Africa where everything is so wonderful, because all the black people are so smart, civilized and peaceful? You should really teach us white people a lesson. You should deprive us of your company immediately and I'm sure our whole society will just fall apart without you and other diverse people.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>0</v>
-      </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr"/>
-      <c r="E305" t="inlineStr"/>
-      <c r="F305" t="inlineStr"/>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nothing wrong with that. I'm not ashamed to admit that I can find some Asians, "Latinas" and light skinned Indians to be attractive. We're not animals though, finding someone attractive does not mean that we have to go any further than finding them attractive. There are plenty of good looking white women(more than any other race IMO), that would make better mothers and would ensure a future for our wonderful race.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>0</v>
-      </c>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr"/>
-      <c r="E306" t="inlineStr"/>
-      <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interesting Friday show with Alex Jones and Jeff Rense here: http://www.nfowars.net:443/stream1.ram Alex Jones www.prisonplanet.com www.infowars.com www.jonesreport.com The Alex Jones Show re-loops continuously till his next day show (mon thru fri) so this one should be available till 12pm Eastern time on Mon. Also some interesting old photos (1926-7 Bohemian Grove) on the jones report link above.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>83.41</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>1</v>
-      </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr"/>
-      <c r="E307" t="inlineStr"/>
-      <c r="F307" t="inlineStr"/>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You may be what I have suspected for some time on this site, an example of a government plant to pollute and minipulate the way people think on this site.There is nothing right about racial erasing(mixing) and there never will be. As for the phrase"American",I do not apply that to myself and I have that flag "X" ed on my the back of my jacket in large text. If your just a liberal, we(racists) do not agree with you and will keep your way of thinking away from our children,since whites are a choosen people and not to be adulterated as the bible states about staying away from other races.If you are a plant,you are a poisonous serpent to our people's mind's and the future of white societies and you should just leave this site now.:attack
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>0</v>
-      </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr"/>
-      <c r="E308" t="inlineStr"/>
-      <c r="F308" t="inlineStr"/>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A little background. Folks, any resistance to the status quo here or anywhere else in the West will inevitably start out from the Left. The Right in America was destroyed in 1865, and the Right in Europe in 1945. It has never regained traction either here or abroad. The only ticket to success we have as members of the political Right here in the United States is to piggyback ourselves onto whatever inevitably Leftist movement decides they've had enough of the ambient kleptocracy, and then steer it in our direction. Our European Brothers and Sisters arguably may have a somewhat better deal as they at least have been able to field nominally Rightist/Nationalist political parties (albeit imperfect ones) such as Front National, NPD and others: Special Report: In France, far right capitalizes on euro crisis - Yahoo! News From Waaay Out West, --HLM
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>69.89</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>1</v>
-      </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr"/>
-      <c r="E309" t="inlineStr"/>
-      <c r="F309" t="inlineStr"/>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t xml:space="preserve">While you're right about ragheads, euthanasia solution is the most frequently stolen "medication" from verterinary clinics, after Ketaset. Or it used to be, anyway. I know Ketaset is stolen to get high on, but I don't why euthanasia solution is stolen. I really think I'm better off not knowing some things.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>85.5</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>1</v>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr"/>
-      <c r="E310" t="inlineStr"/>
-      <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Probably also the basic reasons Muslim immigrants to Europe can go to the full extent and groom dozens and dozens of young white girls for prostitution rings. Fourteen y.o., eighteen y.o.; on camera, in a cheap apartment -- not that much of a difference really. It's more logical evolutionarily to destroy the psychological capacity of your enemy's young women to have real families in a context that involves protecting your own women as reliable reproduction opportunities for your extended kin network. One's conquest with a demographic angle, one's collecting Jew-chits that will eventually -- and probably within our lifetimes -- be rendered worthless except on China's terms.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>1</v>
-      </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr"/>
-      <c r="E311" t="inlineStr"/>
-      <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The filthy corporate whores are the ones who went to the government, I don't like booms and bust cycles and people losing everything they own because the garbage free market dictates it. Capitalism is just a form of slavery where the people lose everything they earn constantly so a few of the rich can later enslave them again and make the center of their lives to work to make someone else rich. It needs to be gotten rid of and replaced with National Socialism or distrubitonism.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>0</v>
-      </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr"/>
-      <c r="E312" t="inlineStr"/>
-      <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It's just a matter of either only using credit cards close to home or cutting them up and mailing them back to the company. Through the years, I've occasionally had to mail a card back for one reason or another. I then, sometimes, get a call, explaining that they have other program cards with more amenable rules. I always pay off my balances monthly, so the companies never earn any interest, and I've never understood why they even care, except that my large amount charges must earn them some good fees with the merchants.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>0</v>
-      </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr"/>
-      <c r="E313" t="inlineStr"/>
-      <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A forecast of coming 2009 job losses by metro area across the country is out -- from a reputable economic research firm -- and the news is grim nationwide and, in particular for Florida and the Tampa Bay area. That Tampa-St. Petersburg-Clearwater metro area is expected to lose 42,900 jobs this year, a number second in Florida only to the far larger Miami-Fort Lauderdale metro area's loss of 84,800. Those findings and much more appear in the report "U.S. Metro Economies: The Engines of Economic Recovery." It was prepared by the economic forecasting firm Global Insight for the annual U.S. Conference of Mayors meeting which concluded over this past weekend... Full article: http://blogs.tampabay.com/venture/20...bay-forec.html
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>64.29</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>1</v>
-      </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr"/>
-      <c r="E314" t="inlineStr"/>
-      <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t xml:space="preserve">From what I see, it's only satanic music, which ranks about as high as dog sh*t with me. Take these titles for example: "the encyclopedia of serial murders" "I Like It When You Die" "Kill Women" "The Internet Is Gay" "You're Old (F#ck You)" "You're Gay" "Rich Goyette Is Gay" "Pottery's Gay" "Recycling Is Gay" "defiling the grave" "Sodomy and Lust" "Corpsegrinder" "Regurgitated Guts" "Recounts Of Disembodiment" Come on guys, this is sick.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>78.77</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>1</v>
-      </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr"/>
-      <c r="E315" t="inlineStr"/>
-      <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hating homosexuals is not really what I do, I do hate the 'gay-pride'-scene. However I want homos to stay away from me. And that they should keep their homosexuality to themselves. I also think it's rather a genetic malfunction than a mental illness. So I think the 'keep it for themselves' option corresponds most to my vision. I also think homosexuals who make those annoying and disgusting homo-porn movies should be arrested and punished properly. Sick bastards, their is no pride in a genetic malfunction. To the guy who thinks homos are good because there is less competition over women then... What do you think of lesbians?
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>0</v>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I hear you brother., AND I SEE THE TRUTH but who is going to get heard? You or Mister / Missus Anti Who will get MAINSTREAM celebration Who will be painted as the "good" and "bad" guy Remember that they have been programmed to intentionally pretend not to hear the logic of our dissent
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>60.06</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>1</v>
-      </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr"/>
-      <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Now that I think about it the alien conspiracy in X-files could be an allegory for the Zionist conspiracy in the world. The Zionist (I mean aliens) want to conquer the world by genocide of us. If X-files were real, the aliens would have to worry about Mr Jew. Big Time! Mr Jew would seek to create a Jew-alien hybrid. Mr Jew would use the hybrids against the aliens. Mr Jew likes saying, "We are one of you." Obviously, Mr Jew would rot the aliens society from the inside out like the cancerous tumor that he is. Never trust a Jew. Everyone gets screwed by the Jews on their Jew deals. I almost feel sorry for the aliens, but my loyalty is to my race. In the end it is all about their Jew hate.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>0</v>
-      </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr"/>
-      <c r="E318" t="inlineStr"/>
-      <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I've been looking for work in the trucking industry through the Goverment's service Canada job bank web site. I don't qualify to work for most local dump truck company's because i don't speak PUNJABI !!! I wasn't aware that it was, but maybe someone can help me out. Is punjabi now an official Canadian language?
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>99.59</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>1</v>
-      </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr"/>
-      <c r="E319" t="inlineStr"/>
-      <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You people want Islam off your back &amp; off your land . . . then get ride of UIsrael So Arabs could take care of Zionism for you once for an all. To do that 1- Stop electing Jews into your Senate &amp; House 2- Stop paying over $$$ to support Israel (you have so far paid them over $800 Billion in forgiven foreign aid loans &amp; grants in terms of 1994 dollar and this is not even include the free military hardware they get 3- Get ride of the lobby influence in any form, they are playing you like a violin and most of you don't even know it
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>0</v>
-      </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr"/>
-      <c r="E320" t="inlineStr"/>
-      <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Black Friday mall brawl in Saginaw Township results in seven arrests mlive.com, November 29, 2010 Black Friday mall brawl in Saginaw Township results in seven arrests | MLive.com SAGINAW TWP — A melee erupted at Saginaw Township’s Fashion Square Mall about 6:30 p.m. on Black Friday and resulted in seven misdemeanor disorderly conduct arrests, Saginaw Township Police Lt. Gary P. Grauf says. {}
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>0</v>
-      </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="inlineStr"/>
-      <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t xml:space="preserve">She also appeared on DVD's of the old Warner Bros. cartoons along with a disclaimer for anyone who skipped past her pontificating. Many of these cartoons are heavily edited for television, or not shown at all like Disney's Song of the South and Coal Black and De Seben Dwarves, a Warner parody of Disney's Snow White. BTL
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>99.45</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>1</v>
-      </c>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr"/>
-      <c r="E322" t="inlineStr"/>
-      <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t xml:space="preserve">British by passport. We do not mutilate the genitals of our offspring. Savage. Kosher and Halal, are indistiguishable. Barbaric. We do not hide behind quasi religious taboo's. Jews occupy Palestine based on a myth, that a voice was heard in a burning bush. Get over it. Grow up. Take responsibility for your oddball out of step conduct, and the consequences.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>1</v>
-      </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr"/>
-      <c r="E323" t="inlineStr"/>
-      <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://news.yahoo.com/s/ap/20100825/...nuremberg_laws Hitler’s segregation policies lead to the killing of Jews. Umm, not quite. So were the Jim Crow laws a framework for killing millions of US negroes? Segregation laws that forbid interracial marriages do not automatically lead to genocide. But the Jews say it does, because you know, they said so. Israel ought to inspect their own process of marginalizing the Arabs. I guess that the Jews are committing a holocaust against the Arabs as well.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>0</v>
-      </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="inlineStr"/>
-      <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well, I'm from the North, so no slave owners in my past. My mum's side didn't come over until after the Civil War. However, I'm white, so I must be evil. All that "white privilege" which was the result of coming from ancestors who worked and valued education. Wondering if they even used fireworks on Independence Day back when slaves existed?
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>96.73</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>1</v>
-      </c>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
-      <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Okay now I've watched it. I must say it must drive the Jewmedia mad that these highly skilled aeronautical scientists and engineers are speaking with such great admiration and awe of WW2 era German (i.e. "filthy stupid Jew murdering jackbooted Nazis") technology... This is not one of those cases where they can squeal Anti Semite Anti Semite Jew Hater Ostracise Holocaust™ Fire them Crucify! Death murder kill! As these men are all scientists and engineers who have contributed such an immense amount to US air technology advances that their credentials can be questioned but the skills not lost...
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>57.04</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>1</v>
-      </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr"/>
-      <c r="E326" t="inlineStr"/>
-      <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Another excellent and well-written article from you Dr. Duke! It is without doubt that Israel, a Jewish state once a victim of a supposed Holocaust is committing same crimes that were inflicted on them to the Palestinians. It's not all right for anyone to do it unless it's a Jew who did it. A representation of Jewish dominance over our daily lives, indeed.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>73.96</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>1</v>
-      </c>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr"/>
-      <c r="E327" t="inlineStr"/>
-      <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"The unfortunate aspect of this Jewish Syndicate is that they have been working for some time to undermine Western civilization, Christian values....moral values of any sort really. The Jews have learned, through a sort of collective psychological tacit understanding, that to survive, they must divide the host in which they live, demoralize them, desensitize them, and throw them into moral and social chaos and anarchy." http://www.propaganda101.com/TheJewi...stionFrame.htm And we in Stormfront are even divided by the muslim issue. Why would we hammer arabs for fifty years then allow them into our country? Who gains from that? Long term, guys. Long term!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>81.14</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>1</v>
-      </c>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr"/>
-      <c r="E328" t="inlineStr"/>
-      <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is one of the areas Non WN's get their wires crossed. The Jewish manipulation of our Culture is not to overtly super-impose a Jewish style society upon non-Jews out of a sense of "Philanthropy". Judaism is singularly lacking in Philanthropic sentiment. (One reason it fails in the criteria of being described as a "True Religion") The Jews wish to destroy non-Jew society is so that they may better have a mass of confused and disorientated people, prepared to do their bidding, ie to enrich them. Judaism is not an "Esoteric" belief system, it is a "Materialistic" belief system. Ie the more Power they acrue, the better they are in the "Sight of their God". Which is why the "Protocols" whether genuine or fake are an acurate portrait of their subject. http://amalekite.blogspot.com/
+          <t xml:space="preserve">I'm sorry to hear it - personally I was hoping they would hack the stupid interfering do-gooding 'aid worker's' stupid head off! I really was!! I personally detest this particular branch of 'humanity' with their wishy washy liberalism and subversive agendas - What the hell is she doing there anyway?? Time to keep sticky beaks out or take the consequences I say...
 </t>
         </is>
       </c>

--- a/annotate_sample.xlsx
+++ b/annotate_sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:K272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,26 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Cat_Suba</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cat_Johan</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cat_Kunal</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cat_Jose</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Post</t>
         </is>
       </c>
@@ -473,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -483,9 +503,13 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I lived in Newport Beach for a long time. I remember going to any government office and seeing things like a sign that said "follow the blue line for English, follow the yellow line for Spanish" (I paraphrase). The first time I saw that was in 1977 when I first moved there. I got very angry and said loudly, "Why do we have to put up with this? English is our official language. Let the Mexicans learn it. I don't go Mexico and expect to follow a line that says for English". I got alot of dirty looks from everyone. I will never forget it. Even my wife was pissed at me.
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Man Charged In Alleged ID Theft Ring Police Have Warrants For Two Other Suspects One of three people accused of stealing the identities of about 100 people was arraigned on charges of identity theft on Wednesday. Grosse Pointe police said Jimmy Deandre Dillard-Wright (pictured) and two others purchased the stolen identities of as many as 100 people. Wright was arrested after allegedly spending $2,500 at a strip club and $1,400 at a Target store, both in someone else's name, police said. Police have warrants for two other people accused of involvement in the operation. Their names were not released. http://www.clickondetroit.com/news/9798773/detail.html
 </t>
         </is>
       </c>
@@ -493,19 +517,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>62.98</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Democratyc party has issued an "order" for their members to "collect" at least 200 people which would vote for jewish scum Labus. And on they of voting, to remind those people to vote for jew. Among other things they were instructed to take names, numbers from documents. It looks like they are preparing electoral theft. Watch out for dirty jewish tricks. Now, that is against the election law, since there has to be election silence 72 hours before voting, so people can make their minds and vote. Acceptable choices are Kostunica and Seselj. ------------------------- DS je naredila svojim clanovima da naprave spiskove od po 200 ljudi koji bi glasali za Labusa. Ime, prezime, JMBG i broj licne karte. Naravno, sa svim tim podacima lako je napraviti izbornu kradju.
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, if you believe evolution, which I do, we evolved from amphibians who evolved from fish who evolved from single celled organisms (obviously I'm missing stages out here but I don't have all day) and all the atoms that make up life on earth were created from the nuclear fall out of dying stars….. All life is interconnected but not all life is the same, that’s evolution and that’s why we have racial diversity.
 </t>
         </is>
       </c>
@@ -513,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>36.62</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -523,9 +551,13 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This marriage of Red and Black (as in black being the color symbol of NS) into a situation of a commune for whites reminds one of the kibbutzim system in Israel or the primitive system of societal communism found in the ancient desert tribes of the Khoi and San people of Southern Africa. I assume both would be seen in a skeptical light. Haman have you studied the makeup of these communal societies? Do you think there would be lessons for PLE's to be drawn from them?
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://www.miami.com/mld/miamiherald/6892542.htm They are going to starve if they stay in mexico? Thats funny, because wheat sells for wholesale off the farm for about 6 cents per pound. And the Mexican government can buy in bulk from our farmers who would gladly exchange their wheat for their ample supply of mexican silver mines not to mention other valuable natural resources that they have. If mexicans are going to starve then how come they are all so fat after the age of 30? Gringo's dont want to trim tree's? Well not for almost free, I would suppose. Mexicans are UNBALANCING our economic structure and white idiots parrot lines like "White people dont want to work these jobs" when it is so completely false. White people dont want to work like slaves for a shiny penny per minute. The economy, its structure in particular, is so F'ed up it wont be long till the collapse comes and real slavery resumes.
 </t>
         </is>
       </c>
@@ -533,19 +565,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why are you putting words into my mouth? At least just ask a simple question rather than a leading question..... and then answering it yourself! For the record I could careless about Islam, I am only interested in the race of the invaders not the religion. All the pakis could be good god-fearing christians but I would still want them out of Europe.
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well I guess that I am banned. What a relief! I have a whole bunch of stuff that I have been neglecting. Odd that they let me post a couple times before banning me. I can't figure out why they don't like me. They love diversity, and I am different. I guess that they just didn't like that mirror that I kept holding up in front of them.
 </t>
         </is>
       </c>
@@ -553,7 +589,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>27.49</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -563,9 +599,13 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It's headed for implosion. The Mexican government exists more on paper than in reality. Increasingly powerful narco-gangs are vying for control with the remnants of the Mexican state. For all you crybabies whining about how porous the border is right now, imagine what it'll be like when there is effectively no Mexican state.
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[QUOTE=A_Swede]Something that I really don't buy is this "multicultural society" uthopia in the western world that the politicians are trying to brainwash us into. The only thing that multiculturalism creates is friction between the different groups, that eventually end up isolating themselves in ghettos.QUOTE] I may be one of these chracters you describe as a "Fanatical Neo Nazi". I did not realise Sweden had a problem with Ethnic invasion. I did not realise you had cities like Detroit, Philidelphia, New York, London. I did not realise that Sweden was a prime destination for "Asylum" seeking Grifters. I did not know all your school/government Communique's come in 7+ languages. I thought Sweden was still relatively untouched. I thought Sweden was like we were in the 70's, grudingly accepting the few "Immigrants" we had, before they all bred like Rats, and undercut us for employment. or loaf about on unemployment, raising "Jihadist" Muslim Armies. Well I hope for your sake you can maintain your "Swedish" moral high ground, and can continue to look down on us "Fanatical Neo Nazi's" living on the "Front-line" of Battle-ground White-Resistance. O.R.I.O.N. "NO SURRENDER"
 </t>
         </is>
       </c>
@@ -573,7 +613,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -583,9 +623,13 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You brainwashed little Revleft liberal. If you're going to pick a hero as your screen name why Maximilien? He, like you was an idiotic little twat that ended up getting shot when stammering........http://en.wikipedia.org/wiki/Maximil...ierre#Downfall Robespierre then attempted to secure the tribune to speak but his voice was shouted down. Robespierre soon found himself at a loss for words after one deputy called for his arrest, and another, Marc Guillaume Valdiergave, gave a mocking impression of him. When one deputy realized Robespierre's inability to respond, the man shouted, "The blood of Danton chokes him!"
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When people talk about the Klan I always ask which one in which era? There Klan was never a uniform thing. This is an interesting historical article from a radical Leftist- Rank-and-File Radicalism within the Ku Klux Klan of the 1920s | The Anarchist Library The demonization of Klan as a whole goes hand in hand with the demonization of the white small farmers and workers of Dixie, for Southern Nationalists to do join the Yankee Imperialist on this is either stupidity or treason.
 </t>
         </is>
       </c>
@@ -593,7 +637,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -603,9 +647,13 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think it's more instinct than popularity. I'm in a similar but not so advanced situation as your family (only dating interests at this point - but we all know what that can lead to). And I find it's plain and simply natural instinct to want to prevent undesireable outsiders from coming in and literally infesting your family and its heritage. Like I'm saying - is there even a choice when it comes down to it? I think it would be only natural for someone to rise up and take a stand against any kind of personal attack/invasion on one's family, land or property. I think it's important and wonderful that we're able to reach a decision to stop standing by and finally fight for our white heritage without any kind of motivation like the above mentioned. But the sad fact is that sometimes, for many of us, it takes a traumatic event to wake us up. Either way, we awaken to where we are now. And that's progress, regardless of how it all got started.
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coming to a "predominantly immigrant" neighborhood near you soon. Sometimes I feel like Lord Farquart, (Shrek), tearing my hair out over all the fairy tale rabble cluttering up my perfect world. Don't they have homelands where they would neatly fit in with people who look like them, eat goat entrails like them, stand on a crapper to relieve themselves, take baths in camel troughs once a month, marry their ten-year-old first cousins, beat their women for not wearing a veil one day, achieve a 4th grade education on average, lie, steal, urinate in the street with dogs and pick various orifaces of their bodies while eating their ox dung soup? I don't want my kids to grow up thinking that this is acceptable behavior in our polyglot Babel of a society. How do we get rid of these cockroaches? Whatever it is let me know and I'll order a case of the stuff!
 </t>
         </is>
       </c>
@@ -613,19 +661,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>51.51</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Does it really matter? Everyone knows what it means. Our argument is good enough that we don't need to argue about semantics. By this logic American is a bogus term because it is used to refer to people from the United States and not the whole of the American continents. And those who don't like us can't be called anti-American because they have no problem with Canada or Brazil.
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If that were to ever happen, I wouldn't even care anymore. I wouldn't wait for the backing of my race, I would just go ballistic and take as many out as I could before they got me. Maybe my death would make me a martyr and then others would rise up. This kind of behavior is obscenely disturbing and sick. They should all be hung by their nether regions from bridges to show just how much they aren't welcome in our society. That goes for male and female regardless of race. We could make that a tv show. We hang them up and give the child who they did it to a nail studded bat. Thats how white people should make piñatas.
 </t>
         </is>
       </c>
@@ -633,7 +685,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -643,9 +695,13 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You said this before but you refused to define what exactly was an ethnic Briton in the context of Ireland in the late 19 th an early 20 th century. A large portion of the upper civil service who were born in England left after the handover to the Treatyites. Similar thing happened in the case of Hong Kong. That is not "driving people" out. Unfortunately a lot of the Ascendency stayed on and still hold land that they should not have. Ulster Loyalists didnt want to submit to Irish rule because the big enough differences in both economy and culture between what became Northern Ireland and the 26 counties.
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OK, let me get this straight... white guy sees black cop break a traffic law. White guy voices objection to black cop. Black cop slaps cuffs on white guy and off to jail they go. White guy cools heels in holding cell. Black cop walks with no accountability. White guy screwed over for trying to do the right thing. Annnd... we are what? Surprised? Disgusted? Oh, Oh, wait - I know... we are OUTRAGED!!! Right? Right? No, it's just the way things are, have been and always will be when it comes to citizen vs cop. Makes me wonder how far away some of our departments are from the Tijuana PD. Let me pre-apologise for the previous statement to everyone with with a cop in the family - I have a couple too but we can't just be blind cheerleaders all the time.
 </t>
         </is>
       </c>
@@ -653,19 +709,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>55.28</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excuse me "Bigtigger2", I addressed your post with respect, as I said you seem to be a Credit to your Race, in as much as you seem to be intelligent. However if you are simply here for a "Cerebral Brawl" with "White Folks" I will let you get on with it. I am sure there are people on our Forum who will oblige with a "Slagging Match". I am interested in your potential to anwser some serious questions. You have to accept the basic observation that our societies are at breaking point, $Millions wasted on people in incarceration. Millions flooding into our societies to undercut our work-force to work for low-wages. I accept your comment about "White-collar" crime, but we need to clear out the under-growth first before we get on the case of our people who are ripping us off. We will get there though.
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is harder to find, but there are ornament kits. you can find them at larger hobby stores. The kits have beads, and sequins and everything you need to assemble o make attractive homeade ornaments that look storebought.We and make a set each year, and as the years go by it is harder and harder to figure who made which one so it is a progress/schooling thing too Katie
 </t>
         </is>
       </c>
@@ -673,19 +733,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I got into on-line chat on the site called Topix. They have an African-American board where I was enlightened to the hate of America and white people. I quickly made enemies and enjoyed debating the black nationalist there. The hate of whites is on display for all to see. I urge all to go there and see main stream hatred. Plenty of NOI and BNs to argue with.
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'll give you two reasons: 1. Chechnya is part of the Russian federation and Russia should not give it back to bunch of terrorists- giving it back will be reward for terrorism- we must fight the mudslims- not surrender to their "brave" attacks. 2. Chechnya is very rich with natural resources- especially oil, don't you think it will harm our economy? Another thing, if these sub humans want independence they can go back to Saudi Arabia, Afganistan or wherever they came from. I always thought that Russia should get all the non Russians out of itself and I DON'T CARE if they were living there for hundreds of years- RUSSIA FOR RUSSIANS!!!! Peter the Great.
 </t>
         </is>
       </c>
@@ -693,7 +757,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>34.04</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -703,9 +767,13 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Whatever you are, mysteriously, you look the same as the Bulgarians and speak the same language as them. and in the previous centuries, you were called Bulgarians. And now I am supposed to believe you are descendant of those who's language you cannot even read, and who's name and symbols you do not even know the meaning of?
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">She doesn't realize she'd be doing us a favor...good riddance. Klum is one of the biggest airheads I have ever seen. Her mongrel children are absolutely homely and I couldn't help but laugh a little when she bestowed a high, noble Teutonic name like "Johann" on that simian-looking, bushman child... We must secure the existence of our people and a future for White children. Because the beauty of the White Aryan woman must not perish from the earth" - David Lane
 </t>
         </is>
       </c>
@@ -713,7 +781,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -723,9 +791,13 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rape arrest COPS were yesterday quizzing a 32-year-old over the alleged brutal rape of a teenager. The suspect was arrested on Wednesday night by cops investigating a sex attack in Lewisham High Street on April 9. The 18-year-old victim was allegedly dragged into an alleyway beside the Watchtower pub by two men, who then took turns to rape her. Detectives want to talk to a second man, 32-year-old Algerian Fatah Debeoussi, in connection with the alleged attack. Information to 020 8284 8300. http://icsouthlondon.icnetwork.co.uk...name_page.html
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't see how this is a victory for white nationalists. He's said he supports race mixing and most of his supporters seem to be non-whites, which is not surprising considering Brazil is a majority non-white country. Bolsonaro may be white himself, but he is ruling for the benefit of non-whites as would be expected of a Brazilian president. It seems to me that the mainstream media and the global elites are promoting a raceless, borderless version of nationalism which is why they're making a big deal out of his win in Brazil. They want right wingers in white countries to regard non-white Brazilians as allies and hence think in a raceless manner.
 </t>
         </is>
       </c>
@@ -733,19 +805,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I don't get where these "rebels" get their AK's and ammo from. Last time I checked a magazine of ammo is a fair bit of wages to your average Libyan, yet they seem happy to fire them in the air like they were fire-crackers. Maybe it is time to get my RPG out of the garage.
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I gave up and deserted the democrats and voted for El Presidente Boosh. Anyone who is NOT an idiot knows that the republicans have deserted US and America to join the jews. I will take a Nader or even a jew over a lying, decieving, traitorous republican, or a stalinist democrat every day. At least with a jew, I can sort of know what to expect. Presidente Boosh has done nothing but destroy my confidence in the conservative wing(republicans-they just have more money) of the liberal party. For any dummies out there: OUR BORDERS ARE STILL OPEN! OUR CULTURE IS STILL BEING DESTROYED! JORGE BOOSH IS PRESIDENTE. My grandchildren still cannot drink our water where I live, because it has been poisoned by nitrates. They are literally selling us water now. I trust Nader more than any of those lifelong political parasites that they keep pushing over on us. But there is little point of stirring controversy, because we will just get another parasite that elite jew/gentile powers provide for us. Any real opposition to the two parasite system would be destroyed.
 </t>
         </is>
       </c>
@@ -753,19 +829,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>67.88</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">wo wo! Hold it there, no need to be that direct. We are 10% or so White, and I also find it difficult to believe we are whiter than Chile... but hey, no use to be that harsh... If this s***hole of a country is still on board is thanks to us.
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sirs, A handy way to save time is to download and save web sites while you sleep. A tool to pass to those who can't afford Front Page to download websites: WebStripper or Offline Commander makes it easy to copy web sites to your own hard disk for browsing at your leisure while off-line. It's incredibly easy to use, it's very fast and above all it's absolutely free for personal use. http://www.webstripper.net Check out Offline Commander at: http://www.zylox.com/ I think it is even better than WebStriper. Check their site- you might even find that it works as a free version there or at most $40. I have archived and burned to CDs many GB of sites and passed on to many others for learning and safekeeping. .
 </t>
         </is>
       </c>
@@ -773,7 +853,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -783,9 +863,13 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don't want to throw gas on a fire, but there were probably several other men who came in and out of the motel room to strangle and use the "sub." Why the mask unless he wasn't supposed to recognize the "doms?" Wouldn't surprise me in the least if the police and media are covering up the involvement of several Hollyweirdos.
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it doesnt seem like anyone is ever going to answer the original question of how much an AK-47 would cost my answer would be $275 max $200 minimum an SKS will run you about $225-$150 and you can add a detachable high capacity mag for around $30-$40 extra ive owned and shot both go with the SKS for long range accuracy and the AK for rate of fire i would still recomend an american made AR15,M1A or something similar over the two 2508
 </t>
         </is>
       </c>
@@ -793,7 +877,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -803,9 +887,13 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a recent Stormfront poll asking 'Who are you supporting for President' 91 Stormfront members selected George W. Bush amounting to 21% of all votes cast. The only candidate receiving a greater number of votes was Peroutka with 94. If you remove those who indicated 'not voting' the percentage of Bush supporters rises to 29%. Considering Bush's reprehensible record on many issues of central concern of most White Nationalists the figure is quite amazing indicative of a wider range of issues that concern a large percentage of forum participants.
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get people interested. the best way is to create a virtual reality ( a computer game ? ). Let them experience first hand what it would be like to experience life in a different way "away from" the way it is now. Not a utopia of course, but what a white country is like. Iceland is a very close example.
 </t>
         </is>
       </c>
@@ -813,19 +901,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dear 1White, why not put your faith in multi racial, multi cultural nations to test and go live in say,,, Zimbabwe. I hear there are agricultural opportunities for those who are not White racists. Perhaps you can mouth your slogans in the ear of Robert Mugabi and introduce your daughter to some of Mugabi's war veterans. Why not just hang out in East Timor - not far from Australia? They say the Muslim militias are eager to spread their culture to others (iunfortunately their culture dictates that they murder non Muslims). You're pathetic. I will take bone sucking queers who are at least against third world immigration over the likes of you and your Judiazed one worlder churchfolks. Please take your sissy views to the opposing view section. This board is for proud Whites.
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thank you both for your replies. It seems that Sven is a bit of a Walter Mitty character . His books are certainly entertaining .He does much to put the Finns in an heroic light . Maybe he should be given a literary award for his books. Then he would have a real decoration of his own. Maybe some of the Waffen ss volunteers he was imprisoned with who fought in the war LENT him their decorations. What do you Catilina and Hellstar think.He certainly creats some amazing Finnish characters in his novels example -Hanno and his partisians in Reign of Terror and the Jager corporal in the Bloody road to death. JAB
 </t>
         </is>
       </c>
@@ -833,7 +925,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>64.29</t>
+          <t>85.5</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -843,9 +935,13 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">From what I see, it's only satanic music, which ranks about as high as dog sh*t with me. Take these titles for example: "the encyclopedia of serial murders" "I Like It When You Die" "Kill Women" "The Internet Is Gay" "You're Old (F#ck You)" "You're Gay" "Rich Goyette Is Gay" "Pottery's Gay" "Recycling Is Gay" "defiling the grave" "Sodomy and Lust" "Corpsegrinder" "Regurgitated Guts" "Recounts Of Disembodiment" Come on guys, this is sick.
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Probably also the basic reasons Muslim immigrants to Europe can go to the full extent and groom dozens and dozens of young white girls for prostitution rings. Fourteen y.o., eighteen y.o.; on camera, in a cheap apartment -- not that much of a difference really. It's more logical evolutionarily to destroy the psychological capacity of your enemy's young women to have real families in a context that involves protecting your own women as reliable reproduction opportunities for your extended kin network. One's conquest with a demographic angle, one's collecting Jew-chits that will eventually -- and probably within our lifetimes -- be rendered worthless except on China's terms.
 </t>
         </is>
       </c>
@@ -853,7 +949,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -863,9 +959,13 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think we should ALWAYS be on guard...Someone once said that the "Price of freedom is eternal vigilance..." The Jews and Jewish Supremacism (otherwise known as Zionism) aren’t always the same thing. Some Nationalists, hate the Jews...I did for a while, but I don't now, after a great deal of soul searching…e.g. reading the thoughts of some Anti Zionist Jews like Israel Shamir and Solzhenitsyn...(plus a few recollections of a couple of Jews I’ve come in to contact with and quite liked as people….) It's ZIONIST Jews that are the problem and ARE THEY A PROBLEM !? I'm sure we all have different opinions on this and that, but for what it's worth that's mine... The threat from Jews in Britain is not a numbers one, IMO but from those, in all probability a minority, who wish to subvert our political system like Sainsbury, who gives millions to the Labour Party and at this moment are almost certainly willing on WAR CRIMINALS like Bush and Blair.... If anyone doesn't understand the role of Jews in politics (including media domination, finance, education and related "isms"), then they know nothing about politics....
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I might add that the National Socialists also managed to combine racial thoughts and Socialism with each other , also something which many people thought would not work together ..... So again , what are thoughts on the idea of Christian Communism ( Note : I didn't ask this question because of sympathy for this movement , I was just curious how people here view this thought ) ?
 </t>
         </is>
       </c>
@@ -873,7 +973,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>98.88</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -883,9 +983,13 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think people can get hung up on the whole "my enemy's enemy is my friend" thing. In this case just because Iran hates Isreal DOES NOT make them our ally. You'd have to be blind, stupid or a traitor to the white west to think so. They themselves declare that we are their avowed blood enemy. They think that by blowing themselves and taking some westerners with them automatically gains them a place in paradise. Have people forgotten 9/11 and the London bombings already??? Anyone that supports muslim terrorist scum just because they oppose the Zionists and forgets that they hate us equally should be publically flogged for their idiocy. If you need an example of what happens when we let the muslim maggots to close to us then you only need look at Cronulla. Anyone that actively supports muslims is a traitor to White Australia.
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If only. Muslims have promised in Britain, that if the "West" keeps on supporting the jewish occupation of Palestine, they will wreck our economies and drive us into the ground, using our own laws. Who in America would guess at the impact ZOG/US policy is having on Europe. We have to keep towing the line, lest we are described as "Nazi" ...again. If Americans have so much time for war, they should help us throw the muslims out of europe, and leave the jews to the jackals.
 </t>
         </is>
       </c>
@@ -893,19 +997,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>62.84</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You know the OP's predecessors should have just said no when the Holland based Jewish slave traders arrived in the West coast four hundred years ago... instead they got shown beads... saw awlla det bling and went... "I wonna gibs me summa dat... wotcha want for dem blings cracka?" "Oi vey vee are lookink for some slaves to sell to de goy" "Dems bee my bruvvas? Shore ting boss... I gettsya summa blackass to enslave en sheet... juss gibbs me summa dat bling fodda b***tches imma crib so I can gets mudeek off onna dems" "Oi I got all de bling you vont my friend... just help a man out veeth some product and vee can shake hends and I give you vot you vont and I get vot I vont... and everybody is heppy...do vee hef a deal?" "Shore shore.. juss gimme summa en I'll getsyuh as many n**ggazz as yo boat can load..." And the rest unfortunately is history...
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You will soon lose the fear of caring what they think, and you might even gain more respect from not giving a dam. I used to worry about what I said in case I was being “racist”. It can be hard breaking from what you are told is “acceptable” and what is not, but if you really want to grow and become your own man, in anything, then lose the fear of what other people think about you. Stay true to yourself and you keep your honour.
 </t>
         </is>
       </c>
@@ -913,19 +1021,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>97.01</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">And listening to her tell us how to think or what she thinks is wrong with how we speak is better than the media actually covering whats happening? They air her vs airing actual new &amp; that this truly is Islamic terrorists placing bombs in our nation. But that would ruin her agenda. _______________________________________________ WAKE-UP, NOW STAND-UP, &amp; FIGHT TEXAS!!!
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A good friend, and fellow WN ran my credit for me a few months back. I have a perfect zero I took out a car loan 22 years ago. My house got paid off 13 years ago. I have no credit rating. Good, or bad. According to my buddy, I don't even exist. OK by me. Personally, I think debt is best avoided. My girlfriend has tons of debt, and an unlimited line of credit. Makes no sense to me.
 </t>
         </is>
       </c>
@@ -943,7 +1055,11 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t xml:space="preserve">they want to feel more alive by risking death 1,000 times more so than had they just chosen a solid up-right white sexual partner. If they are that hard up for action why don't they go ahead and offer their services to the nearest male mongrel dog. This might be good for burning though!
 </t>
@@ -953,7 +1069,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -963,9 +1079,13 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Okay, they think that women are dying at high rates because of... probably men? I don't know, I can't load the article because I'm overdrawn on my White Privilege and can't afford a new laptop just yet. If I'm wrong about the cause of death among women there, then I am sorry. I would guess that they are angry at the state, seeing as the state keeps them enslaved to it. That's what I would do, only with my clothes on. But their types usually love the state, so they likely aren't marching against it. I'm going to go with men. It's men's fault. But the good news is it's not likely white men that they're marching against seeing as most of them are pretty brown, so all the fellas on this site are off the hook - just this one time, though.
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anyone who wants to see how non-Islamic Turkey really is should take a drive around Istanbul during the last few days of Ramadan. Every public space and vacant lot is filled with unfortunate creatures whose throats are going to be (more-or-less) delicately slit in a frenzied ritual at the appointed hour. And Istanbul is the most cosmopolitan bit. It's much worse elsewhere.
 </t>
         </is>
       </c>
@@ -973,19 +1093,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We need a White Aryan uprising. I don't even care if it's a violent one or not, we might not even be able to resolve this peacefully anymore. Muslims aren't going to leave this country if we ask nicely are they? Islam is worse than the plague. If people don't wake up fast, this country is gone, and so is democracy. The Islamic Republic of Britain - sound good to anyone?
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Of course. Insufficient air power, no surface fleet to speak of, and poor leadership from Goering [for more on this topic, see the biography of Adolf Galland] [ame="http://www.amazon.com/Fighter-General-Galland-Official-Biography/dp/0764306782/ref=sr_1_5?s=books&amp;ie=UTF8&amp;qid=1459801102&amp;sr=1-5&amp;keywords=adolf+galland"]Fighter General: The Life of Adolf Galland: The Official Biography: Foreword by General James H. Doolittle, USAF (Ret.), Trevor J. Constable, Col. Raymond F. Toliver USAF (Ret.): 9780764306785: Amazon.com: Books[/ame] From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -993,19 +1117,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>69.89</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">While you're right about ragheads, euthanasia solution is the most frequently stolen "medication" from verterinary clinics, after Ketaset. Or it used to be, anyway. I know Ketaset is stolen to get high on, but I don't why euthanasia solution is stolen. I really think I'm better off not knowing some things.
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, I'm from the North, so no slave owners in my past. My mum's side didn't come over until after the Civil War. However, I'm white, so I must be evil. All that "white privilege" which was the result of coming from ancestors who worked and valued education. Wondering if they even used fireworks on Independence Day back when slaves existed?
 </t>
         </is>
       </c>
@@ -1013,7 +1141,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1023,9 +1151,13 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I say be a bit open minded. I new a great WN carpenter (the original 2 year old model for the original Missing - a Future for White Children") who managed to date liberal, career White women types that just weren't into traditional marriage. There was no way any of these women were going to "stand by any White man". The results were he managed to concieve 4 very beautiful, healthy White children and the women and the women's parents were very pleased to get these charming White babies. Sure, it is best to go the traditional family route, but consider other options. The world loves cute, healthy, bright Whtie babies. THink of the joys another Maria Sharapova will bring to the world.
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oi veh, it's anudder LOL-o-Co$t. Rachel Wellner! “All women who are cops are dykes,” she said, according to court papers. The cops finally had enough when she screamed, “Help! Police are assaulting me!” and placed her under arrest, the complaint states. But the high-strung doctor continued to struggle as officers tried to cuff her and “jumped up and down” in her Volvo, court papers say. Wellner hit the gas and allegedly struck Officer Niguel Vega in the legs. She was promptly booked on reckless endangerment, resisting arrest and other raps. “I’ve been painted in a very negative and inaccurate light,” Wellner previously said in a phone interview, denying that she uttered the hateful slurs. She was terminated from her position at Montefiore Medical Center in the Bronx." Jew, go F yourself.
 </t>
         </is>
       </c>
@@ -1033,19 +1165,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>58.44</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It would be hugely symbolic, supportive of animal minorities and their users, if the next leader of the Liberal Democrats was a Gerbil. Like the respected Pygmy citizens of the kalahari desert who all have the potential to migrate 'West' to become, lets say, British-Pygmies; a Gerbil shares with that ethnic minority an host of attributes perceived as highly valued in a multicultural society including; ...a negligible command of the English language, little understanding of Britain's humour, its heritage or of western work ethics. A Gerbil would make an admirably bland leader of the middle-of-the-road Liberal Democratic Party? the Party that seeks to be all things for all carbon-based life forms and for all voters. And unlike the present 'Gerbil' leading the Liberal Democratic Party; "real Gerbils dont drink Whiskey". There you have it then, a combined campaign slogan and a moral epigram that its current leader may do well to learn from. :drunk
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Always remember the Jews killed Jesus? How about we always remember that Christianity ripped true European religions, and ultimately culture, apart? Now we have Churches advocating the mass importation of non-whites because all they see is more additions to the flock of god fearing sheeple... It is not a White religion, and it is most definitely not any help to our cause as White Nationalists... Easter has its origins in Paganism anyway...
 </t>
         </is>
       </c>
@@ -1053,19 +1189,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>53.99</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oh course they are. Otherwise how come only WHITES are the only ones who ever get called a racist. Just try calling a black a racist and watch how people look all perplexed and confused and I have even BEEN TOLD that black people can't be racist, ONLY white people can be racist. Since so many people are brainwashed into believing that ONLY white people are racist, if you are anti-racist you are anti-white.
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excellent post, there is a war on the Family, we know that, not just propaganda out there, job issues, taxes, making life difficult for people, and on and on. I don't see how you can be a queer and a white nationalist at the same time, just because some queers agree with our positions on issues, does not make them a part of rebuilding our society, they cannot be contributors on the most important issues, issues of family and building community. The queers have been used as a battering ram to destroy our society. Just like muliticulturalism. Queers willingly join our enemies because they have a problem with our society. TPTB love queers in positions of authority, they are their greatest allies, look at all the degenerates in government, some crypto and blackmailed, the NeoCons were caught blackmailing them too. We need to get back to basics, honor our fathers, live like they did, build. This is going to be generational, I don't see a bottom any time soon.
 </t>
         </is>
       </c>
@@ -1073,7 +1213,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1083,9 +1223,13 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geez The Denisovan humanoid theorem and especially the H. Floresiensis (found on the island Flores) are still open to much discussion on accuracy and correct interpretation of the finds to be classified as distinct subspecies of Homo yet (the postulations for instance suggest it was an evolved erectus)... the theorems advanced especially amongst the people who are in favour of the H. Floresiensis idea suggest that although it had a hugely smaller brain size than sapiens it managed to build rafts and had language before sapiens... Denisovan is based on ONE finger bone and ONE DNA test... For the moment I'd be very careful about accepting the existence of those two species as distinctly different species of sapiens until much more data is known about both...
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you listen to the following groups: 1) Mainstream Media 2) Zionists 3) Antifa fanatics 4) Radical Jihadists or 5) Government propaganda machines then the answer is no! If you are a rational individual who can think for yourself; you will acknowledge that this is a truly diverse movement with both extremist &amp; moderate elements.
 </t>
         </is>
       </c>
@@ -1093,19 +1237,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>56.73</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You have single handedly made the white race that much less, you could of made two beautiful white children, but you made the choice to throw your heritage down the drain and destroy a white bloodline. There is no pride in that. Congratulations on speeding up the death of your own race. So yes, you are a traitor.
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I've lived in North and South Texas and have never actually seen a Copperhead. However, we get dozens of Cottonmouths on our property every year. These things are mean and quick. I remember living near Houston and waking up one morning to find a Cottonmouth coiled up on the other side of one of our windows. The thing struck several times at the window when I even walked toward it. One shot from an SKS will usually dispatch one of these. We get alot more watersnakes than moccasins up in North TX. I've found them to be very shy and never as mean as some make them out to be.
 </t>
         </is>
       </c>
@@ -1113,7 +1261,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1123,9 +1271,13 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A friendly pub where you can safely hold meetings without the use of cover names, redirection points or fear of last minute cancellations is a godsend. ALL members and supporters in the area should make a point of patronising this place AND telling the landlord that the reason they are drinking there is because of his support for the party. Even teetotallers can eat there and have a soft drink.
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cool tats. My bro in law just got out the pen. He did a 3 year stint cuz someone planted some crap in his ride. While inside he got both sleeves done. While I worked 5 days a week 10 hour days, he sat on his ass in the pen getting inked up. I would say I'm a bit jealous of him, but I'd have hung myself with a sheet had they put me in a tiny cage.
 </t>
         </is>
       </c>
@@ -1133,19 +1285,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vulnerable families bear the brunt of Norway's crackdown on asylum seekers | Sune Engel Rasmussen | Global development | The Guardian Norway knows what is really important. Non-White criminals are vile but it is the next generation of moslems that we must absolutely be ridden of. So, they grabbed a family with a birth rate above that of the average Norwegian family and got rid of them. According to these news, they deported 649 brats last year.
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is a problem occurring all over the world. Thailand is being evaded by Burmese, Laotian, Vietnamese, and Cambodians. Hong Kong by Filipinos, Thais, Indians, Middle Easterners and Mainland Chinese. Japan by Nigerians and South Americans. The US by every Third World country, but most noticeably from Central and South America. Europe is being evaded by Africans and Middle Easterners. This is a growing problem for the last decade and it is not only destroying our white cultures, but it is also destroying our environment, resources, and introducing new diseases at an alarming rate. There are neighborhoods in France full of Africans not working and committing petty crime to survive as well as in Spain and Italy. Ireland is being impregnated with Nigerians at the point where they are becoming elected in positions of power. You are right; these multicultural parasites ought to be extirpated and shipped off to the developing countries where they can feel at home with the raw sewage, pollution and lack of civil society. [ame="http://www.youtube.com/watch?v=ecEeJ3Jke8c"]YouTube - Europe under fire[/ame] [ame="http://www.youtube.com/watch?v=WqsHpJerT6g"]YouTube - Britains Mass Illegal Immigration Problem - 2008[/ame]
 </t>
         </is>
       </c>
@@ -1153,7 +1309,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1163,9 +1319,13 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Fromm ... For Our People - SHOW 5 [ame="http://www.youtube.com/watch?v=AIjZ1nRAlo4"]YouTube - Paul Fromm ... For Our People - SHOW 5[/ame] For Our People. A weekly show by famous Canadian Freedom Activist Paul Fromm. This weeks show is: The Story of Helmut Oberlander Helmut Oberlander has been the victim of a campaign of vengeance against elderly German and East Europeans since the end of the second world war. Mr. Oberlander has been accused of being a nazi war criminal, with very flimsy evidence. This is Helmut Oberlander's story. Watch all of Paul Fromm's Shows http://www.youtube.com/user/CanadaFirst2007
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That is the least one can do at the moment! No positive change happens until people are out in the street spreading the message and working with like-minded individuals. I do not see how confining our efforts solely to an internet discussion forum in anonymity is positive or fruitful. That is treating our Cause like a "naughty little secret" instead of proudly displaying out where it should be in the eyes of all our people.
 </t>
         </is>
       </c>
@@ -1173,7 +1333,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1183,9 +1343,13 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Are you sure its really country? You might consider it out in the country when in reality there is a factory and city right nearby..... Kind of like the place I live in now. I'm getting some land out in the country, which is going at about the rate of $2,000-$2,500 an acre or half acre.
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This goes beyond Catholicism... when a materialistic atheist like me is disgusted by this, you know it goes beyond a religion or set of beliefs. This is just a twisted form of white gloved crime. As I said earlier, homosexuals are free to do whatever they see fit to do among themselves... I don't care what liberals have to say about the happiness of gays, you ought to be way too naive to think that all these past centuries homosexuals haven't lived together, regardless of social acceptance or not. The problem is with adoption. This law, this thing, is endangering children by risking them to be adopted by the wrong people. (And of course, this is not just limited to homosexuals, straight couples can do sexual crimes too, but homosexuals hold the highest rate of abuse against young males)
 </t>
         </is>
       </c>
@@ -1193,19 +1357,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The audience applause in good humour when he says he sees more Indians in The UK than in India. I can't remember the last time I was allowed to make such a comment in jest. He meant it to be funny - fair enough. Pakis, Indians, Blacks - their habit of moving to the most prosperous countries is funny; and we should all be allowed to joke about it!
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">These Turko Mongolian, Afro Arab Negroid Semitic mongrel Muslims are completely subhuman - they enjoy torture and have sick, digusting personal habits in all areas including killing people. We must not become like them. When our soldiers confront these horrible throat killers, the correct response must be quick kills and the horrible bodies of these terrorists should be burned and purified so their evil bodies and spirits are taken away from this world. Does anyone else wish that we had weapons of mass destruction that were environmentally positive? Something like cleansing fire and clean water to wife out dirty areas and horrible terrorists, subhumans and clean up the environment much as a good, natural burn cleans up the brush, dead wood and allows new grasses to grow.
 </t>
         </is>
       </c>
@@ -1213,7 +1381,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1223,9 +1391,13 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All this proves is that the government cannot govern. The late Sam Francis was right: anarcho-tyranny rules. If we had a real government, the operators of the Red Hen that threw out Sarah Sanders would be chained up in a dungeon somewhere handcuffed to Peter Fonda, and in the company of the rogue government of Charlottesville, and the entire State government of California, just to name a few. All of the foregoing constitute Bolshevik conspiracies which are a mortal danger to the American public. From Waaay Out West, ~HLM
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This needs to be looked at: Four Days Before The Bombing In Nashville Near The At&amp;T Building, American Patriot Alleged That AT&amp;T Got The Contract To Do The Forensic Audit On The Dominion Voting Machines And That They Are Transported To Nashville Even worse: AT&amp;T owns CNN. If it was an attack on the media, why not CNN directly?
 </t>
         </is>
       </c>
@@ -1233,19 +1405,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australia has now been admitted to the "ASIA League" for soccer - Lebanon is in the ASIA League also...........can't wait for the home and away games, i can imagine what a great advertisement they'll be for multiculturalism I don't think Australian soccer will be much more multicultural than Rugby League/Union. Apart from the bad taste of been in the "asian" qualifying group the Australian team will be massively white compared to the arab/sub continent and asian teams we play against.
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For me this is a tough question since I am not a hater of humanity. Thank the almighty Jew for what will probably be the greatest war to ever befall mankind. Without a doubt, and its certain to happen, race war will wipe out millions. After the smoke clears I might be in favor of having all whites emigrate back to Europe and What will soon be a third world, mullato infested toilet - America be used as a land of refuge. Provided of course all our technology comes with us. I couldn't imagine nukes in the hands of negroes.
 </t>
         </is>
       </c>
@@ -1253,19 +1429,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>62.04</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If der fuehrer had won the war,had annihilated the mongrols and slavs in the east,had rid Central and Eastern Europe of the accursed jews,there would had been no cold war between Russia and the U.S. and most importantly the power of world jewry would have collapsed,though no doubt they would have remained influential in England and America. Of course France would have become German territory and there is every reason to believe that the Third Reich would have,if not straightway after its triump in WWII then at least inevitably set about to engage Britain and America in a new and protracted war through concentrated efforts by air and by sea,a full-blown invasion whereby to annex these countries as colonial possessions in the West,thats if one accepts that A.Hitler truly sought to establish a world empire ... had this been the case,there would be no modren concern over Spanish-speaking aliens,and the spooks and jews would themselves serve NO threat at all. KB
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I thought there was something odd about the way this was being reported all along. The media was strongly trying to imply that a white man spat at her, but there was never a real description of the perp, just vague statements like "the man was dressed like a lawyer", a blatant attempt to make people imagine a "middle class white man". Doesn't surprise me at all that it turned out to be a complete fabrication. It's despicable that the media was going all out to try and get anti-white millage out of something that was a complete lie in the first place.
 </t>
         </is>
       </c>
@@ -1273,7 +1453,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1283,9 +1463,13 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well, I am white too and I was never beaten by mestizos. Then again, I am of Spanish ancestry, with Spanish surnames, like the mestizos, so that actually helped me. But even though I am of the "dark" type of white guy, I still am recognized as white and you can make point out from a a crowd of mestizos. But are you sure they were mestizos? Remember, many Mexican criollos (Whites of pure Spanish settlers ancestry born in Mexico) believe they are mestizo, thanks to the monster known as media machine.
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I like my Colt Officers ACP 45 for general carry. Had a reliability/trigger job done when I got it. Installed a full lenght guide rod and spring setup. Replaced mags with Chip McCormick mags, and put Pachmyr signature wraparound grips on it. Shoots very well and is extremely reliable. Had it for many years. The only other pistol I like about as much is my S&amp;W 357 magnum with a 6 inch barrel. Put rubber grips on it and it shoots just fine. Accurate as all getout. Likes the Remington 110 grain hollow points for accuracy.
 </t>
         </is>
       </c>
@@ -1293,7 +1477,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1303,9 +1487,13 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">That's a reasonable point of view but when you talk to, for example a tradesman who employs apprentices they'll tell you that generally 15 is too young and most won't employ anyone under 18 simply because they can't drive. An electrician told me recently that nowadays HSC is the minimum for that trade and he said that now applicants have to be brilliant at maths and science, not just competent. At any rate the very young apprentices are just transferred from dependence on the education to dependence on their employer.
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The left is having conniption fits. But it should not be this close, it should not be remotely close...Hillary Clinton represents everything that is wrong with the USA. The cast a vote for her requires a level of sickness I cannot comprehend! Trump is not even a politician, so this should be an easy choice for voters. I want leftists viewing this thread to tell me why they are voting FOR Hillary Clinton. But I already know they can't, she is a compulsive liar nobody believes a word she says and everyone knows she is bought and paid for by Goldman Sachs. If people want things to change they must vote Trump. Hillary is the embodiment of Status Quo.
 </t>
         </is>
       </c>
@@ -1313,19 +1501,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>70.05</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think that's really it in addition, of course, to the money factor. Hockey's also very fast-paced. There aren't really any sports that come close to how fast it is. In baseball and football, there is a stop between every play. Basketball moves faster but it's still just... there's so much scoring that there aren't any real moments of very fast play. Plus, it's just a bunch of blacks running around and jumping. Breathe on another player? Foul. What a joke.
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What would you have us do? Round up all negro kids at birth and put them behind bars? We (well, most of us, atleast I had thought so...) are for a white nation. Not blind hatred. We will get nowhere fast with people spouting out hateful and heartless nonsense. I said nothing about negroes being innocent. Children are innocent. If you cannot see that, then go f'ing hang yourself. No child deserves this. White or black. Race should not matter when it comes to the life of an innocent. This child did not ask to be born, nor has he asked for a death sentence, and that's exactly what he has been givin.
 </t>
         </is>
       </c>
@@ -1333,7 +1525,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1343,9 +1535,13 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I have read (on humanphenotypes.com, which I think you gave me the link to ) That the people on the South of the Arabian penninsula have admixed with people from the earlier wave of human migration out of Africa, which gave rise to the Australoids/Oceanians/Tibetens/Ainu, and to much of the DNA in the Dravidians. Apparently some of the people from this first wave out of Africa stayed in Arabia while others went on to India, Australia, and Northeast Asia. There they mixed with Caucasians and it is reportedly apparent from phenotype in South Arabia. They're not stupid, these admixed people from the (granted non-representative samples) I've seen. That earlier group seems to have given rise to people across the spectrum, from the intelligent Ainu and Tibetans to the Australoids, who have a lower average IQ than even subsaharans (in the 60s).
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A forecast of coming 2009 job losses by metro area across the country is out -- from a reputable economic research firm -- and the news is grim nationwide and, in particular for Florida and the Tampa Bay area. That Tampa-St. Petersburg-Clearwater metro area is expected to lose 42,900 jobs this year, a number second in Florida only to the far larger Miami-Fort Lauderdale metro area's loss of 84,800. Those findings and much more appear in the report "U.S. Metro Economies: The Engines of Economic Recovery." It was prepared by the economic forecasting firm Global Insight for the annual U.S. Conference of Mayors meeting which concluded over this past weekend... Full article: http://blogs.tampabay.com/venture/20...bay-forec.html
 </t>
         </is>
       </c>
@@ -1353,7 +1549,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>23.86</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1363,9 +1559,13 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">well i talk to people on a personal level about things that may be bothering them and relate it to race or beliefs. after doing this a few times they begin to see my point. they see your views alot easier if you point out things that they see everyday and explain why those things are put into you views. if they have kids make it family related, if they lost a job make it job related ect ect ect...where do you live? there are in-the-closter white nationalists everywhere, you just need to become creative about finding them. and as for your friend out right making racial slurs, he may find sombody who does it with him all the sudden, because they were waiting for somebody else to. draw or print of the computer a cool design with a swastika in it, show it to some people and see their reaction panzer boots are great for this! good luck from whitevirgo 1488 brittany
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">She looks like a hairy Australian Aborigine to me, but since they have some pretty primitive features that's not saying much. Every time a strange secret government research program comes to light it is said to have been ended unfruitfully. I doubt that it is always the case, too bad I have no way of knowing when they are lying and when they are telling the truth. The Stalin story is essentially what ZOG/NWO is attempting to do to all of humankind (Chosenites excluded of course). Dysengenics. A Mongrel slave race. Judeo-Communist-Capitalist-Globalists to rule over the beast men, in accordance with the prophecy (Talmudic that is).
 </t>
         </is>
       </c>
@@ -1373,7 +1573,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1383,9 +1583,13 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afro-Carribean flasher struck again today, in front of a group of schoolchildren in Longton, Stoke-on-Trent according to local radio report. Previous incidents last week included one in Newcastle Lane, Harpfields at around 8.30 in the morning according to the Staffordshire Sentinel - this is the location of a high school and is very close to a primary school - this sicko appears to be targetting children.
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all food is organic. we don't have any way of digesting anything that's not. if we want to go back to the stone age, it will take a lot more than making sure we don't have 'chemicals' on our food. for example, what do you think stone-age farmers used as fertilizer? i had a meal at a friend's house. it was well cooked and tasty, but nothing special. but what spoiled it was having to endure a half-hour lecture about how it was all organic, all cost 3 or 4 times as much as the stuff i buy, and was all so very good for you. yet i get the same results just by cooking from scratch. and so can you.
 </t>
         </is>
       </c>
@@ -1393,19 +1597,23 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Some one ain't that bright or they get paid to post and play stupid. Right on schedule, minutes after posting, a full time SF monitor. Main goal, 9/11. They want the first responders as witnesses dead, it is that simple. Gov has done nothing for them and the JEWSMEDIA covers for the crimes against them. This guy is a long time troll, have a look. https://www.stormfront.org/forum/show...52#post7238952 " You call half truths, debunked myths, incessant repeating of lies and falsehoods " https://www.stormfront.org/forum/show...&amp;postcount=302 And he defends the Jews despite evidence and reporting from Jew sources. JEW ORGAN TRADE https://www.stormfront.org/forum/show...2&amp;postcount=27 https://www.stormfront.org/forum/show...4&amp;postcount=28 https://www.stormfront.org/forum/show...4&amp;postcount=30
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originally posted by mickeymout: Now, Here's my opinion of why some white men prefer to marry asian women. Radical feminism in America has completely corrupted the actual role of women and feminized males into grown-up boys who ditch their families. In many chinese families today, girls are taught their traditional roles as adults: Obedient domestics and child-rearers. Its gotten to a point where there is almost NO TABOO against getting a divorce even after having children, having affairs. Men are trained to be "sensitive" emasculated "domestic partners" to "share equally in an emotional relationship" What honest man can put up with that crap? Some asian women haven't been brainwashed by the degenerate media and know their place and I that's rare today. __________________________________________________ _ Well, that explains why Asian women would prefer to marry white males. But why would a white male want to marry an asian woman!? Oh yeah subservient pekinese dogs.. I suppose that would do wonders for a loser's self esteem. mickeymout: if Chinese women are getting too uppity -maybe it's time to bring back the practice of footbinding. That outta teach em! Go spread the word to your Chinese brethren.
 </t>
         </is>
       </c>
@@ -1413,19 +1621,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Absolutely correct. Since most of the men will be killed off in a stupid fratricidal war, beautiful Ukrainian women with no real understanding of what Negroes are, will be easy prey for those Africans. I makes me sick to think about how the rotton Jews are using the patriotic instincts of the Ukrainians for their own ends.
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Could the reference to the Q society be deleted? We know what they stand for and we know who they serve, they should not be given any time on a pro White site. Two better articles for pro whites to promote, one on the issue at hand, the other on sticking to a consistent message: Neither Islam, Nor Israel:Against Both Islamism And Zionism. Dr. Jim Saleam NatAlt Strategy: Staying on a clear, direct message.
 </t>
         </is>
       </c>
@@ -1433,7 +1645,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1443,9 +1655,13 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The organization, which plans to offer training classes in Dallas, San Antonio, and Tucson, Ariz., in the next few weeks, is working to expand its giveaways to 15 cities by the end of the year, including Chicago and New York. Read more: Free gun initiative begins in Houston neighborhood | Fox News
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's illegal here and in Indonesia though and she knew that, 4 kilos is a lot of Marijuana in anyone's book and she'd be in the same mess if she'd tried to import it to the Netherlands. Everyone want to hold up Holland as some sort of example of tolerance and progressive social policy, that's exactly what we should be heading away from, at around the same time the Left Wing parties there were lobbying to have the drug laws relaxed they were also introducing a bill to legalise sex between adults and children.
 </t>
         </is>
       </c>
@@ -1453,7 +1669,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1463,9 +1679,13 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">That's exactly what my point was in my description. Having lived long enough in an urban setting the double standards get to a boiling point of no return. Now being in a rural setting, effective communication strategies are different. Then there's the exceptional ones that are just as concerned, angered and disgusted in what's going on.
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Some advice mate. Very, very, few people here can be bothered to read posts that long, now I write a lot on occasion, in answer, but 99% of posts like yours will quickly find themselves on page 5 of OV. The best thing to do is lead into it, pose a question or a couple of, wait for answers then further the debate. I looked at yours last night and all I thought was better things to do on a Friday night. I would change the user name as well.
 </t>
         </is>
       </c>
@@ -1473,7 +1693,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1483,9 +1703,13 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel Rodden is an admitted Stalinist! This hypocrite has the nerve to condemn his opponents for bigotry when he admits to supporting a communist dictator who practiced ethnic cleansing. Stalin deported the entire Crimean Tatar population because a minority of them fought alongside the Germans in WWII; Marcel does not have a problem with this though folks! Apparently ethnic cleansing is perfectly acceptable when HIS COMMUNIST heroes commit the act in question. Marcel Rodden is an ideological fraud and an intellectual coward; I want everyone to examine the following thread: FrankW vs: Marcel Rodden I have challenged this intellectual coward to face me in a debate on 'The Phora' forum and guess what folks; he never had the guts to show up. Rodden is afraid to face me in a debate where he has to defend his hypocritical and bankrupt ideological beliefs point for point folks... People like Rodden are not worth our time; if anything Marcel Rodden should thank Paul Fromm for giving him the attention that he does not deserve. Oh and Marcel; my debate challenge still stands...coward.
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What else is new. It was the same 10 yrs ago. Everyone I know who lives in surrey has been in at least one confrontation with either a gang member from an ethnic group, or a drug addict. Its the norm there. Personally, when i go to surrey, i dont feel safe during the day either. By comparision I'm not afraid walking around east van at 2 am, because there are rules which if followed you will be ok. (this is changing due to a rapid influx of african refugees) Surrey on the other hand, when the sun goes down, its the wild west. And if your white, or anyone other than sikh, you might as well wear a glow in the dark shirt with a big red bullseye. Even the muslims i have met (who are brown too) are afraid to go to surrey as the majority of them have stories about being attacked randomly by a couple roving carloads of young, drunk and violent sikhs too.
 </t>
         </is>
       </c>
@@ -1493,19 +1717,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You may be what I have suspected for some time on this site, an example of a government plant to pollute and minipulate the way people think on this site.There is nothing right about racial erasing(mixing) and there never will be. As for the phrase"American",I do not apply that to myself and I have that flag "X" ed on my the back of my jacket in large text. If your just a liberal, we(racists) do not agree with you and will keep your way of thinking away from our children,since whites are a choosen people and not to be adulterated as the bible states about staying away from other races.If you are a plant,you are a poisonous serpent to our people's mind's and the future of white societies and you should just leave this site now.:attack
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HAPPY DOMINION DAY The Red Ensign -- Our Flag The real Canadian flag, the one that reflects our history and our hopes, is the Red Ensign. It is potent in symbolic meaning. Edmund Burke warned that a people who ignore their past, will have no future. Canada came of age as a nation in two world wars under this flag. http://www.canadafirst.net/maple_lea...ver/index.html
 </t>
         </is>
       </c>
@@ -1513,7 +1741,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1523,9 +1751,13 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CDs, usually. Currently have something my sister used to have called "Pure Moods", which I found in a second-hand shop. Before that it was usally a Celtic music CD, also from a second-hand shop. If you could live in any country in the world, would be be the one you're in, or a different one?
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I see that you are trying to divide us, by turning the christians and atheists among us against eachother. There are over a hundred atheists on Stormfront, and you could hardly find a more strongly anti-muslim person than the atheist who is typing these words. One could just as easily argue that Christianity serves as a segue into Islam, because they are both Abrahamic religions with fundamental similarities, and both of them involve Jesus. But I do not allege that that is the case.
 </t>
         </is>
       </c>
@@ -1533,7 +1765,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1543,9 +1775,13 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">To be honest i don't have that many east european bands. Something about them just makes me lose interest after a few songs. The bands you mentioned are known to me by name only. I must admit though that most east european groups can handle their instruments very well......often better than their western counterparts. I can't recall right now if i have serbian bands in my cd collection. Is Vlajka a serbian band? Can't remember....hungarian? Some eastern euro's i like are Honor,Buldok and Titkolt Ellenallas,Excalibur,Archivum. My insatiable desire for WN music though will make sure that the bands you mentioned will surely cross my path someday. There are so many releases these days however.....
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't have a lot of experience with Ukrainian health care, other than the usual stories from relatives and friends, but I am positive it is not any better than the Russian one. If you want good quality health care, you need to send her to a private clinic, for the conditions in public ones are terrible. The real issue, however, is not the antisanitary hygiene or the lack of medicine in public health institutions, but the attitude of the personell toward the sick, for it is common that a patient has to wait as long as an hour for the nurse to come, and the attitude of the medical personell toward the patient is often horrible. They simply do not care for their patients. There are even stories of drunken doctors. If you consider the ridiculous salary the doctors are payed, it is hardly surprising. This is based on the experience of my grandmother in a St. Petersburg public hospital, where she was treated after a trauma. The situation in Ukraine is hardly any better, so I really suggest finding a private clinic in Kiev for your Mother in Law.
 </t>
         </is>
       </c>
@@ -1553,19 +1789,23 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>59.32</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ukrainian Dance - Povzunec - The Crawler This is an excerpt from the "Birth of the Dance" - famous movie about Virsky Ukrainian dance company, filmed when Pavlo Virsky was alive. YTuber Description: It's a farcical dance, "povzunets" means "the crawler". Those guys are supposedly dead drunk and cannot stand straight, so their wives abandoned them for that. Now, they are crawling around simulating the penitence and singing "Hey, my lovely girl, don't be sad! Hey, my dear, do return!". Meaning that even a dead drunk Kozak is a great man anyhow. http://www.wntube.net/play.php?vid=1867 [ame="http://www.youtube.com/watch?v=wBK_8cOrtUE&amp;feature=channel_page"]YouTube - Povzunec - Ukrainian dance[/ame] Ukrainian Dance - Pro Shcho Verba Plache: http://www.wntube.net/play.php?vid=1869 [ame="http://www.youtube.com/watch?v=fyaqmY7RbX0&amp;feature=channel_page"]YouTube - "Pro shcho Verba Plache" - Ukrainian dance[/ame]
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I was re-reading "My Awakening" chapter 22, last night. Israel: Jewish Supremacy in Action. An account of the attack on the USS Liberty is near the end of the chapter, it got my blood boiling. The Jews are ruthless, manipulative, cunning, racist beyond our Goy imaginations. The blood of a million Goy is not worth the thumbnail of a Jew. http://www.front14.org/tsun Nothing would surprise me when it comes to Jewish manipulation of world history/events. As far as the WTC incident, besides the stench of 5000 decaying, mostly white bodies, the smell of schmalz hangs heavy in the Manhattan air. Lawdog Links not working. It gets overloaded sometimes.
 </t>
         </is>
       </c>
@@ -1573,7 +1813,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1583,9 +1823,13 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Not terribly persuasive on Dyson's part, I'm afraid. He's equivocating by saying the predictive power of our models isn't that great. We know that: it's the nature of the beast. We can't do controlled experiments as we do in mechanics or electrodynamics. We can't do repeatable experiments. I don't have a dog in this fight: it's my conviction that even if humans knew unequivocally that human-induced climate change was going to make human existence problematic (if not wipe it out), they'd still do nothing -- analogous to a chain smoker who knows his odds of cancer and bronchitis are higher.
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, I am white too and I was never beaten by mestizos. Then again, I am of Spanish ancestry, with Spanish surnames, like the mestizos, so that actually helped me. But even though I am of the "dark" type of white guy, I still am recognized as white and you can make point out from a a crowd of mestizos. But are you sure they were mestizos? Remember, many Mexican criollos (Whites of pure Spanish settlers ancestry born in Mexico) believe they are mestizo, thanks to the monster known as media machine.
 </t>
         </is>
       </c>
@@ -1593,19 +1837,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>66.52</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">yes basically. Although the idea is to change the worlds opinions on whites and so called "white pride". It must be seen in a different light. We have to be able to come out in public and say "Yes I am a WN, and I am prideful". Then these people would draw back on "this white woodstock" from coverage or information regarding it, than they would be completely ok with it, and they might even ask more about it. Perhaps even become WN's themselves. People draw on information from "experiences". If you cannot persuade people to think a certain way at least you can show pride and or even make the whole thing clearer to them. They've already been taught in school and in the news about NOT being prideful of being white. And theyre ashamed and they dont understand it. i think to make it a bigger success the NAZI symbol should not be used in ANY WAY as it would discourage germans who are prideful of being white from going. Unless you have a better idea
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He was a Jew from Georgia. Communism was created by a Jew, perpetuated by Jews, so he just took the torch. OP, you conveniently forget the Rwandan genocide and the 10s of thousands of Americans who are gunned down in their homes and streets every year by your beloved "African Americans".
 </t>
         </is>
       </c>
@@ -1613,7 +1861,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1623,9 +1871,13 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When I say, SHTF, I mean Total Economic Collapse Social Collapse Governmental Collapse No rulership or enforced authority Absence of government; a state of lawlessness due to the absence or inefficiency of the supreme power; political disorder. Absence or non-recognition of authority and order in any given sphere. Anarchy Independent from rule or authority Food Shortages Etc. Shortages So, how many of you feel this will occur this year?
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Things are much different in Russia compared to the UK. Russia is just one example. I can't say the same for Brazil. Personally I think Brazil is a cesspit and is home to many drug dealers. The only good thing you got going on is the women and their Earth-like asses.
 </t>
         </is>
       </c>
@@ -1633,7 +1885,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1643,9 +1895,13 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The speed limiter is probably not relevant in this case, as it is at 250 kmh and the accident allegedly occured at 142 kmh. What looks a speedometer in such a hightech car like? And how does it work? Is it usual that speedometers conveniently show the last speed before they are crushed in accidents? Do people not usually estimate the speed by examining braking marks on the road? I coerced myself to be "rational" first and not to believe in conspiracy theories. But this seems to be odd. And additionally I think it's odd that the examination of the car wreck is already finished.
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Part of the reason i joined this was. I kept on geting banned from other sites for being labeled a racist. Even if you mention black or muslim, they start banning people. So i came here, to voice my views, which is good. It's free to express them. But now i'm starting to feel i need to support the common line on this board. That jews are the cause of white race mixing. Which i don't fully agree, i believe it's female instict, to shift away from races. 100
 </t>
         </is>
       </c>
@@ -1653,7 +1909,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1663,9 +1919,13 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well I wonder what Mr Pound would really say if he were here today? Are we supposed to just trust what this Communist Allen Ginsburg had to say about Pound? http://en.wikipedia.org/wiki/Allen_G...p_to_Communism Seems to me that Fascism was not just an passing phase Pound was going through, especially since he stayed in Italy throughout the war and since he spoke the TRUTH about Fascism with consistency. He lived there he believed it and felt it. How could it possibly be that his daughter could grow up to love and honor him and just conveniently ignore such a big part of his life and his political beliefs? She is dishonest with herself and consequently, the world. When I hear stories like this one and like the one about Hess's Granddaughter approving exhumation of his parents bodies makes me pissed! They have disgraced their forbears. Shame. For a more truthful perspective to counter that of Ginsberg's here is an excellent podcast by William Finck regarding Pound. The real Ezra Pound. http://christogenea.org/chrSaturdays
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That is right, the ghurkers, sikhs and a host of other non white participants are there because we were all 'on the same side' under that 'great' british empire. Another reason for nationalism not imperialism. The British by the end were more concerned with maintaining its empire than the heritage of the HQ (britain), and if that empire contained 1 billion Indians as well as gurkers, malays etc then they were almost as important.
 </t>
         </is>
       </c>
@@ -1673,7 +1933,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1683,9 +1943,13 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There is a utopian charm to what you say. However if you live in a society where secret agendas are left to shape events, it remains a utopian dream. For example a muslim. Given the rights of a meritocracy he will shoehorn his co-partizans into a position of influence at the expence of neutral candidates. He is ideology bound to do so, if he wants to remain a fellow of his community. You cannot undo that ideological obligation with a utopian wish. Therefore, to bring our young up with the idea of "Equality" is to bring them up with a handicap.
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all this says to me is that Oblama can not make a decision for himself as a leader. What a disgrace. Each state to control emision standards means more lobbiest money in every state capital. As if there was not enough allready. Get some balls Oblama (oh forgot his wife walks as if she has a bigger pair of ape nutz) and wake up to the rest of the country.
 </t>
         </is>
       </c>
@@ -1693,7 +1957,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1703,9 +1967,13 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We shouldnt get too hung up on ideology. The reason why National Socialism is a true Pro White ideology is because its neither Left nor Right. Goebbels often sounds like Marx on critiques of capitalism. Globalism isnt really a 'bad' ideology. It just happens to be the most useful ideology of Soros &amp; our enemies. Nationalism will always be less effective then globalism. The first step to defeating our enemies who use globalist tactics might be 'Nationalism'. But Nationalism should always remain just a tool.
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It isn't your COLOR. The notion that the differences we are talking about here exist only in melanin content is truly "silly." There are real, tangible differences between the different races of man aside from mere color that LIBERALS seem to tout all the time. These differences have been catalogued various times throughout this thread alone, let alone the many threads all over this site. We are DIFFERENT. We wouldn't be deporting you because of something as arbitrary as "the color of your skin," but rather because of clearly discernible differences in RACE. I hate how liberals trivialize those differences and then try to paint us out as ridiculous by claiming that these differences are only skin deep
 </t>
         </is>
       </c>
@@ -1713,19 +1981,23 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>71.05</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I know in my area, beef cattle are selling for almost double what they were last year, and this is historically the low point for beef sales in the annual cycle. About 1.50 per pound on the hoof. I raise my own beef and have 2 huge garden plots set up, plus all my fruit trees and berry bushes that I preserve. It's sustainability that is the key, not simply survival. It isn't the cases of water and canned good, although they are good. It's being able to live in a community where you can barter and know your neighbors.
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interesting,that Lucas Films would name the Jedi Ezra. Ezra, in the Old Testament, preserved and protected the Jewish race. Yes, race. He didn't want no race mixing among the Jews. He told those Jewish males to get rid of their foreign wives and get back in the fold. Ezra - Chapter 9 verse “For they have taken of their daughters for themselves, and for their sons: so that the holy seed have mingled themselves with the people of those lands: yea, the hand of the princes and rulers hath been chief in this trespass.” Ezra was a racial purist for the Jews.
 </t>
         </is>
       </c>
@@ -1733,19 +2005,23 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">British by passport. We do not mutilate the genitals of our offspring. Savage. Kosher and Halal, are indistiguishable. Barbaric. We do not hide behind quasi religious taboo's. Jews occupy Palestine based on a myth, that a voice was heard in a burning bush. Get over it. Grow up. Take responsibility for your oddball out of step conduct, and the consequences.
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wow. Amazing, but not surprising. I never cared much about going to Germany or the German culture when I was in the army, but now it sickens me to see how Germany has been held hostage over the past 70 years. It's changing though. The Jewish power structure is crumbling. We may not see the end of it in our lifetimes but it's coming to an end.
 </t>
         </is>
       </c>
@@ -1753,7 +2029,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1763,9 +2039,13 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are people with darker features in the north as well, though the frequency with lighter features is greater as you go further north. I hav eNorthern Italian blood and I have dark hair and dark eyes but there are Italians in my family with light brown and red hair and green eyes. There is a lot of genetic mixture.
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couldn't find any trace yet of the organisation of which he claims membership - I would like to think that it exists only in his imagination, but the truth may be less palatable. I did find this interesting and highly pertinent article though: http://www.faithfreedom.org/Articles...amic_state.htm From what I've read of it so far, it should be recommended reading. I would recommend it to Roberto in particular.
 </t>
         </is>
       </c>
@@ -1773,7 +2053,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>92.7</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1783,9 +2063,13 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A million times worse. No different from Mafia hit men- taking money merely to kill people. The San Patricios were motivated by the destruction of Churches, the rape of nuns and a disbelief in the justice of the war. A belief in Justice- however much we have failed to be just is something that separates European peoples from the Jews. The idea of us becoming Aryan versions of Goldstein sickens me.
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It seems as though the Jews complain that "KKHHizzbullah" are financed by Iran. Therefore Iran is a "Terrorrist state". Who finances the "Zionist Regime" in Palestine? Is this not why we have become targets of the dispossesed Arabs? The Arabs said that if the "West" failed to take their concerns seriously they would bring the War to the streets of the "West". The "west" is reaping the seeds it sowed when it decided to support the injustice known as "Israel". This is precisely where Judaic Philosophy fails. You cannot abuse people and hope the problem will simply be brushed under the carpet because Jews call themselves superior. If the Jews keep on, full-steam ahead destroying the Cultures of the Middle-East they will end up with another "Arse Kicking". Time for the Jews to stop and think for a change, instead of relying on their Dusty old Tomes, the Talmud has brought them nothing but bad luck. JU88.
 </t>
         </is>
       </c>
@@ -1793,7 +2077,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1803,9 +2087,13 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a song from Kosovo battle in which we,Serbs,fought against the Turks in 1389 and 1999 against the Albanians and NATO. I hope that these days we'll sing this song again . Islam's death, the death of Albanians...Long live White Europe!!! [ame=http://www.youtube.com/watch?v=vj85fKAFQQg]Hriste Boze - Boj Na Kosovu - - YouTube[/ame] "The Hymn of the Kosovo Heroes" (English translation) Christ our Lord, crucified and holy, Serbian land is flying through the clouds. It is flying over the heavenly heights, Its wings are Morava and Drina Farewell my first, unborn son, farewell roses, farewell rosemary. Farewell summers, autumns and winters, We are leaving never to return. On three holy and three unified, we are going to Kosovo field. we are going to our destined place farewell my mother, sister and bride. Farewell my first unborn son, farewell roses, farewell rosemary. Farewell summers, autumns and winters, we are leaving never to return. When my darling heard that I'm going, she put a flower of marigold on my lapel. Farewell my first unborn son, farewell roses, farewell rosemary. Farewell summers, autumns and winters, we are leaving never to return.
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Australian Lamb is Halal. The Muslim consumer mAustralian Lamb Halalarket is very important to the Australian meat industry. Australia has a Government Supervised Muslim Slaughter System (AGSMS) which ensures high quality product that is strictly Halal ("lawful" in Arabic). Australia is recognized as a world leader in Halal meat production. For its success, the AGSMS relies heavily upon the involvement and expertise of various Islamic organizations. Australian Lamb: Halal Information “We pride ourselves for having constantly supplied the ME markets with high quality, safe halal meat products for over 30 years now with year on year growth,” Middle East still largest market for Australian lamb | Halal Media
 </t>
         </is>
       </c>
@@ -1813,7 +2101,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1823,9 +2111,13 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I've found it can be very difficult to get rid of people like that, but if you play dirty office politics, it is possible. A starting point towards that: Machiavellianism - Wikipedia I'd suggest trying to mend fences a bit so they become more friendly towards you and open up, then dig around a bit for information that you can use against them to destabilise their life and get them to move on. I usually find they can be quite chatty and tell you all kinds of things they shouldn't. :-) They will use every advantage, and also play dirty, so why shouldn't you.
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm sure the person that wrote this article, doesn't support the view that leb's have a crime problem. Really makes you wonder why they write something like this which has no support of the australian community. Makes you wonder why people like this should even have a voice. People should really stop buying the sunday, if the sunday paper want to allow such writers and such views like this to be distrobuted to the australian people. Then mabe the people should stop buying it's papers all together, and teach a hard lesson to the media, you either support the majoirty view, or your out of business. It makes me sick, how the media, push minority view of an agenda which they try and brainwash the whole society with such views. I honestly i think the people should start to reject commerial media, televison media, paper media, where the people with power have control. Thank GOD, that the internet has turned the tides, againist a controled and propaganda media system. People are now not forced to be manuplated by the controlers of the media system.
 </t>
         </is>
       </c>
@@ -1833,19 +2125,23 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>69.89</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I just took my final in Anatomy and Physiology 2 today. It was the poorest test preparation I have ever witnessed. Chaos was the name of this game. Even the best prepared student (I believe I was) could not have done well. Has anyone run into this in a community college themselves? Just awful. I think I failed on account of the wording of many of the questions. In need of advice. Anyone with a background in medical services please help. This test was insane. Does the respitory system begin with the mouth? No however the teacher began the question with that saying list the organs and function starting with the mouth. I ended up accidentally listing digestive as that begins with the mouth. Respitory begins with nose. Should I contact the dean about poor testing? Or retake the course though I knew the info backwards and forwards? Other students sounded angry I probably wouldn’t be the only one to make a complaint. Diane
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">While you're right about ragheads, euthanasia solution is the most frequently stolen "medication" from verterinary clinics, after Ketaset. Or it used to be, anyway. I know Ketaset is stolen to get high on, but I don't why euthanasia solution is stolen. I really think I'm better off not knowing some things.
 </t>
         </is>
       </c>
@@ -1853,7 +2149,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>42.86</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1863,9 +2159,13 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hah there wasn't really the concept of homosexuality in those days mate. In most cases it wasn't someone being a "fagg" it was more a matter of convienience if you know what I mean. Spartan soldiers were not allowed to be in contact with women although it was encouraged for them to do so secretly (also to steal items such as bread), as this honed their discipline for sneaking for lack of a better term. If a Spartan soldier was caught he was severly punished.
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are they ? I don't think I can recall any prominent, evil blonde men, at least in the last 100 years or so. Stalin Hitler ( Sorry, anyone that causes millions of European deaths, labels Slavs and other Euros untermensch, leads their country to a humiliating defeat and subsequent mass rape is evil in my book) Lenin Beria Pol Pot Arab tyrants etc. Kim Il Sung and descendants, other marxist leaders zionist leaders African tyrants NO BLONDES !
 </t>
         </is>
       </c>
@@ -1873,19 +2173,23 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>98.07</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank you very much. And what is the opinion about the articles / The right lifestyle write? There is any things about love too, so that is good theme here. Yes, I searched too, who is the Odinsrage's owner, I searched phone number too. I cannot find, and the owner e-mail addresses are working, but nobody write me back from there. I see, what the *.cgi files not working there. The site is running although. Hope they really work on the problems, or I need to change the server. Thanks again. - MySiteLinkAddress -
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are limits to your people's capabilities. You're a racially homogenous nation of 1.3 bilion people. Any homogenous population that large with an average I.Q. over 90 and a generous amount of resources at thier disposal will likely make rapid gains in a short amount of time. America proved that fifty years ago, Germany did it before them and Britain proved that for centuries. Don't forget that while you were still clutching onto your backward ideologies, white populations around the world were busy inventing such useful little things that make our lives easier...like nuclear fission or quantum physics. For your sake, I hope you keep your race homogenous and clean from jews. Once the two of you are indistinguishable, it's all over.
 </t>
         </is>
       </c>
@@ -1893,19 +2197,23 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The next time we have an election I say we stand in front of the voting booths and not let the coloreds vote. I mid as well say it, get rid of all the traitors that are now in power remove their citizenship and throw them out of our country. 14/88
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh, I know you care Jeanmaniere. As do the vast majority of Stormfronters. I guess I just get a little concerned when I see people "changing their mind" on a daily basis and wanting nothing to do with our movement anymore. I'm not going to let it get me down though. Can't help but be concerned, but I promise I won't let it get me down. Like another poster said, the weak will leave us and only the strong will survive and thrive with us.
 </t>
         </is>
       </c>
@@ -1913,19 +2221,23 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Question: Don't you know there are good black people? There are good people in every race, bad ones too. Answer: I believe in the survival of the White race. In order to get that, we need our own exclusive living space. To have that, non-Whites must be physically removed from our living space.
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not trying to upset you, but teachers are glorified child minders in the US. In inner-city schools, they have the hazardous duty of supervising large holding pens (without necessary tools such as cattle prods and tear gas). And difficult to get the children to show respect when society at large doesn't accord teachers any respect. The children cotton on quickly that the teacher is a loser (if he isn't, why is he or she in the dead-end job of teaching?) I am a former schoolteacher.
 </t>
         </is>
       </c>
@@ -1933,19 +2245,23 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Animals should be dealt with the way animals are dealt with; force and fear. Unfortunately, the leftists don't seem to agree with any of this. I say send these moors and gypsies to jail, let them be some negro’s wife, then off them, out in the public. Maybe that will teach any more animals (and I’m including some white low life trash here as well) to think it twice. What a wasted and worthless world...
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Even though the Scotts were the most tenacious in the past (harassing the Romans so much that they had to build the Hadrian Wall to stop the then-called "Picts") . . . and they built Stonehenge in the Bronze Age . . . they still shaved a lot when they made their feudal system (keeping power for the people unlike the English) . . . and that's the direction I'm headed for politically so . . . for me, shaving is the correct protocol move. It's the right look. I should be wearing a kilt. However, right now my family is not officially part of the Rose Clan of America (we're the Roses) so . . . I have no need for traditaional Scottish dress. I'll just dress like a hillbilly I guess.
 </t>
         </is>
       </c>
@@ -1953,7 +2269,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>97.95</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1963,9 +2279,13 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">To be honest the part in this video where Duke is in a midst of towelheads being cheered on made me sick to my stomach. I can't stand this muslim hugging, its like spitting in the face of every european who faces murder and gangrape every single day by these people. The enemy of my enemy is certainly NOT my friend. I dislike Israel as much as everyone on this board but I have no sympathy for any arab or muslim, they are are Europes mestizos and blacks all rolled into one.
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">British by passport. We do not mutilate the genitals of our offspring. Savage. Kosher and Halal, are indistiguishable. Barbaric. We do not hide behind quasi religious taboo's. Jews occupy Palestine based on a myth, that a voice was heard in a burning bush. Get over it. Grow up. Take responsibility for your oddball out of step conduct, and the consequences.
 </t>
         </is>
       </c>
@@ -1973,7 +2293,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1983,9 +2303,13 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hi, I am no computer whizz, like some people on here, but I was wondering how some of our images end up on "Google Images", and others do not. Do you have to tag them in any special way. The reason I ask is I would like to be able to slot some images on their "Google images"...like this one, Call it Kaaba...or Qibla... It makes it clear that importing culture is a one way street, and it would be nice to be able to make the point to a wider audience.
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citizens Advice Bureau helping asylum seekers... Why doesn't that ring quite right. On that theme, here's a nugget from the recent 'No Soft Touch' asylum report: In 2002-03, CABs dealt with some 60,000 immigration and asylum advice enquiries, including an estimated 15-20,000 asylum support enquiries. CABs are funded almost entirely by the DTI, with other funds from operations like good old Cadburys. Not many people know that.
 </t>
         </is>
       </c>
@@ -1993,7 +2317,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2003,9 +2327,13 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I'm not remember where I read it, and how accurate it is, but British aristocracy actively supported Hitler during his rise to power. They did that becosue they were afraid of progressing commies over the Europe. But once they noticed that Stalin is taking control over the game, they changed their minds right away. Poland was a pawn back then, as it is now. I don't know, but our politicians are just dumb people. Those idiots think that politics is about friendship
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Columbia University was where the Frankfurt School took up residence. "For Black Girl Movement (BGM) Conference, we ask that individuals and communities respect the ongoing priority of centering Black girls, cis, queer, and trans girls, ages 18 and under, organizers, speakers, presenters, participants and conference attendees. While we all operate in many political spaces with various formations with regard to gender/ race/ class/ sexuality/ ability/ age/ religion/ immigration status/ size, etc., our intention is to create safer spaces that prioritize the talents, needs, voices and visibility of Black girls, cis, queer, and trans girls, 18 and younger." Black Girl Movement Conference | IRAAS Institute for Research in African-American Studies
 </t>
         </is>
       </c>
@@ -2013,19 +2341,23 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>62.53</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There you go, bashing the ole Moisin'. Just kidding. No matter what you say here, there will always be an opposing opinion. Well almost always. Some things, such as the subhuman nature of the feral silverback just goes without saying and is irrefutable. Just as day follows night....But that's another thread.
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unfortunately it is all too common. They will use any method to rob you of whatever you have because these people have no conscience. I put them on par with Muslims. A lot of them carry knives and take a sick pleasure in cutting you or threatening you. I'd stay as far away from them as possible because these are the type to actually carry out their threats. I think this is a very serious problem and it's shameful that nobody is addressing it properly, in ANY country. Romania did until they joined the EU and the EU forced them to give the gypos more rights &amp;c. These people are a cancer.
 </t>
         </is>
       </c>
@@ -2033,19 +2365,23 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The original subversives in the move to force Europeans to become Christian were Jews...like stPaul. Who do we imagine were the original clergy of this alien Jesus Cult? What sort of people were able to transform the low life converts to Christianity into a state religion that exploited people for protection money? Obviously people who had a pretty good idea of how a state run religion functions. Pharisees. There were already hordes of jews in Rome in 60AD, and were said to have fought off the Roman fire brigade during the great fire of Rome in 64 AD, in an attempt to reduce Rome to ashes. Part of the Jews success is to create havoc and then deny it.
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is worse than a sick joke. Obama is a homo freakazoid and his tranny partner Michelle proves it. "Faith based agency" HAHAHA! Wasn't it the Bushes that started this BS or does it go back to Reagan? It is pure BS regardless the government of the USA is not supposed to be involved in the religious affairs of it's citizens or lack thereof. Take a good long look at that freak, that is the future of religion in the west. I say to hell with that thing and to hell with any religion even remotely tolerant of it. I'll stop there...
 </t>
         </is>
       </c>
@@ -2053,19 +2389,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It doesn't take away anything from my feelings of sheer contempt for what the darkies do everyday here in the US to White women but I have some small grain of sympathy for non-White rape victims. It's bigger than just violent crime, you actually have to hate women on some level. That being said what goes on in Africa until such time that it directly impacts US economic or strategic interests is not our problem. We have more pressing issues at home like crime, poverty and immigration to be worrying about rather than what some mudhole in central Africa is doing to it's citizens.
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Only some sectors are "booming": software, call centres, maybe a few other areas. The country is desperately poor and with massive unemployment. In addition these "emerging markets" -- countries such as Brazil, Mexico, and India -- have their economies shaped according to the needs of core Western economies (thus, for example, call centres and software serve Western markets). This economic dependence usually implies, in these neo-liberal days, that speculative finance capital can move in and out at will. Recently it's been moving out.
 </t>
         </is>
       </c>
@@ -2073,7 +2413,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2083,9 +2423,13 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I hear you brother., AND I SEE THE TRUTH but who is going to get heard? You or Mister / Missus Anti Who will get MAINSTREAM celebration Who will be painted as the "good" and "bad" guy Remember that they have been programmed to intentionally pretend not to hear the logic of our dissent
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insofar as IQ tests measure intelligence, what they have to say is that men and women average the same, but that the bell curve for men is "flatter", meaning there are more idiot men and more genius men. Meanwhile, there are more average women. In general the male biological strategy can be characterized as being more "high risk, high potential rewards", and the apparent flexibility in mental structuring which enables more geniuses, but at the risk of more idiots, might be a result of this. FYI, left-handers show the same general IQ pattern as men, with both more geniuses and more idiots than average, and than right-handers. It also seem to be the result of some higher degree of flexibility in nervous system development.
 </t>
         </is>
       </c>
@@ -2093,7 +2437,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2103,9 +2447,13 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">People in their own homelands are quite nice. It's when we get too close that pronlems pop up. I'm sure that a wN government could have vary prosperous alliances with Arab countries for instance since we do share some common goals but as long as they are in their land in we're in ours. Foreign policy toward non white nations can be economically beneficial as long as they do not become deals based on assimilation of their peoples into our lands as part of the deal.
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empathy being a key trait in.... social skills... which is a key trait in... drumroll please... sense of humor! So again, if you think about this logically...evolution itself would point to women being funnier. If you want to argue men learn to be funnier, that's a very different concept, isn't it?
 </t>
         </is>
       </c>
@@ -2113,7 +2461,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2123,9 +2471,13 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">¨ How on earth did you turn my statement that there is a diffrence between "true" Swedes(mostly Swedenswedes an Finlandswedes) who practise the Swedish culture, live in Sweden, or old Swedish terretory(Finland, Estonia), along other Swedes, into "America is better"? I don't know what you're taught, but Americanism isn't the way to go for a WN, period. Also, how do you define freedom, is democracy freedom? If you don't know, I suggest you take a look at my signature. If democracy is freedom, take a look at my signature. America is not the left out number four. The Netherlands are. Democracy Index - Wikipedia, the free encyclopedia
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That is true Mr. Victory. We are always put in this position of "Justifying" our sources visavis 3rd Reich Germany. Lets not forget Werner von Braun, for example, who was given extraordinary support for his visionary science. The German regime at the time was supportive to allsorts of ground breaking science. I also understand the Concerns of Candide. Brown-shirts are not every bodies vision of a rosy future. Unless we get our concerns across to a larger public, we will remain a fringe group. But we must also confront strong truths. We have been sucking sugared milk for to long, the harder it gets to get real. O.R.I.O.N. "NO SURRENDER"
 </t>
         </is>
       </c>
@@ -2133,19 +2485,23 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>58.44</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Always remember the Jews killed Jesus? How about we always remember that Christianity ripped true European religions, and ultimately culture, apart? Now we have Churches advocating the mass importation of non-whites because all they see is more additions to the flock of god fearing sheeple... It is not a White religion, and it is most definitely not any help to our cause as White Nationalists... Easter has its origins in Paganism anyway...
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, isn't that lovely!! That's exactly why I will never be an organ donor. I don't even give blood. I don't trust any of it. What's mine is mine unless I'm definitely and without a doubt, dying and could save someone I love. No strangers, I don't care what color they are.
 </t>
         </is>
       </c>
@@ -2153,7 +2509,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2163,9 +2519,13 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kiyosaki does have some good ideas in his books but, He has been found to be a hack ( I have not read the articles myself) most of the stuff he writes is all made up not lived. I would recomend Zigglers "SEE YOU AT THE TOP" it is an everybody book not just salesmen.
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That's the result of boys playing with dolls... [ame="https://www.youtube.com/watch?v=_LjjOJCDDWE"]German kids beaten up by Muslim migrants - YouTube[/ame] Unable to protect themselves, living in fear on their own land. That's the price those poor kids pay now for ignorance of their parents. Some time ago there were separate schools for boys and girls, do you care to know why? Because boys who are growing up or spent too much time with girls are acquiring feminine characteristics (that works in opposite way as well). Not all of them but enough to be dangerous for health of society. If you are saying that it's OK if boy plays with dolls than you must be a woman who is lost, or very naive and uneducated man. I'm surprised I see things like that on SF.
 </t>
         </is>
       </c>
@@ -2173,7 +2533,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2183,9 +2543,13 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Right? I think everyone is pretty much over the gay issue. There have always been fags and always will be.. we get it! Just don't push normalizing it on our kids and I'm just fine with it. I have gay family members and they even think the whole gay crowd goes overboard with this bs. Nowadays fags aren't going to be attacked or judged for being gay.. sure, it happens but hey, white people are targeted just for being white waaaay more than gay people are! These "minority" groups playing the victim is getting reeeeally old.
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Things are looking up anyway. I like the EDL better than the Tea-party. They state that they're not afraid to mix it up a bit, and sort em out. I suspect that we would first have a group similiar to this in the U.S before we ever have a popular WN's Movement. Most White Americans would also ignorantly fly an Isreali flag as a sort of anti-muslim/patriotic gesture. The majority of whites will never feel as strongly about the Jew as we do, but if they take to the streets in opposition to any alien invaders, or the leftist politicians who sponsor them they have my support.
 </t>
         </is>
       </c>
@@ -2193,7 +2557,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2203,9 +2567,13 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Modern humans with the highest amounts of Neanderthal DNA are more advanced than those who have little to no Neanderthal DNA. As far as being great engineers see link. Modern flint expert 'reverse engineers' Neanderthal stone axes - and says our ancestors were clever, elegant crafts Neanderthals had some sort of religion and understood the concept of spirits and death. They even performed rituals before burying the dead. They were advanced enough to do that AND survive European winters. They were more advanced than modern day Africans or Native Americans! And they existed almost half a MILLION years ago. They did great until Cro Magnon man bred them out just like the Muds are doing to our people today. If you believe that made them inferior then does that make us inferior because the same thing is becoming of our people?
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ironic since the most shocking, racist and vulgar material on radio today is hip-hop/rap music .. where's the outrage? 'Clear Channel Radio has silenced the popular "Monsters of the Morning" talk show on Orlando's 104.1 FM over racial comments made on the air, The "Monsters" radio team, featuring Russ Rollins and Dirty Jim, was sidelined after complaints came in from Sarasota, Fla., The crew must reportedly complete sensitivity training before returning to the air.' Story: http://www.local6.com/news/3525540/detail.html
 </t>
         </is>
       </c>
@@ -2213,19 +2581,23 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>73.67</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bush 'super-state' documents sought FOIA request filed to expose plans for 'North American union' Posted: June 20, 2006 1:00 a.m. Eastern Author Jerome Corsi filed a Freedom of Information Act request yesterday asking for full disclosure of the activities of an office implementing a trilateral agreement with Mexico and Canada that apparently could lead to a North American union, despite having no authorization from Congress. As WorldNetDaily reported, the White House has established working groups, under the North American Free Trade Agreement office in the Department of Commerce, to implement the Security and Prosperity Partnership, or SPP, signed by President Bush, Mexican President Vicente Fox and then-Canadian Prime Minister Paul Martin in Waco, Texas, March 23, 2005. CONTINUED
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It amazes me that Indigenous groups (or anyone else for that matter) are prepared to put up with them, they openly state that they want to end the traditional Patriarchal clan system and they oppose any Aboriginal representative body or recognition of the prior existence of Aboriginal Nations. Every Anarchist I've met over the last 20 years has been stuffed on drugs or mentally ill to some degree, they have no place in the democratic process, either Left or Right are their targets of the day depending on their mood. If any Socialists or Communists are reading this, you've got the numbers, boot 'em up the Khyber pass and send them packing if they turn up at your rallies, we can't do much about them at this point...so do us all a favor Eh
 </t>
         </is>
       </c>
@@ -2233,7 +2605,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2243,9 +2615,13 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think the women pictured there are very pretty. The Black contestant is way to the back. I think a rigged contest, where the Black Ghana woman wins would be a great propaganda victory for us. The US had a great backlash when Vanessa Williams won the Miss America contest. She was a very light skinned African American, she lost her crown when nude pictures of her doing Lesbian themes were released to the public. They had a Blacker 1st runner up that took her place. Pain is good. Insults are good. Get these rich Germans pissed off a bit, force PC on them every single day.
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I could be wrong too, but I don't think rates have gone up in a long time, though I've heard some complain they weren't lowered in time. Personally, I don't think recession can be avoided forever by tweeking interest rates anyway. The economy is cyclical and that's a fact of life.
 </t>
         </is>
       </c>
@@ -2253,7 +2629,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2263,9 +2639,13 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Its true that we have a lot of diversions to deal with-thats the Zionist tactic,to overwhelm us with "issues". We have to cut the crap and get down to business.Who cares if someone is a fruiter?As long as they're responsible adults and minding they're own business and "doing their thing" amongst themselves I really don't care myself. I'm sure it really wasn't much of an issue until the Zionists made it one....as they've done with all races and creeds.For a WN to have an opinion such as I've just expressed makes the Zionists blood boil,I know this from having discussions with admitted Marxist/jew worshippers in person....on this and other issues of course. They're appalled by any apparent form of reason on our behalf which is funny and just proves that they are the ones that want disunity and conflict justs for its very nature.
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OK, if it pleases you, I propose this rephrasing: "Will you suspend your attributing of the events of 9/11 to Zionist jews if you were to see Zionist Deli Owners for 9/11 Truth?" It is not especially evident, but you can deduce from this thread that a return to elitism and White male rule is called for, because, far and away, overwhelmingly, and almost exclusivey, White males comprise the only demographic group that is demanding 9/11 Truth and justice. P.M.
 </t>
         </is>
       </c>
@@ -2273,7 +2653,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2283,9 +2663,13 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ya think? I guess in the future I ought to distinguish the tree chimps from the ground chimps. Apologies, and cudos even, to all offended tree chimps, who in fact do have the good sense not to conduct themselves in a manner that causes irreparable harm to the food producers of 'their' societies... .
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I haven't been on Stormfront for a while for economic reasion. No internet at home. I have been working as a substitute in the public schools here in Florida where I see this happening over and over again. I'm going to bump this thread because parents need to see it. I am a parent of 2 daughters, and I can see the delema of many parents. Your daughter is budding into young womanhood at 12 or 13 and you don't want her going out with highschool boys. If you can't homeschool or send them to an all White private school, allowing them to date the high school boys may be the lesser of two evils. It is a tough subject that no parent wants to think about, but you must. I have no doubt that our enemies are well aware of it.
 </t>
         </is>
       </c>
@@ -2293,19 +2677,23 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I am saying if you are black stay with your negro men. We don't want you mixing with our race and destroying it. I am simply stating that I want NOTHING to do with negro men. I will not date them because, they are violent, stupid, and ugly. Blacks in groups are the worst, they will pick out a single white person because they are white. Exactly black children aren't the only ones, adult negros love to hurt, cause chaos, and usually do it for no reason. Can I see your statistics on domestic abuses that are mostly by white males???? I highly doubt that, if that is the case why are there so many negros in prison? Very few cases of child abuse in the black community? Are you high? Honestly, are you in denial?
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here we go! Foreign spouse income limit for immigration at court - BBC News It seems like if we don't allow thousands of anti-british scumbags into the UK on welfare and "working" in the black economy then we're abusing their human rights to "have a family life" Here's a novelty - WHY DONT THEY JUST PlSS OF BACK HOME? !!
 </t>
         </is>
       </c>
@@ -2313,7 +2701,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2323,9 +2711,13 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Are we some of the anarchists? "Mankind emerged from savagery and barbarism under the leadership of selected individuals whose personal prowess, capacity, or wisdom gave them the right to lead and the power to compel obedience. Such leaders have always been a minute fraction of the whole, but as long as the tradition of their predominance persisted they were able to use the brute strength of the unthinking herd as part of their own force, and were able to direct at will the blind dynamic impulse of the slaves, peasants, or lower classes. Such a despot had an enormous power at his disposal which, if he were benevolent or even intelligent, could be used, and most frequently was used, for the general uplift of the race. Even those rulers who most abused this power put down with merciless rigor the antisocial elements, such as pirates, brigands, or anarchists, which impair the progress of a community, as disease or wounds cripple an individual." http://www.africa2000.com/XNDX/madgrant01.html
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1) Which one is scarier? 2) Which one is a fake? 3) Which one has a paw on your wallet? 4) Which one WON'T go away? 5) Which one would be a more interesting interview? 6) Which one would you'd rather your daughter brought home? 7) Which one DOESN'T need a teleprompter? 8) Which one would you rather share a cold one with? 9) Which one is NOT a mixed breed? 10) Which one would you dare turn your back on????? Just askin'.
 </t>
         </is>
       </c>
@@ -2333,19 +2725,23 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shouldn't be too hard to figure out what make I drive Its made in Mexico though Wish I'd known that before I bought it ... I'd like to buy an American car some day in theory, but the quality and finish just don't match my liking. My love for European cars will always keep me looking East.
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear 1White, why not put your faith in multi racial, multi cultural nations to test and go live in say,,, Zimbabwe. I hear there are agricultural opportunities for those who are not White racists. Perhaps you can mouth your slogans in the ear of Robert Mugabi and introduce your daughter to some of Mugabi's war veterans. Why not just hang out in East Timor - not far from Australia? They say the Muslim militias are eager to spread their culture to others (iunfortunately their culture dictates that they murder non Muslims). You're pathetic. I will take bone sucking queers who are at least against third world immigration over the likes of you and your Judiazed one worlder churchfolks. Please take your sissy views to the opposing view section. This board is for proud Whites.
 </t>
         </is>
       </c>
@@ -2353,7 +2749,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>26.97</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2363,9 +2759,13 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My personal opinion, or as some write IMO ( ) is Croats and Serbs should work together on protecting our race, since we have no other choice. We had our wars. I think it was enough blood to soak jewish dry money over decades. We are infidels for moslims, and goyims for jews. They do not make any difference if somebody is croat or serbian. Do we have to make their job easy and comfortable? Or should we fight them together ?
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unfortunately, it's impossible to make a brain physically stronger since it is mostly made out of structural fat. I like the idea of promoting physically fit and strong white people. Too often whites are portrayed as weak in movies and on TV. The fact that whites invented nearly every modern convenience we use today speaks volumes for who is generally smarter.
 </t>
         </is>
       </c>
@@ -2373,19 +2773,23 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>98.74</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So, in other words there are two different sides/beliefs when it comes to the holocaust not happening? One being that it never happened, period, no jews were put into camps, and the other being that jews as well as a variety of other groups were put into camps and that it was not just jews at all?
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh for sure bud, I am totally against any offensive actions in Iran. Same as this so called war on terror where terrorism in Iraq is now one hundred times worse. It is nuts, plain and simple. Go to war with a country then let their worthless stock flood your own. But hell, the muslims need to leave our countries quick smart. Breaks my heart in my little old town every time I drive past the mosque.
 </t>
         </is>
       </c>
@@ -2393,19 +2797,23 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>73.18</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">trying to think up sign slogans "Common Decency" "We're not the enemy" "act civilized!" "show respect, get respect" "Where does revenge get you?" "Protest war, not whites" NOT your "MASSA" Keep Kids Safe! Whites for peace Tolerance works BOTH ways Learn NonViolence Safe Schools! Dignity, not Bloodshed! Stop Beating Kids Hands off schoolkids! *Also this could be a real opportunity to pass out info to the blacks about who their REAL masters are (remember the KISS motto with this, lots of pictures, MTV = gangsta rap= black men in prison/unwed mothers=ghettos)
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It'll never work. The US has been trying to get a base for Africom since GW Bush became president and NOBODY, not even their staunch pro Western supporters in Botswana and kenya have even agreed to the idea. Bush promised MASSES of cash and the boons said no. Forget it. Africom will never happen. The liberals will tell the Boons the "baas" or "bwana" is coming and they'll squeal... and if Somalia is anything to go by America's military can be beaten in Africa... or at least the boons believe they can beat the American military.
 </t>
         </is>
       </c>
@@ -2413,19 +2821,23 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>99.82</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well I don't think that's a good idea. To give Cuba to the Jews many white people are going to be killed, and I'm sure that they will make it another Jewish holiday park rather then a real country, like they did to Israel. Why not Florida? Global warming and the rising sea level will turn Florida in hell in a few decades.
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Welcome to SF my sister lived min Naples for 12 years and 3kids born in Italy. I have friends from florence and Venice. My interests are in Rome and in the Tuscany region, so very beautiful. On the other hand my wifes family is from that region as well lol. Enjoy your time here.
 </t>
         </is>
       </c>
@@ -2433,19 +2845,23 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rabbit fertilizer is fine and does not burn. Grand parents were dirt farmers, kept cattle, and were also commercial chicken growers for about 50 years...When they were finally forced out of the chicken business, they took their old 40x400 ft chicken houses and installed rabbit cages in them...Sold the rabbits for meat and pelt distributers. Needless to say, there was never a shortage of fertilizer. This is how I know these things.
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He is still writing great articles ... Behind the Campaign For War Against Iran and the IHR is still active, all you have to do is check the web site. The real issue is not exposing another holohoax lie. The freaking thing is preposterous from start to finish, Butz wrote his book in 1976? Do we really need more articles explaining the hoax? The issue is not just setting the record straight with respect to the hoax, the issue is that we are about to start WW III because of the Jews and get ourselves incinerated. Weber is trying to do something about THAT. My opinion is that the hoax is the Achilles heel of the Jews, and Weber no longer believes that. SO WHAT? Maybe he is right. To see him continually trashed is discouraging. But then, if you're a denier there are lots of things that are discouraging.
 </t>
         </is>
       </c>
@@ -2453,7 +2869,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2463,9 +2879,13 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I've been to Kellys in Richmond. Also a good biker bar just outside Lake Geneva. The owner is a White body builder, has a shaved head and always has a new, young girlfriend, wife helping out. It is a good biker hangout. Exchanging a few smiles, hellos on a Sunday isn't quite the same thing as getting to ride in formation in an all White biker gang. :-)
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello. My dad is in fact an american with german ancestors, I am born in Germany and have got a German mother so I consider myself as a German. Though my heritage I am interested in American Nationalism. So I want to ask American Nationalists: What is your goal regarding your country: Do you want to get rid of the blacks ? In which way do you have got more right to stay in America then the blacks since you are not the natives of your country because the Indians are. Do you want to divide races like it used to be in the south or South America, or do you want to ship them to Africa ? If you had control over American policy, would you keep on with the American politic playing policemen throughout the whole world or would you stick on to your own business ? What would happen to the Indians, being the native Americans ? Would they be treated as well as nowadays ? What would happen to Iraq and Afghanistan ? So you see I want to now a lot of things about American nationalism
 </t>
         </is>
       </c>
@@ -2473,7 +2893,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2483,9 +2903,13 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My saying "Ireland" was mainly because American Western culture reminds me so much of Ireland ( drinking Whiskey , playing benjo ) and because the English spoken in America has an Irish pronounciation : Yosemite Sam , a fictional American West gunman , he would not look out of place in Ireland .... [ame="https://www.youtube.com/watch?v=h1PfrmCGFnk"]The Good, the Bad and the Ugly Theme â€¢ Ennio Morricone - YouTube[/ame] Like I said , traitional American country and Irish Folk sound very much alike .. [ame="https://www.youtube.com/watch?v=_YuJZzuHDf8"]Rednex - Old Pop In An Oak (Official Music Video) [HD] - RednexMusic com - YouTube[/ame] ( please ignore that it's an overhyped techno-version .. ) [ame="https://www.youtube.com/watch?v=671G9ZD7R30"]I'll tell me ma lyrics - YouTube[/ame]
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What if I do think that whites are discriminated, and that should stop? I agree on this second thing. Not in my dictionary No, not really. Again wrong. My "first encounter" with racialism was through a very bright close friend who held a lot of nazi views. I also hear a lot of NS bands, and also bands who sing just to their heritage, so I learnt the difference between pride in self and hate to others. Then I got here and read a lot. Some things dissapointed me (as opposed to what I expected), others interested me and others simply sounded wrong. I agree. Devotion? I hold no devotion. And I'm not that arrogant, I know I'm not gonna change anyones hate. Good for you Don't worry about explaining, I understand perfectly. Its just not so easy for me to explain myself
 </t>
         </is>
       </c>
@@ -2493,19 +2917,23 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>68.71</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">exactly dude i guess we have the same views i think non-whites are hot probally because im 17 ive never liked a non white girl so i cant say i would date them because its never happened idk if WN means you dont have any friends thatare non white then im not one thats messed up man dont stop being friends with someone because you want to be in a group
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That website seems to me to be just jew proaganda to further their own causes. A jew calling a spade a spade isnt going to do it for me. When the ADL and the AIPAC shuts down and no other "PAC"s are allowed to use our govt for the support of another country, then we can say we are getting somewhere. Talk is cheap, action is what we want. I would almost bet that a big part of the "aid" we have given israel was used by jews to buy out the media in America and the rest of the world, including banks. No i cant prove it, but theres no way in hell *all* the jews are so rich just from their businesses. Theres got to be some underlying factor from a state-run govt doing the financing. It takes a total idiot to not see that jews are up to something.
 </t>
         </is>
       </c>
@@ -2513,7 +2941,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2523,9 +2951,13 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excuse my French but what gets me through the day is the thought that the Allies ****ed Germany after WW1 with economic conditions which ruined the country but thanks to Hitler did not do the same thing after WW2 as they learnt their lesson. And thanks to Hitler the commies only took East Germany not the whole country which probably would have happened if not for the NSDAP.
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well I'm amazed at the silence of the antis or libs or SJWs. Clearly Many WNs disagree with my onion about the two white men, and I can accept that, but the silence from the lefties is absolutely deafening. I just wonder how many of these libs will open their minds to reality. Or if they will just put their hands over their eyes and keep patting themselves on the back for hating their own race.
 </t>
         </is>
       </c>
@@ -2533,7 +2965,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2543,9 +2975,13 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yahoo have an article about this followed by the usual comments from the sheeple who trot out the parroted 'facts'. The 'Germany had 40,000 camps alone' which appeared in 2013 is now repeated as a fact! Then followed by one or two comments from those who can actually critically think (if they are not censored). The source for these letters is a Jewish source which is never questioned of course but why would a Jew even have these as a 'souvenir' anyway if all these atrocities did take place? That is just sickening like the Jewish actors who played 'Nazis' in the 'Holocaust Comedy' Hogan's Heroes! I saw one letter quoted in that Himmler's wife calls him 'an evil man' and an 'evil good man'. What wife would even say this? My opinion is that like the writings/diaries of Goebbels and Hoess - the originals are probably authentic but they are then severely doctored before they enter the public domain. Although supposedly Goebbel's were found in a garbage can or something amongst the rubble - LOL.
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Her mother is french canadian, and her dad is Italian, like most girls raised in american suburbs at that time, they grew up with almost no racial awareness, and with all the money to fuel her "Liberal Fantasy" of what reality should be like, she started putting out more and more trash to sell records. They say she is from "Detroit" but thats a lie, she is from a SUBURB of Detroit, chances are, if she lived in Detroit itself she would have turned out to be very racially conscious. I'd love to drop her ass off in Bed Sty in Brooklyn and see how much her "Prayers" and liberal jew speak protect her. There is a saying, those who do not listen, will have to FEEL.
 </t>
         </is>
       </c>
@@ -2553,19 +2989,23 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I believe those were Jewish Czechs that Hitler ordered executed. Stalin murdered far more of his own people but yet little is said of this. Hitler was a flawed but great man. He took a country that was demoralized and humilated after WWI and within 10 years built it up again to a great military might. He saved Germany from Communism, that Jewish cancer. Would you rather had Hitler sit back powerless while the jews destroyed and decayed his beloved Deuschtland ? Hitler had balls in the sense that he was one of the few Gentile leaders who stood up to the Jews. Because the Jews control my country and my country kisses Israel's ass. We need a Hitler over here to wipe all the filth away.
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Has been approved." Approved by whom? These people, I suppose. Your tax dollars hard at work, folks. Think about that as you file your 1040. Information from the TN Secretary of State's website. Bridge Refugee &amp; Sponsorship Services, Inc. Status: ACTIVE Date of Formation/Qualification: 03/16/1982 Domestic/Foreign: DOMESTIC Place of Incorporation/Organization: KNOX Duration: PERPETUAL Address: 123 DAMERON AVENUE, KNOXVILLE, TN, 37917 Registered Agent: RICHARD F. ROBINSON (865) 540-1311 (865) 540-1021 Fax [email protected] (sub-office) Anne Curtis 4791A Hal Drive Chattanooga TN 37416 (423) 954-1911 (423) 954-9499 Fax [email protected]
 </t>
         </is>
       </c>
@@ -2583,9 +3023,13 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">First-Ever US Presidential Candidates' Forum to be in Israel N. Srdoc - Huffington Post First-Ever U.S. Presidential Candidates' Forum Held Abroad in Jerusalem, Israel, November 2-4, 2015 | Natasha Srdoc US presidential candidates have been invited to participate in the first-ever US Presidential Candidates' Forum held abroad [Nov. 3-4], focusing on foreign and defense policy issues. From Jerusalem, Israel, each presidential candidate will have an opportunity to present their views on U.S. foreign policy, US-Israel relations, threats affecting US allies in Europe and Asia, the instability in the Middle East, terrorism, and solutions to increase the economic well-being and security of Americans in the US and abroad. From Waaay Out West, ~HLM
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No problem... you forget I was a criminal defence attorney in my early career when I did articles... Heard that one when I was a young wide eyed articled clerk... When a guy got arested for drunk driving and wouldn't ahem... oil the state machinery... they'd warn him he was going to get a slow puncture in the awaiting court police cells.... which (contrary to claims by some liars) never happens...
 </t>
         </is>
       </c>
@@ -2593,7 +3037,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2603,9 +3047,13 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I said I wouldn't vote in BrabdiG's poll. lol But, I have voted in every single election since I became eligible. Before I became a member of Stormfront I used to volunteer as an election worker on election days. I have too much interest in politics to not vote. In the beginning of the '08 primary I was hoping Ron Paul would excite the Republican party (and win) like Obama did with the Democrats. I really liked Paul and his message. I haven't decided if I'll vote for Chuck Baldwin or if I'll write in Ron Paul. I will vote for one of those two, though. I understand what you're saying to me and you are right.
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good idea... I have no black servants... and prefer to be independent... It makes life a little difficult though... but we do have a good support system in place in our neighbourhood.... poor whites who can babysit for a few bucks are easy to come by... Kaffers are just waiting to set you up with their tsotsi friends... When I practiced law I once had a case where the teenage picanins of a kaffer girl whom their white owner had paid through private school broke in, beat the old white granny to a pulp, predictably raped her because the animals cannot keep that thing in their pants or they get off on helpless old white ladies or something like that, and then slit her throat and helped themselves to her cell phone and a couple of hundred rand* *the rand / dollar exchange rate is about 8/1 so it would not have amounted to USD100
 </t>
         </is>
       </c>
@@ -2613,19 +3061,23 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exactly. I just got done saying this in another thread. There will be no negotiations, no settling, and no tolerance levels. If you believe in White survival, you believe in White separation. Whites who mix are no allies of ours and never will be. A White man who sleeps with Asians is no better than a White woman who sleeps with Jews or Arabs. Both are disgusting, no matter the rationalizations.
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Although this isn't 100% clear to me I don't think Egypt was even considered to be part of Africa in ancient times. My understanding is that Africa was considered a combo of Libya (the Maghreb) and Aethiopia (sub-Saharan Africa.) If I'm not mistaken Egypt was considered to be part of Asia by the Graeco-Romans and didn't get reassigned to Africa until later.
 </t>
         </is>
       </c>
@@ -2633,19 +3085,23 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>62.84</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I am employing the C&amp;P method, because my experience is that links are ignored. Again you are asking me to accept your sources. Why would I accept your interpretation of the Jews books. You are a Judeophile. You seem to be wholey consumed by the Post War notion that people have a freedom of "Any Religious" notion they want to observe. This has been introduced as a mandatory social condition after the war, and to the extent it is practiced to day ie. Rastafarianism because of the Jews meddling in the Laws of "Christendom". As to your assertion that Jews are not permitted to kill non Jews , well frankly I do not see evidence for that in the real World. A Family Picknick was shelled two IDF pigs go missing and all hell breaks loose with Palestinians being Murdered all along the Fertile crescent. JU88.
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You know the OP's predecessors should have just said no when the Holland based Jewish slave traders arrived in the West coast four hundred years ago... instead they got shown beads... saw awlla det bling and went... "I wonna gibs me summa dat... wotcha want for dem blings cracka?" "Oi vey vee are lookink for some slaves to sell to de goy" "Dems bee my bruvvas? Shore ting boss... I gettsya summa blackass to enslave en sheet... juss gibbs me summa dat bling fodda b***tches imma crib so I can gets mudeek off onna dems" "Oi I got all de bling you vont my friend... just help a man out veeth some product and vee can shake hends and I give you vot you vont and I get vot I vont... and everybody is heppy...do vee hef a deal?" "Shore shore.. juss gimme summa en I'll getsyuh as many n**ggazz as yo boat can load..." And the rest unfortunately is history...
 </t>
         </is>
       </c>
@@ -2653,7 +3109,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>73.67</t>
+          <t>92.7</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2663,9 +3119,13 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It amazes me that Indigenous groups (or anyone else for that matter) are prepared to put up with them, they openly state that they want to end the traditional Patriarchal clan system and they oppose any Aboriginal representative body or recognition of the prior existence of Aboriginal Nations. Every Anarchist I've met over the last 20 years has been stuffed on drugs or mentally ill to some degree, they have no place in the democratic process, either Left or Right are their targets of the day depending on their mood. If any Socialists or Communists are reading this, you've got the numbers, boot 'em up the Khyber pass and send them packing if they turn up at your rallies, we can't do much about them at this point...so do us all a favor Eh
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A million times worse. No different from Mafia hit men- taking money merely to kill people. The San Patricios were motivated by the destruction of Churches, the rape of nuns and a disbelief in the justice of the war. A belief in Justice- however much we have failed to be just is something that separates European peoples from the Jews. The idea of us becoming Aryan versions of Goldstein sickens me.
 </t>
         </is>
       </c>
@@ -2673,7 +3133,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>55.61</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2683,9 +3143,13 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">oh my god that is so true... I'm laughing but it's humiliating as hell. There's nobody I hate more than those people. Kanye West... dear god... Pretty sure he's the one that made a video featuring himself carrying around the severed head of a white woman ("Monster", idk), and conservatives can't stop worshipping the guy. If they love homicidal negroes so much why don't they just move to Africa. ^^Based Trump supporter^^ Christ I hate conservatives... This forum desperately needs a vomit icon. .
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If we have tunnel vision and only focus on the Jews we do so at our own peril. This subject has been debated on this forum many times but suffice it to say that there is more than one threat to the white race my friends and we had better start to recognize this. The fools in NY were only the latest example. And the Jews are not outbreeding us. If we focus on one problem to the exclusion of all others we will be in years to come a few whites shaking our fists at Jews while living under sharia law. And spare me the "Once we get rid of the Jews the Muslims will go home" theory because if you subscribe to that interpretation you are fooling yourselves.
 </t>
         </is>
       </c>
@@ -2693,7 +3157,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2703,9 +3167,13 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A white man came who to the defense of his wife after a black man assaulted her and tried to take her camera away from her was arrested on a felony hate crime for calling the black man a "******." Check out the story here: http://www.abcnews.go.com/sections/u...ime010816.html Interesting that the black guy was not charged. Oh, we better not offend those black folks... unbelievable!! 14/88 AK
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naughty negress Wendy Williams flashed a lewd photo in a promo for her TV show today, this occurring at 10:18AM when stay-at-home toddlers could have viewed it. Actually, considering this time of year, virtually all young children have holiday recess and could have viewed it. Here is an abbreviated, censored version of the photo: I doubt that anyone in America aside from me has raised issue with this. As a matter of fact, I researched the event during which the obscene act occurred, and I was unable to come up with any criticism about it. I did find the following brief article which raised "suspicion" about what may have been going on: Jennifer Lopez American music awards 2011 | Natacha Peyre @ Spotlife It looks like America is becoming an "anything goes" nation.
 </t>
         </is>
       </c>
@@ -2713,7 +3181,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2723,9 +3191,13 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The degree to which leftists can lean over backwards to accomodate their black masters is astonishing... there will come a time when they will demand we sacrifice our daughters to them.... Appeasement perhaps? Is that a whiteness thing... I am reminded that appeasement is a Jewish thing... they would undergo the worst privations just to protect their cash cows in medieveal times until their hosts would eventually get tired of them and chuck them off. Perhaps their riches matter more than themselves.
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Relentless Cult of Novelty Alexandr Solzhenitsyn (1987) The Relentless Cult of Novelty ... This relentless cult of novelty, with its assertion that art need not be good or pure, just so long as it is new, newer, and newer still, conceals an unyielding and long-sustained attempt to undermine, ridicule and uproot all moral precepts ... To decorate public spaces we put up sculptures that aestheticize pure ugliness - but we no longer register surprise. And if visitors from outer space were to pick up our music over the airwaves, how could they ever guess that earthlings once had a Bach, a Beethoven and a Schubert, now abandoned as out of date and obsolete? From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -2733,7 +3205,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2743,9 +3215,13 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I register to SF because of this thread (even if I was reading some parts of the forum for a long time) little I care about the mentally reduced people who see races as coloured crayons. If you wish so please change my username to something else, I dont want use any band/song names and all the good usernames are not available any more, I dont mind if any of the moderators choose for me as long as it will not contain words from my e-mail adress. And more inportant than a username is access to the occcult forum. Thank you.
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Does expose the hypocrisy of the AP. By the way I have to ask, since this is an issue I usually disagree with most WN on. In the Malkin article she names and pictures the 22 members of the AP board of directors. How many of them are Jews? I don't count very many, though I could be wrong...
 </t>
         </is>
       </c>
@@ -2753,19 +3229,23 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>78.77</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Somebody said: 'I'm actually a little surprised Michael Weiner pulled the jew card.' I think Savage /Weiner is the kind of guy that would say such a thing actually meaning to mock this whole Jew thing. He would be the first one to turn it against them if they make some stupid mistake answering the accusation. I don't think it is necessary to put down each and everybody just because they are Jewish. Of course someone being Jewish is a sign to stay alert and be prepared for all kinds of things. But so far I think he's one of the good guys. I can always change my mind when something new turns up, so no need for desperate paranoia.
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hating homosexuals is not really what I do, I do hate the 'gay-pride'-scene. However I want homos to stay away from me. And that they should keep their homosexuality to themselves. I also think it's rather a genetic malfunction than a mental illness. So I think the 'keep it for themselves' option corresponds most to my vision. I also think homosexuals who make those annoying and disgusting homo-porn movies should be arrested and punished properly. Sick bastards, their is no pride in a genetic malfunction. To the guy who thinks homos are good because there is less competition over women then... What do you think of lesbians?
 </t>
         </is>
       </c>
@@ -2773,7 +3253,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2783,9 +3263,13 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NEWS TICKER source UNITED NATIONS: ISRAEL WOULD NOT ACCEPT INCLUSION OF ENEMY MUSLIM STATES IN UN FORCE: ISRAELI FOREIGN MINISTER LONDON: 23 SUSPECTS IN TERROR PLOT TO BE KEPT IN CUSTODY THROUGH NEXT WEEK: BRITISH COURT PENNSYLVANIA: EARLY WITHDRAWAL OF US TROOPS FROM IRAQ COULD RESULT IN A "TERRORIST STATE" WITH VAST OIL RESERVES: PRESIDENT BUSH BEIRUT: DEPLOYMENT OF GOVT TROOPS IN SOUTH WOULD END "MENTALITY OF STATELESS": LEBANESE PM FUAD SINIORA LONDON: CEASEFIRE BETWEEN ISRAEL AND HEZBOLLAH IS "PRECARIOUS" AND "FRAGILE": UN DEPUTY SECY-GEN. PARIS: FRANCE READY TO COMMAND LEBANON UN FORCE UNTIL FEBRUARY: DEFENCE MINISTER NABATIYEH: LEBANESE TROOPS HEADING TO DEPLOY NEAR BORDER WITH ISRAEL IN COUNTRY'S SOUTH
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We've had lots of WWII Nazi stuff in the store over the years, including arsenal-marked pistols, medals, arm bands, etc. Very few objected at all and my attitude was that many of these items are trophies of war - a lot of good men fought and died on both sides and an old medal or pistol might well have been taken from the body of someone's son, father, husband, who made the highest sacrifice for his country and kin. We honor the memory of those slain by treating these "spoils of war" with the respect they deserve, regardless of the nationality. If one objects to the political disposition of that fallen soldier's country of origin then honor the MAN - he deserves at LEAST that much.
 </t>
         </is>
       </c>
@@ -2793,7 +3277,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2803,9 +3287,13 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes, and that's one reason I fell out of my seat laughing! You are, of course, correct, just like Jon Stewart (formerly known as Jon Stewart Leibowitz) is perhaps the only one on TV who can makes jokes about Jewish power and influence in Hollywood, and the Jewish stranglehold over our politics in Washington, DC. It's crazy, I know. You ever listen to the stuff Rush puts out as supposed humor? Or the stuff that Republican hacks used to scream out at MCain rallies about Obama? The crack about Rush being so strung out on dope that he missed his flight was especially funny given Limbaugh's drug war militancy. Perhaps the Repugs can dish it out but not take it. I tend to laugh at material that's over the top, stuff that other people (of whatever political stripe) say "oh that's terrible, how can you laugh at that!" I found her sketch hilarious, I totally ROFLMAO, and I don't care whether anyone here agrees or not.
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You may like this artice... VDARE.com: 01/10/07 - Do We Need More Hispanics? I agree that it is wise to primarily focus on Jewish Supremacism at the moment but I do not believe it is wise to completely ignore the effects of radical Islam on Euro society. How do I tell the Australians to forget about the Sydney and Ashfield Gang Rapes or the Lebanese thugs abusing their women on beaches? How do I tell the French police to ignore their 2,500 man casualty rate?
 </t>
         </is>
       </c>
@@ -2813,7 +3301,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2823,9 +3311,13 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actually, Victoria, middle school children are 12 and 13 years of age, while 14 and 15 (unless deemed retarded) are freshman/ sophmore high school students... then again I noticed everyone's wonderfully silly replies then again...very true replies *clears throat* boy do I need mace...and to train in a defensive art...then again a gun works wonders
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Another parallel between Himmler and Devi is betrayal of those close to them: Hitler ordered Himmler whom he described as 'Little Heinrich' to be shot for his betrayal of the Fuehrer during the closing stages of WW2. Himmler had gone behind Hitler's back to try to seek a peace deal for himself instead of doing as instructed by the Fuehrer. Hitler promptly stripped Himmler of all offices and ordered his arrest Mrs Savitra Devi Mukherjee (a miscegenating French woman who dropped her European name and her drawers to marry an Indian and 'went native'); betrayed her European heritage by 'going Indian'. Arguably she also betrayed her Indian husband Mr Mukherjee too, if she had a crush on Ghandi.
 </t>
         </is>
       </c>
@@ -2833,19 +3325,23 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>70.28</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sorry, but I just don't get or understand the problem with circumcision. Did it hurt? I'm sure it did. However, as an infant, I'm sure the birthing process didn't feel good either. Does that mean that to stop the pain of being pushed through the birthing canal, we should automatically use a C-section? On top of that, infants will not remember that pain.....ever. I don't buy into the pain justification. I have been told that there is loss of sensation when a man is circumcised. That is a fallacy as well. That particualar area of the body is sensitive, believe me. Could there be a lessoning of sensation? Could be, but I believe most women could appreciate that for obvious reasons. Either way, if I don't know the difference, what difference does it make? Are there possible health risks from being circumsized? Yes Are there possible health risks from NOT being circumsized? Yes Ultimately, I just feel it's a personal choice of the parents. I have no problem with an infant (within a day of birth) being circumsized. After that? Nope. Forcing a 7 year old (somebody used this example) to be circumsized is cruel and barbaric.
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Go away??? You come to OUR website, our internet community and you tell us to go away??? Are you stupid or something? We aren't in your face, we aren't in front of your house protesting. By all means, screw all the negroes you want to, you are only hurting yourself and your descendents. But if you are going to talk utter crap like that, telling us to "go away", then what the Hell are you doing here moron?
 </t>
         </is>
       </c>
@@ -2853,19 +3349,23 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>97.01</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Millions of women victims raped by Russian soldiers during the last months of World War II. Anthony Beevor's book "Berlin -- The Downfall 1945" documents rape by Russian soldiers. "Beevor's conclusions are that in response to the vast scale of casualties inflicted on them by the Germans the Soviets responded in kind, and that included rape on a vast scale. It started as soon as the Red Army entered East Prussia and Silesia in 1944, and in many towns and villages every female aged from 10 to 80 was raped." The author "was 'shaken to the core' to discover that even their own Russian and Polish women and girls liberated from German concentration camps were also violated." He estimates that "a 'high proportion' of at least 15 million women who lived in the Soviet zone or were expelled from Germany's eastern provinces were raped." Until recent years, East German women from the World War II era referred to the Red Army war memorial in Berlin as "the Tomb of the Unknown Rapist." http://www.religioustolerance.org/war_rape.htm enjoy the russkiy sperm...
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And listening to her tell us how to think or what she thinks is wrong with how we speak is better than the media actually covering whats happening? They air her vs airing actual new &amp; that this truly is Islamic terrorists placing bombs in our nation. But that would ruin her agenda. _______________________________________________ WAKE-UP, NOW STAND-UP, &amp; FIGHT TEXAS!!!
 </t>
         </is>
       </c>
@@ -2873,19 +3373,23 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the end, jews are essentially committing slow suicide by seeding Western nations with their natural enemies, the Moors--HLM: Paris: 85-Year-Old Lampshade Stabbed And Burned To Death Inside Her Apartment, Moslems Suspected Paris: 85-Year-Old Lampshade Stabbed And Burned To Death Inside Her Apartment, Moslems Suspected – Occidental Dissent From Waaay Out West, --HLM
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Google "Gracie Challenge" for the answer. BJJ is the only martial art that provokes this kind of reaction. Boxing? oh yeah, you'll be ready. Kickboxing? Works for me. BJJ? You'll get monkeystomped by 15 groids. Bonus is I know 99.9% of those knocking it haven't ever put in the time to put on even a single white belt beginner bronze BJJ medal.
 </t>
         </is>
       </c>
@@ -2893,19 +3397,23 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Republican congressional candidate James L. Hart acknowledges that he is an "intellectual outlaw." He is an unapologetic supporter of eugenics, the phony science that resulted in thousands of sterilizations in an attempt to purify the white race. He believes the country will look "like one big Detroit" if it doesn't eliminate welfare and immigration. He believes that if blacks were integrated centuries ago, the automobile never would have been invented. He shows up at voters' homes wearing a bulletproof vest and carrying a gun, and tells them that "white children deserve the same rights as everyone else." Despite his radical views, Hart may end up winning the Republican nomination because he is the only GOP candidate on the ballot in Thursday's primary. Story: http://www.newsday.com/news/politics/wire/sns-ap-eugenics-candidate,0,1878124,print.story?coll=sns-ap-politics-headlines
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note the profane T-shirt worn by Jew enabler, or at least reality challenged, suicidally inclined white libtard. I believe California state is irreversibly lost. I await the time of reckoning, when self-hating white libtards, including judicial tyrants, finally receive the taste of their medicine, including my Obama-voting liberal, race-traiting sister. (We don't talk anymore)
 </t>
         </is>
       </c>
@@ -2913,19 +3421,23 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>74.67</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All the foreigners who live in United Kingdom do resent the British I think that's the reason why they come here. I have no problems with Adolf Hitler because he stayed in Austria and Germany unlike this Serbian C***. I'm not a football fan but I'd like to see the English Premier League full of just English players got a problem with that?.
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the Swiss mountain village of Trollenberg, climbers are mysteriously disappearing on the mountainside. A nearby observatory detects a cloud on the mountainside which gives off radioactive readings and never moves. One of two English sisters who form a psychic stage act receives a premonition of great danger associated with the mountain. As the cloud starts to move down the mountain, killing people along the way, the astronomers realize they are dealing with an invasion of aliens who have come from a dying world and have selected the mountainside’s cold as the environment which most resembles their home planet. Anybody else remember the spine chilling film of the Trollenberg Terror? with its period English nuances and fine acting not least from the 'thing' moving about on the mist capped peaks . Filmed entirely at Shepperton Studios?
 </t>
         </is>
       </c>
@@ -2933,19 +3445,23 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>99.32</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certainly not, if all they were doing was marching against the war in Iraq I don't see why they should be on Redwatch atall - that site is to catalogue information on our enemies. ISTM, it is not being done in a careful enough manner so as to screen out bystanders - participants in a march against the war in Iraq cannot be assumed to belong to the enemy - most of us here are against the war in Iraq.
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Banking would have came along with out the Jews. The only problem with banking is the usury the Jews apply it with. Banking is something the White race can do without screwing people over. The Jews just used it for a terrible purpose. It's not evil itself. It's like a gun, it's only dangerous as the person behind it.
 </t>
         </is>
       </c>
@@ -2953,7 +3469,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2963,9 +3479,13 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A 3".410 000 Buckshot has 5 .36 cal. pellets, in a shotgun the will be traveling somewhere around 1200fps. For comparison a 9mm +P is anywhere between 12-1600fps. In a pistol you will loose some muzzle velocity, but it still hurts. I personally don't care for a Judge, but a .45 colt has been devastating things for a long time.
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actually, jews, both religious and secular, hate all non jews, it's the core around which their whole identity was built. They're taught to despise and take advantages of Goyim or "gentiles" any way they can from childhood. In their Talmud, they call us "filth" and "animals" worthy of slaughter. They're specifically targeting whites for elimination because they're very afraid of them. To simplify: you have a core group of Big jews like the Rothschilds, Sumner Redstone, George Soros etc...who control things behind the scenes, and the rest of Jewry is actively helping them advance their agenda thru diverse means, like infiltrating every sector of society, hiding their true identity and motives, and then promoting other jews to positions of wealth and influence. They think and act like a hive. I mean, look at figures, they're like 2% of US population, yet they're grossly over represented in politics, business, entertainment, academia and in the top positions no less, and really I don't think it was thru merit alone. By destroying whites, they're destroying their main rivals for power. You should read Books by Kevin MacDonald ,"A People That Shall Dwell Alone" is a good intro into the Jewish mindset.
 </t>
         </is>
       </c>
@@ -2973,7 +3493,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>99.32</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2983,9 +3503,13 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Banking would have came along with out the Jews. The only problem with banking is the usury the Jews apply it with. Banking is something the White race can do without screwing people over. The Jews just used it for a terrible purpose. It's not evil itself. It's like a gun, it's only dangerous as the person behind it.
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://news.yahoo.com/s/ap/20100825/...nuremberg_laws Hitler’s segregation policies lead to the killing of Jews. Umm, not quite. So were the Jim Crow laws a framework for killing millions of US negroes? Segregation laws that forbid interracial marriages do not automatically lead to genocide. But the Jews say it does, because you know, they said so. Israel ought to inspect their own process of marginalizing the Arabs. I guess that the Jews are committing a holocaust against the Arabs as well.
 </t>
         </is>
       </c>
@@ -2993,19 +3517,23 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>55.36</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yeah she is a Jew, but that is besides the point . The fact is judges can do this and the mask hysteria is insane . We the people have to do something bout these tyrannical Marxist and Zionist judges. IÂ’m thinking, giving them the same treatment the outraged Hungarians gave the AVH.
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What else can Ordinary People do? apart from teddy bears, flowers and scarves? They don't hav the Power, the Authorities do! Ordinary People don't hav the Power to closed down dirty Mosques or kick out Muslims who break Laws, they can only make these emotional-release and show-support Gestures, like putting up flowers or tying scarves to railings, or changing their profile picture on Facebook.
 </t>
         </is>
       </c>
@@ -3013,19 +3541,23 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>97.84</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Whatever. No one bothers you people. It's you Hispanics killing blacks for no reason. Blacks have been here since our ancestors were kidnapped and bought here and tortured for years and years. Save the lies. You're a gang banger trying to get the white man help you kill. You don't belong here.
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... and it turns out the bagels were probably actually developed by Slavic gentiles, or ancient Egyptians: --https://en.wikipedia.org/wiki/Bagel -- A short history of the bagel. - Slate Magazine The Jews do tend to do a little piecemeal science but its usually totally dependent upon and within a cultural paradigm devised and maintained by Whites.
 </t>
         </is>
       </c>
@@ -3033,19 +3565,23 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>70.28</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Go away??? You come to OUR website, our internet community and you tell us to go away??? Are you stupid or something? We aren't in your face, we aren't in front of your house protesting. By all means, screw all the negroes you want to, you are only hurting yourself and your descendents. But if you are going to talk utter crap like that, telling us to "go away", then what the Hell are you doing here moron?
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I could never understand how such intelligent people could eat up the "anti-semitism" defense. I mean what does it even mean? It's trying to say what? That people are born with hatred for Jews? It's a reaction to behavior. I'm not sure how this foolishness ever gained such ground with intelligent people. In fact I'm going to create a thread asking leftists what it means.
 </t>
         </is>
       </c>
@@ -3053,19 +3589,23 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>98.6</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your choice, I’m just pointing out that Aristotle wouldn’t have agreed with what you perceive as democracy, indeed its quite strange how many supporters of "liberal democracy", the theory or spirit of it at least, look to ancient Greece when Greek views of democracy were often far different in ideology, in fact Greek views of democracy aren't a million miles away from the reality of democracy as Aristotle explained in his mixed oligarchy/democracy model.
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wait until it becomes time to take our country back from these third world vermin. They honestly believe that they are entitled to come here and stick their filthy diseased hands into our pockets and worse. If we got rid of them, how many jobs would open up for Whites? How much higher would the standard of living be for the White man if he didn't have these rat bastards with their gargoyle women and subhuman monkey babies draining the infrastructure dry? I'm sick of hearing their jibberish whenever I'm at the store or in a public building. For such poor people, they seem to be fat and have all the expensive gadgets that I cannot afford. I hate the illegal brown turds. They all make me sick.
 </t>
         </is>
       </c>
@@ -3073,19 +3613,23 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>62.98</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When I was at work last night, I flicked through a tabloid and one column caught my eye. It claimed that the B.N.P. are using an Islamic printing firm to publish the Voice of Freedom. Is this true? If so, I suggest they invest some finances in producing their material on their own rather than relying on non-White, non-welcome profiteers. 3702-M
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Democratyc party has issued an "order" for their members to "collect" at least 200 people which would vote for jewish scum Labus. And on they of voting, to remind those people to vote for jew. Among other things they were instructed to take names, numbers from documents. It looks like they are preparing electoral theft. Watch out for dirty jewish tricks. Now, that is against the election law, since there has to be election silence 72 hours before voting, so people can make their minds and vote. Acceptable choices are Kostunica and Seselj. ------------------------- DS je naredila svojim clanovima da naprave spiskove od po 200 ljudi koji bi glasali za Labusa. Ime, prezime, JMBG i broj licne karte. Naravno, sa svim tim podacima lako je napraviti izbornu kradju.
 </t>
         </is>
       </c>
@@ -3093,7 +3637,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3103,9 +3647,13 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I've got to hand it to the USA man. When George Bush was elected TWICE I lost all hope and respect for the average American. But I convinced myself that on the bright side, there's no way in hell you could find bigger moron than George dubya. Seems you did. I'm amazed. I mean, do you guys have a special school that teaches people to become this moronic or are these guys just naturally gifted?
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am not sure what you expect to gain here. Are you the NSM? Are the reps in the picture not what your group has sent forward to us as your representatives? They apparently think they are. Why don't you start an NSM thread and just get the hell out of here? You are causing way more divisiveness than you claim to be out to repair.
 </t>
         </is>
       </c>
@@ -3113,7 +3661,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3123,9 +3671,13 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yeah right and you probably look like something I flushed an hour ago. However, I heard you can fight! Apparently you really know how to wield a mean purse! At least my mother had children with functioning brain cells; yours cannot make that claim...unless you have siblings of course. Forgive us not everyone can have a boyfriend like you have...SIR! I think the Russians had a tad more to do with the allies SURVIVING that war then a small band of Carribean black dudes from some irrelevant colony. Or you describing Hitler or you describing your ideal man...SIR!? Such as? Ouch! Those high heels would hurt like hell! How do you kill them?...Disrobing in front of them?
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They live in the poorest areas of Argentina, where the HDI and GPD per capita are very low because there's no industries, they have to move in a city like Buenos Aires or Cordoba to try a new live, the place where they live is forgotten by gods, there's nothing to do, it's sad to see and very white country at these conditions, anyway argentina is not a 3 world country, a would say that's a 2 world country.
 </t>
         </is>
       </c>
@@ -3133,19 +3685,23 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>82.34</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hey all; i'm in north county for the summer .. have only met one pro-white person in my life other than my late grandfather, and that was years ago. if any meetups / social gatherings will be happening, please let me know! i have no friends here, my summer consists of working and nothing else so far ... i'm also a noob trying to learn some happy 4th! 22270
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The thing is that doesnt most crime come from blacks in the UK rather than Muslim Asians? Fair enough in not liking Salafi Islam but what about the greater evil of "Yardie" and "Hip Hop Gangsta" culture? The reality is that English kids are much more likely to become corrupted by listening to rap music than they are going to become fanatical Jihadists through reading the Koran.
 </t>
         </is>
       </c>
@@ -3153,19 +3709,23 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>84.12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michigan State Police looking for man who repeatedly used Bay City woman's stolen ATM card mlive.com, November 21, 2012 Michigan State Police looking for man who repeatedly used Bay City woman's stolen ATM card | MLive.com Police are asking for the public’s help in identifying a man they say broke into a Bay City woman’s car, stole her ATM card and then made several fraudulent transactions with it. {}
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very foolish of them to use a term like that. Do they really think insulting White people will make them listen? This type of thing is only going to push more Whites to our cause! And by the way we all know who is the most fragile here, it's the jews. Any criticism of them and they begin to cry! Jew Fragility!
 </t>
         </is>
       </c>
@@ -3173,7 +3733,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3183,9 +3743,13 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My background is British, and I support the British National Party 100%. They allow Jews to join, and I have no reason to disagree with that policy. To me, you sound like a child that's afraid of the bogeyman; and that's because you've built up the Jew into some sort of supernatural being that can outsmart and control any white person. I'm a realist and want the BNP to be a successful political party. That's the only way we're going to actually get anything done, and I'm not interested in your idealistic WN fantasy. Anyway, as an experienced WN, what exactly would you say is best plan? Have you got a political party to recommend, or what?
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The EU in its present form want aboloshing. It is a corrupt organisation run solely for the benefit of the multi-nationals. People in Portugal have a slight Negroid ad-mixture not much. In Spain there was arab-black blood especially in the southern Spanish families. The Spanish authorities recognised this though and in 1609 Philip III expelled the "Moriscos" or Christianised Moors. Around 250,000 were physically removed solely on the basis of being mixed race. As a result although a number of Spaniards do still have Arabic blood they are insignificant. So me a 5' 11 inch blue eyed, pale skinned Englishman with admittedly black hair would be mistaken for a Moroccan? I do not think so some how. What??? You can quite easily distinguish a Nordic European from a southern European normally. There are exceptions but these prove the rule.
 </t>
         </is>
       </c>
@@ -3193,7 +3757,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3203,9 +3767,13 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">And even those ones were white. The point of this thread is to show, that nazism is not about hating other races. A black and a white person can be friends. But what nazism is about, is having different races live on different territories under different rules, for integration always leads to mutual hatred.
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So much so that girls are no being instructed in school that gang membership is an open invitation to rape. Something is being lost in translation here... we have Rape Gangs opperating openly on the streets of Britain and no one is rounding them up. It is a disgrace when the only counter measure against rape is to tell girls to avoid gangs. Where do these do-gooders live? Some areas are ruled by gangs of rapists. Rapists should be sterilised.
 </t>
         </is>
       </c>
@@ -3213,7 +3781,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>41.82</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3223,9 +3791,13 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It's still on the board. While our Presidential candidates dazzle us with smoke and mirrors and make issues out of things as inconsequential as stem cell research we're being invaded, occupied, displaced and dispossessed by hordes of third worlders. Immigration is something that we really need to focus on. I can speak for New Jersey and say that we're being overwhelmed by Mestizos, not to mention Hindus, Sikhs, assorted towelheads, Chinese, you name it, we got it. Since the mainstream political parties won't dare mention immigration out of fear of losing the Hispanic vote it's an issue that we can claim as our own.
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This could be an interesting development. I will be waiting and watching to see what steps are taken here, particularly if there are British or US nationals among these men. The company is registered in the Channel Islands, that must make it a British company? I see one British national may already be under arrest there. Will this hit the British media? Will our govt step in? Mugabe grows more arrogant and our govt more cowardly in its response. Keep an eye on this situation, it will be telling to see what happens.
 </t>
         </is>
       </c>
@@ -3233,19 +3805,23 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>99.8</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Being new here I'm still trying out my new freedom wings. It's very difficult (where I live) to find white women who are willing to stand up and say they are white and proud of it. As a mother I would love to be able to have a "group" of friends to meet with, talk, discuss and have a support system for the problems with raising white children in a racist community. There are so many concerns when it comes to raising children and it would be great to have some older, more experienced white women to bounce idea's off of and get advice from. I think that more often than not women are overlooked within the white pride movement. Yes the men are important but the women are just as, if not more important. Young children base their feelings and experience on the mother. Most children from the age of newborn to about 5 years of age spend 80% of their time with their mother. I think it's important for white women, especially mothers to have a white support group available to them.
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unfortunaly the Social Democrats are as they were in pre Third Reich Germany still in charge of the media and they WILL put their hate mongering spin on the rhetoric that they publish. The only way to control that is to wrest control of the media from the hands of the KIKE ! ! ! By whatever means necessary.
 </t>
         </is>
       </c>
@@ -3253,7 +3829,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3263,9 +3839,13 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seems like a good excuse for Britain to stay more powerful than others. Meaning they would not allow smaller countries to become as powerful as them. Of course, but what matters is that England went along with it and committed treason whether they knew it or not. I'm not really surprised that something like this would be even proposed in Britain, it is a travesty, indeed. Well, of course I'm sure they would but they would not do much with just two BNP MPs in the parliament and nationalists in America are virtually unrepresented.
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you want to know what is going to be the end result in SA look at the SABC and what happened there. In the end the board totally collapsed and now the SABC is facing a strike by the employees,which will result in temporary shutdown. This is exactly where the rest of the country is headed. The answer as to why this happens all over the dark continent is simple. The negroid is not created to be in a leadership position and cannot function on the level of the WHITEMAN.
 </t>
         </is>
       </c>
@@ -3273,7 +3853,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3283,9 +3863,13 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For those of you who believe the "burn victim's" story, can you please explain how fiery jet fuel found its way from the 90th story of the WTC tower down to the main lobby? Did it make its way to a local elevator shaft, and then, from there, make its way to the upper skylobby where it transferred to an express elevator shaft to the lower skylobby where it transferred to yet another express elevator shaft down to the street level lobby WHERE IT SAID TO ITSELF: THIS IS WHERE I GET OFF EVEN THOUGH THERE ARE SEVEN LOWER LEVELS BELOW THE MAIN LOBBY??? Jeremy Miller
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guitars signed by Ted Nugent, along with guns, reported stolen in home burglary mlive.com, October 12, 2017 Guitars signed by Ted Nugent, along with guns, reported stolen in home burglary | MLive.com ST. JOSEPH COUNTY, MI -- Police are looking for thieves who broke into a St. Joseph County residence and stole numerous guns as well as electric guitars, some autographed by rocker Ted Nugent. {}
 </t>
         </is>
       </c>
@@ -3293,19 +3877,23 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I do admit that some non-white racial extremist groups take Liberalism into a bad light. But for the most part, Liberal's are just like WN's although with different view points. I think the 'linear thinking' types of people you are thinking of are organizations such as 'The Black Panthers' and Jessie Jackson and these types of extremists. Liberal's are not like that, we do not use the name of Liberalism to push any agenda.
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is true - I am hesitant to passionately embrace anything with the jewneocon media and $$$$$big buck insurance stock money behind it. As much as i despise Pelosi and everything she stands for, Id bet money if Obama had come out 100% in favor of new West Bank settlements, and bunkerbusting Iran nuke energy, you would see about 50% of the 'grassroots" evaporate, and Sean Hannity muzzled. Just my opinion.
 </t>
         </is>
       </c>
@@ -3313,19 +3901,23 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Most of North Americans and Europeans consider Latins as a race, but latins are ******s, jews, meztizos, indians and ARYANS, but they think that latins are only meztizos and ******s, and these two races don't even represent the 30% of latins, also they think all the latins are wiggers, and they aren't. If you go to any country in Central or South America you will see that rascism is bigger than in the U.S or in a Nordic Country, and a white latin is more proud than any nordic country. So we should start fighting for a world wide recognition of a white latin race.
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The filthy corporate whores are the ones who went to the government, I don't like booms and bust cycles and people losing everything they own because the garbage free market dictates it. Capitalism is just a form of slavery where the people lose everything they earn constantly so a few of the rich can later enslave them again and make the center of their lives to work to make someone else rich. It needs to be gotten rid of and replaced with National Socialism or distrubitonism.
 </t>
         </is>
       </c>
@@ -3333,19 +3925,23 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>78.24</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think it will blow up in their faces. Nothing lasts forever. If Jews were able to achieve some world domination they would have done it centuries ago. They keep trying, causing problems, and get exposed, regroup and try again. They operate against Nature and it just cannot last. They have already revealed themselves in full retard mode and lost media control--so important to their mode of operation. People don't trust the media--especially young people. A few cities are nations may implode but they will become no go areas and eventually be targets for clean up in a time when the diversity philosophy will lose its power. Already happening.
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lately, appearances on the televised news by politicos have been scarcer than ever, almost zero... even less than at the time of the original post. A few days ago, news coverage of the death and funeral of actor James Gandolfini seemed to dominate the airwaves ad nauseum. Apparently, the newscasters had not much else with which to fill airtime, not being able to rely on their old standbys, the politicos. Maybe all of this has to do with Edward Snowden and the secrets that he can potentially bring to light. Who knows? P.M.
 </t>
         </is>
       </c>
@@ -3353,19 +3949,23 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[QUOTE] Certain Jewish Rabbis have admitted that Judaism is not a "Religion", it is a way of life. A code of Law. A Code that puts Jews at the summit of humanity and non-Jews as beasts of burden to carry out their orders. As the numbers of Aryans being sacrificed in the Middle East for their benefit testify. JU88.
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Animals should be dealt with the way animals are dealt with; force and fear. Unfortunately, the leftists don't seem to agree with any of this. I say send these moors and gypsies to jail, let them be some negro’s wife, then off them, out in the public. Maybe that will teach any more animals (and I’m including some white low life trash here as well) to think it twice. What a wasted and worthless world...
 </t>
         </is>
       </c>
@@ -3373,7 +3973,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3383,9 +3983,13 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I was re-reading "My Awakening" chapter 22, last night. Israel: Jewish Supremacy in Action. An account of the attack on the USS Liberty is near the end of the chapter, it got my blood boiling. The Jews are ruthless, manipulative, cunning, racist beyond our Goy imaginations. The blood of a million Goy is not worth the thumbnail of a Jew. http://www.front14.org/tsun Nothing would surprise me when it comes to Jewish manipulation of world history/events. As far as the WTC incident, besides the stench of 5000 decaying, mostly white bodies, the smell of schmalz hangs heavy in the Manhattan air. Lawdog Links not working. It gets overloaded sometimes.
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">His position has been that for awhile, that if the Palestinians agree to a solution he will support it. But he knows that this probably will not happen since many Palestinians want all the land that was taken from them and not just half split up with the Jews. He made the exact same statement in the Spiegel interview.
 </t>
         </is>
       </c>
@@ -3393,7 +3997,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>74.67</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3403,9 +4007,13 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unfortunaly the Social Democrats are as they were in pre Third Reich Germany still in charge of the media and they WILL put their hate mongering spin on the rhetoric that they publish. The only way to control that is to wrest control of the media from the hands of the KIKE ! ! ! By whatever means necessary.
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">All the foreigners who live in United Kingdom do resent the British I think that's the reason why they come here. I have no problems with Adolf Hitler because he stayed in Austria and Germany unlike this Serbian C***. I'm not a football fan but I'd like to see the English Premier League full of just English players got a problem with that?.
 </t>
         </is>
       </c>
@@ -3413,19 +4021,23 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"We will openly reveal our identity with the races of Asia and Africa." I don't see the jews controlling China, Japan, Korea (n or s), Indonesia or any asian country with millions of fanatical young men armed with AKs, nor jews controlling any oil or mineral producing country in africa that can use its vital commodities for political extortion. I do see jews as being disproportionate go/no-go bottlenecks in media, academia and politics where small numbers have influenced the flow or tenor of news, opinion and knowledge - "political correctness" - but as a prior poster noted, the internet (and now texting) has changed that .
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm quite sure when the jews saw that, they just smiled, patted themselves on the back, knowing full well that the White people on the bus were terrified to even so much as tell the africn to shut up, or even go back to africa. When it's so in your face as this, you can only presume we are well on our way to White Genocide. I am beginning to think our people will just roll over and die, rather than stand up and throw off this death-yoke.
 </t>
         </is>
       </c>
@@ -3433,7 +4045,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3443,9 +4055,13 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The fact is it is the White soldiers who are doing most of the front-line fighting, the Blacks are held in the background. That is a fact. Yet in the media of course they are always interviewing the Black guy in the front lines. "According to a report from the federal Government Accountability Office last week, as of May 28 this year, the majority of the soldiers and Marines killed or wounded in Iraq and Afghanistan were white, enlisted personnel from active-duty units. According to the GAO report, whites constitute 71% of the fatalities while representing 67% of all active-duty and reserve forces. African-Americans, who are better represented in the military than in the civilian work force, represented just 9% of fatalities; blacks make up 17% of the overall forces."
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why? Is Malema gonna come for you then? BTW I have heard that malema's heir apparent in ANCYL has exactly the same views as him... but he is a lawyer and knows how to talk down but stay with the programme... just as much a foirebrand and also from Pietersburg and a SePedi to boot... Another gevaarlike kaffer BUT tempered with a dangerously mild manner I think he is far more dangerous than bobbejaanbek...
 </t>
         </is>
       </c>
@@ -3453,7 +4069,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>26.97</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3463,9 +4079,13 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wow, talk about self righteous horse****. You've lost all credibility in my eyes, O Superior White Brother Jack Boot. Contrary to what you believe, we lemmings are free thinking individuals quite capable of independent thought. You can come up with whatever ZOG inspired multi culti conspiracy theory to explain away our supposed brainwashing if that justifies your self importance, but the simple truth is that we just agree to disagree, nothing more nothing less. No one is above reproach, "brother". Stop acting like a tool.&lt;br&gt; And, oh yeah, didn't TJ contribute to the african american gene pool?
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My personal opinion, or as some write IMO ( ) is Croats and Serbs should work together on protecting our race, since we have no other choice. We had our wars. I think it was enough blood to soak jewish dry money over decades. We are infidels for moslims, and goyims for jews. They do not make any difference if somebody is croat or serbian. Do we have to make their job easy and comfortable? Or should we fight them together ?
 </t>
         </is>
       </c>
@@ -3473,7 +4093,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3483,9 +4103,13 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">greetings all, Are there any musicians living around the Cape Town area interested in working together on music with a strong white pride message. I'm not really interested in skinhead rock but rather an accoustic rock sound. I already have a top-class drummer so I'm looking for guitarists and someone who can play keyboards and hopefully the piano accordian as well. I'm hoping to bring as many traditional Aryan sounds in so if you can play flute, bagpipes, Uillean pipes or the violin, please give me a shout. Also, if there is anyone on this forum who understands electronic Trance music and Fruity Loops or some other programme, I would love to hear from you. There is a desperate need for this kind of thing in South Africa and I believe there is a huge un-tapped market out there. Don't worry about exposure at public gigs as I plan to create this music and distribute it without neccessarily exposing who the musicians are. 1488
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Speaking of false flags, get a load of the "Liberty Torah" , which supposedly honors all the dead kids in the military. http://www.venturacountystar.com/new...andwritten-us/ "This is the least that we feel we could do in the beautiful tradition that we're in the current of," said Rabbi Dov Muchnik, director of the Chabad of Oxnard, who led the ceremony. "This is a moment of togetherness we hope we have embodied here." (where's the puke icon?) The Torah is considered the word of God as told to Moses on Mount Sinai.
 </t>
         </is>
       </c>
@@ -3493,7 +4117,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -3503,9 +4127,13 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">U.S., Europe caught in ‘death spiral’ of declining birth rates "Corcoran said. “It has been drummed into the heads of American college girls since the early 1970s that we should only have two children because of the growing world population. But who never listened to this propaganda? Pretty much all of the Third World and the Islamic world.” Rep. Steve King, R-Iowa: "Wilders understands that culture and demographics are our destiny. We can't restore our civilization with somebody else's babies." Globalists can’t have it both ways: Encouraging family planning, more women climbing the career ladder and having fewer children, then complaining about the aging population and smearing the reputations of everyone who balks at the idea of seeing their city, their state, their nation transformed into an Islamic enclave." .
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My Toyota is White! It has a little red National Alliance sticker in the corner of the windshield. Had GM products for forty plus years. I like my Toyota. I hope that the Jappanese never reduce themselves to a dysgenic Multicultural existence. Careful there, Troy. I'm not certain, but I think that it was the Long County Rebel that you saw in that truck.
 </t>
         </is>
       </c>
@@ -3513,7 +4141,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3523,9 +4151,13 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I suppose that's a matter of emphasis. I take my national identity as part of a complex web that also includes upbringing, religion, morality, culture, language and even class. How much these mesh to a greater and lesser degree in each of us is certainly open to debate. I regard racial identity as very important but I don't take the reductionist extreme biological PoV that it is everything. An amoral irreligious pro-commie anti-English aristocrat of the highest white racial pedigree is not my Brother. He is not my Comrade in the way that this brave patriotic lady is. His racial heritage counts for nothing in this instance.
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This Iranian isn't an Arab, I doubt he has any Arab blood in him. He is Persian. There is a reason the Persians renamed their country "Iran" - to stress the Aryan blood and cultural heritage of their country. Persian became Muslim because of Arab Muslim conquests, the same way Hindu India become Muslim. There is still good high caste (white) blood in both Iran and India.
 </t>
         </is>
       </c>
@@ -3533,19 +4165,23 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>59.84</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well that is how we feel entirely. Not all criminals are blacks and not all blacks are criminals, but an undeniably and totally inappropriate number are. Which is why we do not wish to associate with them and have them in our lives. Personal safety ? if you worry about that sure enough in my country we could take out the 15% blacks and put an end to 70% of the crime. Rude people ? I do not much care for them myself, if we wish to not associate with rude people that is another easy fix, take out the blacks and you get a much more polite and cohesive society. It is just like you said about yourself as a person, you do not wish to have contact with some types, whilst freely admitting not all our blacks are criminal and offensive, more of them than is acceptable are. Hence my view that not having to encounter the bad ones would be worth losing the contact with the good ones.
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lets not be too uncharitable . They have made inventions but those inventions have not always been to the net-benefit of civilisation: Examples of black inventions include the New Guinea sauce or relish that was marketed as 'Cannibal Chutney'. Then there's that aural balm for the tone-deaf known as 'Rap Music'. Blacks have also added greatly to the Lexicon of Weaselry in common currency with politicians and have invented the peculiar notions of 'Institutional racism' and 'Blanket Black Asylum - to exclusively benefit Blacks' . Blacks have even aided the development of a whole Service Industry - The Race Relations Industry'. Looking at the 'Black Inventions' in this thread, its clear that mankind would be doing just fine - if wasnt having to support the worlds Dependent Blacks along the way. The best 'black invention' was made by white folk anyway?: Anyone still use ZEBO ? (Reckitt and Coleman's GRATE BLACK invention - see link http://www.eight.demon.co.uk/html/info-p2.html )
 </t>
         </is>
       </c>
@@ -3553,19 +4189,23 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>98.07</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are limits to your people's capabilities. You're a racially homogenous nation of 1.3 bilion people. Any homogenous population that large with an average I.Q. over 90 and a generous amount of resources at thier disposal will likely make rapid gains in a short amount of time. America proved that fifty years ago, Germany did it before them and Britain proved that for centuries. Don't forget that while you were still clutching onto your backward ideologies, white populations around the world were busy inventing such useful little things that make our lives easier...like nuclear fission or quantum physics. For your sake, I hope you keep your race homogenous and clean from jews. Once the two of you are indistinguishable, it's all over.
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We are fighting your war, and most importantly we are paying for it...Those same workers that you say are 'benefiting' from the military industrial complex that support Israel are also being taxed to pay for it. Israel is the number one benficiery of American foreign aid... Jews like yourself say you are helping us while at the same time receiving large payments of cash courtesy of the American tax payer. Since 1985 Israel has been receiving 3 billion annualy in foreign aid. That is what is paying for all of those pretty jets there buddy. Sorry, but we dont need your kind of help.
 </t>
         </is>
       </c>
@@ -3573,19 +4213,23 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>95.82</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1) Which one is scarier? 2) Which one is a fake? 3) Which one has a paw on your wallet? 4) Which one WON'T go away? 5) Which one would be a more interesting interview? 6) Which one would you'd rather your daughter brought home? 7) Which one DOESN'T need a teleprompter? 8) Which one would you rather share a cold one with? 9) Which one is NOT a mixed breed? 10) Which one would you dare turn your back on????? Just askin'.
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I understood it to have been 1986 when Griffin went. I would say it was a good risk going over there if some towel head is dishing out money I'd take it. I would say Ayatollah Khomein’s Iran is governed better than we are in this country under so called “democracy”.
 </t>
         </is>
       </c>
@@ -3593,7 +4237,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3603,9 +4247,13 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fourth man arraigned for alleged role in home invasion, assault on 84-year-old mlive.com, November 14, 2014 Fourth man arraigned for alleged role in home invasion, assault on 84-year-old | MLive.com JACKSON, MI – An 26-year-old Lansing man has been charged with seven felony counts for his part in a Summit Township home invasion and assault that injured an 84-year-old man. Darvin Mims {}
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">“The Internet can link people, groups and organizations together instantly,” the report reads. “Moreover, it allows an extraordinary amount of unregulated data and information to be located in one area and available to all. The right wing has seized upon the internet as a means of communicating its ideas to people. Moreover, evidence exists that Republican staffers surf the internet, interacting with extremists in order to exchange ideas and information.” Clinton doc calls Internet 'right wing' 'conspiracy commerce' | The Daily Caller
 </t>
         </is>
       </c>
@@ -3613,7 +4261,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3623,9 +4271,13 @@
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Himmler was a great man who knew what he was talking about! I only wish he wasn't so right I don't wish to see the Germanic/Nordic race go extinct. That would be the worst disaster the world could ever imagine. We need to set up a forum for Nordish people only to help preserve our race. We should also fight for our own homeland.
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, because I think whites and blacks evolved from different ancestors in the first place, who were only remotely related by some ape ancestor. I do not think they could evolve into what we are now, but no doubt they may adapt certain features like lighter hair for example, living in a colder climate. They would also probably adapt in other ways that we can't yet forsee. But I highly doubt they would ever turn into us. By the way, if you do some research, you will see that blacks and australian aborigines resemble homo erectus and asians look like an intermediate between homo erectus and modern humans.
 </t>
         </is>
       </c>
@@ -3633,7 +4285,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3643,9 +4295,13 @@
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dont worry about being pale. I am a girl and i never get tanned and i dont intend to do so neither. I am pale white as well and they also tell me things that you need to go to the beach, the solarium, etc. But i tell them that i am happy being pale and i dont have any necessity to be tanned like the rest of the people.
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I would fight for: Australia, US UK France Germany Russia Canada New Zealand Finland You get the idea. When is the last time we truly fought for our nations? That fight is coming, I believe. I don't think we will have far to travel, as the front lines will be conviniently located at our own door steps. If I am still young enough, and strong enough, I'll travel to the first White Nation that rises up to fight for freedom. God Bless Australia. God Save the Queen ( or whatever it is you say down under )
 </t>
         </is>
       </c>
@@ -3653,7 +4309,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -3663,9 +4319,13 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I remember the TV show "Baa-Baa Blacksheep" based on Pappy. I got no problems with the man and if he was part Souix then it didn't have much power over him. He was a Fighter Ace - nuff said. BUT here's my question: if Pappy had flown C-47's would we give a rats ass? Face it Coursair's are one of the COOLEST airframes ever. I like Bf-109's a lot more but that's just me.
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We did all we could I think. He was snubbed by everyone including the media. He should have been given the opportunity to debate McCain and Sambo. But he was snubbed there too. Sambo was the media darling from the get go. He would have won no matter what. So now we just have dig down and fight all that much harder. I have never been so angry about an election in my life. Unbelievable......
 </t>
         </is>
       </c>
@@ -3673,7 +4333,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>68.72</t>
+          <t>51.39</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -3683,9 +4343,13 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The jews have declared open war on our people. Why are we helping these people? "Australian nurses and midwives are being forced to announce their 'white privilege' before treating Indigenous and Torres Strait Islander patients - a move which has been slammed as 'racist to its core'." Nurses forced to announce 'white privilege' when treating Indigenous | Daily Mail Online Sorry For Being White | Australia Nurses Have a New Shocking Code of Conduct - YouTube
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shef West I am happy you can speak for all WN. First lets take a look at some of your lies. Yes the Holocoust took place. Jews killed over 40 million people in Russia and nearby countires between 1917-1932. The Jews so called Holy Book also says it's ok to have sex with 4 year old kids. So let's not lie about rabbis having sex with small kids. Also the book teaches to murder and rape all non Jews. Anymore lies you want to tell go ahead MS. Jew.
 </t>
         </is>
       </c>
@@ -3693,19 +4357,23 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A small group of individuals who make the real decisions away from the public arena, so what's new? The big thing in British politics is whether the Conservatives will abolish inheritence tax and cut back police paper work. Important matters I am sure, the country is being flooded daily by the Third World cast offs, we have a crumbling infrastructure and out of control crime. Politicians offer sound bites and catch phrases. Any one who seriously does believe your vote matters really does need to think again. You might change the face but it's made damn sure that you don't change the system and certainly the great unwashed will not be tolerated to decide real matters of state.
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penile castration has been tried before, both types. Pedophiles and rapists can overcome chemical castration by using steriods. The other option, physical castration, has also been unsuccessful. The problem is inside their head's. Without a penis they can still victimize the innocent person in other ways. Life in prison would be a suitable punishment, but we should not waste the money on them. Sure, they will abused in prison, (Probably sexually.) but the money should be spent on helping the victim(s). Sex offenders are degenerates with no conscience. People like that don't deserve mercy. The only proper punishment is death. I don't mean lethal injection or the firing squad because that's an easy way to die. The method should be the electric chair. Really anything that causes pain will be enough. These sick losers should have to fear their execution date. Sex offenders will usually victimize alot of other people before getting caught. Keep that in mind.
 </t>
         </is>
       </c>
@@ -3713,19 +4381,23 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>48.54</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It seems as though the Jews complain that "KKHHizzbullah" are financed by Iran. Therefore Iran is a "Terrorrist state". Who finances the "Zionist Regime" in Palestine? Is this not why we have become targets of the dispossesed Arabs? The Arabs said that if the "West" failed to take their concerns seriously they would bring the War to the streets of the "West". The "west" is reaping the seeds it sowed when it decided to support the injustice known as "Israel". This is precisely where Judaic Philosophy fails. You cannot abuse people and hope the problem will simply be brushed under the carpet because Jews call themselves superior. If the Jews keep on, full-steam ahead destroying the Cultures of the Middle-East they will end up with another "Arse Kicking". Time for the Jews to stop and think for a change, instead of relying on their Dusty old Tomes, the Talmud has brought them nothing but bad luck. JU88.
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What a great people the Boers Afrikanners were/are. Can't you put up some fight? You did so well in the past against English, Zulus, why is so different now? The Whites in Rhodesia at least had a war in which they fought to a stalemate. Why didn't Whites in South Africa do the same? I am so very sorry. Please come to our remaining White homelands. The upper American Midwest isi very White. Blacks and other muds don't like the cold. I am looking forward to another Ice Age.
 </t>
         </is>
       </c>
@@ -3733,19 +4405,23 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>60.06</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Now that I think about it the alien conspiracy in X-files could be an allegory for the Zionist conspiracy in the world. The Zionist (I mean aliens) want to conquer the world by genocide of us. If X-files were real, the aliens would have to worry about Mr Jew. Big Time! Mr Jew would seek to create a Jew-alien hybrid. Mr Jew would use the hybrids against the aliens. Mr Jew likes saying, "We are one of you." Obviously, Mr Jew would rot the aliens society from the inside out like the cancerous tumor that he is. Never trust a Jew. Everyone gets screwed by the Jews on their Jew deals. I almost feel sorry for the aliens, but my loyalty is to my race. In the end it is all about their Jew hate.
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muslims have the highest unemployment rate in Great Britain at about three times the rate of non-Muslims. If capitalism brought in Muslims then the USA would be full of them, but it's not because they're too lazy. It's not capitalism bringing them here, it's our socialist welfare system which is very generous compared with what they can earn in their old countries. And it's also our multicultural society that allows them to live here without changing their primitive way of life at all, whilst criticizing ours and plotting to destroy it.
 </t>
         </is>
       </c>
@@ -3753,19 +4429,23 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are plenty of Whites who: "See no problem with the Jews". The Jews are skilled at working covertly and denying any evidence produced against them as..."Anti Semitic". The Lubavitch Hasids are serious about their intentions. To them it is part of their "Religion". Just as Rabbi Schneerson the chief Rabbi of the post-War years has dominated Jewish ideology, so M.Buber dominated pre-War Orthodoxy. Rabbi M.Kahane, and his infamous JDL, whose motto was that Palestinians should be driven into the sea, who was the mentor of B.Goldstein the mass Murderer, were both Orthodox Hasidic Lubavitchers, and were followers of Schneerson and Buber. Schneersons family still labour under the evidence of having committed ritual Murder in Russia, and were known as a "Schechter" family, i.e. denominationally permitted to practic ritual murder. Flaivel Schneerson escaped to the US to avoid prosecution and was given sanctuary amongst US Jews. http://judicial-inc.biz/mendel_beilis_supplement.htm Jews pervert the meaning of the concept "Religion".
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Children raised in a two parent environment generally do better than single parent children...that is a fact. This doesn't mean that a single parent child can't be successful or that a two parent child can't get in trouble......its just shown that two parent children generally do better in life. This is not my opinion but has been proven.. If you don't "buy the stastistical BS", then you would have to discredit almost the entire White Nationalist movement, because most of it is based on stastistics....black-on-white crime, etc....Dr. Duke consistently uses "stastistically BS" to support his arguments... You seem to have a problem with my posts...I've dealt with you before and for some reason you repeatedly attack my posts...Despite both being White Nationalists, we'll both have to accept the fact that we both have a different world view......mine being a little more conservative and traditional than yours.. Regards
 </t>
         </is>
       </c>
@@ -3773,7 +4453,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3783,9 +4463,13 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Those ghosts from civil rights battles past have never left Noxubee County, and they continue to influence the way the case against Brown is viewed. But guilty or innocent, the Justice Department wants this case to be about Brown, not the state's historical disenfranchisement of black voters." I love this last cheap shot... It opens up the case for the Multicult so no one thinks their reporting is "Far from the mainstream", As the antis love to put it.
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fellow comrades, please allow me to introduce this remarkable book : Title: Myths of the Norsemen From the Eddas and Sagas Author: H. A. Guerber (1909) But more precisely, the beautiful drawings you can abundantly find in this master-work; here we go, please enjoy (there are plenty more if you have time to read this big piece of research) : From Myths of the Norsemen: From the Eddas and Sagas
 </t>
         </is>
       </c>
@@ -3793,7 +4477,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>80.82</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3803,9 +4487,13 @@
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For me this is a tough question since I am not a hater of humanity. Thank the almighty Jew for what will probably be the greatest war to ever befall mankind. Without a doubt, and its certain to happen, race war will wipe out millions. After the smoke clears I might be in favor of having all whites emigrate back to Europe and What will soon be a third world, mullato infested toilet - America be used as a land of refuge. Provided of course all our technology comes with us. I couldn't imagine nukes in the hands of negroes.
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's true the Muslims will rise and the EU will betray us, but we can't flee from our Europa! Europa is ours! Not for muslims, not for wogs, not for the others! Europa is only for whites! We must fight and win against our enemies, even if we will be very few in fightings!
 </t>
         </is>
       </c>
@@ -3813,19 +4501,23 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dont dispair there are many ways of dealing with the anti social trash of society im sure you can figure out the less than legal ways but there are also legal things you can do.One thing pikeys hate is the old bill, its a sure bet they use drugs they almost all do. An anonymous call made by yourself or someone on your behalf to your local police station they have to respond
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lebanese resistance burgeoning 09:24:41 Þ.Ù Lebanese people residing in southern Lebanon assert that despite severe attacks of the Zionist regime, resistance must continue against the occupying regime, renewing support for the Lebanese Islamic Resistance Movement, Hezbollah, Al-Manar TV network reported. A youth in an interview with Al-Manar referred to the devotion of Hezbollah members and prayed God for health and might of them. more
 </t>
         </is>
       </c>
@@ -3833,7 +4525,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -3843,9 +4535,13 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes, that's true, most of the Russians are pro-white, the only problem is that they want white Russia but afraid to do something about that. Every time I talking about kicking the Caucasians out of Russia my friends saying me: "yes, you are right but it is so evil to kick them out from their homes- don't you have any feelings?" Last week I walked with my girlfriend at the Red Square - the center of Moscow and I saw more Caucasianss than Russians- and our police is so corrupted that they don't even care about Russia or the Russin law- the only thing they care about it is $$$. Another way that the ZOG control our minds is the fact that Russia sufferd so many casualties in WW2 - they allwayes remind us that nationalism is evil and deadly and comparing us to the Nazis. :attack In my opinion the only solution for Russias problems is strong nationlist leader and nationalistic regime. Peter The Great.
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McCain, Lieberman push military to handle terror cases Thu Mar 4, 2010 6:45pm EST WASHINGTON (Reuters) - Two senior senators unveiled legislation on Thursday to require the military to hold, interrogate and prosecute certain terrorism suspects and also bar them from receiving legal rights afforded most criminals in the United States. http://www.reuters.com/article/idUSTRE62358O20100304
 </t>
         </is>
       </c>
@@ -3853,19 +4549,23 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>70.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What would you have us do? Round up all negro kids at birth and put them behind bars? We (well, most of us, atleast I had thought so...) are for a white nation. Not blind hatred. We will get nowhere fast with people spouting out hateful and heartless nonsense. I said nothing about negroes being innocent. Children are innocent. If you cannot see that, then go f'ing hang yourself. No child deserves this. White or black. Race should not matter when it comes to the life of an innocent. This child did not ask to be born, nor has he asked for a death sentence, and that's exactly what he has been givin.
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As the article says the "Nazis" were from God and he used them, so shall this day our struggle begin in the completion of the work of God. The Storm winds are blowing strong and there will be no escape for them this time, for this time it will be the well of the whole world. So Stay Strong my Brothers and Sisters, God will stand with us in our mission. What did he say? If he be with us "Who" can stand against us. "14/88"
 </t>
         </is>
       </c>
@@ -3873,19 +4573,23 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"It’s far worse than I thought. In addition to the many links between the family that owns The New York Times and the Civil War Confederacy, new evidence shows that members of the extended family were slaveholders." "All that would be bad enough given that the same family still owns the Times and allows it to become a leader in the movement to demonize America’s founding and rewrite history to put slavery at its core. As part of that revisionism, George Washington, Thomas Jefferson and Abraham Lincoln are suddenly beyond redemption, their great deeds canceled by their flaws. But shouldn’t such breathtaking self-righteousness include the responsibility to lead by example? Shouldn’t the Times first clean out the Confederates in its own closet?" The family that owns The New York Times were slaveholders: Goodwin
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peace isn't possible in white lands until pompous negroes are banned from white man's thinking jobs like college professor. That will suffice until they all are deported to Liberia to enrich that country where no white man is present to impede their natural superiority. Yep, no peace for us until every last one of them is gone. If blacks think they are so tired of US....if they only could imagine and feel, really feel, how tired we are of their ape like bs. I bet they'd all say upon realizing how WE feel...."DAYUMMM!!!!"
 </t>
         </is>
       </c>
@@ -3893,7 +4597,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3903,9 +4607,13 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argentina Charges Buenos Aires Mayor's Spokesman for Praising Hitler AFP Argentina charges Buenos Aires mayor's spokesman for praising Hitler | GlobalPost The lead spokesman for Buenos Aires' mayor faces criminal charges after saying Adolf Hitler "was a spectacular guy," a court source told AFP Tuesday. Ecuadoran-born Jaime Duran Barba has been charged by federal prosecutor Guillermo Marijuan with voicing approval of a criminal act, the source said. Barba is a top aide to Mauricio Macri -- the mayor who is also a possible 2015 presidential hopeful. Argentina is home to the largest Jewish community in the Americas outside the United States, with some 300,000 people. From Waaay Out West, ~HLM
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well B devil the problem is simply this!. Sydney is the Biggest Multicultural and Homosexual city in the Southern Hemisphere. It is already a lost cause there is no saving it in my view better to abandon ship altogether for most sincere wp sydney siders if at all possible. It is already far too late for sydney!. Other capitals in Australia may stand a chance but in all honesty not sydney. You must also understand that the scene in sydney is made up of many frauds and homosexuals posing as Nationalists.So really the until the so called wp types sort out their own ranks and send the gays and frauds the message that they are not welcome to pose or claim the name nationalist lower socio economic Wp aussies stand even less of a chance of standing up to them!.
 </t>
         </is>
       </c>
@@ -3913,7 +4621,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -3923,9 +4631,13 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the sense of a leap year, wouldn't you have to adjust the time indicated by the atomic clock to catch up with the earth's revolution around the sun... and if you are not talking about the revolution around the sun, then doesn't the clock have to catch up with the spin? Now, if the world can go roughly four years before a leap year adjustment is made with the calendar in order to keep up with the inaccuracy/nuance of nature, then why can't we go fairly indefinitely without a one second adjustment? Only people who launch rockets should obsess about this.
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Millions of women victims raped by Russian soldiers during the last months of World War II. Anthony Beevor's book "Berlin -- The Downfall 1945" documents rape by Russian soldiers. "Beevor's conclusions are that in response to the vast scale of casualties inflicted on them by the Germans the Soviets responded in kind, and that included rape on a vast scale. It started as soon as the Red Army entered East Prussia and Silesia in 1944, and in many towns and villages every female aged from 10 to 80 was raped." The author "was 'shaken to the core' to discover that even their own Russian and Polish women and girls liberated from German concentration camps were also violated." He estimates that "a 'high proportion' of at least 15 million women who lived in the Soviet zone or were expelled from Germany's eastern provinces were raped." Until recent years, East German women from the World War II era referred to the Red Army war memorial in Berlin as "the Tomb of the Unknown Rapist." http://www.religioustolerance.org/war_rape.htm enjoy the russkiy sperm...
 </t>
         </is>
       </c>
@@ -3943,9 +4655,13 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So if you are at liberty to delete posts why dont you allow that WN to delete his posts or even his account? He asked to be deleted ( But you did NOt delete him; you simply made him inactive.) Double standard anyone? Oh wait Im probably talking to myself again. You seriously dont remember that post of mine you REJECTED just last week?? Because I do. You must get many THOUDANDS of posts every day if you cant remember something from just last week, MR VIKING
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If a mod thinks this should go to another dept, please move it to where you feel it belongs. seems like it could be real easy to be racist AND homophobic in prison huh? Shama Chaiken doesnt seem to agree, thinks prisoners need to be medicated for these "maladies". uh and WHO are the crazy people again? many articles, my text not pulled from one source, pulled froma blog not a newspage, it is however, true.check for yourself http://www.google.com/search?hl=en&amp;n...-8&amp;sa=N&amp;tab=nw Doctors who treat inmates at the California State Prison outside Sacramento concur: They have diagnosed some forms of racist hatred among inmates and administered antipsychotic drugs. "We treat racism and homophobia as delusional disorders," said Shama Chaiken, who later became a divisional chief psychologist for the California Department of Corrections, at a meeting of the American Psychiatric Association. "Treatment with antipsychotics does work to reduce these prejudices." uh, more bad news (I linked the HTML version rather than the PDF version) http://72.14.207.104/search?q=cache:...s&amp;ct=clnk&amp;cd=1
 </t>
         </is>
       </c>
@@ -3953,7 +4669,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -3963,9 +4679,13 @@
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A friend of mine is a member of the Northwest Indiana Chamber of Commerce. At every meeting for years the question comes up, "What do we do about Gary?" Answers come up, like the one this thread is about and other potentially useful ideas. Gary's representatives always shoot them down. They just want money, total control of any projects that they alone choose and no accountability as to how the money is spent. In some places, a private party can buy a property and live in it while rehabilitating it. Not in Gary, all rehabs must be done by a city approved contractor. People in the know inform me that the right people must be payed to get on the list. For 40 years Negro's have controlled Gary and have made it everything it is today and the chances of that changing are slim and none. Privately my friend admits that he and the other white members are so frustrated that they wish the place would just fall into Lake Michigan. BTL
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I've seen David Ceasarani on T.V. trying to rope the Brits into the "Endloesung", is there no end to these peoples shameless conduct. It was pretty clear to me that all they intend to do,is rope all us Arayans in together, thereby justifying their Megalomaniacal plans, by extending , and legitimizing their hatred of Whites. O.R.I.O.N.
 </t>
         </is>
       </c>
@@ -3973,19 +4693,23 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>66.01</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">they hate the USA as much as they hate all the white countries and the free world because they want all the world to live by the rules of the Islam Nonsense! They are absolutely justified in hating the west. You need to understand the events that led to the creation of Israel. We have been beating the crap out of Palestinians via jews and Israel since before WWII. Jews dragged America into both world wars first to establish Israel, then to destroy Germany and enhance the power of jews and Israel. White Western Civilization lost both Wars and the jews were the ONLY people to achieve long term gains. The arabs lost from both wars as well. You have reading to do. Here are easy ones to start with. http://www.heretical.com/miscella/bolshies.html http://www.voteforusa.com/benfreed.htm See The Truth About Israels Creation. http://outofisrael.com/splash.html# http://www.charleslindbergh.com/americanfirst/index.asp http://www.ety.com/HRP/rev/thejewishwar.htm
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm the same way. The tension in the build up can be amazing but once "it" actually starts it's as if my mind suddenly looses interest and drifts elsewhere. I think that half the problem is that I have a very vivid imagination and real sex just can't compete with what my mind has already cooked up. Now that I'm older I just don't seem to care anymore either... sad.
 </t>
         </is>
       </c>
@@ -3993,7 +4717,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>99.68</t>
+          <t>95.91</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -4003,9 +4727,13 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If it was your daugther you wouldnt be saying she done her time youd want her scalp lets be realistic here and stop sticking up for a child rapist and killer, she pimped her own sister to her husband for god sakes. Oh I forgot blame the Jews for that aswell.
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vulnerable families bear the brunt of Norway's crackdown on asylum seekers | Sune Engel Rasmussen | Global development | The Guardian Norway knows what is really important. Non-White criminals are vile but it is the next generation of moslems that we must absolutely be ridden of. So, they grabbed a family with a birth rate above that of the average Norwegian family and got rid of them. According to these news, they deported 649 brats last year.
 </t>
         </is>
       </c>
@@ -4013,19 +4741,23 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allow me to retort. What I am saying, is calling for a race war is the stupidest thing that you morons can do. Hardly a surprise, but stupid. Getting into a war with Whites leads to annihilation. Ask the Aztecs..................You can't, they're ALL GONE. Judging from your nearly illiterate response, I will try to dumb this down to a level even one as dim as you can comprehend. BlackHS, is calling for a race war. I am all for BlackHS removing himself from this mortal coil. Crack cocaine, jumping off of a bridge, whatever. I don't wish to see all of his fellow blacks join him. A race war with Whites would mean the extinction of the aggressing non-whites. Extinction means all gone. No more. Nada. Nil. Game over. White Nationalist are not advocates of violence, period. Besides, you totally missed the point. When your spelling, and grammar skills exceed the abilities of an average 8 year old, maybe I'll show you a little respect. Until then, retard, piss off.
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">China, Russia, India hold first trilateral summit Chinese President Hu Jintao, Russian President Vladimir Putin and Indian Prime Minister Manmohan Singh on Monday in St. Petersburg held a trilateral summit meeting, the first of its kind among the three countries. The summit was held after the conclusion of the outreach session of the G8 St. Petersburg summit and the three leaders exchanged views on cooperation among the three countries, according to Chinese officials. At the summit, Hu said China, Russia and India, who have set up bilateral strategic partnership among them, have vital influence on the international and regional affairs. There is a great potential for the three countries to cooperate in a number of fields such as economy, energy, science and technology, Hu said. MORE Chimese tidbit: One in eight cellphones in world made in China's southern city more
 </t>
         </is>
       </c>
@@ -4033,19 +4765,23 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alpha Tauri on hand you talk about "not giving your power away" and on the other hand you praise the Order of Nine Angles for talking about people's need for "Avatars", etc- isnt there a contradiction there? We shouldnt "give away our power" to the Universal Reason but we should give it away to charismatic leaders like Adolf Hitler or whoever (there is lots I admire in historic National Socialism but the personality cult is not one of them)? Occultists seem to talk about freedom a lot and than set up hierarchies and indulge in "Priestcraft" much more authoritarian than any Pope of Rome during the High Middle Ages. Its contradictions like these that give people alarm.
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In South Africa we do not get Ben&amp;Jerries, which is good because it sounds like they are both jews. These people from PETA should be confined to a mental institution. This is the most ridiculous statement I ever heard,these idiots have nothing to do and they are wasting time and raising my blood pressure by going around and trying to change the way normal human beings live. These kind of nuts would have been purged in Germany in the good old days.
 </t>
         </is>
       </c>
@@ -4053,19 +4789,23 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>71.05</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interesting,that Lucas Films would name the Jedi Ezra. Ezra, in the Old Testament, preserved and protected the Jewish race. Yes, race. He didn't want no race mixing among the Jews. He told those Jewish males to get rid of their foreign wives and get back in the fold. Ezra - Chapter 9 verse “For they have taken of their daughters for themselves, and for their sons: so that the holy seed have mingled themselves with the people of those lands: yea, the hand of the princes and rulers hath been chief in this trespass.” Ezra was a racial purist for the Jews.
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NO. That's not even in the same neighborhood as normal. Infact, once you're able to get out, you should really look into reporting that, incase he already has a record. I honestly wouldn't be surprised if a pedophile wanted to 'help' single mothers with small children. A 5 year old can not have sexual issues. She's 5. She has no sexual hormones yet. None. At all. She can't have any sexual issues. Of course she's going to wiggle when she's sitting on anything, little kids tend to be energetic and move around a lot. That guy is a FREAK. A normal adult would be absolutely disgusted by the though of ANYTHING sexual with a child, it would be impossible for any mentally sound adult to be turned on by a child. She's 5! She's not meant to be sexually attractive to anyone at that age! Leave, now. Do your best to get far away from that freak. He could do horrible things to your daughter if you don't leave. You might end up regretting it... living in a car is better than living with a pedophile. Do it for the safety of your daughter...
 </t>
         </is>
       </c>
@@ -4083,9 +4823,13 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hi this was the best picture that I have seen so far of the plane its not that good but you can see the plane and the banner is a little blury. I think if they do it again they will bring better cameras with zoom lenses. All I can say is that it was a great site to see the plane towing that banner in person. https://www.stormfront.org/forum/atta...chmentid=31955
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message from TPC Radio.......... Join James Edwards and the TPC hosting staff in the online chat and virtual fan party right now! The chat will be open during our live radio broadcast, which concludes tonight at 9:00pm Central. Participate in real-time exchanges with the staff and ask questions of tonights featured guests! Appearing live on the show tonight will be: Jared Taylor, editor of American Renaissance magazine Rev. Ted Pike, director of the National Prayer Network Perry Short, author of Generation of Warriors, a book that details the pivotal Civil War Battle of Chickamauga To be part of the fun, all you need to do is follow these simple instructions: 1) Tune in to our live show via the internet during our regular airtime (6:00pm – 9:00pm Central) tonight by accessing the online simulcast. Click here to listen live online. (6pm – 9pm CST) 2) Open up another page on your web browser and log into the chat room by clicking here! 3) Make comments, ask questions, and let your thoughts be known to a worldwide audience of TPC listeners! We’re waiting for you right now!
 </t>
         </is>
       </c>
@@ -4103,9 +4847,13 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tyndall, in his article, stated the Zionist question and how to handle it superbly. The notion of encouraging Zionists into AmRen or any other WN organization is absurd. Were all our leaders as bright, forthright, and courageous as Tyndall. If any other Zionist promoting Stormfronters wish to advocate the inclusion of Zionists in WN organizations, I would appreciate if they would pull up Tyndall's article, and tell me which of his assertions are invalid and why.
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Who cares? World War Two was sixty years ago, its over finished, Hitler is dead, Churchill is dead, Roosevelt is dead, more of the old warriors who fought bravely on both sides are passing to Valhalla each year. It’s history. Remember the fallen, honour their names and live for the future. No more wars between brothers. Stoking this old fire serves the purpose of no one except the bitter and stupid and those that want to divide the European race.
 </t>
         </is>
       </c>
@@ -4113,7 +4861,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4123,9 +4871,13 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All this just served a tiny minority of people who were on the top , namely the jewish Bolsheviks . . That is not even to mention that a lot of their patents were stolen from National Socialist Germany since the Soviet Union was one of the victors over NS Germany . . That just simply isn't true . . There are about 23 million Muslims living in Russia today ( 1 out of 5 Russians ) and it is predicted that 40 % of the Russian army will be Islamic within a matter of years.. It was the jews who were playing the East against the West . .
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I do not hate jewish people in particular. I hate that white people are the only group it seems to be okay to make fun of. I hate that there are brown pride and black pride and gay pride parades, but if people show pride in being white they are called racists or Nazis or rednecks. I hate that the accomplishments of ancient Europeans are neglected in our schools to focus more on the civil rights struggle if history is even covered at all anymore.
 </t>
         </is>
       </c>
@@ -4133,19 +4885,23 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>83.39</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uhhh, we teach our children not to marry non-whites. No, really, it's that simple. They can bring in all the non-whites they want, that only helps us by providing us with daily examples of how different they are from us, and how ill-suited they are as marriage partners. They literally make our cases for us, as you can see from BrownBread/every guest troll we've had in the past few weeks with "x" in his handle. Most non-whites who come here are intentionally obtuse. They aren't very good at winning the hearts and minds of whites, which is why they have to use dishonesty and subversion to do it. Teach your children this, they will recognize it and stay far away from non-whites. That's all we have to do for now.
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is with extreme regret and much grief that we must inform you of the passing of our Senior Pastor, Comrade and Brother ; Ray Redfeairn. Pastor Redfeairn passed away peacefully in his sleep this morning Sunday October 26th at his residence in Dayton, Ohio. He will be dearly missed and his memory will be greatly cherished by those of us who knew and loved him. The Ministry of the Church of the Sons of YHVH will go on to carry the torch, by continuing to take the message of Christ to the lost sheep of the house of Israel. Pastor Redfeairn's dedication and commitment to God and our Holy Race, will serve as a standard that will continue to guide the continuing effort of this ministry. Farewell good and faithful servant of Christ. Your spirit and memory will forever be with us. http://www.churchofthesonsofyhvh.org
 </t>
         </is>
       </c>
@@ -4153,19 +4909,23 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are certain races that need to be sterilised. Forget contraception in Africa...too expensive, and the results are not worth the effort. There has to be a point where we accept that breeding quality out weighs breeding quantity. To convince muslims of this will be an uphill slog. Muslims even breed with their cousins...inbreeding The science of Eugenics has been swept aside for to long, and we need to re-discover the original intentions of the science. Just as in Horse breeding, you do not save the runts and allow them to sire bad stock. We could short circuit the contemporary probeings in Britain to find the violent gene and just sterilise the degenerate races. To save futher on costs, we could simply stop sending aid to these people, which only gives them incentive to come to the west, and also we need to close the borders.
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excellent job in apprehending the scumbag. Just a word of warning though: While emotions can run high in a situation like this, always remember that exiting your house in pursuit of a burglar can be extremely dangerous. A friend and co-worker of mine was nearly killed this way. He was awakened in the night to find a burglar coming in through a window. The burglar backed out of the window after being spotted. My friend grabbed a bat and headed out the front door. When he got out the door and headed around to meet the guy, he met four guys instead. They beat him with a 2x4, and when he was on the ground, used the same piece of lumber to smash down on his mid section in a spear motion. He suffered tremendous internal damage, the loss of a kidney, and over a month in the hospital. I'm not saying don't go after someone trying to victimize you, but do it carefully. Had my friend been more careful in his pursuit, and had a weapon better than a damn bat, he could have avoided all that suffering.
 </t>
         </is>
       </c>
@@ -4173,7 +4933,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4183,9 +4943,13 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In material terms the UK is much better off than most European countries, the only countries that really compare are the Scandinavian ones and Netherlands, and possibly Germany although only just. The rest are all visibly poorer on many levels. I think some of the reason the Europeans are so strict on British people accessing public services there is because of just how scare funding for resources is in many European countries. Also, we complain about authoritarianism in the UK, but it's even worse in most of Europe. In most European countries carrying a biometric ID card is the law and even the most simple tasks involve large amounts of paper work and bureaucracy, most of which is highly inefficient and you can fill in several forms and still be no further forward. I'm not exactly a fan of the UK, but I'm not so naive as to think going to live in a European country would be any better.
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You asked for it; Communist agitator John 'Kerry' Kohn arrested for spamming after anti-war rally. "For those of us who are fortunate to share an Irish ancestry, we take great pride in the contributions that Irish-Americans..." Senate floor statement by John 'Kerry' Kohn, March 18, 1986 Of course, John 'Kerry' Kohn has no problem sucking up to the Black vote by declaring: "President Clinton was often known as the first black president. I wouldn't be upset if I could earn the right to be the second."
 </t>
         </is>
       </c>
@@ -4193,19 +4957,23 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>61.02</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quit your deluded talk. National Socialist policy has nothing to do with the three above you mentioned. You can read these for yourself! It is from National Socialism archives and documents, it has nothing to do with the Jew. Have you even read Mein Kampf? Yeah because they will know what happened with Germans and foreigners if found guilty of sexual relations. I've just showed you so much evidence yet you are in denial, its a sad case really. What makes their statements anymore valuable than "Holocaust survivors" who have been exposed as liars? They opinions do not refute what I have just shown you neither.
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, those are good points. We have to find a way to make all the White gal contestants feel positive about themselves even though there will be only one winner. Let's think of some runner up prizes. We can fix it so all of the non-winners think that they were the first or second runners up. We are not going to lie. All of our racially conscious White women are beautiful. 14 Words
 </t>
         </is>
       </c>
@@ -4213,19 +4981,23 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Japanes civil rights are fine, also do you beleive that western women preferr the standards of living in europe or the famine in places like ethiopia? Civil rights? famine and filth in ethiopia and other places in africa is better than europe? Those western women really need some black to give them rights dont they?
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">very true. Very good point. Like I said, I don't have all the answers. And I'm man enough to admit that I may be wrong, and that I may change my mind. As of right now, though, I just can't see voting for him. I do support the things he is saying. Well, most of it. That mocking disabled reporters **** is petty and childish to me. And that's another thing. I don't want a President, even if he shares my ideology, who has the immaturity of a high school bully. He acts very unpresidential and unprofessional at times. I think he's such an egomaniac that he's used to getting his way; so when he doesn't he lashes out.
 </t>
         </is>
       </c>
@@ -4233,19 +5005,23 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>73.96</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"The unfortunate aspect of this Jewish Syndicate is that they have been working for some time to undermine Western civilization, Christian values....moral values of any sort really. The Jews have learned, through a sort of collective psychological tacit understanding, that to survive, they must divide the host in which they live, demoralize them, desensitize them, and throw them into moral and social chaos and anarchy." http://www.propaganda101.com/TheJewi...stionFrame.htm And we in Stormfront are even divided by the muslim issue. Why would we hammer arabs for fifty years then allow them into our country? Who gains from that? Long term, guys. Long term!
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I got hit in the head by shrapnel from an exploding gas canister when I was twelve years old and had that sensation of leaving my body, I don't know if I was out cold but I fancied I had a bird's eye view of the orchard where the accident happened. Concussion is a weird thing, my parents took me to the doctor at the time and he cleared me, this was of course in the days before brain scans but I wasn't all right for a quite a while after that.
 </t>
         </is>
       </c>
@@ -4253,7 +5029,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -4263,9 +5039,13 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thanks for the offer, it's deeply appreciated. I should be fine unless we get a direct hit. Have backup plans just in case. Might want to head down to Don Black's to personally witness the 'Worlds biggest flyer drop!' Biggest concern is where it will make landfall and getting my elderly Grandparents off one of the barrier islands.
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[ame=http://www.youtube.com/watch?v=lInvp_vff0c]YouTube - Lessons In Hate And Violence[/ame] Just watched the program. From our point of view, shocking stuff. From their point of view, they are successfuly breeding a militant gang of psychotic ruffians under our very noses. They are used to being ruffed up for no reason, and are trained to ruff up others. It is like having marauders from the dark ages break through some time portal and materialise in our time. Islam gets a grip on its members by terror and bullying. We are expected to imagine their psychological backdrop is the same as ours.
 </t>
         </is>
       </c>
@@ -4283,9 +5063,13 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">By poor dispersal I mean that the drops were several miles away from the actual objectives. This was standard Allied doctrine for airborne attacks after observing the massacre of German paratroopers in Crete who were dropped directly into the objective. But in this case the re-assembly of the dispersed forces and their equipment was severely botched. And of course the remnants of the 9th and 10th SS-Pz divisions were already in town. As for XXX Corps, their jump off point on September 17th was the Maas-Scheldt Canal not the Albert, which was some 30 miles further south. They eventually crossed the Waal at Nijmegen on the evening of September 19th, 11 miles south of Arnhem. Eventually the main force (the single tank front) was halted when the Knaust Panzerkampfgruppe severed the main highway at Elst. All-in-all the Corps had advanced some 60 miles in five days against commited resistance. I don't think the veterans of that exercise would appreciate the implication that they had spent much of the time 'brewing up'.
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It showed up in my feed for some odd reason. I read it. Pure propaganda. Discussed it in another venue and a reader insightfully commented that it’s whats called a conversion story. Think of the ending of 1984, for example. Despite their conversion and accepting “the truth” becoming a die hard believer, they will never attain the status of fully redeemed.
 </t>
         </is>
       </c>
@@ -4293,19 +5077,23 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>83.39</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I would like to agree. They may only be here for a couple of years, but as soon as they leave, there are others to take their place. We end up with a Tidal effect. As one wave rolls on to the shore and then retreats, we have another wave right on its heels. The effect is the same, it is called "Errosion". DEFENDING OUR RACE IS NOT A HATE CRIME.
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uhhh, we teach our children not to marry non-whites. No, really, it's that simple. They can bring in all the non-whites they want, that only helps us by providing us with daily examples of how different they are from us, and how ill-suited they are as marriage partners. They literally make our cases for us, as you can see from BrownBread/every guest troll we've had in the past few weeks with "x" in his handle. Most non-whites who come here are intentionally obtuse. They aren't very good at winning the hearts and minds of whites, which is why they have to use dishonesty and subversion to do it. Teach your children this, they will recognize it and stay far away from non-whites. That's all we have to do for now.
 </t>
         </is>
       </c>
@@ -4313,7 +5101,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -4323,9 +5111,13 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The media wants to label this forum a "hate" site. Ironically the "N" word is strictly forbidden. And anyone planning to violate the law, or hurt another individual, for any reason, is quickly cast out made a pariah. Like yourself I am proud of my heritage and my people. And prefer to celebrate it with others who are also grateful for their ancestry. Don't waste your time "hating," focus on preserving and being a contributor to your society. Welcome aboard, we appreciate the good influence.
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"First, the community had to vent, which was the purpose of the meeting. It was an early stage of a mediation program that the Justice Department has offered to other troubled towns -- in an echo of South Africa's Truth and Reconciliation Commission -- to help close deep racial fissures." And what was the next step in SA? Oh yes, KILL WHITEY!!! People of Texas keep your guns handy. We all know what happened to SA Whites.
 </t>
         </is>
       </c>
@@ -4333,19 +5125,23 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Never thought about food. I usually have something a little moe abstract in mind. Sometimes it really nebulous, more of a feeling than something that I can define. Its like I want something, but I don't know what and I want to find it on the internet. Just about anything is on the net. I just sit there, paralyzed by thought, starring at the screen. Computers with attached refrigerators and bread makers????
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i wouldnt vote for a president who supports what israel is doing at this current moment. hes a weak hypocritical jew puppy dog "any state who uses religion as a means in conflict is a terrorist state" he said.. something like that anyway... he musta made 1000 references to GOD during his little campaign looks like your prez is another jew puppydog. weak.
 </t>
         </is>
       </c>
@@ -4353,7 +5149,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -4363,9 +5159,13 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actually, jews, both religious and secular, hate all non jews, it's the core around which their whole identity was built. They're taught to despise and take advantages of Goyim or "gentiles" any way they can from childhood. In their Talmud, they call us "filth" and "animals" worthy of slaughter. They're specifically targeting whites for elimination because they're very afraid of them. To simplify: you have a core group of Big jews like the Rothschilds, Sumner Redstone, George Soros etc...who control things behind the scenes, and the rest of Jewry is actively helping them advance their agenda thru diverse means, like infiltrating every sector of society, hiding their true identity and motives, and then promoting other jews to positions of wealth and influence. They think and act like a hive. I mean, look at figures, they're like 2% of US population, yet they're grossly over represented in politics, business, entertainment, academia and in the top positions no less, and really I don't think it was thru merit alone. By destroying whites, they're destroying their main rivals for power. You should read Books by Kevin MacDonald ,"A People That Shall Dwell Alone" is a good intro into the Jewish mindset.
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nick and Alsace Sirs, Today there is no excuse for not knowing what the Hel was going on! If any take the few short minutes to read fully the following two pages and still will not admit and declare to others WHY the Americans and British destroyed N.S. Germany and many Millions of the finest Aryan stock then they are Far More GUILTY than the "Greatest Generation" you speak of. Why more guilty? Because they do "actually know what the hell was going on". Of course it will require a person with a pretty big set of "stones" to do so! Are there ANY such Aryans left alive today Sirs??? I ask you !!! WE’RE ON GOD’S SIDE – THE POWERS OF PERSUASION Page 1: https://www.stormfront.org/forum/show...933#post568933 Page 2: https://www.stormfront.org/forum/show...1&amp;page=2&amp;pp=15 "Now we must AGAIN ask WHY would the Good --- American, English and other peoples fight and die to destroy the jews greatest enemy. Tens of Millions of Aryans died to save the jewish Money Powers." .08-06-2003, 05:04 PM - Stormfront White Nationalist Community &gt; News &gt; Articles &gt; WE’RE ON GOD’S SIDE – THE POWERS OF PERSUASION .
 </t>
         </is>
       </c>
@@ -4373,19 +5173,23 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>96.91</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Here are good reasons not to vote for Obama: 1) He belonged to a black racialist church that was loyal to Africa first and foremost. 2) Obama believes Canada has a president. 3) Obama believes America has 58 states. 4) Obama believes American's liberated Auschwitz. 5) Obama is a junior senator with little experience. 6) Obama claims that he will not cow to special interests but he played the role of neo-con when he sucked up to AIPAC. 7) He is a democrat.
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What is the general atmosphere like in Australia? Is the muds a real problem or they an irritating minority? Are the exSA involved in politics at all or are they mostly impartial to the political climate since they are rid of the kaffirs in SA? Do any of you understand any Afrikaans? I suspect we will get ours asses whipped this year in the Super 14. Have a white day.
 </t>
         </is>
       </c>
@@ -4393,7 +5197,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -4403,9 +5207,13 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I am very skeptical towards anything that does not practice full contact sparring. If you can't win in the ring, you definitely can't win on the streets. Never having practiced Krav Maga myself, I did however train in the same gym as a Krav Maga club. Thair standup was weak, they had no power or conditioning, and their grappling was a joke. Like Tae-Kwon Do, I suspect it will work great against people with no experience of other martial arts. (Tae-Kwon Do will also teach you eye-gouging and a few moves where you supposedly can kill or disable your opponent, but it hardly changes the fact that is is not very effective.) The area where Krav Maga stands out is the time they spend defending against blades or guns. In my opinion, there is no way anyone should try that unless they can't use their legs and run away, and I suspect half of those thinking "I've done this in my gym, and I can disarm this guy", will end up dead once they try something fancy.
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excellent post RT55. You have managed to grasp what many apparently cannot, or will not see. It is my hope that the African race will lift their continent up and that the African race will be proud of their Folk and culture and wish to preserve it. We Europeans ask for nothing but the same rights, it is heartening that you can see that. Waes Thu Hael
 </t>
         </is>
       </c>
@@ -4413,7 +5221,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>22.39</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -4423,9 +5231,13 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nick and Alsace Sirs, Today there is no excuse for not knowing what the Hel was going on! If any take the few short minutes to read fully the following two pages and still will not admit and declare to others WHY the Americans and British destroyed N.S. Germany and many Millions of the finest Aryan stock then they are Far More GUILTY than the "Greatest Generation" you speak of. Why more guilty? Because they do "actually know what the hell was going on". Of course it will require a person with a pretty big set of "stones" to do so! Are there ANY such Aryans left alive today Sirs??? I ask you !!! WE’RE ON GOD’S SIDE – THE POWERS OF PERSUASION Page 1: https://www.stormfront.org/forum/show...933#post568933 Page 2: https://www.stormfront.org/forum/show...1&amp;page=2&amp;pp=15 "Now we must AGAIN ask WHY would the Good --- American, English and other peoples fight and die to destroy the jews greatest enemy. Tens of Millions of Aryans died to save the jewish Money Powers." .08-06-2003, 05:04 PM - Stormfront White Nationalist Community &gt; News &gt; Articles &gt; WE’RE ON GOD’S SIDE – THE POWERS OF PERSUASION .
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I was just talking with my wife about this same subject yesterday. It's always most obvious on the job. From who gets the easy work, to who's calling in sick on Fridays and Mondays, to who complains about discrimination and racism when they get fired for abusing sick time and sleeping on the job, etc. This is why many companies won't hire minorities if given a choice. When they have to fire them, the minorities hire attornies and sue for discrimination. The company then has to spend thousands of dollars to defend themselves. And they still wind up with the bad publicity. It's always about entitlement and racism when it comes to the muds. And we Whites go on enabling this behavior in the vain attempt to not appear "racist", to the point of our children, women, and elderly being victimized by these subhuman vermin. When will we wake up?
 </t>
         </is>
       </c>
@@ -4433,7 +5245,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -4443,9 +5255,13 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well said. let's not forget Jimmy Carter's activst daughter Amy Carter, who wanted to end poverty, hunger, nuclear weapons and Apartheid. We're supposed to admire people who takes such controversial positions. Note that Neither Jimmy Carter or Amy Carter have ever taken a public stance wanting to end Black gang murders in Phlly or Camden NJ.
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I've decided that I'm at the point in my life where I'm not content being an "Internet activist". I would like to get out into the world and start fighting for what's right by way of protests, pamphleting and general activism. Could anyone help point me in the right direction for getting started? Much appreciated.
 </t>
         </is>
       </c>
@@ -4453,7 +5269,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -4463,9 +5279,13 @@
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This clown is transparent even to our children. Only an anti could be so pathetically inept. Notice he has friends from nearly every ethnic group. Not just a friend who is black, jew, Asian, etc, but an entire miniature United Nations to, "you know, just kick it on a Friday night". How can we not prevail when an insect like this is an examle of our foes?
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There is a good old fashinoned saying : "To become upset of you I must first value your opinion .." And I sure won't be upset at an internet stalking pussy who wouldn't stand a chance to me if a fight real life came about .... A stalking flamer who constantly picks fights with people who and all can do is throwing away unfounded mindless flaming surely Stormfront doesn't need .... But if you want to continue on stinking up my threads , then so be it .. Keep me amused at your mindlessness .. Awww , is old Kinny scared now ? You'll be this small soon .. You know that harrassing and stalking people here is against the rules ... Fading Light today , Don Black tomorrow ..
 </t>
         </is>
       </c>
@@ -4473,19 +5293,23 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>74.32</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Another question for you im not sure if they still do this or not but wont most trucking companies send students to school as long as they work for them for a certain amount of time ? I was looking for a way to get these people into this with very little of there own money to get started.
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Chechens had the backing of the US, Israel, Oligarchs, NeoCons, to attack Russia, just as the Albanians/Bosnians had to attack Europeans/Serbs, they too have attacked US. Chechen Jihadists are in Syria right now killing innocent Syrians with " western " backing. Look what two Chechen Jihadists can do, and amateurs at that. Not one of these people should be allowed in any Western country, NOT ONE. Boston Bomb Suspect In Custody After Showdown " Police have detained the surviving Boston bombing suspect after he was found in a boat in backyard following a huge manhunt that left the city virtually paralysed. " .
 </t>
         </is>
       </c>
@@ -4493,7 +5317,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -4503,9 +5327,13 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This thread is going in circle. Lets all agree that the white race and culture is the best. Lets all agree that we have to protect our own women and culture. The koreans want to do that. I dont see anything wrong with that. Regardless if you think koreans are sub human at least they are doing whats right for them. Others say the jews are the problem and thats why the white race cannot protect our own women and culture. Personally on side note i think the jews are pushing for war between north korea and usa. It will destablize asia and give the chance for the jews to take over.
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No one wants to have a mixed child, and no one is ever proud of it. They'll go through any measures to make their child seem whiter than it really is, which is pretty sad. It's their choice and then they try to cover it up. Yeah, but there's something more then that...
 </t>
         </is>
       </c>
@@ -4513,7 +5341,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -4523,9 +5351,13 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">That the National Alliance offers an uncompromising stance on immigration not just to stop non-white invasion but to reverse it makes it the only effective stance out there. My hope was that it can be done in an orderly and peaceable way, but as time goes on it seems that this will be made impossible with a Jewish government lording it over us and sanctioning violence against us by ignoring the actions of the invaders they've brought in. Well said, Mr. Strom, I'm with you.
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Jews are declaring war on Catholicism. As a personal preference, I don't care much for Judeo-religions, including Catholicism, but in this case, the Jews don't like how the Poles use religion to preserve Polish tradition... Dr. Gregor Gysi, Jewish-German radical left politician, certainly thinks so... [ame="https://www.youtube.com/watch?v=_MqQtcFPDa8"]https://www.youtube.com/watch?v=_MqQtcFPDa8[/ame] The thing is, the Poles have been aware of Judenfrage for centuries. That's why their balkanization in the Soviet Union (cultural marxist Pan-Slavism) didn't work so well for them, or any of the other Slavic states that used to be under Polish influence, like Ukraine. [ame="https://www.youtube.com/watch?v=tyRpG8cLwuM"]https://www.youtube.com/watch?v=tyRpG8cLwuM[/ame]
 </t>
         </is>
       </c>
@@ -4533,7 +5365,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>54.53</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -4543,9 +5375,13 @@
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exactly, I talked about this on another thread. Although the Muslim scum needs to be cleansed from our European homelands we can make use of their hatred for the Jew, for they are the cause of the problem, the massive Muslim immigration is simply the result. It seems some here need to read up on the Jew and study their ways a little more before coming back to this conversation. The demon Jew is the enemy of ALL.
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.000.000 you're dreaming man... That should be one of theories of 20th-century, anti-Turk, French anthropologist telling things such: "when the Turk came to Anatolia, he had the terrible 'Mongolic-Tataric' look; and by raping the natives ... it was one of the rare time that the 'inferiors' beated the supremes and finally the Turks have lost their terrible look to be aryanized ... " bla bla bla ... moreover, look at the problem of your country before being busy with the Turks, and feeding with lies Keep in mind that all our Great victories were before 1526 ... And they haven't married our daughters .. But rather native balkan girls. Not all of them were Muslim, just contrary, they were free at their choice... Year-Number of Jannisaries[5]1514-10,156***1523-12,000***1526-7,885***1564-13,502***1567-68-12,798***1574-13,599***1603-14,000***1609-37,627***1660-61-54,222***1665-49,556***1669-51,437***1670-49,868***1680-54,222
 </t>
         </is>
       </c>
@@ -4553,7 +5389,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -4563,9 +5399,13 @@
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Another Conspicuous Coincidence Operation Bagratian was the staggeringly successful Soviet summer offensive for 1944 AD, which broke the back of the German army, ultimately causing its increasing collapse. Operation Bagration "was named after Georgian Prince Pyotr Bagration, general of the Russian army who received a mortal wound at the Battle of Borodino" against Napoleon in 1812 AD*. Now, not only was Prince Bagratian a Boyar [Russian noble], who fought for the Czars, but, presently, a scion of the Bagratian royal family of Georgia is the current claimant to the Imperial Throne of Romanov Russia**.* http://en.wikipedia.org/wiki/Operation_Bagration. Napoleon was the military savior of the Proletarian French Revolution (1789-1815 AD), upon which was based that of the Bolsheviks a hundred years hence. ** http://www.imperialhouse.ru/eng/impe...m/leonida.html ; http://en.wikipedia.org/wiki/Leonida...hess_of_Russia Thus, Operation "Bagratian" blatantly refers to Imperialist, Czarist, Boyar-ist, "counter-revolutionary" roots*.* "Counter-Revolutionary" roots from, incidentally, beyond the borders of Europe, in Georgia. ("Again w/ the 'George' [Ge-Urgos (Gaia's Worker)] references..." Europeans, apparently, being but bat-blind barbarians, are only fit for foreign rule... Note, too, that Boyar is a Turkic word...)
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My family refers to them as "Coleens", I've always thought it was a beautiful combination. My sisters and cousins tan in about 60 seconds, and burn after 5 minutes. They are as fair skinned as redheads.. They all had an identical spray of freckles across their noses when they were young. Along with the brown eyes, I actually tan. The sun turns my hair red, and I get very dark. My mom used to call me the little indian. Even before I was racially aware, the brown eyes bugged me. I felt like I wasn't quite as White as the rest of the family.
 </t>
         </is>
       </c>
@@ -4573,19 +5413,23 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>68.48</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We do not care what their ambitions are. They bring their culture and expect us to observe their tabboo's and superstitions, thereby creating a parasitic culture that leeches off our benign and humane culture. Their degenerate cultures are gaining access to our culture by the back door. We do not want our children growing up taking derelict cultures for granted. DNA. Apart from that obvious fact, they will all be ritually mutilated and perpetuate this degenerate ritual, and try to enslave our people to this infamous rite. For the un-evolved probably so, but for evolved races to breed with un-evolved races is reversing evolution. Breeding with a stone age hunter gatherer is not evolution for us. No sweat.
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have a tough time believing that East Asians and Jews have a higher average IQ. However, the website says the following, what do you think about it? I think it makes sense with the reality of what I see; Europeans have the greatest people and the greatest potential, but we also have an excess of degenerates (race-mixers, etc.) that pulls us down. Going one step further, it's even likely that our average IQ will go higher as race-mixers are selected out of our gene pool. There will be less of us, but smarter. Also, I read that a person with an IQ &gt; 115 "gathers, infers own information". That sounds like the average SF poster to me, researching the lies of the Jewish-controlled media.
 </t>
         </is>
       </c>
@@ -4593,19 +5437,23 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">That is very true and their are historical good reasons (memories of the KulturKampf of Bismarck made German Catholics wary of German nationalism) never the less Hitler himself came from a Roman Catholic background and the leadership of NSADP was top heavy with people from RC backgrounds. The whole Furher princep and the pomp and circumstance was extremely Roman Catholic.
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are certain races that need to be sterilised. Forget contraception in Africa...too expensive, and the results are not worth the effort. There has to be a point where we accept that breeding quality out weighs breeding quantity. To convince muslims of this will be an uphill slog. Muslims even breed with their cousins...inbreeding The science of Eugenics has been swept aside for to long, and we need to re-discover the original intentions of the science. Just as in Horse breeding, you do not save the runts and allow them to sire bad stock. We could short circuit the contemporary probeings in Britain to find the violent gene and just sterilise the degenerate races. To save futher on costs, we could simply stop sending aid to these people, which only gives them incentive to come to the west, and also we need to close the borders.
 </t>
         </is>
       </c>
@@ -4613,19 +5461,23 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>99.73</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">And what is your point exactly with this "martial arts timeline" article? It does nothing other than prove what i said to be right. It clearly says that in the 6th century BCE there were the first ten styles of comnat in india. A proper, recorded martial art. Before that there were only pictures of warriors holding weapons. Now i'm asking you is that a martial art? if you think so, then also kicking someone in the balls is a martial art. Hell, even the method i use to eat my ice cream with a spoon is a martial art at this point. And i don't get what you are trying to prove posting a list of oriental martial arts. Good effort though.
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I believe those were Jewish Czechs that Hitler ordered executed. Stalin murdered far more of his own people but yet little is said of this. Hitler was a flawed but great man. He took a country that was demoralized and humilated after WWI and within 10 years built it up again to a great military might. He saved Germany from Communism, that Jewish cancer. Would you rather had Hitler sit back powerless while the jews destroyed and decayed his beloved Deuschtland ? Hitler had balls in the sense that he was one of the few Gentile leaders who stood up to the Jews. Because the Jews control my country and my country kisses Israel's ass. We need a Hitler over here to wipe all the filth away.
 </t>
         </is>
       </c>
@@ -4633,7 +5485,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>54.98</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -4643,9 +5495,13 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In South Africa we do not get Ben&amp;Jerries, which is good because it sounds like they are both jews. These people from PETA should be confined to a mental institution. This is the most ridiculous statement I ever heard,these idiots have nothing to do and they are wasting time and raising my blood pressure by going around and trying to change the way normal human beings live. These kind of nuts would have been purged in Germany in the good old days.
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulgarians have to have 4 kids per family or 5. It's possible. But I hear too many women are marrying outside Bulgaria and allot of men are leaving also. There has to be a way to eat the cake and the cherry ontop. Such a beautiful country and culture, I don't want it to fade away lead by dirty Muslims and Turks. Why don't Bulgarians go to Russia or Poland, get beautiful girl then come back Bulgaria have 5 kids, live good Slavic Orthodox Bulgarian life?
 </t>
         </is>
       </c>
@@ -4653,7 +5509,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>59.41</t>
+          <t>68.72</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -4663,9 +5519,13 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is so true. Why the hell would a woman do that to herself, anyway? Quite frankly, I find un-natural breasted women disgusting, regardless of race. I have never really liked Anderson, but I am sure that she was an attractive woman before getting her butt inside the re-making factory. As for her being jewish, I don't know. I am willing to bet any amount of money that if you guys were "media artists" the jews would throw "facts" here and there about you guys being jews as well. It is a well known fact that jews like to call anyone a jew, just so that it looks like they are a large numbered people.
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The jews have declared open war on our people. Why are we helping these people? "Australian nurses and midwives are being forced to announce their 'white privilege' before treating Indigenous and Torres Strait Islander patients - a move which has been slammed as 'racist to its core'." Nurses forced to announce 'white privilege' when treating Indigenous | Daily Mail Online Sorry For Being White | Australia Nurses Have a New Shocking Code of Conduct - YouTube
 </t>
         </is>
       </c>
@@ -4673,19 +5533,23 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I am reminded of a quote, I think by Erwin Rommel, he said: "The English are the only people in the world to treat war like a sport" He was, of course, alluding to the famous English ability of being cheerful, almost happy, in the face of adversity. It is true. We are at our best when challenged and faced with imminent disaster. I was watching A Bridge to Far, last week, and the banter between Laurence Olivier and Michael Cain showed the English spirit well. The humour, the silent resolution to do what needs to be done, without complaint. Is this the case in the pop-culture world of today? Could we English face the dangers our ancestors did without complaint? I doubt it. I look at the old soldiers who stand to attention on Remembrance Day and I know that a far supperior breed of men are passing away, and with them England may yet die. But then that is another English trait, the sense of doom...
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well that is how we feel entirely. Not all criminals are blacks and not all blacks are criminals, but an undeniably and totally inappropriate number are. Which is why we do not wish to associate with them and have them in our lives. Personal safety ? if you worry about that sure enough in my country we could take out the 15% blacks and put an end to 70% of the crime. Rude people ? I do not much care for them myself, if we wish to not associate with rude people that is another easy fix, take out the blacks and you get a much more polite and cohesive society. It is just like you said about yourself as a person, you do not wish to have contact with some types, whilst freely admitting not all our blacks are criminal and offensive, more of them than is acceptable are. Hence my view that not having to encounter the bad ones would be worth losing the contact with the good ones.
 </t>
         </is>
       </c>
@@ -4693,19 +5557,23 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>83.76</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maybe we'll only see the white russians here. they can't be that bad if so, Milla Jovovich is a very attractive albiet thin woman from Russia. Maybe the soldier "comrades" will go after the mud races instead! I have seen many russians advertising that they are white nationalists. Personally, the whole former communism state thing should be anathema to WN's. It's like obobo wants more red allies here for his big takeover. Those hipocrites in his administration call everyone "racist Nazi's" then steal ideas from the Third Reich at every turn! Impeachment for this begins on....? Obobo's trial for treason starts when exactly...? Nixon is likely rolling in his grave over the things obobo easily gets away with. ridiculous! Somebody in government with a yellow shirt and some b**** needs to put curious george back in his cage before he eats another puzzle piece!
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Question: Don't you know there are good black people? There are good people in every race, bad ones too. Answer: I believe in the survival of the White race. In order to get that, we need our own exclusive living space. To have that, non-Whites must be physically removed from our living space.
 </t>
         </is>
       </c>
@@ -4713,7 +5581,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>69.05</t>
+          <t>96.74</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -4723,9 +5591,13 @@
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If they're not saying "We hate Whites" and if they're not criticising White Nationalists then I don't really care what they think, what's more if they had any brains they'd be supporting WN and forming their own racialist groups. Are they? No, they'd rather go the lazy route, play plastic Gangstas and dance for the Zionists like good little "Niggaz", they should be real Muslims or strong Christians and stand up for their heritage and their land.
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is an excellent idea, especially for blacks. Seeing that all they buy with their welfare checks are plasma-screen t.v.'s, spinning 20" rims, etc. If only we could slip one by our jew government, negroes would be overjoyed to copulate with one another without the threat of pregnancy and get paid for it, too!
 </t>
         </is>
       </c>
@@ -4733,7 +5605,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -4743,9 +5615,13 @@
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I sent a card and replied to his last letter to me. I told him I couldn't wish him a 'Merry Christmas' as he wouldn't be having one. I did tell him, however, that all over the country, glasses will be raised to him at Yuletide. He will not be forgotten!
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Another minor, but shockingly stupid one. On Pawn Stars, they were discussing gliders in WWII. The main fellow, Rick?, explained, If that were how gliders were actually employed, it would represent an appalling waste of manufacturing man-hours and resources, because if the purpose were simply to transport a stick, there would be no earthly reason to purpose build an aircraft expressly to crash once they deplaned. The fact that the madness entailed in such an idea is susceptible to mere logic, as opposed to an historical education, is a 2nd demerit.
 </t>
         </is>
       </c>
@@ -4753,19 +5629,23 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>96.55</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why would anyone dispose of the 3rd and 5th highest classed regiments in an attempt to amalgemate into a universally skilled army? makes no sense. if they condense the ghurka (think thats the right spelling) regiment any further it will dissapear, they fight harder than any other regiment i have seen and are feared and respected by the enemy.....so why is mr blurgh disposing of our most valuable military resources?
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chinese are really filthy and repulsive if you ask me, I have had the "pleasure" of entering an apartment it made me sick, they do not use hygiene and they use human fertilizer to make food, lastly they kill their firstborn, evil commie chinks.. here I know I can be politically incorrect. Like sewer water, they imitate eveything and it's just revolting this whole city is revolting in fact, the musso-afro thirldworldist whatever, I have sen other states it's like paradise
 </t>
         </is>
       </c>
@@ -4773,19 +5653,23 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>96.73</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes, and I have also heard of the Alamo. Ranch Rescue is only handling a tiny, miniscule droplet of the larger, constant invasion. As much as I hate to think about it, by the time many people get serious and a shooting war erupts I fear it may be too late to save the greater part of the southwest and many parts of Texas. The only way to stem the tide is through constant, armed force. While a few Mestizos are caught and possibly sent back; a massive fifth column is already forming in the rear, leaving those areas practically encircled.
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay now I've watched it. I must say it must drive the Jewmedia mad that these highly skilled aeronautical scientists and engineers are speaking with such great admiration and awe of WW2 era German (i.e. "filthy stupid Jew murdering jackbooted Nazis") technology... This is not one of those cases where they can squeal Anti Semite Anti Semite Jew Hater Ostracise Holocaust™ Fire them Crucify! Death murder kill! As these men are all scientists and engineers who have contributed such an immense amount to US air technology advances that their credentials can be questioned but the skills not lost...
 </t>
         </is>
       </c>
@@ -4793,7 +5677,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -4803,9 +5687,13 @@
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDY as we've been going over this I realize that I myself was not 100% sure what it meant to be a "mainline" Church as opposed to the evangelical Churches. The mainline Churches are the "older" denominations, but despite the name there are more evangelicals than there are mainliners. I did a search and found this which I think is a pretty accurate description: http://en.wikipedia.org/wiki/Mainline I also found this which talks about the attitudes of many of these Churches towards Israel: http://www.christianitytoday.com/ct/2004/139/21.0.html Do you find it at all odd that the leadership of these Christian denominations would focus so much effort on denouncing Israel? Whatever Israel is doing to Muslims there are far worse offences committed against millions of Christians in Muslims countries (including about a million killed in the Sudan). Wouldn't you expect that they would be more concerned with fellow Christians than with Muslims? My opinion is that they do this to cozy to Muslims which they feel they need to do based on statements by evangelicals that were anti-Muslim. It is done to distance themselves from evangelicals and show Muslims that not all Christians speak with one voice. What do you think?
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am looking for a specific photograph of a young Afrikaner boy - apparently a young AWB member - shouting in anger, his mouth wide open. Sorry, people, this is all I have to go on, but a friend is desperately seeking this pic that was taken at some or other meeting years ago - if anyone can come up with something, I'd be most grateful. Thanks a ton, KIM
 </t>
         </is>
       </c>
@@ -4813,19 +5701,23 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sorry, but it didn't need fixing. I meant what I said. They are the spawn of Satan and subhuman filth. I have been choosing my words for almost 50 years now. I think I know what I mean. I didn't mean what you changed it to. Maybe that's what you believe.
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diversity in ads not reflected in real life - Advertising News - AEF Somewhere there's an America that's full of neighborhoods where black and white kids play softball together, where biracial families e-mail photos online and where Asians and blacks dance in the same nightclub. And that America is on your television. ... From Waaay Out West, --HLM
 </t>
         </is>
       </c>
@@ -4833,19 +5725,23 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Okay, first of all give me evidence that the Blacks have never even invented the wheel. Give me actual solid evidence that the Negro race, stretching all the way from Senegal in the Northwest to Mozambique in the Southeast, never invented the wheel. And no, don't give me some B.S. evidence that a small tribe in some village in the middle of the Jungle never invented the wheel. Sure, I'm aware of those examples. I said, give me evidence that the Negro race as a whole never invented the wheel. Second of all, we'll pay you as soon as you pay the Arabs, the Persians, the Indians, the Chinese, the Japanese, the Turks and other races for their contributions towards science and technology. But you'll never do that because you're a hypocrite
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I feel I need to share this with everyone. Two new documentaries with what looks to be unbiased opinion are due to be released soon. Fatherland - Documentary Kommandokorps - Due to be released. [ame="http://www.youtube.com/watch?v=ZqYKIShxrtI"]Fatherland - Documentary Kommandokorps or KK camps - YouTube[/ame] [ame="http://www.youtube.com/watch?v=bOfVfyNDLUU"]Fatherland - YouTube[/ame] Orania Film - Out on DVD. [ame="http://www.youtube.com/watch?v=njkUUAsWU1I"]ORANIA Trailer ENGLISH - YouTube[/ame] I have shared this one before. Very biased but it backfired. [ame="http://www.youtube.com/watch?v=BFWEtdZ5TWA"]Multimedia: Afrikaner Blood, inside a racist bootcamp - YouTube[/ame]
 </t>
         </is>
       </c>
@@ -4853,7 +5749,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -4863,9 +5759,13 @@
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chinese are really filthy and repulsive if you ask me, I have had the "pleasure" of entering an apartment it made me sick, they do not use hygiene and they use human fertilizer to make food, lastly they kill their firstborn, evil commie chinks.. here I know I can be politically incorrect. Like sewer water, they imitate eveything and it's just revolting this whole city is revolting in fact, the musso-afro thirldworldist whatever, I have sen other states it's like paradise
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The next time we have an election I say we stand in front of the voting booths and not let the coloreds vote. I mid as well say it, get rid of all the traitors that are now in power remove their citizenship and throw them out of our country. 14/88
 </t>
         </is>
       </c>
@@ -4873,19 +5773,23 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>85.5</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Probably also the basic reasons Muslim immigrants to Europe can go to the full extent and groom dozens and dozens of young white girls for prostitution rings. Fourteen y.o., eighteen y.o.; on camera, in a cheap apartment -- not that much of a difference really. It's more logical evolutionarily to destroy the psychological capacity of your enemy's young women to have real families in a context that involves protecting your own women as reliable reproduction opportunities for your extended kin network. One's conquest with a demographic angle, one's collecting Jew-chits that will eventually -- and probably within our lifetimes -- be rendered worthless except on China's terms.
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay , maybe astronomy wasn't the right word , but if you want to read prophecies look no further than the Bible .. I know the Bible was twisted and is a very re-written book , but I for one do believe in prophecies .. Even then I would make a distinction if the prophecy is Aryan in origin or by some wild jungle shaman of another race ... Our ancestors , the Indo-Aryans certainly had a high cosmic consciousness ..
 </t>
         </is>
       </c>
@@ -4893,7 +5797,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -4903,9 +5807,13 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which part exactly? Jewish Media Control? - http://www.jewwatch.com/jew-controlledpress-folder.html Hollywood? - "You bet they do--and what of it?" by Ben Stein The motivation behind 9/11? And the wars surrounding Israel, and the beating of the war drum on Iran. Ironic after Iraq the Zionists thought we'd do Iran for them too huh? I mean it's so obvious at this point, it's hard to believe people can deny it. But let's face it secret, you're a Jew, no matter how much evidence I bring you, you're going to eat your face and cry anti-semitism, or attempt some character assassination, that's just the way you people are...
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's headed for implosion. The Mexican government exists more on paper than in reality. Increasingly powerful narco-gangs are vying for control with the remnants of the Mexican state. For all you crybabies whining about how porous the border is right now, imagine what it'll be like when there is effectively no Mexican state.
 </t>
         </is>
       </c>
@@ -4913,19 +5821,23 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>80.71</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There's every reason to be positive, it's just that the state is not going to represent or protect us, we're going to have to go our own way and start playing the same minority power games as the others until the state implodes or becomes irrelevant and we can't bleed any more resources from it. Then we'll see, I suspect the other racial groups will be a lot more eager to come to terms than the anti Whites among our own people and the shoe will rapidly be jammed on the other foot as far as the rats in the ranks are concerned, remember everyone loves a scapegoat, if the non White power groups aren't getting their dues they won't be looking at us, they'll be looking at their sponsors and benefactors
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't think I need to mention this whole subject gives me the creeps. As far as I'm concerned, pedophiles should be castrated and given a life sentence if they've committed a sex offense, even if against only one child. Multiple sex offenses against kids should carry the death penalty. Any pedo who downloads child porn on his computer should be given a minimum sentence of 7 years and under court order restricted from owning a PC, living anywhere near a school, or from having any contact at all with kids professionally or socially upon his release. If he downloads or receives by snail mail any child porn where kids are tortured and sexually abused, then there should be at least a minimum of 25 years in jail without the possibility of parole. They'd totally dread the day I were president! I'd be the first one to earn "THE TERRIBLE" in my title.
 </t>
         </is>
       </c>
@@ -4933,7 +5845,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>74.32</t>
+          <t>62.04</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -4943,9 +5855,13 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Chechens had the backing of the US, Israel, Oligarchs, NeoCons, to attack Russia, just as the Albanians/Bosnians had to attack Europeans/Serbs, they too have attacked US. Chechen Jihadists are in Syria right now killing innocent Syrians with " western " backing. Look what two Chechen Jihadists can do, and amateurs at that. Not one of these people should be allowed in any Western country, NOT ONE. Boston Bomb Suspect In Custody After Showdown " Police have detained the surviving Boston bombing suspect after he was found in a boat in backyard following a huge manhunt that left the city virtually paralysed. " .
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If der fuehrer had won the war,had annihilated the mongrols and slavs in the east,had rid Central and Eastern Europe of the accursed jews,there would had been no cold war between Russia and the U.S. and most importantly the power of world jewry would have collapsed,though no doubt they would have remained influential in England and America. Of course France would have become German territory and there is every reason to believe that the Third Reich would have,if not straightway after its triump in WWII then at least inevitably set about to engage Britain and America in a new and protracted war through concentrated efforts by air and by sea,a full-blown invasion whereby to annex these countries as colonial possessions in the West,thats if one accepts that A.Hitler truly sought to establish a world empire ... had this been the case,there would be no modren concern over Spanish-speaking aliens,and the spooks and jews would themselves serve NO threat at all. KB
 </t>
         </is>
       </c>
@@ -4953,7 +5869,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>88.85</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -4963,9 +5879,13 @@
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You people want Islam off your back &amp; off your land . . . then get ride of UIsrael So Arabs could take care of Zionism for you once for an all. To do that 1- Stop electing Jews into your Senate &amp; House 2- Stop paying over $$$ to support Israel (you have so far paid them over $800 Billion in forgiven foreign aid loans &amp; grants in terms of 1994 dollar and this is not even include the free military hardware they get 3- Get ride of the lobby influence in any form, they are playing you like a violin and most of you don't even know it
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[QUOTE=Monkey Mandela]Sadly, we have woken up too late. Nothing more can be done now. The number of politically correct race traitors in and outside our parliament and media, is growing day by day. And so is the constant arrival of immigrants. We have become an ethnic minority in our own country. Never say die MM The army which thinks itself defeated, is defeated - we are not! Far from it. Btw, how can you bear to use that man's name? I would feel contaminated by it..
 </t>
         </is>
       </c>
@@ -4983,9 +5903,13 @@
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There's one in the Boarder's book store here in our little Kentucky town. I frequent the bookstore, but not Starbucks. On the first date I had with a woman I have since broken up with due to her being too yuppy, we ordered coffee to relax and read. She ordered the over priced cappachino witht the steamed cream and I got the over priced black coffee. It was the first and definitely the last time. WW
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I remember the TV show "Baa-Baa Blacksheep" based on Pappy. I got no problems with the man and if he was part Souix then it didn't have much power over him. He was a Fighter Ace - nuff said. BUT here's my question: if Pappy had flown C-47's would we give a rats ass? Face it Coursair's are one of the COOLEST airframes ever. I like Bf-109's a lot more but that's just me.
 </t>
         </is>
       </c>
@@ -4993,19 +5917,23 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As the title states .. The powers that be , for long , are out to take the guns away from the American people .. They operate , more often than not , by the "PROBLEM - RECATION - SOLUTION" tactic .. The powers that be plot an event with monstrous consequences themselves , then they REACT to it so that it looks as if they're deeply concerned and then try to "solve" the problem with their perdetermined "solutions" .. It's a trick .. In the case of the Las Vegas shooting I believe the shooter was the victim of mind control / mind programming by the NWO . . Which in turn gives the NWO the "justification" to pass sticter laws against gun possession .. Sound plausible ? For eons , I have given up believing in coincidences when it comes to politics . . I'm not even American but I can see an agenda behind all this . . So , who's with me on this subject ?
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeah, relatively poor Mexico does the same thing. All it takes is political will. And in the case of these Jews: they did it by ignoring all the international laws they used to help Jews in an emergency. My dream is for the Greeks to be able to show up the Jews by having swift, legal, humane deportations. None of this three years in prison without considering refugee status. Simply, are you from a country with a civil war? No? Your boat leaves tomorrow.
 </t>
         </is>
       </c>
@@ -5013,19 +5941,23 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>55.28</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ah yes, the typical thing that comes up in this thread. I know a "white" that has non white blood, and she is like us, therefor she is better then a full blooded real white. Great post. If they look white and act white = they are white, covers so many mongrels that just have light skin but are not white. It is amazing so many people on a WHITE nationlist site accept light skinned mongrels.
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excuse me "Bigtigger2", I addressed your post with respect, as I said you seem to be a Credit to your Race, in as much as you seem to be intelligent. However if you are simply here for a "Cerebral Brawl" with "White Folks" I will let you get on with it. I am sure there are people on our Forum who will oblige with a "Slagging Match". I am interested in your potential to anwser some serious questions. You have to accept the basic observation that our societies are at breaking point, $Millions wasted on people in incarceration. Millions flooding into our societies to undercut our work-force to work for low-wages. I accept your comment about "White-collar" crime, but we need to clear out the under-growth first before we get on the case of our people who are ripping us off. We will get there though.
 </t>
         </is>
       </c>
@@ -5033,7 +5965,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -5043,9 +5975,13 @@
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t xml:space="preserve">the news: Y! SPORTS former heavyweight boxing champion is knocked out in muay thai fight. News: Josh Thomson issues Press Release After Controversial Gay Marriage Comments josh thomson is the newest fighter to be targeted by the queer brigade for criticizing gay marriage in some way way. Roy Nelson: Daniel Cormier pulled an 'Uncle Tom' move - MMA Fighting Roy Nelson catches flack for saying his black friends described Daniel Cormier's actions as that of an "uncle tom."
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">True! Of course, we are living in vastly different times. This is after all the post-American era -- call it Judeo-America! Burn our capital down to the ground in the current era would result in millions of "Americans" (blacks and browns) rioting and looting the capital! They don't call DC the "District of Congo" for nothing...........
 </t>
         </is>
       </c>
@@ -5053,7 +5989,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -5063,9 +5999,13 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ouch! pretty rough situation your in! I guess the only thing you can do is just play along and keep your mouth shut! last thing you want to do is fight mexicans (trust me I was dumb enough to take on 30 at one time) they ALWAYS use weapons and numbers!
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">According to etymonline.com: According to the History Channel documentary Ancient Discoveries -- Ancient Secret Agents (DVD): Thus, writing "ancient micro-dot copies" of Homer's Iliad may have come about b/c of spy-craft in the ancient world*.* A Carthaginian sea-captain sails his Merchantman into Rome's Ostia harbor, casually consuming a handful of nuts. Roman harbor security check him out, and authorize him to unload. After offering a Roman guardsman, the Carthaginian captain walks down the gangplank and dumps the rest of his "snack", w/ a wink, into the waiting hands of his unassuming contact on the dock... Do that enough, and you can bring the barbarians down....
 </t>
         </is>
       </c>
@@ -5073,7 +6013,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -5083,9 +6023,13 @@
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Slavs got there first and settled for a while. Then they were chased out by the German tribe of Benjamin between 800 and 1000 AD in what was called the "drang nach osten." That was the time when Germans took over all the land east of the Elb River and established Magdaburg, Berlin and Frankfurt nach Oder. That is why so many places are called after the Slavic Tribe of Dan such as Dan-mark, ScanDanavia, DanZig ect. The Slavic Tribe of Dan inhabited these areas first, then the Germans chased them back to Slavdom where they live today.
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here is how to burn an iso properly: https://help.ubuntu.com/community/BurningIsoHowto For a new user, I guess Linux Mint is a good idea. DistroWatch.com: Linux Mint PCLinuxOS and its offspring (like Apartheid) are also very easy for beginners, and update continually to the latest software (without fixed releases). DistroWatch.com: Put the fun back into computing. Use Linux, BSD. has a good overview of the most popular distros. Burn a few and see what you like best.
 </t>
         </is>
       </c>
@@ -5093,19 +6037,23 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I gave up and deserted the democrats and voted for El Presidente Boosh. Anyone who is NOT an idiot knows that the republicans have deserted US and America to join the jews. I will take a Nader or even a jew over a lying, decieving, traitorous republican, or a stalinist democrat every day. At least with a jew, I can sort of know what to expect. Presidente Boosh has done nothing but destroy my confidence in the conservative wing(republicans-they just have more money) of the liberal party. For any dummies out there: OUR BORDERS ARE STILL OPEN! OUR CULTURE IS STILL BEING DESTROYED! JORGE BOOSH IS PRESIDENTE. My grandchildren still cannot drink our water where I live, because it has been poisoned by nitrates. They are literally selling us water now. I trust Nader more than any of those lifelong political parasites that they keep pushing over on us. But there is little point of stirring controversy, because we will just get another parasite that elite jew/gentile powers provide for us. Any real opposition to the two parasite system would be destroyed.
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think it will be a stand of for many decades, with Israel attempting to shore up its control of the land in as concrete terms as possible and through demographics. Meanwhile the Muslims will maintain steady security pressure on them and have even higher birth rates. It will only be resolved when Israel loses international support. I can't imagine them ever making a peace deal without an intent to weasel out of it. If that ever happens it will only be as a side-show to a bloody conflict.
 </t>
         </is>
       </c>
@@ -5113,7 +6061,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -5123,9 +6071,13 @@
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Here's the answer: They are: English and Irish on mom's side (dad was Irish came to England after WWII) they are German, Swedish, Norwegian rapped up into Minnesota American on their father's side. They are great. Mom is very beautiful and very strong, but just a bit too "Irish" - has a volcano temper and likes to fight a bit too much. Doesn't seem to be a problem with the children. The Celtic and Nordic combination works out great! Nordics can be kinda of boring and lack passion, they need a spark of something else.
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"It was a real gas" - music reviewer at the J**ish Chronicle. As an aside I was in a European capital recently for the signing of a treaty and staying in the same hotel were some loud and obnoxiously noisy American orthodox jews. They were there for a few days and no could but help overhear them discussing that they were to visit Auschwitz. So off they went (and this is what I found ironic) they never came back.
 </t>
         </is>
       </c>
@@ -5133,19 +6085,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>52.72</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nothing bothers me more then white kids trying too be black !!!!!! It brings a tear to my eye too see how the white youth of today act. I'm 38 y/o and have been around the ******s. I've seen how they act, how they treat whites. For some reason, the nigglets are brought up too belive that white people owe them something. I'm sorry, but it's not my problem that other ******s sold them into slavery, and white people bought them. What happened over 200 years ago has nothing to do with what is happening today. Now our white children are being tought to reject the white culture. We white people have the richest culture in the world, yet it's being treated like a plage. Be proud too be white !!!!!!! 2508
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Even the media now is starting to be more on the side of the Duke players than the strippers. However Nifong knows this has gotten out of hand and has shrewdly delayed the trial to a YEAR from now. By then we will have forgotten about it and the media will have moved on to something else. What other reason could he possibly have to delay the trial for so long?
 </t>
         </is>
       </c>
@@ -5153,7 +6109,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -5163,9 +6119,13 @@
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Would you mind answering a few questions? Since you are part of a party, could you clarify just what has been asked of the Latvian people and other member states? Is it for us to take a proportion of 20000 over the period of two years? Or for us to redistribute the hundreds of thousanda already in and then take an extra 20000 which we would redistribute?
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm sure you appreciate the power and significance of words and the mass media. We cannot escape usage of the label White Supremacist on the airwaves. I think it's important to not use the label branded by our opponents, but select a name that is more favorable and accurate. Like abortion: proponents call themselves pro-choice, but opponents call themselves pro-life. Our opponents are calling us white supremacists, but what are we going to call ourselves? Words do matter. I have communicated with news outlets about biased language, and it does make a difference when people complain, and refuse to use the biased labels branded by the mass media. EG I complained recently to a local radio station about them always saying pro-choice instead of pro-abortion, and host larry mantel wrote back saying that my complaint is legitimate and he will attempt to use more neutral language.
 </t>
         </is>
       </c>
@@ -5173,19 +6133,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>56.01</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If you don't like a country and resent its history, then don't live there. It's more offensive for foreigners to make statements like this because they have chosen to live here and earn money here, whereas it's acceptable for natives to be more critical because they usually have no choice but to live in their own country. If a British person went to live abroad and made a point of refusing to observe local customs and commemorations and telling the locals how he disagrees with them and their history, they would be regarded as a bigoted troublemaker who has no place to be in their country. The Serb no doubt hates Britain for obvious reasons, but if he had any real integrity he would not have come to work in this country in the first place but the reality is the country and culture he hates is the one that offers him the highest reward. It's a dilemma that a lot of foreigners face, most of them hate Britain but want to earn money here.
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[email protected] Welcome to this forum and to Stormfront. Your post singles out individuals rather than ideas. Not good! I believe that the Klan has a serious image problem, we know why that is. The Jews have made every movie and TV show for the last five or six decades. Instead of showing the Klan protecting a disarmed and occupied conquered South from the ravages of Jew carpetbaggers and roving gangs of freed Negroes the media has created a caricature that the general public has accepted. Just the way it is. The same goes for all things associated with Hitler and Nazi's.
 </t>
         </is>
       </c>
@@ -5193,19 +6157,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>56.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[email protected] Welcome to this forum and to Stormfront. Your post singles out individuals rather than ideas. Not good! I believe that the Klan has a serious image problem, we know why that is. The Jews have made every movie and TV show for the last five or six decades. Instead of showing the Klan protecting a disarmed and occupied conquered South from the ravages of Jew carpetbaggers and roving gangs of freed Negroes the media has created a caricature that the general public has accepted. Just the way it is. The same goes for all things associated with Hitler and Nazi's.
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeah, I noticed that this morning when I tried to access the site. Thought it might be just some technical problem, but intuition started to make me suspicious. Does seem like these attacks are increasing in frequency as well as intensity. I agree someone out there must be getting nervous about some aspect of the activity he/she has seen here.
 </t>
         </is>
       </c>
@@ -5213,19 +6181,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Didn't the Tibetans bring it upon themselves, my Erudite friend? If they simply gave into progress and were willing to give their petty 'tribal freedom', their silly religion, culture, language and dreams for the future? Could they not give this all up, as Whites do int he West, and live in peace and without violence? If the Tibetans simply gave up to Chinese progress, they would not be any need for violent and bloody repression.
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I dont think that femenism has anything to do with this. For instance, in Uk is really sick to see all this hapening. I was there last year and to try to talk with a British men is imposible, first of all they wouldnt talk with you if you are a White i think, and less if you are European. THe only thing that british men talk to now it is to what is not european or non white, as if it was something that to be proud of. It is the end of the civilization. I think this example can be applied to the rest of White men all over the world nowadays
 </t>
         </is>
       </c>
@@ -5233,7 +6205,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>72.68</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -5243,9 +6215,13 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Here is a great opportunity to do a Montgomery Bus style boycott only reverse the tables against wilding Blacks. Start a grass roots taxi cab boycott of Black men to protest letting the Central Park Rapists off Scott free. Print up flyers and distribute to all taxi drivers not to pick up Black men as a protest to this horrible Black racist act. The best part about this plan is that the boycott is 100% guaranteed to succeed because cab drivers already boycott Black men as potential thieves, murderers - Arab drivers, Black African drivers, ethnic Whites all practice racial profiling. The boycott will be announced as a great success and we can use it any time the Blacks do some other horrible act to excuse Black criminals.
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This mutant simply MUST NOT be allowed to stay. Otherwise, we will see so many applicants, you could grow an entire rainforrest with the paper used by them. Not just here, but basically EVERYWHERE in Europe would get this influx. Even if she hadn't turned out to be a lying, silverback ape, anything other than a rejection of her appeal will spell serious issues ALL OVER EUROPE within WEEKS, never mind months. Our supreme court better not screw us or else were f**ked.
 </t>
         </is>
       </c>
@@ -5253,19 +6229,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>56.73</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">University of Michigan to remove name of ex-president from building mlive.com, April 4, 2018 University of Michigan to remove name of ex-president from building | MLive.com The University of Michigan Board of Regents approved requests to rescind and remove names from two of its buildings - the Clarence Cook Little Science Building and Alexander Winchell House - during its meeting Thursday, March 29. {}
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You have single handedly made the white race that much less, you could of made two beautiful white children, but you made the choice to throw your heritage down the drain and destroy a white bloodline. There is no pride in that. Congratulations on speeding up the death of your own race. So yes, you are a traitor.
 </t>
         </is>
       </c>
@@ -5273,19 +6253,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>61.02</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I can't believe they left out Boulder, Colorado. My home town may have been taken over by East Coast jews, and other assorted yuppie scum, but it is still a beautiful, and clean city. For my money, I'll take Indy, over Pittsburg any day of the week, ( and we ain't talking football ).
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quit your deluded talk. National Socialist policy has nothing to do with the three above you mentioned. You can read these for yourself! It is from National Socialism archives and documents, it has nothing to do with the Jew. Have you even read Mein Kampf? Yeah because they will know what happened with Germans and foreigners if found guilty of sexual relations. I've just showed you so much evidence yet you are in denial, its a sad case really. What makes their statements anymore valuable than "Holocaust survivors" who have been exposed as liars? They opinions do not refute what I have just shown you neither.
 </t>
         </is>
       </c>
@@ -5293,19 +6277,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>62.53</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unfortunately it is all too common. They will use any method to rob you of whatever you have because these people have no conscience. I put them on par with Muslims. A lot of them carry knives and take a sick pleasure in cutting you or threatening you. I'd stay as far away from them as possible because these are the type to actually carry out their threats. I think this is a very serious problem and it's shameful that nobody is addressing it properly, in ANY country. Romania did until they joined the EU and the EU forced them to give the gypos more rights &amp;c. These people are a cancer.
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you very much. The translation is going on. I don't speak Afrikaans, but I have a very basic level of German, which is pretty similar to Afrikaans, so it will be easier for me to do the job. Indeed, it is not going to be an exact translatio. For example, "Stem" means "Call", but I translate it as "spirit", because it makes much more sense that way, at least in Spanish, while the sense of the song will keep being the same.
 </t>
         </is>
       </c>
@@ -5313,7 +6301,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -5323,9 +6311,13 @@
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Personally, nothing. But Hollywood leftist tendencies were "trendy" as far back as the early 20th century, gained steam with "Hanoi Jane" Fonda and have become pretty much de rigeur since then. It's almost axiomatic, in this day and age, that you can't make it in Hollywood or New York without being what used to be labeled a Communist sympathizer on some level. 16
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CEO At Jewish Firm Warns Employees To Keep Low Profile (Reuters) - Goldman Sachs Group Inc Chief Executive Lloyd Blankfein told employees to avoid making high profile purchases, the New York Post said, citing sources. Blankfein, who first asked employees to avoid large purchases late last year, has stepped up his campaign in recent weeks, a source told the paper. "This is a sensitive time for us, and wants to make sure that we're not being seen living high on the hog," the paper quoted an anonymous Goldman executive as saying. Goldman has faced a torrent of unwanted publicity recently including an unflattering story in Rolling Stone magazine, which accused the bank of having a key role in various market bubbles stretching back to the 1920s. http://www.reuters.com/article/newsO...5732GJ20090804
 </t>
         </is>
       </c>
@@ -5333,19 +6325,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>96.74</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is an excellent idea, especially for blacks. Seeing that all they buy with their welfare checks are plasma-screen t.v.'s, spinning 20" rims, etc. If only we could slip one by our jew government, negroes would be overjoyed to copulate with one another without the threat of pregnancy and get paid for it, too!
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I thought teenage girls, with no self esteem and with daddy issues or self hating liberals were the real problems but i find this new trend very disturbing idk if it's just me but we all know Asian (Chinese looking) are a issue with many fellow White Americas, especially men going into relationships with them but lately out of the few conservatives i know have been engaging in relationships with indian women ! it's now common in NJ/NY but one of my former classmates got married to one of those dirty skin women and he lives in NC, why are they doing it ?
 </t>
         </is>
       </c>
@@ -5353,7 +6349,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -5363,9 +6359,13 @@
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My Toyota is White! It has a little red National Alliance sticker in the corner of the windshield. Had GM products for forty plus years. I like my Toyota. I hope that the Jappanese never reduce themselves to a dysgenic Multicultural existence. Careful there, Troy. I'm not certain, but I think that it was the Long County Rebel that you saw in that truck.
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'd say avoid the overuse (or misuse) of differential intelligence data between the races. I hasten to add that I do not dispute the conclusions of Mr. Rushton, Arthur Jensen and others. What I wish to point out simply is that intelligence is only one of several factors determining which race leads and which follow. Other factors include: bravery, audacity, and the general willingness to take risks. From Waaay Out West, --HLM :smoking
 </t>
         </is>
       </c>
@@ -5373,7 +6373,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -5383,9 +6383,13 @@
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I agree, that is the 'missing element'. Therefore it cannot serve as a complete free-standing ideology on its own right, as its incompleteness in that regard forces its amalgamation with a scientifically designed system of government in order that its principles may have practical application, beyond that which is found to be useful to individuals. Its incompleteness in that regard is what allows its corrupted use in service to the enemies of civilization, as a justification for economic Malthusism and cultural division along strictly economic lines, rather than as another moral basis, provided sans religion, for the protection of the source of civilization and its wellhead, the White Race. .
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So if you are at liberty to delete posts why dont you allow that WN to delete his posts or even his account? He asked to be deleted ( But you did NOt delete him; you simply made him inactive.) Double standard anyone? Oh wait Im probably talking to myself again. You seriously dont remember that post of mine you REJECTED just last week?? Because I do. You must get many THOUDANDS of posts every day if you cant remember something from just last week, MR VIKING
 </t>
         </is>
       </c>
@@ -5393,19 +6397,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>57.28</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why do you describe to such a warped ideology? going all the way back to the 20s, it has always been the anti-fascists that commit violence and break the law. When so called 'racists' try to hold rallies, despite been viewed as the bad guys, it is typically the anti-fascists/racists that are arrested in numbers. Funny that. How do the tolerant types justify brutal and criminal behavior? The new ultra hip cause for anti-fascists is Muslims. This fetish has entered new realms of anti-fascist delusion. Considering Muslims hate the gays, who are so precious to anti-fascists. Not to mention the Muslim desire to set up medieval theocracies in which women and non-Muslims have little to no rights. Your ideology is perverse and has no moral foundations. The only standard ideology of you people is a love of Marxism. Ya know? that wicked way of thinking that has lead the murder of hundreds of millions innocents.
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Come to think of it, I wonder if Mandie has money for bail and for competent legal counsel. What do you think, ladies and gentlemen, maybe we should do some fund-raising on her behalf. We all know that you cannot get justice unless you have money, and that could easily be one of us jammed up by some Mike Nifong-type of rogue prosecutor. A lot of us kicking in a little bit of money could make a big difference here. I'll get Mandie's address in jail. People who have been in the joint tell me that letters from the outside make a huge difference in terms of lifting their spirits.
 </t>
         </is>
       </c>
@@ -5413,19 +6421,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Very foolish of them to use a term like that. Do they really think insulting White people will make them listen? This type of thing is only going to push more Whites to our cause! And by the way we all know who is the most fragile here, it's the jews. Any criticism of them and they begin to cry! Jew Fragility!
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Boer and Southern Planter elite classes are the exact same in desires, and in situations. There is a reason that the Afrikaners who forged their new government under the National Party chose to duplicate the Southern US's "Segregation" method. But what those men failed to recognize is that Segregation was temporary and could not last; slavery and its patriarchal forces were permanent...as history has proven, but segregation would only lead eventually to conflict between the separate ethnic groups fighting over the same land.
 </t>
         </is>
       </c>
@@ -5433,19 +6445,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>99.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This makes my blood boil. These Muslim ******s have to be sent back one by one, they should shoot to stop and then arrest them after medical treatment and deportation. If any of their family is caught doing violent crimes too then everyone of them should be deported. In Sweden there has to be a law, if you are not from a European country, you can't get citizenship. If you brake the law, you get deported, simple as that.
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's bull****, trust me. The readings are inaccurate when it comes to new worlders. There has not been one American that I have seen who does not have at least 0.1% SOMETHING non-white on that BS ancestry composition, and I have seen hundreds. 23andme's original ancestry painting was accurate. And, if you REALLY want even MORE accurate information than 23andme can provide, give your results to Professor Mcdonald. It's funny, because while NO AMERICAN has 100% European on there, and always has 0.1% of some BS, EVERY person that is from Europe is ALWAYS 100% European, which is such a joke. For example, I have seen tons of SICILIANS and PORTUGUESE that have 100% European, when that's laughable because of the fact that these populations on average have at least 1% African, due to middle eastern admixing. Trust me, it's complete BS, and apart of the moron who they had create the 'ancestry composition's' pro multi-racial agenda.. Their sources/methods are beyond faulty. As I said, if you want REAL results, send your data to Professor Mcdonald or use the free utility that was created by Stanford, Interpretome.
 </t>
         </is>
       </c>
@@ -5453,19 +6469,23 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well, I've got some good news to report. I heard it mentioned over a radio news segment that sales of hip hop music are sharply declining this year. Maybe it's largely white consumer teen is figuring out that rap not only sucks and is getting old, but that it's the ignorant and hateful grunting of subhuman ghetto groids. That the fashion of wearing your pants half-way down your butt is something literally out of prison culture as a signal to other inmates that you're available--if you catch my drift.
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blacks gathering - It's pride. It's all those years of slavery and oppression. Black panthers calling for death of whites. "No problem!" Hispanics gathering - They're a proud, hardworking people that just want a better life. They must gather for equal rights. Let them come to your country and do as they wish. They're driving down wages? Nah, they're just taking the jobs no one else needs. Asians gathering - Own many of their own businesses. Mostly asian only employees. That's ok they just want a better life and rights like everyone else. Whites gathering - "****ing Racists!" "Hitler!" "nazis Go home!" Sound familiar? It's what jews shove down our throat on a daily basis. First step to addressing the problem is sending pinnochio to Israel and then severing all ties.
 </t>
         </is>
       </c>
@@ -5473,19 +6493,23 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Just speculating here: If we are to believe what Albert Speer said that Hitler said, from "Inside the Third Reich", Hitler had this opinion: And then, if Islamification had happened in the past, Hiter thought this would have resulted: Adolf Hitler's religious views - Wikipedia, the free encyclopedia So perhaps, if an Islamified Britain gets rid of Political correctness, this would be better for the British people? They might rise up and no longer shuffle towards the slaughterhouse. Of course, I think this could only happen if PC dies completely, which would require the removal of the masters of the media in the US, something unrelated to what happens in the UK. And I say this with not much knowledge of Islam.
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You may be what I have suspected for some time on this site, an example of a government plant to pollute and minipulate the way people think on this site.There is nothing right about racial erasing(mixing) and there never will be. As for the phrase"American",I do not apply that to myself and I have that flag "X" ed on my the back of my jacket in large text. If your just a liberal, we(racists) do not agree with you and will keep your way of thinking away from our children,since whites are a choosen people and not to be adulterated as the bible states about staying away from other races.If you are a plant,you are a poisonous serpent to our people's mind's and the future of white societies and you should just leave this site now.:attack
 </t>
         </is>
       </c>
@@ -5493,19 +6517,23 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>97.95</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Good evening Stormfront! As a boy a family friend, an adult and a great person, would grab me in a headlock and tap on my skull with his knuckles, and say my head was harder than a hickory nut. I chose hickorynut because I must be tougher than a hickory nut for all the damage done to me physically. I keep getting knocked down by life, and I keep getting up.
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To be honest the part in this video where Duke is in a midst of towelheads being cheered on made me sick to my stomach. I can't stand this muslim hugging, its like spitting in the face of every european who faces murder and gangrape every single day by these people. The enemy of my enemy is certainly NOT my friend. I dislike Israel as much as everyone on this board but I have no sympathy for any arab or muslim, they are are Europes mestizos and blacks all rolled into one.
 </t>
         </is>
       </c>
@@ -5513,7 +6541,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -5523,9 +6551,13 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Or maybe it's an homage to Baudelaire's prose poem "Be Drunk": You have to be always drunk. That’s all there is to it—it’s the only way. So as not to feel the horrible burden of time that breaks your back and bends you to the earth, you have to be continually drunk. But on what? Wine, poetry or virtue, as you wish. But be drunk. And if sometimes, on the steps of a palace or the green grass of a ditch, in the mournful solitude of your room, you wake again, drunkenness already diminishing or gone, ask the wind, the wave, the star, the bird, the clock, everything that is flying, everything that is groaning, everything that is rolling, everything that is singing, everything that is speaking. . .ask what time it is and wind, wave, star, bird, clock will answer you: “It is time to be drunk! So as not to be the martyred slaves of time, be drunk, be continually drunk! On wine, on poetry or on virtue as you wish.”
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black children subjected to higher discipline rates than peers Michigan News, July 17, 2018 Black children subjected to higher discipline rates than peers | University of Michigan News ANN ARBOR - Elementary school discipline policies that rely on expulsions or suspensions as punishment may be fostering childhood inequality, a new study shows. {}
 </t>
         </is>
       </c>
@@ -5533,7 +6565,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -5543,9 +6575,13 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Up until recently, Bosnia had the old Yugoslav Unique Citizen Identification Number system, which worked quite well and which is still used in Serbia. They only decided to change that perfectly functional system in order to distance themselves (and, more importantly, the Serbs in Bosnia, many of whom are also citizens of Serbia) from Serbia. The Serbs were against this plan from the start but they were illegally outvoted in the parliament, so they now want to create a semi-separate system for the Serb Republic. The long-term goal, of course, is for the Serb Republic to secede.
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100% correct but see the difference here is guerrilla warfare is used as a tactic to assist in achieving broader successful outcomes of a conventional war. It is akin to the way the WW2 Germans used the Brandenburg Division and SS to infiltrate US lines in the Ardennes to sow panic ahead of the main conventional attack. Correctly ne would rather refer to that as deep penetration raids ... these are performed by regular troops in uniform performing dangerous tactical maneuvres. In the case of guerrilla warfare as a strategy the entire army is built on the premise that ongoing guerrilla warfare can achieve strategic success... and that is a myth.
 </t>
         </is>
       </c>
@@ -5553,19 +6589,23 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t xml:space="preserve">He is still writing great articles ... Behind the Campaign For War Against Iran and the IHR is still active, all you have to do is check the web site. The real issue is not exposing another holohoax lie. The freaking thing is preposterous from start to finish, Butz wrote his book in 1976? Do we really need more articles explaining the hoax? The issue is not just setting the record straight with respect to the hoax, the issue is that we are about to start WW III because of the Jews and get ourselves incinerated. Weber is trying to do something about THAT. My opinion is that the hoax is the Achilles heel of the Jews, and Weber no longer believes that. SO WHAT? Maybe he is right. To see him continually trashed is discouraging. But then, if you're a denier there are lots of things that are discouraging.
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's been a long time since I dealt with high school math notation. The following is the solution to the question as provided by the poser of the question. See the two specimens of notation indicated by the red pointers. The first shows the contents of the parens, 10, being multiplied by 2. The second one shows the contents of the parens, 20+a, being multiplied by 100. Yet, in the original equation, s(p) does not indicate multiplication of s times p. The term "function" was used in conjunction with this equation. Does this make a difference? This is what fouled me up. P.M.
 </t>
         </is>
       </c>
@@ -5573,7 +6613,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -5583,9 +6623,13 @@
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nah lets not pollute the ecosystem with them rotting away in the ground...how 'bout cremation and then dumping their ashes in the ocean?? or a volcano! (that would be double burning for purification we'd be doing them a favor!) I'm still stuck in Commiefornia (love that) and have small children...I will now be sending this info to my parents and their friends so they will no longer harass me for wanting to put my children in private school or homeschooling them! gah! ;(
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sometimes men are so silly...I see men asking about Russian women quite often, and now about Serbian women! What you men need to know: All women are trouble! Plus, we are expensive! One thing you know you love a beautiful girl, next thing you look in your bank account and wonder where all the $$$ went...ah, you have spent it on all the dinners, the movies, the gifts to win her love!
 </t>
         </is>
       </c>
@@ -5593,7 +6637,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -5603,9 +6647,13 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well, as I saw last summer when I visited St. Petersburg you don't have a lot of Caucasians over there, but tell me my friend, when was the last time you visited Moscow? I never saw any statistics about it but I never saw even one Caucasian in Moscow who is working in some dirty job. Most of them are market sellers, paying bribe to the local officials to keep their business open or they are trading drugs and weapons, do you really think that it is the kind of labor power our country need? I'm pretty young and probably I don't know much about life but in the few years I live in this world I never saw anyone who is ready to share his money. Usually the ones who despise rich people only for them being rich are pathetic and miserable people. If they want to achive success our folk should work and not drink all day long and criticize the successful people. Peter the Great.
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genocide means the deliberate extermination of a nation and/or people. As of 2006 there has never been a referendum, or even an objective parliamentary debate in the UK discussing the merits of multiracialism, it has been accepted by the powers that be who choose to impose it, and stifle any opposition against it. The UK government’s own figures on demographic change state that whites will become a minority in the UK before 2100. Yet the government still does not see fit to allow the indigenous inhabitants of the UK to have a say about this most important question our nation faces. Multiracialism is a deliberate policy, not a force of nature, and the government knows the results. That is genocide in my book.
 </t>
         </is>
       </c>
@@ -5613,19 +6661,23 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>84.89</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alot of their early dutch fighters did kyokushin. ie Thom Harinck, bas rutten peter smit so maybe thats why its less "pot shotty" than muay thai. european kickboxing in general has more of a karate influence. hence the planted feet when kicking and differences in footwork. dont forget crocop and the swiss andy hug did pretty well in K1! [ame=http://www.youtube.com/watch?v=ev-A0X3z8-w]Andy Hug vs Mirko Crocop - YouTube[/ame] mind you there is more than one way to round kick. both have it's advantages. ive never done mt but pivoting on the ball an hitting with the shin is something I've allways done back to fullcontact as a little kid. go figure! must have been watching van damme lol
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which you know nothing about. #NotAnAnswer How about you and your junglebunny scurry back to whatever east Asian craphole you slithered out from and eat rats and fly-blown chicken feet the way your gods intended for you to do and stop worrying about people who don't belong to you? We don't belong to you, you don't get to say what we do.
 </t>
         </is>
       </c>
@@ -5633,7 +6685,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -5643,9 +6695,13 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I don't watch television so I can't comment on its advertising. Mainstream radio has become increasingly ridiculous with obvious black voices doing voice-overs even on country and modern-rock stations. Newspaper advertising and circulars are still pro-multiculti except for the coupons which( at least in my region) have become almost exclusively targeted towards Whites. BTW, it's tv-signal-changeover-day here and I believe the National Guard is about to be called in, the panic-level is so high.
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What do you think is happening to our race via mass immigration, low birth rates and the promotion of this democide by government and media? White Europeans are a minority in this world; in nations in which we become powerless minorities we end up being persecuted and murdered. In democratic states where one man equals one vote becoming a minority means losing political power. My racial group is a minority in the world and I do not want to end up a powerless minority in my land nor do I want my future generations to suffer this fate. I do not care about IQ tests, superiority complexes or whether some Asian people have degrees; this is about survival and nothing but survival. If you say that this world is for all of us and truly believe it you should support the rights of white people to have a land of their own in which to prosper and live in peace.
 </t>
         </is>
       </c>
@@ -5653,7 +6709,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -5663,9 +6719,13 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I must say, the fact that the EU security chief wrote a thesis on islam is scary. One wonders if that is the reason she was given the position in the first place. One wonders if there aren't oil magnats dictating who gets what in the EU. Even if not, her thesis plus her appeasement stills makes one wonder if she wasn't chosen because of her commitment to the desert death cult.
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This statement is much less true today than it was prior to the advent of modern media. We are able to record and save nearly everything now. This does not eliminate bias by any stretch, but it does allow for much more objective analysis and by many more people. How anyone could conclude that neither the Allies nor Axis Powers can be accurately identified as the "good guy" or "bad guy" is beyond me. To argue that the Axis Powers were the "good guys" would be about as absurd as arguing that Napoleon and France had every right to own all of Europe and was somehow therefore the "good guy" during that period of conflict. (Hitler sure as hell was no Napoleon Bonaparte though, not even close.)
 </t>
         </is>
       </c>
@@ -5673,19 +6733,23 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is worse than a sick joke. Obama is a homo freakazoid and his tranny partner Michelle proves it. "Faith based agency" HAHAHA! Wasn't it the Bushes that started this BS or does it go back to Reagan? It is pure BS regardless the government of the USA is not supposed to be involved in the religious affairs of it's citizens or lack thereof. Take a good long look at that freak, that is the future of religion in the west. I say to hell with that thing and to hell with any religion even remotely tolerant of it. I'll stop there...
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What a great topic. It would be good to have a whole new section of SF devoted to it. Family Search is good and free. Also, just Google your name combined with known locations of your family because sometimes other members of the family already did the hard work. 4th generation American, 98% ethnic German, 2% Scottish. Damn him.
 </t>
         </is>
       </c>
@@ -5693,7 +6757,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -5703,9 +6767,13 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Not IN white countries, genius. Why does every post from people like this guy get dumber? I really don't get it. I was new once too, but I asked intelligent questions. Is it really that hard to be polite? Ohhh, riiiiight... this is the "tolerant Left" addressing us. [ame="https://www.youtube.com/watch?v=PwlRp8n_eok"]So tolerant - YouTube[/ame]
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I want to see MORE signs. I want to see big fat guys with bullhorns in their mitts! How about some pitch forks and torches? Maybe something Arabish like a stuffed politico, soon to be torched. How about a few inverted flags? Better yet, how about burning some Mexican flags - after stomping on 'em? I want to hear voices raised in unison chanting something like: Down with Biden - down with 'Bama, You're big fat liars - so's yer mama!! I want to see big, tough guys pointing fingers, (or flipping them), and wild-eyed women screaming at the top of their lungs! Maybe they could use my wife.
 </t>
         </is>
       </c>
@@ -5713,7 +6781,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -5723,9 +6791,13 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t xml:space="preserve">They are economically right wing- so what? That could be seen as a sign of being basically individualistic to the point of selfishness. They still are fine with all sorts of immorality and degeneracy. Far more Scots go Church and take the natural order as Catholics would put it seriously. They are also a lot more instinctively racial.
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There's every reason to be positive, it's just that the state is not going to represent or protect us, we're going to have to go our own way and start playing the same minority power games as the others until the state implodes or becomes irrelevant and we can't bleed any more resources from it. Then we'll see, I suspect the other racial groups will be a lot more eager to come to terms than the anti Whites among our own people and the shoe will rapidly be jammed on the other foot as far as the rats in the ranks are concerned, remember everyone loves a scapegoat, if the non White power groups aren't getting their dues they won't be looking at us, they'll be looking at their sponsors and benefactors
 </t>
         </is>
       </c>
@@ -5733,7 +6805,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -5743,9 +6815,13 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think these riots are only partially racial, there's a lot of whites rioting too judging by the footage. I think it's more a case of a falling empire in despair and starting to turn on itself. I think the lock down has added to it as well, there's a lot more people now out of work (some with no real prospect of returning to work) than there otherwise would have been.
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Of course they should be disarmed immediately with their reputation for aggression and hair trigger paranoia. I'll add as well that if that were to happen we would have to supervise that closer than anything has ever been supervised. They will do anything possible to hide a few nukes just in case. We should simply place debilitating embargoes on them until they comply. Of course all this is a long way off, but we are waking up.
 </t>
         </is>
       </c>
@@ -5753,7 +6829,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -5763,9 +6839,13 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If that's not doublespeak, I don't know what is. Thousands of people ate that crap up like it meant something. Sure, it sounds good. Oh yeah. And reasonable. And so it was, once, in the fairy tales. The Pied Piper of Hamelin, anyone? Ah, such beautiful music! Such pleasant tickling of the ears! And you follow that angelic refrain to your doom. Somewhere there is a speech-writer snickering up his sleeve. I think there must be some kind of prize given out in the political speech-writing industry for whoever can write the best, most flowery and well-phrased steaming pile of bull****. No sane man capable of critical thought could possibly believe a word of this speech, no matter who uttered it, no matter the oratory authority. To me, it's as if this entire election contest is nothing but a giant practical joke, or a PR experiment to find out just how much the public will take. This just isn't real. It can't be happening.
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, TAR is an apt description. These (white) teenagers will probably end up getting married or shacking up with their mud friends, and have a whole string of kids, all "being touched with the TAR brush". For those who have not yet heard this expression, in the old days it meant whites having black blood in their lineage. However, we must bear in mind that this is all part and parcel of ZOG's new world order to mould mankind into a single grey, mindless conglomeration of mindless slaves which they can then rule at will. Read the protocols of the elders of zion at: http://abbc.com/protocols/indexen.htm Heavy reading, but very essential to learn just how they planned the nwo centuries ago and which is now being put into effect.
 </t>
         </is>
       </c>
@@ -5773,7 +6853,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -5783,9 +6863,13 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I believe that one thing to keep in mind while casting the harsh and accurate judgements is the benefit of hindsight. As these dramas were unfolding no one could be aware of the outcome, or the consequences of that outcome. Had Hitler been able to see the future of the disaster, his actions would have been tempered by that knowledge. This gives us a perspective that was far from his grasp at the time.
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sayanim Israeli Operatives in the U.S. - Americans know that something fundamental is amiss. They sense—rightly—that they are being misled no matter which political party does the leading. A long misinformed public lacks the tools to grasp how they are being deceived. Without those tools, Americans will continue to be frustrated at being played for the fool. When the “con” is clearly seen, “the mark” (that’s us) will see that all roads lead to the same duplicitous source: Israel and its operatives. The secret to Israel’s force-multiplier in the U.S. is its use of agents, assets and sayanim(Hebrew for volunteers). When Israeli-American Jonathan Pollard was arrested for spying in 1986, Tel Aviv assured us that he was not an Israeli agent but part of a “rogue” operation. That was a lie. Only 12 years later did Tel Aviv concede that he was an Israeli spy the entire time he was stealing U.S. military secrets. That espionage—by a purported ally—damaged our national security more than any operation in U.S. history. In short, Israel played us for the fool. http://www.informationclearinghouse....ticle25976.htm
 </t>
         </is>
       </c>
@@ -5793,19 +6877,23 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>66.52</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t xml:space="preserve">He was a Jew from Georgia. Communism was created by a Jew, perpetuated by Jews, so he just took the torch. OP, you conveniently forget the Rwandan genocide and the 10s of thousands of Americans who are gunned down in their homes and streets every year by your beloved "African Americans".
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't see how it is imperialist. I just see America as more of a place where Americans can draw from their various and unique Caucasian Backgrounds back in the old world and integrate it into what used to be a unique Western, a unique american culture(unfortunately that is dwindling into the corporate and soulless abyss today). And on a historical note, a good many Germans were Catholic, and many British and Scottish descended Protestants were initially concerned that they were loyal to the Pope before America. Which is absurd, and ironic coming from a group of people who belong to the Church of England which is run by the British royal family. I think at the end of the day, Catholic or protestant is irrelevant.
 </t>
         </is>
       </c>
@@ -5813,19 +6901,23 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are fighting your war, and most importantly we are paying for it...Those same workers that you say are 'benefiting' from the military industrial complex that support Israel are also being taxed to pay for it. Israel is the number one benficiery of American foreign aid... Jews like yourself say you are helping us while at the same time receiving large payments of cash courtesy of the American tax payer. Since 1985 Israel has been receiving 3 billion annualy in foreign aid. That is what is paying for all of those pretty jets there buddy. Sorry, but we dont need your kind of help.
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dont dispair there are many ways of dealing with the anti social trash of society im sure you can figure out the less than legal ways but there are also legal things you can do.One thing pikeys hate is the old bill, its a sure bet they use drugs they almost all do. An anonymous call made by yourself or someone on your behalf to your local police station they have to respond
 </t>
         </is>
       </c>
@@ -5833,19 +6925,23 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>73.18</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debtor prisons are the only prisons we have.. All law is commercial law(commercial code). The United States went bankrupt in 1933, and was reorganised in 1944 at the Breton Woods conference. The Federal Government was the government of the Territories, the District of Columbia, etc. It was not the constitutional government. There are 6 STATES of the Federal Government, they are: Guam, Puerto Rico, The American Samoas, The American Virgin Islands, The Northern Marianas Islands, and the District of Columbia. When you apply for RESIDENCY you are stating that you are a FEDERAL CITIZEN living in one of the 50 States of the Union. If you want to get straightened out on this, read; www.mayanmajix.com/croft.pdf
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trying to think up sign slogans "Common Decency" "We're not the enemy" "act civilized!" "show respect, get respect" "Where does revenge get you?" "Protest war, not whites" NOT your "MASSA" Keep Kids Safe! Whites for peace Tolerance works BOTH ways Learn NonViolence Safe Schools! Dignity, not Bloodshed! Stop Beating Kids Hands off schoolkids! *Also this could be a real opportunity to pass out info to the blacks about who their REAL masters are (remember the KISS motto with this, lots of pictures, MTV = gangsta rap= black men in prison/unwed mothers=ghettos)
 </t>
         </is>
       </c>
@@ -5853,19 +6949,23 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>73.96</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The article on black culinary predilections was in the Daily Telegraph weeks ago - and also referenced a very special Black ethnic accompaniment called "Cannibal Chutney" which blacks use as a form of 'ethnic HP sauce' to accomapny their anthropophagic feasts. Some blacks who were hopingto revive the recipe of 'cannibal chutney' (said the DT article), were discouraged from doing so. For reasons of 'bad taste"?......... The Sussex man eaten by Blacks is obviously the victim of a hate crime and I hope that the Stephem Lawrence Foundation may be calling for the erection of a street-plaque in his home town to commemorate the victim Mr Baker from Sussex - in the interests of race relations and to atone for the vile Black cannibalism of an Englishman.
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"The unfortunate aspect of this Jewish Syndicate is that they have been working for some time to undermine Western civilization, Christian values....moral values of any sort really. The Jews have learned, through a sort of collective psychological tacit understanding, that to survive, they must divide the host in which they live, demoralize them, desensitize them, and throw them into moral and social chaos and anarchy." http://www.propaganda101.com/TheJewi...stionFrame.htm And we in Stormfront are even divided by the muslim issue. Why would we hammer arabs for fifty years then allow them into our country? Who gains from that? Long term, guys. Long term!
 </t>
         </is>
       </c>
@@ -5873,19 +6973,23 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>54.56</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I'm sorry to hear it - personally I was hoping they would hack the stupid interfering do-gooding 'aid worker's' stupid head off! I really was!! I personally detest this particular branch of 'humanity' with their wishy washy liberalism and subversive agendas - What the hell is she doing there anyway?? Time to keep sticky beaks out or take the consequences I say...
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA — As many as 1,000 jobs — about one-sixth of Hillsborough County government's work force — could be eliminated because of declining property tax revenues, County Administrator Pat Bean said. Hillsborough County is expecting property tax revenues to drop by more than $100 million next year. That's a decline of about 13 percent compared with this year's revenues, which pay for everything from firefighters to dogcatchers... Full article: http://www.tampabay.com/news/article987730.ece
 </t>
         </is>
       </c>

--- a/annotate_sample.xlsx
+++ b/annotate_sample.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -509,7 +509,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Man Charged In Alleged ID Theft Ring Police Have Warrants For Two Other Suspects One of three people accused of stealing the identities of about 100 people was arraigned on charges of identity theft on Wednesday. Grosse Pointe police said Jimmy Deandre Dillard-Wright (pictured) and two others purchased the stolen identities of as many as 100 people. Wright was arrested after allegedly spending $2,500 at a strip club and $1,400 at a Target store, both in someone else's name, police said. Police have warrants for two other people accused of involvement in the operation. Their names were not released. http://www.clickondetroit.com/news/9798773/detail.html
+          <t xml:space="preserve">sure, and it's my right to take a white stick and dark glasses and go wandering down MLK Blvd at midnight. but if i did that and got hurt, there's not a cop in the country that will say to me 'well, you should be upset: you had every right to do that'.
 </t>
         </is>
       </c>
@@ -517,11 +517,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>55.36</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -533,7 +533,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well, if you believe evolution, which I do, we evolved from amphibians who evolved from fish who evolved from single celled organisms (obviously I'm missing stages out here but I don't have all day) and all the atoms that make up life on earth were created from the nuclear fall out of dying stars….. All life is interconnected but not all life is the same, that’s evolution and that’s why we have racial diversity.
+          <t xml:space="preserve">Yeah she is a Jew, but that is besides the point . The fact is judges can do this and the mask hysteria is insane . We the people have to do something bout these tyrannical Marxist and Zionist judges. IÂ’m thinking, giving them the same treatment the outraged Hungarians gave the AVH.
 </t>
         </is>
       </c>
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36.62</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -557,7 +557,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://www.miami.com/mld/miamiherald/6892542.htm They are going to starve if they stay in mexico? Thats funny, because wheat sells for wholesale off the farm for about 6 cents per pound. And the Mexican government can buy in bulk from our farmers who would gladly exchange their wheat for their ample supply of mexican silver mines not to mention other valuable natural resources that they have. If mexicans are going to starve then how come they are all so fat after the age of 30? Gringo's dont want to trim tree's? Well not for almost free, I would suppose. Mexicans are UNBALANCING our economic structure and white idiots parrot lines like "White people dont want to work these jobs" when it is so completely false. White people dont want to work like slaves for a shiny penny per minute. The economy, its structure in particular, is so F'ed up it wont be long till the collapse comes and real slavery resumes.
+          <t xml:space="preserve">I have a tough time believing that East Asians and Jews have a higher average IQ. However, the website says the following, what do you think about it? I think it makes sense with the reality of what I see; Europeans have the greatest people and the greatest potential, but we also have an excess of degenerates (race-mixers, etc.) that pulls us down. Going one step further, it's even likely that our average IQ will go higher as race-mixers are selected out of our gene pool. There will be less of us, but smarter. Also, I read that a person with an IQ &gt; 115 "gathers, infers own information". That sounds like the average SF poster to me, researching the lies of the Jewish-controlled media.
 </t>
         </is>
       </c>
@@ -565,11 +565,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well I guess that I am banned. What a relief! I have a whole bunch of stuff that I have been neglecting. Odd that they let me post a couple times before banning me. I can't figure out why they don't like me. They love diversity, and I am different. I guess that they just didn't like that mirror that I kept holding up in front of them.
+          <t xml:space="preserve">she lacks harmony with her own people, she is weak and will probably suffer at the hands of those she loves so much the negro lads when they come to rape her and destroy all part of her innocence and caring. blacks tend to take what there is to take...that includes this little traitor.
 </t>
         </is>
       </c>
@@ -589,11 +589,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27.49</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -605,7 +605,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">[QUOTE=A_Swede]Something that I really don't buy is this "multicultural society" uthopia in the western world that the politicians are trying to brainwash us into. The only thing that multiculturalism creates is friction between the different groups, that eventually end up isolating themselves in ghettos.QUOTE] I may be one of these chracters you describe as a "Fanatical Neo Nazi". I did not realise Sweden had a problem with Ethnic invasion. I did not realise you had cities like Detroit, Philidelphia, New York, London. I did not realise that Sweden was a prime destination for "Asylum" seeking Grifters. I did not know all your school/government Communique's come in 7+ languages. I thought Sweden was still relatively untouched. I thought Sweden was like we were in the 70's, grudingly accepting the few "Immigrants" we had, before they all bred like Rats, and undercut us for employment. or loaf about on unemployment, raising "Jihadist" Muslim Armies. Well I hope for your sake you can maintain your "Swedish" moral high ground, and can continue to look down on us "Fanatical Neo Nazi's" living on the "Front-line" of Battle-ground White-Resistance. O.R.I.O.N. "NO SURRENDER"
+          <t xml:space="preserve">There are certain races that need to be sterilised. Forget contraception in Africa...too expensive, and the results are not worth the effort. There has to be a point where we accept that breeding quality out weighs breeding quantity. To convince muslims of this will be an uphill slog. Muslims even breed with their cousins...inbreeding The science of Eugenics has been swept aside for to long, and we need to re-discover the original intentions of the science. Just as in Horse breeding, you do not save the runts and allow them to sire bad stock. We could short circuit the contemporary probeings in Britain to find the violent gene and just sterilise the degenerate races. To save futher on costs, we could simply stop sending aid to these people, which only gives them incentive to come to the west, and also we need to close the borders.
 </t>
         </is>
       </c>
@@ -613,7 +613,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -629,7 +629,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">When people talk about the Klan I always ask which one in which era? There Klan was never a uniform thing. This is an interesting historical article from a radical Leftist- Rank-and-File Radicalism within the Ku Klux Klan of the 1920s | The Anarchist Library The demonization of Klan as a whole goes hand in hand with the demonization of the white small farmers and workers of Dixie, for Southern Nationalists to do join the Yankee Imperialist on this is either stupidity or treason.
+          <t xml:space="preserve">If you mention cutting off the money or if you mention the possible compromise of living with Palestinians as equals in one state they become very angry and start using bullying tactics, unless they have some reason to fear you, in which case they shun you and complain about you to the authorities, try to get you arrested or try and destroy your career or social status through character assassination. ... Karin Friedemann, .
 </t>
         </is>
       </c>
@@ -637,7 +637,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -653,7 +653,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coming to a "predominantly immigrant" neighborhood near you soon. Sometimes I feel like Lord Farquart, (Shrek), tearing my hair out over all the fairy tale rabble cluttering up my perfect world. Don't they have homelands where they would neatly fit in with people who look like them, eat goat entrails like them, stand on a crapper to relieve themselves, take baths in camel troughs once a month, marry their ten-year-old first cousins, beat their women for not wearing a veil one day, achieve a 4th grade education on average, lie, steal, urinate in the street with dogs and pick various orifaces of their bodies while eating their ox dung soup? I don't want my kids to grow up thinking that this is acceptable behavior in our polyglot Babel of a society. How do we get rid of these cockroaches? Whatever it is let me know and I'll order a case of the stuff!
+          <t xml:space="preserve">Let me clarify what I mean, maybe what I said was a bit confusing. I am more interested in what the different phenotypes for the European subraces are. Like if you could tell what subrace someone was based on looking at their jaw or their nose. I know that the Nazis used measurements to determine these things.
 </t>
         </is>
       </c>
@@ -661,7 +661,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>51.51</t>
+          <t>97.95</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -677,7 +677,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">If that were to ever happen, I wouldn't even care anymore. I wouldn't wait for the backing of my race, I would just go ballistic and take as many out as I could before they got me. Maybe my death would make me a martyr and then others would rise up. This kind of behavior is obscenely disturbing and sick. They should all be hung by their nether regions from bridges to show just how much they aren't welcome in our society. That goes for male and female regardless of race. We could make that a tv show. We hang them up and give the child who they did it to a nail studded bat. Thats how white people should make piñatas.
+          <t xml:space="preserve">To be honest the part in this video where Duke is in a midst of towelheads being cheered on made me sick to my stomach. I can't stand this muslim hugging, its like spitting in the face of every european who faces murder and gangrape every single day by these people. The enemy of my enemy is certainly NOT my friend. I dislike Israel as much as everyone on this board but I have no sympathy for any arab or muslim, they are are Europes mestizos and blacks all rolled into one.
 </t>
         </is>
       </c>
@@ -685,7 +685,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -701,7 +701,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">OK, let me get this straight... white guy sees black cop break a traffic law. White guy voices objection to black cop. Black cop slaps cuffs on white guy and off to jail they go. White guy cools heels in holding cell. Black cop walks with no accountability. White guy screwed over for trying to do the right thing. Annnd... we are what? Surprised? Disgusted? Oh, Oh, wait - I know... we are OUTRAGED!!! Right? Right? No, it's just the way things are, have been and always will be when it comes to citizen vs cop. Makes me wonder how far away some of our departments are from the Tijuana PD. Let me pre-apologise for the previous statement to everyone with with a cop in the family - I have a couple too but we can't just be blind cheerleaders all the time.
+          <t xml:space="preserve">I have not heard of any attacks planned against us. Although, there is a concern on my part that we are in a dangerous situation, being that we are outnumbered and we must take action now to preserve our race. Thanks for the heads up I will stay on alert that day. 14/88
 </t>
         </is>
       </c>
@@ -709,7 +709,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -725,7 +725,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is harder to find, but there are ornament kits. you can find them at larger hobby stores. The kits have beads, and sequins and everything you need to assemble o make attractive homeade ornaments that look storebought.We and make a set each year, and as the years go by it is harder and harder to figure who made which one so it is a progress/schooling thing too Katie
+          <t xml:space="preserve">That is laughable jack. Did the British papers put all those protesters on the streets aswell? If jews in Germany decide to boycott German goods...how do you imagine that little stunt will run? Ouch...the bombastic arrogance knows no bounds! You complained heartily enough when the jews were boycotted in Germany...remember? (Germans defend yourselves, don't buy from jews) So are you going to contradict yourself...once again, and say that it is not all right for people to choose where they spend their money...or is that yet again...just a jewish privilege. Can we get a straight answer out of tobacco enema jack just once?
 </t>
         </is>
       </c>
@@ -733,7 +733,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>80.71</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -749,7 +749,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'll give you two reasons: 1. Chechnya is part of the Russian federation and Russia should not give it back to bunch of terrorists- giving it back will be reward for terrorism- we must fight the mudslims- not surrender to their "brave" attacks. 2. Chechnya is very rich with natural resources- especially oil, don't you think it will harm our economy? Another thing, if these sub humans want independence they can go back to Saudi Arabia, Afganistan or wherever they came from. I always thought that Russia should get all the non Russians out of itself and I DON'T CARE if they were living there for hundreds of years- RUSSIA FOR RUSSIANS!!!! Peter the Great.
+          <t xml:space="preserve">I don't think I need to mention this whole subject gives me the creeps. As far as I'm concerned, pedophiles should be castrated and given a life sentence if they've committed a sex offense, even if against only one child. Multiple sex offenses against kids should carry the death penalty. Any pedo who downloads child porn on his computer should be given a minimum sentence of 7 years and under court order restricted from owning a PC, living anywhere near a school, or from having any contact at all with kids professionally or socially upon his release. If he downloads or receives by snail mail any child porn where kids are tortured and sexually abused, then there should be at least a minimum of 25 years in jail without the possibility of parole. They'd totally dread the day I were president! I'd be the first one to earn "THE TERRIBLE" in my title.
 </t>
         </is>
       </c>
@@ -757,11 +757,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>34.04</t>
+          <t>81.14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -773,7 +773,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">She doesn't realize she'd be doing us a favor...good riddance. Klum is one of the biggest airheads I have ever seen. Her mongrel children are absolutely homely and I couldn't help but laugh a little when she bestowed a high, noble Teutonic name like "Johann" on that simian-looking, bushman child... We must secure the existence of our people and a future for White children. Because the beauty of the White Aryan woman must not perish from the earth" - David Lane
+          <t xml:space="preserve">This is one of the areas Non WN's get their wires crossed. The Jewish manipulation of our Culture is not to overtly super-impose a Jewish style society upon non-Jews out of a sense of "Philanthropy". Judaism is singularly lacking in Philanthropic sentiment. (One reason it fails in the criteria of being described as a "True Religion") The Jews wish to destroy non-Jew society is so that they may better have a mass of confused and disorientated people, prepared to do their bidding, ie to enrich them. Judaism is not an "Esoteric" belief system, it is a "Materialistic" belief system. Ie the more Power they acrue, the better they are in the "Sight of their God". Which is why the "Protocols" whether genuine or fake are an acurate portrait of their subject. http://amalekite.blogspot.com/
 </t>
         </is>
       </c>
@@ -781,11 +781,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -797,7 +797,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't see how this is a victory for white nationalists. He's said he supports race mixing and most of his supporters seem to be non-whites, which is not surprising considering Brazil is a majority non-white country. Bolsonaro may be white himself, but he is ruling for the benefit of non-whites as would be expected of a Brazilian president. It seems to me that the mainstream media and the global elites are promoting a raceless, borderless version of nationalism which is why they're making a big deal out of his win in Brazil. They want right wingers in white countries to regard non-white Brazilians as allies and hence think in a raceless manner.
+          <t xml:space="preserve">Animals should be dealt with the way animals are dealt with; force and fear. Unfortunately, the leftists don't seem to agree with any of this. I say send these moors and gypsies to jail, let them be some negro’s wife, then off them, out in the public. Maybe that will teach any more animals (and I’m including some white low life trash here as well) to think it twice. What a wasted and worthless world...
 </t>
         </is>
       </c>
@@ -805,11 +805,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -821,7 +821,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">I gave up and deserted the democrats and voted for El Presidente Boosh. Anyone who is NOT an idiot knows that the republicans have deserted US and America to join the jews. I will take a Nader or even a jew over a lying, decieving, traitorous republican, or a stalinist democrat every day. At least with a jew, I can sort of know what to expect. Presidente Boosh has done nothing but destroy my confidence in the conservative wing(republicans-they just have more money) of the liberal party. For any dummies out there: OUR BORDERS ARE STILL OPEN! OUR CULTURE IS STILL BEING DESTROYED! JORGE BOOSH IS PRESIDENTE. My grandchildren still cannot drink our water where I live, because it has been poisoned by nitrates. They are literally selling us water now. I trust Nader more than any of those lifelong political parasites that they keep pushing over on us. But there is little point of stirring controversy, because we will just get another parasite that elite jew/gentile powers provide for us. Any real opposition to the two parasite system would be destroyed.
+          <t xml:space="preserve">True, there is quite a number of actual fascists on this site, who actaully want a one-party system like the one in the Third Reich. On the other hand, the majority of the members of this site are completely against any such form of organization taking place in their countries, and are barely respecting the Third Reich for it's overall glamour and their treatment of the Jews, disregarding the fact, that white Eastern Europeans have suffered immensely more from fascists than the Jews did. So most people are not actaully attracted to the idea of a one-party system being in full control, but they like the whole energy generated from Hitler speeches, from the marching black legions of Waffen SS, and the idea of millions of Jews and Gypsies being sent to the ovens, without actually recognizing the truth behind all of this. After all, you do not need to fully implement NS in order to do any of the good things the Nazis did. The only thing I agree with NS on is violent racism and their social agenda. Everything else should not be tried, especially in the US.
 </t>
         </is>
       </c>
@@ -829,11 +829,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>88.85</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -845,7 +845,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sirs, A handy way to save time is to download and save web sites while you sleep. A tool to pass to those who can't afford Front Page to download websites: WebStripper or Offline Commander makes it easy to copy web sites to your own hard disk for browsing at your leisure while off-line. It's incredibly easy to use, it's very fast and above all it's absolutely free for personal use. http://www.webstripper.net Check out Offline Commander at: http://www.zylox.com/ I think it is even better than WebStriper. Check their site- you might even find that it works as a free version there or at most $40. I have archived and burned to CDs many GB of sites and passed on to many others for learning and safekeeping. .
+          <t xml:space="preserve">[QUOTE=Monkey Mandela]Sadly, we have woken up too late. Nothing more can be done now. The number of politically correct race traitors in and outside our parliament and media, is growing day by day. And so is the constant arrival of immigrants. We have become an ethnic minority in our own country. Never say die MM The army which thinks itself defeated, is defeated - we are not! Far from it. Btw, how can you bear to use that man's name? I would feel contaminated by it..
 </t>
         </is>
       </c>
@@ -853,11 +853,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>70.28</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -869,7 +869,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">it doesnt seem like anyone is ever going to answer the original question of how much an AK-47 would cost my answer would be $275 max $200 minimum an SKS will run you about $225-$150 and you can add a detachable high capacity mag for around $30-$40 extra ive owned and shot both go with the SKS for long range accuracy and the AK for rate of fire i would still recomend an american made AR15,M1A or something similar over the two 2508
+          <t xml:space="preserve">Go away??? You come to OUR website, our internet community and you tell us to go away??? Are you stupid or something? We aren't in your face, we aren't in front of your house protesting. By all means, screw all the negroes you want to, you are only hurting yourself and your descendents. But if you are going to talk utter crap like that, telling us to "go away", then what the Hell are you doing here moron?
 </t>
         </is>
       </c>
@@ -877,7 +877,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -893,7 +893,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Get people interested. the best way is to create a virtual reality ( a computer game ? ). Let them experience first hand what it would be like to experience life in a different way "away from" the way it is now. Not a utopia of course, but what a white country is like. Iceland is a very close example.
+          <t xml:space="preserve">The really weird part of that is that you do hear the Holodomor mentioned more these days and there have been several books and a film made about it in the last decade but what we never hear about is the estimated 1 million Jews who also died in the famines...gee, wonder why that is? There's also those photos of the Lodz Ghetto which emerged after the war, with scenes of little Jewish kids having parties and concerts, freshly scrubbed Zionist youths holding rallies and happy snaps of the Jewish police and Capos clowning around, drinking and having a good time, as well as the Max Kirnberger colour photos. Anything that's inconvenient or that shows how some Jews in the camps and Ghettos were starving and wretched while others were well fed and healthy is just ignored, not censored as such but just not talked about, while the pictures of Belsen and Buchenwald are the ones always promoted.
 </t>
         </is>
       </c>
@@ -901,7 +901,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -917,7 +917,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">thank you both for your replies. It seems that Sven is a bit of a Walter Mitty character . His books are certainly entertaining .He does much to put the Finns in an heroic light . Maybe he should be given a literary award for his books. Then he would have a real decoration of his own. Maybe some of the Waffen ss volunteers he was imprisoned with who fought in the war LENT him their decorations. What do you Catilina and Hellstar think.He certainly creats some amazing Finnish characters in his novels example -Hanno and his partisians in Reign of Terror and the Jager corporal in the Bloody road to death. JAB
+          <t xml:space="preserve">In the long-term, dollar's in serious trouble and will probably weaken against other currencies. Problem is margin trading is short-term, and it's difficult to know where the dollar is going. Last year it was at 1.36 to the euro, now it's strengthened to 1.22 a euro. Anyone who bet against the dollar then, with a margin position, might have had his whole stake wiped out. As long as interest rates remain higher than other OECD countries, and the Fed shows a willingness to raise them even higher, dollar in the short-term will probably remain in the same position, barring some major disaster.
 </t>
         </is>
       </c>
@@ -925,7 +925,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>85.5</t>
+          <t>98.6</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -941,7 +941,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probably also the basic reasons Muslim immigrants to Europe can go to the full extent and groom dozens and dozens of young white girls for prostitution rings. Fourteen y.o., eighteen y.o.; on camera, in a cheap apartment -- not that much of a difference really. It's more logical evolutionarily to destroy the psychological capacity of your enemy's young women to have real families in a context that involves protecting your own women as reliable reproduction opportunities for your extended kin network. One's conquest with a demographic angle, one's collecting Jew-chits that will eventually -- and probably within our lifetimes -- be rendered worthless except on China's terms.
+          <t xml:space="preserve">Wait until it becomes time to take our country back from these third world vermin. They honestly believe that they are entitled to come here and stick their filthy diseased hands into our pockets and worse. If we got rid of them, how many jobs would open up for Whites? How much higher would the standard of living be for the White man if he didn't have these rat bastards with their gargoyle women and subhuman monkey babies draining the infrastructure dry? I'm sick of hearing their jibberish whenever I'm at the store or in a public building. For such poor people, they seem to be fat and have all the expensive gadgets that I cannot afford. I hate the illegal brown turds. They all make me sick.
 </t>
         </is>
       </c>
@@ -949,7 +949,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -965,7 +965,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">I might add that the National Socialists also managed to combine racial thoughts and Socialism with each other , also something which many people thought would not work together ..... So again , what are thoughts on the idea of Christian Communism ( Note : I didn't ask this question because of sympathy for this movement , I was just curious how people here view this thought ) ?
+          <t xml:space="preserve">John A, good post. I am just discussing my own personal, "get outta Dodge", plan. If it is a slow decline, I will alter my plans. I count on seeing the trends develope in that event. Still, I think it's prudent to have a plan to bug out with five minute's notice. It isn't expensive. It's little things. I keep the tanks full on my truck. I make sure that I've got quick access to my box. 40 gallons of drinkable water is only 8, 5 gallon buckets. There just isn't any reason to not have this little stash ready. I've got to be alive to be able to render aid. I hope it never gets to this, but as one of the smartest men I've ever known used to say, "Better 5 years too early, than 5 seconds too late".
 </t>
         </is>
       </c>
@@ -973,11 +973,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>98.88</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -989,7 +989,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">If only. Muslims have promised in Britain, that if the "West" keeps on supporting the jewish occupation of Palestine, they will wreck our economies and drive us into the ground, using our own laws. Who in America would guess at the impact ZOG/US policy is having on Europe. We have to keep towing the line, lest we are described as "Nazi" ...again. If Americans have so much time for war, they should help us throw the muslims out of europe, and leave the jews to the jackals.
+          <t xml:space="preserve">So let me see if I get this straight; Historian David Irving and German Nationalist Gert Finkenwirth were banned from Australia but these radical fascistic hatefilled Muslims are allowed entry? They denied a German Nationalist a visa 'because it was believed his views could incite discord in the Australian community.' http://www.worldnewsaustralia.com.au...19415&amp;region=7 Why can't this same reasoning be applied to these hatefilled radical Muslim extremists? The only explanation I have for this apparent double standard is the Australian Government does not view expansionist radical hateful Islamic extremism as an ideology that could create discord in the Australian community? I wonder is the Coalition willing to admit to such a thing? Maybe our talented letter-writing friend Steelcap_Boot could ask his leaders this very question?
 </t>
         </is>
       </c>
@@ -997,7 +997,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1013,7 +1013,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">You will soon lose the fear of caring what they think, and you might even gain more respect from not giving a dam. I used to worry about what I said in case I was being “racist”. It can be hard breaking from what you are told is “acceptable” and what is not, but if you really want to grow and become your own man, in anything, then lose the fear of what other people think about you. Stay true to yourself and you keep your honour.
+          <t xml:space="preserve">What theories might they be, White England? Let me explain a few things to you, White England. First and foremost the purpose of Stormfront as laid down by the founder and owner is to provide Speaking from experience I can tell you that these endless debates about who is and isn't white go nowhere but down in flames. They accomplish absolutely nothing. Meanwhile, England, Europe, America, Australia, New Zealand and every other formerly white homeland on the face of the planet is being innundated by floods of non-white asylum seekers and immigrants. Yes, who is white is important but as the moderator of the Latin Forum I've decided to discourage dwelling on that issue since it's contrary to the stated purpose of this board. If you have a problem with that, you're free to send Don Black a private message or email complaining about it. One other thing, you presume to know a lot about me and Kveldulf. Don't.
 </t>
         </is>
       </c>
@@ -1021,11 +1021,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>61.02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1037,7 +1037,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">A good friend, and fellow WN ran my credit for me a few months back. I have a perfect zero I took out a car loan 22 years ago. My house got paid off 13 years ago. I have no credit rating. Good, or bad. According to my buddy, I don't even exist. OK by me. Personally, I think debt is best avoided. My girlfriend has tons of debt, and an unlimited line of credit. Makes no sense to me.
+          <t xml:space="preserve">Quit your deluded talk. National Socialist policy has nothing to do with the three above you mentioned. You can read these for yourself! It is from National Socialism archives and documents, it has nothing to do with the Jew. Have you even read Mein Kampf? Yeah because they will know what happened with Germans and foreigners if found guilty of sexual relations. I've just showed you so much evidence yet you are in denial, its a sad case really. What makes their statements anymore valuable than "Holocaust survivors" who have been exposed as liars? They opinions do not refute what I have just shown you neither.
 </t>
         </is>
       </c>
@@ -1045,7 +1045,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>75.44</t>
+          <t>73.67</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1061,7 +1061,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve">they want to feel more alive by risking death 1,000 times more so than had they just chosen a solid up-right white sexual partner. If they are that hard up for action why don't they go ahead and offer their services to the nearest male mongrel dog. This might be good for burning though!
+          <t xml:space="preserve">It amazes me that Indigenous groups (or anyone else for that matter) are prepared to put up with them, they openly state that they want to end the traditional Patriarchal clan system and they oppose any Aboriginal representative body or recognition of the prior existence of Aboriginal Nations. Every Anarchist I've met over the last 20 years has been stuffed on drugs or mentally ill to some degree, they have no place in the democratic process, either Left or Right are their targets of the day depending on their mood. If any Socialists or Communists are reading this, you've got the numbers, boot 'em up the Khyber pass and send them packing if they turn up at your rallies, we can't do much about them at this point...so do us all a favor Eh
 </t>
         </is>
       </c>
@@ -1069,7 +1069,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>36.86</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1085,7 +1085,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anyone who wants to see how non-Islamic Turkey really is should take a drive around Istanbul during the last few days of Ramadan. Every public space and vacant lot is filled with unfortunate creatures whose throats are going to be (more-or-less) delicately slit in a frenzied ritual at the appointed hour. And Istanbul is the most cosmopolitan bit. It's much worse elsewhere.
+          <t xml:space="preserve">The thing I just don't understand is how they can walk into an area and decide to stay there then all of a sudden its theirs. No regrets of lying to the people there, then laugh about it. Anywhere else in the world and this would not be tolerated, they would be drove out.
 </t>
         </is>
       </c>
@@ -1093,7 +1093,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1109,7 +1109,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Of course. Insufficient air power, no surface fleet to speak of, and poor leadership from Goering [for more on this topic, see the biography of Adolf Galland] [ame="http://www.amazon.com/Fighter-General-Galland-Official-Biography/dp/0764306782/ref=sr_1_5?s=books&amp;ie=UTF8&amp;qid=1459801102&amp;sr=1-5&amp;keywords=adolf+galland"]Fighter General: The Life of Adolf Galland: The Official Biography: Foreword by General James H. Doolittle, USAF (Ret.), Trevor J. Constable, Col. Raymond F. Toliver USAF (Ret.): 9780764306785: Amazon.com: Books[/ame] From Waaay Out West, ~HLM
+          <t xml:space="preserve">And I say to you, "justanotheranti", what exactly is it you are attempting to do here? Do you think myself to have such spineless principles and wavering reason that a chirpy half black such as yourself can persuade me to renounce and deny myself at the drop of a hat? You are of pathetic existence and your repetitively doltish remarks are entirely irrelevant. You ought to go sing your little songs somewhere else.
 </t>
         </is>
       </c>
@@ -1117,7 +1117,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1133,7 +1133,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well, I'm from the North, so no slave owners in my past. My mum's side didn't come over until after the Civil War. However, I'm white, so I must be evil. All that "white privilege" which was the result of coming from ancestors who worked and valued education. Wondering if they even used fireworks on Independence Day back when slaves existed?
+          <t xml:space="preserve">Why? Balt and Slavs are two essential Aryan branches: we are than of same Sarmatian origin. A deep respect of our common Sarmatian origin has always been respected by enlighted Russians, like Bogdan Hmjelnicky. I am sure literate Balts understand that bolshevism was no Russian invention: we ourselves have suffered greatly from it and were forced to fight for it only due to the tragic course of circumstances. Yes that bastard of bolshevism and liberalism, which Putin is imposing us, is awful. The more awful, when it pretends to be a culture, when it call itself "Russky mir", while it is its professed enemy..
 </t>
         </is>
       </c>
@@ -1141,7 +1141,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1157,7 +1157,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oi veh, it's anudder LOL-o-Co$t. Rachel Wellner! “All women who are cops are dykes,” she said, according to court papers. The cops finally had enough when she screamed, “Help! Police are assaulting me!” and placed her under arrest, the complaint states. But the high-strung doctor continued to struggle as officers tried to cuff her and “jumped up and down” in her Volvo, court papers say. Wellner hit the gas and allegedly struck Officer Niguel Vega in the legs. She was promptly booked on reckless endangerment, resisting arrest and other raps. “I’ve been painted in a very negative and inaccurate light,” Wellner previously said in a phone interview, denying that she uttered the hateful slurs. She was terminated from her position at Montefiore Medical Center in the Bronx." Jew, go F yourself.
+          <t xml:space="preserve">I have been posting on the Dutch-Flandern sub-forum for nearly 2 years and have enjoyed my time there, I saw significant improvements in the quality of the discussions over time and the excellent moderating made sure it didn't became a pit-hole for 12 year old children who saw a movie about WW2 and then suddenly thought it would be cool to spam messages containing nothing but Sieg Heil, filthy (fillanyracein ) and messages as such. Adler was a dedicated moderator who spent a lot of effort and time in managing the forums and ensuring it's upkeep. However his departure was according to himself caused because there were too many people who didn't believe his theories on certain matters. To me he sounded like he had expected to convince every member that his point of view was the correct one and when he didn't succeed in convincing us he became angry and left. I hope that the matter can be dealt with Swiftly and Effectively so that our board may return to it's position of the best and busiest non-american subforum where a lot of serious discussion take place.
 </t>
         </is>
       </c>
@@ -1165,11 +1165,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>58.44</t>
+          <t>47.97</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Always remember the Jews killed Jesus? How about we always remember that Christianity ripped true European religions, and ultimately culture, apart? Now we have Churches advocating the mass importation of non-whites because all they see is more additions to the flock of god fearing sheeple... It is not a White religion, and it is most definitely not any help to our cause as White Nationalists... Easter has its origins in Paganism anyway...
+          <t xml:space="preserve">You miss my point, I don't feel threatened by non Whites at all, the only people who really have the potential to make my life difficult are brainwashed Whites who hate themselves and everything around them. Your responses are very telling, you are firmly focused on the past as justification for your beliefs, we are focused on the future as expressed in the 14 Words.
 </t>
         </is>
       </c>
@@ -1189,11 +1189,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>53.99</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excellent post, there is a war on the Family, we know that, not just propaganda out there, job issues, taxes, making life difficult for people, and on and on. I don't see how you can be a queer and a white nationalist at the same time, just because some queers agree with our positions on issues, does not make them a part of rebuilding our society, they cannot be contributors on the most important issues, issues of family and building community. The queers have been used as a battering ram to destroy our society. Just like muliticulturalism. Queers willingly join our enemies because they have a problem with our society. TPTB love queers in positions of authority, they are their greatest allies, look at all the degenerates in government, some crypto and blackmailed, the NeoCons were caught blackmailing them too. We need to get back to basics, honor our fathers, live like they did, build. This is going to be generational, I don't see a bottom any time soon.
+          <t xml:space="preserve">No, Princess, this is no joke - here in South Africa everything that goes wrong is because of 'apartheid', the latest being the escalaing baby-rapes by AIDS-infected males who have been told by their witchdoctors that having sex with a virgin will cure them. And babies of a few months old are not overlooked - lately kids of 5, 6, 7, 9 months are becoming victims of these savage and brutl rapes. And - wait for it - the latest is that 'apartheid' has also now been used as an excuse for these rape crimes!!!! Trouble with 'Blackie' is that he always considers himself to be a victim, a previously disadvantaged, call it what you will, and he feels 'entitled' to be compensated. But take the blame for his own ineptotude, ineficiency, criminal tendencies? No - never, but NEVER! This is all the fault of the evil whites...
 </t>
         </is>
       </c>
@@ -1213,11 +1213,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>73.96</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1229,7 +1229,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you listen to the following groups: 1) Mainstream Media 2) Zionists 3) Antifa fanatics 4) Radical Jihadists or 5) Government propaganda machines then the answer is no! If you are a rational individual who can think for yourself; you will acknowledge that this is a truly diverse movement with both extremist &amp; moderate elements.
+          <t xml:space="preserve">"The unfortunate aspect of this Jewish Syndicate is that they have been working for some time to undermine Western civilization, Christian values....moral values of any sort really. The Jews have learned, through a sort of collective psychological tacit understanding, that to survive, they must divide the host in which they live, demoralize them, desensitize them, and throw them into moral and social chaos and anarchy." http://www.propaganda101.com/TheJewi...stionFrame.htm And we in Stormfront are even divided by the muslim issue. Why would we hammer arabs for fifty years then allow them into our country? Who gains from that? Long term, guys. Long term!
 </t>
         </is>
       </c>
@@ -1237,7 +1237,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1253,7 +1253,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've lived in North and South Texas and have never actually seen a Copperhead. However, we get dozens of Cottonmouths on our property every year. These things are mean and quick. I remember living near Houston and waking up one morning to find a Cottonmouth coiled up on the other side of one of our windows. The thing struck several times at the window when I even walked toward it. One shot from an SKS will usually dispatch one of these. We get alot more watersnakes than moccasins up in North TX. I've found them to be very shy and never as mean as some make them out to be.
+          <t xml:space="preserve">Wow, I can't even finish perusing the last few pages of this thread because the STOOPID just keeps on comin'. Wow, just wow. If this isn't a glowing endorsement of anti-white male culture death, I don't know what is! Keep exposing yourselves fembots! To disguise yourselves adequately is so anti-thetical to you, you'd all implode. Not that it matters one way or another, I'll sniff you all out and expose you before you even knew I was onto you.
 </t>
         </is>
       </c>
@@ -1261,7 +1261,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1277,7 +1277,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cool tats. My bro in law just got out the pen. He did a 3 year stint cuz someone planted some crap in his ride. While inside he got both sleeves done. While I worked 5 days a week 10 hour days, he sat on his ass in the pen getting inked up. I would say I'm a bit jealous of him, but I'd have hung myself with a sheet had they put me in a tiny cage.
+          <t xml:space="preserve">Idea for billboard: Text: Honor their legacy - Further your heritage! Images left-to-right: historical bust profiles of man, woman and child (child is omitted from newest image), partially superimposed on each other, oldest are larger and most transparent, newest being smallest and opaque: vikings, Renaissance craftsmen (at home), US plains farmers, modern silicon valley man and woman facing away from each other, with no child (to whom text is directed).
 </t>
         </is>
       </c>
@@ -1285,7 +1285,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1301,7 +1301,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is a problem occurring all over the world. Thailand is being evaded by Burmese, Laotian, Vietnamese, and Cambodians. Hong Kong by Filipinos, Thais, Indians, Middle Easterners and Mainland Chinese. Japan by Nigerians and South Americans. The US by every Third World country, but most noticeably from Central and South America. Europe is being evaded by Africans and Middle Easterners. This is a growing problem for the last decade and it is not only destroying our white cultures, but it is also destroying our environment, resources, and introducing new diseases at an alarming rate. There are neighborhoods in France full of Africans not working and committing petty crime to survive as well as in Spain and Italy. Ireland is being impregnated with Nigerians at the point where they are becoming elected in positions of power. You are right; these multicultural parasites ought to be extirpated and shipped off to the developing countries where they can feel at home with the raw sewage, pollution and lack of civil society. [ame="http://www.youtube.com/watch?v=ecEeJ3Jke8c"]YouTube - Europe under fire[/ame] [ame="http://www.youtube.com/watch?v=WqsHpJerT6g"]YouTube - Britains Mass Illegal Immigration Problem - 2008[/ame]
+          <t xml:space="preserve">I dont think Hitler and Nazi's makes people racially aware, I dont think it should, people should become racially aware because of their dealing with a multiracial society, not because of reading about Hitler in my opinion. Hitler sure as hell didnt make me racially aware, living in a multiracial multicultural city did. I think what Hitler did severely backfired on our people, especially the German people. I think the Jews would have less power today if Hitler never did what he did, just imagine, what would Jews cry about if they didnt have the holohoax?
 </t>
         </is>
       </c>
@@ -1309,7 +1309,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1325,7 +1325,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve">That is the least one can do at the moment! No positive change happens until people are out in the street spreading the message and working with like-minded individuals. I do not see how confining our efforts solely to an internet discussion forum in anonymity is positive or fruitful. That is treating our Cause like a "naughty little secret" instead of proudly displaying out where it should be in the eyes of all our people.
+          <t xml:space="preserve">She looks pretty good to me - a lot of Aryan blood. If some Midwestern blue eyed Anglo (me) married her, our children would be very beautiful and not suffer quite as bad sun burns as basic White guys from the Midwest who go to vacation in Florida. Also, a nice mix of some Hispanic White blood is like adding some Italian to the mix - it makes the children more exciting - straight White, nordics can be dull and boring - just look at Orin Hatch, Dick Lugar, most of the state of Indiana.
 </t>
         </is>
       </c>
@@ -1333,11 +1333,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>26.26</t>
+          <t>55.28</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve">This goes beyond Catholicism... when a materialistic atheist like me is disgusted by this, you know it goes beyond a religion or set of beliefs. This is just a twisted form of white gloved crime. As I said earlier, homosexuals are free to do whatever they see fit to do among themselves... I don't care what liberals have to say about the happiness of gays, you ought to be way too naive to think that all these past centuries homosexuals haven't lived together, regardless of social acceptance or not. The problem is with adoption. This law, this thing, is endangering children by risking them to be adopted by the wrong people. (And of course, this is not just limited to homosexuals, straight couples can do sexual crimes too, but homosexuals hold the highest rate of abuse against young males)
+          <t xml:space="preserve">Excuse me "Bigtigger2", I addressed your post with respect, as I said you seem to be a Credit to your Race, in as much as you seem to be intelligent. However if you are simply here for a "Cerebral Brawl" with "White Folks" I will let you get on with it. I am sure there are people on our Forum who will oblige with a "Slagging Match". I am interested in your potential to anwser some serious questions. You have to accept the basic observation that our societies are at breaking point, $Millions wasted on people in incarceration. Millions flooding into our societies to undercut our work-force to work for low-wages. I accept your comment about "White-collar" crime, but we need to clear out the under-growth first before we get on the case of our people who are ripping us off. We will get there though.
 </t>
         </is>
       </c>
@@ -1357,11 +1357,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve">These Turko Mongolian, Afro Arab Negroid Semitic mongrel Muslims are completely subhuman - they enjoy torture and have sick, digusting personal habits in all areas including killing people. We must not become like them. When our soldiers confront these horrible throat killers, the correct response must be quick kills and the horrible bodies of these terrorists should be burned and purified so their evil bodies and spirits are taken away from this world. Does anyone else wish that we had weapons of mass destruction that were environmentally positive? Something like cleansing fire and clean water to wife out dirty areas and horrible terrorists, subhumans and clean up the environment much as a good, natural burn cleans up the brush, dead wood and allows new grasses to grow.
+          <t xml:space="preserve">THOUSANDS OF ILLEGAL IMMIGRANTS BUSED ACROSS U.S. INTO CITIES The illegal immigrants who cross as incomplete family units simply enter the U.S. illegally, turn themselves in to U.S. Border Patrol agents, are processed, and then are released with a notice to appear at a future date for court proceedings. U.S. taxpayers then fund bus tickets for the illegal immigrants to go to the U.S. city of their choosing. ... News Distribution Network, Inc. [ame="http://www.youtube.com/watch?v=x0GPQNv7QG8#t=123"]Murrieta protest has police show up in riot gear - YouTube[/ame] From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -1381,7 +1381,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1397,7 +1397,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve">This needs to be looked at: Four Days Before The Bombing In Nashville Near The At&amp;T Building, American Patriot Alleged That AT&amp;T Got The Contract To Do The Forensic Audit On The Dominion Voting Machines And That They Are Transported To Nashville Even worse: AT&amp;T owns CNN. If it was an attack on the media, why not CNN directly?
+          <t xml:space="preserve">A few years ago, somebody asked why, considering the high proportion of blacks in the populations of most large American cities, they formed only a very small proportion of the visitors to those cities' museums and other cultural centres. The reply given was that "people don't go where they don't see themselves". The observation was made that, perhaps, this was not unrelated to the fact that blacks love to visit ZOOs!
 </t>
         </is>
       </c>
@@ -1405,11 +1405,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve">For me this is a tough question since I am not a hater of humanity. Thank the almighty Jew for what will probably be the greatest war to ever befall mankind. Without a doubt, and its certain to happen, race war will wipe out millions. After the smoke clears I might be in favor of having all whites emigrate back to Europe and What will soon be a third world, mullato infested toilet - America be used as a land of refuge. Provided of course all our technology comes with us. I couldn't imagine nukes in the hands of negroes.
+          <t xml:space="preserve">Hey, Check out this article I found on a Jewish website. It's about a Jewish girl dating a non-Jew but then is burdened with the guilt and duty of preserving her heritage. Her father explains to her the importance and beauty of her heritage, culture, etc...so she dumps her boyfriend in favor of her heritage... If a white woman did the same thing, it would be so RACIST of her! A white equivalent would be if a white woman say, in an interracial relationship with a black, dumped the black because she wanted to preserve her race and heritage...and went to marry a white guy. OH MY GOD! HOW RACIST!!! ISN'T IT!?!? It's a really interesting read! Link: My Non-Jewish Boyfriend Funny how the Jews must marry other Jews to preserve their heritage but we should marry out and throw away ours... -formeregalitarian
 </t>
         </is>
       </c>
@@ -1429,7 +1429,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1445,7 +1445,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t xml:space="preserve">I thought there was something odd about the way this was being reported all along. The media was strongly trying to imply that a white man spat at her, but there was never a real description of the perp, just vague statements like "the man was dressed like a lawyer", a blatant attempt to make people imagine a "middle class white man". Doesn't surprise me at all that it turned out to be a complete fabrication. It's despicable that the media was going all out to try and get anti-white millage out of something that was a complete lie in the first place.
+          <t xml:space="preserve">I've been playing piano seriously since I was 11. That's when I started going to music lessons at the home of my music teacher. A really patient and gifted lady who's taught me everything I know. Funny thing is--she now has her school/studio attached to an apartment house she owns, an old three story tenement she rents out, and so she says we have to play well because we have a "paying audience" of "live in critics". lol Actually, they're all really nice and mostly all college students. They have me over every now and then just to hang out and they're totally civilized, at least when I'm there! lol Seriously, they're good people and I'm flattered how they admire how I play and like me enough to invite me in. A way I got my friends to like classical is just by playing for them. So I play something like Beethoven's Ode To Joy from the 9th and that sure works the magic!
 </t>
         </is>
       </c>
@@ -1453,7 +1453,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1469,7 +1469,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve">I like my Colt Officers ACP 45 for general carry. Had a reliability/trigger job done when I got it. Installed a full lenght guide rod and spring setup. Replaced mags with Chip McCormick mags, and put Pachmyr signature wraparound grips on it. Shoots very well and is extremely reliable. Had it for many years. The only other pistol I like about as much is my S&amp;W 357 magnum with a 6 inch barrel. Put rubber grips on it and it shoots just fine. Accurate as all getout. Likes the Remington 110 grain hollow points for accuracy.
+          <t xml:space="preserve">It can be an allergy. It isn't just earrings that can cause it, also eyeglass frames (especially the cheap junk from China)! They have very little plating over the nickel base and lots of people are suddenly having problems like this. It is an allergy to nickel. Some people can no longer even use metal zippers! It usually gets worse and also starts itching. Then if you rub and scratch it, it develops into full blown dermatitis and is hard to get rid of. You can paint eyeglass frames with clear nail polish.
 </t>
         </is>
       </c>
@@ -1477,11 +1477,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>67.88</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve">The left is having conniption fits. But it should not be this close, it should not be remotely close...Hillary Clinton represents everything that is wrong with the USA. The cast a vote for her requires a level of sickness I cannot comprehend! Trump is not even a politician, so this should be an easy choice for voters. I want leftists viewing this thread to tell me why they are voting FOR Hillary Clinton. But I already know they can't, she is a compulsive liar nobody believes a word she says and everyone knows she is bought and paid for by Goldman Sachs. If people want things to change they must vote Trump. Hillary is the embodiment of Status Quo.
+          <t xml:space="preserve">wo wo! Hold it there, no need to be that direct. We are 10% or so White, and I also find it difficult to believe we are whiter than Chile... but hey, no use to be that harsh... If this s***hole of a country is still on board is thanks to us.
 </t>
         </is>
       </c>
@@ -1501,11 +1501,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>70.05</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve">What would you have us do? Round up all negro kids at birth and put them behind bars? We (well, most of us, atleast I had thought so...) are for a white nation. Not blind hatred. We will get nowhere fast with people spouting out hateful and heartless nonsense. I said nothing about negroes being innocent. Children are innocent. If you cannot see that, then go f'ing hang yourself. No child deserves this. White or black. Race should not matter when it comes to the life of an innocent. This child did not ask to be born, nor has he asked for a death sentence, and that's exactly what he has been givin.
+          <t xml:space="preserve">I'd say avoid the overuse (or misuse) of differential intelligence data between the races. I hasten to add that I do not dispute the conclusions of Mr. Rushton, Arthur Jensen and others. What I wish to point out simply is that intelligence is only one of several factors determining which race leads and which follow. Other factors include: bravery, audacity, and the general willingness to take risks. From Waaay Out West, --HLM :smoking
 </t>
         </is>
       </c>
@@ -1525,7 +1525,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1541,7 +1541,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve">A forecast of coming 2009 job losses by metro area across the country is out -- from a reputable economic research firm -- and the news is grim nationwide and, in particular for Florida and the Tampa Bay area. That Tampa-St. Petersburg-Clearwater metro area is expected to lose 42,900 jobs this year, a number second in Florida only to the far larger Miami-Fort Lauderdale metro area's loss of 84,800. Those findings and much more appear in the report "U.S. Metro Economies: The Engines of Economic Recovery." It was prepared by the economic forecasting firm Global Insight for the annual U.S. Conference of Mayors meeting which concluded over this past weekend... Full article: http://blogs.tampabay.com/venture/20...bay-forec.html
+          <t xml:space="preserve">Don't be so silly. The point is to evaluate people's actions, not attach some label on them. Obviously our current crop of politicians are in large measure beholden to Israel. That doesn't make them Jews, it makes them beholden to Israel. There is a difference. In the first instance where you state that every one who helps Jews IS a Jew, you sound like a fool and I would like to see that silly stain not attached to WN's in general. In the second instance, we deal with the effect of people's actions, the important thing, without sounding like idiots in the process. In fact, trying to associate a derogatory reference or "name" to a person, i.e. by calling someone a Jew who obviously is not, is a very Jewish tactic of not dealing with the action, as the focus, and trying to personally denigrate the individual as a substitute. Let's not sound just like Jews when we deal with these issues. We ought to be better than that.
 </t>
         </is>
       </c>
@@ -1549,11 +1549,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>23.86</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
@@ -1565,7 +1565,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t xml:space="preserve">She looks like a hairy Australian Aborigine to me, but since they have some pretty primitive features that's not saying much. Every time a strange secret government research program comes to light it is said to have been ended unfruitfully. I doubt that it is always the case, too bad I have no way of knowing when they are lying and when they are telling the truth. The Stalin story is essentially what ZOG/NWO is attempting to do to all of humankind (Chosenites excluded of course). Dysengenics. A Mongrel slave race. Judeo-Communist-Capitalist-Globalists to rule over the beast men, in accordance with the prophecy (Talmudic that is).
+          <t xml:space="preserve">It doesn't take away anything from my feelings of sheer contempt for what the darkies do everyday here in the US to White women but I have some small grain of sympathy for non-White rape victims. It's bigger than just violent crime, you actually have to hate women on some level. That being said what goes on in Africa until such time that it directly impacts US economic or strategic interests is not our problem. We have more pressing issues at home like crime, poverty and immigration to be worrying about rather than what some mudhole in central Africa is doing to it's citizens.
 </t>
         </is>
       </c>
@@ -1573,11 +1573,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>99.58</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve">all food is organic. we don't have any way of digesting anything that's not. if we want to go back to the stone age, it will take a lot more than making sure we don't have 'chemicals' on our food. for example, what do you think stone-age farmers used as fertilizer? i had a meal at a friend's house. it was well cooked and tasty, but nothing special. but what spoiled it was having to endure a half-hour lecture about how it was all organic, all cost 3 or 4 times as much as the stuff i buy, and was all so very good for you. yet i get the same results just by cooking from scratch. and so can you.
+          <t xml:space="preserve">Exactly, I talked about this on another thread. Although the Muslim scum needs to be cleansed from our European homelands we can make use of their hatred for the Jew, for they are the cause of the problem, the massive Muslim immigration is simply the result. It seems some here need to read up on the Jew and study their ways a little more before coming back to this conversation. The demon Jew is the enemy of ALL.
 </t>
         </is>
       </c>
@@ -1597,7 +1597,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1613,7 +1613,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originally posted by mickeymout: Now, Here's my opinion of why some white men prefer to marry asian women. Radical feminism in America has completely corrupted the actual role of women and feminized males into grown-up boys who ditch their families. In many chinese families today, girls are taught their traditional roles as adults: Obedient domestics and child-rearers. Its gotten to a point where there is almost NO TABOO against getting a divorce even after having children, having affairs. Men are trained to be "sensitive" emasculated "domestic partners" to "share equally in an emotional relationship" What honest man can put up with that crap? Some asian women haven't been brainwashed by the degenerate media and know their place and I that's rare today. __________________________________________________ _ Well, that explains why Asian women would prefer to marry white males. But why would a white male want to marry an asian woman!? Oh yeah subservient pekinese dogs.. I suppose that would do wonders for a loser's self esteem. mickeymout: if Chinese women are getting too uppity -maybe it's time to bring back the practice of footbinding. That outta teach em! Go spread the word to your Chinese brethren.
+          <t xml:space="preserve">You said this before but you refused to define what exactly was an ethnic Briton in the context of Ireland in the late 19 th an early 20 th century. A large portion of the upper civil service who were born in England left after the handover to the Treatyites. Similar thing happened in the case of Hong Kong. That is not "driving people" out. Unfortunately a lot of the Ascendency stayed on and still hold land that they should not have. Ulster Loyalists didnt want to submit to Irish rule because the big enough differences in both economy and culture between what became Northern Ireland and the 26 counties.
 </t>
         </is>
       </c>
@@ -1621,11 +1621,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>66.01</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
@@ -1637,7 +1637,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Could the reference to the Q society be deleted? We know what they stand for and we know who they serve, they should not be given any time on a pro White site. Two better articles for pro whites to promote, one on the issue at hand, the other on sticking to a consistent message: Neither Islam, Nor Israel:Against Both Islamism And Zionism. Dr. Jim Saleam NatAlt Strategy: Staying on a clear, direct message.
+          <t xml:space="preserve">they hate the USA as much as they hate all the white countries and the free world because they want all the world to live by the rules of the Islam Nonsense! They are absolutely justified in hating the west. You need to understand the events that led to the creation of Israel. We have been beating the crap out of Palestinians via jews and Israel since before WWII. Jews dragged America into both world wars first to establish Israel, then to destroy Germany and enhance the power of jews and Israel. White Western Civilization lost both Wars and the jews were the ONLY people to achieve long term gains. The arabs lost from both wars as well. You have reading to do. Here are easy ones to start with. http://www.heretical.com/miscella/bolshies.html http://www.voteforusa.com/benfreed.htm See The Truth About Israels Creation. http://outofisrael.com/splash.html# http://www.charleslindbergh.com/americanfirst/index.asp http://www.ety.com/HRP/rev/thejewishwar.htm
 </t>
         </is>
       </c>
@@ -1645,7 +1645,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1661,7 +1661,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's illegal here and in Indonesia though and she knew that, 4 kilos is a lot of Marijuana in anyone's book and she'd be in the same mess if she'd tried to import it to the Netherlands. Everyone want to hold up Holland as some sort of example of tolerance and progressive social policy, that's exactly what we should be heading away from, at around the same time the Left Wing parties there were lobbying to have the drug laws relaxed they were also introducing a bill to legalise sex between adults and children.
+          <t xml:space="preserve">I am not sure what you expect to gain here. Are you the NSM? Are the reps in the picture not what your group has sent forward to us as your representatives? They apparently think they are. Why don't you start an NSM thread and just get the hell out of here? You are causing way more divisiveness than you claim to be out to repair.
 </t>
         </is>
       </c>
@@ -1669,11 +1669,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>75.44</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
@@ -1685,7 +1685,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Some advice mate. Very, very, few people here can be bothered to read posts that long, now I write a lot on occasion, in answer, but 99% of posts like yours will quickly find themselves on page 5 of OV. The best thing to do is lead into it, pose a question or a couple of, wait for answers then further the debate. I looked at yours last night and all I thought was better things to do on a Friday night. I would change the user name as well.
+          <t xml:space="preserve">they want to feel more alive by risking death 1,000 times more so than had they just chosen a solid up-right white sexual partner. If they are that hard up for action why don't they go ahead and offer their services to the nearest male mongrel dog. This might be good for burning though!
 </t>
         </is>
       </c>
@@ -1693,7 +1693,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1709,7 +1709,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve">What else is new. It was the same 10 yrs ago. Everyone I know who lives in surrey has been in at least one confrontation with either a gang member from an ethnic group, or a drug addict. Its the norm there. Personally, when i go to surrey, i dont feel safe during the day either. By comparision I'm not afraid walking around east van at 2 am, because there are rules which if followed you will be ok. (this is changing due to a rapid influx of african refugees) Surrey on the other hand, when the sun goes down, its the wild west. And if your white, or anyone other than sikh, you might as well wear a glow in the dark shirt with a big red bullseye. Even the muslims i have met (who are brown too) are afraid to go to surrey as the majority of them have stories about being attacked randomly by a couple roving carloads of young, drunk and violent sikhs too.
+          <t xml:space="preserve">What is this list I keep hearing about. The mystery 120 named "assault weapons"? This the real scary part: Registration = confiscation Requires that grandfathered weapons be registered under the National Firearms Act, to include: • Background check of owner and any transferee; • Type and serial number of the firearm; • Positive identification, including photograph and fingerprint; • Certification from local law enforcement of identity and that possession would not violate State or local law; and • Dedicated funding for ATF to implement registration Dianne Feinstein anti-gun bill bans 120 specific gun models | WashingtonExaminer.com
 </t>
         </is>
       </c>
@@ -1717,7 +1717,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1733,7 +1733,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAPPY DOMINION DAY The Red Ensign -- Our Flag The real Canadian flag, the one that reflects our history and our hopes, is the Red Ensign. It is potent in symbolic meaning. Edmund Burke warned that a people who ignore their past, will have no future. Canada came of age as a nation in two world wars under this flag. http://www.canadafirst.net/maple_lea...ver/index.html
+          <t xml:space="preserve">I've been to Kellys in Richmond. Also a good biker bar just outside Lake Geneva. The owner is a White body builder, has a shaved head and always has a new, young girlfriend, wife helping out. It is a good biker hangout. Exchanging a few smiles, hellos on a Sunday isn't quite the same thing as getting to ride in formation in an all White biker gang. :-)
 </t>
         </is>
       </c>
@@ -1741,7 +1741,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1757,7 +1757,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t xml:space="preserve">I see that you are trying to divide us, by turning the christians and atheists among us against eachother. There are over a hundred atheists on Stormfront, and you could hardly find a more strongly anti-muslim person than the atheist who is typing these words. One could just as easily argue that Christianity serves as a segue into Islam, because they are both Abrahamic religions with fundamental similarities, and both of them involve Jesus. But I do not allege that that is the case.
+          <t xml:space="preserve">Like I said the Minutemen have no need to worry as if these clowns show up and attack the Minutemen they only need to make one phone call and there would be hundreds if not a thousand men and woman right there the next day or two to help them out. My bags have been packed for two weeks now just in case and I suggest anyone reading this post be packed toO !
 </t>
         </is>
       </c>
@@ -1765,7 +1765,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1781,7 +1781,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't have a lot of experience with Ukrainian health care, other than the usual stories from relatives and friends, but I am positive it is not any better than the Russian one. If you want good quality health care, you need to send her to a private clinic, for the conditions in public ones are terrible. The real issue, however, is not the antisanitary hygiene or the lack of medicine in public health institutions, but the attitude of the personell toward the sick, for it is common that a patient has to wait as long as an hour for the nurse to come, and the attitude of the medical personell toward the patient is often horrible. They simply do not care for their patients. There are even stories of drunken doctors. If you consider the ridiculous salary the doctors are payed, it is hardly surprising. This is based on the experience of my grandmother in a St. Petersburg public hospital, where she was treated after a trauma. The situation in Ukraine is hardly any better, so I really suggest finding a private clinic in Kiev for your Mother in Law.
+          <t xml:space="preserve">So much for our "anti-war" candidate, eh? Any idiot can win the presidential elections now, you only need to rehearse often enough and sell them promises you don't intend to keep. As always, the American public is a gullible bunch willing to vote for anyone who can promise them a loft. What? Let me guess the name of the next operation, this time it'll be in Iran -- Operation Necessary Freedom?
 </t>
         </is>
       </c>
@@ -1789,11 +1789,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was re-reading "My Awakening" chapter 22, last night. Israel: Jewish Supremacy in Action. An account of the attack on the USS Liberty is near the end of the chapter, it got my blood boiling. The Jews are ruthless, manipulative, cunning, racist beyond our Goy imaginations. The blood of a million Goy is not worth the thumbnail of a Jew. http://www.front14.org/tsun Nothing would surprise me when it comes to Jewish manipulation of world history/events. As far as the WTC incident, besides the stench of 5000 decaying, mostly white bodies, the smell of schmalz hangs heavy in the Manhattan air. Lawdog Links not working. It gets overloaded sometimes.
+          <t xml:space="preserve">wolfram, Wonderful! Thank you! More posts of writings by David Myatt would be most welcome. THE COMMON INTEREST BEFORE SELF-INTEREST – THAT IS THE SPIRIT OF THE PROGRAM. (the Spirit is the Guiding Force) BREAKING OF THE THRALDOM (slavery) OF INTEREST – THAT IS THE KERNEL OF NATIONAL SOCIALISM. “ (the Kernel is the Seed from which All Things Grow) Adolf Hitler
 </t>
         </is>
       </c>
@@ -1813,7 +1813,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1829,7 +1829,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well, I am white too and I was never beaten by mestizos. Then again, I am of Spanish ancestry, with Spanish surnames, like the mestizos, so that actually helped me. But even though I am of the "dark" type of white guy, I still am recognized as white and you can make point out from a a crowd of mestizos. But are you sure they were mestizos? Remember, many Mexican criollos (Whites of pure Spanish settlers ancestry born in Mexico) believe they are mestizo, thanks to the monster known as media machine.
+          <t xml:space="preserve">Be careful whose gift cards you buy this season. As retailers struggle with recession, debt-laden consumers, unfriendly bankers and declining property values, fewer of them will be around next year. "By the end of 2009, the number of retail players will be down by at least 25% and could be down by as much as 40%," says Britt Beemer, chairman of America's Research Group, a consumer-research and marketing firm based in Charleston, S.C. "I expect the number of bankruptcies next year to be more than we've seen in the last five years combined." Full article: http://www.time.com/time/business/ar...861929,00.html
 </t>
         </is>
       </c>
@@ -1837,11 +1837,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>66.52</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve">He was a Jew from Georgia. Communism was created by a Jew, perpetuated by Jews, so he just took the torch. OP, you conveniently forget the Rwandan genocide and the 10s of thousands of Americans who are gunned down in their homes and streets every year by your beloved "African Americans".
+          <t xml:space="preserve">What women actually want has gotten lost in the mess of what women have to do to navigate the insane social system. Correct me if I'm wrong, but most women seem to want to have a relationship, fall in love, have sex sometime after that, and along with the love have a committed LTR. -- Another issue: the only way I see out is for a sizable number of young women in a new generation to go the "prude bitch" route, and to treat the other women like "scabs" in the union sense. Don't think they'd be able to do it at this point without major social upheaval in general, the overall system too far gone. At the same time the conservatives are outbreeding the leftists, at least if you exclude the leftists living in poverty (leftists tend to be either poorer or richer than average), so maybe with the religious subculture factor it becomes possible.
 </t>
         </is>
       </c>
@@ -1861,11 +1861,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>99.38</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
@@ -1877,7 +1877,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Things are much different in Russia compared to the UK. Russia is just one example. I can't say the same for Brazil. Personally I think Brazil is a cesspit and is home to many drug dealers. The only good thing you got going on is the women and their Earth-like asses.
+          <t xml:space="preserve">Some one ain't that bright or they get paid to post and play stupid. Right on schedule, minutes after posting, a full time SF monitor. Main goal, 9/11. They want the first responders as witnesses dead, it is that simple. Gov has done nothing for them and the JEWSMEDIA covers for the crimes against them. This guy is a long time troll, have a look. https://www.stormfront.org/forum/show...52#post7238952 " You call half truths, debunked myths, incessant repeating of lies and falsehoods " https://www.stormfront.org/forum/show...&amp;postcount=302 And he defends the Jews despite evidence and reporting from Jew sources. JEW ORGAN TRADE https://www.stormfront.org/forum/show...2&amp;postcount=27 https://www.stormfront.org/forum/show...4&amp;postcount=28 https://www.stormfront.org/forum/show...4&amp;postcount=30
 </t>
         </is>
       </c>
@@ -1885,7 +1885,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1901,7 +1901,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part of the reason i joined this was. I kept on geting banned from other sites for being labeled a racist. Even if you mention black or muslim, they start banning people. So i came here, to voice my views, which is good. It's free to express them. But now i'm starting to feel i need to support the common line on this board. That jews are the cause of white race mixing. Which i don't fully agree, i believe it's female instict, to shift away from races. 100
+          <t xml:space="preserve">A mild astringent, used daily, should help keep them clean and help shrink them as it were. Witch hazel is a good one to use. Using an exfoliating product can help too. Using it once a week is more than enough for most women and should be avoided all together if you have acne, rosacea, facial thread veins or sensitive skin. Just thought, you might want to try a floral water, a traditional complexion beautifier, for your skin too. I can offer a reputable supplier's addie for ladies in the U.K., if you would like it (I'm an aromatherapist). I'm sorry I don't know where you would go for a good quality water in the U.S.
 </t>
         </is>
       </c>
@@ -1909,7 +1909,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1925,7 +1925,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve">That is right, the ghurkers, sikhs and a host of other non white participants are there because we were all 'on the same side' under that 'great' british empire. Another reason for nationalism not imperialism. The British by the end were more concerned with maintaining its empire than the heritage of the HQ (britain), and if that empire contained 1 billion Indians as well as gurkers, malays etc then they were almost as important.
+          <t xml:space="preserve">If I recall correctly, the Rockefeller built themselves a $1m fitness complex in the middle of the Depression (in the days when $1m really meant something). The spending continued -- just more discreetly. Not the ostentatious display of the Roaring Twenties. It will be more difficult to measure the decline because of a fiat currency and the shenanigans that the government indulges in by increasing its supply. But my guess is that we will see corresponding reductions in real national purchasing power in the 5-10% region for the next year or two at least, even though officially, the contraction might be only 1% (or even "modest growth" of, say, 1%). Place not your trust in official figures, but look around you. If it looks like a depression, by golly, it will be one.
 </t>
         </is>
       </c>
@@ -1933,7 +1933,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1949,7 +1949,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve">all this says to me is that Oblama can not make a decision for himself as a leader. What a disgrace. Each state to control emision standards means more lobbiest money in every state capital. As if there was not enough allready. Get some balls Oblama (oh forgot his wife walks as if she has a bigger pair of ape nutz) and wake up to the rest of the country.
+          <t xml:space="preserve">What are we getting in terms of national defense for our tax dollars? The gov't. sponsored invasion of the USA, Europe and Australia hammers home the point missed by the 'Greatest Generation'--the enemy America was fighting during the War wasn't Germany--it was America itself, along with Europe, Australia and Western Civilization in toto--HLM: Securing Our Future: The Wall &amp; Border Security Securing Our Future: The Wall &amp; Border Security | The Occidental Observer - White Identity, Interests, and Culture From Waaay Out West, --HLM
 </t>
         </is>
       </c>
@@ -1957,7 +1957,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1973,7 +1973,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve">It isn't your COLOR. The notion that the differences we are talking about here exist only in melanin content is truly "silly." There are real, tangible differences between the different races of man aside from mere color that LIBERALS seem to tout all the time. These differences have been catalogued various times throughout this thread alone, let alone the many threads all over this site. We are DIFFERENT. We wouldn't be deporting you because of something as arbitrary as "the color of your skin," but rather because of clearly discernible differences in RACE. I hate how liberals trivialize those differences and then try to paint us out as ridiculous by claiming that these differences are only skin deep
+          <t xml:space="preserve">Anyone who wants to see how non-Islamic Turkey really is should take a drive around Istanbul during the last few days of Ramadan. Every public space and vacant lot is filled with unfortunate creatures whose throats are going to be (more-or-less) delicately slit in a frenzied ritual at the appointed hour. And Istanbul is the most cosmopolitan bit. It's much worse elsewhere.
 </t>
         </is>
       </c>
@@ -1981,7 +1981,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>71.05</t>
+          <t>84.89</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1997,7 +1997,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Interesting,that Lucas Films would name the Jedi Ezra. Ezra, in the Old Testament, preserved and protected the Jewish race. Yes, race. He didn't want no race mixing among the Jews. He told those Jewish males to get rid of their foreign wives and get back in the fold. Ezra - Chapter 9 verse “For they have taken of their daughters for themselves, and for their sons: so that the holy seed have mingled themselves with the people of those lands: yea, the hand of the princes and rulers hath been chief in this trespass.” Ezra was a racial purist for the Jews.
+          <t xml:space="preserve">Which you know nothing about. #NotAnAnswer How about you and your junglebunny scurry back to whatever east Asian craphole you slithered out from and eat rats and fly-blown chicken feet the way your gods intended for you to do and stop worrying about people who don't belong to you? We don't belong to you, you don't get to say what we do.
 </t>
         </is>
       </c>
@@ -2005,7 +2005,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2021,7 +2021,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wow. Amazing, but not surprising. I never cared much about going to Germany or the German culture when I was in the army, but now it sickens me to see how Germany has been held hostage over the past 70 years. It's changing though. The Jewish power structure is crumbling. We may not see the end of it in our lifetimes but it's coming to an end.
+          <t xml:space="preserve">Michael Collins was a homosexual.adventurer who took English money to slaughter Irish women and men, and was justly sent to eternal damnation by the Irish Republic. People literally starved to death again in Ireland under the traitorous regime he helped force on the Irish people causing the biggest wave of immigration since the famine.
 </t>
         </is>
       </c>
@@ -2029,7 +2029,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2045,7 +2045,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Couldn't find any trace yet of the organisation of which he claims membership - I would like to think that it exists only in his imagination, but the truth may be less palatable. I did find this interesting and highly pertinent article though: http://www.faithfreedom.org/Articles...amic_state.htm From what I've read of it so far, it should be recommended reading. I would recommend it to Roberto in particular.
+          <t xml:space="preserve">Yeah, thanks a lot Alan, you horse's butt! Why don't you and your lovely missus move next door to a pack of them since you think it's such a great idea for the rest of us poor, dumb peons? Sure, Mexican "immigrants" are just jim dandy additions to our wonderful world of diversity here in the former USA. Will someone please drag this Bozo away from the lectern before he wets himself? A flexible workforce while this country is teetering between 10 to 20% unemployment depending upon which b.s. government mouthpiece is speaking that day? Where's the tar... the feathers... the rat poison? (The last item is for me.)
 </t>
         </is>
       </c>
@@ -2053,7 +2053,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>89.18</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2069,7 +2069,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve">It seems as though the Jews complain that "KKHHizzbullah" are financed by Iran. Therefore Iran is a "Terrorrist state". Who finances the "Zionist Regime" in Palestine? Is this not why we have become targets of the dispossesed Arabs? The Arabs said that if the "West" failed to take their concerns seriously they would bring the War to the streets of the "West". The "west" is reaping the seeds it sowed when it decided to support the injustice known as "Israel". This is precisely where Judaic Philosophy fails. You cannot abuse people and hope the problem will simply be brushed under the carpet because Jews call themselves superior. If the Jews keep on, full-steam ahead destroying the Cultures of the Middle-East they will end up with another "Arse Kicking". Time for the Jews to stop and think for a change, instead of relying on their Dusty old Tomes, the Talmud has brought them nothing but bad luck. JU88.
+          <t xml:space="preserve">I have to give this guy credit for speaking his mind on a bus full of boons. He wins argument and then sheboon attacks in a rage, looks like he gets swarmed by a lot of the bus. Perfect example of when push comes to shove race is all that matters, even for blacks: [ame="https://www.youtube.com/watch?v=sNrpVLPKy4M"]Went Down On The Bus: Argument Ends With Dude Getting Jumped For Getting Too Smart At The Mouth! - YouTube[/ame]
 </t>
         </is>
       </c>
@@ -2077,11 +2077,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>97.01</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
@@ -2093,7 +2093,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Australian Lamb is Halal. The Muslim consumer mAustralian Lamb Halalarket is very important to the Australian meat industry. Australia has a Government Supervised Muslim Slaughter System (AGSMS) which ensures high quality product that is strictly Halal ("lawful" in Arabic). Australia is recognized as a world leader in Halal meat production. For its success, the AGSMS relies heavily upon the involvement and expertise of various Islamic organizations. Australian Lamb: Halal Information “We pride ourselves for having constantly supplied the ME markets with high quality, safe halal meat products for over 30 years now with year on year growth,” Middle East still largest market for Australian lamb | Halal Media
+          <t xml:space="preserve">And listening to her tell us how to think or what she thinks is wrong with how we speak is better than the media actually covering whats happening? They air her vs airing actual new &amp; that this truly is Islamic terrorists placing bombs in our nation. But that would ruin her agenda. _______________________________________________ WAKE-UP, NOW STAND-UP, &amp; FIGHT TEXAS!!!
 </t>
         </is>
       </c>
@@ -2101,11 +2101,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>77.82</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm sure the person that wrote this article, doesn't support the view that leb's have a crime problem. Really makes you wonder why they write something like this which has no support of the australian community. Makes you wonder why people like this should even have a voice. People should really stop buying the sunday, if the sunday paper want to allow such writers and such views like this to be distrobuted to the australian people. Then mabe the people should stop buying it's papers all together, and teach a hard lesson to the media, you either support the majoirty view, or your out of business. It makes me sick, how the media, push minority view of an agenda which they try and brainwash the whole society with such views. I honestly i think the people should start to reject commerial media, televison media, paper media, where the people with power have control. Thank GOD, that the internet has turned the tides, againist a controled and propaganda media system. People are now not forced to be manuplated by the controlers of the media system.
+          <t xml:space="preserve">[QUOTE=LION OF ZION][B]Herr junkers88 or I guess Fraulin junkers88 (since you have been working with a very religious Jewish woman).Are you sure you were not manipulated to play to the hands of the Jews, you are doing excellent job recently by confronting the towel heads on other threads. QUOTE] Mr. Zion, The Jew I worked with was a "New Lubba" her son was more "Hardcore" than her. When he used to drop by he would not have any "Contact" with the "Goy". Europe for White Culture, not Jew Culture, not Black Culture.
 </t>
         </is>
       </c>
@@ -2125,11 +2125,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>69.89</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
@@ -2141,7 +2141,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve">While you're right about ragheads, euthanasia solution is the most frequently stolen "medication" from verterinary clinics, after Ketaset. Or it used to be, anyway. I know Ketaset is stolen to get high on, but I don't why euthanasia solution is stolen. I really think I'm better off not knowing some things.
+          <t xml:space="preserve">Clearly this cop is a racist. He needs some diversity and sensitivity training before he is allowed back on the street. Frankly I am tired of all this analytical jiberish. Our brothers just need a break. They are trying to compete in a world of adults with the IQ of an 11 year old. Every where they turn, they have to add, subtract, and even make critical assessments of their current situation. It simply isn't fair, It's like asking somebody to play UNO when every one else at the table has a hand full of Skips and Draw fours.
 </t>
         </is>
       </c>
@@ -2149,7 +2149,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>42.86</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2165,7 +2165,7 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Are they ? I don't think I can recall any prominent, evil blonde men, at least in the last 100 years or so. Stalin Hitler ( Sorry, anyone that causes millions of European deaths, labels Slavs and other Euros untermensch, leads their country to a humiliating defeat and subsequent mass rape is evil in my book) Lenin Beria Pol Pot Arab tyrants etc. Kim Il Sung and descendants, other marxist leaders zionist leaders African tyrants NO BLONDES !
+          <t xml:space="preserve">It's really a life style, cliche but true. From the music(Oi!, Hatecore or metal) , dress( Doc Martins, Bomber jackets, braces) to the crews (crew 38, don't get me wrong there are lone wolves). You can't descibe a skinhead by simple dress it is a way of life. I have been a skin since 98.
 </t>
         </is>
       </c>
@@ -2173,11 +2173,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>98.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
@@ -2189,7 +2189,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are limits to your people's capabilities. You're a racially homogenous nation of 1.3 bilion people. Any homogenous population that large with an average I.Q. over 90 and a generous amount of resources at thier disposal will likely make rapid gains in a short amount of time. America proved that fifty years ago, Germany did it before them and Britain proved that for centuries. Don't forget that while you were still clutching onto your backward ideologies, white populations around the world were busy inventing such useful little things that make our lives easier...like nuclear fission or quantum physics. For your sake, I hope you keep your race homogenous and clean from jews. Once the two of you are indistinguishable, it's all over.
+          <t xml:space="preserve">Welcome new members. We hope to see the many of you add to the rich tapestry of information that spreads the word of our cause and educates ourselves and others to convey our message understandably and far and wide... All of you are setting out on a journey of discovery along a difficult track. Learn from those around you and be brave. Good luck!
 </t>
         </is>
       </c>
@@ -2197,7 +2197,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2213,7 +2213,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oh, I know you care Jeanmaniere. As do the vast majority of Stormfronters. I guess I just get a little concerned when I see people "changing their mind" on a daily basis and wanting nothing to do with our movement anymore. I'm not going to let it get me down though. Can't help but be concerned, but I promise I won't let it get me down. Like another poster said, the weak will leave us and only the strong will survive and thrive with us.
+          <t xml:space="preserve">Quote: "The psychological operations conducted by the government of conditioning the public through covert mind control and subliminal influence has been documented for many years. This continued throughout Ron Paul's presidential campaign, and now that there is talk of a Ron Paul run in 2012 , even on Paul's own website, with 94% of respondants favoring a 2012 run in the latest poll, establishment pundits on the so-called right are amping up a marginalization campaign of Dr. Paul and his supporters. " http://www.examiner.com/x-27692-LA-C...-Paul-2012-run
 </t>
         </is>
       </c>
@@ -2221,7 +2221,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2237,7 +2237,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not trying to upset you, but teachers are glorified child minders in the US. In inner-city schools, they have the hazardous duty of supervising large holding pens (without necessary tools such as cattle prods and tear gas). And difficult to get the children to show respect when society at large doesn't accord teachers any respect. The children cotton on quickly that the teacher is a loser (if he isn't, why is he or she in the dead-end job of teaching?) I am a former schoolteacher.
+          <t xml:space="preserve">It's just a matter of either only using credit cards close to home or cutting them up and mailing them back to the company. Through the years, I've occasionally had to mail a card back for one reason or another. I then, sometimes, get a call, explaining that they have other program cards with more amenable rules. I always pay off my balances monthly, so the companies never earn any interest, and I've never understood why they even care, except that my large amount charges must earn them some good fees with the merchants.
 </t>
         </is>
       </c>
@@ -2245,7 +2245,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2261,7 +2261,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Even though the Scotts were the most tenacious in the past (harassing the Romans so much that they had to build the Hadrian Wall to stop the then-called "Picts") . . . and they built Stonehenge in the Bronze Age . . . they still shaved a lot when they made their feudal system (keeping power for the people unlike the English) . . . and that's the direction I'm headed for politically so . . . for me, shaving is the correct protocol move. It's the right look. I should be wearing a kilt. However, right now my family is not officially part of the Rose Clan of America (we're the Roses) so . . . I have no need for traditaional Scottish dress. I'll just dress like a hillbilly I guess.
+          <t xml:space="preserve">Could a thermostat that has be removed/stuck in the open position cause AC issues? I had a girl bring a car to me one time because it was overheating due to a bad fan. Her brother had her put FOUR of those little plastic cans of radiator stop leak in her radiator. I was able to flush it out with a waterhose. You wouldn't believe the contraption we cobbled up to connect the radiator hose to the water hose so we could enough pressure behind it. Think hose clamps, 1'', 3/4'' and 1/2'' PVC pipes with reducers. Thankfully it didn't clog the water jackets or if it did we were able to blow it out after about 100 gallons of water later. I gave him a hard time about that until we parted ways over an unrelated issue. People resort to some weird things when their car is acting funny.
 </t>
         </is>
       </c>
@@ -2269,11 +2269,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve">British by passport. We do not mutilate the genitals of our offspring. Savage. Kosher and Halal, are indistiguishable. Barbaric. We do not hide behind quasi religious taboo's. Jews occupy Palestine based on a myth, that a voice was heard in a burning bush. Get over it. Grow up. Take responsibility for your oddball out of step conduct, and the consequences.
+          <t xml:space="preserve">Nope. You're staying, I don't care if you don't like it. Look at what people like that say about us and the Leafs for crying out loud: They want us to forget about uniting, which they think they can do by convincing us all that our own extended family is not white. Seriously. That's whats going on. Don't let them win. .
 </t>
         </is>
       </c>
@@ -2293,7 +2293,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2309,7 +2309,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizens Advice Bureau helping asylum seekers... Why doesn't that ring quite right. On that theme, here's a nugget from the recent 'No Soft Touch' asylum report: In 2002-03, CABs dealt with some 60,000 immigration and asylum advice enquiries, including an estimated 15-20,000 asylum support enquiries. CABs are funded almost entirely by the DTI, with other funds from operations like good old Cadburys. Not many people know that.
+          <t xml:space="preserve">By poor dispersal I mean that the drops were several miles away from the actual objectives. This was standard Allied doctrine for airborne attacks after observing the massacre of German paratroopers in Crete who were dropped directly into the objective. But in this case the re-assembly of the dispersed forces and their equipment was severely botched. And of course the remnants of the 9th and 10th SS-Pz divisions were already in town. As for XXX Corps, their jump off point on September 17th was the Maas-Scheldt Canal not the Albert, which was some 30 miles further south. They eventually crossed the Waal at Nijmegen on the evening of September 19th, 11 miles south of Arnhem. Eventually the main force (the single tank front) was halted when the Knaust Panzerkampfgruppe severed the main highway at Elst. All-in-all the Corps had advanced some 60 miles in five days against commited resistance. I don't think the veterans of that exercise would appreciate the implication that they had spent much of the time 'brewing up'.
 </t>
         </is>
       </c>
@@ -2317,11 +2317,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>62.87</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
@@ -2333,7 +2333,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columbia University was where the Frankfurt School took up residence. "For Black Girl Movement (BGM) Conference, we ask that individuals and communities respect the ongoing priority of centering Black girls, cis, queer, and trans girls, ages 18 and under, organizers, speakers, presenters, participants and conference attendees. While we all operate in many political spaces with various formations with regard to gender/ race/ class/ sexuality/ ability/ age/ religion/ immigration status/ size, etc., our intention is to create safer spaces that prioritize the talents, needs, voices and visibility of Black girls, cis, queer, and trans girls, 18 and younger." Black Girl Movement Conference | IRAAS Institute for Research in African-American Studies
+          <t xml:space="preserve">Inferior white people? Are you black? Have you ever considered getting away from all us inferior white people? Going to Africa where everything is so wonderful, because all the black people are so smart, civilized and peaceful? You should really teach us white people a lesson. You should deprive us of your company immediately and I'm sure our whole society will just fall apart without you and other diverse people.
 </t>
         </is>
       </c>
@@ -2365,7 +2365,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2381,7 +2381,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is worse than a sick joke. Obama is a homo freakazoid and his tranny partner Michelle proves it. "Faith based agency" HAHAHA! Wasn't it the Bushes that started this BS or does it go back to Reagan? It is pure BS regardless the government of the USA is not supposed to be involved in the religious affairs of it's citizens or lack thereof. Take a good long look at that freak, that is the future of religion in the west. I say to hell with that thing and to hell with any religion even remotely tolerant of it. I'll stop there...
+          <t xml:space="preserve">Sorry, but it didn't need fixing. I meant what I said. They are the spawn of Satan and subhuman filth. I have been choosing my words for almost 50 years now. I think I know what I mean. I didn't mean what you changed it to. Maybe that's what you believe.
 </t>
         </is>
       </c>
@@ -2389,7 +2389,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2405,7 +2405,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Only some sectors are "booming": software, call centres, maybe a few other areas. The country is desperately poor and with massive unemployment. In addition these "emerging markets" -- countries such as Brazil, Mexico, and India -- have their economies shaped according to the needs of core Western economies (thus, for example, call centres and software serve Western markets). This economic dependence usually implies, in these neo-liberal days, that speculative finance capital can move in and out at will. Recently it's been moving out.
+          <t xml:space="preserve">I understand the Miep Gies found the diary, sensationalized it and got caught, and even criticized by Frank's father. Doesn't mean there wasn't a family with a little girl in hiding who got taken away to their deaths (only the father survived). Just that Mrs Gies used the event to make a few bucks over what her and her husband charged Mr Frank.
 </t>
         </is>
       </c>
@@ -2413,7 +2413,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2429,7 +2429,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insofar as IQ tests measure intelligence, what they have to say is that men and women average the same, but that the bell curve for men is "flatter", meaning there are more idiot men and more genius men. Meanwhile, there are more average women. In general the male biological strategy can be characterized as being more "high risk, high potential rewards", and the apparent flexibility in mental structuring which enables more geniuses, but at the risk of more idiots, might be a result of this. FYI, left-handers show the same general IQ pattern as men, with both more geniuses and more idiots than average, and than right-handers. It also seem to be the result of some higher degree of flexibility in nervous system development.
+          <t xml:space="preserve">Four men have been found guilty of the murder of teenager Tyrone Clarke who was stabbed to death in a street brawl . Tyrone Clarke, 16, died after he was attacked by 20 men in Brett Gardens, Beeston, on 22 April. Post-mortem tests showed he died from stab wounds. Islamur Rahman, 21, Anjum Amin,22, Kamer Akram, 22 and Liaquat Ali, 17, who the court said can be named despite his age, appeared at Leeds Crown Court. The court heard how there had been previous trouble between rival groups [ GANGS ] of young men in the inner-city area. http://news.bbc.co.uk/1/hi/england/w...re/4312985.stm
 </t>
         </is>
       </c>
@@ -2437,7 +2437,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2453,7 +2453,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Empathy being a key trait in.... social skills... which is a key trait in... drumroll please... sense of humor! So again, if you think about this logically...evolution itself would point to women being funnier. If you want to argue men learn to be funnier, that's a very different concept, isn't it?
+          <t xml:space="preserve">This is true. However, to play devil's advocate, the most intelligent of each race do not usually mate. There have always been boundaries where people mixed, which is why we have clinal variations in humans... but the intellectual elite were never usually on this periphery (except in circumstances where the society is undeveloped and the "elite" did mix, such as in tribal Africa, but the population levels are usually low, so the effect is small if this population remains small). I think that amongst various intellectual elites of each race, culture will do more to keep them separated. It doesn't make biological sense that mixed races would do any more to promote higher intelligence than a single race with the intellectual elites mixing with each other. I think the mixed races would have a higher likelihood of simply diluting any special racial characteristics of each race and a hybrid is formed that is more "in the middle" and specializes in neither racial trait.
 </t>
         </is>
       </c>
@@ -2461,7 +2461,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>26.97</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2477,7 +2477,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t xml:space="preserve">That is true Mr. Victory. We are always put in this position of "Justifying" our sources visavis 3rd Reich Germany. Lets not forget Werner von Braun, for example, who was given extraordinary support for his visionary science. The German regime at the time was supportive to allsorts of ground breaking science. I also understand the Concerns of Candide. Brown-shirts are not every bodies vision of a rosy future. Unless we get our concerns across to a larger public, we will remain a fringe group. But we must also confront strong truths. We have been sucking sugared milk for to long, the harder it gets to get real. O.R.I.O.N. "NO SURRENDER"
+          <t xml:space="preserve">My personal opinion, or as some write IMO ( ) is Croats and Serbs should work together on protecting our race, since we have no other choice. We had our wars. I think it was enough blood to soak jewish dry money over decades. We are infidels for moslims, and goyims for jews. They do not make any difference if somebody is croat or serbian. Do we have to make their job easy and comfortable? Or should we fight them together ?
 </t>
         </is>
       </c>
@@ -2485,7 +2485,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2501,7 +2501,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well, isn't that lovely!! That's exactly why I will never be an organ donor. I don't even give blood. I don't trust any of it. What's mine is mine unless I'm definitely and without a doubt, dying and could save someone I love. No strangers, I don't care what color they are.
+          <t xml:space="preserve">Don't want to throw gas on a fire, but there were probably several other men who came in and out of the motel room to strangle and use the "sub." Why the mask unless he wasn't supposed to recognize the "doms?" Wouldn't surprise me in the least if the police and media are covering up the involvement of several Hollyweirdos.
 </t>
         </is>
       </c>
@@ -2509,7 +2509,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2525,7 +2525,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t xml:space="preserve">That's the result of boys playing with dolls... [ame="https://www.youtube.com/watch?v=_LjjOJCDDWE"]German kids beaten up by Muslim migrants - YouTube[/ame] Unable to protect themselves, living in fear on their own land. That's the price those poor kids pay now for ignorance of their parents. Some time ago there were separate schools for boys and girls, do you care to know why? Because boys who are growing up or spent too much time with girls are acquiring feminine characteristics (that works in opposite way as well). Not all of them but enough to be dangerous for health of society. If you are saying that it's OK if boy plays with dolls than you must be a woman who is lost, or very naive and uneducated man. I'm surprised I see things like that on SF.
+          <t xml:space="preserve">Afro-Carribean flasher struck again today, in front of a group of schoolchildren in Longton, Stoke-on-Trent according to local radio report. Previous incidents last week included one in Newcastle Lane, Harpfields at around 8.30 in the morning according to the Staffordshire Sentinel - this is the location of a high school and is very close to a primary school - this sicko appears to be targetting children.
 </t>
         </is>
       </c>
@@ -2533,7 +2533,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2549,7 +2549,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Things are looking up anyway. I like the EDL better than the Tea-party. They state that they're not afraid to mix it up a bit, and sort em out. I suspect that we would first have a group similiar to this in the U.S before we ever have a popular WN's Movement. Most White Americans would also ignorantly fly an Isreali flag as a sort of anti-muslim/patriotic gesture. The majority of whites will never feel as strongly about the Jew as we do, but if they take to the streets in opposition to any alien invaders, or the leftist politicians who sponsor them they have my support.
+          <t xml:space="preserve">They live in the poorest areas of Argentina, where the HDI and GPD per capita are very low because there's no industries, they have to move in a city like Buenos Aires or Cordoba to try a new live, the place where they live is forgotten by gods, there's nothing to do, it's sad to see and very white country at these conditions, anyway argentina is not a 3 world country, a would say that's a 2 world country.
 </t>
         </is>
       </c>
@@ -2557,7 +2557,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2573,7 +2573,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ironic since the most shocking, racist and vulgar material on radio today is hip-hop/rap music .. where's the outrage? 'Clear Channel Radio has silenced the popular "Monsters of the Morning" talk show on Orlando's 104.1 FM over racial comments made on the air, The "Monsters" radio team, featuring Russ Rollins and Dirty Jim, was sidelined after complaints came in from Sarasota, Fla., The crew must reportedly complete sensitivity training before returning to the air.' Story: http://www.local6.com/news/3525540/detail.html
+          <t xml:space="preserve">I'm sorry if this seems like an attack on a fellow WN it's really not.Are you out of your damn mind?Never ever sacrifice your beliefs just to fit in.Speak your mind as freely as all others do and soon enough we'll have this white guilt garbage destroyed.Sylvia stay your ground don't give in and never let them take away your RIGHT to FREE SPEECH.
 </t>
         </is>
       </c>
@@ -2581,11 +2581,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>73.67</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
@@ -2597,7 +2597,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t xml:space="preserve">It amazes me that Indigenous groups (or anyone else for that matter) are prepared to put up with them, they openly state that they want to end the traditional Patriarchal clan system and they oppose any Aboriginal representative body or recognition of the prior existence of Aboriginal Nations. Every Anarchist I've met over the last 20 years has been stuffed on drugs or mentally ill to some degree, they have no place in the democratic process, either Left or Right are their targets of the day depending on their mood. If any Socialists or Communists are reading this, you've got the numbers, boot 'em up the Khyber pass and send them packing if they turn up at your rallies, we can't do much about them at this point...so do us all a favor Eh
+          <t xml:space="preserve">Didn't Howard show some backbone by putting Camp of the Saint boat people asylum seekers into concentration camps and funding videos go show to MIddle Eastern countries of illegal immigrant boat people being eaten by sharks? Didn't Howard win reelection on the basis of stopping que jumpers and holding the line against illegal Muslim Asian immigration? Sounds pretty good to me.
 </t>
         </is>
       </c>
@@ -2605,7 +2605,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2621,7 +2621,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve">I could be wrong too, but I don't think rates have gone up in a long time, though I've heard some complain they weren't lowered in time. Personally, I don't think recession can be avoided forever by tweeking interest rates anyway. The economy is cyclical and that's a fact of life.
+          <t xml:space="preserve">very good point. tallow is fat around the diaphragm, and only occurs in well-nourished animals. it's the first to be mobilized when food is scarce, so by the time you're down to optimum body weight, you don't have any. does anyone have any idea how much energy it would take to boil bodies to make soap? and let's look at the chemistry of soap-making. fats used to make soap are tri-glycerides: that is, a molecule of gycerine with 3 of the hydroxyl radicals replaced by long-chain fatty acids. when boiled in alkaline solution, the long-chain fatty acids form salts - soap is essentialy the sodium and potassium salts of long-chain fatty acids - and the glycerine is reconstituted; so you make soap and glycerine at the same time. glycerine is a useful by-product of soap manufacture, and there's plenty of it too, so you don't just throw it away, you use it. now, has anyone ever held in his hand a bottle of 'pure jewish glycerine'? maybe that's what was used to keep those pretty german girls' complexions so fresh and beautiful!
 </t>
         </is>
       </c>
@@ -2629,11 +2629,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>99.32</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
@@ -2645,7 +2645,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve">OK, if it pleases you, I propose this rephrasing: "Will you suspend your attributing of the events of 9/11 to Zionist jews if you were to see Zionist Deli Owners for 9/11 Truth?" It is not especially evident, but you can deduce from this thread that a return to elitism and White male rule is called for, because, far and away, overwhelmingly, and almost exclusivey, White males comprise the only demographic group that is demanding 9/11 Truth and justice. P.M.
+          <t xml:space="preserve">Banking would have came along with out the Jews. The only problem with banking is the usury the Jews apply it with. Banking is something the White race can do without screwing people over. The Jews just used it for a terrible purpose. It's not evil itself. It's like a gun, it's only dangerous as the person behind it.
 </t>
         </is>
       </c>
@@ -2653,7 +2653,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2669,7 +2669,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t xml:space="preserve">I haven't been on Stormfront for a while for economic reasion. No internet at home. I have been working as a substitute in the public schools here in Florida where I see this happening over and over again. I'm going to bump this thread because parents need to see it. I am a parent of 2 daughters, and I can see the delema of many parents. Your daughter is budding into young womanhood at 12 or 13 and you don't want her going out with highschool boys. If you can't homeschool or send them to an all White private school, allowing them to date the high school boys may be the lesser of two evils. It is a tough subject that no parent wants to think about, but you must. I have no doubt that our enemies are well aware of it.
+          <t xml:space="preserve">We've had lots of WWII Nazi stuff in the store over the years, including arsenal-marked pistols, medals, arm bands, etc. Very few objected at all and my attitude was that many of these items are trophies of war - a lot of good men fought and died on both sides and an old medal or pistol might well have been taken from the body of someone's son, father, husband, who made the highest sacrifice for his country and kin. We honor the memory of those slain by treating these "spoils of war" with the respect they deserve, regardless of the nationality. If one objects to the political disposition of that fallen soldier's country of origin then honor the MAN - he deserves at LEAST that much.
 </t>
         </is>
       </c>
@@ -2677,11 +2677,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>72.68</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
@@ -2693,7 +2693,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Here we go! Foreign spouse income limit for immigration at court - BBC News It seems like if we don't allow thousands of anti-british scumbags into the UK on welfare and "working" in the black economy then we're abusing their human rights to "have a family life" Here's a novelty - WHY DONT THEY JUST PlSS OF BACK HOME? !!
+          <t xml:space="preserve">This mutant simply MUST NOT be allowed to stay. Otherwise, we will see so many applicants, you could grow an entire rainforrest with the paper used by them. Not just here, but basically EVERYWHERE in Europe would get this influx. Even if she hadn't turned out to be a lying, silverback ape, anything other than a rejection of her appeal will spell serious issues ALL OVER EUROPE within WEEKS, never mind months. Our supreme court better not screw us or else were f**ked.
 </t>
         </is>
       </c>
@@ -2701,11 +2701,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>54.53</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
@@ -2717,7 +2717,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) Which one is scarier? 2) Which one is a fake? 3) Which one has a paw on your wallet? 4) Which one WON'T go away? 5) Which one would be a more interesting interview? 6) Which one would you'd rather your daughter brought home? 7) Which one DOESN'T need a teleprompter? 8) Which one would you rather share a cold one with? 9) Which one is NOT a mixed breed? 10) Which one would you dare turn your back on????? Just askin'.
+          <t xml:space="preserve">5.000.000 you're dreaming man... That should be one of theories of 20th-century, anti-Turk, French anthropologist telling things such: "when the Turk came to Anatolia, he had the terrible 'Mongolic-Tataric' look; and by raping the natives ... it was one of the rare time that the 'inferiors' beated the supremes and finally the Turks have lost their terrible look to be aryanized ... " bla bla bla ... moreover, look at the problem of your country before being busy with the Turks, and feeding with lies Keep in mind that all our Great victories were before 1526 ... And they haven't married our daughters .. But rather native balkan girls. Not all of them were Muslim, just contrary, they were free at their choice... Year-Number of Jannisaries[5]1514-10,156***1523-12,000***1526-7,885***1564-13,502***1567-68-12,798***1574-13,599***1603-14,000***1609-37,627***1660-61-54,222***1665-49,556***1669-51,437***1670-49,868***1680-54,222
 </t>
         </is>
       </c>
@@ -2725,11 +2725,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dear 1White, why not put your faith in multi racial, multi cultural nations to test and go live in say,,, Zimbabwe. I hear there are agricultural opportunities for those who are not White racists. Perhaps you can mouth your slogans in the ear of Robert Mugabi and introduce your daughter to some of Mugabi's war veterans. Why not just hang out in East Timor - not far from Australia? They say the Muslim militias are eager to spread their culture to others (iunfortunately their culture dictates that they murder non Muslims). You're pathetic. I will take bone sucking queers who are at least against third world immigration over the likes of you and your Judiazed one worlder churchfolks. Please take your sissy views to the opposing view section. This board is for proud Whites.
+          <t xml:space="preserve">For the new Administration: the task ahead. Some pessimistic assessments of the future of the West~HLM: This an older article from Matt Parrott (2012): With a Whimper With a Whimper | The Occidental Observer - White Identity, Interests, and Culture America In Decline: A Society In Denial Mark Weber From a talk delivered in San Diego on November 13, 2010. America In Decline: A Society In Denial From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -2749,7 +2749,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2765,7 +2765,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unfortunately, it's impossible to make a brain physically stronger since it is mostly made out of structural fat. I like the idea of promoting physically fit and strong white people. Too often whites are portrayed as weak in movies and on TV. The fact that whites invented nearly every modern convenience we use today speaks volumes for who is generally smarter.
+          <t xml:space="preserve">Being a diabled veteran of six years honorable service, I know FIRST HAND how cowardly and lazy negroes are! I have seen them asleep while standing at attention several times. For the most part, they had soon find a tree to sleep behind than fight in battle. As mentioned earlier, they NEVER try to fight a White Man one on one (without some sort of weapon), unless they are high as a kite or think they have a huge advantage over the White Man (due to size, age, disability of the White Man, etc.). Also, negroes are not great shots - I remember some having to go back over a dozen times to qualify with an M-16. Negroes also don't have the sense required to operate some of the advanced weapons. The only thing I remember, military wise, that negroes actually loved to do and took pride in was showing their "authority" over Whites with less rank and discriminating against lower ranked Whites.
 </t>
         </is>
       </c>
@@ -2773,11 +2773,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -2789,7 +2789,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oh for sure bud, I am totally against any offensive actions in Iran. Same as this so called war on terror where terrorism in Iraq is now one hundred times worse. It is nuts, plain and simple. Go to war with a country then let their worthless stock flood your own. But hell, the muslims need to leave our countries quick smart. Breaks my heart in my little old town every time I drive past the mosque.
+          <t xml:space="preserve">Well, if you believe evolution, which I do, we evolved from amphibians who evolved from fish who evolved from single celled organisms (obviously I'm missing stages out here but I don't have all day) and all the atoms that make up life on earth were created from the nuclear fall out of dying stars….. All life is interconnected but not all life is the same, that’s evolution and that’s why we have racial diversity.
 </t>
         </is>
       </c>
@@ -2797,7 +2797,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2813,7 +2813,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t xml:space="preserve">It'll never work. The US has been trying to get a base for Africom since GW Bush became president and NOBODY, not even their staunch pro Western supporters in Botswana and kenya have even agreed to the idea. Bush promised MASSES of cash and the boons said no. Forget it. Africom will never happen. The liberals will tell the Boons the "baas" or "bwana" is coming and they'll squeal... and if Somalia is anything to go by America's military can be beaten in Africa... or at least the boons believe they can beat the American military.
+          <t xml:space="preserve">Actually, Victoria, middle school children are 12 and 13 years of age, while 14 and 15 (unless deemed retarded) are freshman/ sophmore high school students... then again I noticed everyone's wonderfully silly replies then again...very true replies *clears throat* boy do I need mace...and to train in a defensive art...then again a gun works wonders
 </t>
         </is>
       </c>
@@ -2821,7 +2821,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2837,7 +2837,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome to SF my sister lived min Naples for 12 years and 3kids born in Italy. I have friends from florence and Venice. My interests are in Rome and in the Tuscany region, so very beautiful. On the other hand my wifes family is from that region as well lol. Enjoy your time here.
+          <t xml:space="preserve">From today's "Dilbert" comic strip... Woman, in the fifth frame, says to Dilbert: "In today's world, men are little more than carriers of bad jokes and flatulence." Let's back up to first frame. Woman says to Dilbert: "I'm not sure what function men serve in the modern world." In the second frame, she says: "My job pays well, so I have all the money I need." In the third frame, she says: "If something in my house breaks, I either fix it or pay someone to fix it." In fourth frame, she says: "If I want a baby, I'll call a fertility doctor." And in the last frame, Dilbert takes up with a robot-woman; the talking dog says, "That is disturbing;" and Dilbert's defense is: "NOT COMPARED TO THE ALTERNATIVES." While the gender-benders of our society portend its soon-to-be collapse, they are not the ultimate hallmark. The ultimate hallmark, as I have pointed out in a recent prior post, is the lack of a genuine concern for child welfare. P.M.
 </t>
         </is>
       </c>
@@ -2845,11 +2845,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t xml:space="preserve">He is still writing great articles ... Behind the Campaign For War Against Iran and the IHR is still active, all you have to do is check the web site. The real issue is not exposing another holohoax lie. The freaking thing is preposterous from start to finish, Butz wrote his book in 1976? Do we really need more articles explaining the hoax? The issue is not just setting the record straight with respect to the hoax, the issue is that we are about to start WW III because of the Jews and get ourselves incinerated. Weber is trying to do something about THAT. My opinion is that the hoax is the Achilles heel of the Jews, and Weber no longer believes that. SO WHAT? Maybe he is right. To see him continually trashed is discouraging. But then, if you're a denier there are lots of things that are discouraging.
+          <t xml:space="preserve">What an ignorant set of posts devoid of any scientific basis. We view blonde hair and blue eyes as superior... Uhm... no... The other thing that it raises that always irritates me as a science student Blue eyes and blonde hair are the result of a mutation... Duhhh moron... ALL EVOLUTION IS THE RESULT OF MUTATION... Walking upright... mutation... opposing thumbs.... mutation... brain.... mutation... That's how evolution works on a base level... Mutate... mutation is able to "outbreed" existing "pre"-mutation ... et voila mutation exists and becomes dominant form of species... and there is a correlation to survival and the advantage a species extracts from a mutation. So in mutating into a form a species needs to be able to have an advantage and be able to transfer the mutation to a next generation so that the mutation becomes the dominant form of the species. So stop calling blonde haired blue eyed people mutations moron because everything on earth is a mutation... idiot... I hate the driveby nature too...
 </t>
         </is>
       </c>
@@ -2869,7 +2869,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2885,7 +2885,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello. My dad is in fact an american with german ancestors, I am born in Germany and have got a German mother so I consider myself as a German. Though my heritage I am interested in American Nationalism. So I want to ask American Nationalists: What is your goal regarding your country: Do you want to get rid of the blacks ? In which way do you have got more right to stay in America then the blacks since you are not the natives of your country because the Indians are. Do you want to divide races like it used to be in the south or South America, or do you want to ship them to Africa ? If you had control over American policy, would you keep on with the American politic playing policemen throughout the whole world or would you stick on to your own business ? What would happen to the Indians, being the native Americans ? Would they be treated as well as nowadays ? What would happen to Iraq and Afghanistan ? So you see I want to now a lot of things about American nationalism
+          <t xml:space="preserve">Any that have driven the nickel up through the San Joaquin Valley know this to be true, having seen it with their own eyes: ..For years now, the southern 1/3 of the beautiful San Joaquin Valley’s farmland has been turned into a “man-made” dust bowl. ... From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -2893,11 +2893,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>55.52</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t xml:space="preserve">What if I do think that whites are discriminated, and that should stop? I agree on this second thing. Not in my dictionary No, not really. Again wrong. My "first encounter" with racialism was through a very bright close friend who held a lot of nazi views. I also hear a lot of NS bands, and also bands who sing just to their heritage, so I learnt the difference between pride in self and hate to others. Then I got here and read a lot. Some things dissapointed me (as opposed to what I expected), others interested me and others simply sounded wrong. I agree. Devotion? I hold no devotion. And I'm not that arrogant, I know I'm not gonna change anyones hate. Good for you Don't worry about explaining, I understand perfectly. Its just not so easy for me to explain myself
+          <t xml:space="preserve">Disgusting! You have no pride whatsoever. If you had any pride, you would be just as disgusted as I am with the thought of laying with a nonwhite. "I'm proud to be white, so I'll lay with an Asian." is like saying "I love my car, I'm going to crash it into a building.". Your son isn't white... he is 50%. I'm sorry that your selfish desire made him that way. You are anti-white, and anti-Asian. Asian fetishists are sick.
 </t>
         </is>
       </c>
@@ -2917,11 +2917,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>68.71</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t xml:space="preserve">That website seems to me to be just jew proaganda to further their own causes. A jew calling a spade a spade isnt going to do it for me. When the ADL and the AIPAC shuts down and no other "PAC"s are allowed to use our govt for the support of another country, then we can say we are getting somewhere. Talk is cheap, action is what we want. I would almost bet that a big part of the "aid" we have given israel was used by jews to buy out the media in America and the rest of the world, including banks. No i cant prove it, but theres no way in hell *all* the jews are so rich just from their businesses. Theres got to be some underlying factor from a state-run govt doing the financing. It takes a total idiot to not see that jews are up to something.
+          <t xml:space="preserve">What if I do think that whites are discriminated, and that should stop? I agree on this second thing. Not in my dictionary No, not really. Again wrong. My "first encounter" with racialism was through a very bright close friend who held a lot of nazi views. I also hear a lot of NS bands, and also bands who sing just to their heritage, so I learnt the difference between pride in self and hate to others. Then I got here and read a lot. Some things dissapointed me (as opposed to what I expected), others interested me and others simply sounded wrong. I agree. Devotion? I hold no devotion. And I'm not that arrogant, I know I'm not gonna change anyones hate. Good for you Don't worry about explaining, I understand perfectly. Its just not so easy for me to explain myself
 </t>
         </is>
       </c>
@@ -2941,11 +2941,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>74.32</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well I'm amazed at the silence of the antis or libs or SJWs. Clearly Many WNs disagree with my onion about the two white men, and I can accept that, but the silence from the lefties is absolutely deafening. I just wonder how many of these libs will open their minds to reality. Or if they will just put their hands over their eyes and keep patting themselves on the back for hating their own race.
+          <t xml:space="preserve">The Chechens had the backing of the US, Israel, Oligarchs, NeoCons, to attack Russia, just as the Albanians/Bosnians had to attack Europeans/Serbs, they too have attacked US. Chechen Jihadists are in Syria right now killing innocent Syrians with " western " backing. Look what two Chechen Jihadists can do, and amateurs at that. Not one of these people should be allowed in any Western country, NOT ONE. Boston Bomb Suspect In Custody After Showdown " Police have detained the surviving Boston bombing suspect after he was found in a boat in backyard following a huge manhunt that left the city virtually paralysed. " .
 </t>
         </is>
       </c>
@@ -2965,7 +2965,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2981,7 +2981,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Her mother is french canadian, and her dad is Italian, like most girls raised in american suburbs at that time, they grew up with almost no racial awareness, and with all the money to fuel her "Liberal Fantasy" of what reality should be like, she started putting out more and more trash to sell records. They say she is from "Detroit" but thats a lie, she is from a SUBURB of Detroit, chances are, if she lived in Detroit itself she would have turned out to be very racially conscious. I'd love to drop her ass off in Bed Sty in Brooklyn and see how much her "Prayers" and liberal jew speak protect her. There is a saying, those who do not listen, will have to FEEL.
+          <t xml:space="preserve">Hey Folks; Paul Fromm's shows have not been archived since May 3rd, 2007. This is well over a month and a half; I have been rattling the cages of the powers that be but getting nowhere. Maybe if enough of us raise heck we can get those archives up; feel free to contact an administrator or senior moderator and ask them to post the archived shows...
 </t>
         </is>
       </c>
@@ -2989,7 +2989,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3005,7 +3005,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Has been approved." Approved by whom? These people, I suppose. Your tax dollars hard at work, folks. Think about that as you file your 1040. Information from the TN Secretary of State's website. Bridge Refugee &amp; Sponsorship Services, Inc. Status: ACTIVE Date of Formation/Qualification: 03/16/1982 Domestic/Foreign: DOMESTIC Place of Incorporation/Organization: KNOX Duration: PERPETUAL Address: 123 DAMERON AVENUE, KNOXVILLE, TN, 37917 Registered Agent: RICHARD F. ROBINSON (865) 540-1311 (865) 540-1021 Fax [email protected] (sub-office) Anne Curtis 4791A Hal Drive Chattanooga TN 37416 (423) 954-1911 (423) 954-9499 Fax [email protected]
+          <t xml:space="preserve">Hello I need some information on how paypal works, I mean I know how it works from a customer and seller stand point but can anyone tell me what is involved on the back side that we dont see. I am wondering if anyone knows how they run the day to day operations If anyone knows anything about how an operation like this works please post it here. If anyone knows of the software they might be using to control day to day operation, or if you know of the banking issues etc. I know its basically a numbers accounting system but I am wondering if they use one bankaccount and send money to the customers who withdraw there money and how all the banking end works. Any info is appreciated. Buster
 </t>
         </is>
       </c>
@@ -3013,7 +3013,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3029,7 +3029,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t xml:space="preserve">No problem... you forget I was a criminal defence attorney in my early career when I did articles... Heard that one when I was a young wide eyed articled clerk... When a guy got arested for drunk driving and wouldn't ahem... oil the state machinery... they'd warn him he was going to get a slow puncture in the awaiting court police cells.... which (contrary to claims by some liars) never happens...
+          <t xml:space="preserve">I agree. The Enslaved can be a very inspiring band sometimes.. and they are visually very appealing look (their outfits, regalia, etc). Do you know any decent viking/pagan metal bands that recently have emerged? I mean not ones like Falkenbach, Vintersorg or Thyrfing, which have been listened to over and over but something new rather?
 </t>
         </is>
       </c>
@@ -3037,7 +3037,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>34.04</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3053,7 +3053,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Good idea... I have no black servants... and prefer to be independent... It makes life a little difficult though... but we do have a good support system in place in our neighbourhood.... poor whites who can babysit for a few bucks are easy to come by... Kaffers are just waiting to set you up with their tsotsi friends... When I practiced law I once had a case where the teenage picanins of a kaffer girl whom their white owner had paid through private school broke in, beat the old white granny to a pulp, predictably raped her because the animals cannot keep that thing in their pants or they get off on helpless old white ladies or something like that, and then slit her throat and helped themselves to her cell phone and a couple of hundred rand* *the rand / dollar exchange rate is about 8/1 so it would not have amounted to USD100
+          <t xml:space="preserve">She doesn't realize she'd be doing us a favor...good riddance. Klum is one of the biggest airheads I have ever seen. Her mongrel children are absolutely homely and I couldn't help but laugh a little when she bestowed a high, noble Teutonic name like "Johann" on that simian-looking, bushman child... We must secure the existence of our people and a future for White children. Because the beauty of the White Aryan woman must not perish from the earth" - David Lane
 </t>
         </is>
       </c>
@@ -3061,11 +3061,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
@@ -3077,7 +3077,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Although this isn't 100% clear to me I don't think Egypt was even considered to be part of Africa in ancient times. My understanding is that Africa was considered a combo of Libya (the Maghreb) and Aethiopia (sub-Saharan Africa.) If I'm not mistaken Egypt was considered to be part of Asia by the Graeco-Romans and didn't get reassigned to Africa until later.
+          <t xml:space="preserve">Dear 1White, why not put your faith in multi racial, multi cultural nations to test and go live in say,,, Zimbabwe. I hear there are agricultural opportunities for those who are not White racists. Perhaps you can mouth your slogans in the ear of Robert Mugabi and introduce your daughter to some of Mugabi's war veterans. Why not just hang out in East Timor - not far from Australia? They say the Muslim militias are eager to spread their culture to others (iunfortunately their culture dictates that they murder non Muslims). You're pathetic. I will take bone sucking queers who are at least against third world immigration over the likes of you and your Judiazed one worlder churchfolks. Please take your sissy views to the opposing view section. This board is for proud Whites.
 </t>
         </is>
       </c>
@@ -3085,11 +3085,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>62.84</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
@@ -3101,7 +3101,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t xml:space="preserve">You know the OP's predecessors should have just said no when the Holland based Jewish slave traders arrived in the West coast four hundred years ago... instead they got shown beads... saw awlla det bling and went... "I wonna gibs me summa dat... wotcha want for dem blings cracka?" "Oi vey vee are lookink for some slaves to sell to de goy" "Dems bee my bruvvas? Shore ting boss... I gettsya summa blackass to enslave en sheet... juss gibbs me summa dat bling fodda b***tches imma crib so I can gets mudeek off onna dems" "Oi I got all de bling you vont my friend... just help a man out veeth some product and vee can shake hends and I give you vot you vont and I get vot I vont... and everybody is heppy...do vee hef a deal?" "Shore shore.. juss gimme summa en I'll getsyuh as many n**ggazz as yo boat can load..." And the rest unfortunately is history...
+          <t xml:space="preserve">You mean, like the Vietnamese terror campaign that was unleashed on major US cities after we pulled out of Saigon? With the exception of course of the depleted uranium sprayed all over Iraq, it's less of a mess than Dresden, but I don't recall Halliburton rebuilding it after that war. Do you have a less specious argument for recklessly continuing stupidity? I'm all ears.
 </t>
         </is>
       </c>
@@ -3109,7 +3109,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>92.7</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3125,7 +3125,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t xml:space="preserve">A million times worse. No different from Mafia hit men- taking money merely to kill people. The San Patricios were motivated by the destruction of Churches, the rape of nuns and a disbelief in the justice of the war. A belief in Justice- however much we have failed to be just is something that separates European peoples from the Jews. The idea of us becoming Aryan versions of Goldstein sickens me.
+          <t xml:space="preserve">Note the profane T-shirt worn by Jew enabler, or at least reality challenged, suicidally inclined white libtard. I believe California state is irreversibly lost. I await the time of reckoning, when self-hating white libtards, including judicial tyrants, finally receive the taste of their medicine, including my Obama-voting liberal, race-traiting sister. (We don't talk anymore)
 </t>
         </is>
       </c>
@@ -3133,11 +3133,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t xml:space="preserve">If we have tunnel vision and only focus on the Jews we do so at our own peril. This subject has been debated on this forum many times but suffice it to say that there is more than one threat to the white race my friends and we had better start to recognize this. The fools in NY were only the latest example. And the Jews are not outbreeding us. If we focus on one problem to the exclusion of all others we will be in years to come a few whites shaking our fists at Jews while living under sharia law. And spare me the "Once we get rid of the Jews the Muslims will go home" theory because if you subscribe to that interpretation you are fooling yourselves.
+          <t xml:space="preserve">Had UKIP not participated in these elections, do you honestly believe that the NF or BNP would have gotten 4 million votes between the two of them, never mind one? What Jack Dempsey explains is much more logical. The extablishment has ways of manipulating the tone of UKIP's message as well as its chances of being elected. That doesn't mean Nigel Farage was, at one point, called in by a jew who said "We are going to mongrelize Britain and you will help us" and his response was "Sounds good to me."
 </t>
         </is>
       </c>
@@ -3157,7 +3157,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3173,7 +3173,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naughty negress Wendy Williams flashed a lewd photo in a promo for her TV show today, this occurring at 10:18AM when stay-at-home toddlers could have viewed it. Actually, considering this time of year, virtually all young children have holiday recess and could have viewed it. Here is an abbreviated, censored version of the photo: I doubt that anyone in America aside from me has raised issue with this. As a matter of fact, I researched the event during which the obscene act occurred, and I was unable to come up with any criticism about it. I did find the following brief article which raised "suspicion" about what may have been going on: Jennifer Lopez American music awards 2011 | Natacha Peyre @ Spotlife It looks like America is becoming an "anything goes" nation.
+          <t xml:space="preserve">That's why mass democracy is such a bad idea and has all the elements of tyranny built into it, no matter how much it makes bubbleheaded liberals "feel good." A constitutional monarchy or a Republic are the only avenues to take to secure liberty and enough freedom to avoid tyranny, enough government to avoid anarchy, and for a natural hierarchy to rise in society based on virtue, intelligence, talent or ability. I favor a constitutional monarchy myself. Maybe it's just that distant royal Dutch blood in me. lol
 </t>
         </is>
       </c>
@@ -3181,7 +3181,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3197,7 +3197,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Relentless Cult of Novelty Alexandr Solzhenitsyn (1987) The Relentless Cult of Novelty ... This relentless cult of novelty, with its assertion that art need not be good or pure, just so long as it is new, newer, and newer still, conceals an unyielding and long-sustained attempt to undermine, ridicule and uproot all moral precepts ... To decorate public spaces we put up sculptures that aestheticize pure ugliness - but we no longer register surprise. And if visitors from outer space were to pick up our music over the airwaves, how could they ever guess that earthlings once had a Bach, a Beethoven and a Schubert, now abandoned as out of date and obsolete? From Waaay Out West, ~HLM
+          <t xml:space="preserve">Yes so? The monniker "Affirmative Action" is nonsensical. It simply underlines two truisms of Nazism. 1. Nazism was at its core a self preserving nationalist system which supported all forms of nationalist aspirations, including those of European colonial powers... remembering that Germany was NOT a colonial power anymore and had no aspirations to becoming one. In fact, it supported the nationalist aspirations of colonially oppressed peoples, regardless of their race or ethnicity. 2. The second is that as the tides of war changed, Germany needed to augment its manpower and did so by recruiting heavily from foreign troops of their enemies they had taken POW. In particular in the East where there existed no real love for the Soviet system amongst the ethnic peoples of the SSR.
 </t>
         </is>
       </c>
@@ -3205,11 +3205,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>83.76</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Does expose the hypocrisy of the AP. By the way I have to ask, since this is an issue I usually disagree with most WN on. In the Malkin article she names and pictures the 22 members of the AP board of directors. How many of them are Jews? I don't count very many, though I could be wrong...
+          <t xml:space="preserve">Question: Don't you know there are good black people? There are good people in every race, bad ones too. Answer: I believe in the survival of the White race. In order to get that, we need our own exclusive living space. To have that, non-Whites must be physically removed from our living space.
 </t>
         </is>
       </c>
@@ -3229,7 +3229,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>78.77</t>
+          <t>99.82</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3245,7 +3245,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hating homosexuals is not really what I do, I do hate the 'gay-pride'-scene. However I want homos to stay away from me. And that they should keep their homosexuality to themselves. I also think it's rather a genetic malfunction than a mental illness. So I think the 'keep it for themselves' option corresponds most to my vision. I also think homosexuals who make those annoying and disgusting homo-porn movies should be arrested and punished properly. Sick bastards, their is no pride in a genetic malfunction. To the guy who thinks homos are good because there is less competition over women then... What do you think of lesbians?
+          <t xml:space="preserve">Well I don't think that's a good idea. To give Cuba to the Jews many white people are going to be killed, and I'm sure that they will make it another Jewish holiday park rather then a real country, like they did to Israel. Why not Florida? Global warming and the rising sea level will turn Florida in hell in a few decades.
 </t>
         </is>
       </c>
@@ -3253,11 +3253,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
@@ -3269,7 +3269,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t xml:space="preserve">We've had lots of WWII Nazi stuff in the store over the years, including arsenal-marked pistols, medals, arm bands, etc. Very few objected at all and my attitude was that many of these items are trophies of war - a lot of good men fought and died on both sides and an old medal or pistol might well have been taken from the body of someone's son, father, husband, who made the highest sacrifice for his country and kin. We honor the memory of those slain by treating these "spoils of war" with the respect they deserve, regardless of the nationality. If one objects to the political disposition of that fallen soldier's country of origin then honor the MAN - he deserves at LEAST that much.
+          <t xml:space="preserve">It is a trend! As it is a trend to rape White Children in Europe! This is our life! These are the countries that we live in! If we were at war, we could have less losses! We are at war and we are still going to our jobs, schools, and sleeping in our cotton beds!
 </t>
         </is>
       </c>
@@ -3277,7 +3277,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3293,7 +3293,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t xml:space="preserve">You may like this artice... VDARE.com: 01/10/07 - Do We Need More Hispanics? I agree that it is wise to primarily focus on Jewish Supremacism at the moment but I do not believe it is wise to completely ignore the effects of radical Islam on Euro society. How do I tell the Australians to forget about the Sydney and Ashfield Gang Rapes or the Lebanese thugs abusing their women on beaches? How do I tell the French police to ignore their 2,500 man casualty rate?
+          <t xml:space="preserve">Yep My brother married a mean rich Taiwanese woman. Miserable neurotic selfish. One time I was talking to an Asian guy online and said my brother married a Taiwanese woman and his response was "yeah, they are pushy and mean spirited aren't they?" Without me saying anything he described her personality. Fortunately they cannot have children but he had to raise three of her nephews. I have a cousin who married a black guy who beat her up-they had one kid. The father was a thief, he was killed in a knife fight with an asian guy. I think the social degeneracy comes from my father's side--his mother's family from Ireland. Sociopathic tendencies. His own mother dated black guys in the 1940s after she left his father, and his sister also married a black guy and had a bunch of kids. Our relationship with the family is non-existent and the relationship with my brother is bad too. I have a friend from Ohio who went to Canada --Vermont-for a visit and they were amazed how many white guys they saw with Chinese women. I laughed and said: try Vancouver.
 </t>
         </is>
       </c>
@@ -3301,7 +3301,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3317,7 +3317,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Another parallel between Himmler and Devi is betrayal of those close to them: Hitler ordered Himmler whom he described as 'Little Heinrich' to be shot for his betrayal of the Fuehrer during the closing stages of WW2. Himmler had gone behind Hitler's back to try to seek a peace deal for himself instead of doing as instructed by the Fuehrer. Hitler promptly stripped Himmler of all offices and ordered his arrest Mrs Savitra Devi Mukherjee (a miscegenating French woman who dropped her European name and her drawers to marry an Indian and 'went native'); betrayed her European heritage by 'going Indian'. Arguably she also betrayed her Indian husband Mr Mukherjee too, if she had a crush on Ghandi.
+          <t xml:space="preserve">If we were able to travel at speeds very close to the speed of light, time dilation would make a trip to even another galaxy possible within a lifetime, though it would mean the eternal separation of those inside the ship and others. I don't think planets have vibrations that have such an effect on us. Yes, there's earth quakes, sound waves which we can detect with seismometers, but wouldn't those things be going hay-wire if there were always sound waves like that? That sound of cosmos you linked was just an orchestral score from a Carl Sagan documentary. However, they've made a recording of the "sound of the sun" from visual observations of the changes in the sun due to its vibration, and converted that into what you would hear, if space weren't a vacuum and we were closer. [ame=http://www.youtube.com/watch?v=pGwDdTZBAEY]YouTube - Sound of Sun[/ame]
 </t>
         </is>
       </c>
@@ -3325,11 +3325,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>70.28</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
@@ -3341,7 +3341,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Go away??? You come to OUR website, our internet community and you tell us to go away??? Are you stupid or something? We aren't in your face, we aren't in front of your house protesting. By all means, screw all the negroes you want to, you are only hurting yourself and your descendents. But if you are going to talk utter crap like that, telling us to "go away", then what the Hell are you doing here moron?
+          <t xml:space="preserve">I think My Ole Racist A$$ has tears in My Eyes. I am profoundly grateful for the responses from You Comrades! Being Human is the thing that makes Us passionate Fighters for The White Race! Unto Myself I will always stay True! Thank You for Your kind Words My Friends! I live by a creed that if You have done anything to make another Persons life just a bit better and when You pass on that person can remember You and Your small deed then You have lived a Good Life and will be welcomed into Valhalla with open arms! Yall have given Me hope that I will see the tables of Valhalla and toast with My Fellow White Warriors! Thank you All! David
 </t>
         </is>
       </c>
@@ -3349,11 +3349,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>97.01</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
@@ -3365,7 +3365,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t xml:space="preserve">And listening to her tell us how to think or what she thinks is wrong with how we speak is better than the media actually covering whats happening? They air her vs airing actual new &amp; that this truly is Islamic terrorists placing bombs in our nation. But that would ruin her agenda. _______________________________________________ WAKE-UP, NOW STAND-UP, &amp; FIGHT TEXAS!!!
+          <t xml:space="preserve">That's awesome! It looks like this Swedish nationalist party is going to be publishing the first nationalist weekly newspaper in Sweden. They signed up subscribers at their tables, and sold shares for the paper. That's way impressive! This is why the Swedes are taking serious action and doing it in a serious way. It's from this nationalist site you linked: There is little time to react! Svenskarna måste sätta stopp för detta vansinne nu! The Swedes must stop this madness now! Forskare har konstaterat att vi kommer att vara i minoritet i vårt eget land inom bara 50 år om inget görs. Researchers have determined that we will be in the minority in our own country in just 50 years if nothing is done. Detta från att Sverige för bara 25 år sedan var praktiskt taget etniskt homogent. This for Sweden which only 25 years ago was practically ethnically homogeneous.
 </t>
         </is>
       </c>
@@ -3373,7 +3373,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3389,7 +3389,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Google "Gracie Challenge" for the answer. BJJ is the only martial art that provokes this kind of reaction. Boxing? oh yeah, you'll be ready. Kickboxing? Works for me. BJJ? You'll get monkeystomped by 15 groids. Bonus is I know 99.9% of those knocking it haven't ever put in the time to put on even a single white belt beginner bronze BJJ medal.
+          <t xml:space="preserve">Another point is that the military developed to use non-combat roles in rotation with combat roles, giving the men on the lines a bit of a break. If women take over the non-combat roles the system will not work as it evolved because men will be seeing combat for much longer. If it is absolutely necessary to get the numbers up this might be worth thinking about but my understanding is that the military is not is such dire need.
 </t>
         </is>
       </c>
@@ -3397,11 +3397,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
@@ -3413,7 +3413,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Note the profane T-shirt worn by Jew enabler, or at least reality challenged, suicidally inclined white libtard. I believe California state is irreversibly lost. I await the time of reckoning, when self-hating white libtards, including judicial tyrants, finally receive the taste of their medicine, including my Obama-voting liberal, race-traiting sister. (We don't talk anymore)
+          <t xml:space="preserve">I met Mr. Steele in Portland at Aryan Fest and we spoke in depth on a number of subjects for 30 minutes or so. Shortly after I read his book Defensive Racism. The man is highly intelligent. Since then I have fallowed all his writings and internet broadcasts. I don't for a minute believe Mr Steele is guilty. The man needs and deserves our full support.
 </t>
         </is>
       </c>
@@ -3421,11 +3421,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>98.88</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
@@ -3437,7 +3437,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the Swiss mountain village of Trollenberg, climbers are mysteriously disappearing on the mountainside. A nearby observatory detects a cloud on the mountainside which gives off radioactive readings and never moves. One of two English sisters who form a psychic stage act receives a premonition of great danger associated with the mountain. As the cloud starts to move down the mountain, killing people along the way, the astronomers realize they are dealing with an invasion of aliens who have come from a dying world and have selected the mountainside’s cold as the environment which most resembles their home planet. Anybody else remember the spine chilling film of the Trollenberg Terror? with its period English nuances and fine acting not least from the 'thing' moving about on the mist capped peaks . Filmed entirely at Shepperton Studios?
+          <t xml:space="preserve">If only. Muslims have promised in Britain, that if the "West" keeps on supporting the jewish occupation of Palestine, they will wreck our economies and drive us into the ground, using our own laws. Who in America would guess at the impact ZOG/US policy is having on Europe. We have to keep towing the line, lest we are described as "Nazi" ...again. If Americans have so much time for war, they should help us throw the muslims out of europe, and leave the jews to the jackals.
 </t>
         </is>
       </c>
@@ -3445,11 +3445,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>99.32</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
@@ -3461,7 +3461,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Banking would have came along with out the Jews. The only problem with banking is the usury the Jews apply it with. Banking is something the White race can do without screwing people over. The Jews just used it for a terrible purpose. It's not evil itself. It's like a gun, it's only dangerous as the person behind it.
+          <t xml:space="preserve">I am with you on that, Rick. I will chip in some cash for a charter bus and I am sure that others will do the same. Let's set a precedent for future rallies! I will even offer my house and home for Tina to use as a stopping point on her way back to Baltimore to replenish some food and supplies for the trip. Reading, PA is not far off the track at all from major highways. Our people handled themselves with class and the anti-racists didn't. One more for the good guys!
 </t>
         </is>
       </c>
@@ -3469,7 +3469,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3485,7 +3485,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actually, jews, both religious and secular, hate all non jews, it's the core around which their whole identity was built. They're taught to despise and take advantages of Goyim or "gentiles" any way they can from childhood. In their Talmud, they call us "filth" and "animals" worthy of slaughter. They're specifically targeting whites for elimination because they're very afraid of them. To simplify: you have a core group of Big jews like the Rothschilds, Sumner Redstone, George Soros etc...who control things behind the scenes, and the rest of Jewry is actively helping them advance their agenda thru diverse means, like infiltrating every sector of society, hiding their true identity and motives, and then promoting other jews to positions of wealth and influence. They think and act like a hive. I mean, look at figures, they're like 2% of US population, yet they're grossly over represented in politics, business, entertainment, academia and in the top positions no less, and really I don't think it was thru merit alone. By destroying whites, they're destroying their main rivals for power. You should read Books by Kevin MacDonald ,"A People That Shall Dwell Alone" is a good intro into the Jewish mindset.
+          <t xml:space="preserve">"The Trial" by Franz Kafka...yes, I know, I know he was Jewish (well, actually he was a lot of things)....I love absurdism, what can I say? Public school was good for one thing: introducing me to absurdism! Basically, I love exploring different genres of literature. Tragedies, satires, absurdist are my favorites. This would make a good new thread in culture and customs, no? hehe Anyone else like absurdism, or am I alone? oh how kafkaesque LOL
 </t>
         </is>
       </c>
@@ -3493,11 +3493,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
@@ -3509,7 +3509,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://news.yahoo.com/s/ap/20100825/...nuremberg_laws Hitler’s segregation policies lead to the killing of Jews. Umm, not quite. So were the Jim Crow laws a framework for killing millions of US negroes? Segregation laws that forbid interracial marriages do not automatically lead to genocide. But the Jews say it does, because you know, they said so. Israel ought to inspect their own process of marginalizing the Arabs. I guess that the Jews are committing a holocaust against the Arabs as well.
+          <t xml:space="preserve">Wright: "I served six years in the military. Does that make me patriotic? How many years did Cheney serve?" "My goddaughter's unit just arrived in Iraq this week while those who call me unpatriotic have used their positions of privilege to avoid military service while sending over 4,000 American boys and girls to die over a lie." You got that right, Rev. Jeremiah.
 </t>
         </is>
       </c>
@@ -3517,7 +3517,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3533,7 +3533,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t xml:space="preserve">What else can Ordinary People do? apart from teddy bears, flowers and scarves? They don't hav the Power, the Authorities do! Ordinary People don't hav the Power to closed down dirty Mosques or kick out Muslims who break Laws, they can only make these emotional-release and show-support Gestures, like putting up flowers or tying scarves to railings, or changing their profile picture on Facebook.
+          <t xml:space="preserve">If there were no Jews in America, homosexuality would not be a "Gay Rights" political weapon used against morality. It's only pressure from Jewish politicians, Jewish lawyers and the Jewish media (and amoral complicit liberals and moderates) that has allowed Gays to get more and more 'rights 'in the US. A partial list of 'Gay Activists" Rabbi Secher, Richard Goldstein, Terry Lobel, Surina Kahn, Jay Guy Nassberg, Judith Light, Rick Rosendall,Frank Kameny,Allan Ginsberg, Allen Klein, Barney Frank, Larry Kramer, Arnie Kantrowitz, Winnie Stachelberg,Jonathan D Katz, Israel Fishman, Bella Abzug, Moises Kaufman, Michael S. Arnowitz, Tony Kushner,Len Hirsch (President of the Gay Federal gov.employees group) Meg Moritz, Barbara Raab, David Goodstein,Judy Wieder,Jennifer Einhorn, Evan Wolfson, Kathy Levinson, Leslie Feinberg, Roberta Achtenberg,Fred Hochberg, Hilary Rosen, Michael Berman, Ronald Gold, Larry Brinklin, Michael Goff Rob Eichberg, Jeffrey Newman, and the list goes on and on and on and on.... And that is why they support Gay "Rights" so much, just in case they have to come out of the closet for good. but also to sleaze up White countries (always fun for the Jews) .
 </t>
         </is>
       </c>
@@ -3541,7 +3541,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3557,7 +3557,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t xml:space="preserve">... and it turns out the bagels were probably actually developed by Slavic gentiles, or ancient Egyptians: --https://en.wikipedia.org/wiki/Bagel -- A short history of the bagel. - Slate Magazine The Jews do tend to do a little piecemeal science but its usually totally dependent upon and within a cultural paradigm devised and maintained by Whites.
+          <t xml:space="preserve">¨ How on earth did you turn my statement that there is a diffrence between "true" Swedes(mostly Swedenswedes an Finlandswedes) who practise the Swedish culture, live in Sweden, or old Swedish terretory(Finland, Estonia), along other Swedes, into "America is better"? I don't know what you're taught, but Americanism isn't the way to go for a WN, period. Also, how do you define freedom, is democracy freedom? If you don't know, I suggest you take a look at my signature. If democracy is freedom, take a look at my signature. America is not the left out number four. The Netherlands are. Democracy Index - Wikipedia, the free encyclopedia
 </t>
         </is>
       </c>
@@ -3565,7 +3565,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3581,7 +3581,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t xml:space="preserve">I could never understand how such intelligent people could eat up the "anti-semitism" defense. I mean what does it even mean? It's trying to say what? That people are born with hatred for Jews? It's a reaction to behavior. I'm not sure how this foolishness ever gained such ground with intelligent people. In fact I'm going to create a thread asking leftists what it means.
+          <t xml:space="preserve">If you want to know what is going to be the end result in SA look at the SABC and what happened there. In the end the board totally collapsed and now the SABC is facing a strike by the employees,which will result in temporary shutdown. This is exactly where the rest of the country is headed. The answer as to why this happens all over the dark continent is simple. The negroid is not created to be in a leadership position and cannot function on the level of the WHITEMAN.
 </t>
         </is>
       </c>
@@ -3589,7 +3589,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>98.6</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3605,7 +3605,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wait until it becomes time to take our country back from these third world vermin. They honestly believe that they are entitled to come here and stick their filthy diseased hands into our pockets and worse. If we got rid of them, how many jobs would open up for Whites? How much higher would the standard of living be for the White man if he didn't have these rat bastards with their gargoyle women and subhuman monkey babies draining the infrastructure dry? I'm sick of hearing their jibberish whenever I'm at the store or in a public building. For such poor people, they seem to be fat and have all the expensive gadgets that I cannot afford. I hate the illegal brown turds. They all make me sick.
+          <t xml:space="preserve">My point exactly. Bi-Polars are not retards with no sense of right and wrong. Stephen Fry should have tried to have him bailed for being a psychopath. They are the ones who cannot work out right and wrong. I say let the Chinese shoot him. They have enough trouble at the moment with muslims, without Fry trying to muddy the waters, with this Paki skag mule.
 </t>
         </is>
       </c>
@@ -3613,7 +3613,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>62.98</t>
+          <t>95.82</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3629,7 +3629,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Democratyc party has issued an "order" for their members to "collect" at least 200 people which would vote for jewish scum Labus. And on they of voting, to remind those people to vote for jew. Among other things they were instructed to take names, numbers from documents. It looks like they are preparing electoral theft. Watch out for dirty jewish tricks. Now, that is against the election law, since there has to be election silence 72 hours before voting, so people can make their minds and vote. Acceptable choices are Kostunica and Seselj. ------------------------- DS je naredila svojim clanovima da naprave spiskove od po 200 ljudi koji bi glasali za Labusa. Ime, prezime, JMBG i broj licne karte. Naravno, sa svim tim podacima lako je napraviti izbornu kradju.
+          <t xml:space="preserve">I understood it to have been 1986 when Griffin went. I would say it was a good risk going over there if some towel head is dishing out money I'd take it. I would say Ayatollah Khomein’s Iran is governed better than we are in this country under so called “democracy”.
 </t>
         </is>
       </c>
@@ -3637,7 +3637,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3653,7 +3653,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am not sure what you expect to gain here. Are you the NSM? Are the reps in the picture not what your group has sent forward to us as your representatives? They apparently think they are. Why don't you start an NSM thread and just get the hell out of here? You are causing way more divisiveness than you claim to be out to repair.
+          <t xml:space="preserve">That's shocking , NOT ! The responders know the truth and are dangerous. They want them dead too, it has been documented they are not getting the medical support they need. This thread ain't about 9/11 the how, it is legitimate thread here. How the responders are being treated. Victims families did commercials and they are behind the truth movement. How about some respect for the families by supporting them.
 </t>
         </is>
       </c>
@@ -3661,7 +3661,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3677,7 +3677,7 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t xml:space="preserve">They live in the poorest areas of Argentina, where the HDI and GPD per capita are very low because there's no industries, they have to move in a city like Buenos Aires or Cordoba to try a new live, the place where they live is forgotten by gods, there's nothing to do, it's sad to see and very white country at these conditions, anyway argentina is not a 3 world country, a would say that's a 2 world country.
+          <t xml:space="preserve">So far no one seems to have picked up on the fact that the details listed in this book were not committed by Africans at all. Maybe read more about the book here, then comment on savages... http://www.amazon.com/King-Leopolds-.../dp/0618001905 I'm not saying Africa is ot screwed up today - and sure it is, and that's Africans fault, but what do you all think about what Belgium did?
 </t>
         </is>
       </c>
@@ -3685,7 +3685,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>82.34</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3701,7 +3701,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t xml:space="preserve">The thing is that doesnt most crime come from blacks in the UK rather than Muslim Asians? Fair enough in not liking Salafi Islam but what about the greater evil of "Yardie" and "Hip Hop Gangsta" culture? The reality is that English kids are much more likely to become corrupted by listening to rap music than they are going to become fanatical Jihadists through reading the Koran.
+          <t xml:space="preserve">http://news.yahoo.com/s/ap/20100825/...nuremberg_laws Hitler’s segregation policies lead to the killing of Jews. Umm, not quite. So were the Jim Crow laws a framework for killing millions of US negroes? Segregation laws that forbid interracial marriages do not automatically lead to genocide. But the Jews say it does, because you know, they said so. Israel ought to inspect their own process of marginalizing the Arabs. I guess that the Jews are committing a holocaust against the Arabs as well.
 </t>
         </is>
       </c>
@@ -3709,11 +3709,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
@@ -3725,7 +3725,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very foolish of them to use a term like that. Do they really think insulting White people will make them listen? This type of thing is only going to push more Whites to our cause! And by the way we all know who is the most fragile here, it's the jews. Any criticism of them and they begin to cry! Jew Fragility!
+          <t xml:space="preserve">Protesters block main road to Trump rally https://www.washingtonpost.com/polit...05f_story.html PHOENIX — Protesters blocked a main highway leading into the Phoenix suburb Saturday where Republican presidential front-runner Donald Trump was staging a campaign rally alongside Arizona’s contentious sheriff, Joe Arpaio. For hours, the protesters — about two dozen in total — parked their cars in the middle of the road, unfurling banners reading “Dump Trump” and “Must Stop Trump,” and chanting “Trump is hate.” Traffic was backed up for miles, with drivers honking in fury. The road was eventually cleared and protesters marched down the highway to the rally site, weaving between Trump supporters as the event got under way. From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -3733,7 +3733,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>49.16</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3749,7 +3749,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t xml:space="preserve">The EU in its present form want aboloshing. It is a corrupt organisation run solely for the benefit of the multi-nationals. People in Portugal have a slight Negroid ad-mixture not much. In Spain there was arab-black blood especially in the southern Spanish families. The Spanish authorities recognised this though and in 1609 Philip III expelled the "Moriscos" or Christianised Moors. Around 250,000 were physically removed solely on the basis of being mixed race. As a result although a number of Spaniards do still have Arabic blood they are insignificant. So me a 5' 11 inch blue eyed, pale skinned Englishman with admittedly black hair would be mistaken for a Moroccan? I do not think so some how. What??? You can quite easily distinguish a Nordic European from a southern European normally. There are exceptions but these prove the rule.
+          <t xml:space="preserve">If a Muslim terrorist in London killed a female journalist while trying to shoot at police, Theresa May would be calling COBRA meetings, MPs would be grandstanding in parliament and talking tough and threatening to come down on Islamic terrorism like a ton of bricks. Vigils would likely be held in the name of the fallen journalist promoted by celebrities and other public figures. Yet a Republican terrorist does just that in Londonderry and the response from the British government is extremely timid and meek. No COBRA meetings, no grandstanding from MPs, no "tough talking", almost nothing.
 </t>
         </is>
       </c>
@@ -3757,7 +3757,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3773,7 +3773,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t xml:space="preserve">So much so that girls are no being instructed in school that gang membership is an open invitation to rape. Something is being lost in translation here... we have Rape Gangs opperating openly on the streets of Britain and no one is rounding them up. It is a disgrace when the only counter measure against rape is to tell girls to avoid gangs. Where do these do-gooders live? Some areas are ruled by gangs of rapists. Rapists should be sterilised.
+          <t xml:space="preserve">Hi I just signed up, I did get my activation but I can't post to anything (Your account has been activated but you are currently in the moderation queue to be added to the forum.). This is what I got. Doesn't this mean I can post but will be monitered? I don't mind that but I am dying to post. I did read all the stuff that mentioned what the problem could be but it seems the new members who can't post are having that issue because they weren't activated, and I have been activated. Please help. , 2508
 </t>
         </is>
       </c>
@@ -3781,11 +3781,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>53.99</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
@@ -3797,7 +3797,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t xml:space="preserve">This could be an interesting development. I will be waiting and watching to see what steps are taken here, particularly if there are British or US nationals among these men. The company is registered in the Channel Islands, that must make it a British company? I see one British national may already be under arrest there. Will this hit the British media? Will our govt step in? Mugabe grows more arrogant and our govt more cowardly in its response. Keep an eye on this situation, it will be telling to see what happens.
+          <t xml:space="preserve">Excellent post, there is a war on the Family, we know that, not just propaganda out there, job issues, taxes, making life difficult for people, and on and on. I don't see how you can be a queer and a white nationalist at the same time, just because some queers agree with our positions on issues, does not make them a part of rebuilding our society, they cannot be contributors on the most important issues, issues of family and building community. The queers have been used as a battering ram to destroy our society. Just like muliticulturalism. Queers willingly join our enemies because they have a problem with our society. TPTB love queers in positions of authority, they are their greatest allies, look at all the degenerates in government, some crypto and blackmailed, the NeoCons were caught blackmailing them too. We need to get back to basics, honor our fathers, live like they did, build. This is going to be generational, I don't see a bottom any time soon.
 </t>
         </is>
       </c>
@@ -3805,11 +3805,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>47.27</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unfortunaly the Social Democrats are as they were in pre Third Reich Germany still in charge of the media and they WILL put their hate mongering spin on the rhetoric that they publish. The only way to control that is to wrest control of the media from the hands of the KIKE ! ! ! By whatever means necessary.
+          <t xml:space="preserve">I can't believe my eyes. The ultimate goal of the elite - chipping every human on this planet - and a vast majority is happy about the first steps taken to dehumanize us completely. Now it's clear that a major crisis at the right time will be enough to persuade the lemmings to get chipped. They will even beg for it. I have three words for you: PATHETIC IGNORANT SHEEPLE!
 </t>
         </is>
       </c>
@@ -3829,11 +3829,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
@@ -3845,7 +3845,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you want to know what is going to be the end result in SA look at the SABC and what happened there. In the end the board totally collapsed and now the SABC is facing a strike by the employees,which will result in temporary shutdown. This is exactly where the rest of the country is headed. The answer as to why this happens all over the dark continent is simple. The negroid is not created to be in a leadership position and cannot function on the level of the WHITEMAN.
+          <t xml:space="preserve">Only problems I've ever had in public places have been with nonwhites. I've had issues with groups of asians, blacks, and mexicans. I've been called a "whiteboy" by asians. When I turn to look at them they play their little game and put their heads down not making eye contact. Cowardly. Blacks are just obnoxious monkeys and are bound to piss off whoever they're around. (including eachother) I started the **** with the Mexican I got into it with so I can't fault him entirely, other than the fact he was on our territory.
 </t>
         </is>
       </c>
@@ -3853,7 +3853,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3869,7 +3869,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guitars signed by Ted Nugent, along with guns, reported stolen in home burglary mlive.com, October 12, 2017 Guitars signed by Ted Nugent, along with guns, reported stolen in home burglary | MLive.com ST. JOSEPH COUNTY, MI -- Police are looking for thieves who broke into a St. Joseph County residence and stole numerous guns as well as electric guitars, some autographed by rocker Ted Nugent. {}
+          <t xml:space="preserve">According to the History Channel documentary Crime Wave -- 18 months of Mayhem (TV), the most flagrant crime spree in American history happened from 1933-34 AD. Such criminals as Bonnie &amp; Klyde, Buck Barrow, John H. Dillinger, Baby Face Nelson, &amp; Machine Gun Kelley robbed banks up &amp; down the Mississippi River valley, across the Mid West. A major player in these criminal gangs was "a Russian-born Jew named Itzak Charlie Birger"*. As with other sensationalist crimes, (Jewish) Mass Media outlets -- like Newspapers -- sold millions of extra copies, with "juicy" frontpage headlines about the exploits of such exotic criminals**.* http://www.prospector-utah.com/dill.htm. The names (initials) of all these criminals are "cattle branded" (my words) with Jewish Gematria, which equates letters (A,B,C...) with the numbers (1,2,3...). JHD = 10+8+4 = 22; BFN = 2+6+14 = 22; MGK = 13+7+11 = 31 ~ 13; B&amp;K = 2+11 = 13; BB = 2.2 ~= 22. The Jewish alphabet ("aleph-beth") has 22 letters, while 13 is also integral to Jewish mysticism (eg. 613 mitzvot in the Torah). Further, since K ~ C, Itzak Charlie Birger ~ IKB = 9+11+2 = 22. ** https://www.stormfront.org/forum/showthread.php?t=531707&amp;highlight=ripper
 </t>
         </is>
       </c>
@@ -3877,7 +3877,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>82.34</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3893,7 +3893,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is true - I am hesitant to passionately embrace anything with the jewneocon media and $$$$$big buck insurance stock money behind it. As much as i despise Pelosi and everything she stands for, Id bet money if Obama had come out 100% in favor of new West Bank settlements, and bunkerbusting Iran nuke energy, you would see about 50% of the 'grassroots" evaporate, and Sean Hannity muzzled. Just my opinion.
+          <t xml:space="preserve">The thing is that doesnt most crime come from blacks in the UK rather than Muslim Asians? Fair enough in not liking Salafi Islam but what about the greater evil of "Yardie" and "Hip Hop Gangsta" culture? The reality is that English kids are much more likely to become corrupted by listening to rap music than they are going to become fanatical Jihadists through reading the Koran.
 </t>
         </is>
       </c>
@@ -3901,11 +3901,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
@@ -3917,7 +3917,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t xml:space="preserve">The filthy corporate whores are the ones who went to the government, I don't like booms and bust cycles and people losing everything they own because the garbage free market dictates it. Capitalism is just a form of slavery where the people lose everything they earn constantly so a few of the rich can later enslave them again and make the center of their lives to work to make someone else rich. It needs to be gotten rid of and replaced with National Socialism or distrubitonism.
+          <t xml:space="preserve">Everyone should have to take a DNA test and anyone who fails should be prohibited from having any offspring. I don't believe for a second we all come from Africa mantra you believe the first man on the planet was a Black man nonsense. This is just made up to justify mass immigration and miscegenation. The East Asians dont believe that their ancestors come from Africa so why should we.
 </t>
         </is>
       </c>
@@ -3925,7 +3925,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3941,7 +3941,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lately, appearances on the televised news by politicos have been scarcer than ever, almost zero... even less than at the time of the original post. A few days ago, news coverage of the death and funeral of actor James Gandolfini seemed to dominate the airwaves ad nauseum. Apparently, the newscasters had not much else with which to fill airtime, not being able to rely on their old standbys, the politicos. Maybe all of this has to do with Edward Snowden and the secrets that he can potentially bring to light. Who knows? P.M.
+          <t xml:space="preserve">The structure and diversity of the Bulgarian mitochondrial DNA (mtDNA) gene pool is still almost unknown...In the comparisons of the observed haplogroup frequencies with those from a wide range of western Eurasian populations, Bulgarians do not group with the great majority of other Europeans and differ substantially from Near Eastern populations. This reflects the peculiarity of the Bulgarian mtDNA gene pool, determined by its history and demographic processes. What this means? Not Europe,not Near Eastern,that means Asia?
 </t>
         </is>
       </c>
@@ -3949,11 +3949,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
@@ -3965,7 +3965,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Animals should be dealt with the way animals are dealt with; force and fear. Unfortunately, the leftists don't seem to agree with any of this. I say send these moors and gypsies to jail, let them be some negro’s wife, then off them, out in the public. Maybe that will teach any more animals (and I’m including some white low life trash here as well) to think it twice. What a wasted and worthless world...
+          <t xml:space="preserve">Davvero un'ottima notizia! Some months ago a Chinese woman parked a car where he wans't able to park, so a policeman made her a fine. This thing, to Chinese crowd, seemed a racial discrimination (), so they began a riot which lastes some days. While the the Chinese embassy took part to the riot, and the Chinese government sustained it, the Italian government made very few, also because the far left (in "our" government) sustained this riot (if a riot is made by nonwhites, for them the riot is ever just!). You can see more informations here: https://www.stormfront.org/forum/show...no-379893.html
 </t>
         </is>
       </c>
@@ -3973,11 +3973,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
@@ -3989,7 +3989,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t xml:space="preserve">His position has been that for awhile, that if the Palestinians agree to a solution he will support it. But he knows that this probably will not happen since many Palestinians want all the land that was taken from them and not just half split up with the Jews. He made the exact same statement in the Spiegel interview.
+          <t xml:space="preserve">In South Africa we have moved beyond that with oour black majority so whites no longer even feauture in ads unless they are rehashed overseas ones. Here the black male has now become the bumbling fool whilst the clever black female and her smarty pants children easily outwit the dimwitted black father. To me the issue has become a very gender based oone as we had the stages as follows: 1: Black and white all together being friends (late 1980s - mid 90s) 2: Clever savvy black man corrects dumbo whites (1995 - 2005) 3: Clever black female corrects dumbo whites (2005 - 2010) 4: Clever black female corrects everyone (2010 - date). Black male portrayed as "below" black female who is now boss, manager, or all round intelligent one.
 </t>
         </is>
       </c>
@@ -3997,7 +3997,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>74.67</t>
+          <t>82.78</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4013,7 +4013,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t xml:space="preserve">All the foreigners who live in United Kingdom do resent the British I think that's the reason why they come here. I have no problems with Adolf Hitler because he stayed in Austria and Germany unlike this Serbian C***. I'm not a football fan but I'd like to see the English Premier League full of just English players got a problem with that?.
+          <t xml:space="preserve">Chocolate? I think you mean turd, sh*t or feces. Those are the defining characteristic's of the Negro. Chocolate is a treat; And nothing about a negro is a treat. Let's not pretend the negro is somehow glorious with 'chocolate' terms, brother (or sister? - After Volkish I dont want to offend anyone's gender... ) Just a rant about the chocolate comment, nothing direced at you.
 </t>
         </is>
       </c>
@@ -4021,11 +4021,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
@@ -4037,7 +4037,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm quite sure when the jews saw that, they just smiled, patted themselves on the back, knowing full well that the White people on the bus were terrified to even so much as tell the africn to shut up, or even go back to africa. When it's so in your face as this, you can only presume we are well on our way to White Genocide. I am beginning to think our people will just roll over and die, rather than stand up and throw off this death-yoke.
+          <t xml:space="preserve">I will be so "heretical" as to say Hillary too. I look at it this way: McCain says "100 years in Iraq" (and prob wherever else he can take his war-mongering Neo-Cohn ass). I have sons. He's trying to GET MY KIDS KILLED. WTF am I supposed to do? I can't support that. I mean, what do I care more about, someone on a board calling me a name or my kids staying alive and ending this evil war? Doing what you have to do to survive is not being a traitor. How many dead now 4000+ ? Second point: If we stay in the middle east, they hate us more and more , thus increasing terrorist attacks (think those people CARE if they DIE? haahaa ) and increasing general ill-will to the US. Third Point: If the middle east powers are crushed, well, Big Jew/Zionist power wins and rules over the world much more than now. Sure maybe not tomorrow, we'll all be gone by then, but our kids, their kids? We have to think LONG TERM. Obama is a temporary player, but could turn the wheel.
 </t>
         </is>
       </c>
@@ -4045,7 +4045,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4061,7 +4061,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why? Is Malema gonna come for you then? BTW I have heard that malema's heir apparent in ANCYL has exactly the same views as him... but he is a lawyer and knows how to talk down but stay with the programme... just as much a foirebrand and also from Pietersburg and a SePedi to boot... Another gevaarlike kaffer BUT tempered with a dangerously mild manner I think he is far more dangerous than bobbejaanbek...
+          <t xml:space="preserve">This was just posted at their website... Pastor Redfeairn's final wishes were carried out Thursday October 30th 2003. His remains were cremated at 1:00 PM EST in Dayton Ohio. His cremation was witnessed by a small circle of family and friends. Myself, along with Imperial Wizard Bradley Jenkins of the Aryan Nations Knights of the Ku Klux Klan were present with the family for this extremely sad occasion. I would like to take this opportunity to say thank you to Bradley Jenkins for his loyalty and friendship. I would also like to say thank you to Bobby Norton, Eric Whitlock, Shannon, Debbie and Cassandra. Also a thank you goes to Charlie Mangels and Brian Flemate. All of you helped in easing the burden on Pastor Redfeairn's family and the rest of us. You were a tremendous help. God Bless you all. Also among Pastor Redfeairn's requests, was that there be no memorial service held in his name. We here at the Church will honor Pastor Redfeairn by carrying on with our work. This too was among his wishes. We will be proud to oblige the good brother... For God, and Race; Hail Victory ! Pastor Morris L Gulett www.churchofthesonsofyhvh.org
 </t>
         </is>
       </c>
@@ -4069,7 +4069,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>26.97</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4085,7 +4085,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t xml:space="preserve">My personal opinion, or as some write IMO ( ) is Croats and Serbs should work together on protecting our race, since we have no other choice. We had our wars. I think it was enough blood to soak jewish dry money over decades. We are infidels for moslims, and goyims for jews. They do not make any difference if somebody is croat or serbian. Do we have to make their job easy and comfortable? Or should we fight them together ?
+          <t xml:space="preserve">But shouldn't we insist on slavish adherence to reason, to disentangling cause and effect, to punishing the guilt, but trying to leave the innocent alone? If Tancredo said this, I have to voice opposition. He is couching this in terms of civilisations at each other's throats: this isn't the case. People like David Duke would back me up on this. Secondly, this kind of apocalyptic measure will have consequences for us: what goes around comes around. Unleash the nuclear genie, and we won't be safe either. Thirdly, we go on sanctimoniously all the time about innocent White lives being lost to terrorism: wouldn't we be doing the same thing by using nuclear weapons?
 </t>
         </is>
       </c>
@@ -4093,7 +4093,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -4109,7 +4109,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Speaking of false flags, get a load of the "Liberty Torah" , which supposedly honors all the dead kids in the military. http://www.venturacountystar.com/new...andwritten-us/ "This is the least that we feel we could do in the beautiful tradition that we're in the current of," said Rabbi Dov Muchnik, director of the Chabad of Oxnard, who led the ceremony. "This is a moment of togetherness we hope we have embodied here." (where's the puke icon?) The Torah is considered the word of God as told to Moses on Mount Sinai.
+          <t xml:space="preserve">Simple..Americans are standing up and complaining about stores. 85% of the US celebrates Christmas and 48% are upset...Clinton was elected with only 43%. Another reason is that US newspapers are losing readership very fast and TV news is way down as well. The silent American majority are sick of the PC crap and are hitting them in the pocketbook. That's why FOX news, Michael Savage et al are gaining audience. All this leads to more reporting.
 </t>
         </is>
       </c>
@@ -4117,7 +4117,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4133,7 +4133,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t xml:space="preserve">My Toyota is White! It has a little red National Alliance sticker in the corner of the windshield. Had GM products for forty plus years. I like my Toyota. I hope that the Jappanese never reduce themselves to a dysgenic Multicultural existence. Careful there, Troy. I'm not certain, but I think that it was the Long County Rebel that you saw in that truck.
+          <t xml:space="preserve">I not allowed to post on this, is it a club forum that is open for members only? I would like to see a book sub forum that is a bit more prominent, I have found out about a lot of good books from the whatcha reading thread and I think a more prominent book subforum could only add to this.
 </t>
         </is>
       </c>
@@ -4141,7 +4141,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4157,7 +4157,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t xml:space="preserve">This Iranian isn't an Arab, I doubt he has any Arab blood in him. He is Persian. There is a reason the Persians renamed their country "Iran" - to stress the Aryan blood and cultural heritage of their country. Persian became Muslim because of Arab Muslim conquests, the same way Hindu India become Muslim. There is still good high caste (white) blood in both Iran and India.
+          <t xml:space="preserve">Do native French people even consider themselves as "white"? In my experience French people just consider themselves to be "French" and are not racially aware at all and don't think of themselves in terms of race. I'm not saying native French people are NOT white, just that I've never got the impression they think of themselves as being white.
 </t>
         </is>
       </c>
@@ -4165,7 +4165,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -4181,7 +4181,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lets not be too uncharitable . They have made inventions but those inventions have not always been to the net-benefit of civilisation: Examples of black inventions include the New Guinea sauce or relish that was marketed as 'Cannibal Chutney'. Then there's that aural balm for the tone-deaf known as 'Rap Music'. Blacks have also added greatly to the Lexicon of Weaselry in common currency with politicians and have invented the peculiar notions of 'Institutional racism' and 'Blanket Black Asylum - to exclusively benefit Blacks' . Blacks have even aided the development of a whole Service Industry - The Race Relations Industry'. Looking at the 'Black Inventions' in this thread, its clear that mankind would be doing just fine - if wasnt having to support the worlds Dependent Blacks along the way. The best 'black invention' was made by white folk anyway?: Anyone still use ZEBO ? (Reckitt and Coleman's GRATE BLACK invention - see link http://www.eight.demon.co.uk/html/info-p2.html )
+          <t xml:space="preserve">I promise that I'll be on the level from now on. No more fake screen names. This is sort of embarrassing. I'm a full-blooded Italian woman (not a guy) and I'm not of mixed race. I'm a white female, and I definitely can't stand blacks. I got so focused on going after blacks that I forgot about other non-white races, and this is because of my personal experiences with blacks. I was just hoping to inject certain ideas into SF, and I used different screen names to do it, but I apologize for breaking the rules. I also thought that debating anti WN arguments would be good experience, and it'd make our own arguments stronger. Thanks for re-activating my account. My e-mail is [email protected] if you wanted to talk with me about my experiences with blacks or about anything else. Sincerely, Maria
 </t>
         </is>
       </c>
@@ -4189,7 +4189,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4205,7 +4205,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t xml:space="preserve">We are fighting your war, and most importantly we are paying for it...Those same workers that you say are 'benefiting' from the military industrial complex that support Israel are also being taxed to pay for it. Israel is the number one benficiery of American foreign aid... Jews like yourself say you are helping us while at the same time receiving large payments of cash courtesy of the American tax payer. Since 1985 Israel has been receiving 3 billion annualy in foreign aid. That is what is paying for all of those pretty jets there buddy. Sorry, but we dont need your kind of help.
+          <t xml:space="preserve">Who Breivik? Nationalists don't kill people, they convert them to their point of view, even Joseph Goebbels flirted with communism as a young man but was won over by the NSDAP. Commies on the other hand use violence and terror first, then force people to obey the Party Diktat at gunpoint. That's 76 potential Nationalists wiped out for no good reason. David Duke is right, Breivik isn't a patriot, he's a traitor and I don't believe for a second he was insane at the time, drug affected maybe but in control of his actions. This was probably the best article I read on the Utoya murders (Yes I know "Mencius Moldbug" claims Jewish ancestry but he's right on the money here, and on a lot of other issues) The indisputable humanity of Anders Behring Breivik
 </t>
         </is>
       </c>
@@ -4213,11 +4213,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
@@ -4229,7 +4229,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t xml:space="preserve">I understood it to have been 1986 when Griffin went. I would say it was a good risk going over there if some towel head is dishing out money I'd take it. I would say Ayatollah Khomein’s Iran is governed better than we are in this country under so called “democracy”.
+          <t xml:space="preserve">[QUOTE=GI Jeremy1971;6658674] kinda funny, but the part of wisconsin i grew up in we consider the guys in milwaukee to be city folk, although i currently am living in milwaukee myself. as a side note, i was wondering if anyone knows if there will be any major changes in restrictions pn firearms before august. my reason for this question is that i will not have the money saved that i need to buy anything worth owning until then.
 </t>
         </is>
       </c>
@@ -4237,7 +4237,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4253,7 +4253,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t xml:space="preserve">“The Internet can link people, groups and organizations together instantly,” the report reads. “Moreover, it allows an extraordinary amount of unregulated data and information to be located in one area and available to all. The right wing has seized upon the internet as a means of communicating its ideas to people. Moreover, evidence exists that Republican staffers surf the internet, interacting with extremists in order to exchange ideas and information.” Clinton doc calls Internet 'right wing' 'conspiracy commerce' | The Daily Caller
+          <t xml:space="preserve">"It’s far worse than I thought. In addition to the many links between the family that owns The New York Times and the Civil War Confederacy, new evidence shows that members of the extended family were slaveholders." "All that would be bad enough given that the same family still owns the Times and allows it to become a leader in the movement to demonize America’s founding and rewrite history to put slavery at its core. As part of that revisionism, George Washington, Thomas Jefferson and Abraham Lincoln are suddenly beyond redemption, their great deeds canceled by their flaws. But shouldn’t such breathtaking self-righteousness include the responsibility to lead by example? Shouldn’t the Times first clean out the Confederates in its own closet?" The family that owns The New York Times were slaveholders: Goodwin
 </t>
         </is>
       </c>
@@ -4261,7 +4261,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4277,7 +4277,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t xml:space="preserve">No, because I think whites and blacks evolved from different ancestors in the first place, who were only remotely related by some ape ancestor. I do not think they could evolve into what we are now, but no doubt they may adapt certain features like lighter hair for example, living in a colder climate. They would also probably adapt in other ways that we can't yet forsee. But I highly doubt they would ever turn into us. By the way, if you do some research, you will see that blacks and australian aborigines resemble homo erectus and asians look like an intermediate between homo erectus and modern humans.
+          <t xml:space="preserve">"I was strolling out of my compound only to realize that my goat was following. Usually it follows me whenever I am going out because I used to buy biscuit for it, but this time I didn’t want it to follow me so I decided to run and try to dodge it. The goat’s name is Remember,” he said." My cat does that when she tries to get a second breakfast. Her name is Crystalnacht.
 </t>
         </is>
       </c>
@@ -4285,7 +4285,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4301,7 +4301,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t xml:space="preserve">I would fight for: Australia, US UK France Germany Russia Canada New Zealand Finland You get the idea. When is the last time we truly fought for our nations? That fight is coming, I believe. I don't think we will have far to travel, as the front lines will be conviniently located at our own door steps. If I am still young enough, and strong enough, I'll travel to the first White Nation that rises up to fight for freedom. God Bless Australia. God Save the Queen ( or whatever it is you say down under )
+          <t xml:space="preserve">I know this sort of thing is totally disgusting and I, as a casual bird watcher, would be enraged if I ever encountered these individuals; However, it is all too common, especially in the city and state parks throughout the land. There is a warning that if you are strolling or jogging in a park and you see cars with a male driver only backed into a spot, he is looking for a "boyfriend".
 </t>
         </is>
       </c>
@@ -4309,7 +4309,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4325,7 +4325,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t xml:space="preserve">We did all we could I think. He was snubbed by everyone including the media. He should have been given the opportunity to debate McCain and Sambo. But he was snubbed there too. Sambo was the media darling from the get go. He would have won no matter what. So now we just have dig down and fight all that much harder. I have never been so angry about an election in my life. Unbelievable......
+          <t xml:space="preserve">JJT - if you had spent any time any time living and working in Asia you would reach the conclusion, as I have, that Asians like Jews are essentially parasitical and have little of value to add to European culture. There is nothing to be gained in having them join in. We have to recognise that there are donor and receptor cultures and there are very few of the former.
 </t>
         </is>
       </c>
@@ -4333,11 +4333,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>51.39</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
@@ -4349,7 +4349,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shef West I am happy you can speak for all WN. First lets take a look at some of your lies. Yes the Holocoust took place. Jews killed over 40 million people in Russia and nearby countires between 1917-1932. The Jews so called Holy Book also says it's ok to have sex with 4 year old kids. So let's not lie about rabbis having sex with small kids. Also the book teaches to murder and rape all non Jews. Anymore lies you want to tell go ahead MS. Jew.
+          <t xml:space="preserve">We aren't trying to debate the zealous antis. Most of them are lost causes, some are not. However the real target audience here are the unregistered readers. We get all types browsing through SF, not just WNs and antis. So when we reply thoughtfully and politely to the drivel put up by our anti friends, it is not to try and convince them, rather to show our lurkers that the reality of WN is far different from the media made myth. It works and we attract numerous folks with open minds willing to hear our side of the story. Also remember, an ad hominem is an admission of intellectual defeat.
 </t>
         </is>
       </c>
@@ -4357,11 +4357,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
@@ -4373,7 +4373,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Penile castration has been tried before, both types. Pedophiles and rapists can overcome chemical castration by using steriods. The other option, physical castration, has also been unsuccessful. The problem is inside their head's. Without a penis they can still victimize the innocent person in other ways. Life in prison would be a suitable punishment, but we should not waste the money on them. Sure, they will abused in prison, (Probably sexually.) but the money should be spent on helping the victim(s). Sex offenders are degenerates with no conscience. People like that don't deserve mercy. The only proper punishment is death. I don't mean lethal injection or the firing squad because that's an easy way to die. The method should be the electric chair. Really anything that causes pain will be enough. These sick losers should have to fear their execution date. Sex offenders will usually victimize alot of other people before getting caught. Keep that in mind.
+          <t xml:space="preserve">I haven't really watched t.v. in years. I only watch it when I find it convenient to do so, like when staying at someone's house and they are watching the t.v. I do occasionally watch stations like The Discovery Channel for shows like Dirty Jobs and Mythbusters. I stopped watching t.v. because there seems to be nothing but crap on anymore: school shooting this, rape+murder that, and horrible news stories about tragedies all around. And this is on top of the actual shows, that seem to portray trashy Hollywood bimbo-type girls as cool role-models and their shaky life-stories as something nice to emulate. Nothing against females as a whole, but this stuff is ridiculous. I really couldn't take it any longer, so I retreated to the internet (not too much better, but eh) and books. Books are one of my favorite entertainment mediums, and they always satisfy me.
 </t>
         </is>
       </c>
@@ -4381,7 +4381,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>48.54</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -4397,7 +4397,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t xml:space="preserve">What a great people the Boers Afrikanners were/are. Can't you put up some fight? You did so well in the past against English, Zulus, why is so different now? The Whites in Rhodesia at least had a war in which they fought to a stalemate. Why didn't Whites in South Africa do the same? I am so very sorry. Please come to our remaining White homelands. The upper American Midwest isi very White. Blacks and other muds don't like the cold. I am looking forward to another Ice Age.
+          <t xml:space="preserve">So because you were unable to drop a few points and see the bigger picture and end-result of such ideologies, we just spent 20+ pages pointlessly discussing the smallest things an anally-retentive, obsessed socialist could bring up? Typical champagne socialist ego; just had to prove your 'greatness', didn't you? Thank you for wasting everyone's time. Bravo.
 </t>
         </is>
       </c>
@@ -4405,11 +4405,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>32.36</t>
+          <t>95.55</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
@@ -4421,7 +4421,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muslims have the highest unemployment rate in Great Britain at about three times the rate of non-Muslims. If capitalism brought in Muslims then the USA would be full of them, but it's not because they're too lazy. It's not capitalism bringing them here, it's our socialist welfare system which is very generous compared with what they can earn in their old countries. And it's also our multicultural society that allows them to live here without changing their primitive way of life at all, whilst criticizing ours and plotting to destroy it.
+          <t xml:space="preserve">Bush IS a war mongering, White hating, "One World Government" meglomaniac, and I will not defend him, even from idiot scumbags like Moore, or Less, or Moore Is Less, or Dinty Moore, or whatever it is. Until El Presidente Jorge Bush demonstrates a realization that he is White and closes the border, he Is a "Stupid White Man". El pesidente wishes to be King of the entire world. "Stupid White People" keep electing global elitist empire builders. In some ways Moore comes to the right conclusion, but for the wrong reasons. I just wish that it was a math problem, and he had to show all of the steps. Moore flunks math! No big thing. Bush flunks for the same reason! El Presidente and Moore are a match made in the jews heaven and our hell. It is a puppet show for children. Support for either one is childish.
 </t>
         </is>
       </c>
@@ -4429,7 +4429,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -4445,7 +4445,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Children raised in a two parent environment generally do better than single parent children...that is a fact. This doesn't mean that a single parent child can't be successful or that a two parent child can't get in trouble......its just shown that two parent children generally do better in life. This is not my opinion but has been proven.. If you don't "buy the stastistical BS", then you would have to discredit almost the entire White Nationalist movement, because most of it is based on stastistics....black-on-white crime, etc....Dr. Duke consistently uses "stastistically BS" to support his arguments... You seem to have a problem with my posts...I've dealt with you before and for some reason you repeatedly attack my posts...Despite both being White Nationalists, we'll both have to accept the fact that we both have a different world view......mine being a little more conservative and traditional than yours.. Regards
+          <t xml:space="preserve">"Campaigners are calling for a charity showing of epic war film Zulu to be axed over claims it contains "racist overtones." The 1964 classic will be aired at Folkestone's Silver Screen Cinema on Saturday to raise aid for armed forces charity SSAFA." "The charity works to help improve the lives of military veterans and their families. The letter, addressed to Cllr Berry says: "We wholeheartedly support the efforts being made to raise funds for SSAFA, the Armed Forces Charity. "(But) we believe that the choice of the film Zulu, with its inaccurate portrayal of historical events and its distortions and racist overtones, could have a negative effect on relationships within the changing and richly diverse communities here in Folkestone." Calls to axe 'racist' Zulu film from Folkestone's Silver Screen Cinema listings [ame="https://www.youtube.com/watch?v=nse0Ch5_cKs"]There's no England now - YouTube[/ame]
 </t>
         </is>
       </c>
@@ -4453,11 +4453,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fellow comrades, please allow me to introduce this remarkable book : Title: Myths of the Norsemen From the Eddas and Sagas Author: H. A. Guerber (1909) But more precisely, the beautiful drawings you can abundantly find in this master-work; here we go, please enjoy (there are plenty more if you have time to read this big piece of research) : From Myths of the Norsemen: From the Eddas and Sagas
+          <t xml:space="preserve">Here is a great opportunity to do a Montgomery Bus style boycott only reverse the tables against wilding Blacks. Start a grass roots taxi cab boycott of Black men to protest letting the Central Park Rapists off Scott free. Print up flyers and distribute to all taxi drivers not to pick up Black men as a protest to this horrible Black racist act. The best part about this plan is that the boycott is 100% guaranteed to succeed because cab drivers already boycott Black men as potential thieves, murderers - Arab drivers, Black African drivers, ethnic Whites all practice racial profiling. The boycott will be announced as a great success and we can use it any time the Blacks do some other horrible act to excuse Black criminals.
 </t>
         </is>
       </c>
@@ -4477,11 +4477,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>80.82</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -4493,7 +4493,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's true the Muslims will rise and the EU will betray us, but we can't flee from our Europa! Europa is ours! Not for muslims, not for wogs, not for the others! Europa is only for whites! We must fight and win against our enemies, even if we will be very few in fightings!
+          <t xml:space="preserve">This is a great propaganda issue to work for the BNP. there is no way to hide it from what it is - an invasion of England. I would canvass door to door on this issue. Put together good informational newspapers on this issue and what the BNP is dong about it. War is a struggle, but it is also a bit exciting and fun. Let's hit the streets and work for our great White race in the great United Kingdom I love all real things English and British. Pomp &amp; Circumstance for ever. 14 words
 </t>
         </is>
       </c>
@@ -4501,7 +4501,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4517,7 +4517,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lebanese resistance burgeoning 09:24:41 Þ.Ù Lebanese people residing in southern Lebanon assert that despite severe attacks of the Zionist regime, resistance must continue against the occupying regime, renewing support for the Lebanese Islamic Resistance Movement, Hezbollah, Al-Manar TV network reported. A youth in an interview with Al-Manar referred to the devotion of Hezbollah members and prayed God for health and might of them. more
+          <t xml:space="preserve">[QUOTE=310toumad;10878281Turns out she had had a lot of one night stands and hook ups, and had been with a black guy and a Mexican. She worked a horse racing track so there's tons of Mexicans there. I should have saw this as a warning sign because she always told me what an immoral place it was and how people would sleep around and use drugs. [/QUOTE] Whoa, you're beign mean. I'm mexican, I'm white, and a really LOVE horses. It is like if I said that a girlfriend of mine was dating an American who always eats fried chicken, wears a hoodie and crocs. White people are good with horses, non-white people are not. I tell you because I'm studying to become a vet and I've seen a lot of horses around non-white people. So, better say "Indians" or "mestizos". Not mexicans. That really offended me. So, as an advice. You lucky to have found out what she really was before you guys got married. Sorry for my bad english.
 </t>
         </is>
       </c>
@@ -4525,7 +4525,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4541,7 +4541,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t xml:space="preserve">McCain, Lieberman push military to handle terror cases Thu Mar 4, 2010 6:45pm EST WASHINGTON (Reuters) - Two senior senators unveiled legislation on Thursday to require the military to hold, interrogate and prosecute certain terrorism suspects and also bar them from receiving legal rights afforded most criminals in the United States. http://www.reuters.com/article/idUSTRE62358O20100304
+          <t xml:space="preserve">It is with extreme regret and much grief that we must inform you of the passing of our Senior Pastor, Comrade and Brother ; Ray Redfeairn. Pastor Redfeairn passed away peacefully in his sleep this morning Sunday October 26th at his residence in Dayton, Ohio. He will be dearly missed and his memory will be greatly cherished by those of us who knew and loved him. The Ministry of the Church of the Sons of YHVH will go on to carry the torch, by continuing to take the message of Christ to the lost sheep of the house of Israel. Pastor Redfeairn's dedication and commitment to God and our Holy Race, will serve as a standard that will continue to guide the continuing effort of this ministry. Farewell good and faithful servant of Christ. Your spirit and memory will forever be with us. http://www.churchofthesonsofyhvh.org
 </t>
         </is>
       </c>
@@ -4549,7 +4549,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -4565,7 +4565,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t xml:space="preserve">As the article says the "Nazis" were from God and he used them, so shall this day our struggle begin in the completion of the work of God. The Storm winds are blowing strong and there will be no escape for them this time, for this time it will be the well of the whole world. So Stay Strong my Brothers and Sisters, God will stand with us in our mission. What did he say? If he be with us "Who" can stand against us. "14/88"
+          <t xml:space="preserve">I could see there being subforums in either 'Youth' or 'Culture' for genres/ subcultures like "Country", "Metal", or even "Goth/Punk". You'd have to justify each by demonstrating the culture isn't implicitly non-White or degraded, and by demonstrating that there are enough people who would use it to justify the creation of the category, though, I would think.
 </t>
         </is>
       </c>
@@ -4573,7 +4573,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>97.69</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -4589,7 +4589,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peace isn't possible in white lands until pompous negroes are banned from white man's thinking jobs like college professor. That will suffice until they all are deported to Liberia to enrich that country where no white man is present to impede their natural superiority. Yep, no peace for us until every last one of them is gone. If blacks think they are so tired of US....if they only could imagine and feel, really feel, how tired we are of their ape like bs. I bet they'd all say upon realizing how WE feel...."DAYUMMM!!!!"
+          <t xml:space="preserve">The last Presidential election was again "loaded" for the Edomite Jews - a win-win for them. I voted for McCain simply b/c I would NOT vote for a savage negro. However, McCain would have been a dream "President" for the Satanic Jews. We would probably be in war with Iran right now, had McCain been elected. ALL of these "politicians" are in the Jews' pockets! The only way America will ever get back on track is when the Whites actually DO have their "Revenge"!
 </t>
         </is>
       </c>
@@ -4597,7 +4597,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4613,7 +4613,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well B devil the problem is simply this!. Sydney is the Biggest Multicultural and Homosexual city in the Southern Hemisphere. It is already a lost cause there is no saving it in my view better to abandon ship altogether for most sincere wp sydney siders if at all possible. It is already far too late for sydney!. Other capitals in Australia may stand a chance but in all honesty not sydney. You must also understand that the scene in sydney is made up of many frauds and homosexuals posing as Nationalists.So really the until the so called wp types sort out their own ranks and send the gays and frauds the message that they are not welcome to pose or claim the name nationalist lower socio economic Wp aussies stand even less of a chance of standing up to them!.
+          <t xml:space="preserve">It never ceases to amaze me the amount of news I get here on Stormfront that I wouldn't otherwise know of. This is an important piece you have posted. Disheartening, a bit frightening...yes, but, truths like this need to be known! What has become of our beautiful country? It is looking more and more like a socialists nation and it breaks my heart. I'm nearly at the point of giving up hope that we will ever recover from these many years that have lead us to this point. What horrible news am I going to read next? We are losing all of our rights, watching them dwindle at a slow but steady pace. So slow and calculated that many Americans are not even aware of what is taking place. Gosh, maybe I shouldn't have written this, but, this story really got under my skin. I am normally more of a "reader", not a "poster".....but, I needed to vent after reading yet another horror story of our rights just going down the drain. How depressing.............
 </t>
         </is>
       </c>
@@ -4621,7 +4621,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -4637,7 +4637,7 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Millions of women victims raped by Russian soldiers during the last months of World War II. Anthony Beevor's book "Berlin -- The Downfall 1945" documents rape by Russian soldiers. "Beevor's conclusions are that in response to the vast scale of casualties inflicted on them by the Germans the Soviets responded in kind, and that included rape on a vast scale. It started as soon as the Red Army entered East Prussia and Silesia in 1944, and in many towns and villages every female aged from 10 to 80 was raped." The author "was 'shaken to the core' to discover that even their own Russian and Polish women and girls liberated from German concentration camps were also violated." He estimates that "a 'high proportion' of at least 15 million women who lived in the Soviet zone or were expelled from Germany's eastern provinces were raped." Until recent years, East German women from the World War II era referred to the Red Army war memorial in Berlin as "the Tomb of the Unknown Rapist." http://www.religioustolerance.org/war_rape.htm enjoy the russkiy sperm...
+          <t xml:space="preserve">Here is a little idea: After the race war, Europe is called Germania... the entire continent is subjected to German rule. The capital of Germania is Berlin, naturally. Natural borders don't need to be put back. With Germans in control, Europe will fall in line. From there, expand, and eventually the world. The quest for lebensraum will not be over until every land speaks German, and everywhere you look a German greets your eyes! Fuer Deutschland! Heil Hitler! Sieg Heil!
 </t>
         </is>
       </c>
@@ -4645,7 +4645,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -4661,7 +4661,7 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t xml:space="preserve">If a mod thinks this should go to another dept, please move it to where you feel it belongs. seems like it could be real easy to be racist AND homophobic in prison huh? Shama Chaiken doesnt seem to agree, thinks prisoners need to be medicated for these "maladies". uh and WHO are the crazy people again? many articles, my text not pulled from one source, pulled froma blog not a newspage, it is however, true.check for yourself http://www.google.com/search?hl=en&amp;n...-8&amp;sa=N&amp;tab=nw Doctors who treat inmates at the California State Prison outside Sacramento concur: They have diagnosed some forms of racist hatred among inmates and administered antipsychotic drugs. "We treat racism and homophobia as delusional disorders," said Shama Chaiken, who later became a divisional chief psychologist for the California Department of Corrections, at a meeting of the American Psychiatric Association. "Treatment with antipsychotics does work to reduce these prejudices." uh, more bad news (I linked the HTML version rather than the PDF version) http://72.14.207.104/search?q=cache:...s&amp;ct=clnk&amp;cd=1
+          <t xml:space="preserve">I'm trying to get you here. 100% of all attack rapes in Norway are committed by non-Whites who claim to be from countries at war, but are mostly not. And you claim it's because they are traumatized? Oh, right. Lying their way into one of the richest(per capita) countries in the world is very traumatizing. But okay. Let's pretend that these people actually are having a hard time in whatever country they are from, for the sake of the argument. Would they not be damn grateful to the Norwegian people who accept them into their society? Shouldn't they try to please the Norwegian people in order to show them that they didn't make a mistake? And this is somehow a reason that 100%, as in all, every SINGLE attack rape ever committed during those last years are committed by immigrants? Not any of the Norwegians with lower education, not a single one of them is guilty of these crimes. How come? This is obviously a racial issue. You're welcome.
 </t>
         </is>
       </c>
@@ -4669,7 +4669,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4685,7 +4685,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've seen David Ceasarani on T.V. trying to rope the Brits into the "Endloesung", is there no end to these peoples shameless conduct. It was pretty clear to me that all they intend to do,is rope all us Arayans in together, thereby justifying their Megalomaniacal plans, by extending , and legitimizing their hatred of Whites. O.R.I.O.N.
+          <t xml:space="preserve">Our race been put to sleep from its former state of mind by guilt complex and political correctness ... Who installed a guilt compley ? The NWO .. Who installed political correctness ? The NWO .. Political correctness has red ( communist ) roots .. Look it up Basically we are like weakened warriors .. Would be nice to reverse this process .. ( Lord of the Rings = Eurocentric to the core )
 </t>
         </is>
       </c>
@@ -4693,7 +4693,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -4709,7 +4709,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm the same way. The tension in the build up can be amazing but once "it" actually starts it's as if my mind suddenly looses interest and drifts elsewhere. I think that half the problem is that I have a very vivid imagination and real sex just can't compete with what my mind has already cooked up. Now that I'm older I just don't seem to care anymore either... sad.
+          <t xml:space="preserve">Whether you trust something or not is not the issue here. The issue is the repetition of anti-N9S accusations by a lady who supports a.n.other well-known WN organisation. - yet who cannot then follow through when challenged, with any shred of evidence to then back up the accusation. Not only does your smear attempt look like 'BS' and smell like 'BS', I am sure that most people wont be foolish enough to need to tread in it, to work out that it sure as heck, it must be 'BS'. Seems reasonable?
 </t>
         </is>
       </c>
@@ -4717,11 +4717,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
@@ -4733,7 +4733,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vulnerable families bear the brunt of Norway's crackdown on asylum seekers | Sune Engel Rasmussen | Global development | The Guardian Norway knows what is really important. Non-White criminals are vile but it is the next generation of moslems that we must absolutely be ridden of. So, they grabbed a family with a birth rate above that of the average Norwegian family and got rid of them. According to these news, they deported 649 brats last year.
+          <t xml:space="preserve">I basicaly give a **** who you really are, if you are calling conservative libral / monarchist a red it means you are barely competent to speak even about weather. In the next 100 years present day germany will be ethinically turkish, you gonna support turkey in efforts to take their "etnically turkish lands"? Maybe you supported recent partitation of Serbia and creation of Kosowo - etnically albasih country on ancient Serbian land? Germans were in Poland after ww1 because we allowed them to stay if they wanted - this mistake was not repeated after ww2.
 </t>
         </is>
       </c>
@@ -4741,7 +4741,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4757,7 +4757,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t xml:space="preserve">China, Russia, India hold first trilateral summit Chinese President Hu Jintao, Russian President Vladimir Putin and Indian Prime Minister Manmohan Singh on Monday in St. Petersburg held a trilateral summit meeting, the first of its kind among the three countries. The summit was held after the conclusion of the outreach session of the G8 St. Petersburg summit and the three leaders exchanged views on cooperation among the three countries, according to Chinese officials. At the summit, Hu said China, Russia and India, who have set up bilateral strategic partnership among them, have vital influence on the international and regional affairs. There is a great potential for the three countries to cooperate in a number of fields such as economy, energy, science and technology, Hu said. MORE Chimese tidbit: One in eight cellphones in world made in China's southern city more
+          <t xml:space="preserve">The only "bout" I ever had was in the field with a mouthy 400 lb. plus negro sgt. in AIT. He came around one morning trying to intimidate us privates before the night they (the sgts.) were going to mock attack us in the field. He was walking around bragging that NOBODY had ever taken him down - challenging us. Myself and one of my friends from Detroit were the only two who offered to accept his "challenge". The sgt., being the arrogant negro he was tossed a loaf of bread at us and told us we needed to put on some weight first. I told my friend I would go first in the "challenge" and, if I didn't win, at least I would wear down the black sgt. some for him. In under 5 seconds, his fat chitlin-eating butt was on the ground. Evidently he was hurt pretty bad, as the "attack" training exercise was called off that night and the sgt. was taken to "sick call" for a broken leg.
 </t>
         </is>
       </c>
@@ -4765,11 +4765,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
@@ -4781,7 +4781,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t xml:space="preserve">In South Africa we do not get Ben&amp;Jerries, which is good because it sounds like they are both jews. These people from PETA should be confined to a mental institution. This is the most ridiculous statement I ever heard,these idiots have nothing to do and they are wasting time and raising my blood pressure by going around and trying to change the way normal human beings live. These kind of nuts would have been purged in Germany in the good old days.
+          <t xml:space="preserve">I don't agree with this, Komova was much better on the final floor event but she stumbled several times on the prior events and that's why her overall score was so low. I follow gymnastics and the real reason why Gabby Douglas won wasn't because of unfair scoring, it was because everyone else had a bad week. In any other year, she would have been bronze at best. But yeah all we've been hearing since is "first African-American female gymnast to win gold" and "the African-American youth now have something to strive for"...It's annoying as hell. She's actually gained more attention than Michael Phelps who now has a higher medal count than anyone in the history of the Olympics.
 </t>
         </is>
       </c>
@@ -4789,7 +4789,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4805,7 +4805,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t xml:space="preserve">NO. That's not even in the same neighborhood as normal. Infact, once you're able to get out, you should really look into reporting that, incase he already has a record. I honestly wouldn't be surprised if a pedophile wanted to 'help' single mothers with small children. A 5 year old can not have sexual issues. She's 5. She has no sexual hormones yet. None. At all. She can't have any sexual issues. Of course she's going to wiggle when she's sitting on anything, little kids tend to be energetic and move around a lot. That guy is a FREAK. A normal adult would be absolutely disgusted by the though of ANYTHING sexual with a child, it would be impossible for any mentally sound adult to be turned on by a child. She's 5! She's not meant to be sexually attractive to anyone at that age! Leave, now. Do your best to get far away from that freak. He could do horrible things to your daughter if you don't leave. You might end up regretting it... living in a car is better than living with a pedophile. Do it for the safety of your daughter...
+          <t xml:space="preserve">This is a poll to gauge interest in setting up a WN MMO using the Neverwinter Nights 2 engine. If your interested in working as a admin/mod or have programming skills you would like to offer please send me a PM. If you believe a different engine or game would work better please list it below. The current plan is to make this server available to sustaining members. So that to have the luxury of playing on it you must donate to Stormfront. For most MMO gamers this will allow them to have a MMO experience with liked minded people and at the same time both save money and donate to help our movement. Since the average MMO now charges $15 dollars a month. While a one month donation to Stormfront is $5 dollars. Game Info here. More info here. To be able to play on this server you would need to own or obtain the lastest version of this game. Gold version, Newest Exp.
 </t>
         </is>
       </c>
@@ -4813,11 +4813,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>56.73</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
@@ -4829,7 +4829,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message from TPC Radio.......... Join James Edwards and the TPC hosting staff in the online chat and virtual fan party right now! The chat will be open during our live radio broadcast, which concludes tonight at 9:00pm Central. Participate in real-time exchanges with the staff and ask questions of tonights featured guests! Appearing live on the show tonight will be: Jared Taylor, editor of American Renaissance magazine Rev. Ted Pike, director of the National Prayer Network Perry Short, author of Generation of Warriors, a book that details the pivotal Civil War Battle of Chickamauga To be part of the fun, all you need to do is follow these simple instructions: 1) Tune in to our live show via the internet during our regular airtime (6:00pm – 9:00pm Central) tonight by accessing the online simulcast. Click here to listen live online. (6pm – 9pm CST) 2) Open up another page on your web browser and log into the chat room by clicking here! 3) Make comments, ask questions, and let your thoughts be known to a worldwide audience of TPC listeners! We’re waiting for you right now!
+          <t xml:space="preserve">You have single handedly made the white race that much less, you could of made two beautiful white children, but you made the choice to throw your heritage down the drain and destroy a white bloodline. There is no pride in that. Congratulations on speeding up the death of your own race. So yes, you are a traitor.
 </t>
         </is>
       </c>
@@ -4837,11 +4837,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>65.41</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
@@ -4853,7 +4853,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Who cares? World War Two was sixty years ago, its over finished, Hitler is dead, Churchill is dead, Roosevelt is dead, more of the old warriors who fought bravely on both sides are passing to Valhalla each year. It’s history. Remember the fallen, honour their names and live for the future. No more wars between brothers. Stoking this old fire serves the purpose of no one except the bitter and stupid and those that want to divide the European race.
+          <t xml:space="preserve">I was in Victoria when the march passed, it was well attended and effective, most of the public were sympathetic beebing car horns as they passed etc. One or two negative reactions but only that. The usual ridiculous circus of the police following those around with cameres when they should have be out looking for the Islamic scum who are no doubt planning more of the same carnage in London soon. Well done to the NF for standing up and taking a stand on this issue.
 </t>
         </is>
       </c>
@@ -4861,7 +4861,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4877,7 +4877,7 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t xml:space="preserve">I do not hate jewish people in particular. I hate that white people are the only group it seems to be okay to make fun of. I hate that there are brown pride and black pride and gay pride parades, but if people show pride in being white they are called racists or Nazis or rednecks. I hate that the accomplishments of ancient Europeans are neglected in our schools to focus more on the civil rights struggle if history is even covered at all anymore.
+          <t xml:space="preserve">Брошура је везана за ову тему, а можете је преузети одавде. SS Family Celebrations The Celebrations In The Life Of The SS Family This publication explains the meaning of the different celebrations and gives guidance to the families of how to celebrate these occasions in the right spirit. Through reading this booklet, every SS Man and SS Woman should come to a deeper understanding of these celebrations. This booklet should provide a constant companion especially for the women, as most of the preparations will fall to them. The knowledge of the customs of our forefathers gives us inner peace; keeping to these customs gives us direction and strength. F. Weitzel SS Lieutenant General.
 </t>
         </is>
       </c>
@@ -4885,11 +4885,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>51.51</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
@@ -4901,7 +4901,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is with extreme regret and much grief that we must inform you of the passing of our Senior Pastor, Comrade and Brother ; Ray Redfeairn. Pastor Redfeairn passed away peacefully in his sleep this morning Sunday October 26th at his residence in Dayton, Ohio. He will be dearly missed and his memory will be greatly cherished by those of us who knew and loved him. The Ministry of the Church of the Sons of YHVH will go on to carry the torch, by continuing to take the message of Christ to the lost sheep of the house of Israel. Pastor Redfeairn's dedication and commitment to God and our Holy Race, will serve as a standard that will continue to guide the continuing effort of this ministry. Farewell good and faithful servant of Christ. Your spirit and memory will forever be with us. http://www.churchofthesonsofyhvh.org
+          <t xml:space="preserve">If that were to ever happen, I wouldn't even care anymore. I wouldn't wait for the backing of my race, I would just go ballistic and take as many out as I could before they got me. Maybe my death would make me a martyr and then others would rise up. This kind of behavior is obscenely disturbing and sick. They should all be hung by their nether regions from bridges to show just how much they aren't welcome in our society. That goes for male and female regardless of race. We could make that a tv show. We hang them up and give the child who they did it to a nail studded bat. Thats how white people should make piñatas.
 </t>
         </is>
       </c>
@@ -4909,7 +4909,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -4925,7 +4925,7 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excellent job in apprehending the scumbag. Just a word of warning though: While emotions can run high in a situation like this, always remember that exiting your house in pursuit of a burglar can be extremely dangerous. A friend and co-worker of mine was nearly killed this way. He was awakened in the night to find a burglar coming in through a window. The burglar backed out of the window after being spotted. My friend grabbed a bat and headed out the front door. When he got out the door and headed around to meet the guy, he met four guys instead. They beat him with a 2x4, and when he was on the ground, used the same piece of lumber to smash down on his mid section in a spear motion. He suffered tremendous internal damage, the loss of a kidney, and over a month in the hospital. I'm not saying don't go after someone trying to victimize you, but do it carefully. Had my friend been more careful in his pursuit, and had a weapon better than a damn bat, he could have avoided all that suffering.
+          <t xml:space="preserve">Ironic since the most shocking, racist and vulgar material on radio today is hip-hop/rap music .. where's the outrage? 'Clear Channel Radio has silenced the popular "Monsters of the Morning" talk show on Orlando's 104.1 FM over racial comments made on the air, The "Monsters" radio team, featuring Russ Rollins and Dirty Jim, was sidelined after complaints came in from Sarasota, Fla., The crew must reportedly complete sensitivity training before returning to the air.' Story: http://www.local6.com/news/3525540/detail.html
 </t>
         </is>
       </c>
@@ -4933,7 +4933,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4949,7 +4949,7 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t xml:space="preserve">You asked for it; Communist agitator John 'Kerry' Kohn arrested for spamming after anti-war rally. "For those of us who are fortunate to share an Irish ancestry, we take great pride in the contributions that Irish-Americans..." Senate floor statement by John 'Kerry' Kohn, March 18, 1986 Of course, John 'Kerry' Kohn has no problem sucking up to the Black vote by declaring: "President Clinton was often known as the first black president. I wouldn't be upset if I could earn the right to be the second."
+          <t xml:space="preserve">Oh, I know why you feel you have more in common: because you're racist. Check with Europe to see if any member country feels they have more in common with Americans than they do their neighbors. You affection for European culture is a one-way street. Europeans speak 200 different languages, mostly something other than English. I doubt a French Muslim Woman would feel that she has more in common with you than with another European person, or another Muslim.
 </t>
         </is>
       </c>
@@ -4957,7 +4957,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -4973,7 +4973,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, those are good points. We have to find a way to make all the White gal contestants feel positive about themselves even though there will be only one winner. Let's think of some runner up prizes. We can fix it so all of the non-winners think that they were the first or second runners up. We are not going to lie. All of our racially conscious White women are beautiful. 14 Words
+          <t xml:space="preserve">I doubt that she looked white in the eyes of a racially aware person. Race is much more than eye and skin color. BTW, blue eyes is a recessive genetic trait. I believe that it's extremely likely that the "black" parent had some degree of white ancestry. If the "black" parent was in fact a mulatto, who had inherited a dormant blue gene from the white parent; then I believe that the probability of having a blue eyed child, toghether with a blue eyed white person, is as high as approximately 50%.
 </t>
         </is>
       </c>
@@ -4981,7 +4981,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -4997,7 +4997,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t xml:space="preserve">very true. Very good point. Like I said, I don't have all the answers. And I'm man enough to admit that I may be wrong, and that I may change my mind. As of right now, though, I just can't see voting for him. I do support the things he is saying. Well, most of it. That mocking disabled reporters **** is petty and childish to me. And that's another thing. I don't want a President, even if he shares my ideology, who has the immaturity of a high school bully. He acts very unpresidential and unprofessional at times. I think he's such an egomaniac that he's used to getting his way; so when he doesn't he lashes out.
+          <t xml:space="preserve">You can call Greeks whatever you want with your Garbage youtube videos from Afrocentric Negros. SS Lazio the other Skopian was saying the ancient Greeks were Nordic, and now your saying they were Negros. You can call the Greeks whatever you want, Negros, Nordics, Chinese, Gypsies whatever, But when YOU wake up in the morning and look in the mirror, YOUR STILL A BULGARIAN. And, you, Isaac Newton, youtube, Tito, Communists, George Bush and Gruevski can't do a damn thing to change that.
 </t>
         </is>
       </c>
@@ -5005,11 +5005,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>74.67</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
@@ -5021,7 +5021,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t xml:space="preserve">I got hit in the head by shrapnel from an exploding gas canister when I was twelve years old and had that sensation of leaving my body, I don't know if I was out cold but I fancied I had a bird's eye view of the orchard where the accident happened. Concussion is a weird thing, my parents took me to the doctor at the time and he cleared me, this was of course in the days before brain scans but I wasn't all right for a quite a while after that.
+          <t xml:space="preserve">All the foreigners who live in United Kingdom do resent the British I think that's the reason why they come here. I have no problems with Adolf Hitler because he stayed in Austria and Germany unlike this Serbian C***. I'm not a football fan but I'd like to see the English Premier League full of just English players got a problem with that?.
 </t>
         </is>
       </c>
@@ -5029,11 +5029,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>84.49</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
@@ -5045,7 +5045,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t xml:space="preserve">[ame=http://www.youtube.com/watch?v=lInvp_vff0c]YouTube - Lessons In Hate And Violence[/ame] Just watched the program. From our point of view, shocking stuff. From their point of view, they are successfuly breeding a militant gang of psychotic ruffians under our very noses. They are used to being ruffed up for no reason, and are trained to ruff up others. It is like having marauders from the dark ages break through some time portal and materialise in our time. Islam gets a grip on its members by terror and bullying. We are expected to imagine their psychological backdrop is the same as ours.
+          <t xml:space="preserve">Exactly. I have been arguing this point with a member who claims that the jewish occupation of palestine is in the wests interests. The west? We are WNists, and not Zionists in the whitehouse. Jews have no foresight, because they "believe" they are guided by a god. They are reckless bunglers, on a criminal scale. They have destroyed any credibility the west may have had to be guardians of best practice, and justice. Now tin pot countries laugh at our intentions, and see us as double speaking hypocrites. We must uncouple the jewish band-wagon from our train of civic culture and society.
 </t>
         </is>
       </c>
@@ -5053,7 +5053,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -5069,7 +5069,7 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t xml:space="preserve">It showed up in my feed for some odd reason. I read it. Pure propaganda. Discussed it in another venue and a reader insightfully commented that it’s whats called a conversion story. Think of the ending of 1984, for example. Despite their conversion and accepting “the truth” becoming a die hard believer, they will never attain the status of fully redeemed.
+          <t xml:space="preserve">That's right. You don't even need a heat source, which will be a big plus in some cases. I've used all sorts of plastic bags to triple wrap most of my rice, dried beans and peas, and pasta. I've also found the large plastic jars that my protein powder comes in will hold a good amount of rice or beans. One thing to bear in mind is that most of the rice you buy has a percentage of insect eggs in it. They won't hurt you, but it is wise to freeze your rice for a week or so before you put it up. It keeps them from hatching into weevils and ruining your supplies. Unless you have a need for the extra protein, I recommend the freezing.
 </t>
         </is>
       </c>
@@ -5077,7 +5077,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>83.39</t>
+          <t>68.71</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -5093,7 +5093,7 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Uhhh, we teach our children not to marry non-whites. No, really, it's that simple. They can bring in all the non-whites they want, that only helps us by providing us with daily examples of how different they are from us, and how ill-suited they are as marriage partners. They literally make our cases for us, as you can see from BrownBread/every guest troll we've had in the past few weeks with "x" in his handle. Most non-whites who come here are intentionally obtuse. They aren't very good at winning the hearts and minds of whites, which is why they have to use dishonesty and subversion to do it. Teach your children this, they will recognize it and stay far away from non-whites. That's all we have to do for now.
+          <t xml:space="preserve">That website seems to me to be just jew proaganda to further their own causes. A jew calling a spade a spade isnt going to do it for me. When the ADL and the AIPAC shuts down and no other "PAC"s are allowed to use our govt for the support of another country, then we can say we are getting somewhere. Talk is cheap, action is what we want. I would almost bet that a big part of the "aid" we have given israel was used by jews to buy out the media in America and the rest of the world, including banks. No i cant prove it, but theres no way in hell *all* the jews are so rich just from their businesses. Theres got to be some underlying factor from a state-run govt doing the financing. It takes a total idiot to not see that jews are up to something.
 </t>
         </is>
       </c>
@@ -5101,7 +5101,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -5117,7 +5117,7 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t xml:space="preserve">"First, the community had to vent, which was the purpose of the meeting. It was an early stage of a mediation program that the Justice Department has offered to other troubled towns -- in an echo of South Africa's Truth and Reconciliation Commission -- to help close deep racial fissures." And what was the next step in SA? Oh yes, KILL WHITEY!!! People of Texas keep your guns handy. We all know what happened to SA Whites.
+          <t xml:space="preserve">What a great topic. It would be good to have a whole new section of SF devoted to it. Family Search is good and free. Also, just Google your name combined with known locations of your family because sometimes other members of the family already did the hard work. 4th generation American, 98% ethnic German, 2% Scottish. Damn him.
 </t>
         </is>
       </c>
@@ -5125,7 +5125,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -5141,7 +5141,7 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t xml:space="preserve">i wouldnt vote for a president who supports what israel is doing at this current moment. hes a weak hypocritical jew puppy dog "any state who uses religion as a means in conflict is a terrorist state" he said.. something like that anyway... he musta made 1000 references to GOD during his little campaign looks like your prez is another jew puppydog. weak.
+          <t xml:space="preserve">I clearly remember 1952 America, and America no longer feels like home to me. At my local Walmart, on any given day, I can find several shades, languages, and cultures. I am for exporting illegals-NOT JOBS! Maybe we should outsource the presidency. Wait! I forgot. We already have; to Mexico and Israel.
 </t>
         </is>
       </c>
@@ -5149,7 +5149,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -5165,7 +5165,7 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nick and Alsace Sirs, Today there is no excuse for not knowing what the Hel was going on! If any take the few short minutes to read fully the following two pages and still will not admit and declare to others WHY the Americans and British destroyed N.S. Germany and many Millions of the finest Aryan stock then they are Far More GUILTY than the "Greatest Generation" you speak of. Why more guilty? Because they do "actually know what the hell was going on". Of course it will require a person with a pretty big set of "stones" to do so! Are there ANY such Aryans left alive today Sirs??? I ask you !!! WE’RE ON GOD’S SIDE – THE POWERS OF PERSUASION Page 1: https://www.stormfront.org/forum/show...933#post568933 Page 2: https://www.stormfront.org/forum/show...1&amp;page=2&amp;pp=15 "Now we must AGAIN ask WHY would the Good --- American, English and other peoples fight and die to destroy the jews greatest enemy. Tens of Millions of Aryans died to save the jewish Money Powers." .08-06-2003, 05:04 PM - Stormfront White Nationalist Community &gt; News &gt; Articles &gt; WE’RE ON GOD’S SIDE – THE POWERS OF PERSUASION .
+          <t xml:space="preserve">Double dog dare you all here on SF... To call Ole James this week. Leave a message stating you are a freelance writer and investigative journalist and ask it to call you back. It's ego will love it. When it calls be soft spoken and politely say you'd like to ask where all the irrational hatred toward aryan folks is coming from. Ask how it would respond if you told it the same thing it said only reversed. Then ask it how exactly whites are to be made tondisappear. Ask it if it's ok for the Jew to disappear too and if not why? Then have your feel good moment. Ask it very calmly if it would like to start eliminating whiteness by eliminating YOU personally by itself. Invite it to meet you. It will think twice when it attempts to sleep that night. It will be getting a call tomorrow from at least ONE strong proud white man.
 </t>
         </is>
       </c>
@@ -5173,7 +5173,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>96.91</t>
+          <t>51.39</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -5189,7 +5189,7 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is the general atmosphere like in Australia? Is the muds a real problem or they an irritating minority? Are the exSA involved in politics at all or are they mostly impartial to the political climate since they are rid of the kaffirs in SA? Do any of you understand any Afrikaans? I suspect we will get ours asses whipped this year in the Super 14. Have a white day.
+          <t xml:space="preserve">Shef West I am happy you can speak for all WN. First lets take a look at some of your lies. Yes the Holocoust took place. Jews killed over 40 million people in Russia and nearby countires between 1917-1932. The Jews so called Holy Book also says it's ok to have sex with 4 year old kids. So let's not lie about rabbis having sex with small kids. Also the book teaches to murder and rape all non Jews. Anymore lies you want to tell go ahead MS. Jew.
 </t>
         </is>
       </c>
@@ -5197,7 +5197,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -5213,7 +5213,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excellent post RT55. You have managed to grasp what many apparently cannot, or will not see. It is my hope that the African race will lift their continent up and that the African race will be proud of their Folk and culture and wish to preserve it. We Europeans ask for nothing but the same rights, it is heartening that you can see that. Waes Thu Hael
+          <t xml:space="preserve">I think the only good thing about this movie was seeing people get vaporized. I found that it kept me marginally entertained, but was severly lacking in good ideas. It would have been more interesting to get into the minds of the aliens, rather than seeing what was essentially a "disaster" movie.
 </t>
         </is>
       </c>
@@ -5221,11 +5221,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>22.39</t>
+          <t>95.91</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
@@ -5237,7 +5237,7 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was just talking with my wife about this same subject yesterday. It's always most obvious on the job. From who gets the easy work, to who's calling in sick on Fridays and Mondays, to who complains about discrimination and racism when they get fired for abusing sick time and sleeping on the job, etc. This is why many companies won't hire minorities if given a choice. When they have to fire them, the minorities hire attornies and sue for discrimination. The company then has to spend thousands of dollars to defend themselves. And they still wind up with the bad publicity. It's always about entitlement and racism when it comes to the muds. And we Whites go on enabling this behavior in the vain attempt to not appear "racist", to the point of our children, women, and elderly being victimized by these subhuman vermin. When will we wake up?
+          <t xml:space="preserve">Vulnerable families bear the brunt of Norway's crackdown on asylum seekers | Sune Engel Rasmussen | Global development | The Guardian Norway knows what is really important. Non-White criminals are vile but it is the next generation of moslems that we must absolutely be ridden of. So, they grabbed a family with a birth rate above that of the average Norwegian family and got rid of them. According to these news, they deported 649 brats last year.
 </t>
         </is>
       </c>
@@ -5245,7 +5245,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -5261,7 +5261,7 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've decided that I'm at the point in my life where I'm not content being an "Internet activist". I would like to get out into the world and start fighting for what's right by way of protests, pamphleting and general activism. Could anyone help point me in the right direction for getting started? Much appreciated.
+          <t xml:space="preserve">I am employing the C&amp;P method, because my experience is that links are ignored. Again you are asking me to accept your sources. Why would I accept your interpretation of the Jews books. You are a Judeophile. You seem to be wholey consumed by the Post War notion that people have a freedom of "Any Religious" notion they want to observe. This has been introduced as a mandatory social condition after the war, and to the extent it is practiced to day ie. Rastafarianism because of the Jews meddling in the Laws of "Christendom". As to your assertion that Jews are not permitted to kill non Jews , well frankly I do not see evidence for that in the real World. A Family Picknick was shelled two IDF pigs go missing and all hell breaks loose with Palestinians being Murdered all along the Fertile crescent. JU88.
 </t>
         </is>
       </c>
@@ -5269,7 +5269,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -5285,7 +5285,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t xml:space="preserve">There is a good old fashinoned saying : "To become upset of you I must first value your opinion .." And I sure won't be upset at an internet stalking pussy who wouldn't stand a chance to me if a fight real life came about .... A stalking flamer who constantly picks fights with people who and all can do is throwing away unfounded mindless flaming surely Stormfront doesn't need .... But if you want to continue on stinking up my threads , then so be it .. Keep me amused at your mindlessness .. Awww , is old Kinny scared now ? You'll be this small soon .. You know that harrassing and stalking people here is against the rules ... Fading Light today , Don Black tomorrow ..
+          <t xml:space="preserve">Black children subjected to higher discipline rates than peers Michigan News, July 17, 2018 Black children subjected to higher discipline rates than peers | University of Michigan News ANN ARBOR - Elementary school discipline policies that rely on expulsions or suspensions as punishment may be fostering childhood inequality, a new study shows. {}
 </t>
         </is>
       </c>
@@ -5293,7 +5293,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>74.32</t>
+          <t>78.24</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -5309,7 +5309,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Chechens had the backing of the US, Israel, Oligarchs, NeoCons, to attack Russia, just as the Albanians/Bosnians had to attack Europeans/Serbs, they too have attacked US. Chechen Jihadists are in Syria right now killing innocent Syrians with " western " backing. Look what two Chechen Jihadists can do, and amateurs at that. Not one of these people should be allowed in any Western country, NOT ONE. Boston Bomb Suspect In Custody After Showdown " Police have detained the surviving Boston bombing suspect after he was found in a boat in backyard following a huge manhunt that left the city virtually paralysed. " .
+          <t xml:space="preserve">I think it will blow up in their faces. Nothing lasts forever. If Jews were able to achieve some world domination they would have done it centuries ago. They keep trying, causing problems, and get exposed, regroup and try again. They operate against Nature and it just cannot last. They have already revealed themselves in full retard mode and lost media control--so important to their mode of operation. People don't trust the media--especially young people. A few cities are nations may implode but they will become no go areas and eventually be targets for clean up in a time when the diversity philosophy will lose its power. Already happening.
 </t>
         </is>
       </c>
@@ -5317,7 +5317,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -5333,7 +5333,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t xml:space="preserve">No one wants to have a mixed child, and no one is ever proud of it. They'll go through any measures to make their child seem whiter than it really is, which is pretty sad. It's their choice and then they try to cover it up. Yeah, but there's something more then that...
+          <t xml:space="preserve">This is nonsense. Arab and Chinese explorers throughout history have also referred to them as blacks. You're parroting this ridiculous idea that whites invented the concept of race, but if you look at the history of the middle east and the far east, you can see that there are numerous examples where race is an acknowledged part of life. On the subject of blacks being inferior, even Arab and Asian explorers took note of their lack of culture and civilisation and compared it to their own. Whites are not the only race who did this. I've heard this one too, but I believe the notion of being 'white' came into existence when the first white explorers observed and studied other races' culture and behaviour. "White" merely means "European". Your entire post is full of ignorance. Incidentally, what are you doing here? Shouldn't you be in the Opposing Views section?
 </t>
         </is>
       </c>
@@ -5341,7 +5341,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -5357,7 +5357,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Jews are declaring war on Catholicism. As a personal preference, I don't care much for Judeo-religions, including Catholicism, but in this case, the Jews don't like how the Poles use religion to preserve Polish tradition... Dr. Gregor Gysi, Jewish-German radical left politician, certainly thinks so... [ame="https://www.youtube.com/watch?v=_MqQtcFPDa8"]https://www.youtube.com/watch?v=_MqQtcFPDa8[/ame] The thing is, the Poles have been aware of Judenfrage for centuries. That's why their balkanization in the Soviet Union (cultural marxist Pan-Slavism) didn't work so well for them, or any of the other Slavic states that used to be under Polish influence, like Ukraine. [ame="https://www.youtube.com/watch?v=tyRpG8cLwuM"]https://www.youtube.com/watch?v=tyRpG8cLwuM[/ame]
+          <t xml:space="preserve">What is with these kids? Furthermore, what is with these parents? We've really come along way since the 1950's when parents made their children wear suits and ties (or at least professional-looking attire) when they went out. I'm certainly not a fan of the Iraq war but I'd love so send these guys to the front line and see how tough they really are.
 </t>
         </is>
       </c>
@@ -5365,7 +5365,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>54.53</t>
+          <t>76.94</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -5381,7 +5381,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.000.000 you're dreaming man... That should be one of theories of 20th-century, anti-Turk, French anthropologist telling things such: "when the Turk came to Anatolia, he had the terrible 'Mongolic-Tataric' look; and by raping the natives ... it was one of the rare time that the 'inferiors' beated the supremes and finally the Turks have lost their terrible look to be aryanized ... " bla bla bla ... moreover, look at the problem of your country before being busy with the Turks, and feeding with lies Keep in mind that all our Great victories were before 1526 ... And they haven't married our daughters .. But rather native balkan girls. Not all of them were Muslim, just contrary, they were free at their choice... Year-Number of Jannisaries[5]1514-10,156***1523-12,000***1526-7,885***1564-13,502***1567-68-12,798***1574-13,599***1603-14,000***1609-37,627***1660-61-54,222***1665-49,556***1669-51,437***1670-49,868***1680-54,222
+          <t xml:space="preserve">when i lived in a practically all-White town in the midwest, there was no shortage of customers for the title loan and check advance businesses in town. the bell curve tells us that there are more stupid Whites than there are negroes. whether we should do anything about them depends on whether you live off them, or in spite of them.
 </t>
         </is>
       </c>
@@ -5389,11 +5389,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
@@ -5405,7 +5405,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t xml:space="preserve">My family refers to them as "Coleens", I've always thought it was a beautiful combination. My sisters and cousins tan in about 60 seconds, and burn after 5 minutes. They are as fair skinned as redheads.. They all had an identical spray of freckles across their noses when they were young. Along with the brown eyes, I actually tan. The sun turns my hair red, and I get very dark. My mom used to call me the little indian. Even before I was racially aware, the brown eyes bugged me. I felt like I wasn't quite as White as the rest of the family.
+          <t xml:space="preserve">I dont think that femenism has anything to do with this. For instance, in Uk is really sick to see all this hapening. I was there last year and to try to talk with a British men is imposible, first of all they wouldnt talk with you if you are a White i think, and less if you are European. THe only thing that british men talk to now it is to what is not european or non white, as if it was something that to be proud of. It is the end of the civilization. I think this example can be applied to the rest of White men all over the world nowadays
 </t>
         </is>
       </c>
@@ -5413,11 +5413,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>59.32</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
@@ -5429,7 +5429,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have a tough time believing that East Asians and Jews have a higher average IQ. However, the website says the following, what do you think about it? I think it makes sense with the reality of what I see; Europeans have the greatest people and the greatest potential, but we also have an excess of degenerates (race-mixers, etc.) that pulls us down. Going one step further, it's even likely that our average IQ will go higher as race-mixers are selected out of our gene pool. There will be less of us, but smarter. Also, I read that a person with an IQ &gt; 115 "gathers, infers own information". That sounds like the average SF poster to me, researching the lies of the Jewish-controlled media.
+          <t xml:space="preserve">I was re-reading "My Awakening" chapter 22, last night. Israel: Jewish Supremacy in Action. An account of the attack on the USS Liberty is near the end of the chapter, it got my blood boiling. The Jews are ruthless, manipulative, cunning, racist beyond our Goy imaginations. The blood of a million Goy is not worth the thumbnail of a Jew. http://www.front14.org/tsun Nothing would surprise me when it comes to Jewish manipulation of world history/events. As far as the WTC incident, besides the stench of 5000 decaying, mostly white bodies, the smell of schmalz hangs heavy in the Manhattan air. Lawdog Links not working. It gets overloaded sometimes.
 </t>
         </is>
       </c>
@@ -5437,11 +5437,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are certain races that need to be sterilised. Forget contraception in Africa...too expensive, and the results are not worth the effort. There has to be a point where we accept that breeding quality out weighs breeding quantity. To convince muslims of this will be an uphill slog. Muslims even breed with their cousins...inbreeding The science of Eugenics has been swept aside for to long, and we need to re-discover the original intentions of the science. Just as in Horse breeding, you do not save the runts and allow them to sire bad stock. We could short circuit the contemporary probeings in Britain to find the violent gene and just sterilise the degenerate races. To save futher on costs, we could simply stop sending aid to these people, which only gives them incentive to come to the west, and also we need to close the borders.
+          <t xml:space="preserve">Answer: For the reason they have the same views, but for their own people. I worked with two Sikh chaps; I’m never shy in general and never about my views. In fact I have found that I gain far more respect from non-whites because I’m open honest and do what most people do naturally, but that most whites have been conditioned into denying, and that is expressing a healthy sense of ethno-centricism. If his non-white friends are Folkist as well then it wouldn’t be an issue. There is a difference between friendship (i.e. people I implicitly trust and some with my life and who I don’t mind around my family) and acquaintances or work colleagues, of which I have many.
 </t>
         </is>
       </c>
@@ -5461,11 +5461,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
-          <t xml:space="preserve">I believe those were Jewish Czechs that Hitler ordered executed. Stalin murdered far more of his own people but yet little is said of this. Hitler was a flawed but great man. He took a country that was demoralized and humilated after WWI and within 10 years built it up again to a great military might. He saved Germany from Communism, that Jewish cancer. Would you rather had Hitler sit back powerless while the jews destroyed and decayed his beloved Deuschtland ? Hitler had balls in the sense that he was one of the few Gentile leaders who stood up to the Jews. Because the Jews control my country and my country kisses Israel's ass. We need a Hitler over here to wipe all the filth away.
+          <t xml:space="preserve">Pastors' group calls shooting of Lansing teen avoidable Police review clears officer in 17-year-old's death Lansing State Journal, July 1, 2011 Pastors' group calls shooting of Lansing teen avoidable | Lansing State Journal | lansingstatejournal.com A group of local black pastors and NAACP officials on Thursday questioned whether the 17-year-old girl shot and killed in March by a Lansing police officer ever attacked the officer with a knife. Reverend Melvin Jones {} Questions remain in shooting by Lansing Officer Lansing State Journal, June 26, 2011 http://www.lansingstatejournal.com/a...ansing-officer
 </t>
         </is>
       </c>
@@ -5485,11 +5485,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>54.98</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
@@ -5501,7 +5501,7 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bulgarians have to have 4 kids per family or 5. It's possible. But I hear too many women are marrying outside Bulgaria and allot of men are leaving also. There has to be a way to eat the cake and the cherry ontop. Such a beautiful country and culture, I don't want it to fade away lead by dirty Muslims and Turks. Why don't Bulgarians go to Russia or Poland, get beautiful girl then come back Bulgaria have 5 kids, live good Slavic Orthodox Bulgarian life?
+          <t xml:space="preserve">We did all we could I think. He was snubbed by everyone including the media. He should have been given the opportunity to debate McCain and Sambo. But he was snubbed there too. Sambo was the media darling from the get go. He would have won no matter what. So now we just have dig down and fight all that much harder. I have never been so angry about an election in my life. Unbelievable......
 </t>
         </is>
       </c>
@@ -5509,11 +5509,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>68.72</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
@@ -5525,7 +5525,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t xml:space="preserve">The jews have declared open war on our people. Why are we helping these people? "Australian nurses and midwives are being forced to announce their 'white privilege' before treating Indigenous and Torres Strait Islander patients - a move which has been slammed as 'racist to its core'." Nurses forced to announce 'white privilege' when treating Indigenous | Daily Mail Online Sorry For Being White | Australia Nurses Have a New Shocking Code of Conduct - YouTube
+          <t xml:space="preserve">"Men need to feminize themselves." That's the recommendation and answer to the following question: Why Men Are Failing in This New Economy | Daily Ticker - Yahoo! Finance The above is quoted from the video interview with Hanna Rosin, author of the new book The End of Men: And the Rise of Women. Hmmm, the end of men. Well, they are finally explicitly acknowledging the end of men, and it's due to the end of men that you have the issues that are raised in forums such as Stormfront… more specifically, it is the near extinction of the White male mentality that is the problem. I've been trying to bring this near extinction to the attention of people for over a decade now, and I have been taking a lot of heat for it. What you are not hearing are suggestions to revise social engineering to accommodate men. You are hearing quite the opposite, aren't you? P.M.
 </t>
         </is>
       </c>
@@ -5533,11 +5533,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>59.84</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
@@ -5549,7 +5549,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well that is how we feel entirely. Not all criminals are blacks and not all blacks are criminals, but an undeniably and totally inappropriate number are. Which is why we do not wish to associate with them and have them in our lives. Personal safety ? if you worry about that sure enough in my country we could take out the 15% blacks and put an end to 70% of the crime. Rude people ? I do not much care for them myself, if we wish to not associate with rude people that is another easy fix, take out the blacks and you get a much more polite and cohesive society. It is just like you said about yourself as a person, you do not wish to have contact with some types, whilst freely admitting not all our blacks are criminal and offensive, more of them than is acceptable are. Hence my view that not having to encounter the bad ones would be worth losing the contact with the good ones.
+          <t xml:space="preserve">You get lower wages the more people are in the labor force (on average, excepting any impact there may be by producing more on available jobs, which would alleviate downward pressure on the labor wage). I think that there should be some jobs for single or unmarried women, some also for lower-working class women to help support families where the guy has a low wage, but that the ideal people should work toward and accept where economically possible is stay-home wives. This is extremely difficult to do if marriage is not seen as a permanent life bond, because otherwise it is in the woman's interest to get a career so that she is set to take care of herself if the relationship ever breaks up.
 </t>
         </is>
       </c>
@@ -5557,7 +5557,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>68.48</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -5573,7 +5573,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Question: Don't you know there are good black people? There are good people in every race, bad ones too. Answer: I believe in the survival of the White race. In order to get that, we need our own exclusive living space. To have that, non-Whites must be physically removed from our living space.
+          <t xml:space="preserve">We do not care what their ambitions are. They bring their culture and expect us to observe their tabboo's and superstitions, thereby creating a parasitic culture that leeches off our benign and humane culture. Their degenerate cultures are gaining access to our culture by the back door. We do not want our children growing up taking derelict cultures for granted. DNA. Apart from that obvious fact, they will all be ritually mutilated and perpetuate this degenerate ritual, and try to enslave our people to this infamous rite. For the un-evolved probably so, but for evolved races to breed with un-evolved races is reversing evolution. Breeding with a stone age hunter gatherer is not evolution for us. No sweat.
 </t>
         </is>
       </c>
@@ -5581,11 +5581,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>96.74</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
@@ -5597,7 +5597,7 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is an excellent idea, especially for blacks. Seeing that all they buy with their welfare checks are plasma-screen t.v.'s, spinning 20" rims, etc. If only we could slip one by our jew government, negroes would be overjoyed to copulate with one another without the threat of pregnancy and get paid for it, too!
+          <t xml:space="preserve">In its favor, I note that the Spanish Inquisition was in the business of enforcing the ethos and culture of the people among which it subsisted. In the modern case, an alien ideology is being imposed on the gentiles from without with the inevitable aid of shabbos goyim. From Waaay Out West, --HLM
 </t>
         </is>
       </c>
@@ -5605,7 +5605,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -5621,7 +5621,7 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Another minor, but shockingly stupid one. On Pawn Stars, they were discussing gliders in WWII. The main fellow, Rick?, explained, If that were how gliders were actually employed, it would represent an appalling waste of manufacturing man-hours and resources, because if the purpose were simply to transport a stick, there would be no earthly reason to purpose build an aircraft expressly to crash once they deplaned. The fact that the madness entailed in such an idea is susceptible to mere logic, as opposed to an historical education, is a 2nd demerit.
+          <t xml:space="preserve">It would be hugely symbolic, supportive of animal minorities and their users, if the next leader of the Liberal Democrats was a Gerbil. Like the respected Pygmy citizens of the kalahari desert who all have the potential to migrate 'West' to become, lets say, British-Pygmies; a Gerbil shares with that ethnic minority an host of attributes perceived as highly valued in a multicultural society including; ...a negligible command of the English language, little understanding of Britain's humour, its heritage or of western work ethics. A Gerbil would make an admirably bland leader of the middle-of-the-road Liberal Democratic Party? the Party that seeks to be all things for all carbon-based life forms and for all voters. And unlike the present 'Gerbil' leading the Liberal Democratic Party; "real Gerbils dont drink Whiskey". There you have it then, a combined campaign slogan and a moral epigram that its current leader may do well to learn from. :drunk
 </t>
         </is>
       </c>
@@ -5629,11 +5629,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
@@ -5645,7 +5645,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chinese are really filthy and repulsive if you ask me, I have had the "pleasure" of entering an apartment it made me sick, they do not use hygiene and they use human fertilizer to make food, lastly they kill their firstborn, evil commie chinks.. here I know I can be politically incorrect. Like sewer water, they imitate eveything and it's just revolting this whole city is revolting in fact, the musso-afro thirldworldist whatever, I have sen other states it's like paradise
+          <t xml:space="preserve">This is basically what it comes down to. Men can go around talking about trying out the merchandise but really you can get a feeling of physical chemistry without having sex, and the merchandise is highly evolved to have emotions which connect the person's value and sexual nature to whether or not there is trust and commitment coming along with the sex, arguably to the extent of this having a spiritual dimension. You pass on the tested goods and you basically have a person who is not going to look up to or trust men in the same way, and this is either going to be some other man's problem, or an opportunity for charlatans like Jews or feminists for gaining social power. There is an asymmetry to the sexes and women do not bounce back psychologically from being used or tried-out sexually as men can. Maybe a few can but not many.
 </t>
         </is>
       </c>
@@ -5653,7 +5653,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>96.73</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -5669,7 +5669,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Okay now I've watched it. I must say it must drive the Jewmedia mad that these highly skilled aeronautical scientists and engineers are speaking with such great admiration and awe of WW2 era German (i.e. "filthy stupid Jew murdering jackbooted Nazis") technology... This is not one of those cases where they can squeal Anti Semite Anti Semite Jew Hater Ostracise Holocaust™ Fire them Crucify! Death murder kill! As these men are all scientists and engineers who have contributed such an immense amount to US air technology advances that their credentials can be questioned but the skills not lost...
+          <t xml:space="preserve">You people want Islam off your back &amp; off your land . . . then get ride of UIsrael So Arabs could take care of Zionism for you once for an all. To do that 1- Stop electing Jews into your Senate &amp; House 2- Stop paying over $$$ to support Israel (you have so far paid them over $800 Billion in forgiven foreign aid loans &amp; grants in terms of 1994 dollar and this is not even include the free military hardware they get 3- Get ride of the lobby influence in any form, they are playing you like a violin and most of you don't even know it
 </t>
         </is>
       </c>
@@ -5677,11 +5677,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>78.77</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
@@ -5693,7 +5693,7 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am looking for a specific photograph of a young Afrikaner boy - apparently a young AWB member - shouting in anger, his mouth wide open. Sorry, people, this is all I have to go on, but a friend is desperately seeking this pic that was taken at some or other meeting years ago - if anyone can come up with something, I'd be most grateful. Thanks a ton, KIM
+          <t xml:space="preserve">Hating homosexuals is not really what I do, I do hate the 'gay-pride'-scene. However I want homos to stay away from me. And that they should keep their homosexuality to themselves. I also think it's rather a genetic malfunction than a mental illness. So I think the 'keep it for themselves' option corresponds most to my vision. I also think homosexuals who make those annoying and disgusting homo-porn movies should be arrested and punished properly. Sick bastards, their is no pride in a genetic malfunction. To the guy who thinks homos are good because there is less competition over women then... What do you think of lesbians?
 </t>
         </is>
       </c>
@@ -5701,7 +5701,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -5717,7 +5717,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diversity in ads not reflected in real life - Advertising News - AEF Somewhere there's an America that's full of neighborhoods where black and white kids play softball together, where biracial families e-mail photos online and where Asians and blacks dance in the same nightclub. And that America is on your television. ... From Waaay Out West, --HLM
+          <t xml:space="preserve">Just speculating here: If we are to believe what Albert Speer said that Hitler said, from "Inside the Third Reich", Hitler had this opinion: And then, if Islamification had happened in the past, Hiter thought this would have resulted: Adolf Hitler's religious views - Wikipedia, the free encyclopedia So perhaps, if an Islamified Britain gets rid of Political correctness, this would be better for the British people? They might rise up and no longer shuffle towards the slaughterhouse. Of course, I think this could only happen if PC dies completely, which would require the removal of the masters of the media in the US, something unrelated to what happens in the UK. And I say this with not much knowledge of Islam.
 </t>
         </is>
       </c>
@@ -5725,7 +5725,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -5741,7 +5741,7 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t xml:space="preserve">I feel I need to share this with everyone. Two new documentaries with what looks to be unbiased opinion are due to be released soon. Fatherland - Documentary Kommandokorps - Due to be released. [ame="http://www.youtube.com/watch?v=ZqYKIShxrtI"]Fatherland - Documentary Kommandokorps or KK camps - YouTube[/ame] [ame="http://www.youtube.com/watch?v=bOfVfyNDLUU"]Fatherland - YouTube[/ame] Orania Film - Out on DVD. [ame="http://www.youtube.com/watch?v=njkUUAsWU1I"]ORANIA Trailer ENGLISH - YouTube[/ame] I have shared this one before. Very biased but it backfired. [ame="http://www.youtube.com/watch?v=BFWEtdZ5TWA"]Multimedia: Afrikaner Blood, inside a racist bootcamp - YouTube[/ame]
+          <t xml:space="preserve">Aww, your the best Tricia. Guys she's available to ya know? She is a great White woman. She helped hook me up with a really great guy and although it didn't work out he's still a great guy and she's looking out for him when he needs someone there. She's a stand up kinda gal who don't take s--t from no one. A great mother and friend in deed. She's in need of a REAL White man.
 </t>
         </is>
       </c>
@@ -5749,11 +5749,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
@@ -5765,7 +5765,7 @@
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t xml:space="preserve">The next time we have an election I say we stand in front of the voting booths and not let the coloreds vote. I mid as well say it, get rid of all the traitors that are now in power remove their citizenship and throw them out of our country. 14/88
+          <t xml:space="preserve">I really think you ought to have said ‘favourite image,’ as ‘paintings’ is quite restrictive. There are so many splendid images, whether depicting the early days of struggle or campaigning for the vote, the good times, undeniable mass adulation, charming moments with the volk, awarding merit to heroes, or even caught off guard in domestic situations. One of my favourites, for the fact that it portrays the fantastic magnetism of the Führer, is this bier keller photograph: Google Image Result for http://www.oldmagazinearticles.com/images/decorations/BEER_HALL%2520_PUTSCH_article.jpg Another favourite, for the fact that is portrays the Führer at the apex of his career, Master of all he surveyed (with the Eban Emael victors): Google Image Result for http://1.bp.blogspot.com/_p3Q0eKo0OeI/TACnQT-1rxI/AAAAAAAAG6w/vQPjV4ikF3c/s1600/hitler%2Bfallschirmjager.jpg
 </t>
         </is>
       </c>
@@ -5773,7 +5773,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -5789,7 +5789,7 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Okay , maybe astronomy wasn't the right word , but if you want to read prophecies look no further than the Bible .. I know the Bible was twisted and is a very re-written book , but I for one do believe in prophecies .. Even then I would make a distinction if the prophecy is Aryan in origin or by some wild jungle shaman of another race ... Our ancestors , the Indo-Aryans certainly had a high cosmic consciousness ..
+          <t xml:space="preserve">I went to katovice in Poland and never saw any ethnics,Poland really is the place to go to get away from them ,ive been 4 times in the last year and apart from Warsaw it all white bloody great it is. A town called tychy in southern poland has NONE and its a quarter a million population,I love to go there,try it if you want no ethnics OF ANY KIND.
 </t>
         </is>
       </c>
@@ -5797,7 +5797,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -5813,7 +5813,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's headed for implosion. The Mexican government exists more on paper than in reality. Increasingly powerful narco-gangs are vying for control with the remnants of the Mexican state. For all you crybabies whining about how porous the border is right now, imagine what it'll be like when there is effectively no Mexican state.
+          <t xml:space="preserve">I personally met a survivor of the "Bataan death march". He was totured with hot candle wax on his back, you wouldn't believe the burn scars this man had on his body. He said the things he witnessed during still bring tears to his eyes, most of it he wouldn't even speak of, he barely survived from lack of food and water. It must have been horrific to endure, he absolutely hated japs, he made no bones about that. The japanese were not victims during WWII, they were a racist force that killed millions worldwide of all races, the chinese suffered very badly from jap occupation. The japanese got what they deserved in the end, they are just lucky it was not much worse than it was.
 </t>
         </is>
       </c>
@@ -5821,11 +5821,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
@@ -5837,7 +5837,7 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't think I need to mention this whole subject gives me the creeps. As far as I'm concerned, pedophiles should be castrated and given a life sentence if they've committed a sex offense, even if against only one child. Multiple sex offenses against kids should carry the death penalty. Any pedo who downloads child porn on his computer should be given a minimum sentence of 7 years and under court order restricted from owning a PC, living anywhere near a school, or from having any contact at all with kids professionally or socially upon his release. If he downloads or receives by snail mail any child porn where kids are tortured and sexually abused, then there should be at least a minimum of 25 years in jail without the possibility of parole. They'd totally dread the day I were president! I'd be the first one to earn "THE TERRIBLE" in my title.
+          <t xml:space="preserve">I heard it was white males across the board in terms of age. And understandably so. You're talking about millions of men who have nothing to live for. Teachers, parents, the media, etc. all let them know how unnecessary they are when at the same time expecting them to "suck it up" and support this pathetic excuse for a country that's not even theirs anymore. Christianity is infected so there goes spiritual inspiration. History is so biased that past events seem like they came from a distant planet. On top of this, after seeing brown people on t.v. all day, you go outside and see more brown people who hate you and your white neighbors who hate you even more. A "career" is more like spending 10 hours each day fighting with a pack of wolves when , 5-10 years later, you know you're getting layed off no matter how loyal or valuable you were. I wonder why these people haven't snapped sooner and gone on shooting rampages.
 </t>
         </is>
       </c>
@@ -5845,7 +5845,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>62.04</t>
+          <t>68.72</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -5861,7 +5861,7 @@
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
-          <t xml:space="preserve">If der fuehrer had won the war,had annihilated the mongrols and slavs in the east,had rid Central and Eastern Europe of the accursed jews,there would had been no cold war between Russia and the U.S. and most importantly the power of world jewry would have collapsed,though no doubt they would have remained influential in England and America. Of course France would have become German territory and there is every reason to believe that the Third Reich would have,if not straightway after its triump in WWII then at least inevitably set about to engage Britain and America in a new and protracted war through concentrated efforts by air and by sea,a full-blown invasion whereby to annex these countries as colonial possessions in the West,thats if one accepts that A.Hitler truly sought to establish a world empire ... had this been the case,there would be no modren concern over Spanish-speaking aliens,and the spooks and jews would themselves serve NO threat at all. KB
+          <t xml:space="preserve">The jews have declared open war on our people. Why are we helping these people? "Australian nurses and midwives are being forced to announce their 'white privilege' before treating Indigenous and Torres Strait Islander patients - a move which has been slammed as 'racist to its core'." Nurses forced to announce 'white privilege' when treating Indigenous | Daily Mail Online Sorry For Being White | Australia Nurses Have a New Shocking Code of Conduct - YouTube
 </t>
         </is>
       </c>
@@ -5869,11 +5869,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>88.85</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
@@ -5885,7 +5885,7 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t xml:space="preserve">[QUOTE=Monkey Mandela]Sadly, we have woken up too late. Nothing more can be done now. The number of politically correct race traitors in and outside our parliament and media, is growing day by day. And so is the constant arrival of immigrants. We have become an ethnic minority in our own country. Never say die MM The army which thinks itself defeated, is defeated - we are not! Far from it. Btw, how can you bear to use that man's name? I would feel contaminated by it..
+          <t xml:space="preserve">No apologies necessary. It's easier to fight the fight in India than it is in the US. However, the numbers of the lower castes are so huge that in the end who knows what will happen. And, it is those hoardes that are most visible. My parents call the Dravidians the natives. In general, we regard them as the absolute original inhabitants of the country. There are still regions in India (Nagaland for example) that have not been influenced by the Aryans and those people resemble the picture you posted. I'm still learning the distinction between the various white subclasses!
 </t>
         </is>
       </c>
@@ -5893,7 +5893,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -5909,7 +5909,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t xml:space="preserve">I remember the TV show "Baa-Baa Blacksheep" based on Pappy. I got no problems with the man and if he was part Souix then it didn't have much power over him. He was a Fighter Ace - nuff said. BUT here's my question: if Pappy had flown C-47's would we give a rats ass? Face it Coursair's are one of the COOLEST airframes ever. I like Bf-109's a lot more but that's just me.
+          <t xml:space="preserve">For the English, Scots, Welsh and Irish people who value Sir Winston Churchill's role in wartime in repelling the 'Blitz there are several monuments to his memory. Chartwell in Kent is now presereved for the nation by the national Trust with its rose &amp; water garden, magnificent views over the Weald of Kent &amp; Sussex. Chartwell in Kent, link. http://www.nationaltrust.org.uk/main/w-chartwell A second Chartwell (also a former home of Winston Churchill originally a simple fisherman's home 'Pear tree Cottage') is preserved in Overstrand an unspoiled seaside village on the coast of Norfolk. Chartwell in Norfolk is now a family home. lastly, the simple monument to Churchill at ther quiet church yard in Bladon Oxfordshire is an unassuming monument to the leader who can take great personal responsibility as the man who organised the end of the German bombing of white civilians in Ireland, Scotland, wales and of course poor bloody England. I have visited all three places enduring symbols of a man who represented a prime characteristic of the English people, the people that have always stuck 'two fingers' up to bullies.
 </t>
         </is>
       </c>
@@ -5917,7 +5917,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -5933,7 +5933,7 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yeah, relatively poor Mexico does the same thing. All it takes is political will. And in the case of these Jews: they did it by ignoring all the international laws they used to help Jews in an emergency. My dream is for the Greeks to be able to show up the Jews by having swift, legal, humane deportations. None of this three years in prison without considering refugee status. Simply, are you from a country with a civil war? No? Your boat leaves tomorrow.
+          <t xml:space="preserve">i wouldnt vote for a president who supports what israel is doing at this current moment. hes a weak hypocritical jew puppy dog "any state who uses religion as a means in conflict is a terrorist state" he said.. something like that anyway... he musta made 1000 references to GOD during his little campaign looks like your prez is another jew puppydog. weak.
 </t>
         </is>
       </c>
@@ -5941,11 +5941,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>55.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
@@ -5957,7 +5957,7 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excuse me "Bigtigger2", I addressed your post with respect, as I said you seem to be a Credit to your Race, in as much as you seem to be intelligent. However if you are simply here for a "Cerebral Brawl" with "White Folks" I will let you get on with it. I am sure there are people on our Forum who will oblige with a "Slagging Match". I am interested in your potential to anwser some serious questions. You have to accept the basic observation that our societies are at breaking point, $Millions wasted on people in incarceration. Millions flooding into our societies to undercut our work-force to work for low-wages. I accept your comment about "White-collar" crime, but we need to clear out the under-growth first before we get on the case of our people who are ripping us off. We will get there though.
+          <t xml:space="preserve">Reminds me of an old joke. "Moisha, why do you go to all these meeting of the antisemites? Well, you see, Shlomo, in real life I work as a fish seller in the market. But when I'm there - I control all the world's major media and financial institutions!" Seriously, how is stating, based on variety of evidence, that the number of Jews, who died either by German bullet or in concentration camps, is not 6mln, but merely 1mln, stupid?
 </t>
         </is>
       </c>
@@ -5965,11 +5965,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
@@ -5981,7 +5981,7 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t xml:space="preserve">True! Of course, we are living in vastly different times. This is after all the post-American era -- call it Judeo-America! Burn our capital down to the ground in the current era would result in millions of "Americans" (blacks and browns) rioting and looting the capital! They don't call DC the "District of Congo" for nothing...........
+          <t xml:space="preserve">We need a White Aryan uprising. I don't even care if it's a violent one or not, we might not even be able to resolve this peacefully anymore. Muslims aren't going to leave this country if we ask nicely are they? Islam is worse than the plague. If people don't wake up fast, this country is gone, and so is democracy. The Islamic Republic of Britain - sound good to anyone?
 </t>
         </is>
       </c>
@@ -5989,11 +5989,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>59.11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
@@ -6005,7 +6005,7 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t xml:space="preserve">According to etymonline.com: According to the History Channel documentary Ancient Discoveries -- Ancient Secret Agents (DVD): Thus, writing "ancient micro-dot copies" of Homer's Iliad may have come about b/c of spy-craft in the ancient world*.* A Carthaginian sea-captain sails his Merchantman into Rome's Ostia harbor, casually consuming a handful of nuts. Roman harbor security check him out, and authorize him to unload. After offering a Roman guardsman, the Carthaginian captain walks down the gangplank and dumps the rest of his "snack", w/ a wink, into the waiting hands of his unassuming contact on the dock... Do that enough, and you can bring the barbarians down....
+          <t xml:space="preserve">Yes, if thats what it takes to keep a country indigenous and white then I'll still take it.! Even if a govenment must keep the country economically poorer in order to keep those dirty buggers out it's still worth it at this point. i would still rather settle for an all white poorer one than a bloody immigrunt infested one. Transylvanian, you are locked in the past complaining about the historical missdeeds of the Soviets and the name "Communist." Even many nationalists in Russia will vote for the so called Russian communist party because it is actually more nationalist at this time than all of the other parties who have a chance to get in power. This is real politic and not textbook gradeschool debating.
 </t>
         </is>
       </c>
@@ -6013,7 +6013,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -6029,7 +6029,7 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Here is how to burn an iso properly: https://help.ubuntu.com/community/BurningIsoHowto For a new user, I guess Linux Mint is a good idea. DistroWatch.com: Linux Mint PCLinuxOS and its offspring (like Apartheid) are also very easy for beginners, and update continually to the latest software (without fixed releases). DistroWatch.com: Put the fun back into computing. Use Linux, BSD. has a good overview of the most popular distros. Burn a few and see what you like best.
+          <t xml:space="preserve">I have 2 Mossberg 590's here. Both are excellent weapons. I had to replace the mag spring in one of mine, so I did them both. Replaced them with Wolff brand springs. I'd recommend that to anybody with a shotgun. At least get the replacement spring and change it out when the factory one gets fatigued. I also am a big fan of the 870 Remington. Both are robust and reliable. I have heard both good and bad about the 500's. Had a carpenter who worked for me who had one that went to crap after about 500 rounds. But, they are guarranteed, so you just send it back if you have problems. Anyhow, good luck with your shotgun. It's one of the most versatile weapons out there. I think every WN home should have at least a dozen or so.
 </t>
         </is>
       </c>
@@ -6037,7 +6037,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -6053,7 +6053,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think it will be a stand of for many decades, with Israel attempting to shore up its control of the land in as concrete terms as possible and through demographics. Meanwhile the Muslims will maintain steady security pressure on them and have even higher birth rates. It will only be resolved when Israel loses international support. I can't imagine them ever making a peace deal without an intent to weasel out of it. If that ever happens it will only be as a side-show to a bloody conflict.
+          <t xml:space="preserve">"Another way of viewing the club is that of Metropolitan Seraphim, the bishop of Piraeus, who said that the Bilderbergers represented a “criminal cabal of world Zionism and its efforts to set up a cruel world dictatorship under the headship of Lucifer”. This line is quite common on the blogosphere, where the club’s secrecy is taken as evidence of evil intentions." http://www.timesonline.co.uk/tol/new...cle6283373.ece The same people that run the, Masons, UN, EU, World Bank, IMF, BIS, FED, Trilaterals, WTO, etc, run Bilderberger, they operate in darkness to enslave us, they are communists that are working to recreate their past creations. And yes, Lucifer is involved, Masons say so too, and Jew Rabbi's. Jews https://www.stormfront.org/forum/show...50#post6856550 FED https://www.stormfront.org/forum/show...25#post6856525 Demon worship https://www.stormfront.org/forum/show...8&amp;postcount=96 Communism https://www.stormfront.org/forum/show...3&amp;postcount=97 UN https://www.stormfront.org/forum/show...4&amp;postcount=93 they do worship Lucifer, Albert Pike says so too, look at a Mason https://www.stormfront.org/forum/show...&amp;postcount=100 JEWS, FED, MOB, MASONS, KILLED KENNEDY https://www.stormfront.org/forum/show...6&amp;postcount=99 KENNEDY ON SECRET SOCIETIES [ame="http://www.youtube.com/watch?v=FnkdfFAqsHA&amp;feature="]YouTube - JFK Blows The Whistle on Secret Societies![/ame] Brainwashed Mason worships Lucifer. "Lucifer, Grand Architect of the Universe." [ame="http://www.youtube.com/watch?v=XBjOs-egFMs"]YouTube - Mason - Shriner claims to be Lucifer[/ame]
 </t>
         </is>
       </c>
@@ -6061,7 +6061,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -6077,7 +6077,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t xml:space="preserve">"It was a real gas" - music reviewer at the J**ish Chronicle. As an aside I was in a European capital recently for the signing of a treaty and staying in the same hotel were some loud and obnoxiously noisy American orthodox jews. They were there for a few days and no could but help overhear them discussing that they were to visit Auschwitz. So off they went (and this is what I found ironic) they never came back.
+          <t xml:space="preserve">Seems like a good excuse for Britain to stay more powerful than others. Meaning they would not allow smaller countries to become as powerful as them. Of course, but what matters is that England went along with it and committed treason whether they knew it or not. I'm not really surprised that something like this would be even proposed in Britain, it is a travesty, indeed. Well, of course I'm sure they would but they would not do much with just two BNP MPs in the parliament and nationalists in America are virtually unrepresented.
 </t>
         </is>
       </c>
@@ -6085,11 +6085,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
@@ -6101,7 +6101,7 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Even the media now is starting to be more on the side of the Duke players than the strippers. However Nifong knows this has gotten out of hand and has shrewdly delayed the trial to a YEAR from now. By then we will have forgotten about it and the media will have moved on to something else. What other reason could he possibly have to delay the trial for so long?
+          <t xml:space="preserve">This makes my blood boil. These Muslim ******s have to be sent back one by one, they should shoot to stop and then arrest them after medical treatment and deportation. If any of their family is caught doing violent crimes too then everyone of them should be deported. In Sweden there has to be a law, if you are not from a European country, you can't get citizenship. If you brake the law, you get deported, simple as that.
 </t>
         </is>
       </c>
@@ -6109,11 +6109,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>54.56</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
@@ -6125,7 +6125,7 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm sure you appreciate the power and significance of words and the mass media. We cannot escape usage of the label White Supremacist on the airwaves. I think it's important to not use the label branded by our opponents, but select a name that is more favorable and accurate. Like abortion: proponents call themselves pro-choice, but opponents call themselves pro-life. Our opponents are calling us white supremacists, but what are we going to call ourselves? Words do matter. I have communicated with news outlets about biased language, and it does make a difference when people complain, and refuse to use the biased labels branded by the mass media. EG I complained recently to a local radio station about them always saying pro-choice instead of pro-abortion, and host larry mantel wrote back saying that my complaint is legitimate and he will attempt to use more neutral language.
+          <t xml:space="preserve">I'm sorry to hear it - personally I was hoping they would hack the stupid interfering do-gooding 'aid worker's' stupid head off! I really was!! I personally detest this particular branch of 'humanity' with their wishy washy liberalism and subversive agendas - What the hell is she doing there anyway?? Time to keep sticky beaks out or take the consequences I say...
 </t>
         </is>
       </c>
@@ -6133,7 +6133,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>56.01</t>
+          <t>99.68</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -6149,7 +6149,7 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t xml:space="preserve">[email protected] Welcome to this forum and to Stormfront. Your post singles out individuals rather than ideas. Not good! I believe that the Klan has a serious image problem, we know why that is. The Jews have made every movie and TV show for the last five or six decades. Instead of showing the Klan protecting a disarmed and occupied conquered South from the ravages of Jew carpetbaggers and roving gangs of freed Negroes the media has created a caricature that the general public has accepted. Just the way it is. The same goes for all things associated with Hitler and Nazi's.
+          <t xml:space="preserve">If it was your daugther you wouldnt be saying she done her time youd want her scalp lets be realistic here and stop sticking up for a child rapist and killer, she pimped her own sister to her husband for god sakes. Oh I forgot blame the Jews for that aswell.
 </t>
         </is>
       </c>
@@ -6157,11 +6157,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
@@ -6173,7 +6173,7 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yeah, I noticed that this morning when I tried to access the site. Thought it might be just some technical problem, but intuition started to make me suspicious. Does seem like these attacks are increasing in frequency as well as intensity. I agree someone out there must be getting nervous about some aspect of the activity he/she has seen here.
+          <t xml:space="preserve">British by passport. We do not mutilate the genitals of our offspring. Savage. Kosher and Halal, are indistiguishable. Barbaric. We do not hide behind quasi religious taboo's. Jews occupy Palestine based on a myth, that a voice was heard in a burning bush. Get over it. Grow up. Take responsibility for your oddball out of step conduct, and the consequences.
 </t>
         </is>
       </c>
@@ -6181,11 +6181,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
@@ -6197,7 +6197,7 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t xml:space="preserve">I dont think that femenism has anything to do with this. For instance, in Uk is really sick to see all this hapening. I was there last year and to try to talk with a British men is imposible, first of all they wouldnt talk with you if you are a White i think, and less if you are European. THe only thing that british men talk to now it is to what is not european or non white, as if it was something that to be proud of. It is the end of the civilization. I think this example can be applied to the rest of White men all over the world nowadays
+          <t xml:space="preserve">Saudis spend 200mil$ a year just to whitewash Islam. Any time you hear crap about "Islam is a peaceful religion" you know where that money went. Maybe America has strong AIPAC lobby, but all you hear from Europe is whining about "poor Palestinean children". Zionism has nothing to do with Islamization. I never implied we need them for anything. But: 1. they did not "create" any of these issues 2. nothing is wrong with learning from Israeli policy in Palestine. Ever heard the term "benchmarking"? 3. if some Jews hate the new left just as we do, why should we hate those specific Jews? Not really. The Jews took what was left after February 1917. Not really. Third Reich managed to set the greatest powers against it purely because of its foreign policy. Edward Luttwak wrote a lot about it in his books. Then don't. Just look at what Israel is good at and how it manages to pull it off.
 </t>
         </is>
       </c>
@@ -6205,11 +6205,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>72.68</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
@@ -6221,7 +6221,7 @@
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t xml:space="preserve">This mutant simply MUST NOT be allowed to stay. Otherwise, we will see so many applicants, you could grow an entire rainforrest with the paper used by them. Not just here, but basically EVERYWHERE in Europe would get this influx. Even if she hadn't turned out to be a lying, silverback ape, anything other than a rejection of her appeal will spell serious issues ALL OVER EUROPE within WEEKS, never mind months. Our supreme court better not screw us or else were f**ked.
+          <t xml:space="preserve">That's really my whole point, Federico II. There aren't too many other nations, (maybe Greece) that can lay claim to such a rich, long and glorious past as Italy can. Other European nations have also had great empires and made tremendous contributions to Western Civilization but they're all just the children of Greece and Rome. In my opinion, when someone questions the 'whiteness' of Southern Europeans in general, or Italians in particular, they're only showing their own stupidity and lack of historical knowledge. Why not have a thread celebrating the accomplishments of Italians? It could easily get to be a very long thread!
 </t>
         </is>
       </c>
@@ -6229,11 +6229,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>56.73</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
@@ -6245,7 +6245,7 @@
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t xml:space="preserve">You have single handedly made the white race that much less, you could of made two beautiful white children, but you made the choice to throw your heritage down the drain and destroy a white bloodline. There is no pride in that. Congratulations on speeding up the death of your own race. So yes, you are a traitor.
+          <t xml:space="preserve">This is not strictly true, egalitarians are about groups and group rights. Especially that non-white groups have the right to succeed at least at the level of heterosexual white males. Egalitarians at least pretend to believe that all groups are on average equally talented. If you for example say "I believe that everybody should have the same right/opportunities but the reality is that black people are on average less intelligent" then egalitarians will be furious. The main idea that they are pushing is that no group is on average worse than heterosexual white males. Most of them, or maybe even all of them seem to be OK with non-white dominance in some field (such as some sports). Thus, to me it seems like the egalitarian position is that the heterosexual white male is some kind of worst possible group, if some group is doing worse, then it's due to some kind of nepotism.
 </t>
         </is>
       </c>
@@ -6253,7 +6253,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>61.02</t>
+          <t>97.59</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -6269,7 +6269,7 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quit your deluded talk. National Socialist policy has nothing to do with the three above you mentioned. You can read these for yourself! It is from National Socialism archives and documents, it has nothing to do with the Jew. Have you even read Mein Kampf? Yeah because they will know what happened with Germans and foreigners if found guilty of sexual relations. I've just showed you so much evidence yet you are in denial, its a sad case really. What makes their statements anymore valuable than "Holocaust survivors" who have been exposed as liars? They opinions do not refute what I have just shown you neither.
+          <t xml:space="preserve">Jewliani doesn't have a snowballs chance in hell of being elected. this is simply a setup for a Clinton/ Obama presidency plain and simple, once again advertised as the supposed "lesser of 2 evils" Don't vote for NEOCONS ever again, they are jew worshipping trash who place Israel in front of the USA every single time. Jewliani is a piece of **** prior to 911( he still is now) he was a very hated man in NYC. Jewliani had a major part in the 911 attack, believe me here, don't reward him for this.
 </t>
         </is>
       </c>
@@ -6277,7 +6277,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -6293,7 +6293,7 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you very much. The translation is going on. I don't speak Afrikaans, but I have a very basic level of German, which is pretty similar to Afrikaans, so it will be easier for me to do the job. Indeed, it is not going to be an exact translatio. For example, "Stem" means "Call", but I translate it as "spirit", because it makes much more sense that way, at least in Spanish, while the sense of the song will keep being the same.
+          <t xml:space="preserve">The vast majority of people are completely brainwashed by the media and regard opposing the race replacement of native British people as nothing but racism. That’s what the media says, and the vast majority of people just go along with their narrative. Most people regard the few who oppose non-white mass immigration as the problem, the “racists”. The British must be the least racially aware people in the world, most haven’t got a clue about race and can’t fathom why anyone would care about race. That’s the mentality we’re up against in this country.
 </t>
         </is>
       </c>
@@ -6301,7 +6301,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -6317,7 +6317,7 @@
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t xml:space="preserve">CEO At Jewish Firm Warns Employees To Keep Low Profile (Reuters) - Goldman Sachs Group Inc Chief Executive Lloyd Blankfein told employees to avoid making high profile purchases, the New York Post said, citing sources. Blankfein, who first asked employees to avoid large purchases late last year, has stepped up his campaign in recent weeks, a source told the paper. "This is a sensitive time for us, and wants to make sure that we're not being seen living high on the hog," the paper quoted an anonymous Goldman executive as saying. Goldman has faced a torrent of unwanted publicity recently including an unflattering story in Rolling Stone magazine, which accused the bank of having a key role in various market bubbles stretching back to the 1920s. http://www.reuters.com/article/newsO...5732GJ20090804
+          <t xml:space="preserve">So you learned that it's only human to cheat on your wife, beat women, use church collection basket money to hire prostitutes, claim to be God, cause riots, etc... They might as well rename that class "Marxist Brainwashing 101" On top of that his motive wasn't so good either. MLK was extremely racist, ever since he was a little kid he said he hated all white people, he formed protests to make bus drivers lose their jobs simply because of their skin color, etc... Most people base their view of him just on exerpts from speeches he gave selected by anti white groups that talk about peace and equality. When everything he actually did was the try to achieve the exact opposite. If he was born white do you really think he would have the slightest concern for black people? The only reason he sometimes talked about peaceful resistance was because he knew in a fight the blacks would get crushed.
 </t>
         </is>
       </c>
@@ -6325,7 +6325,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -6341,7 +6341,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t xml:space="preserve">I thought teenage girls, with no self esteem and with daddy issues or self hating liberals were the real problems but i find this new trend very disturbing idk if it's just me but we all know Asian (Chinese looking) are a issue with many fellow White Americas, especially men going into relationships with them but lately out of the few conservatives i know have been engaging in relationships with indian women ! it's now common in NJ/NY but one of my former classmates got married to one of those dirty skin women and he lives in NC, why are they doing it ?
+          <t xml:space="preserve">Hah there wasn't really the concept of homosexuality in those days mate. In most cases it wasn't someone being a "fagg" it was more a matter of convienience if you know what I mean. Spartan soldiers were not allowed to be in contact with women although it was encouraged for them to do so secretly (also to steal items such as bread), as this honed their discipline for sneaking for lack of a better term. If a Spartan soldier was caught he was severly punished.
 </t>
         </is>
       </c>
@@ -6349,7 +6349,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -6365,7 +6365,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'd say avoid the overuse (or misuse) of differential intelligence data between the races. I hasten to add that I do not dispute the conclusions of Mr. Rushton, Arthur Jensen and others. What I wish to point out simply is that intelligence is only one of several factors determining which race leads and which follow. Other factors include: bravery, audacity, and the general willingness to take risks. From Waaay Out West, --HLM :smoking
+          <t xml:space="preserve">Something to think about ....... Don't you love the way bread smells when it cooking and how fills the house with that yummy yeasty smell. So won't the people that haven't ate in a bit. You'll have a mob looking for that smell. Yeast when cooking will hang in the air, thats why a house smells so good for a day or two after making bread.
 </t>
         </is>
       </c>
@@ -6373,11 +6373,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>55.61</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
@@ -6389,7 +6389,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t xml:space="preserve">So if you are at liberty to delete posts why dont you allow that WN to delete his posts or even his account? He asked to be deleted ( But you did NOt delete him; you simply made him inactive.) Double standard anyone? Oh wait Im probably talking to myself again. You seriously dont remember that post of mine you REJECTED just last week?? Because I do. You must get many THOUDANDS of posts every day if you cant remember something from just last week, MR VIKING
+          <t xml:space="preserve">oh my god that is so true... I'm laughing but it's humiliating as hell. There's nobody I hate more than those people. Kanye West... dear god... Pretty sure he's the one that made a video featuring himself carrying around the severed head of a white woman ("Monster", idk), and conservatives can't stop worshipping the guy. If they love homicidal negroes so much why don't they just move to Africa. ^^Based Trump supporter^^ Christ I hate conservatives... This forum desperately needs a vomit icon. .
 </t>
         </is>
       </c>
@@ -6397,7 +6397,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -6413,7 +6413,7 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Come to think of it, I wonder if Mandie has money for bail and for competent legal counsel. What do you think, ladies and gentlemen, maybe we should do some fund-raising on her behalf. We all know that you cannot get justice unless you have money, and that could easily be one of us jammed up by some Mike Nifong-type of rogue prosecutor. A lot of us kicking in a little bit of money could make a big difference here. I'll get Mandie's address in jail. People who have been in the joint tell me that letters from the outside make a huge difference in terms of lifting their spirits.
+          <t xml:space="preserve">Over the weekend some stuff went down in Gothenborg (sp?) Sweden, between Antifa and residents of the town. I noticed that there were an awful lot of swarthy individuals in AntiFa's ranks shouting "Alla akbar". So this would not be the first time they've joined up. And, to be honest, AntiFa would be stupid not to use their help, what with all the raghead-love being espoused by the Left for so many years - some people still think they're innocent little lambs.
 </t>
         </is>
       </c>
@@ -6421,11 +6421,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
@@ -6437,7 +6437,7 @@
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Boer and Southern Planter elite classes are the exact same in desires, and in situations. There is a reason that the Afrikaners who forged their new government under the National Party chose to duplicate the Southern US's "Segregation" method. But what those men failed to recognize is that Segregation was temporary and could not last; slavery and its patriarchal forces were permanent...as history has proven, but segregation would only lead eventually to conflict between the separate ethnic groups fighting over the same land.
+          <t xml:space="preserve">Penile castration has been tried before, both types. Pedophiles and rapists can overcome chemical castration by using steriods. The other option, physical castration, has also been unsuccessful. The problem is inside their head's. Without a penis they can still victimize the innocent person in other ways. Life in prison would be a suitable punishment, but we should not waste the money on them. Sure, they will abused in prison, (Probably sexually.) but the money should be spent on helping the victim(s). Sex offenders are degenerates with no conscience. People like that don't deserve mercy. The only proper punishment is death. I don't mean lethal injection or the firing squad because that's an easy way to die. The method should be the electric chair. Really anything that causes pain will be enough. These sick losers should have to fear their execution date. Sex offenders will usually victimize alot of other people before getting caught. Keep that in mind.
 </t>
         </is>
       </c>
@@ -6445,7 +6445,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -6461,7 +6461,7 @@
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's bull****, trust me. The readings are inaccurate when it comes to new worlders. There has not been one American that I have seen who does not have at least 0.1% SOMETHING non-white on that BS ancestry composition, and I have seen hundreds. 23andme's original ancestry painting was accurate. And, if you REALLY want even MORE accurate information than 23andme can provide, give your results to Professor Mcdonald. It's funny, because while NO AMERICAN has 100% European on there, and always has 0.1% of some BS, EVERY person that is from Europe is ALWAYS 100% European, which is such a joke. For example, I have seen tons of SICILIANS and PORTUGUESE that have 100% European, when that's laughable because of the fact that these populations on average have at least 1% African, due to middle eastern admixing. Trust me, it's complete BS, and apart of the moron who they had create the 'ancestry composition's' pro multi-racial agenda.. Their sources/methods are beyond faulty. As I said, if you want REAL results, send your data to Professor Mcdonald or use the free utility that was created by Stanford, Interpretome.
+          <t xml:space="preserve">Well, thank you! I managed not to swear today! I even tore a muscle in my gluteus maximus this morning and it's impossible to walk (note to self: if it won't stretch, don't make it stretch), and I had to chase one of the dogs up a flight of stairs when he took my lunch off the counter. I did not swear. I also didn't murder him. I really wanted to, but I didn't. My butt is killin' me and my eye won't stop twitching, but so far so good!
 </t>
         </is>
       </c>
@@ -6469,7 +6469,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>99.57</t>
+          <t>96.73</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -6485,7 +6485,7 @@
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blacks gathering - It's pride. It's all those years of slavery and oppression. Black panthers calling for death of whites. "No problem!" Hispanics gathering - They're a proud, hardworking people that just want a better life. They must gather for equal rights. Let them come to your country and do as they wish. They're driving down wages? Nah, they're just taking the jobs no one else needs. Asians gathering - Own many of their own businesses. Mostly asian only employees. That's ok they just want a better life and rights like everyone else. Whites gathering - "****ing Racists!" "Hitler!" "nazis Go home!" Sound familiar? It's what jews shove down our throat on a daily basis. First step to addressing the problem is sending pinnochio to Israel and then severing all ties.
+          <t xml:space="preserve">Okay now I've watched it. I must say it must drive the Jewmedia mad that these highly skilled aeronautical scientists and engineers are speaking with such great admiration and awe of WW2 era German (i.e. "filthy stupid Jew murdering jackbooted Nazis") technology... This is not one of those cases where they can squeal Anti Semite Anti Semite Jew Hater Ostracise Holocaust™ Fire them Crucify! Death murder kill! As these men are all scientists and engineers who have contributed such an immense amount to US air technology advances that their credentials can be questioned but the skills not lost...
 </t>
         </is>
       </c>
@@ -6493,7 +6493,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -6509,7 +6509,7 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t xml:space="preserve">You may be what I have suspected for some time on this site, an example of a government plant to pollute and minipulate the way people think on this site.There is nothing right about racial erasing(mixing) and there never will be. As for the phrase"American",I do not apply that to myself and I have that flag "X" ed on my the back of my jacket in large text. If your just a liberal, we(racists) do not agree with you and will keep your way of thinking away from our children,since whites are a choosen people and not to be adulterated as the bible states about staying away from other races.If you are a plant,you are a poisonous serpent to our people's mind's and the future of white societies and you should just leave this site now.:attack
+          <t xml:space="preserve">Dont dispair there are many ways of dealing with the anti social trash of society im sure you can figure out the less than legal ways but there are also legal things you can do.One thing pikeys hate is the old bill, its a sure bet they use drugs they almost all do. An anonymous call made by yourself or someone on your behalf to your local police station they have to respond
 </t>
         </is>
       </c>
@@ -6517,11 +6517,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>97.95</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
@@ -6533,7 +6533,7 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t xml:space="preserve">To be honest the part in this video where Duke is in a midst of towelheads being cheered on made me sick to my stomach. I can't stand this muslim hugging, its like spitting in the face of every european who faces murder and gangrape every single day by these people. The enemy of my enemy is certainly NOT my friend. I dislike Israel as much as everyone on this board but I have no sympathy for any arab or muslim, they are are Europes mestizos and blacks all rolled into one.
+          <t xml:space="preserve">What is your favorite thing to do? Make love with a beautiful Aryan woman. What is your favorite food? Grilled lamb ribs What is your favorite book? My awakening What is your favorite candy bar? Bon Bon Bum What is your favorite cookie? Chocolate Chip Cookies What is your favorite sport? Soccer What is your favorite kind of music? I think soft rock, or anything that's easy listening. What is your favorite song? Maybe Mother by Era lol. What place you would like to know about? Germany before WW1 What place would you like to visit? Iceland What is your favorite thing about yourself? Being White. What musical instruments can you play? Some Guitar What is your favorite type of art? Architecture What would you like to teach others about? Respect, dignity, pride, loving your own. What are three adjectives which describe you? Proud, brave, gentleman When you have an hour of free time, what do you like to do? Think What is the strangest thing you ever did? Had an affair with my uncle's ex-wife What is the strangest food you ever ate? Boiled dove
 </t>
         </is>
       </c>
@@ -6541,11 +6541,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
@@ -6557,7 +6557,7 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Black children subjected to higher discipline rates than peers Michigan News, July 17, 2018 Black children subjected to higher discipline rates than peers | University of Michigan News ANN ARBOR - Elementary school discipline policies that rely on expulsions or suspensions as punishment may be fostering childhood inequality, a new study shows. {}
+          <t xml:space="preserve">Allow me to retort. What I am saying, is calling for a race war is the stupidest thing that you morons can do. Hardly a surprise, but stupid. Getting into a war with Whites leads to annihilation. Ask the Aztecs..................You can't, they're ALL GONE. Judging from your nearly illiterate response, I will try to dumb this down to a level even one as dim as you can comprehend. BlackHS, is calling for a race war. I am all for BlackHS removing himself from this mortal coil. Crack cocaine, jumping off of a bridge, whatever. I don't wish to see all of his fellow blacks join him. A race war with Whites would mean the extinction of the aggressing non-whites. Extinction means all gone. No more. Nada. Nil. Game over. White Nationalist are not advocates of violence, period. Besides, you totally missed the point. When your spelling, and grammar skills exceed the abilities of an average 8 year old, maybe I'll show you a little respect. Until then, retard, piss off.
 </t>
         </is>
       </c>
@@ -6565,7 +6565,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -6581,7 +6581,7 @@
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t xml:space="preserve">100% correct but see the difference here is guerrilla warfare is used as a tactic to assist in achieving broader successful outcomes of a conventional war. It is akin to the way the WW2 Germans used the Brandenburg Division and SS to infiltrate US lines in the Ardennes to sow panic ahead of the main conventional attack. Correctly ne would rather refer to that as deep penetration raids ... these are performed by regular troops in uniform performing dangerous tactical maneuvres. In the case of guerrilla warfare as a strategy the entire army is built on the premise that ongoing guerrilla warfare can achieve strategic success... and that is a myth.
+          <t xml:space="preserve">Let's not forget that Zimmerman waived his right to a "Stand your Ground" defense, in favor of Self-Defense. The message is that even based on just Self-Defense, Zimmerman was innocent. Has anyone else noticed this: Zimmerman was largely Hispanic. But the people being persecuted by the blacks are White. Matthew Owens Of Alabama Allegedly Beaten By Mob In 'Justice For Trayvon' Rage Trayvon Mob Members Smack White Houston Grandmother ? Won?t Let Family Take Child To The Hospital | Source One ? Independent News And Views Please excuse any liberal sources but even they were a little shocked by what happened. This doesn't look as much like vengeance for Trayvon as it does a simple "Attack Whites" campaign. If it was crime/race-related vengeance, shouldn't they be attacking Hispanics or half-Hispanics? No, this is just another fabricated excuse to attack Whites.
 </t>
         </is>
       </c>
@@ -6589,7 +6589,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -6605,7 +6605,7 @@
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's been a long time since I dealt with high school math notation. The following is the solution to the question as provided by the poser of the question. See the two specimens of notation indicated by the red pointers. The first shows the contents of the parens, 10, being multiplied by 2. The second one shows the contents of the parens, 20+a, being multiplied by 100. Yet, in the original equation, s(p) does not indicate multiplication of s times p. The term "function" was used in conjunction with this equation. Does this make a difference? This is what fouled me up. P.M.
+          <t xml:space="preserve">I sent a card and replied to his last letter to me. I told him I couldn't wish him a 'Merry Christmas' as he wouldn't be having one. I did tell him, however, that all over the country, glasses will be raised to him at Yuletide. He will not be forgotten!
 </t>
         </is>
       </c>
@@ -6613,7 +6613,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -6629,7 +6629,7 @@
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sometimes men are so silly...I see men asking about Russian women quite often, and now about Serbian women! What you men need to know: All women are trouble! Plus, we are expensive! One thing you know you love a beautiful girl, next thing you look in your bank account and wonder where all the $$$ went...ah, you have spent it on all the dinners, the movies, the gifts to win her love!
+          <t xml:space="preserve">I definately think it should be highly regulated to ensure against creating half breeds (white sperm with a black mother) or to get a lesbian pregnant, etc. I'm sorry, but I completely disagree with you......but it's a personal opinion. Personally, If I were a sterile man, and we went the artificial insemination route, I most DEFINATELY would not want to know the donor. It would be hard enough knowing my wife had another man's baby (clinically and genetically), but I could imagine several scenarios where things could get very complicated with a possible relationship between the donor, and the child. Not good, I would think.
 </t>
         </is>
       </c>
@@ -6637,11 +6637,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>71.05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
@@ -6653,7 +6653,7 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genocide means the deliberate extermination of a nation and/or people. As of 2006 there has never been a referendum, or even an objective parliamentary debate in the UK discussing the merits of multiracialism, it has been accepted by the powers that be who choose to impose it, and stifle any opposition against it. The UK government’s own figures on demographic change state that whites will become a minority in the UK before 2100. Yet the government still does not see fit to allow the indigenous inhabitants of the UK to have a say about this most important question our nation faces. Multiracialism is a deliberate policy, not a force of nature, and the government knows the results. That is genocide in my book.
+          <t xml:space="preserve">Interesting,that Lucas Films would name the Jedi Ezra. Ezra, in the Old Testament, preserved and protected the Jewish race. Yes, race. He didn't want no race mixing among the Jews. He told those Jewish males to get rid of their foreign wives and get back in the fold. Ezra - Chapter 9 verse “For they have taken of their daughters for themselves, and for their sons: so that the holy seed have mingled themselves with the people of those lands: yea, the hand of the princes and rulers hath been chief in this trespass.” Ezra was a racial purist for the Jews.
 </t>
         </is>
       </c>
@@ -6661,11 +6661,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>84.89</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
@@ -6677,7 +6677,7 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Which you know nothing about. #NotAnAnswer How about you and your junglebunny scurry back to whatever east Asian craphole you slithered out from and eat rats and fly-blown chicken feet the way your gods intended for you to do and stop worrying about people who don't belong to you? We don't belong to you, you don't get to say what we do.
+          <t xml:space="preserve">And even those ones were white. The point of this thread is to show, that nazism is not about hating other races. A black and a white person can be friends. But what nazism is about, is having different races live on different territories under different rules, for integration always leads to mutual hatred.
 </t>
         </is>
       </c>
@@ -6685,11 +6685,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
@@ -6701,7 +6701,7 @@
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
-          <t xml:space="preserve">What do you think is happening to our race via mass immigration, low birth rates and the promotion of this democide by government and media? White Europeans are a minority in this world; in nations in which we become powerless minorities we end up being persecuted and murdered. In democratic states where one man equals one vote becoming a minority means losing political power. My racial group is a minority in the world and I do not want to end up a powerless minority in my land nor do I want my future generations to suffer this fate. I do not care about IQ tests, superiority complexes or whether some Asian people have degrees; this is about survival and nothing but survival. If you say that this world is for all of us and truly believe it you should support the rights of white people to have a land of their own in which to prosper and live in peace.
+          <t xml:space="preserve">Exactly. I just got done saying this in another thread. There will be no negotiations, no settling, and no tolerance levels. If you believe in White survival, you believe in White separation. Whites who mix are no allies of ours and never will be. A White man who sleeps with Asians is no better than a White woman who sleeps with Jews or Arabs. Both are disgusting, no matter the rationalizations.
 </t>
         </is>
       </c>
@@ -6709,7 +6709,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -6725,7 +6725,7 @@
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t xml:space="preserve">This statement is much less true today than it was prior to the advent of modern media. We are able to record and save nearly everything now. This does not eliminate bias by any stretch, but it does allow for much more objective analysis and by many more people. How anyone could conclude that neither the Allies nor Axis Powers can be accurately identified as the "good guy" or "bad guy" is beyond me. To argue that the Axis Powers were the "good guys" would be about as absurd as arguing that Napoleon and France had every right to own all of Europe and was somehow therefore the "good guy" during that period of conflict. (Hitler sure as hell was no Napoleon Bonaparte though, not even close.)
+          <t xml:space="preserve">There was a thread around Dec./Jan. where people had images of a large number of central Asians in Russia, and the Russians said this was a newer thing. This would suggest that there still used to be people who looked approximately white in Russia, and that the shift isn't toward Muslims per se but specifically Asiatics racially.
 </t>
         </is>
       </c>
@@ -6733,11 +6733,11 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>96.74</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
@@ -6749,7 +6749,7 @@
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t xml:space="preserve">What a great topic. It would be good to have a whole new section of SF devoted to it. Family Search is good and free. Also, just Google your name combined with known locations of your family because sometimes other members of the family already did the hard work. 4th generation American, 98% ethnic German, 2% Scottish. Damn him.
+          <t xml:space="preserve">This is an excellent idea, especially for blacks. Seeing that all they buy with their welfare checks are plasma-screen t.v.'s, spinning 20" rims, etc. If only we could slip one by our jew government, negroes would be overjoyed to copulate with one another without the threat of pregnancy and get paid for it, too!
 </t>
         </is>
       </c>
@@ -6757,7 +6757,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -6773,7 +6773,7 @@
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t xml:space="preserve">I want to see MORE signs. I want to see big fat guys with bullhorns in their mitts! How about some pitch forks and torches? Maybe something Arabish like a stuffed politico, soon to be torched. How about a few inverted flags? Better yet, how about burning some Mexican flags - after stomping on 'em? I want to hear voices raised in unison chanting something like: Down with Biden - down with 'Bama, You're big fat liars - so's yer mama!! I want to see big, tough guys pointing fingers, (or flipping them), and wild-eyed women screaming at the top of their lungs! Maybe they could use my wife.
+          <t xml:space="preserve">Possibly, but there is always the risk of getting jail time in court for doing that. I'm not saying that I disagree with doing it, just that it is always a risk, and I'm sure he had that in mind. Regardless, I wouldn't be losing sleep if that was what he did.
 </t>
         </is>
       </c>
@@ -6781,7 +6781,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -6797,7 +6797,7 @@
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t xml:space="preserve">There's every reason to be positive, it's just that the state is not going to represent or protect us, we're going to have to go our own way and start playing the same minority power games as the others until the state implodes or becomes irrelevant and we can't bleed any more resources from it. Then we'll see, I suspect the other racial groups will be a lot more eager to come to terms than the anti Whites among our own people and the shoe will rapidly be jammed on the other foot as far as the rats in the ranks are concerned, remember everyone loves a scapegoat, if the non White power groups aren't getting their dues they won't be looking at us, they'll be looking at their sponsors and benefactors
+          <t xml:space="preserve">The reason I'm asking is because I've been watching a lot of the whining from liberals about the Trump election. People fire off with all sorts of stuff like "I'm afraid for the LGBT community, I'm afraid for the black community," etc. So I'm asking you, are you afraid? Do you think your going to be sent to a labor camp to shine boots for the military if your gay? Or do you think your going to be sent back to the cotton field if your black? I'm just wondering. I welcome any comments from members but I'm hoping some of these temper tantrum throwing liberals will come forth with their ideology. Are you afraid or are you just mad that your socialist mommy did not get elected? If you support her you have no idea what direction she would have put our country in. You may not be stupid but you are indeed uniformed. If I'm wrong then explain to me how I am wrong.
 </t>
         </is>
       </c>
@@ -6805,7 +6805,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -6821,7 +6821,7 @@
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Of course they should be disarmed immediately with their reputation for aggression and hair trigger paranoia. I'll add as well that if that were to happen we would have to supervise that closer than anything has ever been supervised. They will do anything possible to hide a few nukes just in case. We should simply place debilitating embargoes on them until they comply. Of course all this is a long way off, but we are waking up.
+          <t xml:space="preserve">My newest Auckland University student magazine informs me that homosexuality is now "cool". On pg.25 it says "Euro is most often the boy of choice". This shows that white males are thought the most popular amongst gays, just as white girls are the most popular amongst straight people of all races. Apparently its okay to point this out regarding gays, but not straights. The message is clear: white guys becoming gay &amp; not producing white children equals good, white guys breeding with white girls to have white children equals bad. I really understand now why anti-white jews have latched onto homosexuality as a weapon in their arsenal.
 </t>
         </is>
       </c>
@@ -6829,7 +6829,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -6845,7 +6845,7 @@
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, TAR is an apt description. These (white) teenagers will probably end up getting married or shacking up with their mud friends, and have a whole string of kids, all "being touched with the TAR brush". For those who have not yet heard this expression, in the old days it meant whites having black blood in their lineage. However, we must bear in mind that this is all part and parcel of ZOG's new world order to mould mankind into a single grey, mindless conglomeration of mindless slaves which they can then rule at will. Read the protocols of the elders of zion at: http://abbc.com/protocols/indexen.htm Heavy reading, but very essential to learn just how they planned the nwo centuries ago and which is now being put into effect.
+          <t xml:space="preserve">Maybe he is a white man pretending to be an Middle Easterner pretending to be a white man, to make fun of both us and Middle Easterners at once? Anyway, I found out that it was Sudan, and a goat, not Afghanistan/Pakistan and a sheep: BBC NEWS | Africa | Sudan man forced to 'marry' goat Quoting a town official involved in the decision:
 </t>
         </is>
       </c>
@@ -6853,7 +6853,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -6869,7 +6869,7 @@
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sayanim Israeli Operatives in the U.S. - Americans know that something fundamental is amiss. They sense—rightly—that they are being misled no matter which political party does the leading. A long misinformed public lacks the tools to grasp how they are being deceived. Without those tools, Americans will continue to be frustrated at being played for the fool. When the “con” is clearly seen, “the mark” (that’s us) will see that all roads lead to the same duplicitous source: Israel and its operatives. The secret to Israel’s force-multiplier in the U.S. is its use of agents, assets and sayanim(Hebrew for volunteers). When Israeli-American Jonathan Pollard was arrested for spying in 1986, Tel Aviv assured us that he was not an Israeli agent but part of a “rogue” operation. That was a lie. Only 12 years later did Tel Aviv concede that he was an Israeli spy the entire time he was stealing U.S. military secrets. That espionage—by a purported ally—damaged our national security more than any operation in U.S. history. In short, Israel played us for the fool. http://www.informationclearinghouse....ticle25976.htm
+          <t xml:space="preserve">There has been catering to Africans since I was a kid. I grew up in a super religious home and listening to one missionary after another with their tales of the lost people. Then there have been the countless "aid" concerts for dozens of years. Then all the aid to Africa from America. ..........and yet NOTHING changes. Not a damn thing! How in 2013 can there even been people living like that? Why is this? Because they lack the ability to make changes in their own lives. Something is missing in their brain. Those countries have been given billions and they still live in the stone ages! The missionaries do not teach them to fish for themselves. they just teach them to read the Bible so they dont go to hell. The foreign aid does not teach them to fish for themselves, it just lines the pockets of black slave owners (that literally is what they are). Even NOprah cant even get a school running for the poor black africans who alledgely deserve to live like the whities. Its all a total cluster* and a true definition of insanity. The world keeps on repeating what does not work.
 </t>
         </is>
       </c>
@@ -6877,11 +6877,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
@@ -6893,7 +6893,7 @@
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't see how it is imperialist. I just see America as more of a place where Americans can draw from their various and unique Caucasian Backgrounds back in the old world and integrate it into what used to be a unique Western, a unique american culture(unfortunately that is dwindling into the corporate and soulless abyss today). And on a historical note, a good many Germans were Catholic, and many British and Scottish descended Protestants were initially concerned that they were loyal to the Pope before America. Which is absurd, and ironic coming from a group of people who belong to the Church of England which is run by the British royal family. I think at the end of the day, Catholic or protestant is irrelevant.
+          <t xml:space="preserve">Japanes civil rights are fine, also do you beleive that western women preferr the standards of living in europe or the famine in places like ethiopia? Civil rights? famine and filth in ethiopia and other places in africa is better than europe? Those western women really need some black to give them rights dont they?
 </t>
         </is>
       </c>
@@ -6901,7 +6901,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -6917,7 +6917,7 @@
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dont dispair there are many ways of dealing with the anti social trash of society im sure you can figure out the less than legal ways but there are also legal things you can do.One thing pikeys hate is the old bill, its a sure bet they use drugs they almost all do. An anonymous call made by yourself or someone on your behalf to your local police station they have to respond
+          <t xml:space="preserve">Blacks gathering - It's pride. It's all those years of slavery and oppression. Black panthers calling for death of whites. "No problem!" Hispanics gathering - They're a proud, hardworking people that just want a better life. They must gather for equal rights. Let them come to your country and do as they wish. They're driving down wages? Nah, they're just taking the jobs no one else needs. Asians gathering - Own many of their own businesses. Mostly asian only employees. That's ok they just want a better life and rights like everyone else. Whites gathering - "****ing Racists!" "Hitler!" "nazis Go home!" Sound familiar? It's what jews shove down our throat on a daily basis. First step to addressing the problem is sending pinnochio to Israel and then severing all ties.
 </t>
         </is>
       </c>
@@ -6925,11 +6925,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>73.18</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
@@ -6941,7 +6941,7 @@
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
-          <t xml:space="preserve">trying to think up sign slogans "Common Decency" "We're not the enemy" "act civilized!" "show respect, get respect" "Where does revenge get you?" "Protest war, not whites" NOT your "MASSA" Keep Kids Safe! Whites for peace Tolerance works BOTH ways Learn NonViolence Safe Schools! Dignity, not Bloodshed! Stop Beating Kids Hands off schoolkids! *Also this could be a real opportunity to pass out info to the blacks about who their REAL masters are (remember the KISS motto with this, lots of pictures, MTV = gangsta rap= black men in prison/unwed mothers=ghettos)
+          <t xml:space="preserve">Thanks for the sarcasm...too many people, especially the liberal left, have lost their sense of humour. All the complaining in the world will not help us, though. What can be changed...can anything be changed? I no longer think so. The system grips us all. The future appears bleak indeed! Oh well.
 </t>
         </is>
       </c>
@@ -6949,11 +6949,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>73.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
@@ -6965,7 +6965,7 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t xml:space="preserve">"The unfortunate aspect of this Jewish Syndicate is that they have been working for some time to undermine Western civilization, Christian values....moral values of any sort really. The Jews have learned, through a sort of collective psychological tacit understanding, that to survive, they must divide the host in which they live, demoralize them, desensitize them, and throw them into moral and social chaos and anarchy." http://www.propaganda101.com/TheJewi...stionFrame.htm And we in Stormfront are even divided by the muslim issue. Why would we hammer arabs for fifty years then allow them into our country? Who gains from that? Long term, guys. Long term!
+          <t xml:space="preserve">Oh boy, I'm in trouble now - I've got TheOldman AND SonoftheMist tag teamin' me - stop the presses! Since WHEN has Snowcone become the official "Defender of the Sons of Judah?" I forgot to order my skull cap from "Jews R Us." All this over my use of the term "The Left" rather than "The Sinister, Dastardly, World-wide Zurg Menace?" Wow, things can sure blow up quick around here. So, I've put a foot in the quicksand - so what? Wanna see me put the OTHER one in too? So unless one bows to the zionist threat philosophy then that person's not fit material for SF? Go back over my old posts and see if I've gone to bat much for the opposing view on this subject - not much comes to MY mind. Mostly what I've REPEATEDLY stated is it doesn't INTEREST me! I didn't pick this fight - I was lectured to. THAT doesn't interest me either. Are you saying that all SF sustaining members should take some kind of anti-zog pledge to even exist in the general SF population? Now I'll listen.
 </t>
         </is>
       </c>
@@ -6973,11 +6973,11 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
-          <t xml:space="preserve">TAMPA — As many as 1,000 jobs — about one-sixth of Hillsborough County government's work force — could be eliminated because of declining property tax revenues, County Administrator Pat Bean said. Hillsborough County is expecting property tax revenues to drop by more than $100 million next year. That's a decline of about 13 percent compared with this year's revenues, which pay for everything from firefighters to dogcatchers... Full article: http://www.tampabay.com/news/article987730.ece
+          <t xml:space="preserve">His position has been that for awhile, that if the Palestinians agree to a solution he will support it. But he knows that this probably will not happen since many Palestinians want all the land that was taken from them and not just half split up with the Jews. He made the exact same statement in the Spiegel interview.
 </t>
         </is>
       </c>
